--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,15 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['18', '43', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+5', '59']</t>
+  </si>
+  <si>
+    <t>['19', '59']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -458,6 +467,12 @@
   </si>
   <si>
     <t>['25', '59']</t>
+  </si>
+  <si>
+    <t>['22', '34']</t>
+  </si>
+  <si>
+    <t>['5', '64', '83']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1093,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1284,7 +1299,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1365,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1490,7 +1505,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1902,7 +1917,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2520,7 +2535,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2598,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2726,7 +2741,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2804,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -3010,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3425,7 +3440,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3756,7 +3771,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3837,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3962,7 +3977,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4168,7 +4183,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4374,7 +4389,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4452,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -4580,7 +4595,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4786,7 +4801,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4867,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>1.33</v>
@@ -5279,7 +5294,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5404,7 +5419,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5610,7 +5625,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6022,7 +6037,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6228,7 +6243,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>2.4</v>
@@ -6846,7 +6861,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7052,7 +7067,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7464,7 +7479,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7542,10 +7557,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -7876,7 +7891,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8082,7 +8097,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8160,10 +8175,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.92</v>
@@ -8288,7 +8303,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8494,7 +8509,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8700,7 +8715,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -8906,7 +8921,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9112,7 +9127,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9524,7 +9539,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9936,7 +9951,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10093,6 +10108,830 @@
       </c>
       <c r="BP45">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7292482</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45411.58333333334</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>120</v>
+      </c>
+      <c r="P46" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q46">
+        <v>2.75</v>
+      </c>
+      <c r="R46">
+        <v>2.05</v>
+      </c>
+      <c r="S46">
+        <v>4.33</v>
+      </c>
+      <c r="T46">
+        <v>1.44</v>
+      </c>
+      <c r="U46">
+        <v>2.63</v>
+      </c>
+      <c r="V46">
+        <v>3.25</v>
+      </c>
+      <c r="W46">
+        <v>1.33</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Y46">
+        <v>1.06</v>
+      </c>
+      <c r="Z46">
+        <v>1.93</v>
+      </c>
+      <c r="AA46">
+        <v>3.1</v>
+      </c>
+      <c r="AB46">
+        <v>3.6</v>
+      </c>
+      <c r="AC46">
+        <v>1.07</v>
+      </c>
+      <c r="AD46">
+        <v>9.5</v>
+      </c>
+      <c r="AE46">
+        <v>1.39</v>
+      </c>
+      <c r="AF46">
+        <v>3.03</v>
+      </c>
+      <c r="AG46">
+        <v>2.2</v>
+      </c>
+      <c r="AH46">
+        <v>1.61</v>
+      </c>
+      <c r="AI46">
+        <v>1.95</v>
+      </c>
+      <c r="AJ46">
+        <v>1.8</v>
+      </c>
+      <c r="AK46">
+        <v>1.32</v>
+      </c>
+      <c r="AL46">
+        <v>1.32</v>
+      </c>
+      <c r="AM46">
+        <v>1.72</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>1.5</v>
+      </c>
+      <c r="AP46">
+        <v>2.33</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.87</v>
+      </c>
+      <c r="AS46">
+        <v>1.24</v>
+      </c>
+      <c r="AT46">
+        <v>3.11</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>2</v>
+      </c>
+      <c r="AW46">
+        <v>6</v>
+      </c>
+      <c r="AX46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>12</v>
+      </c>
+      <c r="AZ46">
+        <v>3</v>
+      </c>
+      <c r="BA46">
+        <v>12</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>12</v>
+      </c>
+      <c r="BD46">
+        <v>1.63</v>
+      </c>
+      <c r="BE46">
+        <v>9.5</v>
+      </c>
+      <c r="BF46">
+        <v>2.67</v>
+      </c>
+      <c r="BG46">
+        <v>1.17</v>
+      </c>
+      <c r="BH46">
+        <v>4.2</v>
+      </c>
+      <c r="BI46">
+        <v>1.35</v>
+      </c>
+      <c r="BJ46">
+        <v>2.84</v>
+      </c>
+      <c r="BK46">
+        <v>1.63</v>
+      </c>
+      <c r="BL46">
+        <v>2.14</v>
+      </c>
+      <c r="BM46">
+        <v>2.06</v>
+      </c>
+      <c r="BN46">
+        <v>1.71</v>
+      </c>
+      <c r="BO46">
+        <v>2.69</v>
+      </c>
+      <c r="BP46">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7292484</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45411.58333333334</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P47" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q47">
+        <v>2.88</v>
+      </c>
+      <c r="R47">
+        <v>2.2</v>
+      </c>
+      <c r="S47">
+        <v>3.5</v>
+      </c>
+      <c r="T47">
+        <v>1.36</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>2.63</v>
+      </c>
+      <c r="W47">
+        <v>1.44</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>1.1</v>
+      </c>
+      <c r="Z47">
+        <v>3.2</v>
+      </c>
+      <c r="AA47">
+        <v>4.77</v>
+      </c>
+      <c r="AB47">
+        <v>1.7</v>
+      </c>
+      <c r="AC47">
+        <v>1.05</v>
+      </c>
+      <c r="AD47">
+        <v>13.25</v>
+      </c>
+      <c r="AE47">
+        <v>1.26</v>
+      </c>
+      <c r="AF47">
+        <v>3.93</v>
+      </c>
+      <c r="AG47">
+        <v>1.77</v>
+      </c>
+      <c r="AH47">
+        <v>1.95</v>
+      </c>
+      <c r="AI47">
+        <v>1.67</v>
+      </c>
+      <c r="AJ47">
+        <v>2.1</v>
+      </c>
+      <c r="AK47">
+        <v>1.4</v>
+      </c>
+      <c r="AL47">
+        <v>1.3</v>
+      </c>
+      <c r="AM47">
+        <v>1.62</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>1.5</v>
+      </c>
+      <c r="AP47">
+        <v>0.67</v>
+      </c>
+      <c r="AQ47">
+        <v>2</v>
+      </c>
+      <c r="AR47">
+        <v>1.52</v>
+      </c>
+      <c r="AS47">
+        <v>1.98</v>
+      </c>
+      <c r="AT47">
+        <v>3.5</v>
+      </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AV47">
+        <v>7</v>
+      </c>
+      <c r="AW47">
+        <v>6</v>
+      </c>
+      <c r="AX47">
+        <v>4</v>
+      </c>
+      <c r="AY47">
+        <v>11</v>
+      </c>
+      <c r="AZ47">
+        <v>11</v>
+      </c>
+      <c r="BA47">
+        <v>7</v>
+      </c>
+      <c r="BB47">
+        <v>4</v>
+      </c>
+      <c r="BC47">
+        <v>11</v>
+      </c>
+      <c r="BD47">
+        <v>2.05</v>
+      </c>
+      <c r="BE47">
+        <v>9.5</v>
+      </c>
+      <c r="BF47">
+        <v>2</v>
+      </c>
+      <c r="BG47">
+        <v>1.11</v>
+      </c>
+      <c r="BH47">
+        <v>5.15</v>
+      </c>
+      <c r="BI47">
+        <v>1.25</v>
+      </c>
+      <c r="BJ47">
+        <v>3.42</v>
+      </c>
+      <c r="BK47">
+        <v>1.46</v>
+      </c>
+      <c r="BL47">
+        <v>2.52</v>
+      </c>
+      <c r="BM47">
+        <v>1.8</v>
+      </c>
+      <c r="BN47">
+        <v>1.95</v>
+      </c>
+      <c r="BO47">
+        <v>2.25</v>
+      </c>
+      <c r="BP47">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7292480</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45411.58333333334</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>121</v>
+      </c>
+      <c r="P48" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q48">
+        <v>2.4</v>
+      </c>
+      <c r="R48">
+        <v>2.3</v>
+      </c>
+      <c r="S48">
+        <v>4.33</v>
+      </c>
+      <c r="T48">
+        <v>1.33</v>
+      </c>
+      <c r="U48">
+        <v>3.25</v>
+      </c>
+      <c r="V48">
+        <v>2.5</v>
+      </c>
+      <c r="W48">
+        <v>1.5</v>
+      </c>
+      <c r="X48">
+        <v>6.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.11</v>
+      </c>
+      <c r="Z48">
+        <v>1.76</v>
+      </c>
+      <c r="AA48">
+        <v>3.6</v>
+      </c>
+      <c r="AB48">
+        <v>3.7</v>
+      </c>
+      <c r="AC48">
+        <v>1.04</v>
+      </c>
+      <c r="AD48">
+        <v>15.25</v>
+      </c>
+      <c r="AE48">
+        <v>1.22</v>
+      </c>
+      <c r="AF48">
+        <v>4.28</v>
+      </c>
+      <c r="AG48">
+        <v>1.69</v>
+      </c>
+      <c r="AH48">
+        <v>2.09</v>
+      </c>
+      <c r="AI48">
+        <v>1.67</v>
+      </c>
+      <c r="AJ48">
+        <v>2.1</v>
+      </c>
+      <c r="AK48">
+        <v>1.25</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.95</v>
+      </c>
+      <c r="AN48">
+        <v>0.5</v>
+      </c>
+      <c r="AO48">
+        <v>1.33</v>
+      </c>
+      <c r="AP48">
+        <v>1.33</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1.73</v>
+      </c>
+      <c r="AS48">
+        <v>1.4</v>
+      </c>
+      <c r="AT48">
+        <v>3.13</v>
+      </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>5</v>
+      </c>
+      <c r="AX48">
+        <v>7</v>
+      </c>
+      <c r="AY48">
+        <v>8</v>
+      </c>
+      <c r="AZ48">
+        <v>12</v>
+      </c>
+      <c r="BA48">
+        <v>9</v>
+      </c>
+      <c r="BB48">
+        <v>5</v>
+      </c>
+      <c r="BC48">
+        <v>14</v>
+      </c>
+      <c r="BD48">
+        <v>1.51</v>
+      </c>
+      <c r="BE48">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF48">
+        <v>3.04</v>
+      </c>
+      <c r="BG48">
+        <v>1.14</v>
+      </c>
+      <c r="BH48">
+        <v>4.7</v>
+      </c>
+      <c r="BI48">
+        <v>1.28</v>
+      </c>
+      <c r="BJ48">
+        <v>3.18</v>
+      </c>
+      <c r="BK48">
+        <v>1.53</v>
+      </c>
+      <c r="BL48">
+        <v>2.33</v>
+      </c>
+      <c r="BM48">
+        <v>1.91</v>
+      </c>
+      <c r="BN48">
+        <v>1.83</v>
+      </c>
+      <c r="BO48">
+        <v>2.44</v>
+      </c>
+      <c r="BP48">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7292478</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45411.59027777778</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>122</v>
+      </c>
+      <c r="P49" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q49">
+        <v>2.3</v>
+      </c>
+      <c r="R49">
+        <v>2.3</v>
+      </c>
+      <c r="S49">
+        <v>4.75</v>
+      </c>
+      <c r="T49">
+        <v>1.33</v>
+      </c>
+      <c r="U49">
+        <v>3.25</v>
+      </c>
+      <c r="V49">
+        <v>2.63</v>
+      </c>
+      <c r="W49">
+        <v>1.44</v>
+      </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
+      <c r="Y49">
+        <v>1.1</v>
+      </c>
+      <c r="Z49">
+        <v>1.62</v>
+      </c>
+      <c r="AA49">
+        <v>3.38</v>
+      </c>
+      <c r="AB49">
+        <v>5.11</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>15</v>
+      </c>
+      <c r="AE49">
+        <v>1.26</v>
+      </c>
+      <c r="AF49">
+        <v>4</v>
+      </c>
+      <c r="AG49">
+        <v>1.77</v>
+      </c>
+      <c r="AH49">
+        <v>1.97</v>
+      </c>
+      <c r="AI49">
+        <v>1.8</v>
+      </c>
+      <c r="AJ49">
+        <v>1.95</v>
+      </c>
+      <c r="AK49">
+        <v>1.2</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>2.15</v>
+      </c>
+      <c r="AN49">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>3</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>1.43</v>
+      </c>
+      <c r="AS49">
+        <v>1.37</v>
+      </c>
+      <c r="AT49">
+        <v>2.8</v>
+      </c>
+      <c r="AU49">
+        <v>6</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>2</v>
+      </c>
+      <c r="AX49">
+        <v>6</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>11</v>
+      </c>
+      <c r="BA49">
+        <v>5</v>
+      </c>
+      <c r="BB49">
+        <v>2</v>
+      </c>
+      <c r="BC49">
+        <v>7</v>
+      </c>
+      <c r="BD49">
+        <v>1.64</v>
+      </c>
+      <c r="BE49">
+        <v>8.5</v>
+      </c>
+      <c r="BF49">
+        <v>2.66</v>
+      </c>
+      <c r="BG49">
+        <v>1.18</v>
+      </c>
+      <c r="BH49">
+        <v>4.6</v>
+      </c>
+      <c r="BI49">
+        <v>1.34</v>
+      </c>
+      <c r="BJ49">
+        <v>3.1</v>
+      </c>
+      <c r="BK49">
+        <v>1.6</v>
+      </c>
+      <c r="BL49">
+        <v>2.25</v>
+      </c>
+      <c r="BM49">
+        <v>2</v>
+      </c>
+      <c r="BN49">
+        <v>1.75</v>
+      </c>
+      <c r="BO49">
+        <v>2.65</v>
+      </c>
+      <c r="BP49">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -10250,22 +10250,22 @@
         <v>3.11</v>
       </c>
       <c r="AU46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX46">
         <v>1</v>
       </c>
       <c r="AY46">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA46">
         <v>12</v>
@@ -10456,22 +10456,22 @@
         <v>3.5</v>
       </c>
       <c r="AU47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV47">
+        <v>11</v>
+      </c>
+      <c r="AW47">
         <v>7</v>
       </c>
-      <c r="AW47">
-        <v>6</v>
-      </c>
       <c r="AX47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY47">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ47">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA47">
         <v>7</v>
@@ -10662,22 +10662,22 @@
         <v>3.13</v>
       </c>
       <c r="AU48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX48">
         <v>7</v>
       </c>
       <c r="AY48">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA48">
         <v>9</v>
@@ -10868,22 +10868,22 @@
         <v>2.8</v>
       </c>
       <c r="AU49">
+        <v>7</v>
+      </c>
+      <c r="AV49">
         <v>6</v>
       </c>
-      <c r="AV49">
-        <v>5</v>
-      </c>
       <c r="AW49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX49">
         <v>6</v>
       </c>
       <c r="AY49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA49">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,12 @@
     <t>['19', '59']</t>
   </si>
   <si>
+    <t>['16', '61', '62', '73', '88']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -473,6 +479,15 @@
   </si>
   <si>
     <t>['5', '64', '83']</t>
+  </si>
+  <si>
+    <t>['24', '35']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['6', '17', '27']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1108,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1299,7 +1314,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1505,7 +1520,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1586,7 +1601,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1917,7 +1932,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2201,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
         <v>1.5</v>
-      </c>
-      <c r="AQ7">
-        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2535,7 +2550,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2741,7 +2756,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3025,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3771,7 +3786,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3849,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -3977,7 +3992,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4183,7 +4198,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4264,7 +4279,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4389,7 +4404,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4467,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -4595,7 +4610,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4676,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.04</v>
@@ -4801,7 +4816,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4879,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -5419,7 +5434,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5625,7 +5640,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -5706,7 +5721,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6037,7 +6052,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6115,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6243,7 +6258,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>2.4</v>
@@ -6861,7 +6876,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7067,7 +7082,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7148,7 +7163,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>0.76</v>
@@ -7479,7 +7494,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7891,7 +7906,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7972,7 +7987,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8097,7 +8112,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8303,7 +8318,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8509,7 +8524,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8715,7 +8730,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -8921,7 +8936,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -8999,7 +9014,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -9127,7 +9142,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9539,7 +9554,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9620,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>0.88</v>
@@ -9951,7 +9966,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10157,7 +10172,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10235,7 +10250,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10363,7 +10378,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10932,6 +10947,624 @@
       </c>
       <c r="BP49">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7292490</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>7</v>
+      </c>
+      <c r="O50" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q50">
+        <v>2.63</v>
+      </c>
+      <c r="R50">
+        <v>2.1</v>
+      </c>
+      <c r="S50">
+        <v>4.25</v>
+      </c>
+      <c r="T50">
+        <v>1.38</v>
+      </c>
+      <c r="U50">
+        <v>2.8</v>
+      </c>
+      <c r="V50">
+        <v>3.1</v>
+      </c>
+      <c r="W50">
+        <v>1.33</v>
+      </c>
+      <c r="X50">
+        <v>8.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.06</v>
+      </c>
+      <c r="Z50">
+        <v>1.91</v>
+      </c>
+      <c r="AA50">
+        <v>3.2</v>
+      </c>
+      <c r="AB50">
+        <v>3.5</v>
+      </c>
+      <c r="AC50">
+        <v>1.07</v>
+      </c>
+      <c r="AD50">
+        <v>9.75</v>
+      </c>
+      <c r="AE50">
+        <v>1.36</v>
+      </c>
+      <c r="AF50">
+        <v>3.18</v>
+      </c>
+      <c r="AG50">
+        <v>2.05</v>
+      </c>
+      <c r="AH50">
+        <v>1.7</v>
+      </c>
+      <c r="AI50">
+        <v>1.87</v>
+      </c>
+      <c r="AJ50">
+        <v>1.89</v>
+      </c>
+      <c r="AK50">
+        <v>1.26</v>
+      </c>
+      <c r="AL50">
+        <v>1.3</v>
+      </c>
+      <c r="AM50">
+        <v>1.8</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>0.75</v>
+      </c>
+      <c r="AQ50">
+        <v>1.5</v>
+      </c>
+      <c r="AR50">
+        <v>1.18</v>
+      </c>
+      <c r="AS50">
+        <v>0.83</v>
+      </c>
+      <c r="AT50">
+        <v>2.01</v>
+      </c>
+      <c r="AU50">
+        <v>2</v>
+      </c>
+      <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>8</v>
+      </c>
+      <c r="AX50">
+        <v>6</v>
+      </c>
+      <c r="AY50">
+        <v>10</v>
+      </c>
+      <c r="AZ50">
+        <v>10</v>
+      </c>
+      <c r="BA50">
+        <v>4</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>8</v>
+      </c>
+      <c r="BD50">
+        <v>1.66</v>
+      </c>
+      <c r="BE50">
+        <v>9.5</v>
+      </c>
+      <c r="BF50">
+        <v>2.64</v>
+      </c>
+      <c r="BG50">
+        <v>1.16</v>
+      </c>
+      <c r="BH50">
+        <v>4.33</v>
+      </c>
+      <c r="BI50">
+        <v>1.33</v>
+      </c>
+      <c r="BJ50">
+        <v>2.93</v>
+      </c>
+      <c r="BK50">
+        <v>1.6</v>
+      </c>
+      <c r="BL50">
+        <v>2.19</v>
+      </c>
+      <c r="BM50">
+        <v>2.01</v>
+      </c>
+      <c r="BN50">
+        <v>1.75</v>
+      </c>
+      <c r="BO50">
+        <v>2.58</v>
+      </c>
+      <c r="BP50">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7292491</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>124</v>
+      </c>
+      <c r="P51" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q51">
+        <v>2.9</v>
+      </c>
+      <c r="R51">
+        <v>2.08</v>
+      </c>
+      <c r="S51">
+        <v>3.7</v>
+      </c>
+      <c r="T51">
+        <v>1.38</v>
+      </c>
+      <c r="U51">
+        <v>2.9</v>
+      </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>1.35</v>
+      </c>
+      <c r="X51">
+        <v>8</v>
+      </c>
+      <c r="Y51">
+        <v>1.07</v>
+      </c>
+      <c r="Z51">
+        <v>2.2</v>
+      </c>
+      <c r="AA51">
+        <v>3.1</v>
+      </c>
+      <c r="AB51">
+        <v>2.9</v>
+      </c>
+      <c r="AC51">
+        <v>1.06</v>
+      </c>
+      <c r="AD51">
+        <v>11</v>
+      </c>
+      <c r="AE51">
+        <v>1.31</v>
+      </c>
+      <c r="AF51">
+        <v>3.52</v>
+      </c>
+      <c r="AG51">
+        <v>1.91</v>
+      </c>
+      <c r="AH51">
+        <v>1.8</v>
+      </c>
+      <c r="AI51">
+        <v>1.76</v>
+      </c>
+      <c r="AJ51">
+        <v>2.02</v>
+      </c>
+      <c r="AK51">
+        <v>1.35</v>
+      </c>
+      <c r="AL51">
+        <v>1.32</v>
+      </c>
+      <c r="AM51">
+        <v>1.61</v>
+      </c>
+      <c r="AN51">
+        <v>2.33</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <v>1.75</v>
+      </c>
+      <c r="AR51">
+        <v>1.67</v>
+      </c>
+      <c r="AS51">
+        <v>1.91</v>
+      </c>
+      <c r="AT51">
+        <v>3.58</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>11</v>
+      </c>
+      <c r="AX51">
+        <v>9</v>
+      </c>
+      <c r="AY51">
+        <v>15</v>
+      </c>
+      <c r="AZ51">
+        <v>12</v>
+      </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BB51">
+        <v>4</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BD51">
+        <v>1.79</v>
+      </c>
+      <c r="BE51">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF51">
+        <v>2.38</v>
+      </c>
+      <c r="BG51">
+        <v>1.14</v>
+      </c>
+      <c r="BH51">
+        <v>4.55</v>
+      </c>
+      <c r="BI51">
+        <v>1.3</v>
+      </c>
+      <c r="BJ51">
+        <v>3.08</v>
+      </c>
+      <c r="BK51">
+        <v>1.55</v>
+      </c>
+      <c r="BL51">
+        <v>2.29</v>
+      </c>
+      <c r="BM51">
+        <v>1.98</v>
+      </c>
+      <c r="BN51">
+        <v>1.82</v>
+      </c>
+      <c r="BO51">
+        <v>2.49</v>
+      </c>
+      <c r="BP51">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7292489</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45416.52083333334</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q52">
+        <v>2.88</v>
+      </c>
+      <c r="R52">
+        <v>2.38</v>
+      </c>
+      <c r="S52">
+        <v>3.1</v>
+      </c>
+      <c r="T52">
+        <v>1.22</v>
+      </c>
+      <c r="U52">
+        <v>3.95</v>
+      </c>
+      <c r="V52">
+        <v>2.16</v>
+      </c>
+      <c r="W52">
+        <v>1.63</v>
+      </c>
+      <c r="X52">
+        <v>5.1</v>
+      </c>
+      <c r="Y52">
+        <v>1.15</v>
+      </c>
+      <c r="Z52">
+        <v>2.35</v>
+      </c>
+      <c r="AA52">
+        <v>3.5</v>
+      </c>
+      <c r="AB52">
+        <v>2.6</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>21</v>
+      </c>
+      <c r="AE52">
+        <v>1.15</v>
+      </c>
+      <c r="AF52">
+        <v>5.5</v>
+      </c>
+      <c r="AG52">
+        <v>1.43</v>
+      </c>
+      <c r="AH52">
+        <v>2.55</v>
+      </c>
+      <c r="AI52">
+        <v>1.38</v>
+      </c>
+      <c r="AJ52">
+        <v>2.95</v>
+      </c>
+      <c r="AK52">
+        <v>1.46</v>
+      </c>
+      <c r="AL52">
+        <v>1.28</v>
+      </c>
+      <c r="AM52">
+        <v>1.54</v>
+      </c>
+      <c r="AN52">
+        <v>1.5</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>2.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.61</v>
+      </c>
+      <c r="AS52">
+        <v>1.15</v>
+      </c>
+      <c r="AT52">
+        <v>2.76</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>10</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>14</v>
+      </c>
+      <c r="AZ52">
+        <v>10</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>8</v>
+      </c>
+      <c r="BD52">
+        <v>1.89</v>
+      </c>
+      <c r="BE52">
+        <v>9.5</v>
+      </c>
+      <c r="BF52">
+        <v>2.18</v>
+      </c>
+      <c r="BG52">
+        <v>1.1</v>
+      </c>
+      <c r="BH52">
+        <v>5.4</v>
+      </c>
+      <c r="BI52">
+        <v>1.23</v>
+      </c>
+      <c r="BJ52">
+        <v>3.56</v>
+      </c>
+      <c r="BK52">
+        <v>1.44</v>
+      </c>
+      <c r="BL52">
+        <v>2.58</v>
+      </c>
+      <c r="BM52">
+        <v>1.76</v>
+      </c>
+      <c r="BN52">
+        <v>2</v>
+      </c>
+      <c r="BO52">
+        <v>2.19</v>
+      </c>
+      <c r="BP52">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,9 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['34', '63', '74']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -488,6 +491,9 @@
   </si>
   <si>
     <t>['6', '17', '27']</t>
+  </si>
+  <si>
+    <t>['31', '54']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1114,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1189,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1314,7 +1320,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1520,7 +1526,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1932,7 +1938,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2013,7 +2019,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2550,7 +2556,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2628,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2756,7 +2762,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3658,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3786,7 +3792,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3992,7 +3998,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4198,7 +4204,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4404,7 +4410,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4610,7 +4616,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4688,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -4816,7 +4822,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5434,7 +5440,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5515,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR23">
         <v>1.23</v>
@@ -5640,7 +5646,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6052,7 +6058,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6258,7 +6264,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>2.4</v>
@@ -6751,7 +6757,7 @@
         <v>3</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.2</v>
@@ -6876,7 +6882,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7082,7 +7088,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7494,7 +7500,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7572,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7906,7 +7912,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8112,7 +8118,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8318,7 +8324,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8399,7 +8405,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR37">
         <v>1.74</v>
@@ -8524,7 +8530,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8730,7 +8736,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -8936,7 +8942,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9142,7 +9148,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9220,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9554,7 +9560,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9966,7 +9972,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10172,7 +10178,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10378,7 +10384,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10662,7 +10668,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10996,7 +11002,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11089,19 +11095,19 @@
         <v>2.01</v>
       </c>
       <c r="AU50">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY50">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
         <v>10</v>
@@ -11202,7 +11208,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11295,31 +11301,31 @@
         <v>3.58</v>
       </c>
       <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
         <v>4</v>
       </c>
-      <c r="AV51">
-        <v>3</v>
-      </c>
       <c r="AW51">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX51">
         <v>9</v>
       </c>
       <c r="AY51">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA51">
         <v>4</v>
       </c>
       <c r="BB51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD51">
         <v>1.79</v>
@@ -11408,7 +11414,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11501,19 +11507,19 @@
         <v>2.76</v>
       </c>
       <c r="AU52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV52">
         <v>5</v>
       </c>
       <c r="AW52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX52">
         <v>5</v>
       </c>
       <c r="AY52">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ52">
         <v>10</v>
@@ -11565,6 +11571,418 @@
       </c>
       <c r="BP52">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7292487</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45417.375</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>125</v>
+      </c>
+      <c r="P53" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q53">
+        <v>4.4</v>
+      </c>
+      <c r="R53">
+        <v>2.3</v>
+      </c>
+      <c r="S53">
+        <v>2.28</v>
+      </c>
+      <c r="T53">
+        <v>1.3</v>
+      </c>
+      <c r="U53">
+        <v>3.25</v>
+      </c>
+      <c r="V53">
+        <v>2.7</v>
+      </c>
+      <c r="W53">
+        <v>1.45</v>
+      </c>
+      <c r="X53">
+        <v>6.75</v>
+      </c>
+      <c r="Y53">
+        <v>1.09</v>
+      </c>
+      <c r="Z53">
+        <v>4.07</v>
+      </c>
+      <c r="AA53">
+        <v>3.6</v>
+      </c>
+      <c r="AB53">
+        <v>1.78</v>
+      </c>
+      <c r="AC53">
+        <v>1.04</v>
+      </c>
+      <c r="AD53">
+        <v>13.75</v>
+      </c>
+      <c r="AE53">
+        <v>1.24</v>
+      </c>
+      <c r="AF53">
+        <v>4.17</v>
+      </c>
+      <c r="AG53">
+        <v>1.75</v>
+      </c>
+      <c r="AH53">
+        <v>1.96</v>
+      </c>
+      <c r="AI53">
+        <v>1.73</v>
+      </c>
+      <c r="AJ53">
+        <v>2.06</v>
+      </c>
+      <c r="AK53">
+        <v>2.05</v>
+      </c>
+      <c r="AL53">
+        <v>1.25</v>
+      </c>
+      <c r="AM53">
+        <v>1.21</v>
+      </c>
+      <c r="AN53">
+        <v>1.33</v>
+      </c>
+      <c r="AO53">
+        <v>3</v>
+      </c>
+      <c r="AP53">
+        <v>1.75</v>
+      </c>
+      <c r="AQ53">
+        <v>2.25</v>
+      </c>
+      <c r="AR53">
+        <v>1.61</v>
+      </c>
+      <c r="AS53">
+        <v>1.73</v>
+      </c>
+      <c r="AT53">
+        <v>3.34</v>
+      </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>1</v>
+      </c>
+      <c r="AX53">
+        <v>3</v>
+      </c>
+      <c r="AY53">
+        <v>6</v>
+      </c>
+      <c r="AZ53">
+        <v>8</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>8</v>
+      </c>
+      <c r="BC53">
+        <v>12</v>
+      </c>
+      <c r="BD53">
+        <v>3.14</v>
+      </c>
+      <c r="BE53">
+        <v>9</v>
+      </c>
+      <c r="BF53">
+        <v>1.51</v>
+      </c>
+      <c r="BG53">
+        <v>1.14</v>
+      </c>
+      <c r="BH53">
+        <v>4.65</v>
+      </c>
+      <c r="BI53">
+        <v>1.29</v>
+      </c>
+      <c r="BJ53">
+        <v>3.45</v>
+      </c>
+      <c r="BK53">
+        <v>1.55</v>
+      </c>
+      <c r="BL53">
+        <v>2.4</v>
+      </c>
+      <c r="BM53">
+        <v>1.88</v>
+      </c>
+      <c r="BN53">
+        <v>1.92</v>
+      </c>
+      <c r="BO53">
+        <v>2.3</v>
+      </c>
+      <c r="BP53">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7292492</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45417.375</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P54" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q54">
+        <v>3.6</v>
+      </c>
+      <c r="R54">
+        <v>2.18</v>
+      </c>
+      <c r="S54">
+        <v>2.8</v>
+      </c>
+      <c r="T54">
+        <v>1.32</v>
+      </c>
+      <c r="U54">
+        <v>3.15</v>
+      </c>
+      <c r="V54">
+        <v>2.7</v>
+      </c>
+      <c r="W54">
+        <v>1.42</v>
+      </c>
+      <c r="X54">
+        <v>7</v>
+      </c>
+      <c r="Y54">
+        <v>1.09</v>
+      </c>
+      <c r="Z54">
+        <v>2.87</v>
+      </c>
+      <c r="AA54">
+        <v>3.35</v>
+      </c>
+      <c r="AB54">
+        <v>2.28</v>
+      </c>
+      <c r="AC54">
+        <v>1.04</v>
+      </c>
+      <c r="AD54">
+        <v>12</v>
+      </c>
+      <c r="AE54">
+        <v>1.28</v>
+      </c>
+      <c r="AF54">
+        <v>3.75</v>
+      </c>
+      <c r="AG54">
+        <v>1.76</v>
+      </c>
+      <c r="AH54">
+        <v>1.95</v>
+      </c>
+      <c r="AI54">
+        <v>1.62</v>
+      </c>
+      <c r="AJ54">
+        <v>2.23</v>
+      </c>
+      <c r="AK54">
+        <v>1.63</v>
+      </c>
+      <c r="AL54">
+        <v>1.3</v>
+      </c>
+      <c r="AM54">
+        <v>1.35</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>1.5</v>
+      </c>
+      <c r="AP54">
+        <v>0.75</v>
+      </c>
+      <c r="AQ54">
+        <v>2</v>
+      </c>
+      <c r="AR54">
+        <v>1.47</v>
+      </c>
+      <c r="AS54">
+        <v>1.81</v>
+      </c>
+      <c r="AT54">
+        <v>3.28</v>
+      </c>
+      <c r="AU54">
+        <v>8</v>
+      </c>
+      <c r="AV54">
+        <v>8</v>
+      </c>
+      <c r="AW54">
+        <v>7</v>
+      </c>
+      <c r="AX54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>15</v>
+      </c>
+      <c r="AZ54">
+        <v>9</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>2</v>
+      </c>
+      <c r="BC54">
+        <v>8</v>
+      </c>
+      <c r="BD54">
+        <v>2</v>
+      </c>
+      <c r="BE54">
+        <v>8</v>
+      </c>
+      <c r="BF54">
+        <v>2.05</v>
+      </c>
+      <c r="BG54">
+        <v>1.2</v>
+      </c>
+      <c r="BH54">
+        <v>3.84</v>
+      </c>
+      <c r="BI54">
+        <v>1.41</v>
+      </c>
+      <c r="BJ54">
+        <v>2.69</v>
+      </c>
+      <c r="BK54">
+        <v>1.73</v>
+      </c>
+      <c r="BL54">
+        <v>2.04</v>
+      </c>
+      <c r="BM54">
+        <v>2.17</v>
+      </c>
+      <c r="BN54">
+        <v>1.61</v>
+      </c>
+      <c r="BO54">
+        <v>2.84</v>
+      </c>
+      <c r="BP54">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,12 @@
     <t>['34', '63', '74']</t>
   </si>
   <si>
+    <t>['15', '37', '45+1', '69', '76', '85']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -494,6 +500,12 @@
   </si>
   <si>
     <t>['31', '54']</t>
+  </si>
+  <si>
+    <t>['48', '52']</t>
+  </si>
+  <si>
+    <t>['49', '68']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1126,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1320,7 +1332,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1398,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1526,7 +1538,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1938,7 +1950,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2556,7 +2568,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2637,7 +2649,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2762,7 +2774,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3049,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3792,7 +3804,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3998,7 +4010,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4204,7 +4216,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4410,7 +4422,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4616,7 +4628,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4822,7 +4834,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5440,7 +5452,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5646,7 +5658,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -5930,7 +5942,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6058,7 +6070,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6139,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6264,7 +6276,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>2.4</v>
@@ -6345,7 +6357,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0.78</v>
@@ -6882,7 +6894,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7088,7 +7100,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7500,7 +7512,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7787,7 +7799,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.09</v>
@@ -7912,7 +7924,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8118,7 +8130,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8324,7 +8336,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8530,7 +8542,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8736,7 +8748,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -8942,7 +8954,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9148,7 +9160,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9560,7 +9572,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9972,7 +9984,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10053,7 +10065,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10178,7 +10190,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10384,7 +10396,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10874,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49">
         <v>0</v>
@@ -11002,7 +11014,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11208,7 +11220,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11414,7 +11426,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11507,10 +11519,10 @@
         <v>2.76</v>
       </c>
       <c r="AU52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW52">
         <v>11</v>
@@ -11519,10 +11531,10 @@
         <v>5</v>
       </c>
       <c r="AY52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA52">
         <v>4</v>
@@ -11620,7 +11632,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11713,19 +11725,19 @@
         <v>3.34</v>
       </c>
       <c r="AU53">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV53">
         <v>5</v>
       </c>
       <c r="AW53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX53">
         <v>3</v>
       </c>
       <c r="AY53">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ53">
         <v>8</v>
@@ -11826,7 +11838,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -11983,6 +11995,418 @@
       </c>
       <c r="BP54">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7292485</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45417.47916666666</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>8</v>
+      </c>
+      <c r="O55" t="s">
+        <v>126</v>
+      </c>
+      <c r="P55" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q55">
+        <v>2.2</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>4.75</v>
+      </c>
+      <c r="T55">
+        <v>1.35</v>
+      </c>
+      <c r="U55">
+        <v>2.95</v>
+      </c>
+      <c r="V55">
+        <v>2.55</v>
+      </c>
+      <c r="W55">
+        <v>1.45</v>
+      </c>
+      <c r="X55">
+        <v>6.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.09</v>
+      </c>
+      <c r="Z55">
+        <v>1.66</v>
+      </c>
+      <c r="AA55">
+        <v>3.7</v>
+      </c>
+      <c r="AB55">
+        <v>4.8</v>
+      </c>
+      <c r="AC55">
+        <v>1.05</v>
+      </c>
+      <c r="AD55">
+        <v>10</v>
+      </c>
+      <c r="AE55">
+        <v>1.28</v>
+      </c>
+      <c r="AF55">
+        <v>3.8</v>
+      </c>
+      <c r="AG55">
+        <v>1.82</v>
+      </c>
+      <c r="AH55">
+        <v>2.04</v>
+      </c>
+      <c r="AI55">
+        <v>1.73</v>
+      </c>
+      <c r="AJ55">
+        <v>1.95</v>
+      </c>
+      <c r="AK55">
+        <v>1.17</v>
+      </c>
+      <c r="AL55">
+        <v>1.22</v>
+      </c>
+      <c r="AM55">
+        <v>2.15</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>1.33</v>
+      </c>
+      <c r="AP55">
+        <v>3</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1.19</v>
+      </c>
+      <c r="AS55">
+        <v>1.15</v>
+      </c>
+      <c r="AT55">
+        <v>2.34</v>
+      </c>
+      <c r="AU55">
+        <v>11</v>
+      </c>
+      <c r="AV55">
+        <v>7</v>
+      </c>
+      <c r="AW55">
+        <v>4</v>
+      </c>
+      <c r="AX55">
+        <v>2</v>
+      </c>
+      <c r="AY55">
+        <v>15</v>
+      </c>
+      <c r="AZ55">
+        <v>9</v>
+      </c>
+      <c r="BA55">
+        <v>2</v>
+      </c>
+      <c r="BB55">
+        <v>3</v>
+      </c>
+      <c r="BC55">
+        <v>5</v>
+      </c>
+      <c r="BD55">
+        <v>1.51</v>
+      </c>
+      <c r="BE55">
+        <v>8.5</v>
+      </c>
+      <c r="BF55">
+        <v>3.16</v>
+      </c>
+      <c r="BG55">
+        <v>1.17</v>
+      </c>
+      <c r="BH55">
+        <v>4.25</v>
+      </c>
+      <c r="BI55">
+        <v>1.34</v>
+      </c>
+      <c r="BJ55">
+        <v>2.88</v>
+      </c>
+      <c r="BK55">
+        <v>1.8</v>
+      </c>
+      <c r="BL55">
+        <v>2</v>
+      </c>
+      <c r="BM55">
+        <v>2.04</v>
+      </c>
+      <c r="BN55">
+        <v>1.76</v>
+      </c>
+      <c r="BO55">
+        <v>2.44</v>
+      </c>
+      <c r="BP55">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7292486</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45417.47916666666</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>127</v>
+      </c>
+      <c r="P56" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q56">
+        <v>1.98</v>
+      </c>
+      <c r="R56">
+        <v>2.48</v>
+      </c>
+      <c r="S56">
+        <v>5.3</v>
+      </c>
+      <c r="T56">
+        <v>1.27</v>
+      </c>
+      <c r="U56">
+        <v>3.5</v>
+      </c>
+      <c r="V56">
+        <v>2.48</v>
+      </c>
+      <c r="W56">
+        <v>1.49</v>
+      </c>
+      <c r="X56">
+        <v>6.1</v>
+      </c>
+      <c r="Y56">
+        <v>1.11</v>
+      </c>
+      <c r="Z56">
+        <v>1.5</v>
+      </c>
+      <c r="AA56">
+        <v>4.2</v>
+      </c>
+      <c r="AB56">
+        <v>5.7</v>
+      </c>
+      <c r="AC56">
+        <v>1.03</v>
+      </c>
+      <c r="AD56">
+        <v>15</v>
+      </c>
+      <c r="AE56">
+        <v>1.22</v>
+      </c>
+      <c r="AF56">
+        <v>4.33</v>
+      </c>
+      <c r="AG56">
+        <v>1.65</v>
+      </c>
+      <c r="AH56">
+        <v>2.1</v>
+      </c>
+      <c r="AI56">
+        <v>1.77</v>
+      </c>
+      <c r="AJ56">
+        <v>2</v>
+      </c>
+      <c r="AK56">
+        <v>1.13</v>
+      </c>
+      <c r="AL56">
+        <v>1.2</v>
+      </c>
+      <c r="AM56">
+        <v>2.55</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>1.33</v>
+      </c>
+      <c r="AP56">
+        <v>2.25</v>
+      </c>
+      <c r="AQ56">
+        <v>1.75</v>
+      </c>
+      <c r="AR56">
+        <v>1.45</v>
+      </c>
+      <c r="AS56">
+        <v>1.03</v>
+      </c>
+      <c r="AT56">
+        <v>2.48</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>10</v>
+      </c>
+      <c r="AW56">
+        <v>7</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>12</v>
+      </c>
+      <c r="AZ56">
+        <v>16</v>
+      </c>
+      <c r="BA56">
+        <v>9</v>
+      </c>
+      <c r="BB56">
+        <v>6</v>
+      </c>
+      <c r="BC56">
+        <v>15</v>
+      </c>
+      <c r="BD56">
+        <v>1.41</v>
+      </c>
+      <c r="BE56">
+        <v>9</v>
+      </c>
+      <c r="BF56">
+        <v>3.58</v>
+      </c>
+      <c r="BG56">
+        <v>1.17</v>
+      </c>
+      <c r="BH56">
+        <v>4.15</v>
+      </c>
+      <c r="BI56">
+        <v>1.35</v>
+      </c>
+      <c r="BJ56">
+        <v>2.84</v>
+      </c>
+      <c r="BK56">
+        <v>1.85</v>
+      </c>
+      <c r="BL56">
+        <v>1.95</v>
+      </c>
+      <c r="BM56">
+        <v>2.03</v>
+      </c>
+      <c r="BN56">
+        <v>1.79</v>
+      </c>
+      <c r="BO56">
+        <v>2.69</v>
+      </c>
+      <c r="BP56">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,9 @@
     <t>['64']</t>
   </si>
   <si>
+    <t>['33', '76']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -506,6 +509,9 @@
   </si>
   <si>
     <t>['49', '68']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1332,7 +1338,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1538,7 +1544,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1616,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -1950,7 +1956,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2568,7 +2574,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2774,7 +2780,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3473,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3804,7 +3810,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4010,7 +4016,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4216,7 +4222,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4422,7 +4428,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4628,7 +4634,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4834,7 +4840,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4915,7 +4921,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.33</v>
@@ -5452,7 +5458,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5658,7 +5664,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6070,7 +6076,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6276,7 +6282,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>2.4</v>
@@ -6894,7 +6900,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -6972,7 +6978,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7100,7 +7106,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7512,7 +7518,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7924,7 +7930,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8130,7 +8136,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8336,7 +8342,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8542,7 +8548,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8748,7 +8754,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -8954,7 +8960,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9160,7 +9166,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9572,7 +9578,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9984,7 +9990,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10190,7 +10196,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10396,7 +10402,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10477,7 +10483,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -11014,7 +11020,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11220,7 +11226,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11426,7 +11432,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11632,7 +11638,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11838,7 +11844,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12044,7 +12050,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12250,7 +12256,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12407,6 +12413,212 @@
       </c>
       <c r="BP56">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7292488</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45418.59027777778</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>128</v>
+      </c>
+      <c r="P57" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q57">
+        <v>3.55</v>
+      </c>
+      <c r="R57">
+        <v>2.08</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+      <c r="T57">
+        <v>1.38</v>
+      </c>
+      <c r="U57">
+        <v>2.85</v>
+      </c>
+      <c r="V57">
+        <v>3</v>
+      </c>
+      <c r="W57">
+        <v>1.35</v>
+      </c>
+      <c r="X57">
+        <v>8</v>
+      </c>
+      <c r="Y57">
+        <v>1.07</v>
+      </c>
+      <c r="Z57">
+        <v>2.8</v>
+      </c>
+      <c r="AA57">
+        <v>3.15</v>
+      </c>
+      <c r="AB57">
+        <v>2.27</v>
+      </c>
+      <c r="AC57">
+        <v>1.06</v>
+      </c>
+      <c r="AD57">
+        <v>7.2</v>
+      </c>
+      <c r="AE57">
+        <v>1.27</v>
+      </c>
+      <c r="AF57">
+        <v>3.4</v>
+      </c>
+      <c r="AG57">
+        <v>1.88</v>
+      </c>
+      <c r="AH57">
+        <v>1.83</v>
+      </c>
+      <c r="AI57">
+        <v>1.74</v>
+      </c>
+      <c r="AJ57">
+        <v>2.04</v>
+      </c>
+      <c r="AK57">
+        <v>1.57</v>
+      </c>
+      <c r="AL57">
+        <v>1.33</v>
+      </c>
+      <c r="AM57">
+        <v>1.38</v>
+      </c>
+      <c r="AN57">
+        <v>1.5</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>1.5</v>
+      </c>
+      <c r="AR57">
+        <v>1.42</v>
+      </c>
+      <c r="AS57">
+        <v>1.98</v>
+      </c>
+      <c r="AT57">
+        <v>3.4</v>
+      </c>
+      <c r="AU57">
+        <v>4</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>9</v>
+      </c>
+      <c r="AX57">
+        <v>10</v>
+      </c>
+      <c r="AY57">
+        <v>13</v>
+      </c>
+      <c r="AZ57">
+        <v>13</v>
+      </c>
+      <c r="BA57">
+        <v>5</v>
+      </c>
+      <c r="BB57">
+        <v>2</v>
+      </c>
+      <c r="BC57">
+        <v>7</v>
+      </c>
+      <c r="BD57">
+        <v>1.95</v>
+      </c>
+      <c r="BE57">
+        <v>9.6</v>
+      </c>
+      <c r="BF57">
+        <v>2.1</v>
+      </c>
+      <c r="BG57">
+        <v>1.1</v>
+      </c>
+      <c r="BH57">
+        <v>5.4</v>
+      </c>
+      <c r="BI57">
+        <v>1.23</v>
+      </c>
+      <c r="BJ57">
+        <v>3.56</v>
+      </c>
+      <c r="BK57">
+        <v>1.44</v>
+      </c>
+      <c r="BL57">
+        <v>2.58</v>
+      </c>
+      <c r="BM57">
+        <v>1.76</v>
+      </c>
+      <c r="BN57">
+        <v>2</v>
+      </c>
+      <c r="BO57">
+        <v>2.19</v>
+      </c>
+      <c r="BP57">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,15 @@
     <t>['33', '76']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['4', '41']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -512,6 +521,12 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['25', '53', '63']</t>
+  </si>
+  <si>
+    <t>['7', '14', '37']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1147,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1338,7 +1353,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1544,7 +1559,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1622,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -1831,7 +1846,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1956,7 +1971,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2446,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2574,7 +2589,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2780,7 +2795,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3476,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3810,7 +3825,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3891,7 +3906,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4016,7 +4031,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4222,7 +4237,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4428,7 +4443,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4634,7 +4649,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4840,7 +4855,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5333,7 +5348,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5458,7 +5473,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5664,7 +5679,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6076,7 +6091,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6282,7 +6297,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>2.4</v>
@@ -6772,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -6900,7 +6915,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -6978,10 +6993,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7106,7 +7121,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7184,7 +7199,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7518,7 +7533,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7802,7 +7817,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -7930,7 +7945,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8136,7 +8151,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8217,7 +8232,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.92</v>
@@ -8342,7 +8357,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8548,7 +8563,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8754,7 +8769,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -8832,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -8960,7 +8975,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9166,7 +9181,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9247,7 +9262,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.61</v>
@@ -9578,7 +9593,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9990,7 +10005,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10196,7 +10211,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10402,7 +10417,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10689,7 +10704,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR48">
         <v>1.73</v>
@@ -11020,7 +11035,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11226,7 +11241,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11432,7 +11447,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11638,7 +11653,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11844,7 +11859,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12050,7 +12065,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12128,7 +12143,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12256,7 +12271,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12462,7 +12477,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12540,7 +12555,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -12619,6 +12634,624 @@
       </c>
       <c r="BP57">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7292493</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>129</v>
+      </c>
+      <c r="P58" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q58">
+        <v>2.23</v>
+      </c>
+      <c r="R58">
+        <v>2.28</v>
+      </c>
+      <c r="S58">
+        <v>4.7</v>
+      </c>
+      <c r="T58">
+        <v>1.33</v>
+      </c>
+      <c r="U58">
+        <v>3.2</v>
+      </c>
+      <c r="V58">
+        <v>2.75</v>
+      </c>
+      <c r="W58">
+        <v>1.43</v>
+      </c>
+      <c r="X58">
+        <v>7</v>
+      </c>
+      <c r="Y58">
+        <v>1.09</v>
+      </c>
+      <c r="Z58">
+        <v>1.67</v>
+      </c>
+      <c r="AA58">
+        <v>3.5</v>
+      </c>
+      <c r="AB58">
+        <v>4.33</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.25</v>
+      </c>
+      <c r="AF58">
+        <v>3.85</v>
+      </c>
+      <c r="AG58">
+        <v>1.8</v>
+      </c>
+      <c r="AH58">
+        <v>1.91</v>
+      </c>
+      <c r="AI58">
+        <v>1.78</v>
+      </c>
+      <c r="AJ58">
+        <v>1.98</v>
+      </c>
+      <c r="AK58">
+        <v>1.18</v>
+      </c>
+      <c r="AL58">
+        <v>1.25</v>
+      </c>
+      <c r="AM58">
+        <v>2.12</v>
+      </c>
+      <c r="AN58">
+        <v>3</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>2.4</v>
+      </c>
+      <c r="AQ58">
+        <v>1.4</v>
+      </c>
+      <c r="AR58">
+        <v>1.42</v>
+      </c>
+      <c r="AS58">
+        <v>1.39</v>
+      </c>
+      <c r="AT58">
+        <v>2.81</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>10</v>
+      </c>
+      <c r="AX58">
+        <v>2</v>
+      </c>
+      <c r="AY58">
+        <v>16</v>
+      </c>
+      <c r="AZ58">
+        <v>8</v>
+      </c>
+      <c r="BA58">
+        <v>11</v>
+      </c>
+      <c r="BB58">
+        <v>2</v>
+      </c>
+      <c r="BC58">
+        <v>13</v>
+      </c>
+      <c r="BD58">
+        <v>1.55</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.91</v>
+      </c>
+      <c r="BG58">
+        <v>1.17</v>
+      </c>
+      <c r="BH58">
+        <v>4.2</v>
+      </c>
+      <c r="BI58">
+        <v>1.35</v>
+      </c>
+      <c r="BJ58">
+        <v>2.84</v>
+      </c>
+      <c r="BK58">
+        <v>1.68</v>
+      </c>
+      <c r="BL58">
+        <v>2.17</v>
+      </c>
+      <c r="BM58">
+        <v>2.07</v>
+      </c>
+      <c r="BN58">
+        <v>1.75</v>
+      </c>
+      <c r="BO58">
+        <v>2.69</v>
+      </c>
+      <c r="BP58">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7292499</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>130</v>
+      </c>
+      <c r="P59" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59">
+        <v>3.6</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>3.1</v>
+      </c>
+      <c r="T59">
+        <v>1.48</v>
+      </c>
+      <c r="U59">
+        <v>2.5</v>
+      </c>
+      <c r="V59">
+        <v>3</v>
+      </c>
+      <c r="W59">
+        <v>1.33</v>
+      </c>
+      <c r="X59">
+        <v>8</v>
+      </c>
+      <c r="Y59">
+        <v>1.05</v>
+      </c>
+      <c r="Z59">
+        <v>2.88</v>
+      </c>
+      <c r="AA59">
+        <v>3</v>
+      </c>
+      <c r="AB59">
+        <v>2.25</v>
+      </c>
+      <c r="AC59">
+        <v>1.07</v>
+      </c>
+      <c r="AD59">
+        <v>7</v>
+      </c>
+      <c r="AE59">
+        <v>1.38</v>
+      </c>
+      <c r="AF59">
+        <v>2.8</v>
+      </c>
+      <c r="AG59">
+        <v>2.2</v>
+      </c>
+      <c r="AH59">
+        <v>1.6</v>
+      </c>
+      <c r="AI59">
+        <v>1.91</v>
+      </c>
+      <c r="AJ59">
+        <v>1.8</v>
+      </c>
+      <c r="AK59">
+        <v>1.55</v>
+      </c>
+      <c r="AL59">
+        <v>1.35</v>
+      </c>
+      <c r="AM59">
+        <v>1.4</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1.5</v>
+      </c>
+      <c r="AQ59">
+        <v>1.5</v>
+      </c>
+      <c r="AR59">
+        <v>0.92</v>
+      </c>
+      <c r="AS59">
+        <v>1.12</v>
+      </c>
+      <c r="AT59">
+        <v>2.04</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>8</v>
+      </c>
+      <c r="AW59">
+        <v>3</v>
+      </c>
+      <c r="AX59">
+        <v>3</v>
+      </c>
+      <c r="AY59">
+        <v>8</v>
+      </c>
+      <c r="AZ59">
+        <v>11</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>6</v>
+      </c>
+      <c r="BC59">
+        <v>10</v>
+      </c>
+      <c r="BD59">
+        <v>2.39</v>
+      </c>
+      <c r="BE59">
+        <v>8</v>
+      </c>
+      <c r="BF59">
+        <v>1.82</v>
+      </c>
+      <c r="BG59">
+        <v>1.16</v>
+      </c>
+      <c r="BH59">
+        <v>4.33</v>
+      </c>
+      <c r="BI59">
+        <v>1.33</v>
+      </c>
+      <c r="BJ59">
+        <v>2.93</v>
+      </c>
+      <c r="BK59">
+        <v>1.64</v>
+      </c>
+      <c r="BL59">
+        <v>2.23</v>
+      </c>
+      <c r="BM59">
+        <v>2</v>
+      </c>
+      <c r="BN59">
+        <v>1.79</v>
+      </c>
+      <c r="BO59">
+        <v>2.58</v>
+      </c>
+      <c r="BP59">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7292497</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>131</v>
+      </c>
+      <c r="P60" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q60">
+        <v>3.3</v>
+      </c>
+      <c r="R60">
+        <v>2.05</v>
+      </c>
+      <c r="S60">
+        <v>3.1</v>
+      </c>
+      <c r="T60">
+        <v>1.42</v>
+      </c>
+      <c r="U60">
+        <v>2.65</v>
+      </c>
+      <c r="V60">
+        <v>2.9</v>
+      </c>
+      <c r="W60">
+        <v>1.35</v>
+      </c>
+      <c r="X60">
+        <v>6.75</v>
+      </c>
+      <c r="Y60">
+        <v>1.07</v>
+      </c>
+      <c r="Z60">
+        <v>2.48</v>
+      </c>
+      <c r="AA60">
+        <v>3.25</v>
+      </c>
+      <c r="AB60">
+        <v>2.63</v>
+      </c>
+      <c r="AC60">
+        <v>1.06</v>
+      </c>
+      <c r="AD60">
+        <v>11</v>
+      </c>
+      <c r="AE60">
+        <v>1.33</v>
+      </c>
+      <c r="AF60">
+        <v>3.33</v>
+      </c>
+      <c r="AG60">
+        <v>1.75</v>
+      </c>
+      <c r="AH60">
+        <v>1.93</v>
+      </c>
+      <c r="AI60">
+        <v>1.82</v>
+      </c>
+      <c r="AJ60">
+        <v>1.95</v>
+      </c>
+      <c r="AK60">
+        <v>1.4</v>
+      </c>
+      <c r="AL60">
+        <v>1.3</v>
+      </c>
+      <c r="AM60">
+        <v>1.57</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>2.25</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>1.4</v>
+      </c>
+      <c r="AS60">
+        <v>1.37</v>
+      </c>
+      <c r="AT60">
+        <v>2.77</v>
+      </c>
+      <c r="AU60">
+        <v>8</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>8</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>13</v>
+      </c>
+      <c r="BA60">
+        <v>2</v>
+      </c>
+      <c r="BB60">
+        <v>7</v>
+      </c>
+      <c r="BC60">
+        <v>9</v>
+      </c>
+      <c r="BD60">
+        <v>1.91</v>
+      </c>
+      <c r="BE60">
+        <v>8.5</v>
+      </c>
+      <c r="BF60">
+        <v>2.1</v>
+      </c>
+      <c r="BG60">
+        <v>1.1</v>
+      </c>
+      <c r="BH60">
+        <v>5.4</v>
+      </c>
+      <c r="BI60">
+        <v>1.24</v>
+      </c>
+      <c r="BJ60">
+        <v>3.85</v>
+      </c>
+      <c r="BK60">
+        <v>1.43</v>
+      </c>
+      <c r="BL60">
+        <v>2.7</v>
+      </c>
+      <c r="BM60">
+        <v>1.88</v>
+      </c>
+      <c r="BN60">
+        <v>1.92</v>
+      </c>
+      <c r="BO60">
+        <v>2.2</v>
+      </c>
+      <c r="BP60">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,18 @@
     <t>['4', '41']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['41', '52', '55']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['47', '70']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -457,9 +469,6 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['33']</t>
-  </si>
-  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -527,6 +536,15 @@
   </si>
   <si>
     <t>['7', '14', '37']</t>
+  </si>
+  <si>
+    <t>['16', '74']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['34', '42', '88']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1165,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1225,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1353,7 +1371,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1434,7 +1452,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1559,7 +1577,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1640,7 +1658,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1843,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -1971,7 +1989,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2049,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2589,7 +2607,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2795,7 +2813,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3288,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3700,7 +3718,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3825,7 +3843,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4031,7 +4049,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4109,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4237,7 +4255,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4315,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>2.33</v>
@@ -4443,7 +4461,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4649,7 +4667,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4855,7 +4873,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5139,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5345,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.4</v>
@@ -5473,7 +5491,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5551,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR23">
         <v>1.23</v>
@@ -5679,7 +5697,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -5757,10 +5775,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -5966,7 +5984,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6091,7 +6109,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6297,7 +6315,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>2.4</v>
@@ -6375,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6915,7 +6933,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7121,7 +7139,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7202,7 +7220,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
         <v>0.76</v>
@@ -7405,10 +7423,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR32">
         <v>1.67</v>
@@ -7533,7 +7551,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7614,7 +7632,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -7945,7 +7963,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8023,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ35">
         <v>2.33</v>
@@ -8151,7 +8169,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8357,7 +8375,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8435,10 +8453,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR37">
         <v>1.74</v>
@@ -8563,7 +8581,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8641,10 +8659,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.07</v>
@@ -8769,7 +8787,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -8850,7 +8868,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -8975,7 +8993,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9181,7 +9199,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9593,7 +9611,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9671,7 +9689,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -9877,7 +9895,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10005,7 +10023,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10083,7 +10101,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10211,7 +10229,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10292,7 +10310,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>1.87</v>
@@ -10417,7 +10435,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11035,7 +11053,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11241,7 +11259,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11322,7 +11340,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11447,7 +11465,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11653,7 +11671,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11734,7 +11752,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -11859,7 +11877,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12065,7 +12083,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12271,7 +12289,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12477,7 +12495,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12683,7 +12701,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12889,7 +12907,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13252,6 +13270,1036 @@
       </c>
       <c r="BP60">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7292496</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45424.375</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>132</v>
+      </c>
+      <c r="P61" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q61">
+        <v>3.1</v>
+      </c>
+      <c r="R61">
+        <v>2.25</v>
+      </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
+      <c r="T61">
+        <v>1.3</v>
+      </c>
+      <c r="U61">
+        <v>3.2</v>
+      </c>
+      <c r="V61">
+        <v>2.4</v>
+      </c>
+      <c r="W61">
+        <v>1.5</v>
+      </c>
+      <c r="X61">
+        <v>5.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.11</v>
+      </c>
+      <c r="Z61">
+        <v>2.55</v>
+      </c>
+      <c r="AA61">
+        <v>3.45</v>
+      </c>
+      <c r="AB61">
+        <v>2.45</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>10.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.18</v>
+      </c>
+      <c r="AF61">
+        <v>4.2</v>
+      </c>
+      <c r="AG61">
+        <v>1.7</v>
+      </c>
+      <c r="AH61">
+        <v>2</v>
+      </c>
+      <c r="AI61">
+        <v>1.52</v>
+      </c>
+      <c r="AJ61">
+        <v>2.35</v>
+      </c>
+      <c r="AK61">
+        <v>1.45</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.47</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>1.5</v>
+      </c>
+      <c r="AQ61">
+        <v>0.75</v>
+      </c>
+      <c r="AR61">
+        <v>1.3</v>
+      </c>
+      <c r="AS61">
+        <v>1.4</v>
+      </c>
+      <c r="AT61">
+        <v>2.7</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>7</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>3</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>7</v>
+      </c>
+      <c r="BB61">
+        <v>5</v>
+      </c>
+      <c r="BC61">
+        <v>12</v>
+      </c>
+      <c r="BD61">
+        <v>2.05</v>
+      </c>
+      <c r="BE61">
+        <v>8.5</v>
+      </c>
+      <c r="BF61">
+        <v>2</v>
+      </c>
+      <c r="BG61">
+        <v>1.12</v>
+      </c>
+      <c r="BH61">
+        <v>4.95</v>
+      </c>
+      <c r="BI61">
+        <v>1.27</v>
+      </c>
+      <c r="BJ61">
+        <v>3.28</v>
+      </c>
+      <c r="BK61">
+        <v>1.55</v>
+      </c>
+      <c r="BL61">
+        <v>2.4</v>
+      </c>
+      <c r="BM61">
+        <v>1.85</v>
+      </c>
+      <c r="BN61">
+        <v>1.95</v>
+      </c>
+      <c r="BO61">
+        <v>2.32</v>
+      </c>
+      <c r="BP61">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7292498</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45424.375</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>83</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q62">
+        <v>2.05</v>
+      </c>
+      <c r="R62">
+        <v>2.55</v>
+      </c>
+      <c r="S62">
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <v>1.29</v>
+      </c>
+      <c r="U62">
+        <v>3.4</v>
+      </c>
+      <c r="V62">
+        <v>2.25</v>
+      </c>
+      <c r="W62">
+        <v>1.57</v>
+      </c>
+      <c r="X62">
+        <v>4.75</v>
+      </c>
+      <c r="Y62">
+        <v>1.15</v>
+      </c>
+      <c r="Z62">
+        <v>1.5</v>
+      </c>
+      <c r="AA62">
+        <v>4.4</v>
+      </c>
+      <c r="AB62">
+        <v>5</v>
+      </c>
+      <c r="AC62">
+        <v>1.02</v>
+      </c>
+      <c r="AD62">
+        <v>19</v>
+      </c>
+      <c r="AE62">
+        <v>1.15</v>
+      </c>
+      <c r="AF62">
+        <v>4.75</v>
+      </c>
+      <c r="AG62">
+        <v>1.53</v>
+      </c>
+      <c r="AH62">
+        <v>2.35</v>
+      </c>
+      <c r="AI62">
+        <v>1.63</v>
+      </c>
+      <c r="AJ62">
+        <v>2.25</v>
+      </c>
+      <c r="AK62">
+        <v>1.15</v>
+      </c>
+      <c r="AL62">
+        <v>1.2</v>
+      </c>
+      <c r="AM62">
+        <v>2.5</v>
+      </c>
+      <c r="AN62">
+        <v>1.5</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>1.8</v>
+      </c>
+      <c r="AQ62">
+        <v>0.75</v>
+      </c>
+      <c r="AR62">
+        <v>1.81</v>
+      </c>
+      <c r="AS62">
+        <v>1.07</v>
+      </c>
+      <c r="AT62">
+        <v>2.88</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>7</v>
+      </c>
+      <c r="AW62">
+        <v>11</v>
+      </c>
+      <c r="AX62">
+        <v>6</v>
+      </c>
+      <c r="AY62">
+        <v>18</v>
+      </c>
+      <c r="AZ62">
+        <v>13</v>
+      </c>
+      <c r="BA62">
+        <v>4</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
+        <v>8</v>
+      </c>
+      <c r="BD62">
+        <v>1.41</v>
+      </c>
+      <c r="BE62">
+        <v>9.5</v>
+      </c>
+      <c r="BF62">
+        <v>3.48</v>
+      </c>
+      <c r="BG62">
+        <v>1.11</v>
+      </c>
+      <c r="BH62">
+        <v>6</v>
+      </c>
+      <c r="BI62">
+        <v>1.19</v>
+      </c>
+      <c r="BJ62">
+        <v>3.96</v>
+      </c>
+      <c r="BK62">
+        <v>1.36</v>
+      </c>
+      <c r="BL62">
+        <v>2.79</v>
+      </c>
+      <c r="BM62">
+        <v>1.92</v>
+      </c>
+      <c r="BN62">
+        <v>1.88</v>
+      </c>
+      <c r="BO62">
+        <v>2.06</v>
+      </c>
+      <c r="BP62">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7292500</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45424.47916666666</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P63" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q63">
+        <v>3.5</v>
+      </c>
+      <c r="R63">
+        <v>2.2</v>
+      </c>
+      <c r="S63">
+        <v>2.95</v>
+      </c>
+      <c r="T63">
+        <v>1.38</v>
+      </c>
+      <c r="U63">
+        <v>3.1</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.44</v>
+      </c>
+      <c r="X63">
+        <v>6.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.1</v>
+      </c>
+      <c r="Z63">
+        <v>3.08</v>
+      </c>
+      <c r="AA63">
+        <v>3.56</v>
+      </c>
+      <c r="AB63">
+        <v>2.23</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>10.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.22</v>
+      </c>
+      <c r="AF63">
+        <v>3.7</v>
+      </c>
+      <c r="AG63">
+        <v>1.8</v>
+      </c>
+      <c r="AH63">
+        <v>2.02</v>
+      </c>
+      <c r="AI63">
+        <v>1.68</v>
+      </c>
+      <c r="AJ63">
+        <v>2.15</v>
+      </c>
+      <c r="AK63">
+        <v>1.62</v>
+      </c>
+      <c r="AL63">
+        <v>1.33</v>
+      </c>
+      <c r="AM63">
+        <v>1.38</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>1.75</v>
+      </c>
+      <c r="AP63">
+        <v>0.25</v>
+      </c>
+      <c r="AQ63">
+        <v>1.6</v>
+      </c>
+      <c r="AR63">
+        <v>0.97</v>
+      </c>
+      <c r="AS63">
+        <v>1.81</v>
+      </c>
+      <c r="AT63">
+        <v>2.78</v>
+      </c>
+      <c r="AU63">
+        <v>3</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>3</v>
+      </c>
+      <c r="AX63">
+        <v>7</v>
+      </c>
+      <c r="AY63">
+        <v>6</v>
+      </c>
+      <c r="AZ63">
+        <v>10</v>
+      </c>
+      <c r="BA63">
+        <v>7</v>
+      </c>
+      <c r="BB63">
+        <v>9</v>
+      </c>
+      <c r="BC63">
+        <v>16</v>
+      </c>
+      <c r="BD63">
+        <v>2.05</v>
+      </c>
+      <c r="BE63">
+        <v>8</v>
+      </c>
+      <c r="BF63">
+        <v>1.95</v>
+      </c>
+      <c r="BG63">
+        <v>1.13</v>
+      </c>
+      <c r="BH63">
+        <v>4.75</v>
+      </c>
+      <c r="BI63">
+        <v>1.28</v>
+      </c>
+      <c r="BJ63">
+        <v>3.2</v>
+      </c>
+      <c r="BK63">
+        <v>1.58</v>
+      </c>
+      <c r="BL63">
+        <v>2.33</v>
+      </c>
+      <c r="BM63">
+        <v>1.98</v>
+      </c>
+      <c r="BN63">
+        <v>1.82</v>
+      </c>
+      <c r="BO63">
+        <v>2.39</v>
+      </c>
+      <c r="BP63">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7292494</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45424.47916666666</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>135</v>
+      </c>
+      <c r="P64" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q64">
+        <v>2.51</v>
+      </c>
+      <c r="R64">
+        <v>2.35</v>
+      </c>
+      <c r="S64">
+        <v>4.51</v>
+      </c>
+      <c r="T64">
+        <v>1.36</v>
+      </c>
+      <c r="U64">
+        <v>3.25</v>
+      </c>
+      <c r="V64">
+        <v>2.77</v>
+      </c>
+      <c r="W64">
+        <v>1.46</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Y64">
+        <v>1.09</v>
+      </c>
+      <c r="Z64">
+        <v>2.04</v>
+      </c>
+      <c r="AA64">
+        <v>3.54</v>
+      </c>
+      <c r="AB64">
+        <v>3.56</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>10.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.22</v>
+      </c>
+      <c r="AF64">
+        <v>3.7</v>
+      </c>
+      <c r="AG64">
+        <v>1.89</v>
+      </c>
+      <c r="AH64">
+        <v>1.91</v>
+      </c>
+      <c r="AI64">
+        <v>1.65</v>
+      </c>
+      <c r="AJ64">
+        <v>2.1</v>
+      </c>
+      <c r="AK64">
+        <v>1.18</v>
+      </c>
+      <c r="AL64">
+        <v>1.28</v>
+      </c>
+      <c r="AM64">
+        <v>1.85</v>
+      </c>
+      <c r="AN64">
+        <v>1.75</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>2</v>
+      </c>
+      <c r="AQ64">
+        <v>0.75</v>
+      </c>
+      <c r="AR64">
+        <v>1.37</v>
+      </c>
+      <c r="AS64">
+        <v>1.43</v>
+      </c>
+      <c r="AT64">
+        <v>2.8</v>
+      </c>
+      <c r="AU64">
+        <v>9</v>
+      </c>
+      <c r="AV64">
+        <v>2</v>
+      </c>
+      <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>16</v>
+      </c>
+      <c r="AZ64">
+        <v>7</v>
+      </c>
+      <c r="BA64">
+        <v>8</v>
+      </c>
+      <c r="BB64">
+        <v>5</v>
+      </c>
+      <c r="BC64">
+        <v>13</v>
+      </c>
+      <c r="BD64">
+        <v>1.59</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.89</v>
+      </c>
+      <c r="BG64">
+        <v>1.17</v>
+      </c>
+      <c r="BH64">
+        <v>4.15</v>
+      </c>
+      <c r="BI64">
+        <v>1.35</v>
+      </c>
+      <c r="BJ64">
+        <v>2.84</v>
+      </c>
+      <c r="BK64">
+        <v>1.69</v>
+      </c>
+      <c r="BL64">
+        <v>2.17</v>
+      </c>
+      <c r="BM64">
+        <v>2.09</v>
+      </c>
+      <c r="BN64">
+        <v>1.75</v>
+      </c>
+      <c r="BO64">
+        <v>2.69</v>
+      </c>
+      <c r="BP64">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7292495</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45425.59027777778</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>88</v>
+      </c>
+      <c r="P65" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+      <c r="R65">
+        <v>2.3</v>
+      </c>
+      <c r="S65">
+        <v>2.25</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2.63</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>4.5</v>
+      </c>
+      <c r="AA65">
+        <v>3.5</v>
+      </c>
+      <c r="AB65">
+        <v>1.69</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>13</v>
+      </c>
+      <c r="AE65">
+        <v>1.26</v>
+      </c>
+      <c r="AF65">
+        <v>4</v>
+      </c>
+      <c r="AG65">
+        <v>1.89</v>
+      </c>
+      <c r="AH65">
+        <v>1.99</v>
+      </c>
+      <c r="AI65">
+        <v>1.8</v>
+      </c>
+      <c r="AJ65">
+        <v>1.95</v>
+      </c>
+      <c r="AK65">
+        <v>2.15</v>
+      </c>
+      <c r="AL65">
+        <v>1.22</v>
+      </c>
+      <c r="AM65">
+        <v>1.19</v>
+      </c>
+      <c r="AN65">
+        <v>0.33</v>
+      </c>
+      <c r="AO65">
+        <v>2.25</v>
+      </c>
+      <c r="AP65">
+        <v>0.25</v>
+      </c>
+      <c r="AQ65">
+        <v>2.4</v>
+      </c>
+      <c r="AR65">
+        <v>1.33</v>
+      </c>
+      <c r="AS65">
+        <v>1.62</v>
+      </c>
+      <c r="AT65">
+        <v>2.95</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>5</v>
+      </c>
+      <c r="AY65">
+        <v>5</v>
+      </c>
+      <c r="AZ65">
+        <v>9</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>3</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>2.96</v>
+      </c>
+      <c r="BE65">
+        <v>10.2</v>
+      </c>
+      <c r="BF65">
+        <v>1.54</v>
+      </c>
+      <c r="BG65">
+        <v>1.1</v>
+      </c>
+      <c r="BH65">
+        <v>5.45</v>
+      </c>
+      <c r="BI65">
+        <v>1.23</v>
+      </c>
+      <c r="BJ65">
+        <v>3.56</v>
+      </c>
+      <c r="BK65">
+        <v>1.43</v>
+      </c>
+      <c r="BL65">
+        <v>2.62</v>
+      </c>
+      <c r="BM65">
+        <v>1.75</v>
+      </c>
+      <c r="BN65">
+        <v>2.01</v>
+      </c>
+      <c r="BO65">
+        <v>2.17</v>
+      </c>
+      <c r="BP65">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14239,19 +14239,19 @@
         <v>0</v>
       </c>
       <c r="AV65">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ65">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA65">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,21 @@
     <t>['47', '70']</t>
   </si>
   <si>
+    <t>['6', '18', '45+1', '51', '60', '89']</t>
+  </si>
+  <si>
+    <t>['22', '44', '46']</t>
+  </si>
+  <si>
+    <t>['24', '25', '43']</t>
+  </si>
+  <si>
+    <t>['35', '70']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -545,6 +560,18 @@
   </si>
   <si>
     <t>['34', '42', '88']</t>
+  </si>
+  <si>
+    <t>['45+2', '51']</t>
+  </si>
+  <si>
+    <t>['63', '75']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['3', '53', '57', '80', '85']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1192,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1371,7 +1398,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1577,7 +1604,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1989,7 +2016,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2070,7 +2097,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2607,7 +2634,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2685,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2813,7 +2840,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2891,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3097,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3306,7 +3333,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3509,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3715,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -3843,7 +3870,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3921,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15">
         <v>1.4</v>
@@ -4049,7 +4076,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4130,7 +4157,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4255,7 +4282,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4336,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4461,7 +4488,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4539,10 +4566,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <v>2.67</v>
@@ -4667,7 +4694,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4745,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -4873,7 +4900,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4951,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>1.33</v>
@@ -5160,7 +5187,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
         <v>1.32</v>
@@ -5491,7 +5518,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5697,7 +5724,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6109,7 +6136,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6190,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6808,7 +6835,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR29">
         <v>1.2</v>
@@ -6933,7 +6960,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7139,7 +7166,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7217,7 +7244,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
         <v>1.6</v>
@@ -7426,7 +7453,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ32">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR32">
         <v>1.67</v>
@@ -7551,7 +7578,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7629,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -7838,7 +7865,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.09</v>
@@ -7963,7 +7990,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8044,7 +8071,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ35">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8169,7 +8196,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8247,7 +8274,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ36">
         <v>1.4</v>
@@ -8375,7 +8402,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8581,7 +8608,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8787,7 +8814,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -8865,10 +8892,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -8993,7 +9020,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9071,10 +9098,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.03</v>
@@ -9199,7 +9226,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9277,7 +9304,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9486,7 +9513,7 @@
         <v>3</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>2.45</v>
@@ -9611,7 +9638,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9898,7 +9925,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10023,7 +10050,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10229,7 +10256,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10307,7 +10334,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ46">
         <v>0.75</v>
@@ -10435,7 +10462,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10513,10 +10540,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -10719,7 +10746,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.4</v>
@@ -11053,7 +11080,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11131,7 +11158,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -11259,7 +11286,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11337,7 +11364,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ51">
         <v>1.6</v>
@@ -11465,7 +11492,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11546,7 +11573,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11671,7 +11698,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11749,7 +11776,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>2.4</v>
@@ -11877,7 +11904,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -11955,10 +11982,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -12083,7 +12110,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12289,7 +12316,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12370,7 +12397,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.45</v>
@@ -12495,7 +12522,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12576,7 +12603,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -12701,7 +12728,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12907,7 +12934,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -12985,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ59">
         <v>1.5</v>
@@ -13319,7 +13346,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13400,7 +13427,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR61">
         <v>1.3</v>
@@ -13525,7 +13552,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13731,7 +13758,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14143,7 +14170,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14300,6 +14327,1654 @@
       </c>
       <c r="BP65">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7292502</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45427.58333333334</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q66">
+        <v>2.5</v>
+      </c>
+      <c r="R66">
+        <v>2.15</v>
+      </c>
+      <c r="S66">
+        <v>3.9</v>
+      </c>
+      <c r="T66">
+        <v>1.37</v>
+      </c>
+      <c r="U66">
+        <v>2.85</v>
+      </c>
+      <c r="V66">
+        <v>2.75</v>
+      </c>
+      <c r="W66">
+        <v>1.4</v>
+      </c>
+      <c r="X66">
+        <v>6.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>2.04</v>
+      </c>
+      <c r="AA66">
+        <v>3.4</v>
+      </c>
+      <c r="AB66">
+        <v>3.35</v>
+      </c>
+      <c r="AC66">
+        <v>1.03</v>
+      </c>
+      <c r="AD66">
+        <v>8.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.27</v>
+      </c>
+      <c r="AF66">
+        <v>3.4</v>
+      </c>
+      <c r="AG66">
+        <v>1.96</v>
+      </c>
+      <c r="AH66">
+        <v>1.9</v>
+      </c>
+      <c r="AI66">
+        <v>1.7</v>
+      </c>
+      <c r="AJ66">
+        <v>2</v>
+      </c>
+      <c r="AK66">
+        <v>1.28</v>
+      </c>
+      <c r="AL66">
+        <v>1.28</v>
+      </c>
+      <c r="AM66">
+        <v>1.65</v>
+      </c>
+      <c r="AN66">
+        <v>1.75</v>
+      </c>
+      <c r="AO66">
+        <v>0.67</v>
+      </c>
+      <c r="AP66">
+        <v>2</v>
+      </c>
+      <c r="AQ66">
+        <v>0.5</v>
+      </c>
+      <c r="AR66">
+        <v>1.53</v>
+      </c>
+      <c r="AS66">
+        <v>1.25</v>
+      </c>
+      <c r="AT66">
+        <v>2.78</v>
+      </c>
+      <c r="AU66">
+        <v>8</v>
+      </c>
+      <c r="AV66">
+        <v>4</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
+        <v>8</v>
+      </c>
+      <c r="AY66">
+        <v>12</v>
+      </c>
+      <c r="AZ66">
+        <v>12</v>
+      </c>
+      <c r="BA66">
+        <v>5</v>
+      </c>
+      <c r="BB66">
+        <v>5</v>
+      </c>
+      <c r="BC66">
+        <v>10</v>
+      </c>
+      <c r="BD66">
+        <v>1.64</v>
+      </c>
+      <c r="BE66">
+        <v>8.5</v>
+      </c>
+      <c r="BF66">
+        <v>2.66</v>
+      </c>
+      <c r="BG66">
+        <v>1.14</v>
+      </c>
+      <c r="BH66">
+        <v>4.6</v>
+      </c>
+      <c r="BI66">
+        <v>1.3</v>
+      </c>
+      <c r="BJ66">
+        <v>3.08</v>
+      </c>
+      <c r="BK66">
+        <v>1.55</v>
+      </c>
+      <c r="BL66">
+        <v>2.29</v>
+      </c>
+      <c r="BM66">
+        <v>2</v>
+      </c>
+      <c r="BN66">
+        <v>1.8</v>
+      </c>
+      <c r="BO66">
+        <v>2.46</v>
+      </c>
+      <c r="BP66">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7292503</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45427.58333333334</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>137</v>
+      </c>
+      <c r="P67" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q67">
+        <v>4.88</v>
+      </c>
+      <c r="R67">
+        <v>2.51</v>
+      </c>
+      <c r="S67">
+        <v>2.26</v>
+      </c>
+      <c r="T67">
+        <v>1.3</v>
+      </c>
+      <c r="U67">
+        <v>3.2</v>
+      </c>
+      <c r="V67">
+        <v>2.49</v>
+      </c>
+      <c r="W67">
+        <v>1.56</v>
+      </c>
+      <c r="X67">
+        <v>5.25</v>
+      </c>
+      <c r="Y67">
+        <v>1.12</v>
+      </c>
+      <c r="Z67">
+        <v>4.15</v>
+      </c>
+      <c r="AA67">
+        <v>3.95</v>
+      </c>
+      <c r="AB67">
+        <v>1.7</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>1.21</v>
+      </c>
+      <c r="AF67">
+        <v>4.64</v>
+      </c>
+      <c r="AG67">
+        <v>1.6</v>
+      </c>
+      <c r="AH67">
+        <v>2.1</v>
+      </c>
+      <c r="AI67">
+        <v>1.57</v>
+      </c>
+      <c r="AJ67">
+        <v>2.2</v>
+      </c>
+      <c r="AK67">
+        <v>2</v>
+      </c>
+      <c r="AL67">
+        <v>1.2</v>
+      </c>
+      <c r="AM67">
+        <v>1.22</v>
+      </c>
+      <c r="AN67">
+        <v>1.5</v>
+      </c>
+      <c r="AO67">
+        <v>2.33</v>
+      </c>
+      <c r="AP67">
+        <v>1.8</v>
+      </c>
+      <c r="AQ67">
+        <v>1.75</v>
+      </c>
+      <c r="AR67">
+        <v>0.97</v>
+      </c>
+      <c r="AS67">
+        <v>1.34</v>
+      </c>
+      <c r="AT67">
+        <v>2.31</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>8</v>
+      </c>
+      <c r="AW67">
+        <v>1</v>
+      </c>
+      <c r="AX67">
+        <v>10</v>
+      </c>
+      <c r="AY67">
+        <v>5</v>
+      </c>
+      <c r="AZ67">
+        <v>18</v>
+      </c>
+      <c r="BA67">
+        <v>3</v>
+      </c>
+      <c r="BB67">
+        <v>10</v>
+      </c>
+      <c r="BC67">
+        <v>13</v>
+      </c>
+      <c r="BD67">
+        <v>2.89</v>
+      </c>
+      <c r="BE67">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF67">
+        <v>1.55</v>
+      </c>
+      <c r="BG67">
+        <v>1.16</v>
+      </c>
+      <c r="BH67">
+        <v>4.3</v>
+      </c>
+      <c r="BI67">
+        <v>1.33</v>
+      </c>
+      <c r="BJ67">
+        <v>2.93</v>
+      </c>
+      <c r="BK67">
+        <v>1.65</v>
+      </c>
+      <c r="BL67">
+        <v>2.21</v>
+      </c>
+      <c r="BM67">
+        <v>2.01</v>
+      </c>
+      <c r="BN67">
+        <v>1.79</v>
+      </c>
+      <c r="BO67">
+        <v>2.4</v>
+      </c>
+      <c r="BP67">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7292506</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45427.58333333334</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>138</v>
+      </c>
+      <c r="P68" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q68">
+        <v>3.15</v>
+      </c>
+      <c r="R68">
+        <v>2.18</v>
+      </c>
+      <c r="S68">
+        <v>3.73</v>
+      </c>
+      <c r="T68">
+        <v>1.44</v>
+      </c>
+      <c r="U68">
+        <v>2.87</v>
+      </c>
+      <c r="V68">
+        <v>3.18</v>
+      </c>
+      <c r="W68">
+        <v>1.37</v>
+      </c>
+      <c r="X68">
+        <v>8</v>
+      </c>
+      <c r="Y68">
+        <v>1.07</v>
+      </c>
+      <c r="Z68">
+        <v>2.28</v>
+      </c>
+      <c r="AA68">
+        <v>3.3</v>
+      </c>
+      <c r="AB68">
+        <v>2.95</v>
+      </c>
+      <c r="AC68">
+        <v>1.07</v>
+      </c>
+      <c r="AD68">
+        <v>9.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.35</v>
+      </c>
+      <c r="AF68">
+        <v>3.29</v>
+      </c>
+      <c r="AG68">
+        <v>1.98</v>
+      </c>
+      <c r="AH68">
+        <v>1.88</v>
+      </c>
+      <c r="AI68">
+        <v>1.85</v>
+      </c>
+      <c r="AJ68">
+        <v>1.95</v>
+      </c>
+      <c r="AK68">
+        <v>1.4</v>
+      </c>
+      <c r="AL68">
+        <v>1.3</v>
+      </c>
+      <c r="AM68">
+        <v>1.6</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>0.75</v>
+      </c>
+      <c r="AP68">
+        <v>2.2</v>
+      </c>
+      <c r="AQ68">
+        <v>0.6</v>
+      </c>
+      <c r="AR68">
+        <v>1.54</v>
+      </c>
+      <c r="AS68">
+        <v>1.43</v>
+      </c>
+      <c r="AT68">
+        <v>2.97</v>
+      </c>
+      <c r="AU68">
+        <v>5</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>5</v>
+      </c>
+      <c r="AX68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>5</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>8</v>
+      </c>
+      <c r="BD68">
+        <v>1.72</v>
+      </c>
+      <c r="BE68">
+        <v>9.6</v>
+      </c>
+      <c r="BF68">
+        <v>2.45</v>
+      </c>
+      <c r="BG68">
+        <v>1.13</v>
+      </c>
+      <c r="BH68">
+        <v>4.75</v>
+      </c>
+      <c r="BI68">
+        <v>1.28</v>
+      </c>
+      <c r="BJ68">
+        <v>3.2</v>
+      </c>
+      <c r="BK68">
+        <v>1.58</v>
+      </c>
+      <c r="BL68">
+        <v>2.36</v>
+      </c>
+      <c r="BM68">
+        <v>1.95</v>
+      </c>
+      <c r="BN68">
+        <v>1.85</v>
+      </c>
+      <c r="BO68">
+        <v>2.4</v>
+      </c>
+      <c r="BP68">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7292508</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45427.58333333334</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>88</v>
+      </c>
+      <c r="P69" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q69">
+        <v>2.45</v>
+      </c>
+      <c r="R69">
+        <v>2.15</v>
+      </c>
+      <c r="S69">
+        <v>4.3</v>
+      </c>
+      <c r="T69">
+        <v>1.4</v>
+      </c>
+      <c r="U69">
+        <v>2.8</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.38</v>
+      </c>
+      <c r="X69">
+        <v>6.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.08</v>
+      </c>
+      <c r="Z69">
+        <v>1.76</v>
+      </c>
+      <c r="AA69">
+        <v>3.65</v>
+      </c>
+      <c r="AB69">
+        <v>4.2</v>
+      </c>
+      <c r="AC69">
+        <v>1.05</v>
+      </c>
+      <c r="AD69">
+        <v>12</v>
+      </c>
+      <c r="AE69">
+        <v>1.3</v>
+      </c>
+      <c r="AF69">
+        <v>3.53</v>
+      </c>
+      <c r="AG69">
+        <v>1.94</v>
+      </c>
+      <c r="AH69">
+        <v>1.92</v>
+      </c>
+      <c r="AI69">
+        <v>1.82</v>
+      </c>
+      <c r="AJ69">
+        <v>1.95</v>
+      </c>
+      <c r="AK69">
+        <v>1.27</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.88</v>
+      </c>
+      <c r="AN69">
+        <v>0.75</v>
+      </c>
+      <c r="AO69">
+        <v>1.75</v>
+      </c>
+      <c r="AP69">
+        <v>0.6</v>
+      </c>
+      <c r="AQ69">
+        <v>2</v>
+      </c>
+      <c r="AR69">
+        <v>1.65</v>
+      </c>
+      <c r="AS69">
+        <v>1.26</v>
+      </c>
+      <c r="AT69">
+        <v>2.91</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>8</v>
+      </c>
+      <c r="AW69">
+        <v>11</v>
+      </c>
+      <c r="AX69">
+        <v>1</v>
+      </c>
+      <c r="AY69">
+        <v>14</v>
+      </c>
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+      <c r="BA69">
+        <v>9</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>12</v>
+      </c>
+      <c r="BD69">
+        <v>1.45</v>
+      </c>
+      <c r="BE69">
+        <v>9</v>
+      </c>
+      <c r="BF69">
+        <v>3.28</v>
+      </c>
+      <c r="BG69">
+        <v>1.14</v>
+      </c>
+      <c r="BH69">
+        <v>4.55</v>
+      </c>
+      <c r="BI69">
+        <v>1.29</v>
+      </c>
+      <c r="BJ69">
+        <v>3.3</v>
+      </c>
+      <c r="BK69">
+        <v>1.5</v>
+      </c>
+      <c r="BL69">
+        <v>2.4</v>
+      </c>
+      <c r="BM69">
+        <v>1.9</v>
+      </c>
+      <c r="BN69">
+        <v>1.8</v>
+      </c>
+      <c r="BO69">
+        <v>2.45</v>
+      </c>
+      <c r="BP69">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7292501</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45428.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>89</v>
+      </c>
+      <c r="P70" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q70">
+        <v>1.7</v>
+      </c>
+      <c r="R70">
+        <v>2.65</v>
+      </c>
+      <c r="S70">
+        <v>6.75</v>
+      </c>
+      <c r="T70">
+        <v>1.24</v>
+      </c>
+      <c r="U70">
+        <v>3.8</v>
+      </c>
+      <c r="V70">
+        <v>2.1</v>
+      </c>
+      <c r="W70">
+        <v>1.65</v>
+      </c>
+      <c r="X70">
+        <v>4.4</v>
+      </c>
+      <c r="Y70">
+        <v>1.17</v>
+      </c>
+      <c r="Z70">
+        <v>1.31</v>
+      </c>
+      <c r="AA70">
+        <v>5.7</v>
+      </c>
+      <c r="AB70">
+        <v>8.9</v>
+      </c>
+      <c r="AC70">
+        <v>1.02</v>
+      </c>
+      <c r="AD70">
+        <v>24</v>
+      </c>
+      <c r="AE70">
+        <v>1.15</v>
+      </c>
+      <c r="AF70">
+        <v>5.6</v>
+      </c>
+      <c r="AG70">
+        <v>1.44</v>
+      </c>
+      <c r="AH70">
+        <v>2.6</v>
+      </c>
+      <c r="AI70">
+        <v>1.8</v>
+      </c>
+      <c r="AJ70">
+        <v>1.95</v>
+      </c>
+      <c r="AK70">
+        <v>1.09</v>
+      </c>
+      <c r="AL70">
+        <v>1.15</v>
+      </c>
+      <c r="AM70">
+        <v>3.4</v>
+      </c>
+      <c r="AN70">
+        <v>3</v>
+      </c>
+      <c r="AO70">
+        <v>1.5</v>
+      </c>
+      <c r="AP70">
+        <v>3</v>
+      </c>
+      <c r="AQ70">
+        <v>1.2</v>
+      </c>
+      <c r="AR70">
+        <v>2.17</v>
+      </c>
+      <c r="AS70">
+        <v>1.58</v>
+      </c>
+      <c r="AT70">
+        <v>3.75</v>
+      </c>
+      <c r="AU70">
+        <v>9</v>
+      </c>
+      <c r="AV70">
+        <v>2</v>
+      </c>
+      <c r="AW70">
+        <v>8</v>
+      </c>
+      <c r="AX70">
+        <v>5</v>
+      </c>
+      <c r="AY70">
+        <v>17</v>
+      </c>
+      <c r="AZ70">
+        <v>7</v>
+      </c>
+      <c r="BA70">
+        <v>10</v>
+      </c>
+      <c r="BB70">
+        <v>3</v>
+      </c>
+      <c r="BC70">
+        <v>13</v>
+      </c>
+      <c r="BD70">
+        <v>1.21</v>
+      </c>
+      <c r="BE70">
+        <v>11</v>
+      </c>
+      <c r="BF70">
+        <v>5.17</v>
+      </c>
+      <c r="BG70">
+        <v>1.1</v>
+      </c>
+      <c r="BH70">
+        <v>5.35</v>
+      </c>
+      <c r="BI70">
+        <v>1.25</v>
+      </c>
+      <c r="BJ70">
+        <v>3.7</v>
+      </c>
+      <c r="BK70">
+        <v>1.45</v>
+      </c>
+      <c r="BL70">
+        <v>2.63</v>
+      </c>
+      <c r="BM70">
+        <v>1.8</v>
+      </c>
+      <c r="BN70">
+        <v>2</v>
+      </c>
+      <c r="BO70">
+        <v>2.28</v>
+      </c>
+      <c r="BP70">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7292504</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45428.58333333334</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q71">
+        <v>2.75</v>
+      </c>
+      <c r="R71">
+        <v>2.15</v>
+      </c>
+      <c r="S71">
+        <v>3.6</v>
+      </c>
+      <c r="T71">
+        <v>1.38</v>
+      </c>
+      <c r="U71">
+        <v>3</v>
+      </c>
+      <c r="V71">
+        <v>2.75</v>
+      </c>
+      <c r="W71">
+        <v>1.44</v>
+      </c>
+      <c r="X71">
+        <v>6.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.1</v>
+      </c>
+      <c r="Z71">
+        <v>2.21</v>
+      </c>
+      <c r="AA71">
+        <v>3.52</v>
+      </c>
+      <c r="AB71">
+        <v>3.17</v>
+      </c>
+      <c r="AC71">
+        <v>1.05</v>
+      </c>
+      <c r="AD71">
+        <v>12</v>
+      </c>
+      <c r="AE71">
+        <v>1.28</v>
+      </c>
+      <c r="AF71">
+        <v>3.75</v>
+      </c>
+      <c r="AG71">
+        <v>1.8</v>
+      </c>
+      <c r="AH71">
+        <v>1.91</v>
+      </c>
+      <c r="AI71">
+        <v>1.68</v>
+      </c>
+      <c r="AJ71">
+        <v>2.15</v>
+      </c>
+      <c r="AK71">
+        <v>1.35</v>
+      </c>
+      <c r="AL71">
+        <v>1.32</v>
+      </c>
+      <c r="AM71">
+        <v>1.65</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1.5</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1.4</v>
+      </c>
+      <c r="AR71">
+        <v>1.6</v>
+      </c>
+      <c r="AS71">
+        <v>1.88</v>
+      </c>
+      <c r="AT71">
+        <v>3.48</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>12</v>
+      </c>
+      <c r="AZ71">
+        <v>11</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>7</v>
+      </c>
+      <c r="BC71">
+        <v>9</v>
+      </c>
+      <c r="BD71">
+        <v>1.91</v>
+      </c>
+      <c r="BE71">
+        <v>8</v>
+      </c>
+      <c r="BF71">
+        <v>2.1</v>
+      </c>
+      <c r="BG71">
+        <v>1.18</v>
+      </c>
+      <c r="BH71">
+        <v>4.6</v>
+      </c>
+      <c r="BI71">
+        <v>1.34</v>
+      </c>
+      <c r="BJ71">
+        <v>3.1</v>
+      </c>
+      <c r="BK71">
+        <v>1.6</v>
+      </c>
+      <c r="BL71">
+        <v>2.25</v>
+      </c>
+      <c r="BM71">
+        <v>2</v>
+      </c>
+      <c r="BN71">
+        <v>1.75</v>
+      </c>
+      <c r="BO71">
+        <v>2.65</v>
+      </c>
+      <c r="BP71">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7292505</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45428.58333333334</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>140</v>
+      </c>
+      <c r="P72" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q72">
+        <v>2.8</v>
+      </c>
+      <c r="R72">
+        <v>2.34</v>
+      </c>
+      <c r="S72">
+        <v>3.85</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>3.27</v>
+      </c>
+      <c r="V72">
+        <v>2.74</v>
+      </c>
+      <c r="W72">
+        <v>1.47</v>
+      </c>
+      <c r="X72">
+        <v>6</v>
+      </c>
+      <c r="Y72">
+        <v>1.1</v>
+      </c>
+      <c r="Z72">
+        <v>2.17</v>
+      </c>
+      <c r="AA72">
+        <v>3.54</v>
+      </c>
+      <c r="AB72">
+        <v>3.25</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>10</v>
+      </c>
+      <c r="AE72">
+        <v>1.28</v>
+      </c>
+      <c r="AF72">
+        <v>3.7</v>
+      </c>
+      <c r="AG72">
+        <v>1.8</v>
+      </c>
+      <c r="AH72">
+        <v>1.91</v>
+      </c>
+      <c r="AI72">
+        <v>1.62</v>
+      </c>
+      <c r="AJ72">
+        <v>2.1</v>
+      </c>
+      <c r="AK72">
+        <v>1.38</v>
+      </c>
+      <c r="AL72">
+        <v>1.25</v>
+      </c>
+      <c r="AM72">
+        <v>1.7</v>
+      </c>
+      <c r="AN72">
+        <v>0.75</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AP72">
+        <v>0.8</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1.31</v>
+      </c>
+      <c r="AS72">
+        <v>1.17</v>
+      </c>
+      <c r="AT72">
+        <v>2.48</v>
+      </c>
+      <c r="AU72">
+        <v>5</v>
+      </c>
+      <c r="AV72">
+        <v>3</v>
+      </c>
+      <c r="AW72">
+        <v>4</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>9</v>
+      </c>
+      <c r="AZ72">
+        <v>7</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>1</v>
+      </c>
+      <c r="BC72">
+        <v>6</v>
+      </c>
+      <c r="BD72">
+        <v>1.83</v>
+      </c>
+      <c r="BE72">
+        <v>8</v>
+      </c>
+      <c r="BF72">
+        <v>2.2</v>
+      </c>
+      <c r="BG72">
+        <v>1.18</v>
+      </c>
+      <c r="BH72">
+        <v>4.6</v>
+      </c>
+      <c r="BI72">
+        <v>1.34</v>
+      </c>
+      <c r="BJ72">
+        <v>3.1</v>
+      </c>
+      <c r="BK72">
+        <v>1.6</v>
+      </c>
+      <c r="BL72">
+        <v>2.25</v>
+      </c>
+      <c r="BM72">
+        <v>2</v>
+      </c>
+      <c r="BN72">
+        <v>1.75</v>
+      </c>
+      <c r="BO72">
+        <v>2.65</v>
+      </c>
+      <c r="BP72">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7292507</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45428.58333333334</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s">
+        <v>85</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73" t="s">
+        <v>88</v>
+      </c>
+      <c r="P73" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q73">
+        <v>4.08</v>
+      </c>
+      <c r="R73">
+        <v>2.37</v>
+      </c>
+      <c r="S73">
+        <v>2.64</v>
+      </c>
+      <c r="T73">
+        <v>1.34</v>
+      </c>
+      <c r="U73">
+        <v>3.35</v>
+      </c>
+      <c r="V73">
+        <v>2.67</v>
+      </c>
+      <c r="W73">
+        <v>1.5</v>
+      </c>
+      <c r="X73">
+        <v>6.2</v>
+      </c>
+      <c r="Y73">
+        <v>1.1</v>
+      </c>
+      <c r="Z73">
+        <v>3.49</v>
+      </c>
+      <c r="AA73">
+        <v>3.68</v>
+      </c>
+      <c r="AB73">
+        <v>2.03</v>
+      </c>
+      <c r="AC73">
+        <v>1.02</v>
+      </c>
+      <c r="AD73">
+        <v>10.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.21</v>
+      </c>
+      <c r="AF73">
+        <v>3.75</v>
+      </c>
+      <c r="AG73">
+        <v>1.73</v>
+      </c>
+      <c r="AH73">
+        <v>2</v>
+      </c>
+      <c r="AI73">
+        <v>1.65</v>
+      </c>
+      <c r="AJ73">
+        <v>2.18</v>
+      </c>
+      <c r="AK73">
+        <v>1.8</v>
+      </c>
+      <c r="AL73">
+        <v>1.28</v>
+      </c>
+      <c r="AM73">
+        <v>1.31</v>
+      </c>
+      <c r="AN73">
+        <v>0.67</v>
+      </c>
+      <c r="AO73">
+        <v>2</v>
+      </c>
+      <c r="AP73">
+        <v>0.5</v>
+      </c>
+      <c r="AQ73">
+        <v>2.25</v>
+      </c>
+      <c r="AR73">
+        <v>1.58</v>
+      </c>
+      <c r="AS73">
+        <v>1.68</v>
+      </c>
+      <c r="AT73">
+        <v>3.26</v>
+      </c>
+      <c r="AU73">
+        <v>3</v>
+      </c>
+      <c r="AV73">
+        <v>7</v>
+      </c>
+      <c r="AW73">
+        <v>7</v>
+      </c>
+      <c r="AX73">
+        <v>5</v>
+      </c>
+      <c r="AY73">
+        <v>10</v>
+      </c>
+      <c r="AZ73">
+        <v>12</v>
+      </c>
+      <c r="BA73">
+        <v>3</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>5</v>
+      </c>
+      <c r="BD73">
+        <v>2.53</v>
+      </c>
+      <c r="BE73">
+        <v>8.5</v>
+      </c>
+      <c r="BF73">
+        <v>1.69</v>
+      </c>
+      <c r="BG73">
+        <v>1.18</v>
+      </c>
+      <c r="BH73">
+        <v>4.6</v>
+      </c>
+      <c r="BI73">
+        <v>1.34</v>
+      </c>
+      <c r="BJ73">
+        <v>3.1</v>
+      </c>
+      <c r="BK73">
+        <v>1.6</v>
+      </c>
+      <c r="BL73">
+        <v>2.25</v>
+      </c>
+      <c r="BM73">
+        <v>2</v>
+      </c>
+      <c r="BN73">
+        <v>1.75</v>
+      </c>
+      <c r="BO73">
+        <v>2.65</v>
+      </c>
+      <c r="BP73">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,12 @@
     <t>['52']</t>
   </si>
   <si>
+    <t>['60', '74']</t>
+  </si>
+  <si>
+    <t>['5', '45+4']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -572,6 +578,12 @@
   </si>
   <si>
     <t>['3', '53', '57', '80', '85']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1204,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1398,7 +1410,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1476,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ3">
         <v>0.75</v>
@@ -1604,7 +1616,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2016,7 +2028,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2634,7 +2646,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2840,7 +2852,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2918,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3127,7 +3139,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3870,7 +3882,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4076,7 +4088,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4282,7 +4294,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4488,7 +4500,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4569,7 +4581,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR18">
         <v>2.67</v>
@@ -4694,7 +4706,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4900,7 +4912,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5518,7 +5530,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5724,7 +5736,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6008,7 +6020,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6136,7 +6148,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6423,7 +6435,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>0.78</v>
@@ -6960,7 +6972,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7166,7 +7178,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7578,7 +7590,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7990,7 +8002,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8196,7 +8208,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8274,7 +8286,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.4</v>
@@ -8402,7 +8414,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8608,7 +8620,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8814,7 +8826,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -9020,7 +9032,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9226,7 +9238,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9513,7 +9525,7 @@
         <v>3</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR42">
         <v>2.45</v>
@@ -9638,7 +9650,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10050,7 +10062,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10131,7 +10143,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10256,7 +10268,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10462,7 +10474,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10540,7 +10552,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.4</v>
@@ -10952,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ49">
         <v>0</v>
@@ -11080,7 +11092,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11286,7 +11298,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11492,7 +11504,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11698,7 +11710,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11904,7 +11916,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12110,7 +12122,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12191,7 +12203,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR55">
         <v>1.19</v>
@@ -12316,7 +12328,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12394,7 +12406,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12522,7 +12534,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12728,7 +12740,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12934,7 +12946,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13346,7 +13358,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13552,7 +13564,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13758,7 +13770,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14170,7 +14182,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14457,7 +14469,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR66">
         <v>1.53</v>
@@ -14994,7 +15006,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15406,7 +15418,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15612,7 +15624,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15693,7 +15705,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR72">
         <v>1.31</v>
@@ -15818,7 +15830,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -15896,7 +15908,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>2.25</v>
@@ -15975,6 +15987,418 @@
       </c>
       <c r="BP73">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7292510</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45431.375</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>141</v>
+      </c>
+      <c r="P74" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q74">
+        <v>3.1</v>
+      </c>
+      <c r="R74">
+        <v>2.1</v>
+      </c>
+      <c r="S74">
+        <v>3.6</v>
+      </c>
+      <c r="T74">
+        <v>1.42</v>
+      </c>
+      <c r="U74">
+        <v>2.9</v>
+      </c>
+      <c r="V74">
+        <v>2.95</v>
+      </c>
+      <c r="W74">
+        <v>1.38</v>
+      </c>
+      <c r="X74">
+        <v>7.5</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>2.45</v>
+      </c>
+      <c r="AA74">
+        <v>3.4</v>
+      </c>
+      <c r="AB74">
+        <v>2.85</v>
+      </c>
+      <c r="AC74">
+        <v>1.06</v>
+      </c>
+      <c r="AD74">
+        <v>11</v>
+      </c>
+      <c r="AE74">
+        <v>1.33</v>
+      </c>
+      <c r="AF74">
+        <v>3.4</v>
+      </c>
+      <c r="AG74">
+        <v>1.98</v>
+      </c>
+      <c r="AH74">
+        <v>1.83</v>
+      </c>
+      <c r="AI74">
+        <v>1.75</v>
+      </c>
+      <c r="AJ74">
+        <v>2.05</v>
+      </c>
+      <c r="AK74">
+        <v>1.44</v>
+      </c>
+      <c r="AL74">
+        <v>1.28</v>
+      </c>
+      <c r="AM74">
+        <v>1.58</v>
+      </c>
+      <c r="AN74">
+        <v>2.25</v>
+      </c>
+      <c r="AO74">
+        <v>0.5</v>
+      </c>
+      <c r="AP74">
+        <v>2.4</v>
+      </c>
+      <c r="AQ74">
+        <v>0.4</v>
+      </c>
+      <c r="AR74">
+        <v>1.46</v>
+      </c>
+      <c r="AS74">
+        <v>1.35</v>
+      </c>
+      <c r="AT74">
+        <v>2.81</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>2</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>2</v>
+      </c>
+      <c r="AZ74">
+        <v>2</v>
+      </c>
+      <c r="BA74">
+        <v>1</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>3</v>
+      </c>
+      <c r="BD74">
+        <v>1.83</v>
+      </c>
+      <c r="BE74">
+        <v>9.4</v>
+      </c>
+      <c r="BF74">
+        <v>2.27</v>
+      </c>
+      <c r="BG74">
+        <v>1.15</v>
+      </c>
+      <c r="BH74">
+        <v>4.5</v>
+      </c>
+      <c r="BI74">
+        <v>1.31</v>
+      </c>
+      <c r="BJ74">
+        <v>3.04</v>
+      </c>
+      <c r="BK74">
+        <v>1.63</v>
+      </c>
+      <c r="BL74">
+        <v>2.23</v>
+      </c>
+      <c r="BM74">
+        <v>2</v>
+      </c>
+      <c r="BN74">
+        <v>1.81</v>
+      </c>
+      <c r="BO74">
+        <v>2.5</v>
+      </c>
+      <c r="BP74">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7292516</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45431.375</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>142</v>
+      </c>
+      <c r="P75" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q75">
+        <v>2.65</v>
+      </c>
+      <c r="R75">
+        <v>2.3</v>
+      </c>
+      <c r="S75">
+        <v>3.75</v>
+      </c>
+      <c r="T75">
+        <v>1.33</v>
+      </c>
+      <c r="U75">
+        <v>3.3</v>
+      </c>
+      <c r="V75">
+        <v>2.55</v>
+      </c>
+      <c r="W75">
+        <v>1.5</v>
+      </c>
+      <c r="X75">
+        <v>6</v>
+      </c>
+      <c r="Y75">
+        <v>1.12</v>
+      </c>
+      <c r="Z75">
+        <v>2.1</v>
+      </c>
+      <c r="AA75">
+        <v>3.55</v>
+      </c>
+      <c r="AB75">
+        <v>3.4</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>15</v>
+      </c>
+      <c r="AE75">
+        <v>1.22</v>
+      </c>
+      <c r="AF75">
+        <v>4.33</v>
+      </c>
+      <c r="AG75">
+        <v>1.64</v>
+      </c>
+      <c r="AH75">
+        <v>2.23</v>
+      </c>
+      <c r="AI75">
+        <v>1.6</v>
+      </c>
+      <c r="AJ75">
+        <v>2.3</v>
+      </c>
+      <c r="AK75">
+        <v>1.32</v>
+      </c>
+      <c r="AL75">
+        <v>1.24</v>
+      </c>
+      <c r="AM75">
+        <v>1.8</v>
+      </c>
+      <c r="AN75">
+        <v>0.5</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>0.83</v>
+      </c>
+      <c r="AR75">
+        <v>1.49</v>
+      </c>
+      <c r="AS75">
+        <v>1.14</v>
+      </c>
+      <c r="AT75">
+        <v>2.63</v>
+      </c>
+      <c r="AU75">
+        <v>3</v>
+      </c>
+      <c r="AV75">
+        <v>6</v>
+      </c>
+      <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75">
+        <v>9</v>
+      </c>
+      <c r="AY75">
+        <v>5</v>
+      </c>
+      <c r="AZ75">
+        <v>15</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>3</v>
+      </c>
+      <c r="BD75">
+        <v>1.62</v>
+      </c>
+      <c r="BE75">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF75">
+        <v>2.67</v>
+      </c>
+      <c r="BG75">
+        <v>1.1</v>
+      </c>
+      <c r="BH75">
+        <v>5.4</v>
+      </c>
+      <c r="BI75">
+        <v>1.23</v>
+      </c>
+      <c r="BJ75">
+        <v>3.56</v>
+      </c>
+      <c r="BK75">
+        <v>1.44</v>
+      </c>
+      <c r="BL75">
+        <v>2.58</v>
+      </c>
+      <c r="BM75">
+        <v>1.76</v>
+      </c>
+      <c r="BN75">
+        <v>2</v>
+      </c>
+      <c r="BO75">
+        <v>2.19</v>
+      </c>
+      <c r="BP75">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,9 @@
     <t>['5', '45+4']</t>
   </si>
   <si>
+    <t>['4', '18']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -584,6 +587,9 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['31', '35']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1210,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1410,7 +1416,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1491,7 +1497,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1616,7 +1622,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1694,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ4">
         <v>1.6</v>
@@ -2028,7 +2034,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2646,7 +2652,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2852,7 +2858,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3757,7 +3763,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3882,7 +3888,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4088,7 +4094,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4166,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ16">
         <v>1.2</v>
@@ -4294,7 +4300,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4500,7 +4506,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4706,7 +4712,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4912,7 +4918,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5530,7 +5536,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5608,7 +5614,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ23">
         <v>2.4</v>
@@ -5736,7 +5742,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6023,7 +6029,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6148,7 +6154,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6972,7 +6978,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7050,7 +7056,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7178,7 +7184,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7590,7 +7596,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7671,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -8002,7 +8008,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8208,7 +8214,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8414,7 +8420,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8620,7 +8626,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8701,7 +8707,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR38">
         <v>1.07</v>
@@ -8826,7 +8832,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -9032,7 +9038,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9238,7 +9244,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9650,7 +9656,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9728,7 +9734,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10062,7 +10068,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10268,7 +10274,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10349,7 +10355,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>1.87</v>
@@ -10474,7 +10480,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11092,7 +11098,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11298,7 +11304,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11504,7 +11510,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11710,7 +11716,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11916,7 +11922,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12122,7 +12128,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12328,7 +12334,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12534,7 +12540,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12612,7 +12618,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -12740,7 +12746,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12946,7 +12952,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13230,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ60">
         <v>0</v>
@@ -13358,7 +13364,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13564,7 +13570,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13645,7 +13651,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR62">
         <v>1.81</v>
@@ -13770,7 +13776,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -13848,7 +13854,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ63">
         <v>1.6</v>
@@ -14057,7 +14063,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14182,7 +14188,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -15006,7 +15012,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15418,7 +15424,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15624,7 +15630,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15830,7 +15836,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16036,7 +16042,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16129,31 +16135,31 @@
         <v>2.81</v>
       </c>
       <c r="AU74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW74">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX74">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AY74">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AZ74">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BA74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC74">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD74">
         <v>1.83</v>
@@ -16242,7 +16248,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16335,22 +16341,22 @@
         <v>2.63</v>
       </c>
       <c r="AU75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75">
+        <v>10</v>
+      </c>
+      <c r="AY75">
         <v>6</v>
       </c>
-      <c r="AW75">
-        <v>2</v>
-      </c>
-      <c r="AX75">
-        <v>9</v>
-      </c>
-      <c r="AY75">
-        <v>5</v>
-      </c>
       <c r="AZ75">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA75">
         <v>0</v>
@@ -16399,6 +16405,418 @@
       </c>
       <c r="BP75">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7292512</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45431.47916666666</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>143</v>
+      </c>
+      <c r="P76" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q76">
+        <v>3.5</v>
+      </c>
+      <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
+        <v>2.95</v>
+      </c>
+      <c r="T76">
+        <v>1.35</v>
+      </c>
+      <c r="U76">
+        <v>3.05</v>
+      </c>
+      <c r="V76">
+        <v>2.58</v>
+      </c>
+      <c r="W76">
+        <v>1.47</v>
+      </c>
+      <c r="X76">
+        <v>6.25</v>
+      </c>
+      <c r="Y76">
+        <v>1.1</v>
+      </c>
+      <c r="Z76">
+        <v>2.88</v>
+      </c>
+      <c r="AA76">
+        <v>3.4</v>
+      </c>
+      <c r="AB76">
+        <v>2.2</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>13</v>
+      </c>
+      <c r="AE76">
+        <v>1.25</v>
+      </c>
+      <c r="AF76">
+        <v>4</v>
+      </c>
+      <c r="AG76">
+        <v>1.7</v>
+      </c>
+      <c r="AH76">
+        <v>1.95</v>
+      </c>
+      <c r="AI76">
+        <v>1.6</v>
+      </c>
+      <c r="AJ76">
+        <v>2.3</v>
+      </c>
+      <c r="AK76">
+        <v>1.63</v>
+      </c>
+      <c r="AL76">
+        <v>1.26</v>
+      </c>
+      <c r="AM76">
+        <v>1.4</v>
+      </c>
+      <c r="AN76">
+        <v>2.25</v>
+      </c>
+      <c r="AO76">
+        <v>0.75</v>
+      </c>
+      <c r="AP76">
+        <v>2.4</v>
+      </c>
+      <c r="AQ76">
+        <v>0.6</v>
+      </c>
+      <c r="AR76">
+        <v>1.42</v>
+      </c>
+      <c r="AS76">
+        <v>1.31</v>
+      </c>
+      <c r="AT76">
+        <v>2.73</v>
+      </c>
+      <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>9</v>
+      </c>
+      <c r="AX76">
+        <v>6</v>
+      </c>
+      <c r="AY76">
+        <v>13</v>
+      </c>
+      <c r="AZ76">
+        <v>9</v>
+      </c>
+      <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>4</v>
+      </c>
+      <c r="BD76">
+        <v>2.3</v>
+      </c>
+      <c r="BE76">
+        <v>7.5</v>
+      </c>
+      <c r="BF76">
+        <v>1.88</v>
+      </c>
+      <c r="BG76">
+        <v>1.18</v>
+      </c>
+      <c r="BH76">
+        <v>4.5</v>
+      </c>
+      <c r="BI76">
+        <v>1.34</v>
+      </c>
+      <c r="BJ76">
+        <v>3.1</v>
+      </c>
+      <c r="BK76">
+        <v>1.61</v>
+      </c>
+      <c r="BL76">
+        <v>2.23</v>
+      </c>
+      <c r="BM76">
+        <v>2.02</v>
+      </c>
+      <c r="BN76">
+        <v>1.74</v>
+      </c>
+      <c r="BO76">
+        <v>2.7</v>
+      </c>
+      <c r="BP76">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7292515</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45431.47916666666</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>88</v>
+      </c>
+      <c r="P77" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q77">
+        <v>3.26</v>
+      </c>
+      <c r="R77">
+        <v>2.24</v>
+      </c>
+      <c r="S77">
+        <v>3.5</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.99</v>
+      </c>
+      <c r="V77">
+        <v>2.99</v>
+      </c>
+      <c r="W77">
+        <v>1.4</v>
+      </c>
+      <c r="X77">
+        <v>6.5</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>2.4</v>
+      </c>
+      <c r="AA77">
+        <v>3.3</v>
+      </c>
+      <c r="AB77">
+        <v>2.62</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>9</v>
+      </c>
+      <c r="AE77">
+        <v>1.3</v>
+      </c>
+      <c r="AF77">
+        <v>3.2</v>
+      </c>
+      <c r="AG77">
+        <v>1.91</v>
+      </c>
+      <c r="AH77">
+        <v>1.75</v>
+      </c>
+      <c r="AI77">
+        <v>1.75</v>
+      </c>
+      <c r="AJ77">
+        <v>2.1</v>
+      </c>
+      <c r="AK77">
+        <v>1.35</v>
+      </c>
+      <c r="AL77">
+        <v>1.28</v>
+      </c>
+      <c r="AM77">
+        <v>1.48</v>
+      </c>
+      <c r="AN77">
+        <v>0.25</v>
+      </c>
+      <c r="AO77">
+        <v>0.75</v>
+      </c>
+      <c r="AP77">
+        <v>0.2</v>
+      </c>
+      <c r="AQ77">
+        <v>1.2</v>
+      </c>
+      <c r="AR77">
+        <v>1.03</v>
+      </c>
+      <c r="AS77">
+        <v>1.25</v>
+      </c>
+      <c r="AT77">
+        <v>2.28</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>10</v>
+      </c>
+      <c r="AX77">
+        <v>2</v>
+      </c>
+      <c r="AY77">
+        <v>15</v>
+      </c>
+      <c r="AZ77">
+        <v>9</v>
+      </c>
+      <c r="BA77">
+        <v>8</v>
+      </c>
+      <c r="BB77">
+        <v>3</v>
+      </c>
+      <c r="BC77">
+        <v>11</v>
+      </c>
+      <c r="BD77">
+        <v>1.67</v>
+      </c>
+      <c r="BE77">
+        <v>9.5</v>
+      </c>
+      <c r="BF77">
+        <v>2.58</v>
+      </c>
+      <c r="BG77">
+        <v>1.17</v>
+      </c>
+      <c r="BH77">
+        <v>4.25</v>
+      </c>
+      <c r="BI77">
+        <v>1.34</v>
+      </c>
+      <c r="BJ77">
+        <v>2.88</v>
+      </c>
+      <c r="BK77">
+        <v>1.67</v>
+      </c>
+      <c r="BL77">
+        <v>2.19</v>
+      </c>
+      <c r="BM77">
+        <v>2.04</v>
+      </c>
+      <c r="BN77">
+        <v>1.76</v>
+      </c>
+      <c r="BO77">
+        <v>2.65</v>
+      </c>
+      <c r="BP77">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,15 @@
     <t>['4', '18']</t>
   </si>
   <si>
+    <t>['7', '16']</t>
+  </si>
+  <si>
+    <t>['76', '90+3']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -590,6 +599,9 @@
   </si>
   <si>
     <t>['31', '35']</t>
+  </si>
+  <si>
+    <t>['8', '48']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,7 +1222,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1291,7 +1303,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1416,7 +1428,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1622,7 +1634,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1906,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2034,7 +2046,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2112,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
         <v>2.25</v>
@@ -2321,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2527,7 +2539,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2652,7 +2664,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2858,7 +2870,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3888,7 +3900,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4094,7 +4106,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4300,7 +4312,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4378,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
         <v>1.75</v>
@@ -4506,7 +4518,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4712,7 +4724,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4793,7 +4805,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
         <v>1.04</v>
@@ -4918,7 +4930,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5408,7 +5420,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
         <v>1.4</v>
@@ -5536,7 +5548,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5617,7 +5629,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ23">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR23">
         <v>1.23</v>
@@ -5742,7 +5754,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -5820,7 +5832,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>1.6</v>
@@ -6154,7 +6166,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6438,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27">
         <v>0.83</v>
@@ -6647,7 +6659,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR28">
         <v>2.62</v>
@@ -6978,7 +6990,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7059,7 +7071,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7184,7 +7196,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7468,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
         <v>0.6</v>
@@ -7596,7 +7608,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8008,7 +8020,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8086,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -8214,7 +8226,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8420,7 +8432,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8498,10 +8510,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ37">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR37">
         <v>1.74</v>
@@ -8626,7 +8638,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8832,7 +8844,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -9038,7 +9050,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9244,7 +9256,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9325,7 +9337,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
         <v>1.61</v>
@@ -9656,7 +9668,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9737,7 +9749,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>0.88</v>
@@ -9940,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44">
         <v>1.2</v>
@@ -10068,7 +10080,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10146,7 +10158,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>0.83</v>
@@ -10274,7 +10286,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10480,7 +10492,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10973,7 +10985,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -11098,7 +11110,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11179,7 +11191,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.18</v>
@@ -11304,7 +11316,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11510,7 +11522,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11716,7 +11728,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11797,7 +11809,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -11922,7 +11934,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12128,7 +12140,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12334,7 +12346,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12540,7 +12552,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12746,7 +12758,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12952,7 +12964,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13033,7 +13045,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR59">
         <v>0.92</v>
@@ -13239,7 +13251,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ60">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13364,7 +13376,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13570,7 +13582,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13648,7 +13660,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ62">
         <v>1.2</v>
@@ -13776,7 +13788,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14060,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ64">
         <v>0.6</v>
@@ -14188,7 +14200,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14266,10 +14278,10 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ65">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -15012,7 +15024,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15424,7 +15436,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15630,7 +15642,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15836,7 +15848,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16042,7 +16054,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16248,7 +16260,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16660,7 +16672,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -16817,6 +16829,830 @@
       </c>
       <c r="BP77">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7292509</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45432.58333333334</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>144</v>
+      </c>
+      <c r="P78" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q78">
+        <v>1.72</v>
+      </c>
+      <c r="R78">
+        <v>2.65</v>
+      </c>
+      <c r="S78">
+        <v>8.5</v>
+      </c>
+      <c r="T78">
+        <v>1.32</v>
+      </c>
+      <c r="U78">
+        <v>3.4</v>
+      </c>
+      <c r="V78">
+        <v>2.5</v>
+      </c>
+      <c r="W78">
+        <v>1.52</v>
+      </c>
+      <c r="X78">
+        <v>6</v>
+      </c>
+      <c r="Y78">
+        <v>1.12</v>
+      </c>
+      <c r="Z78">
+        <v>1.3</v>
+      </c>
+      <c r="AA78">
+        <v>5</v>
+      </c>
+      <c r="AB78">
+        <v>9</v>
+      </c>
+      <c r="AC78">
+        <v>1.03</v>
+      </c>
+      <c r="AD78">
+        <v>15</v>
+      </c>
+      <c r="AE78">
+        <v>1.22</v>
+      </c>
+      <c r="AF78">
+        <v>4.33</v>
+      </c>
+      <c r="AG78">
+        <v>1.7</v>
+      </c>
+      <c r="AH78">
+        <v>1.99</v>
+      </c>
+      <c r="AI78">
+        <v>2.2</v>
+      </c>
+      <c r="AJ78">
+        <v>1.68</v>
+      </c>
+      <c r="AK78">
+        <v>1.02</v>
+      </c>
+      <c r="AL78">
+        <v>1.11</v>
+      </c>
+      <c r="AM78">
+        <v>3.6</v>
+      </c>
+      <c r="AN78">
+        <v>2</v>
+      </c>
+      <c r="AO78">
+        <v>1.5</v>
+      </c>
+      <c r="AP78">
+        <v>2.17</v>
+      </c>
+      <c r="AQ78">
+        <v>1.2</v>
+      </c>
+      <c r="AR78">
+        <v>1.54</v>
+      </c>
+      <c r="AS78">
+        <v>0.95</v>
+      </c>
+      <c r="AT78">
+        <v>2.49</v>
+      </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>5</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>10</v>
+      </c>
+      <c r="AZ78">
+        <v>6</v>
+      </c>
+      <c r="BA78">
+        <v>8</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>1.1</v>
+      </c>
+      <c r="BE78">
+        <v>15</v>
+      </c>
+      <c r="BF78">
+        <v>8.4</v>
+      </c>
+      <c r="BG78">
+        <v>1.17</v>
+      </c>
+      <c r="BH78">
+        <v>4.25</v>
+      </c>
+      <c r="BI78">
+        <v>1.33</v>
+      </c>
+      <c r="BJ78">
+        <v>2.91</v>
+      </c>
+      <c r="BK78">
+        <v>1.64</v>
+      </c>
+      <c r="BL78">
+        <v>2.23</v>
+      </c>
+      <c r="BM78">
+        <v>2.03</v>
+      </c>
+      <c r="BN78">
+        <v>1.77</v>
+      </c>
+      <c r="BO78">
+        <v>2.62</v>
+      </c>
+      <c r="BP78">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7292514</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45432.58333333334</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>88</v>
+      </c>
+      <c r="P79" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q79">
+        <v>2.75</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>3.75</v>
+      </c>
+      <c r="T79">
+        <v>1.35</v>
+      </c>
+      <c r="U79">
+        <v>3.3</v>
+      </c>
+      <c r="V79">
+        <v>2.55</v>
+      </c>
+      <c r="W79">
+        <v>1.5</v>
+      </c>
+      <c r="X79">
+        <v>6</v>
+      </c>
+      <c r="Y79">
+        <v>1.12</v>
+      </c>
+      <c r="Z79">
+        <v>2.05</v>
+      </c>
+      <c r="AA79">
+        <v>3.5</v>
+      </c>
+      <c r="AB79">
+        <v>3.3</v>
+      </c>
+      <c r="AC79">
+        <v>1.03</v>
+      </c>
+      <c r="AD79">
+        <v>15</v>
+      </c>
+      <c r="AE79">
+        <v>1.22</v>
+      </c>
+      <c r="AF79">
+        <v>4.33</v>
+      </c>
+      <c r="AG79">
+        <v>1.63</v>
+      </c>
+      <c r="AH79">
+        <v>2.09</v>
+      </c>
+      <c r="AI79">
+        <v>1.58</v>
+      </c>
+      <c r="AJ79">
+        <v>2.35</v>
+      </c>
+      <c r="AK79">
+        <v>1.35</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.75</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
+        <v>0.2</v>
+      </c>
+      <c r="AR79">
+        <v>1.6</v>
+      </c>
+      <c r="AS79">
+        <v>1.44</v>
+      </c>
+      <c r="AT79">
+        <v>3.04</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>8</v>
+      </c>
+      <c r="AW79">
+        <v>8</v>
+      </c>
+      <c r="AX79">
+        <v>10</v>
+      </c>
+      <c r="AY79">
+        <v>13</v>
+      </c>
+      <c r="AZ79">
+        <v>18</v>
+      </c>
+      <c r="BA79">
+        <v>3</v>
+      </c>
+      <c r="BB79">
+        <v>7</v>
+      </c>
+      <c r="BC79">
+        <v>10</v>
+      </c>
+      <c r="BD79">
+        <v>1.88</v>
+      </c>
+      <c r="BE79">
+        <v>7.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.3</v>
+      </c>
+      <c r="BG79">
+        <v>1.18</v>
+      </c>
+      <c r="BH79">
+        <v>4.6</v>
+      </c>
+      <c r="BI79">
+        <v>1.34</v>
+      </c>
+      <c r="BJ79">
+        <v>3.1</v>
+      </c>
+      <c r="BK79">
+        <v>1.6</v>
+      </c>
+      <c r="BL79">
+        <v>2.25</v>
+      </c>
+      <c r="BM79">
+        <v>2</v>
+      </c>
+      <c r="BN79">
+        <v>1.75</v>
+      </c>
+      <c r="BO79">
+        <v>2.65</v>
+      </c>
+      <c r="BP79">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7292513</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45432.59027777778</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s">
+        <v>80</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>145</v>
+      </c>
+      <c r="P80" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q80">
+        <v>3.75</v>
+      </c>
+      <c r="R80">
+        <v>2.4</v>
+      </c>
+      <c r="S80">
+        <v>2.55</v>
+      </c>
+      <c r="T80">
+        <v>1.28</v>
+      </c>
+      <c r="U80">
+        <v>3.75</v>
+      </c>
+      <c r="V80">
+        <v>2.25</v>
+      </c>
+      <c r="W80">
+        <v>1.63</v>
+      </c>
+      <c r="X80">
+        <v>5</v>
+      </c>
+      <c r="Y80">
+        <v>1.16</v>
+      </c>
+      <c r="Z80">
+        <v>3.25</v>
+      </c>
+      <c r="AA80">
+        <v>3.7</v>
+      </c>
+      <c r="AB80">
+        <v>2</v>
+      </c>
+      <c r="AC80">
+        <v>1.02</v>
+      </c>
+      <c r="AD80">
+        <v>19</v>
+      </c>
+      <c r="AE80">
+        <v>1.16</v>
+      </c>
+      <c r="AF80">
+        <v>5.5</v>
+      </c>
+      <c r="AG80">
+        <v>1.47</v>
+      </c>
+      <c r="AH80">
+        <v>2.43</v>
+      </c>
+      <c r="AI80">
+        <v>1.47</v>
+      </c>
+      <c r="AJ80">
+        <v>2.7</v>
+      </c>
+      <c r="AK80">
+        <v>1.83</v>
+      </c>
+      <c r="AL80">
+        <v>1.22</v>
+      </c>
+      <c r="AM80">
+        <v>1.33</v>
+      </c>
+      <c r="AN80">
+        <v>1.8</v>
+      </c>
+      <c r="AO80">
+        <v>2.4</v>
+      </c>
+      <c r="AP80">
+        <v>1.67</v>
+      </c>
+      <c r="AQ80">
+        <v>2.17</v>
+      </c>
+      <c r="AR80">
+        <v>1.83</v>
+      </c>
+      <c r="AS80">
+        <v>1.6</v>
+      </c>
+      <c r="AT80">
+        <v>3.43</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>7</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>11</v>
+      </c>
+      <c r="AZ80">
+        <v>8</v>
+      </c>
+      <c r="BA80">
+        <v>10</v>
+      </c>
+      <c r="BB80">
+        <v>4</v>
+      </c>
+      <c r="BC80">
+        <v>14</v>
+      </c>
+      <c r="BD80">
+        <v>2.35</v>
+      </c>
+      <c r="BE80">
+        <v>10</v>
+      </c>
+      <c r="BF80">
+        <v>1.76</v>
+      </c>
+      <c r="BG80">
+        <v>1.1</v>
+      </c>
+      <c r="BH80">
+        <v>6.1</v>
+      </c>
+      <c r="BI80">
+        <v>1.17</v>
+      </c>
+      <c r="BJ80">
+        <v>4.25</v>
+      </c>
+      <c r="BK80">
+        <v>1.33</v>
+      </c>
+      <c r="BL80">
+        <v>2.93</v>
+      </c>
+      <c r="BM80">
+        <v>1.58</v>
+      </c>
+      <c r="BN80">
+        <v>2.23</v>
+      </c>
+      <c r="BO80">
+        <v>1.96</v>
+      </c>
+      <c r="BP80">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7292511</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45433.58333333334</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>146</v>
+      </c>
+      <c r="P81" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q81">
+        <v>2.95</v>
+      </c>
+      <c r="R81">
+        <v>2.1</v>
+      </c>
+      <c r="S81">
+        <v>3.75</v>
+      </c>
+      <c r="T81">
+        <v>1.44</v>
+      </c>
+      <c r="U81">
+        <v>2.85</v>
+      </c>
+      <c r="V81">
+        <v>3.1</v>
+      </c>
+      <c r="W81">
+        <v>1.36</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.07</v>
+      </c>
+      <c r="Z81">
+        <v>2.2</v>
+      </c>
+      <c r="AA81">
+        <v>3.45</v>
+      </c>
+      <c r="AB81">
+        <v>2.94</v>
+      </c>
+      <c r="AC81">
+        <v>1.06</v>
+      </c>
+      <c r="AD81">
+        <v>11</v>
+      </c>
+      <c r="AE81">
+        <v>1.36</v>
+      </c>
+      <c r="AF81">
+        <v>3.2</v>
+      </c>
+      <c r="AG81">
+        <v>2</v>
+      </c>
+      <c r="AH81">
+        <v>1.72</v>
+      </c>
+      <c r="AI81">
+        <v>1.85</v>
+      </c>
+      <c r="AJ81">
+        <v>1.95</v>
+      </c>
+      <c r="AK81">
+        <v>1.36</v>
+      </c>
+      <c r="AL81">
+        <v>1.28</v>
+      </c>
+      <c r="AM81">
+        <v>1.68</v>
+      </c>
+      <c r="AN81">
+        <v>0.25</v>
+      </c>
+      <c r="AO81">
+        <v>1.5</v>
+      </c>
+      <c r="AP81">
+        <v>0.8</v>
+      </c>
+      <c r="AQ81">
+        <v>1.2</v>
+      </c>
+      <c r="AR81">
+        <v>1.21</v>
+      </c>
+      <c r="AS81">
+        <v>1.25</v>
+      </c>
+      <c r="AT81">
+        <v>2.46</v>
+      </c>
+      <c r="AU81">
+        <v>2</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <v>3</v>
+      </c>
+      <c r="AX81">
+        <v>3</v>
+      </c>
+      <c r="AY81">
+        <v>5</v>
+      </c>
+      <c r="AZ81">
+        <v>3</v>
+      </c>
+      <c r="BA81">
+        <v>3</v>
+      </c>
+      <c r="BB81">
+        <v>4</v>
+      </c>
+      <c r="BC81">
+        <v>7</v>
+      </c>
+      <c r="BD81">
+        <v>1.88</v>
+      </c>
+      <c r="BE81">
+        <v>7.5</v>
+      </c>
+      <c r="BF81">
+        <v>2.3</v>
+      </c>
+      <c r="BG81">
+        <v>1.18</v>
+      </c>
+      <c r="BH81">
+        <v>4.6</v>
+      </c>
+      <c r="BI81">
+        <v>1.34</v>
+      </c>
+      <c r="BJ81">
+        <v>3.1</v>
+      </c>
+      <c r="BK81">
+        <v>1.6</v>
+      </c>
+      <c r="BL81">
+        <v>2.25</v>
+      </c>
+      <c r="BM81">
+        <v>2</v>
+      </c>
+      <c r="BN81">
+        <v>1.75</v>
+      </c>
+      <c r="BO81">
+        <v>2.65</v>
+      </c>
+      <c r="BP81">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -16971,22 +16971,22 @@
         <v>2.49</v>
       </c>
       <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>15</v>
+      </c>
+      <c r="AX78">
         <v>5</v>
       </c>
-      <c r="AV78">
-        <v>3</v>
-      </c>
-      <c r="AW78">
-        <v>5</v>
-      </c>
-      <c r="AX78">
-        <v>3</v>
-      </c>
       <c r="AY78">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AZ78">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA78">
         <v>8</v>
@@ -17180,19 +17180,19 @@
         <v>5</v>
       </c>
       <c r="AV79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW79">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX79">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AY79">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ79">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA79">
         <v>3</v>
@@ -17383,22 +17383,22 @@
         <v>3.43</v>
       </c>
       <c r="AU80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW80">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AX80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY80">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ80">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA80">
         <v>10</v>
@@ -17589,31 +17589,31 @@
         <v>2.46</v>
       </c>
       <c r="AU81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX81">
         <v>3</v>
       </c>
       <c r="AY81">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC81">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD81">
         <v>1.88</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -17589,22 +17589,22 @@
         <v>2.46</v>
       </c>
       <c r="AU81">
+        <v>6</v>
+      </c>
+      <c r="AV81">
         <v>5</v>
       </c>
-      <c r="AV81">
-        <v>3</v>
-      </c>
       <c r="AW81">
+        <v>7</v>
+      </c>
+      <c r="AX81">
         <v>4</v>
       </c>
-      <c r="AX81">
-        <v>3</v>
-      </c>
       <c r="AY81">
+        <v>13</v>
+      </c>
+      <c r="AZ81">
         <v>9</v>
-      </c>
-      <c r="AZ81">
-        <v>6</v>
       </c>
       <c r="BA81">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['4', '7', '32', '41', '56']</t>
+  </si>
+  <si>
+    <t>['49', '89']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -963,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1228,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1428,7 +1434,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1509,7 +1515,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1634,7 +1640,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2046,7 +2052,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2333,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2664,7 +2670,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2742,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2870,7 +2876,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3900,7 +3906,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4106,7 +4112,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4312,7 +4318,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4518,7 +4524,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4724,7 +4730,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4805,7 +4811,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.04</v>
@@ -4930,7 +4936,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5548,7 +5554,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5754,7 +5760,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6166,7 +6172,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6990,7 +6996,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7196,7 +7202,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7608,7 +7614,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7686,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -8020,7 +8026,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8226,7 +8232,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8432,7 +8438,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8638,7 +8644,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8844,7 +8850,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -9050,7 +9056,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9256,7 +9262,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9668,7 +9674,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9749,7 +9755,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>0.88</v>
@@ -10080,7 +10086,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10286,7 +10292,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10367,7 +10373,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.87</v>
@@ -10492,7 +10498,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10776,7 +10782,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ48">
         <v>1.4</v>
@@ -11110,7 +11116,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11191,7 +11197,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ50">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.18</v>
@@ -11316,7 +11322,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11522,7 +11528,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11728,7 +11734,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11806,7 +11812,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
         <v>2.17</v>
@@ -11934,7 +11940,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12140,7 +12146,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12346,7 +12352,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12552,7 +12558,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12758,7 +12764,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12964,7 +12970,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13376,7 +13382,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13582,7 +13588,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13663,7 +13669,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.81</v>
@@ -13788,7 +13794,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14200,7 +14206,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14484,7 +14490,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ66">
         <v>0.4</v>
@@ -15024,7 +15030,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15436,7 +15442,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15642,7 +15648,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15848,7 +15854,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16054,7 +16060,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16260,7 +16266,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16672,7 +16678,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -16753,7 +16759,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.03</v>
@@ -16959,7 +16965,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17290,7 +17296,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17653,6 +17659,418 @@
       </c>
       <c r="BP81">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7292519</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45436.58333333334</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s">
+        <v>83</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P82" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q82">
+        <v>1.73</v>
+      </c>
+      <c r="R82">
+        <v>2.75</v>
+      </c>
+      <c r="S82">
+        <v>8</v>
+      </c>
+      <c r="T82">
+        <v>1.25</v>
+      </c>
+      <c r="U82">
+        <v>3.75</v>
+      </c>
+      <c r="V82">
+        <v>2.1</v>
+      </c>
+      <c r="W82">
+        <v>1.67</v>
+      </c>
+      <c r="X82">
+        <v>5</v>
+      </c>
+      <c r="Y82">
+        <v>1.17</v>
+      </c>
+      <c r="Z82">
+        <v>1.21</v>
+      </c>
+      <c r="AA82">
+        <v>5.8</v>
+      </c>
+      <c r="AB82">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC82">
+        <v>1.02</v>
+      </c>
+      <c r="AD82">
+        <v>21.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.17</v>
+      </c>
+      <c r="AF82">
+        <v>5.25</v>
+      </c>
+      <c r="AG82">
+        <v>1.38</v>
+      </c>
+      <c r="AH82">
+        <v>2.74</v>
+      </c>
+      <c r="AI82">
+        <v>1.91</v>
+      </c>
+      <c r="AJ82">
+        <v>1.91</v>
+      </c>
+      <c r="AK82">
+        <v>1.04</v>
+      </c>
+      <c r="AL82">
+        <v>1.13</v>
+      </c>
+      <c r="AM82">
+        <v>3.65</v>
+      </c>
+      <c r="AN82">
+        <v>3</v>
+      </c>
+      <c r="AO82">
+        <v>1.2</v>
+      </c>
+      <c r="AP82">
+        <v>3</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>2.18</v>
+      </c>
+      <c r="AS82">
+        <v>1.27</v>
+      </c>
+      <c r="AT82">
+        <v>3.45</v>
+      </c>
+      <c r="AU82">
+        <v>11</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+      <c r="AW82">
+        <v>13</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+      <c r="AY82">
+        <v>24</v>
+      </c>
+      <c r="AZ82">
+        <v>4</v>
+      </c>
+      <c r="BA82">
+        <v>9</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>1.06</v>
+      </c>
+      <c r="BE82">
+        <v>15</v>
+      </c>
+      <c r="BF82">
+        <v>11.1</v>
+      </c>
+      <c r="BG82">
+        <v>1.09</v>
+      </c>
+      <c r="BH82">
+        <v>5.6</v>
+      </c>
+      <c r="BI82">
+        <v>1.29</v>
+      </c>
+      <c r="BJ82">
+        <v>3.4</v>
+      </c>
+      <c r="BK82">
+        <v>1.5</v>
+      </c>
+      <c r="BL82">
+        <v>2.45</v>
+      </c>
+      <c r="BM82">
+        <v>1.92</v>
+      </c>
+      <c r="BN82">
+        <v>1.88</v>
+      </c>
+      <c r="BO82">
+        <v>2.43</v>
+      </c>
+      <c r="BP82">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7292521</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45436.58333333334</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s">
+        <v>81</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>148</v>
+      </c>
+      <c r="P83" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q83">
+        <v>1.91</v>
+      </c>
+      <c r="R83">
+        <v>2.5</v>
+      </c>
+      <c r="S83">
+        <v>6.5</v>
+      </c>
+      <c r="T83">
+        <v>1.3</v>
+      </c>
+      <c r="U83">
+        <v>3.4</v>
+      </c>
+      <c r="V83">
+        <v>2.5</v>
+      </c>
+      <c r="W83">
+        <v>1.5</v>
+      </c>
+      <c r="X83">
+        <v>6</v>
+      </c>
+      <c r="Y83">
+        <v>1.13</v>
+      </c>
+      <c r="Z83">
+        <v>1.32</v>
+      </c>
+      <c r="AA83">
+        <v>4.8</v>
+      </c>
+      <c r="AB83">
+        <v>7.2</v>
+      </c>
+      <c r="AC83">
+        <v>1.02</v>
+      </c>
+      <c r="AD83">
+        <v>17</v>
+      </c>
+      <c r="AE83">
+        <v>1.2</v>
+      </c>
+      <c r="AF83">
+        <v>4.5</v>
+      </c>
+      <c r="AG83">
+        <v>1.61</v>
+      </c>
+      <c r="AH83">
+        <v>2.15</v>
+      </c>
+      <c r="AI83">
+        <v>1.95</v>
+      </c>
+      <c r="AJ83">
+        <v>1.8</v>
+      </c>
+      <c r="AK83">
+        <v>1.07</v>
+      </c>
+      <c r="AL83">
+        <v>1.12</v>
+      </c>
+      <c r="AM83">
+        <v>3.2</v>
+      </c>
+      <c r="AN83">
+        <v>2</v>
+      </c>
+      <c r="AO83">
+        <v>1.2</v>
+      </c>
+      <c r="AP83">
+        <v>2.17</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AR83">
+        <v>1.52</v>
+      </c>
+      <c r="AS83">
+        <v>0.98</v>
+      </c>
+      <c r="AT83">
+        <v>2.5</v>
+      </c>
+      <c r="AU83">
+        <v>8</v>
+      </c>
+      <c r="AV83">
+        <v>2</v>
+      </c>
+      <c r="AW83">
+        <v>10</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+      <c r="AY83">
+        <v>18</v>
+      </c>
+      <c r="AZ83">
+        <v>8</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>2</v>
+      </c>
+      <c r="BC83">
+        <v>6</v>
+      </c>
+      <c r="BD83">
+        <v>1.19</v>
+      </c>
+      <c r="BE83">
+        <v>11</v>
+      </c>
+      <c r="BF83">
+        <v>5.67</v>
+      </c>
+      <c r="BG83">
+        <v>1.16</v>
+      </c>
+      <c r="BH83">
+        <v>4.4</v>
+      </c>
+      <c r="BI83">
+        <v>1.3</v>
+      </c>
+      <c r="BJ83">
+        <v>3.3</v>
+      </c>
+      <c r="BK83">
+        <v>1.55</v>
+      </c>
+      <c r="BL83">
+        <v>2.38</v>
+      </c>
+      <c r="BM83">
+        <v>1.98</v>
+      </c>
+      <c r="BN83">
+        <v>1.82</v>
+      </c>
+      <c r="BO83">
+        <v>2.5</v>
+      </c>
+      <c r="BP83">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,12 @@
     <t>['49', '89']</t>
   </si>
   <si>
+    <t>['4', '45+2', '57']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -608,6 +614,9 @@
   </si>
   <si>
     <t>['8', '48']</t>
+  </si>
+  <si>
+    <t>['11', '23', '87']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1237,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1434,7 +1443,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1640,7 +1649,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1718,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>1.6</v>
@@ -2052,7 +2061,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2133,7 +2142,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2670,7 +2679,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2876,7 +2885,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3160,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ11">
         <v>0.83</v>
@@ -3906,7 +3915,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4112,7 +4121,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4318,7 +4327,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4399,7 +4408,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4524,7 +4533,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4602,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>0.4</v>
@@ -4730,7 +4739,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4936,7 +4945,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5554,7 +5563,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5760,7 +5769,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6172,7 +6181,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6871,7 +6880,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR29">
         <v>1.2</v>
@@ -6996,7 +7005,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7074,7 +7083,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ30">
         <v>1.2</v>
@@ -7202,7 +7211,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7614,7 +7623,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8026,7 +8035,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8107,7 +8116,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ35">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8232,7 +8241,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8438,7 +8447,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8644,7 +8653,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8850,7 +8859,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -9056,7 +9065,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9262,7 +9271,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9674,7 +9683,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10086,7 +10095,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10292,7 +10301,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10370,7 +10379,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10498,7 +10507,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11116,7 +11125,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11322,7 +11331,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11400,7 +11409,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ51">
         <v>1.6</v>
@@ -11528,7 +11537,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11609,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11734,7 +11743,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11940,7 +11949,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12021,7 +12030,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ54">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -12146,7 +12155,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12352,7 +12361,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12558,7 +12567,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12636,7 +12645,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -12764,7 +12773,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12970,7 +12979,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13254,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ60">
         <v>0.2</v>
@@ -13382,7 +13391,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13588,7 +13597,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13794,7 +13803,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14206,7 +14215,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14699,7 +14708,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ67">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -14902,7 +14911,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ68">
         <v>0.6</v>
@@ -15030,7 +15039,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15442,7 +15451,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15648,7 +15657,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15854,7 +15863,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -15935,7 +15944,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16060,7 +16069,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16266,7 +16275,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16550,7 +16559,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76">
         <v>0.6</v>
@@ -16678,7 +16687,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17296,7 +17305,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17819,13 +17828,13 @@
         <v>4</v>
       </c>
       <c r="BA82">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BB82">
         <v>0</v>
       </c>
       <c r="BC82">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BD82">
         <v>1.06</v>
@@ -18071,6 +18080,418 @@
       </c>
       <c r="BP83">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7292522</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45437.45833333334</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" t="s">
+        <v>73</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>149</v>
+      </c>
+      <c r="P84" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q84">
+        <v>3.4</v>
+      </c>
+      <c r="R84">
+        <v>2.4</v>
+      </c>
+      <c r="S84">
+        <v>2.75</v>
+      </c>
+      <c r="T84">
+        <v>1.29</v>
+      </c>
+      <c r="U84">
+        <v>3.5</v>
+      </c>
+      <c r="V84">
+        <v>2.25</v>
+      </c>
+      <c r="W84">
+        <v>1.57</v>
+      </c>
+      <c r="X84">
+        <v>5.5</v>
+      </c>
+      <c r="Y84">
+        <v>1.14</v>
+      </c>
+      <c r="Z84">
+        <v>2.9</v>
+      </c>
+      <c r="AA84">
+        <v>3.5</v>
+      </c>
+      <c r="AB84">
+        <v>2.2</v>
+      </c>
+      <c r="AC84">
+        <v>1.02</v>
+      </c>
+      <c r="AD84">
+        <v>17</v>
+      </c>
+      <c r="AE84">
+        <v>1.18</v>
+      </c>
+      <c r="AF84">
+        <v>5</v>
+      </c>
+      <c r="AG84">
+        <v>1.51</v>
+      </c>
+      <c r="AH84">
+        <v>2.39</v>
+      </c>
+      <c r="AI84">
+        <v>1.5</v>
+      </c>
+      <c r="AJ84">
+        <v>2.5</v>
+      </c>
+      <c r="AK84">
+        <v>1.75</v>
+      </c>
+      <c r="AL84">
+        <v>1.24</v>
+      </c>
+      <c r="AM84">
+        <v>1.36</v>
+      </c>
+      <c r="AN84">
+        <v>2.4</v>
+      </c>
+      <c r="AO84">
+        <v>1.75</v>
+      </c>
+      <c r="AP84">
+        <v>2.5</v>
+      </c>
+      <c r="AQ84">
+        <v>1.4</v>
+      </c>
+      <c r="AR84">
+        <v>1.43</v>
+      </c>
+      <c r="AS84">
+        <v>1.59</v>
+      </c>
+      <c r="AT84">
+        <v>3.02</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>12</v>
+      </c>
+      <c r="AX84">
+        <v>13</v>
+      </c>
+      <c r="AY84">
+        <v>18</v>
+      </c>
+      <c r="AZ84">
+        <v>18</v>
+      </c>
+      <c r="BA84">
+        <v>10</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>12</v>
+      </c>
+      <c r="BD84">
+        <v>2.43</v>
+      </c>
+      <c r="BE84">
+        <v>7.5</v>
+      </c>
+      <c r="BF84">
+        <v>1.79</v>
+      </c>
+      <c r="BG84">
+        <v>1.12</v>
+      </c>
+      <c r="BH84">
+        <v>5.1</v>
+      </c>
+      <c r="BI84">
+        <v>1.27</v>
+      </c>
+      <c r="BJ84">
+        <v>3.55</v>
+      </c>
+      <c r="BK84">
+        <v>1.48</v>
+      </c>
+      <c r="BL84">
+        <v>2.55</v>
+      </c>
+      <c r="BM84">
+        <v>1.82</v>
+      </c>
+      <c r="BN84">
+        <v>1.98</v>
+      </c>
+      <c r="BO84">
+        <v>2.35</v>
+      </c>
+      <c r="BP84">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7292523</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45437.52083333334</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>150</v>
+      </c>
+      <c r="P85" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q85">
+        <v>3.5</v>
+      </c>
+      <c r="R85">
+        <v>2.2</v>
+      </c>
+      <c r="S85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>1.4</v>
+      </c>
+      <c r="U85">
+        <v>2.75</v>
+      </c>
+      <c r="V85">
+        <v>3</v>
+      </c>
+      <c r="W85">
+        <v>1.36</v>
+      </c>
+      <c r="X85">
+        <v>8</v>
+      </c>
+      <c r="Y85">
+        <v>1.08</v>
+      </c>
+      <c r="Z85">
+        <v>3.1</v>
+      </c>
+      <c r="AA85">
+        <v>3.3</v>
+      </c>
+      <c r="AB85">
+        <v>2.15</v>
+      </c>
+      <c r="AC85">
+        <v>1.06</v>
+      </c>
+      <c r="AD85">
+        <v>11</v>
+      </c>
+      <c r="AE85">
+        <v>1.33</v>
+      </c>
+      <c r="AF85">
+        <v>3.3</v>
+      </c>
+      <c r="AG85">
+        <v>2</v>
+      </c>
+      <c r="AH85">
+        <v>1.72</v>
+      </c>
+      <c r="AI85">
+        <v>1.75</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>1.66</v>
+      </c>
+      <c r="AL85">
+        <v>1.26</v>
+      </c>
+      <c r="AM85">
+        <v>1.38</v>
+      </c>
+      <c r="AN85">
+        <v>2.2</v>
+      </c>
+      <c r="AO85">
+        <v>2.25</v>
+      </c>
+      <c r="AP85">
+        <v>1.83</v>
+      </c>
+      <c r="AQ85">
+        <v>2.4</v>
+      </c>
+      <c r="AR85">
+        <v>1.51</v>
+      </c>
+      <c r="AS85">
+        <v>1.66</v>
+      </c>
+      <c r="AT85">
+        <v>3.17</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>8</v>
+      </c>
+      <c r="AW85">
+        <v>9</v>
+      </c>
+      <c r="AX85">
+        <v>7</v>
+      </c>
+      <c r="AY85">
+        <v>13</v>
+      </c>
+      <c r="AZ85">
+        <v>15</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>3</v>
+      </c>
+      <c r="BC85">
+        <v>7</v>
+      </c>
+      <c r="BD85">
+        <v>2.43</v>
+      </c>
+      <c r="BE85">
+        <v>7.5</v>
+      </c>
+      <c r="BF85">
+        <v>1.8</v>
+      </c>
+      <c r="BG85">
+        <v>1.2</v>
+      </c>
+      <c r="BH85">
+        <v>4.35</v>
+      </c>
+      <c r="BI85">
+        <v>1.37</v>
+      </c>
+      <c r="BJ85">
+        <v>2.95</v>
+      </c>
+      <c r="BK85">
+        <v>1.65</v>
+      </c>
+      <c r="BL85">
+        <v>2.16</v>
+      </c>
+      <c r="BM85">
+        <v>2.1</v>
+      </c>
+      <c r="BN85">
+        <v>1.68</v>
+      </c>
+      <c r="BO85">
+        <v>2.8</v>
+      </c>
+      <c r="BP85">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,12 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['44', '57', '90']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -617,6 +623,9 @@
   </si>
   <si>
     <t>['11', '23', '87']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1246,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1443,7 +1452,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1521,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1649,7 +1658,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1730,7 +1739,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2061,7 +2070,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2679,7 +2688,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2885,7 +2894,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3787,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -3915,7 +3924,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3996,7 +4005,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4121,7 +4130,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4327,7 +4336,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4533,7 +4542,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4739,7 +4748,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4817,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4945,7 +4954,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5438,7 +5447,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5563,7 +5572,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5769,7 +5778,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -5850,7 +5859,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6053,7 +6062,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25">
         <v>0.6</v>
@@ -6181,7 +6190,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -7005,7 +7014,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7211,7 +7220,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7292,7 +7301,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>0.76</v>
@@ -7623,7 +7632,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8035,7 +8044,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8241,7 +8250,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8322,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>1.92</v>
@@ -8447,7 +8456,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8653,7 +8662,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8859,7 +8868,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -9065,7 +9074,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9271,7 +9280,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9349,7 +9358,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ41">
         <v>1.2</v>
@@ -9683,7 +9692,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10095,7 +10104,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10301,7 +10310,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10507,7 +10516,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10794,7 +10803,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ48">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.73</v>
@@ -10997,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49">
         <v>0.2</v>
@@ -11125,7 +11134,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11331,7 +11340,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11412,7 +11421,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11537,7 +11546,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11743,7 +11752,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11949,7 +11958,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12027,7 +12036,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
         <v>2.4</v>
@@ -12155,7 +12164,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12361,7 +12370,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12439,7 +12448,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12567,7 +12576,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12773,7 +12782,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12854,7 +12863,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -12979,7 +12988,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13391,7 +13400,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13597,7 +13606,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13803,7 +13812,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -13884,7 +13893,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ63">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>0.97</v>
@@ -14215,7 +14224,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -15039,7 +15048,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15117,7 +15126,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ69">
         <v>2</v>
@@ -15451,7 +15460,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15657,7 +15666,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15863,7 +15872,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16069,7 +16078,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16147,7 +16156,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ74">
         <v>0.4</v>
@@ -16275,7 +16284,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16687,7 +16696,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17305,7 +17314,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18335,7 +18344,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18446,13 +18455,13 @@
         <v>15</v>
       </c>
       <c r="BA85">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB85">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC85">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD85">
         <v>2.43</v>
@@ -18492,6 +18501,418 @@
       </c>
       <c r="BP85">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7292518</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45438.375</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" t="s">
+        <v>75</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>151</v>
+      </c>
+      <c r="P86" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q86">
+        <v>2.6</v>
+      </c>
+      <c r="R86">
+        <v>2.3</v>
+      </c>
+      <c r="S86">
+        <v>3.75</v>
+      </c>
+      <c r="T86">
+        <v>1.3</v>
+      </c>
+      <c r="U86">
+        <v>3.4</v>
+      </c>
+      <c r="V86">
+        <v>2.5</v>
+      </c>
+      <c r="W86">
+        <v>1.5</v>
+      </c>
+      <c r="X86">
+        <v>6</v>
+      </c>
+      <c r="Y86">
+        <v>1.13</v>
+      </c>
+      <c r="Z86">
+        <v>2</v>
+      </c>
+      <c r="AA86">
+        <v>3.5</v>
+      </c>
+      <c r="AB86">
+        <v>3.5</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>15</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>4.33</v>
+      </c>
+      <c r="AG86">
+        <v>1.65</v>
+      </c>
+      <c r="AH86">
+        <v>2.1</v>
+      </c>
+      <c r="AI86">
+        <v>1.57</v>
+      </c>
+      <c r="AJ86">
+        <v>2.25</v>
+      </c>
+      <c r="AK86">
+        <v>1.3</v>
+      </c>
+      <c r="AL86">
+        <v>1.24</v>
+      </c>
+      <c r="AM86">
+        <v>1.83</v>
+      </c>
+      <c r="AN86">
+        <v>2.4</v>
+      </c>
+      <c r="AO86">
+        <v>1.4</v>
+      </c>
+      <c r="AP86">
+        <v>2.5</v>
+      </c>
+      <c r="AQ86">
+        <v>1.17</v>
+      </c>
+      <c r="AR86">
+        <v>1.48</v>
+      </c>
+      <c r="AS86">
+        <v>1.33</v>
+      </c>
+      <c r="AT86">
+        <v>2.81</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86">
+        <v>9</v>
+      </c>
+      <c r="AX86">
+        <v>10</v>
+      </c>
+      <c r="AY86">
+        <v>16</v>
+      </c>
+      <c r="AZ86">
+        <v>10</v>
+      </c>
+      <c r="BA86">
+        <v>8</v>
+      </c>
+      <c r="BB86">
+        <v>8</v>
+      </c>
+      <c r="BC86">
+        <v>16</v>
+      </c>
+      <c r="BD86">
+        <v>1.69</v>
+      </c>
+      <c r="BE86">
+        <v>8.5</v>
+      </c>
+      <c r="BF86">
+        <v>2.53</v>
+      </c>
+      <c r="BG86">
+        <v>1.18</v>
+      </c>
+      <c r="BH86">
+        <v>4.6</v>
+      </c>
+      <c r="BI86">
+        <v>1.34</v>
+      </c>
+      <c r="BJ86">
+        <v>3.1</v>
+      </c>
+      <c r="BK86">
+        <v>1.6</v>
+      </c>
+      <c r="BL86">
+        <v>2.25</v>
+      </c>
+      <c r="BM86">
+        <v>1.95</v>
+      </c>
+      <c r="BN86">
+        <v>1.75</v>
+      </c>
+      <c r="BO86">
+        <v>2.65</v>
+      </c>
+      <c r="BP86">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7292524</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45438.47916666666</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s">
+        <v>78</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>152</v>
+      </c>
+      <c r="P87" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q87">
+        <v>2.88</v>
+      </c>
+      <c r="R87">
+        <v>2.25</v>
+      </c>
+      <c r="S87">
+        <v>3.5</v>
+      </c>
+      <c r="T87">
+        <v>1.33</v>
+      </c>
+      <c r="U87">
+        <v>3.25</v>
+      </c>
+      <c r="V87">
+        <v>2.63</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>6.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.11</v>
+      </c>
+      <c r="Z87">
+        <v>2.15</v>
+      </c>
+      <c r="AA87">
+        <v>3.55</v>
+      </c>
+      <c r="AB87">
+        <v>2.96</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>13</v>
+      </c>
+      <c r="AE87">
+        <v>1.28</v>
+      </c>
+      <c r="AF87">
+        <v>3.75</v>
+      </c>
+      <c r="AG87">
+        <v>1.72</v>
+      </c>
+      <c r="AH87">
+        <v>2</v>
+      </c>
+      <c r="AI87">
+        <v>1.62</v>
+      </c>
+      <c r="AJ87">
+        <v>2.2</v>
+      </c>
+      <c r="AK87">
+        <v>1.38</v>
+      </c>
+      <c r="AL87">
+        <v>1.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.68</v>
+      </c>
+      <c r="AN87">
+        <v>0.6</v>
+      </c>
+      <c r="AO87">
+        <v>1.6</v>
+      </c>
+      <c r="AP87">
+        <v>0.67</v>
+      </c>
+      <c r="AQ87">
+        <v>1.5</v>
+      </c>
+      <c r="AR87">
+        <v>1.67</v>
+      </c>
+      <c r="AS87">
+        <v>1.72</v>
+      </c>
+      <c r="AT87">
+        <v>3.39</v>
+      </c>
+      <c r="AU87">
+        <v>10</v>
+      </c>
+      <c r="AV87">
+        <v>6</v>
+      </c>
+      <c r="AW87">
+        <v>3</v>
+      </c>
+      <c r="AX87">
+        <v>7</v>
+      </c>
+      <c r="AY87">
+        <v>13</v>
+      </c>
+      <c r="AZ87">
+        <v>13</v>
+      </c>
+      <c r="BA87">
+        <v>7</v>
+      </c>
+      <c r="BB87">
+        <v>8</v>
+      </c>
+      <c r="BC87">
+        <v>15</v>
+      </c>
+      <c r="BD87">
+        <v>1.69</v>
+      </c>
+      <c r="BE87">
+        <v>8.5</v>
+      </c>
+      <c r="BF87">
+        <v>2.62</v>
+      </c>
+      <c r="BG87">
+        <v>1.17</v>
+      </c>
+      <c r="BH87">
+        <v>4.7</v>
+      </c>
+      <c r="BI87">
+        <v>1.32</v>
+      </c>
+      <c r="BJ87">
+        <v>3.2</v>
+      </c>
+      <c r="BK87">
+        <v>1.58</v>
+      </c>
+      <c r="BL87">
+        <v>2.28</v>
+      </c>
+      <c r="BM87">
+        <v>2</v>
+      </c>
+      <c r="BN87">
+        <v>1.8</v>
+      </c>
+      <c r="BO87">
+        <v>2.6</v>
+      </c>
+      <c r="BP87">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -18849,22 +18849,22 @@
         <v>3.39</v>
       </c>
       <c r="AU87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY87">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ87">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA87">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,9 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['34', '67', '75', '90+4', '90+7']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -626,6 +629,12 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['15', '69', '73', '90+2']</t>
+  </si>
+  <si>
+    <t>['26', '51']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1255,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1324,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
         <v>2.17</v>
@@ -1452,7 +1461,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1658,7 +1667,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2070,7 +2079,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2560,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
         <v>0.2</v>
@@ -2688,7 +2697,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2769,7 +2778,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2894,7 +2903,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3593,7 +3602,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3924,7 +3933,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4130,7 +4139,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4336,7 +4345,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4542,7 +4551,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4748,7 +4757,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4954,7 +4963,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5035,7 +5044,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>1.33</v>
@@ -5238,7 +5247,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
         <v>1.2</v>
@@ -5572,7 +5581,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5778,7 +5787,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6190,7 +6199,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6271,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6886,7 +6895,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29">
         <v>2.4</v>
@@ -7014,7 +7023,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7220,7 +7229,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7632,7 +7641,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7916,10 +7925,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR34">
         <v>1.09</v>
@@ -8044,7 +8053,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8250,7 +8259,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8456,7 +8465,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8662,7 +8671,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8740,7 +8749,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>0.6</v>
@@ -8868,7 +8877,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -9074,7 +9083,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9280,7 +9289,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9692,7 +9701,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10104,7 +10113,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10310,7 +10319,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10516,7 +10525,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10597,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -11134,7 +11143,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11340,7 +11349,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11546,7 +11555,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11752,7 +11761,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11958,7 +11967,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12164,7 +12173,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12242,7 +12251,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55">
         <v>0.83</v>
@@ -12370,7 +12379,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12451,7 +12460,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR56">
         <v>1.45</v>
@@ -12576,7 +12585,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12657,7 +12666,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -12782,7 +12791,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12860,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -12988,7 +12997,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13400,7 +13409,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13478,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
         <v>0.6</v>
@@ -13606,7 +13615,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13812,7 +13821,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14224,7 +14233,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -15048,7 +15057,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15129,7 +15138,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR69">
         <v>1.65</v>
@@ -15460,7 +15469,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15541,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR71">
         <v>1.6</v>
@@ -15666,7 +15675,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15872,7 +15881,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16078,7 +16087,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16284,7 +16293,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16696,7 +16705,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17314,7 +17323,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18344,7 +18353,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18756,7 +18765,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -18849,22 +18858,22 @@
         <v>3.39</v>
       </c>
       <c r="AU87">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY87">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ87">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA87">
         <v>7</v>
@@ -18912,6 +18921,418 @@
         <v>2.6</v>
       </c>
       <c r="BP87">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7292520</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" t="s">
+        <v>84</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>88</v>
+      </c>
+      <c r="P88" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q88">
+        <v>2.63</v>
+      </c>
+      <c r="R88">
+        <v>2.25</v>
+      </c>
+      <c r="S88">
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+      <c r="V88">
+        <v>2.63</v>
+      </c>
+      <c r="W88">
+        <v>1.44</v>
+      </c>
+      <c r="X88">
+        <v>7</v>
+      </c>
+      <c r="Y88">
+        <v>1.1</v>
+      </c>
+      <c r="Z88">
+        <v>1.95</v>
+      </c>
+      <c r="AA88">
+        <v>3.8</v>
+      </c>
+      <c r="AB88">
+        <v>3.63</v>
+      </c>
+      <c r="AC88">
+        <v>1.04</v>
+      </c>
+      <c r="AD88">
+        <v>13</v>
+      </c>
+      <c r="AE88">
+        <v>1.28</v>
+      </c>
+      <c r="AF88">
+        <v>3.75</v>
+      </c>
+      <c r="AG88">
+        <v>1.7</v>
+      </c>
+      <c r="AH88">
+        <v>2.03</v>
+      </c>
+      <c r="AI88">
+        <v>1.7</v>
+      </c>
+      <c r="AJ88">
+        <v>2.05</v>
+      </c>
+      <c r="AK88">
+        <v>1.25</v>
+      </c>
+      <c r="AL88">
+        <v>1.29</v>
+      </c>
+      <c r="AM88">
+        <v>1.75</v>
+      </c>
+      <c r="AN88">
+        <v>1.5</v>
+      </c>
+      <c r="AO88">
+        <v>2</v>
+      </c>
+      <c r="AP88">
+        <v>1.2</v>
+      </c>
+      <c r="AQ88">
+        <v>2.17</v>
+      </c>
+      <c r="AR88">
+        <v>1.33</v>
+      </c>
+      <c r="AS88">
+        <v>1.26</v>
+      </c>
+      <c r="AT88">
+        <v>2.59</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>2</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>9</v>
+      </c>
+      <c r="AZ88">
+        <v>6</v>
+      </c>
+      <c r="BA88">
+        <v>12</v>
+      </c>
+      <c r="BB88">
+        <v>4</v>
+      </c>
+      <c r="BC88">
+        <v>16</v>
+      </c>
+      <c r="BD88">
+        <v>1.82</v>
+      </c>
+      <c r="BE88">
+        <v>8.5</v>
+      </c>
+      <c r="BF88">
+        <v>2.32</v>
+      </c>
+      <c r="BG88">
+        <v>1.12</v>
+      </c>
+      <c r="BH88">
+        <v>5.05</v>
+      </c>
+      <c r="BI88">
+        <v>1.29</v>
+      </c>
+      <c r="BJ88">
+        <v>3.45</v>
+      </c>
+      <c r="BK88">
+        <v>1.5</v>
+      </c>
+      <c r="BL88">
+        <v>2.45</v>
+      </c>
+      <c r="BM88">
+        <v>1.95</v>
+      </c>
+      <c r="BN88">
+        <v>1.85</v>
+      </c>
+      <c r="BO88">
+        <v>2.43</v>
+      </c>
+      <c r="BP88">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7292517</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45439.59027777778</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>7</v>
+      </c>
+      <c r="O89" t="s">
+        <v>153</v>
+      </c>
+      <c r="P89" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q89">
+        <v>2.75</v>
+      </c>
+      <c r="R89">
+        <v>2.1</v>
+      </c>
+      <c r="S89">
+        <v>4</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>3</v>
+      </c>
+      <c r="W89">
+        <v>1.36</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>1.86</v>
+      </c>
+      <c r="AA89">
+        <v>4.02</v>
+      </c>
+      <c r="AB89">
+        <v>3.8</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>9</v>
+      </c>
+      <c r="AE89">
+        <v>1.3</v>
+      </c>
+      <c r="AF89">
+        <v>3.2</v>
+      </c>
+      <c r="AG89">
+        <v>1.7</v>
+      </c>
+      <c r="AH89">
+        <v>2.03</v>
+      </c>
+      <c r="AI89">
+        <v>1.8</v>
+      </c>
+      <c r="AJ89">
+        <v>1.95</v>
+      </c>
+      <c r="AK89">
+        <v>1.3</v>
+      </c>
+      <c r="AL89">
+        <v>1.3</v>
+      </c>
+      <c r="AM89">
+        <v>1.78</v>
+      </c>
+      <c r="AN89">
+        <v>2.4</v>
+      </c>
+      <c r="AO89">
+        <v>1.4</v>
+      </c>
+      <c r="AP89">
+        <v>2.5</v>
+      </c>
+      <c r="AQ89">
+        <v>1.17</v>
+      </c>
+      <c r="AR89">
+        <v>1.53</v>
+      </c>
+      <c r="AS89">
+        <v>1.84</v>
+      </c>
+      <c r="AT89">
+        <v>3.37</v>
+      </c>
+      <c r="AU89">
+        <v>8</v>
+      </c>
+      <c r="AV89">
+        <v>3</v>
+      </c>
+      <c r="AW89">
+        <v>14</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>22</v>
+      </c>
+      <c r="AZ89">
+        <v>5</v>
+      </c>
+      <c r="BA89">
+        <v>9</v>
+      </c>
+      <c r="BB89">
+        <v>6</v>
+      </c>
+      <c r="BC89">
+        <v>15</v>
+      </c>
+      <c r="BD89">
+        <v>1.65</v>
+      </c>
+      <c r="BE89">
+        <v>7.5</v>
+      </c>
+      <c r="BF89">
+        <v>2.75</v>
+      </c>
+      <c r="BG89">
+        <v>1.17</v>
+      </c>
+      <c r="BH89">
+        <v>4.7</v>
+      </c>
+      <c r="BI89">
+        <v>1.32</v>
+      </c>
+      <c r="BJ89">
+        <v>3.2</v>
+      </c>
+      <c r="BK89">
+        <v>1.58</v>
+      </c>
+      <c r="BL89">
+        <v>2.28</v>
+      </c>
+      <c r="BM89">
+        <v>1.98</v>
+      </c>
+      <c r="BN89">
+        <v>1.77</v>
+      </c>
+      <c r="BO89">
+        <v>2.6</v>
+      </c>
+      <c r="BP89">
         <v>1.46</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,9 @@
     <t>['34', '67', '75', '90+4', '90+7']</t>
   </si>
   <si>
+    <t>['40', '57']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -635,6 +638,9 @@
   </si>
   <si>
     <t>['26', '51']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1261,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1461,7 +1467,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1667,7 +1673,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2079,7 +2085,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2697,7 +2703,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2903,7 +2909,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3808,7 +3814,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3933,7 +3939,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4139,7 +4145,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4345,7 +4351,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4551,7 +4557,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4757,7 +4763,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4963,7 +4969,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5581,7 +5587,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5787,7 +5793,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6074,7 +6080,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6199,7 +6205,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -7023,7 +7029,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7229,7 +7235,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7641,7 +7647,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8053,7 +8059,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8259,7 +8265,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8465,7 +8471,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8671,7 +8677,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8752,7 +8758,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>1.07</v>
@@ -8877,7 +8883,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -9083,7 +9089,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9289,7 +9295,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9701,7 +9707,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10113,7 +10119,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10319,7 +10325,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10525,7 +10531,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11143,7 +11149,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11349,7 +11355,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11555,7 +11561,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11761,7 +11767,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11967,7 +11973,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12173,7 +12179,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12379,7 +12385,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12585,7 +12591,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12791,7 +12797,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12997,7 +13003,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13409,7 +13415,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13615,7 +13621,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13821,7 +13827,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14108,7 +14114,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14233,7 +14239,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -15057,7 +15063,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15469,7 +15475,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15675,7 +15681,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15881,7 +15887,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16087,7 +16093,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16293,7 +16299,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16580,7 +16586,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ76">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -16705,7 +16711,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17323,7 +17329,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18353,7 +18359,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18765,7 +18771,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -18971,7 +18977,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19064,31 +19070,31 @@
         <v>2.59</v>
       </c>
       <c r="AU88">
+        <v>6</v>
+      </c>
+      <c r="AV88">
+        <v>8</v>
+      </c>
+      <c r="AW88">
         <v>7</v>
       </c>
-      <c r="AV88">
-        <v>4</v>
-      </c>
-      <c r="AW88">
-        <v>2</v>
-      </c>
       <c r="AX88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY88">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ88">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA88">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="BB88">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC88">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="BD88">
         <v>1.82</v>
@@ -19177,7 +19183,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19270,22 +19276,22 @@
         <v>3.37</v>
       </c>
       <c r="AU89">
+        <v>13</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>18</v>
+      </c>
+      <c r="AX89">
         <v>8</v>
       </c>
-      <c r="AV89">
-        <v>3</v>
-      </c>
-      <c r="AW89">
-        <v>14</v>
-      </c>
-      <c r="AX89">
-        <v>2</v>
-      </c>
       <c r="AY89">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AZ89">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA89">
         <v>9</v>
@@ -19334,6 +19340,212 @@
       </c>
       <c r="BP89">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7292566</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45440.58333333334</v>
+      </c>
+      <c r="F90">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>154</v>
+      </c>
+      <c r="P90" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q90">
+        <v>1.92</v>
+      </c>
+      <c r="R90">
+        <v>2.49</v>
+      </c>
+      <c r="S90">
+        <v>5.85</v>
+      </c>
+      <c r="T90">
+        <v>1.28</v>
+      </c>
+      <c r="U90">
+        <v>3.48</v>
+      </c>
+      <c r="V90">
+        <v>2.32</v>
+      </c>
+      <c r="W90">
+        <v>1.57</v>
+      </c>
+      <c r="X90">
+        <v>5.3</v>
+      </c>
+      <c r="Y90">
+        <v>1.14</v>
+      </c>
+      <c r="Z90">
+        <v>1.42</v>
+      </c>
+      <c r="AA90">
+        <v>5</v>
+      </c>
+      <c r="AB90">
+        <v>7.5</v>
+      </c>
+      <c r="AC90">
+        <v>1.02</v>
+      </c>
+      <c r="AD90">
+        <v>17</v>
+      </c>
+      <c r="AE90">
+        <v>1.15</v>
+      </c>
+      <c r="AF90">
+        <v>4.45</v>
+      </c>
+      <c r="AG90">
+        <v>1.57</v>
+      </c>
+      <c r="AH90">
+        <v>2.4</v>
+      </c>
+      <c r="AI90">
+        <v>1.75</v>
+      </c>
+      <c r="AJ90">
+        <v>2.01</v>
+      </c>
+      <c r="AK90">
+        <v>1.11</v>
+      </c>
+      <c r="AL90">
+        <v>1.19</v>
+      </c>
+      <c r="AM90">
+        <v>2.75</v>
+      </c>
+      <c r="AN90">
+        <v>3</v>
+      </c>
+      <c r="AO90">
+        <v>0.6</v>
+      </c>
+      <c r="AP90">
+        <v>3</v>
+      </c>
+      <c r="AQ90">
+        <v>0.5</v>
+      </c>
+      <c r="AR90">
+        <v>2.32</v>
+      </c>
+      <c r="AS90">
+        <v>1.29</v>
+      </c>
+      <c r="AT90">
+        <v>3.61</v>
+      </c>
+      <c r="AU90">
+        <v>9</v>
+      </c>
+      <c r="AV90">
+        <v>2</v>
+      </c>
+      <c r="AW90">
+        <v>9</v>
+      </c>
+      <c r="AX90">
+        <v>5</v>
+      </c>
+      <c r="AY90">
+        <v>18</v>
+      </c>
+      <c r="AZ90">
+        <v>7</v>
+      </c>
+      <c r="BA90">
+        <v>17</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
+      <c r="BC90">
+        <v>18</v>
+      </c>
+      <c r="BD90">
+        <v>1.32</v>
+      </c>
+      <c r="BE90">
+        <v>11</v>
+      </c>
+      <c r="BF90">
+        <v>4.1</v>
+      </c>
+      <c r="BG90">
+        <v>1.1</v>
+      </c>
+      <c r="BH90">
+        <v>5.35</v>
+      </c>
+      <c r="BI90">
+        <v>1.23</v>
+      </c>
+      <c r="BJ90">
+        <v>3.56</v>
+      </c>
+      <c r="BK90">
+        <v>1.44</v>
+      </c>
+      <c r="BL90">
+        <v>2.58</v>
+      </c>
+      <c r="BM90">
+        <v>1.76</v>
+      </c>
+      <c r="BN90">
+        <v>2</v>
+      </c>
+      <c r="BO90">
+        <v>2.19</v>
+      </c>
+      <c r="BP90">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>['40', '57']</t>
+  </si>
+  <si>
+    <t>['6', '46']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -1002,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1264,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1467,7 +1470,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1673,7 +1676,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2085,7 +2088,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2703,7 +2706,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2909,7 +2912,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3193,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.83</v>
@@ -3939,7 +3942,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4145,7 +4148,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4351,7 +4354,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4432,7 +4435,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4557,7 +4560,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4635,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.4</v>
@@ -4763,7 +4766,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4969,7 +4972,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5587,7 +5590,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5793,7 +5796,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6205,7 +6208,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -7029,7 +7032,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7235,7 +7238,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7647,7 +7650,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8059,7 +8062,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8140,7 +8143,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ35">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8265,7 +8268,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8471,7 +8474,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8677,7 +8680,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8883,7 +8886,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -9089,7 +9092,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9295,7 +9298,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9707,7 +9710,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10119,7 +10122,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10325,7 +10328,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10403,7 +10406,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10531,7 +10534,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11149,7 +11152,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11355,7 +11358,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11433,7 +11436,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11561,7 +11564,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11642,7 +11645,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11767,7 +11770,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11973,7 +11976,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12179,7 +12182,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12385,7 +12388,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12591,7 +12594,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12797,7 +12800,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13003,7 +13006,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13415,7 +13418,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13621,7 +13624,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13827,7 +13830,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14239,7 +14242,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14732,7 +14735,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ67">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -14935,7 +14938,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.6</v>
@@ -15063,7 +15066,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15475,7 +15478,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15681,7 +15684,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15887,7 +15890,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16093,7 +16096,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16299,7 +16302,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16711,7 +16714,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17329,7 +17332,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18234,7 +18237,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18359,7 +18362,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18437,7 +18440,7 @@
         <v>2.25</v>
       </c>
       <c r="AP85">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>2.4</v>
@@ -18771,7 +18774,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -18977,7 +18980,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19183,7 +19186,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19389,7 +19392,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19546,6 +19549,212 @@
       </c>
       <c r="BP90">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7292569</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45441.58333333334</v>
+      </c>
+      <c r="F91">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s">
+        <v>73</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>155</v>
+      </c>
+      <c r="P91" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q91">
+        <v>3.2</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>3.2</v>
+      </c>
+      <c r="T91">
+        <v>1.36</v>
+      </c>
+      <c r="U91">
+        <v>3.2</v>
+      </c>
+      <c r="V91">
+        <v>2.7</v>
+      </c>
+      <c r="W91">
+        <v>1.47</v>
+      </c>
+      <c r="X91">
+        <v>6.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.1</v>
+      </c>
+      <c r="Z91">
+        <v>2.32</v>
+      </c>
+      <c r="AA91">
+        <v>3.24</v>
+      </c>
+      <c r="AB91">
+        <v>2.56</v>
+      </c>
+      <c r="AC91">
+        <v>1.04</v>
+      </c>
+      <c r="AD91">
+        <v>13</v>
+      </c>
+      <c r="AE91">
+        <v>1.26</v>
+      </c>
+      <c r="AF91">
+        <v>4</v>
+      </c>
+      <c r="AG91">
+        <v>1.7</v>
+      </c>
+      <c r="AH91">
+        <v>2.05</v>
+      </c>
+      <c r="AI91">
+        <v>1.63</v>
+      </c>
+      <c r="AJ91">
+        <v>2.25</v>
+      </c>
+      <c r="AK91">
+        <v>1.52</v>
+      </c>
+      <c r="AL91">
+        <v>1.25</v>
+      </c>
+      <c r="AM91">
+        <v>1.52</v>
+      </c>
+      <c r="AN91">
+        <v>1.83</v>
+      </c>
+      <c r="AO91">
+        <v>1.4</v>
+      </c>
+      <c r="AP91">
+        <v>2</v>
+      </c>
+      <c r="AQ91">
+        <v>1.17</v>
+      </c>
+      <c r="AR91">
+        <v>1.51</v>
+      </c>
+      <c r="AS91">
+        <v>1.68</v>
+      </c>
+      <c r="AT91">
+        <v>3.19</v>
+      </c>
+      <c r="AU91">
+        <v>3</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>2</v>
+      </c>
+      <c r="AX91">
+        <v>7</v>
+      </c>
+      <c r="AY91">
+        <v>5</v>
+      </c>
+      <c r="AZ91">
+        <v>10</v>
+      </c>
+      <c r="BA91">
+        <v>1</v>
+      </c>
+      <c r="BB91">
+        <v>10</v>
+      </c>
+      <c r="BC91">
+        <v>11</v>
+      </c>
+      <c r="BD91">
+        <v>1.87</v>
+      </c>
+      <c r="BE91">
+        <v>7.5</v>
+      </c>
+      <c r="BF91">
+        <v>2.3</v>
+      </c>
+      <c r="BG91">
+        <v>1.11</v>
+      </c>
+      <c r="BH91">
+        <v>5.2</v>
+      </c>
+      <c r="BI91">
+        <v>1.22</v>
+      </c>
+      <c r="BJ91">
+        <v>4</v>
+      </c>
+      <c r="BK91">
+        <v>1.4</v>
+      </c>
+      <c r="BL91">
+        <v>2.8</v>
+      </c>
+      <c r="BM91">
+        <v>1.68</v>
+      </c>
+      <c r="BN91">
+        <v>2.1</v>
+      </c>
+      <c r="BO91">
+        <v>2.12</v>
+      </c>
+      <c r="BP91">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,18 @@
     <t>['6', '46']</t>
   </si>
   <si>
+    <t>['24', '65']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['12', '19', '23', '65', '77']</t>
+  </si>
+  <si>
+    <t>['1', '35', '73', '90+7']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -644,6 +656,9 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['23', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1279,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1345,7 +1360,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ2">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1470,7 +1485,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1676,7 +1691,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2088,7 +2103,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2166,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6">
         <v>2.4</v>
@@ -2372,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2706,7 +2721,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2912,7 +2927,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3199,7 +3214,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3608,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -3817,7 +3832,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3942,7 +3957,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4148,7 +4163,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4229,7 +4244,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4354,7 +4369,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4560,7 +4575,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4766,7 +4781,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4972,7 +4987,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5259,7 +5274,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.32</v>
@@ -5590,7 +5605,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5671,7 +5686,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ23">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.23</v>
@@ -5796,7 +5811,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6083,7 +6098,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6208,7 +6223,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6286,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>2.17</v>
@@ -6492,10 +6507,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR27">
         <v>0.78</v>
@@ -7032,7 +7047,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7238,7 +7253,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7316,7 +7331,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7650,7 +7665,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8062,7 +8077,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8140,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ35">
         <v>1.17</v>
@@ -8268,7 +8283,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8474,7 +8489,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8555,7 +8570,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ37">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.74</v>
@@ -8680,7 +8695,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8761,7 +8776,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR38">
         <v>1.07</v>
@@ -8886,7 +8901,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -8964,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>0.6</v>
@@ -9092,7 +9107,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9173,7 +9188,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.03</v>
@@ -9298,7 +9313,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9710,7 +9725,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9997,7 +10012,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ44">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10122,7 +10137,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10203,7 +10218,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10328,7 +10343,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10534,7 +10549,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11152,7 +11167,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11358,7 +11373,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11564,7 +11579,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11642,7 +11657,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
         <v>1.17</v>
@@ -11770,7 +11785,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11851,7 +11866,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ53">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -11976,7 +11991,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12182,7 +12197,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12263,7 +12278,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ55">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR55">
         <v>1.19</v>
@@ -12388,7 +12403,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12594,7 +12609,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12800,7 +12815,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13006,7 +13021,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13084,7 +13099,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
         <v>1.2</v>
@@ -13418,7 +13433,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13624,7 +13639,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13830,7 +13845,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14117,7 +14132,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14242,7 +14257,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14320,10 +14335,10 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ65">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14732,7 +14747,7 @@
         <v>2.33</v>
       </c>
       <c r="AP67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>1.17</v>
@@ -15066,7 +15081,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15353,7 +15368,7 @@
         <v>3</v>
       </c>
       <c r="AQ70">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>2.17</v>
@@ -15478,7 +15493,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15556,7 +15571,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
         <v>1.17</v>
@@ -15684,7 +15699,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15765,7 +15780,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ72">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
         <v>1.31</v>
@@ -15890,7 +15905,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16096,7 +16111,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16302,7 +16317,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16383,7 +16398,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16589,7 +16604,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ76">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -16714,7 +16729,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17204,7 +17219,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
         <v>0.2</v>
@@ -17332,7 +17347,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17413,7 +17428,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.83</v>
@@ -17616,7 +17631,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ81">
         <v>1.2</v>
@@ -18362,7 +18377,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18774,7 +18789,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -18980,7 +18995,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19186,7 +19201,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19392,7 +19407,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19473,7 +19488,7 @@
         <v>3</v>
       </c>
       <c r="AQ90">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR90">
         <v>2.32</v>
@@ -19755,6 +19770,830 @@
       </c>
       <c r="BP91">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7292532</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45444.41666666666</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92" t="s">
+        <v>156</v>
+      </c>
+      <c r="P92" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="R92">
+        <v>2.5</v>
+      </c>
+      <c r="S92">
+        <v>2.1</v>
+      </c>
+      <c r="T92">
+        <v>1.29</v>
+      </c>
+      <c r="U92">
+        <v>3.5</v>
+      </c>
+      <c r="V92">
+        <v>2.25</v>
+      </c>
+      <c r="W92">
+        <v>1.57</v>
+      </c>
+      <c r="X92">
+        <v>5.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.14</v>
+      </c>
+      <c r="Z92">
+        <v>4.2</v>
+      </c>
+      <c r="AA92">
+        <v>3.7</v>
+      </c>
+      <c r="AB92">
+        <v>1.79</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>12</v>
+      </c>
+      <c r="AE92">
+        <v>1.15</v>
+      </c>
+      <c r="AF92">
+        <v>4.55</v>
+      </c>
+      <c r="AG92">
+        <v>1.6</v>
+      </c>
+      <c r="AH92">
+        <v>2.35</v>
+      </c>
+      <c r="AI92">
+        <v>1.62</v>
+      </c>
+      <c r="AJ92">
+        <v>2.2</v>
+      </c>
+      <c r="AK92">
+        <v>2.31</v>
+      </c>
+      <c r="AL92">
+        <v>1.22</v>
+      </c>
+      <c r="AM92">
+        <v>1.17</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
+        <v>2.17</v>
+      </c>
+      <c r="AP92">
+        <v>1</v>
+      </c>
+      <c r="AQ92">
+        <v>2</v>
+      </c>
+      <c r="AR92">
+        <v>1.38</v>
+      </c>
+      <c r="AS92">
+        <v>1.62</v>
+      </c>
+      <c r="AT92">
+        <v>3</v>
+      </c>
+      <c r="AU92">
+        <v>9</v>
+      </c>
+      <c r="AV92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
+        <v>1</v>
+      </c>
+      <c r="AX92">
+        <v>8</v>
+      </c>
+      <c r="AY92">
+        <v>10</v>
+      </c>
+      <c r="AZ92">
+        <v>15</v>
+      </c>
+      <c r="BA92">
+        <v>4</v>
+      </c>
+      <c r="BB92">
+        <v>5</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>3.28</v>
+      </c>
+      <c r="BE92">
+        <v>9</v>
+      </c>
+      <c r="BF92">
+        <v>1.45</v>
+      </c>
+      <c r="BG92">
+        <v>1.13</v>
+      </c>
+      <c r="BH92">
+        <v>5.5</v>
+      </c>
+      <c r="BI92">
+        <v>1.3</v>
+      </c>
+      <c r="BJ92">
+        <v>3.3</v>
+      </c>
+      <c r="BK92">
+        <v>1.55</v>
+      </c>
+      <c r="BL92">
+        <v>2.38</v>
+      </c>
+      <c r="BM92">
+        <v>1.95</v>
+      </c>
+      <c r="BN92">
+        <v>1.85</v>
+      </c>
+      <c r="BO92">
+        <v>2.5</v>
+      </c>
+      <c r="BP92">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7292526</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45444.41666666666</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>74</v>
+      </c>
+      <c r="H93" t="s">
+        <v>77</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>157</v>
+      </c>
+      <c r="P93" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q93">
+        <v>3.2</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>3.1</v>
+      </c>
+      <c r="T93">
+        <v>1.33</v>
+      </c>
+      <c r="U93">
+        <v>3.25</v>
+      </c>
+      <c r="V93">
+        <v>2.63</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>7</v>
+      </c>
+      <c r="Y93">
+        <v>1.1</v>
+      </c>
+      <c r="Z93">
+        <v>2.9</v>
+      </c>
+      <c r="AA93">
+        <v>3.3</v>
+      </c>
+      <c r="AB93">
+        <v>2.39</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>10.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.21</v>
+      </c>
+      <c r="AF93">
+        <v>3.75</v>
+      </c>
+      <c r="AG93">
+        <v>1.79</v>
+      </c>
+      <c r="AH93">
+        <v>1.99</v>
+      </c>
+      <c r="AI93">
+        <v>1.62</v>
+      </c>
+      <c r="AJ93">
+        <v>2.2</v>
+      </c>
+      <c r="AK93">
+        <v>1.53</v>
+      </c>
+      <c r="AL93">
+        <v>1.3</v>
+      </c>
+      <c r="AM93">
+        <v>1.49</v>
+      </c>
+      <c r="AN93">
+        <v>0.8</v>
+      </c>
+      <c r="AO93">
+        <v>0.5</v>
+      </c>
+      <c r="AP93">
+        <v>1.17</v>
+      </c>
+      <c r="AQ93">
+        <v>0.43</v>
+      </c>
+      <c r="AR93">
+        <v>1.27</v>
+      </c>
+      <c r="AS93">
+        <v>1.19</v>
+      </c>
+      <c r="AT93">
+        <v>2.46</v>
+      </c>
+      <c r="AU93">
+        <v>3</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>2</v>
+      </c>
+      <c r="AX93">
+        <v>10</v>
+      </c>
+      <c r="AY93">
+        <v>5</v>
+      </c>
+      <c r="AZ93">
+        <v>13</v>
+      </c>
+      <c r="BA93">
+        <v>7</v>
+      </c>
+      <c r="BB93">
+        <v>8</v>
+      </c>
+      <c r="BC93">
+        <v>15</v>
+      </c>
+      <c r="BD93">
+        <v>1.95</v>
+      </c>
+      <c r="BE93">
+        <v>8</v>
+      </c>
+      <c r="BF93">
+        <v>2.1</v>
+      </c>
+      <c r="BG93">
+        <v>1.17</v>
+      </c>
+      <c r="BH93">
+        <v>4.7</v>
+      </c>
+      <c r="BI93">
+        <v>1.32</v>
+      </c>
+      <c r="BJ93">
+        <v>3.2</v>
+      </c>
+      <c r="BK93">
+        <v>1.58</v>
+      </c>
+      <c r="BL93">
+        <v>2.28</v>
+      </c>
+      <c r="BM93">
+        <v>2</v>
+      </c>
+      <c r="BN93">
+        <v>1.8</v>
+      </c>
+      <c r="BO93">
+        <v>2.6</v>
+      </c>
+      <c r="BP93">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7292529</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45444.52083333334</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" t="s">
+        <v>70</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>158</v>
+      </c>
+      <c r="P94" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q94">
+        <v>2.5</v>
+      </c>
+      <c r="R94">
+        <v>2.38</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <v>1.3</v>
+      </c>
+      <c r="U94">
+        <v>3.4</v>
+      </c>
+      <c r="V94">
+        <v>2.38</v>
+      </c>
+      <c r="W94">
+        <v>1.53</v>
+      </c>
+      <c r="X94">
+        <v>6</v>
+      </c>
+      <c r="Y94">
+        <v>1.13</v>
+      </c>
+      <c r="Z94">
+        <v>1.78</v>
+      </c>
+      <c r="AA94">
+        <v>3.6</v>
+      </c>
+      <c r="AB94">
+        <v>3.4</v>
+      </c>
+      <c r="AC94">
+        <v>1.01</v>
+      </c>
+      <c r="AD94">
+        <v>10.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.16</v>
+      </c>
+      <c r="AF94">
+        <v>4.3</v>
+      </c>
+      <c r="AG94">
+        <v>1.56</v>
+      </c>
+      <c r="AH94">
+        <v>2.27</v>
+      </c>
+      <c r="AI94">
+        <v>1.57</v>
+      </c>
+      <c r="AJ94">
+        <v>2.25</v>
+      </c>
+      <c r="AK94">
+        <v>1.27</v>
+      </c>
+      <c r="AL94">
+        <v>1.26</v>
+      </c>
+      <c r="AM94">
+        <v>1.93</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
+        <v>0.83</v>
+      </c>
+      <c r="AP94">
+        <v>1.33</v>
+      </c>
+      <c r="AQ94">
+        <v>0.71</v>
+      </c>
+      <c r="AR94">
+        <v>1.62</v>
+      </c>
+      <c r="AS94">
+        <v>1.2</v>
+      </c>
+      <c r="AT94">
+        <v>2.82</v>
+      </c>
+      <c r="AU94">
+        <v>13</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>3</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>16</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+      <c r="BA94">
+        <v>5</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>8</v>
+      </c>
+      <c r="BD94">
+        <v>1.59</v>
+      </c>
+      <c r="BE94">
+        <v>8.5</v>
+      </c>
+      <c r="BF94">
+        <v>2.78</v>
+      </c>
+      <c r="BG94">
+        <v>1.17</v>
+      </c>
+      <c r="BH94">
+        <v>4.7</v>
+      </c>
+      <c r="BI94">
+        <v>1.32</v>
+      </c>
+      <c r="BJ94">
+        <v>3.2</v>
+      </c>
+      <c r="BK94">
+        <v>1.58</v>
+      </c>
+      <c r="BL94">
+        <v>2.28</v>
+      </c>
+      <c r="BM94">
+        <v>1.98</v>
+      </c>
+      <c r="BN94">
+        <v>1.77</v>
+      </c>
+      <c r="BO94">
+        <v>2.6</v>
+      </c>
+      <c r="BP94">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7292528</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45444.52083333334</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>72</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>159</v>
+      </c>
+      <c r="P95" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q95">
+        <v>3.75</v>
+      </c>
+      <c r="R95">
+        <v>2.15</v>
+      </c>
+      <c r="S95">
+        <v>2.9</v>
+      </c>
+      <c r="T95">
+        <v>1.41</v>
+      </c>
+      <c r="U95">
+        <v>2.78</v>
+      </c>
+      <c r="V95">
+        <v>2.78</v>
+      </c>
+      <c r="W95">
+        <v>1.41</v>
+      </c>
+      <c r="X95">
+        <v>7.1</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>2.97</v>
+      </c>
+      <c r="AA95">
+        <v>3.15</v>
+      </c>
+      <c r="AB95">
+        <v>2.09</v>
+      </c>
+      <c r="AC95">
+        <v>1.02</v>
+      </c>
+      <c r="AD95">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE95">
+        <v>1.27</v>
+      </c>
+      <c r="AF95">
+        <v>3.28</v>
+      </c>
+      <c r="AG95">
+        <v>1.9</v>
+      </c>
+      <c r="AH95">
+        <v>1.8</v>
+      </c>
+      <c r="AI95">
+        <v>1.75</v>
+      </c>
+      <c r="AJ95">
+        <v>2.05</v>
+      </c>
+      <c r="AK95">
+        <v>1.7</v>
+      </c>
+      <c r="AL95">
+        <v>1.28</v>
+      </c>
+      <c r="AM95">
+        <v>1.35</v>
+      </c>
+      <c r="AN95">
+        <v>1.8</v>
+      </c>
+      <c r="AO95">
+        <v>1.2</v>
+      </c>
+      <c r="AP95">
+        <v>2</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>0.93</v>
+      </c>
+      <c r="AS95">
+        <v>1.41</v>
+      </c>
+      <c r="AT95">
+        <v>2.34</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AV95">
+        <v>6</v>
+      </c>
+      <c r="AW95">
+        <v>2</v>
+      </c>
+      <c r="AX95">
+        <v>8</v>
+      </c>
+      <c r="AY95">
+        <v>10</v>
+      </c>
+      <c r="AZ95">
+        <v>14</v>
+      </c>
+      <c r="BA95">
+        <v>3</v>
+      </c>
+      <c r="BB95">
+        <v>9</v>
+      </c>
+      <c r="BC95">
+        <v>12</v>
+      </c>
+      <c r="BD95">
+        <v>2.66</v>
+      </c>
+      <c r="BE95">
+        <v>8.5</v>
+      </c>
+      <c r="BF95">
+        <v>1.64</v>
+      </c>
+      <c r="BG95">
+        <v>1.17</v>
+      </c>
+      <c r="BH95">
+        <v>4.7</v>
+      </c>
+      <c r="BI95">
+        <v>1.32</v>
+      </c>
+      <c r="BJ95">
+        <v>3.2</v>
+      </c>
+      <c r="BK95">
+        <v>1.58</v>
+      </c>
+      <c r="BL95">
+        <v>2.28</v>
+      </c>
+      <c r="BM95">
+        <v>1.98</v>
+      </c>
+      <c r="BN95">
+        <v>1.77</v>
+      </c>
+      <c r="BO95">
+        <v>2.6</v>
+      </c>
+      <c r="BP95">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>['23', '90+6']</t>
+  </si>
+  <si>
+    <t>['16', '55', '62', '89']</t>
+  </si>
+  <si>
+    <t>['15', '29', '69']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2596,7 +2602,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ8">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3420,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4035,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ15">
         <v>1.17</v>
@@ -4447,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ17">
         <v>1.17</v>
@@ -5065,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ20">
         <v>1.17</v>
@@ -5477,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ22">
         <v>1.17</v>
@@ -6716,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>2.62</v>
@@ -7540,7 +7546,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.67</v>
@@ -8567,7 +8573,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8982,7 +8988,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -9185,7 +9191,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -10009,7 +10015,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -11042,7 +11048,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -11245,7 +11251,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -13308,7 +13314,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ60">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13514,7 +13520,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ61">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.3</v>
@@ -14129,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ64">
         <v>0.43</v>
@@ -14956,7 +14962,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15777,7 +15783,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ72">
         <v>0.71</v>
@@ -17013,7 +17019,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17222,7 +17228,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.6</v>
@@ -19912,22 +19918,22 @@
         <v>3</v>
       </c>
       <c r="AU92">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV92">
+        <v>8</v>
+      </c>
+      <c r="AW92">
+        <v>1</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
         <v>7</v>
       </c>
-      <c r="AW92">
-        <v>1</v>
-      </c>
-      <c r="AX92">
-        <v>8</v>
-      </c>
-      <c r="AY92">
-        <v>10</v>
-      </c>
       <c r="AZ92">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA92">
         <v>4</v>
@@ -20118,22 +20124,22 @@
         <v>2.46</v>
       </c>
       <c r="AU93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW93">
         <v>2</v>
       </c>
       <c r="AX93">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ93">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA93">
         <v>7</v>
@@ -20593,6 +20599,418 @@
         <v>2.6</v>
       </c>
       <c r="BP95">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7292530</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45445.375</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>83</v>
+      </c>
+      <c r="H96" t="s">
+        <v>82</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>88</v>
+      </c>
+      <c r="P96" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q96">
+        <v>3.1</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>3.1</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3</v>
+      </c>
+      <c r="V96">
+        <v>2.6</v>
+      </c>
+      <c r="W96">
+        <v>1.42</v>
+      </c>
+      <c r="X96">
+        <v>5.8</v>
+      </c>
+      <c r="Y96">
+        <v>1.09</v>
+      </c>
+      <c r="Z96">
+        <v>2.41</v>
+      </c>
+      <c r="AA96">
+        <v>3.21</v>
+      </c>
+      <c r="AB96">
+        <v>2.67</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>9.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.22</v>
+      </c>
+      <c r="AF96">
+        <v>3.7</v>
+      </c>
+      <c r="AG96">
+        <v>1.91</v>
+      </c>
+      <c r="AH96">
+        <v>1.97</v>
+      </c>
+      <c r="AI96">
+        <v>1.57</v>
+      </c>
+      <c r="AJ96">
+        <v>2.25</v>
+      </c>
+      <c r="AK96">
+        <v>1.35</v>
+      </c>
+      <c r="AL96">
+        <v>1.32</v>
+      </c>
+      <c r="AM96">
+        <v>1.5</v>
+      </c>
+      <c r="AN96">
+        <v>0.8</v>
+      </c>
+      <c r="AO96">
+        <v>0.2</v>
+      </c>
+      <c r="AP96">
+        <v>0.67</v>
+      </c>
+      <c r="AQ96">
+        <v>0.67</v>
+      </c>
+      <c r="AR96">
+        <v>1.29</v>
+      </c>
+      <c r="AS96">
+        <v>1.66</v>
+      </c>
+      <c r="AT96">
+        <v>2.95</v>
+      </c>
+      <c r="AU96">
+        <v>3</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>4</v>
+      </c>
+      <c r="AX96">
+        <v>2</v>
+      </c>
+      <c r="AY96">
+        <v>7</v>
+      </c>
+      <c r="AZ96">
+        <v>6</v>
+      </c>
+      <c r="BA96">
+        <v>7</v>
+      </c>
+      <c r="BB96">
+        <v>3</v>
+      </c>
+      <c r="BC96">
+        <v>10</v>
+      </c>
+      <c r="BD96">
+        <v>2.28</v>
+      </c>
+      <c r="BE96">
+        <v>8</v>
+      </c>
+      <c r="BF96">
+        <v>1.85</v>
+      </c>
+      <c r="BG96">
+        <v>1.17</v>
+      </c>
+      <c r="BH96">
+        <v>4.7</v>
+      </c>
+      <c r="BI96">
+        <v>1.32</v>
+      </c>
+      <c r="BJ96">
+        <v>3.2</v>
+      </c>
+      <c r="BK96">
+        <v>1.58</v>
+      </c>
+      <c r="BL96">
+        <v>2.28</v>
+      </c>
+      <c r="BM96">
+        <v>1.98</v>
+      </c>
+      <c r="BN96">
+        <v>1.77</v>
+      </c>
+      <c r="BO96">
+        <v>2.6</v>
+      </c>
+      <c r="BP96">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7292525</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45445.375</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H97" t="s">
+        <v>71</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>88</v>
+      </c>
+      <c r="P97" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q97">
+        <v>2.45</v>
+      </c>
+      <c r="R97">
+        <v>2.3</v>
+      </c>
+      <c r="S97">
+        <v>4.33</v>
+      </c>
+      <c r="T97">
+        <v>1.36</v>
+      </c>
+      <c r="U97">
+        <v>3.25</v>
+      </c>
+      <c r="V97">
+        <v>2.7</v>
+      </c>
+      <c r="W97">
+        <v>1.47</v>
+      </c>
+      <c r="X97">
+        <v>6.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.1</v>
+      </c>
+      <c r="Z97">
+        <v>1.84</v>
+      </c>
+      <c r="AA97">
+        <v>3.36</v>
+      </c>
+      <c r="AB97">
+        <v>3.85</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>13</v>
+      </c>
+      <c r="AE97">
+        <v>1.26</v>
+      </c>
+      <c r="AF97">
+        <v>4</v>
+      </c>
+      <c r="AG97">
+        <v>1.88</v>
+      </c>
+      <c r="AH97">
+        <v>2</v>
+      </c>
+      <c r="AI97">
+        <v>1.72</v>
+      </c>
+      <c r="AJ97">
+        <v>2.1</v>
+      </c>
+      <c r="AK97">
+        <v>1.24</v>
+      </c>
+      <c r="AL97">
+        <v>1.22</v>
+      </c>
+      <c r="AM97">
+        <v>2</v>
+      </c>
+      <c r="AN97">
+        <v>2.17</v>
+      </c>
+      <c r="AO97">
+        <v>0.6</v>
+      </c>
+      <c r="AP97">
+        <v>1.86</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>1.68</v>
+      </c>
+      <c r="AS97">
+        <v>1.34</v>
+      </c>
+      <c r="AT97">
+        <v>3.02</v>
+      </c>
+      <c r="AU97">
+        <v>3</v>
+      </c>
+      <c r="AV97">
+        <v>2</v>
+      </c>
+      <c r="AW97">
+        <v>4</v>
+      </c>
+      <c r="AX97">
+        <v>2</v>
+      </c>
+      <c r="AY97">
+        <v>7</v>
+      </c>
+      <c r="AZ97">
+        <v>4</v>
+      </c>
+      <c r="BA97">
+        <v>5</v>
+      </c>
+      <c r="BB97">
+        <v>1</v>
+      </c>
+      <c r="BC97">
+        <v>6</v>
+      </c>
+      <c r="BD97">
+        <v>1.45</v>
+      </c>
+      <c r="BE97">
+        <v>9</v>
+      </c>
+      <c r="BF97">
+        <v>3.28</v>
+      </c>
+      <c r="BG97">
+        <v>1.17</v>
+      </c>
+      <c r="BH97">
+        <v>4.7</v>
+      </c>
+      <c r="BI97">
+        <v>1.32</v>
+      </c>
+      <c r="BJ97">
+        <v>3.2</v>
+      </c>
+      <c r="BK97">
+        <v>1.58</v>
+      </c>
+      <c r="BL97">
+        <v>2.28</v>
+      </c>
+      <c r="BM97">
+        <v>1.98</v>
+      </c>
+      <c r="BN97">
+        <v>1.77</v>
+      </c>
+      <c r="BO97">
+        <v>2.6</v>
+      </c>
+      <c r="BP97">
         <v>1.46</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,9 @@
     <t>['1', '35', '73', '90+7']</t>
   </si>
   <si>
+    <t>['21', '42', '50', '53']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -665,6 +668,12 @@
   </si>
   <si>
     <t>['15', '29', '69']</t>
+  </si>
+  <si>
+    <t>['1', '64']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1294,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1491,7 +1500,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1697,7 +1706,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1981,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2109,7 +2118,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2727,7 +2736,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2933,7 +2942,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3014,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3963,7 +3972,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4169,7 +4178,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4247,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4375,7 +4384,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4581,7 +4590,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4662,7 +4671,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR18">
         <v>2.67</v>
@@ -4787,7 +4796,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4993,7 +5002,7 @@
         <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5611,7 +5620,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5689,7 +5698,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5817,7 +5826,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -5895,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6229,7 +6238,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -7053,7 +7062,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7134,7 +7143,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ30">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7259,7 +7268,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>3.5</v>
@@ -7543,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7671,7 +7680,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8083,7 +8092,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8289,7 +8298,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>2.85</v>
@@ -8495,7 +8504,7 @@
         <v>88</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>3.7</v>
@@ -8701,7 +8710,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8907,7 +8916,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>5.03</v>
@@ -9113,7 +9122,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9319,7 +9328,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9400,7 +9409,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.61</v>
@@ -9606,7 +9615,7 @@
         <v>3</v>
       </c>
       <c r="AQ42">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR42">
         <v>2.45</v>
@@ -9731,7 +9740,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9809,7 +9818,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10143,7 +10152,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10221,7 +10230,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ45">
         <v>0.71</v>
@@ -10349,7 +10358,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10555,7 +10564,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11173,7 +11182,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11379,7 +11388,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11585,7 +11594,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11791,7 +11800,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11997,7 +12006,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12203,7 +12212,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12409,7 +12418,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12615,7 +12624,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12821,7 +12830,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13027,7 +13036,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13108,7 +13117,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>0.92</v>
@@ -13439,7 +13448,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13645,7 +13654,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13723,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13851,7 +13860,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -13929,7 +13938,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14263,7 +14272,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14550,7 +14559,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ66">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR66">
         <v>1.53</v>
@@ -15087,7 +15096,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15499,7 +15508,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15705,7 +15714,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15911,7 +15920,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16117,7 +16126,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16198,7 +16207,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ74">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.46</v>
@@ -16323,7 +16332,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16735,7 +16744,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -16813,7 +16822,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17353,7 +17362,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17431,7 +17440,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -17640,7 +17649,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ81">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18383,7 +18392,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18795,7 +18804,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19001,7 +19010,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19207,7 +19216,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19413,7 +19422,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19825,7 +19834,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19918,22 +19927,22 @@
         <v>3</v>
       </c>
       <c r="AU92">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
+        <v>1</v>
+      </c>
+      <c r="AX92">
         <v>8</v>
       </c>
-      <c r="AW92">
-        <v>1</v>
-      </c>
-      <c r="AX92">
-        <v>4</v>
-      </c>
       <c r="AY92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ92">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA92">
         <v>4</v>
@@ -20124,22 +20133,22 @@
         <v>2.46</v>
       </c>
       <c r="AU93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW93">
         <v>2</v>
       </c>
       <c r="AX93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ93">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA93">
         <v>7</v>
@@ -20649,7 +20658,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20742,22 +20751,22 @@
         <v>2.95</v>
       </c>
       <c r="AU96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV96">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ96">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA96">
         <v>7</v>
@@ -20855,7 +20864,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q97">
         <v>2.45</v>
@@ -20948,10 +20957,10 @@
         <v>3.02</v>
       </c>
       <c r="AU97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV97">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW97">
         <v>4</v>
@@ -20960,19 +20969,19 @@
         <v>2</v>
       </c>
       <c r="AY97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ97">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC97">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD97">
         <v>1.45</v>
@@ -21012,6 +21021,418 @@
       </c>
       <c r="BP97">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7292531</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45445.47916666666</v>
+      </c>
+      <c r="F98">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s">
+        <v>79</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98" t="s">
+        <v>100</v>
+      </c>
+      <c r="P98" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q98">
+        <v>3.75</v>
+      </c>
+      <c r="R98">
+        <v>2.1</v>
+      </c>
+      <c r="S98">
+        <v>3</v>
+      </c>
+      <c r="T98">
+        <v>1.44</v>
+      </c>
+      <c r="U98">
+        <v>2.63</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>9</v>
+      </c>
+      <c r="Y98">
+        <v>1.07</v>
+      </c>
+      <c r="Z98">
+        <v>3.1</v>
+      </c>
+      <c r="AA98">
+        <v>3.5</v>
+      </c>
+      <c r="AB98">
+        <v>2.32</v>
+      </c>
+      <c r="AC98">
+        <v>1.06</v>
+      </c>
+      <c r="AD98">
+        <v>10</v>
+      </c>
+      <c r="AE98">
+        <v>1.33</v>
+      </c>
+      <c r="AF98">
+        <v>3.3</v>
+      </c>
+      <c r="AG98">
+        <v>2</v>
+      </c>
+      <c r="AH98">
+        <v>1.8</v>
+      </c>
+      <c r="AI98">
+        <v>1.8</v>
+      </c>
+      <c r="AJ98">
+        <v>1.95</v>
+      </c>
+      <c r="AK98">
+        <v>1.66</v>
+      </c>
+      <c r="AL98">
+        <v>1.28</v>
+      </c>
+      <c r="AM98">
+        <v>1.38</v>
+      </c>
+      <c r="AN98">
+        <v>0.2</v>
+      </c>
+      <c r="AO98">
+        <v>1.2</v>
+      </c>
+      <c r="AP98">
+        <v>0.17</v>
+      </c>
+      <c r="AQ98">
+        <v>1.5</v>
+      </c>
+      <c r="AR98">
+        <v>1.17</v>
+      </c>
+      <c r="AS98">
+        <v>1.25</v>
+      </c>
+      <c r="AT98">
+        <v>2.42</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>5</v>
+      </c>
+      <c r="AW98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>12</v>
+      </c>
+      <c r="AZ98">
+        <v>9</v>
+      </c>
+      <c r="BA98">
+        <v>6</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>2.1</v>
+      </c>
+      <c r="BE98">
+        <v>8.5</v>
+      </c>
+      <c r="BF98">
+        <v>1.91</v>
+      </c>
+      <c r="BG98">
+        <v>1.12</v>
+      </c>
+      <c r="BH98">
+        <v>4.95</v>
+      </c>
+      <c r="BI98">
+        <v>1.3</v>
+      </c>
+      <c r="BJ98">
+        <v>3.35</v>
+      </c>
+      <c r="BK98">
+        <v>1.53</v>
+      </c>
+      <c r="BL98">
+        <v>2.4</v>
+      </c>
+      <c r="BM98">
+        <v>1.92</v>
+      </c>
+      <c r="BN98">
+        <v>1.88</v>
+      </c>
+      <c r="BO98">
+        <v>2.48</v>
+      </c>
+      <c r="BP98">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7292527</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45445.47916666666</v>
+      </c>
+      <c r="F99">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" t="s">
+        <v>76</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99" t="s">
+        <v>160</v>
+      </c>
+      <c r="P99" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q99">
+        <v>2.5</v>
+      </c>
+      <c r="R99">
+        <v>2.3</v>
+      </c>
+      <c r="S99">
+        <v>3.6</v>
+      </c>
+      <c r="T99">
+        <v>1.28</v>
+      </c>
+      <c r="U99">
+        <v>3.4</v>
+      </c>
+      <c r="V99">
+        <v>2.3</v>
+      </c>
+      <c r="W99">
+        <v>1.55</v>
+      </c>
+      <c r="X99">
+        <v>5</v>
+      </c>
+      <c r="Y99">
+        <v>1.14</v>
+      </c>
+      <c r="Z99">
+        <v>2.04</v>
+      </c>
+      <c r="AA99">
+        <v>3.95</v>
+      </c>
+      <c r="AB99">
+        <v>3.35</v>
+      </c>
+      <c r="AC99">
+        <v>1.03</v>
+      </c>
+      <c r="AD99">
+        <v>16.75</v>
+      </c>
+      <c r="AE99">
+        <v>1.19</v>
+      </c>
+      <c r="AF99">
+        <v>4.82</v>
+      </c>
+      <c r="AG99">
+        <v>1.58</v>
+      </c>
+      <c r="AH99">
+        <v>2.4</v>
+      </c>
+      <c r="AI99">
+        <v>1.52</v>
+      </c>
+      <c r="AJ99">
+        <v>2.45</v>
+      </c>
+      <c r="AK99">
+        <v>1.32</v>
+      </c>
+      <c r="AL99">
+        <v>1.3</v>
+      </c>
+      <c r="AM99">
+        <v>1.75</v>
+      </c>
+      <c r="AN99">
+        <v>1.67</v>
+      </c>
+      <c r="AO99">
+        <v>0.4</v>
+      </c>
+      <c r="AP99">
+        <v>1.86</v>
+      </c>
+      <c r="AQ99">
+        <v>0.33</v>
+      </c>
+      <c r="AR99">
+        <v>1.85</v>
+      </c>
+      <c r="AS99">
+        <v>1.32</v>
+      </c>
+      <c r="AT99">
+        <v>3.17</v>
+      </c>
+      <c r="AU99">
+        <v>8</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>13</v>
+      </c>
+      <c r="AZ99">
+        <v>10</v>
+      </c>
+      <c r="BA99">
+        <v>9</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
+      <c r="BC99">
+        <v>10</v>
+      </c>
+      <c r="BD99">
+        <v>1.75</v>
+      </c>
+      <c r="BE99">
+        <v>8.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.41</v>
+      </c>
+      <c r="BG99">
+        <v>1.1</v>
+      </c>
+      <c r="BH99">
+        <v>5.35</v>
+      </c>
+      <c r="BI99">
+        <v>1.28</v>
+      </c>
+      <c r="BJ99">
+        <v>3.5</v>
+      </c>
+      <c r="BK99">
+        <v>1.5</v>
+      </c>
+      <c r="BL99">
+        <v>2.48</v>
+      </c>
+      <c r="BM99">
+        <v>1.88</v>
+      </c>
+      <c r="BN99">
+        <v>1.92</v>
+      </c>
+      <c r="BO99">
+        <v>2.38</v>
+      </c>
+      <c r="BP99">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -337,24 +337,24 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['77', '83']</t>
+  </si>
+  <si>
     <t>['57', '75']</t>
   </si>
   <si>
-    <t>['77', '83']</t>
-  </si>
-  <si>
     <t>['62', '87']</t>
   </si>
   <si>
     <t>['47']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['19', '44']</t>
   </si>
   <si>
-    <t>['51']</t>
-  </si>
-  <si>
     <t>['57', '61', '74', '84']</t>
   </si>
   <si>
@@ -376,12 +376,12 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['45+5', '59']</t>
+  </si>
+  <si>
     <t>['18', '43', '90+3']</t>
   </si>
   <si>
-    <t>['45+5', '59']</t>
-  </si>
-  <si>
     <t>['19', '59']</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>['4', '41']</t>
   </si>
   <si>
+    <t>['41', '52', '55']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
-    <t>['41', '52', '55']</t>
+    <t>['47', '70']</t>
   </si>
   <si>
     <t>['43']</t>
   </si>
   <si>
-    <t>['47', '70']</t>
-  </si>
-  <si>
     <t>['6', '18', '45+1', '51', '60', '89']</t>
   </si>
   <si>
@@ -484,18 +484,18 @@
     <t>['6', '46']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['24', '65']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['1', '35', '73', '90+7']</t>
   </si>
   <si>
     <t>['12', '19', '23', '65', '77']</t>
   </si>
   <si>
-    <t>['1', '35', '73', '90+7']</t>
-  </si>
-  <si>
     <t>['21', '42', '50', '53']</t>
   </si>
   <si>
@@ -553,39 +553,39 @@
     <t>['39', '55']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['45+6']</t>
   </si>
   <si>
-    <t>['59']</t>
+    <t>['30', '45+2']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['6', '55', '87']</t>
+  </si>
+  <si>
+    <t>['17']</t>
   </si>
   <si>
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['30', '45+2']</t>
-  </si>
-  <si>
-    <t>['90']</t>
-  </si>
-  <si>
-    <t>['6', '55', '87']</t>
-  </si>
-  <si>
-    <t>['17']</t>
-  </si>
-  <si>
     <t>['4', '6', '44']</t>
   </si>
   <si>
     <t>['25', '59']</t>
   </si>
   <si>
+    <t>['5', '64', '83']</t>
+  </si>
+  <si>
     <t>['22', '34']</t>
   </si>
   <si>
-    <t>['5', '64', '83']</t>
-  </si>
-  <si>
     <t>['24', '35']</t>
   </si>
   <si>
@@ -613,12 +613,12 @@
     <t>['7', '14', '37']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['16', '74']</t>
   </si>
   <si>
-    <t>['36']</t>
-  </si>
-  <si>
     <t>['34', '42', '88']</t>
   </si>
   <si>
@@ -664,16 +664,16 @@
     <t>['23', '90+6']</t>
   </si>
   <si>
+    <t>['15', '29', '69']</t>
+  </si>
+  <si>
     <t>['16', '55', '62', '89']</t>
   </si>
   <si>
-    <t>['15', '29', '69']</t>
+    <t>['57']</t>
   </si>
   <si>
     <t>['1', '64']</t>
-  </si>
-  <si>
-    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -4960,7 +4960,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7292457</v>
+        <v>7292455</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -4975,10 +4975,10 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4990,175 +4990,175 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" t="s">
         <v>88</v>
       </c>
-      <c r="P20" t="s">
-        <v>172</v>
-      </c>
       <c r="Q20">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S20">
         <v>3.75</v>
       </c>
       <c r="T20">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="U20">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="V20">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="W20">
+        <v>1.5</v>
+      </c>
+      <c r="X20">
+        <v>6.5</v>
+      </c>
+      <c r="Y20">
+        <v>1.11</v>
+      </c>
+      <c r="Z20">
+        <v>1.86</v>
+      </c>
+      <c r="AA20">
+        <v>3.65</v>
+      </c>
+      <c r="AB20">
+        <v>3.85</v>
+      </c>
+      <c r="AC20">
+        <v>1.03</v>
+      </c>
+      <c r="AD20">
+        <v>15</v>
+      </c>
+      <c r="AE20">
+        <v>1.24</v>
+      </c>
+      <c r="AF20">
+        <v>4.2</v>
+      </c>
+      <c r="AG20">
+        <v>1.7</v>
+      </c>
+      <c r="AH20">
+        <v>2</v>
+      </c>
+      <c r="AI20">
+        <v>1.62</v>
+      </c>
+      <c r="AJ20">
+        <v>2.2</v>
+      </c>
+      <c r="AK20">
         <v>1.33</v>
       </c>
-      <c r="X20">
-        <v>10</v>
-      </c>
-      <c r="Y20">
-        <v>1.06</v>
-      </c>
-      <c r="Z20">
-        <v>2.31</v>
-      </c>
-      <c r="AA20">
-        <v>3.3</v>
-      </c>
-      <c r="AB20">
-        <v>3</v>
-      </c>
-      <c r="AC20">
-        <v>1.07</v>
-      </c>
-      <c r="AD20">
-        <v>9.5</v>
-      </c>
-      <c r="AE20">
-        <v>1.38</v>
-      </c>
-      <c r="AF20">
-        <v>3.1</v>
-      </c>
-      <c r="AG20">
-        <v>2</v>
-      </c>
-      <c r="AH20">
-        <v>1.7</v>
-      </c>
-      <c r="AI20">
-        <v>1.91</v>
-      </c>
-      <c r="AJ20">
-        <v>1.91</v>
-      </c>
-      <c r="AK20">
-        <v>1.36</v>
-      </c>
       <c r="AL20">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AM20">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="AN20">
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS20">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="AT20">
-        <v>3.29</v>
+        <v>3.08</v>
       </c>
       <c r="AU20">
         <v>2</v>
       </c>
       <c r="AV20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW20">
         <v>4</v>
       </c>
       <c r="AX20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AY20">
         <v>6</v>
       </c>
       <c r="AZ20">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BA20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB20">
+        <v>4</v>
+      </c>
+      <c r="BC20">
         <v>8</v>
       </c>
-      <c r="BC20">
-        <v>10</v>
-      </c>
       <c r="BD20">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="BE20">
         <v>8.5</v>
       </c>
       <c r="BF20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BG20">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="BH20">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="BI20">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="BJ20">
-        <v>3.18</v>
+        <v>4.3</v>
       </c>
       <c r="BK20">
-        <v>1.61</v>
+        <v>1.32</v>
       </c>
       <c r="BL20">
-        <v>2.31</v>
+        <v>2.98</v>
       </c>
       <c r="BM20">
+        <v>1.57</v>
+      </c>
+      <c r="BN20">
+        <v>2.25</v>
+      </c>
+      <c r="BO20">
+        <v>1.98</v>
+      </c>
+      <c r="BP20">
         <v>1.82</v>
-      </c>
-      <c r="BN20">
-        <v>1.98</v>
-      </c>
-      <c r="BO20">
-        <v>2.44</v>
-      </c>
-      <c r="BP20">
-        <v>1.55</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -5166,7 +5166,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7292455</v>
+        <v>7292457</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5181,10 +5181,10 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5196,175 +5196,175 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="Q21">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
         <v>3.75</v>
       </c>
       <c r="T21">
+        <v>1.44</v>
+      </c>
+      <c r="U21">
+        <v>2.63</v>
+      </c>
+      <c r="V21">
+        <v>3.25</v>
+      </c>
+      <c r="W21">
         <v>1.33</v>
       </c>
-      <c r="U21">
-        <v>3.25</v>
-      </c>
-      <c r="V21">
-        <v>2.5</v>
-      </c>
-      <c r="W21">
-        <v>1.5</v>
-      </c>
       <c r="X21">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Y21">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z21">
-        <v>1.86</v>
+        <v>2.31</v>
       </c>
       <c r="AA21">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="AB21">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="AC21">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AD21">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AE21">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AF21">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="AG21">
+        <v>2</v>
+      </c>
+      <c r="AH21">
         <v>1.7</v>
       </c>
-      <c r="AH21">
-        <v>2</v>
-      </c>
       <c r="AI21">
+        <v>1.91</v>
+      </c>
+      <c r="AJ21">
+        <v>1.91</v>
+      </c>
+      <c r="AK21">
+        <v>1.36</v>
+      </c>
+      <c r="AL21">
+        <v>1.33</v>
+      </c>
+      <c r="AM21">
         <v>1.62</v>
       </c>
-      <c r="AJ21">
-        <v>2.2</v>
-      </c>
-      <c r="AK21">
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0.67</v>
+      </c>
+      <c r="AQ21">
+        <v>1.17</v>
+      </c>
+      <c r="AR21">
         <v>1.33</v>
       </c>
-      <c r="AL21">
-        <v>1.24</v>
-      </c>
-      <c r="AM21">
-        <v>1.78</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>3</v>
-      </c>
-      <c r="AP21">
-        <v>1.2</v>
-      </c>
-      <c r="AQ21">
-        <v>1</v>
-      </c>
-      <c r="AR21">
-        <v>1.32</v>
-      </c>
       <c r="AS21">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="AT21">
-        <v>3.08</v>
+        <v>3.29</v>
       </c>
       <c r="AU21">
         <v>2</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW21">
         <v>4</v>
       </c>
       <c r="AX21">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY21">
         <v>6</v>
       </c>
       <c r="AZ21">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BA21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD21">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="BE21">
         <v>8.5</v>
       </c>
       <c r="BF21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BG21">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="BH21">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="BI21">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="BJ21">
-        <v>4.3</v>
+        <v>3.18</v>
       </c>
       <c r="BK21">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="BL21">
-        <v>2.98</v>
+        <v>2.31</v>
       </c>
       <c r="BM21">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="BN21">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="BO21">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="BP21">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -6444,7 +6444,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.4</v>
@@ -6814,7 +6814,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7292461</v>
+        <v>7292465</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -6829,10 +6829,10 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -6847,88 +6847,88 @@
         <v>2</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O29" t="s">
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="Q29">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S29">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T29">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U29">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="V29">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W29">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X29">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="Y29">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z29">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="AA29">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AB29">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AC29">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD29">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE29">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AF29">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG29">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AH29">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AI29">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ29">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AK29">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AL29">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AM29">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>3</v>
@@ -6937,82 +6937,82 @@
         <v>2.5</v>
       </c>
       <c r="AQ29">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
+        <v>1.27</v>
+      </c>
+      <c r="AS29">
         <v>1.2</v>
       </c>
-      <c r="AS29">
-        <v>2.25</v>
-      </c>
       <c r="AT29">
-        <v>3.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY29">
+        <v>11</v>
+      </c>
+      <c r="AZ29">
         <v>7</v>
       </c>
-      <c r="AZ29">
-        <v>11</v>
-      </c>
       <c r="BA29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD29">
+        <v>1.69</v>
+      </c>
+      <c r="BE29">
+        <v>8.5</v>
+      </c>
+      <c r="BF29">
+        <v>2.45</v>
+      </c>
+      <c r="BG29">
+        <v>1.1</v>
+      </c>
+      <c r="BH29">
+        <v>5.45</v>
+      </c>
+      <c r="BI29">
+        <v>1.24</v>
+      </c>
+      <c r="BJ29">
+        <v>3.85</v>
+      </c>
+      <c r="BK29">
+        <v>1.43</v>
+      </c>
+      <c r="BL29">
+        <v>2.7</v>
+      </c>
+      <c r="BM29">
+        <v>1.74</v>
+      </c>
+      <c r="BN29">
+        <v>2.02</v>
+      </c>
+      <c r="BO29">
         <v>2.2</v>
       </c>
-      <c r="BE29">
-        <v>6.75</v>
-      </c>
-      <c r="BF29">
-        <v>2</v>
-      </c>
-      <c r="BG29">
-        <v>1.4</v>
-      </c>
-      <c r="BH29">
-        <v>2.8</v>
-      </c>
-      <c r="BI29">
-        <v>1.74</v>
-      </c>
-      <c r="BJ29">
-        <v>2.02</v>
-      </c>
-      <c r="BK29">
-        <v>2.28</v>
-      </c>
-      <c r="BL29">
-        <v>1.58</v>
-      </c>
-      <c r="BM29">
-        <v>3.1</v>
-      </c>
-      <c r="BN29">
-        <v>1.33</v>
-      </c>
-      <c r="BO29">
-        <v>4.5</v>
-      </c>
       <c r="BP29">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -7020,7 +7020,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7292465</v>
+        <v>7292461</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -7035,10 +7035,10 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -7053,88 +7053,88 @@
         <v>2</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" t="s">
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="Q30">
+        <v>3.4</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
         <v>3.1</v>
       </c>
-      <c r="R30">
-        <v>2.15</v>
-      </c>
-      <c r="S30">
-        <v>3.5</v>
-      </c>
       <c r="T30">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="U30">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="V30">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="W30">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X30">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="Y30">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z30">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AA30">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AB30">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="AC30">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD30">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE30">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AF30">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG30">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AH30">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AI30">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ30">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AK30">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AL30">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AM30">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>3</v>
@@ -7143,82 +7143,82 @@
         <v>2.5</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AR30">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AS30">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT30">
-        <v>2.47</v>
+        <v>3.45</v>
       </c>
       <c r="AU30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY30">
+        <v>7</v>
+      </c>
+      <c r="AZ30">
         <v>11</v>
       </c>
-      <c r="AZ30">
-        <v>7</v>
-      </c>
       <c r="BA30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD30">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="BE30">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF30">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BG30">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="BH30">
-        <v>5.45</v>
+        <v>2.8</v>
       </c>
       <c r="BI30">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="BJ30">
-        <v>3.85</v>
+        <v>2.02</v>
       </c>
       <c r="BK30">
-        <v>1.43</v>
+        <v>2.28</v>
       </c>
       <c r="BL30">
-        <v>2.7</v>
+        <v>1.58</v>
       </c>
       <c r="BM30">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="BN30">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="BO30">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="BP30">
-        <v>1.62</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7226,7 +7226,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7292467</v>
+        <v>7292466</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7241,10 +7241,10 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7256,175 +7256,175 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="Q31">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
-        <v>2.16</v>
+        <v>2.45</v>
       </c>
       <c r="S31">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="T31">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="U31">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="V31">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="W31">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="X31">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="Y31">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="Z31">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="AA31">
+        <v>3.75</v>
+      </c>
+      <c r="AB31">
         <v>3.4</v>
       </c>
-      <c r="AB31">
-        <v>2.38</v>
-      </c>
       <c r="AC31">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD31">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AE31">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AF31">
-        <v>3.42</v>
+        <v>5</v>
       </c>
       <c r="AG31">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AH31">
+        <v>2.04</v>
+      </c>
+      <c r="AI31">
+        <v>1.52</v>
+      </c>
+      <c r="AJ31">
+        <v>2.5</v>
+      </c>
+      <c r="AK31">
+        <v>1.3</v>
+      </c>
+      <c r="AL31">
+        <v>1.22</v>
+      </c>
+      <c r="AM31">
         <v>1.9</v>
       </c>
-      <c r="AI31">
-        <v>1.7</v>
-      </c>
-      <c r="AJ31">
-        <v>2.08</v>
-      </c>
-      <c r="AK31">
-        <v>1.6</v>
-      </c>
-      <c r="AL31">
-        <v>1.31</v>
-      </c>
-      <c r="AM31">
-        <v>1.41</v>
-      </c>
       <c r="AN31">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>0.76</v>
+        <v>1.67</v>
       </c>
       <c r="AS31">
-        <v>1.85</v>
+        <v>0.96</v>
       </c>
       <c r="AT31">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AU31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX31">
         <v>9</v>
       </c>
       <c r="AY31">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA31">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BB31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC31">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BD31">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="BE31">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF31">
-        <v>2</v>
+        <v>2.53</v>
       </c>
       <c r="BG31">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="BH31">
-        <v>4.25</v>
+        <v>5.8</v>
       </c>
       <c r="BI31">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="BJ31">
-        <v>2.88</v>
+        <v>3.86</v>
       </c>
       <c r="BK31">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
       <c r="BL31">
-        <v>2.17</v>
+        <v>2.76</v>
       </c>
       <c r="BM31">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="BN31">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="BO31">
-        <v>2.65</v>
+        <v>2.19</v>
       </c>
       <c r="BP31">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7432,7 +7432,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7292466</v>
+        <v>7292467</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7447,10 +7447,10 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -7462,175 +7462,175 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="Q32">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R32">
-        <v>2.45</v>
+        <v>2.16</v>
       </c>
       <c r="S32">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="T32">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="U32">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="V32">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="W32">
+        <v>1.42</v>
+      </c>
+      <c r="X32">
+        <v>6.8</v>
+      </c>
+      <c r="Y32">
+        <v>1.08</v>
+      </c>
+      <c r="Z32">
+        <v>2.6</v>
+      </c>
+      <c r="AA32">
+        <v>3.4</v>
+      </c>
+      <c r="AB32">
+        <v>2.38</v>
+      </c>
+      <c r="AC32">
+        <v>1.01</v>
+      </c>
+      <c r="AD32">
+        <v>9.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.25</v>
+      </c>
+      <c r="AF32">
+        <v>3.42</v>
+      </c>
+      <c r="AG32">
+        <v>1.78</v>
+      </c>
+      <c r="AH32">
+        <v>1.9</v>
+      </c>
+      <c r="AI32">
+        <v>1.7</v>
+      </c>
+      <c r="AJ32">
+        <v>2.08</v>
+      </c>
+      <c r="AK32">
         <v>1.6</v>
       </c>
-      <c r="X32">
-        <v>5</v>
-      </c>
-      <c r="Y32">
-        <v>1.16</v>
-      </c>
-      <c r="Z32">
+      <c r="AL32">
+        <v>1.31</v>
+      </c>
+      <c r="AM32">
+        <v>1.41</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>1.5</v>
+      </c>
+      <c r="AP32">
+        <v>2</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>0.76</v>
+      </c>
+      <c r="AS32">
         <v>1.85</v>
       </c>
-      <c r="AA32">
-        <v>3.75</v>
-      </c>
-      <c r="AB32">
-        <v>3.4</v>
-      </c>
-      <c r="AC32">
-        <v>1.02</v>
-      </c>
-      <c r="AD32">
-        <v>19</v>
-      </c>
-      <c r="AE32">
-        <v>1.18</v>
-      </c>
-      <c r="AF32">
-        <v>5</v>
-      </c>
-      <c r="AG32">
-        <v>1.66</v>
-      </c>
-      <c r="AH32">
-        <v>2.04</v>
-      </c>
-      <c r="AI32">
-        <v>1.52</v>
-      </c>
-      <c r="AJ32">
-        <v>2.5</v>
-      </c>
-      <c r="AK32">
-        <v>1.3</v>
-      </c>
-      <c r="AL32">
-        <v>1.22</v>
-      </c>
-      <c r="AM32">
-        <v>1.9</v>
-      </c>
-      <c r="AN32">
-        <v>1.5</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1.86</v>
-      </c>
-      <c r="AQ32">
-        <v>1</v>
-      </c>
-      <c r="AR32">
-        <v>1.67</v>
-      </c>
-      <c r="AS32">
-        <v>0.96</v>
-      </c>
       <c r="AT32">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX32">
         <v>9</v>
       </c>
       <c r="AY32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AZ32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA32">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BB32">
+        <v>3</v>
+      </c>
+      <c r="BC32">
+        <v>7</v>
+      </c>
+      <c r="BD32">
+        <v>2</v>
+      </c>
+      <c r="BE32">
         <v>8</v>
       </c>
-      <c r="BC32">
-        <v>21</v>
-      </c>
-      <c r="BD32">
+      <c r="BF32">
+        <v>2</v>
+      </c>
+      <c r="BG32">
+        <v>1.17</v>
+      </c>
+      <c r="BH32">
+        <v>4.25</v>
+      </c>
+      <c r="BI32">
+        <v>1.34</v>
+      </c>
+      <c r="BJ32">
+        <v>2.88</v>
+      </c>
+      <c r="BK32">
         <v>1.69</v>
       </c>
-      <c r="BE32">
-        <v>8.5</v>
-      </c>
-      <c r="BF32">
-        <v>2.53</v>
-      </c>
-      <c r="BG32">
-        <v>1.09</v>
-      </c>
-      <c r="BH32">
-        <v>5.8</v>
-      </c>
-      <c r="BI32">
-        <v>1.2</v>
-      </c>
-      <c r="BJ32">
-        <v>3.86</v>
-      </c>
-      <c r="BK32">
-        <v>1.39</v>
-      </c>
       <c r="BL32">
-        <v>2.76</v>
+        <v>2.17</v>
       </c>
       <c r="BM32">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="BN32">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="BO32">
-        <v>2.19</v>
+        <v>2.65</v>
       </c>
       <c r="BP32">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7844,7 +7844,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7292469</v>
+        <v>7292475</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7859,25 +7859,25 @@
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -7886,163 +7886,163 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="Q34">
-        <v>2.16</v>
+        <v>2.85</v>
       </c>
       <c r="R34">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="S34">
-        <v>5.91</v>
+        <v>3.5</v>
       </c>
       <c r="T34">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="U34">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="V34">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="W34">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="X34">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="Y34">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="Z34">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="AA34">
+        <v>3.4</v>
+      </c>
+      <c r="AB34">
+        <v>2.7</v>
+      </c>
+      <c r="AC34">
+        <v>1.04</v>
+      </c>
+      <c r="AD34">
+        <v>11</v>
+      </c>
+      <c r="AE34">
+        <v>1.2</v>
+      </c>
+      <c r="AF34">
+        <v>4.5</v>
+      </c>
+      <c r="AG34">
+        <v>1.53</v>
+      </c>
+      <c r="AH34">
+        <v>2.25</v>
+      </c>
+      <c r="AI34">
+        <v>1.56</v>
+      </c>
+      <c r="AJ34">
+        <v>2.53</v>
+      </c>
+      <c r="AK34">
+        <v>1.44</v>
+      </c>
+      <c r="AL34">
+        <v>1.28</v>
+      </c>
+      <c r="AM34">
+        <v>1.67</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1.5</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>1.17</v>
+      </c>
+      <c r="AR34">
+        <v>1.92</v>
+      </c>
+      <c r="AS34">
+        <v>1.26</v>
+      </c>
+      <c r="AT34">
+        <v>3.18</v>
+      </c>
+      <c r="AU34">
         <v>4</v>
       </c>
-      <c r="AB34">
-        <v>4.4</v>
-      </c>
-      <c r="AC34">
-        <v>1.05</v>
-      </c>
-      <c r="AD34">
-        <v>10</v>
-      </c>
-      <c r="AE34">
-        <v>1.27</v>
-      </c>
-      <c r="AF34">
-        <v>3.8</v>
-      </c>
-      <c r="AG34">
-        <v>1.75</v>
-      </c>
-      <c r="AH34">
-        <v>1.91</v>
-      </c>
-      <c r="AI34">
-        <v>1.83</v>
-      </c>
-      <c r="AJ34">
-        <v>1.83</v>
-      </c>
-      <c r="AK34">
-        <v>1.14</v>
-      </c>
-      <c r="AL34">
-        <v>1.18</v>
-      </c>
-      <c r="AM34">
-        <v>2.35</v>
-      </c>
-      <c r="AN34">
-        <v>3</v>
-      </c>
-      <c r="AO34">
-        <v>2</v>
-      </c>
-      <c r="AP34">
-        <v>2.5</v>
-      </c>
-      <c r="AQ34">
-        <v>2.17</v>
-      </c>
-      <c r="AR34">
-        <v>1.09</v>
-      </c>
-      <c r="AS34">
-        <v>0.88</v>
-      </c>
-      <c r="AT34">
+      <c r="AV34">
+        <v>7</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>5</v>
+      </c>
+      <c r="AY34">
+        <v>8</v>
+      </c>
+      <c r="AZ34">
+        <v>12</v>
+      </c>
+      <c r="BA34">
+        <v>5</v>
+      </c>
+      <c r="BB34">
+        <v>11</v>
+      </c>
+      <c r="BC34">
+        <v>16</v>
+      </c>
+      <c r="BD34">
+        <v>1.86</v>
+      </c>
+      <c r="BE34">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF34">
+        <v>2.23</v>
+      </c>
+      <c r="BG34">
+        <v>1.15</v>
+      </c>
+      <c r="BH34">
+        <v>4.5</v>
+      </c>
+      <c r="BI34">
+        <v>1.31</v>
+      </c>
+      <c r="BJ34">
+        <v>3.04</v>
+      </c>
+      <c r="BK34">
+        <v>1.57</v>
+      </c>
+      <c r="BL34">
+        <v>2.25</v>
+      </c>
+      <c r="BM34">
         <v>1.97</v>
       </c>
-      <c r="AU34">
-        <v>5</v>
-      </c>
-      <c r="AV34">
-        <v>4</v>
-      </c>
-      <c r="AW34">
-        <v>8</v>
-      </c>
-      <c r="AX34">
-        <v>7</v>
-      </c>
-      <c r="AY34">
-        <v>13</v>
-      </c>
-      <c r="AZ34">
-        <v>11</v>
-      </c>
-      <c r="BA34">
-        <v>8</v>
-      </c>
-      <c r="BB34">
-        <v>6</v>
-      </c>
-      <c r="BC34">
-        <v>14</v>
-      </c>
-      <c r="BD34">
-        <v>1.39</v>
-      </c>
-      <c r="BE34">
-        <v>10.25</v>
-      </c>
-      <c r="BF34">
-        <v>3.62</v>
-      </c>
-      <c r="BG34">
-        <v>1.18</v>
-      </c>
-      <c r="BH34">
-        <v>4.05</v>
-      </c>
-      <c r="BI34">
-        <v>1.36</v>
-      </c>
-      <c r="BJ34">
-        <v>2.78</v>
-      </c>
-      <c r="BK34">
-        <v>1.66</v>
-      </c>
-      <c r="BL34">
-        <v>2.09</v>
-      </c>
-      <c r="BM34">
-        <v>2.11</v>
-      </c>
       <c r="BN34">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="BO34">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="BP34">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -8092,7 +8092,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8256,7 +8256,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7292475</v>
+        <v>7292469</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8271,25 +8271,25 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -8298,163 +8298,163 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="Q36">
-        <v>2.85</v>
+        <v>2.16</v>
       </c>
       <c r="R36">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="S36">
-        <v>3.5</v>
+        <v>5.91</v>
       </c>
       <c r="T36">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="U36">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="V36">
-        <v>2.43</v>
+        <v>2.8</v>
       </c>
       <c r="W36">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="X36">
+        <v>6.6</v>
+      </c>
+      <c r="Y36">
+        <v>1.09</v>
+      </c>
+      <c r="Z36">
+        <v>1.55</v>
+      </c>
+      <c r="AA36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>4.4</v>
+      </c>
+      <c r="AC36">
+        <v>1.05</v>
+      </c>
+      <c r="AD36">
+        <v>10</v>
+      </c>
+      <c r="AE36">
+        <v>1.27</v>
+      </c>
+      <c r="AF36">
+        <v>3.8</v>
+      </c>
+      <c r="AG36">
+        <v>1.75</v>
+      </c>
+      <c r="AH36">
+        <v>1.91</v>
+      </c>
+      <c r="AI36">
+        <v>1.83</v>
+      </c>
+      <c r="AJ36">
+        <v>1.83</v>
+      </c>
+      <c r="AK36">
+        <v>1.14</v>
+      </c>
+      <c r="AL36">
+        <v>1.18</v>
+      </c>
+      <c r="AM36">
+        <v>2.35</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>2</v>
+      </c>
+      <c r="AP36">
+        <v>2.5</v>
+      </c>
+      <c r="AQ36">
+        <v>2.17</v>
+      </c>
+      <c r="AR36">
+        <v>1.09</v>
+      </c>
+      <c r="AS36">
+        <v>0.88</v>
+      </c>
+      <c r="AT36">
+        <v>1.97</v>
+      </c>
+      <c r="AU36">
         <v>5</v>
       </c>
-      <c r="Y36">
-        <v>1.14</v>
-      </c>
-      <c r="Z36">
-        <v>2.25</v>
-      </c>
-      <c r="AA36">
-        <v>3.4</v>
-      </c>
-      <c r="AB36">
-        <v>2.7</v>
-      </c>
-      <c r="AC36">
-        <v>1.04</v>
-      </c>
-      <c r="AD36">
+      <c r="AV36">
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <v>8</v>
+      </c>
+      <c r="AX36">
+        <v>7</v>
+      </c>
+      <c r="AY36">
+        <v>13</v>
+      </c>
+      <c r="AZ36">
         <v>11</v>
       </c>
-      <c r="AE36">
-        <v>1.2</v>
-      </c>
-      <c r="AF36">
-        <v>4.5</v>
-      </c>
-      <c r="AG36">
-        <v>1.53</v>
-      </c>
-      <c r="AH36">
-        <v>2.25</v>
-      </c>
-      <c r="AI36">
-        <v>1.56</v>
-      </c>
-      <c r="AJ36">
-        <v>2.53</v>
-      </c>
-      <c r="AK36">
-        <v>1.44</v>
-      </c>
-      <c r="AL36">
-        <v>1.28</v>
-      </c>
-      <c r="AM36">
-        <v>1.67</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>1.5</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-      <c r="AQ36">
-        <v>1.17</v>
-      </c>
-      <c r="AR36">
-        <v>1.92</v>
-      </c>
-      <c r="AS36">
-        <v>1.26</v>
-      </c>
-      <c r="AT36">
-        <v>3.18</v>
-      </c>
-      <c r="AU36">
-        <v>4</v>
-      </c>
-      <c r="AV36">
-        <v>7</v>
-      </c>
-      <c r="AW36">
-        <v>4</v>
-      </c>
-      <c r="AX36">
-        <v>5</v>
-      </c>
-      <c r="AY36">
+      <c r="BA36">
         <v>8</v>
       </c>
-      <c r="AZ36">
-        <v>12</v>
-      </c>
-      <c r="BA36">
-        <v>5</v>
-      </c>
       <c r="BB36">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BC36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD36">
-        <v>1.86</v>
+        <v>1.39</v>
       </c>
       <c r="BE36">
-        <v>9.300000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="BF36">
-        <v>2.23</v>
+        <v>3.62</v>
       </c>
       <c r="BG36">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BH36">
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="BI36">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BJ36">
-        <v>3.04</v>
+        <v>2.78</v>
       </c>
       <c r="BK36">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="BL36">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="BM36">
-        <v>1.97</v>
+        <v>2.11</v>
       </c>
       <c r="BN36">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="BO36">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="BP36">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8462,7 +8462,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7292470</v>
+        <v>7292472</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8477,70 +8477,70 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O37" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="P37" t="s">
         <v>181</v>
       </c>
       <c r="Q37">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="R37">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S37">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="T37">
         <v>1.36</v>
       </c>
       <c r="U37">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="V37">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="W37">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X37">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="Y37">
         <v>1.08</v>
       </c>
       <c r="Z37">
-        <v>3.22</v>
+        <v>3.38</v>
       </c>
       <c r="AA37">
-        <v>3.54</v>
+        <v>3.75</v>
       </c>
       <c r="AB37">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="AC37">
         <v>1.05</v>
@@ -8552,115 +8552,115 @@
         <v>1.28</v>
       </c>
       <c r="AF37">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="AG37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH37">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="AI37">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ37">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK37">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AL37">
         <v>1.25</v>
       </c>
       <c r="AM37">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.86</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>0.43</v>
       </c>
       <c r="AR37">
-        <v>1.74</v>
+        <v>1.07</v>
       </c>
       <c r="AS37">
-        <v>1.89</v>
+        <v>1.31</v>
       </c>
       <c r="AT37">
-        <v>3.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX37">
         <v>5</v>
       </c>
       <c r="AY37">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AZ37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA37">
         <v>5</v>
       </c>
       <c r="BB37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD37">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="BE37">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF37">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="BG37">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="BH37">
-        <v>4.1</v>
+        <v>4.55</v>
       </c>
       <c r="BI37">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BJ37">
-        <v>2.8</v>
+        <v>3.08</v>
       </c>
       <c r="BK37">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="BL37">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="BM37">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="BN37">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="BO37">
-        <v>2.95</v>
+        <v>2.49</v>
       </c>
       <c r="BP37">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8668,7 +8668,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7292472</v>
+        <v>7292473</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8683,82 +8683,82 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P38" t="s">
         <v>182</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>5.03</v>
       </c>
       <c r="R38">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="S38">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="T38">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U38">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="V38">
-        <v>2.75</v>
+        <v>2.89</v>
       </c>
       <c r="W38">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y38">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Z38">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="AA38">
-        <v>3.75</v>
+        <v>3.46</v>
       </c>
       <c r="AB38">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AC38">
         <v>1.05</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>12.75</v>
       </c>
       <c r="AE38">
         <v>1.28</v>
       </c>
       <c r="AF38">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="AG38">
         <v>1.9</v>
@@ -8767,106 +8767,106 @@
         <v>1.9</v>
       </c>
       <c r="AI38">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AJ38">
         <v>1.95</v>
       </c>
       <c r="AK38">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="AL38">
+        <v>1.28</v>
+      </c>
+      <c r="AM38">
         <v>1.25</v>
-      </c>
-      <c r="AM38">
-        <v>1.27</v>
       </c>
       <c r="AN38">
         <v>1.5</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AR38">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="AS38">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT38">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="AU38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV38">
+        <v>5</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
         <v>7</v>
       </c>
-      <c r="AW38">
-        <v>3</v>
-      </c>
-      <c r="AX38">
-        <v>5</v>
-      </c>
       <c r="AY38">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ38">
         <v>12</v>
       </c>
       <c r="BA38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD38">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="BE38">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="BF38">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="BG38">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="BH38">
-        <v>4.55</v>
+        <v>4.33</v>
       </c>
       <c r="BI38">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BJ38">
-        <v>3.08</v>
+        <v>2.93</v>
       </c>
       <c r="BK38">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BL38">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="BM38">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="BN38">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="BO38">
-        <v>2.49</v>
+        <v>2.58</v>
       </c>
       <c r="BP38">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8874,7 +8874,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7292473</v>
+        <v>7292474</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8889,190 +8889,190 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <v>2</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P39" t="s">
         <v>183</v>
       </c>
       <c r="Q39">
-        <v>5.03</v>
+        <v>2.88</v>
       </c>
       <c r="R39">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="S39">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="T39">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="U39">
-        <v>3.11</v>
+        <v>3</v>
       </c>
       <c r="V39">
-        <v>2.89</v>
+        <v>2.75</v>
       </c>
       <c r="W39">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y39">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Z39">
-        <v>3.44</v>
+        <v>2.27</v>
       </c>
       <c r="AA39">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="AB39">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AC39">
         <v>1.05</v>
       </c>
       <c r="AD39">
-        <v>12.75</v>
+        <v>10</v>
       </c>
       <c r="AE39">
         <v>1.28</v>
       </c>
       <c r="AF39">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="AG39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AH39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AI39">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AJ39">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK39">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="AL39">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM39">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
         <v>1.5</v>
       </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
       <c r="AP39">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39">
         <v>1</v>
       </c>
       <c r="AR39">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="AS39">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT39">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="AU39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV39">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AW39">
+        <v>6</v>
+      </c>
+      <c r="AX39">
+        <v>6</v>
+      </c>
+      <c r="AY39">
+        <v>12</v>
+      </c>
+      <c r="AZ39">
+        <v>18</v>
+      </c>
+      <c r="BA39">
         <v>4</v>
       </c>
-      <c r="AX39">
-        <v>7</v>
-      </c>
-      <c r="AY39">
-        <v>9</v>
-      </c>
-      <c r="AZ39">
+      <c r="BB39">
+        <v>8</v>
+      </c>
+      <c r="BC39">
         <v>12</v>
       </c>
-      <c r="BA39">
-        <v>1</v>
-      </c>
-      <c r="BB39">
-        <v>6</v>
-      </c>
-      <c r="BC39">
-        <v>7</v>
-      </c>
       <c r="BD39">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="BE39">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF39">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="BG39">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="BH39">
-        <v>4.33</v>
+        <v>4.6</v>
       </c>
       <c r="BI39">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BJ39">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="BK39">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BL39">
-        <v>2.19</v>
+        <v>2.45</v>
       </c>
       <c r="BM39">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="BN39">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="BO39">
-        <v>2.58</v>
+        <v>2.43</v>
       </c>
       <c r="BP39">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -9080,7 +9080,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7292474</v>
+        <v>7292476</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -9095,10 +9095,10 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -9113,85 +9113,85 @@
         <v>2</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P40" t="s">
         <v>184</v>
       </c>
       <c r="Q40">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R40">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S40">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T40">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U40">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V40">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W40">
+        <v>1.33</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Y40">
+        <v>1.06</v>
+      </c>
+      <c r="Z40">
+        <v>2.12</v>
+      </c>
+      <c r="AA40">
+        <v>3.4</v>
+      </c>
+      <c r="AB40">
+        <v>3.13</v>
+      </c>
+      <c r="AC40">
+        <v>1.06</v>
+      </c>
+      <c r="AD40">
+        <v>9</v>
+      </c>
+      <c r="AE40">
         <v>1.4</v>
       </c>
-      <c r="X40">
-        <v>8</v>
-      </c>
-      <c r="Y40">
-        <v>1.08</v>
-      </c>
-      <c r="Z40">
-        <v>2.27</v>
-      </c>
-      <c r="AA40">
-        <v>3.5</v>
-      </c>
-      <c r="AB40">
-        <v>3</v>
-      </c>
-      <c r="AC40">
-        <v>1.05</v>
-      </c>
-      <c r="AD40">
-        <v>10</v>
-      </c>
-      <c r="AE40">
-        <v>1.28</v>
-      </c>
       <c r="AF40">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="AG40">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AH40">
+        <v>1.65</v>
+      </c>
+      <c r="AI40">
         <v>1.95</v>
       </c>
-      <c r="AI40">
-        <v>1.7</v>
-      </c>
       <c r="AJ40">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AK40">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AL40">
         <v>1.25</v>
       </c>
       <c r="AM40">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AN40">
         <v>0</v>
@@ -9203,82 +9203,82 @@
         <v>0.67</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="AS40">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="AT40">
-        <v>2.39</v>
+        <v>2.73</v>
       </c>
       <c r="AU40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV40">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AW40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY40">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ40">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="BA40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC40">
         <v>12</v>
       </c>
       <c r="BD40">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="BE40">
         <v>8.5</v>
       </c>
       <c r="BF40">
-        <v>1.91</v>
+        <v>2.66</v>
       </c>
       <c r="BG40">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BH40">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="BI40">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BJ40">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="BK40">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BL40">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="BM40">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BN40">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BO40">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="BP40">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9286,7 +9286,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7292476</v>
+        <v>7292470</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9301,190 +9301,190 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="P41" t="s">
         <v>185</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="R41">
         <v>2.1</v>
       </c>
       <c r="S41">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="T41">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U41">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="V41">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="W41">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="X41">
+        <v>6.9</v>
+      </c>
+      <c r="Y41">
+        <v>1.08</v>
+      </c>
+      <c r="Z41">
+        <v>3.22</v>
+      </c>
+      <c r="AA41">
+        <v>3.54</v>
+      </c>
+      <c r="AB41">
+        <v>2.17</v>
+      </c>
+      <c r="AC41">
+        <v>1.05</v>
+      </c>
+      <c r="AD41">
         <v>10</v>
       </c>
-      <c r="Y41">
-        <v>1.06</v>
-      </c>
-      <c r="Z41">
-        <v>2.12</v>
-      </c>
-      <c r="AA41">
-        <v>3.4</v>
-      </c>
-      <c r="AB41">
-        <v>3.13</v>
-      </c>
-      <c r="AC41">
-        <v>1.06</v>
-      </c>
-      <c r="AD41">
-        <v>9</v>
-      </c>
       <c r="AE41">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="AF41">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="AG41">
+        <v>1.85</v>
+      </c>
+      <c r="AH41">
+        <v>1.96</v>
+      </c>
+      <c r="AI41">
+        <v>1.62</v>
+      </c>
+      <c r="AJ41">
         <v>2.1</v>
       </c>
-      <c r="AH41">
-        <v>1.65</v>
-      </c>
-      <c r="AI41">
-        <v>1.95</v>
-      </c>
-      <c r="AJ41">
-        <v>1.8</v>
-      </c>
       <c r="AK41">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="AL41">
         <v>1.25</v>
       </c>
       <c r="AM41">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AN41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>0.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR41">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AS41">
-        <v>1.12</v>
+        <v>1.89</v>
       </c>
       <c r="AT41">
-        <v>2.73</v>
+        <v>3.63</v>
       </c>
       <c r="AU41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA41">
         <v>5</v>
       </c>
       <c r="BB41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD41">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="BE41">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF41">
-        <v>2.66</v>
+        <v>1.91</v>
       </c>
       <c r="BG41">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="BH41">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="BI41">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BJ41">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BK41">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="BL41">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="BM41">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="BN41">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="BO41">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="BP41">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9492,7 +9492,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7292479</v>
+        <v>7292483</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9507,190 +9507,190 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P42" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>2.1</v>
+      </c>
+      <c r="S42">
+        <v>3.6</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42">
+        <v>2.75</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1.36</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
+      </c>
+      <c r="Y42">
+        <v>1.08</v>
+      </c>
+      <c r="Z42">
+        <v>2.27</v>
+      </c>
+      <c r="AA42">
+        <v>3.3</v>
+      </c>
+      <c r="AB42">
+        <v>2.98</v>
+      </c>
+      <c r="AC42">
+        <v>1.03</v>
+      </c>
+      <c r="AD42">
+        <v>9</v>
+      </c>
+      <c r="AE42">
+        <v>1.3</v>
+      </c>
+      <c r="AF42">
+        <v>3.2</v>
+      </c>
+      <c r="AG42">
+        <v>1.99</v>
+      </c>
+      <c r="AH42">
+        <v>1.87</v>
+      </c>
+      <c r="AI42">
+        <v>1.8</v>
+      </c>
+      <c r="AJ42">
+        <v>1.95</v>
+      </c>
+      <c r="AK42">
+        <v>1.4</v>
+      </c>
+      <c r="AL42">
+        <v>1.33</v>
+      </c>
+      <c r="AM42">
+        <v>1.57</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>1.5</v>
+      </c>
+      <c r="AP42">
+        <v>0.17</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>0.88</v>
+      </c>
+      <c r="AS42">
+        <v>0.63</v>
+      </c>
+      <c r="AT42">
+        <v>1.51</v>
+      </c>
+      <c r="AU42">
+        <v>4</v>
+      </c>
+      <c r="AV42">
         <v>5</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="AW42">
+        <v>3</v>
+      </c>
+      <c r="AX42">
         <v>5</v>
       </c>
-      <c r="O42" t="s">
-        <v>117</v>
-      </c>
-      <c r="P42" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q42">
-        <v>1.91</v>
-      </c>
-      <c r="R42">
-        <v>2.63</v>
-      </c>
-      <c r="S42">
+      <c r="AY42">
+        <v>7</v>
+      </c>
+      <c r="AZ42">
+        <v>10</v>
+      </c>
+      <c r="BA42">
         <v>6</v>
       </c>
-      <c r="T42">
-        <v>1.25</v>
-      </c>
-      <c r="U42">
-        <v>3.75</v>
-      </c>
-      <c r="V42">
-        <v>2.2</v>
-      </c>
-      <c r="W42">
-        <v>1.62</v>
-      </c>
-      <c r="X42">
-        <v>5</v>
-      </c>
-      <c r="Y42">
-        <v>1.17</v>
-      </c>
-      <c r="Z42">
-        <v>2.42</v>
-      </c>
-      <c r="AA42">
-        <v>1.66</v>
-      </c>
-      <c r="AB42">
-        <v>10.05</v>
-      </c>
-      <c r="AC42">
-        <v>1.02</v>
-      </c>
-      <c r="AD42">
-        <v>23</v>
-      </c>
-      <c r="AE42">
+      <c r="BB42">
+        <v>2</v>
+      </c>
+      <c r="BC42">
+        <v>8</v>
+      </c>
+      <c r="BD42">
+        <v>1.65</v>
+      </c>
+      <c r="BE42">
+        <v>9.6</v>
+      </c>
+      <c r="BF42">
+        <v>2.61</v>
+      </c>
+      <c r="BG42">
         <v>1.15</v>
       </c>
-      <c r="AF42">
-        <v>4.75</v>
-      </c>
-      <c r="AG42">
-        <v>1.45</v>
-      </c>
-      <c r="AH42">
-        <v>2.5</v>
-      </c>
-      <c r="AI42">
-        <v>1.7</v>
-      </c>
-      <c r="AJ42">
-        <v>2.05</v>
-      </c>
-      <c r="AK42">
-        <v>1.11</v>
-      </c>
-      <c r="AL42">
-        <v>1.17</v>
-      </c>
-      <c r="AM42">
-        <v>2.9</v>
-      </c>
-      <c r="AN42">
-        <v>3</v>
-      </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>3</v>
-      </c>
-      <c r="AQ42">
-        <v>0.33</v>
-      </c>
-      <c r="AR42">
-        <v>2.45</v>
-      </c>
-      <c r="AS42">
-        <v>1.48</v>
-      </c>
-      <c r="AT42">
-        <v>3.93</v>
-      </c>
-      <c r="AU42">
-        <v>6</v>
-      </c>
-      <c r="AV42">
-        <v>3</v>
-      </c>
-      <c r="AW42">
-        <v>5</v>
-      </c>
-      <c r="AX42">
-        <v>3</v>
-      </c>
-      <c r="AY42">
-        <v>11</v>
-      </c>
-      <c r="AZ42">
-        <v>6</v>
-      </c>
-      <c r="BA42">
-        <v>9</v>
-      </c>
-      <c r="BB42">
-        <v>2</v>
-      </c>
-      <c r="BC42">
-        <v>11</v>
-      </c>
-      <c r="BD42">
-        <v>1.3</v>
-      </c>
-      <c r="BE42">
-        <v>11.25</v>
-      </c>
-      <c r="BF42">
-        <v>4.25</v>
-      </c>
-      <c r="BG42">
-        <v>1.13</v>
-      </c>
       <c r="BH42">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="BI42">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="BJ42">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="BK42">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="BL42">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="BM42">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="BN42">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="BO42">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="BP42">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9698,7 +9698,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7292483</v>
+        <v>7292479</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9713,190 +9713,190 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O43" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="R43">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="S43">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="T43">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="U43">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V43">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="W43">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="X43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y43">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="Z43">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AA43">
-        <v>3.3</v>
+        <v>1.66</v>
       </c>
       <c r="AB43">
-        <v>2.98</v>
+        <v>10.05</v>
       </c>
       <c r="AC43">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD43">
+        <v>23</v>
+      </c>
+      <c r="AE43">
+        <v>1.15</v>
+      </c>
+      <c r="AF43">
+        <v>4.75</v>
+      </c>
+      <c r="AG43">
+        <v>1.45</v>
+      </c>
+      <c r="AH43">
+        <v>2.5</v>
+      </c>
+      <c r="AI43">
+        <v>1.7</v>
+      </c>
+      <c r="AJ43">
+        <v>2.05</v>
+      </c>
+      <c r="AK43">
+        <v>1.11</v>
+      </c>
+      <c r="AL43">
+        <v>1.17</v>
+      </c>
+      <c r="AM43">
+        <v>2.9</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>3</v>
+      </c>
+      <c r="AQ43">
+        <v>0.33</v>
+      </c>
+      <c r="AR43">
+        <v>2.45</v>
+      </c>
+      <c r="AS43">
+        <v>1.48</v>
+      </c>
+      <c r="AT43">
+        <v>3.93</v>
+      </c>
+      <c r="AU43">
+        <v>6</v>
+      </c>
+      <c r="AV43">
+        <v>3</v>
+      </c>
+      <c r="AW43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>3</v>
+      </c>
+      <c r="AY43">
+        <v>11</v>
+      </c>
+      <c r="AZ43">
+        <v>6</v>
+      </c>
+      <c r="BA43">
         <v>9</v>
       </c>
-      <c r="AE43">
+      <c r="BB43">
+        <v>2</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
         <v>1.3</v>
       </c>
-      <c r="AF43">
+      <c r="BE43">
+        <v>11.25</v>
+      </c>
+      <c r="BF43">
+        <v>4.25</v>
+      </c>
+      <c r="BG43">
+        <v>1.13</v>
+      </c>
+      <c r="BH43">
+        <v>4.85</v>
+      </c>
+      <c r="BI43">
+        <v>1.28</v>
+      </c>
+      <c r="BJ43">
         <v>3.2</v>
       </c>
-      <c r="AG43">
-        <v>1.99</v>
-      </c>
-      <c r="AH43">
-        <v>1.87</v>
-      </c>
-      <c r="AI43">
-        <v>1.8</v>
-      </c>
-      <c r="AJ43">
-        <v>1.95</v>
-      </c>
-      <c r="AK43">
-        <v>1.4</v>
-      </c>
-      <c r="AL43">
-        <v>1.33</v>
-      </c>
-      <c r="AM43">
-        <v>1.57</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <v>1.5</v>
-      </c>
-      <c r="AP43">
-        <v>0.17</v>
-      </c>
-      <c r="AQ43">
-        <v>1</v>
-      </c>
-      <c r="AR43">
-        <v>0.88</v>
-      </c>
-      <c r="AS43">
-        <v>0.63</v>
-      </c>
-      <c r="AT43">
+      <c r="BK43">
         <v>1.51</v>
       </c>
-      <c r="AU43">
-        <v>4</v>
-      </c>
-      <c r="AV43">
-        <v>5</v>
-      </c>
-      <c r="AW43">
-        <v>3</v>
-      </c>
-      <c r="AX43">
-        <v>5</v>
-      </c>
-      <c r="AY43">
-        <v>7</v>
-      </c>
-      <c r="AZ43">
-        <v>10</v>
-      </c>
-      <c r="BA43">
-        <v>6</v>
-      </c>
-      <c r="BB43">
-        <v>2</v>
-      </c>
-      <c r="BC43">
-        <v>8</v>
-      </c>
-      <c r="BD43">
-        <v>1.65</v>
-      </c>
-      <c r="BE43">
-        <v>9.6</v>
-      </c>
-      <c r="BF43">
-        <v>2.61</v>
-      </c>
-      <c r="BG43">
-        <v>1.15</v>
-      </c>
-      <c r="BH43">
-        <v>4.5</v>
-      </c>
-      <c r="BI43">
-        <v>1.31</v>
-      </c>
-      <c r="BJ43">
-        <v>3.04</v>
-      </c>
-      <c r="BK43">
-        <v>1.57</v>
-      </c>
       <c r="BL43">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="BM43">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="BN43">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="BO43">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="BP43">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -10316,7 +10316,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7292482</v>
+        <v>7292484</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10331,190 +10331,190 @@
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O46" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="P46" t="s">
         <v>188</v>
       </c>
       <c r="Q46">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S46">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="T46">
+        <v>1.36</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>2.63</v>
+      </c>
+      <c r="W46">
         <v>1.44</v>
       </c>
-      <c r="U46">
-        <v>2.63</v>
-      </c>
-      <c r="V46">
-        <v>3.25</v>
-      </c>
-      <c r="W46">
-        <v>1.33</v>
-      </c>
       <c r="X46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y46">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z46">
-        <v>1.93</v>
+        <v>3.2</v>
       </c>
       <c r="AA46">
-        <v>3.1</v>
+        <v>4.77</v>
       </c>
       <c r="AB46">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="AC46">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD46">
-        <v>9.5</v>
+        <v>13.25</v>
       </c>
       <c r="AE46">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AF46">
-        <v>3.03</v>
+        <v>3.93</v>
       </c>
       <c r="AG46">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="AH46">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
       <c r="AI46">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AJ46">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AK46">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AL46">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AM46">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO46">
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="AS46">
-        <v>1.24</v>
+        <v>1.98</v>
       </c>
       <c r="AT46">
-        <v>3.11</v>
+        <v>3.5</v>
       </c>
       <c r="AU46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV46">
+        <v>11</v>
+      </c>
+      <c r="AW46">
+        <v>7</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>13</v>
+      </c>
+      <c r="AZ46">
+        <v>14</v>
+      </c>
+      <c r="BA46">
+        <v>7</v>
+      </c>
+      <c r="BB46">
         <v>4</v>
       </c>
-      <c r="AW46">
-        <v>5</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>10</v>
-      </c>
-      <c r="AZ46">
-        <v>5</v>
-      </c>
-      <c r="BA46">
-        <v>12</v>
-      </c>
-      <c r="BB46">
-        <v>0</v>
-      </c>
       <c r="BC46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD46">
-        <v>1.63</v>
+        <v>2.05</v>
       </c>
       <c r="BE46">
         <v>9.5</v>
       </c>
       <c r="BF46">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="BG46">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="BH46">
-        <v>4.2</v>
+        <v>5.15</v>
       </c>
       <c r="BI46">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="BJ46">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="BK46">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="BL46">
-        <v>2.14</v>
+        <v>2.52</v>
       </c>
       <c r="BM46">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="BN46">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="BO46">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
       <c r="BP46">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10522,7 +10522,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7292484</v>
+        <v>7292480</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10537,88 +10537,88 @@
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O47" t="s">
+        <v>120</v>
+      </c>
+      <c r="P47" t="s">
         <v>88</v>
       </c>
-      <c r="P47" t="s">
-        <v>189</v>
-      </c>
       <c r="Q47">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R47">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S47">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="T47">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V47">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W47">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X47">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y47">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z47">
-        <v>3.2</v>
+        <v>1.76</v>
       </c>
       <c r="AA47">
-        <v>4.77</v>
+        <v>3.6</v>
       </c>
       <c r="AB47">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="AC47">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD47">
-        <v>13.25</v>
+        <v>15.25</v>
       </c>
       <c r="AE47">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AF47">
-        <v>3.93</v>
+        <v>4.28</v>
       </c>
       <c r="AG47">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="AH47">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="AI47">
         <v>1.67</v>
@@ -10627,100 +10627,100 @@
         <v>2.1</v>
       </c>
       <c r="AK47">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AL47">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM47">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AN47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>1.17</v>
       </c>
       <c r="AR47">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="AS47">
-        <v>1.98</v>
+        <v>1.4</v>
       </c>
       <c r="AT47">
-        <v>3.5</v>
+        <v>3.13</v>
       </c>
       <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AV47">
+        <v>3</v>
+      </c>
+      <c r="AW47">
         <v>6</v>
       </c>
-      <c r="AV47">
+      <c r="AX47">
+        <v>7</v>
+      </c>
+      <c r="AY47">
         <v>11</v>
       </c>
-      <c r="AW47">
-        <v>7</v>
-      </c>
-      <c r="AX47">
-        <v>3</v>
-      </c>
-      <c r="AY47">
-        <v>13</v>
-      </c>
       <c r="AZ47">
+        <v>10</v>
+      </c>
+      <c r="BA47">
+        <v>9</v>
+      </c>
+      <c r="BB47">
+        <v>5</v>
+      </c>
+      <c r="BC47">
         <v>14</v>
       </c>
-      <c r="BA47">
-        <v>7</v>
-      </c>
-      <c r="BB47">
-        <v>4</v>
-      </c>
-      <c r="BC47">
-        <v>11</v>
-      </c>
       <c r="BD47">
-        <v>2.05</v>
+        <v>1.51</v>
       </c>
       <c r="BE47">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF47">
-        <v>2</v>
+        <v>3.04</v>
       </c>
       <c r="BG47">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="BH47">
-        <v>5.15</v>
+        <v>4.7</v>
       </c>
       <c r="BI47">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="BJ47">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="BK47">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="BL47">
-        <v>2.52</v>
+        <v>2.33</v>
       </c>
       <c r="BM47">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="BN47">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="BO47">
-        <v>2.25</v>
+        <v>2.44</v>
       </c>
       <c r="BP47">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10728,7 +10728,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7292480</v>
+        <v>7292482</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10743,190 +10743,190 @@
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O48" t="s">
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="Q48">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="R48">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
         <v>4.33</v>
       </c>
       <c r="T48">
+        <v>1.44</v>
+      </c>
+      <c r="U48">
+        <v>2.63</v>
+      </c>
+      <c r="V48">
+        <v>3.25</v>
+      </c>
+      <c r="W48">
         <v>1.33</v>
       </c>
-      <c r="U48">
-        <v>3.25</v>
-      </c>
-      <c r="V48">
-        <v>2.5</v>
-      </c>
-      <c r="W48">
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>1.06</v>
+      </c>
+      <c r="Z48">
+        <v>1.93</v>
+      </c>
+      <c r="AA48">
+        <v>3.1</v>
+      </c>
+      <c r="AB48">
+        <v>3.6</v>
+      </c>
+      <c r="AC48">
+        <v>1.07</v>
+      </c>
+      <c r="AD48">
+        <v>9.5</v>
+      </c>
+      <c r="AE48">
+        <v>1.39</v>
+      </c>
+      <c r="AF48">
+        <v>3.03</v>
+      </c>
+      <c r="AG48">
+        <v>2.2</v>
+      </c>
+      <c r="AH48">
+        <v>1.61</v>
+      </c>
+      <c r="AI48">
+        <v>1.95</v>
+      </c>
+      <c r="AJ48">
+        <v>1.8</v>
+      </c>
+      <c r="AK48">
+        <v>1.32</v>
+      </c>
+      <c r="AL48">
+        <v>1.32</v>
+      </c>
+      <c r="AM48">
+        <v>1.72</v>
+      </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
         <v>1.5</v>
       </c>
-      <c r="X48">
-        <v>6.5</v>
-      </c>
-      <c r="Y48">
-        <v>1.11</v>
-      </c>
-      <c r="Z48">
-        <v>1.76</v>
-      </c>
-      <c r="AA48">
-        <v>3.6</v>
-      </c>
-      <c r="AB48">
-        <v>3.7</v>
-      </c>
-      <c r="AC48">
-        <v>1.04</v>
-      </c>
-      <c r="AD48">
-        <v>15.25</v>
-      </c>
-      <c r="AE48">
-        <v>1.22</v>
-      </c>
-      <c r="AF48">
-        <v>4.28</v>
-      </c>
-      <c r="AG48">
-        <v>1.69</v>
-      </c>
-      <c r="AH48">
-        <v>2.09</v>
-      </c>
-      <c r="AI48">
-        <v>1.67</v>
-      </c>
-      <c r="AJ48">
-        <v>2.1</v>
-      </c>
-      <c r="AK48">
-        <v>1.25</v>
-      </c>
-      <c r="AL48">
-        <v>1.25</v>
-      </c>
-      <c r="AM48">
-        <v>1.95</v>
-      </c>
-      <c r="AN48">
-        <v>0.5</v>
-      </c>
-      <c r="AO48">
-        <v>1.33</v>
-      </c>
       <c r="AP48">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR48">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="AS48">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="AT48">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="AU48">
         <v>5</v>
       </c>
       <c r="AV48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AY48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA48">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BB48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC48">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD48">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="BE48">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="BF48">
-        <v>3.04</v>
+        <v>2.67</v>
       </c>
       <c r="BG48">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH48">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="BI48">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BJ48">
-        <v>3.18</v>
+        <v>2.84</v>
       </c>
       <c r="BK48">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="BL48">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="BM48">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="BN48">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="BO48">
-        <v>2.44</v>
+        <v>2.69</v>
       </c>
       <c r="BP48">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -13406,7 +13406,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7292496</v>
+        <v>7292498</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13421,10 +13421,10 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -13436,13 +13436,13 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O61" t="s">
         <v>132</v>
@@ -13451,160 +13451,160 @@
         <v>199</v>
       </c>
       <c r="Q61">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="R61">
+        <v>2.55</v>
+      </c>
+      <c r="S61">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>1.29</v>
+      </c>
+      <c r="U61">
+        <v>3.4</v>
+      </c>
+      <c r="V61">
         <v>2.25</v>
       </c>
-      <c r="S61">
-        <v>3</v>
-      </c>
-      <c r="T61">
-        <v>1.3</v>
-      </c>
-      <c r="U61">
-        <v>3.2</v>
-      </c>
-      <c r="V61">
-        <v>2.4</v>
-      </c>
       <c r="W61">
+        <v>1.57</v>
+      </c>
+      <c r="X61">
+        <v>4.75</v>
+      </c>
+      <c r="Y61">
+        <v>1.15</v>
+      </c>
+      <c r="Z61">
         <v>1.5</v>
       </c>
-      <c r="X61">
-        <v>5.5</v>
-      </c>
-      <c r="Y61">
-        <v>1.11</v>
-      </c>
-      <c r="Z61">
-        <v>2.55</v>
-      </c>
       <c r="AA61">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="AB61">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="AC61">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD61">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AE61">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AF61">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AG61">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AH61">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="AI61">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AJ61">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="AK61">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AL61">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM61">
-        <v>1.47</v>
+        <v>2.5</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ61">
         <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
       <c r="AS61">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="AT61">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="AU61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV61">
         <v>7</v>
       </c>
       <c r="AW61">
+        <v>11</v>
+      </c>
+      <c r="AX61">
+        <v>6</v>
+      </c>
+      <c r="AY61">
+        <v>18</v>
+      </c>
+      <c r="AZ61">
+        <v>13</v>
+      </c>
+      <c r="BA61">
         <v>4</v>
       </c>
-      <c r="AX61">
-        <v>3</v>
-      </c>
-      <c r="AY61">
-        <v>10</v>
-      </c>
-      <c r="AZ61">
-        <v>10</v>
-      </c>
-      <c r="BA61">
-        <v>7</v>
-      </c>
       <c r="BB61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC61">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD61">
-        <v>2.05</v>
+        <v>1.41</v>
       </c>
       <c r="BE61">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF61">
-        <v>2</v>
+        <v>3.48</v>
       </c>
       <c r="BG61">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="BH61">
-        <v>4.95</v>
+        <v>6</v>
       </c>
       <c r="BI61">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="BJ61">
-        <v>3.28</v>
+        <v>3.96</v>
       </c>
       <c r="BK61">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="BL61">
-        <v>2.4</v>
+        <v>2.79</v>
       </c>
       <c r="BM61">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="BN61">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BO61">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="BP61">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13612,7 +13612,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7292498</v>
+        <v>7292496</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13627,10 +13627,10 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -13642,13 +13642,13 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O62" t="s">
         <v>133</v>
@@ -13657,160 +13657,160 @@
         <v>200</v>
       </c>
       <c r="Q62">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="R62">
+        <v>2.25</v>
+      </c>
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62">
+        <v>1.3</v>
+      </c>
+      <c r="U62">
+        <v>3.2</v>
+      </c>
+      <c r="V62">
+        <v>2.4</v>
+      </c>
+      <c r="W62">
+        <v>1.5</v>
+      </c>
+      <c r="X62">
+        <v>5.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.11</v>
+      </c>
+      <c r="Z62">
         <v>2.55</v>
       </c>
-      <c r="S62">
-        <v>5</v>
-      </c>
-      <c r="T62">
-        <v>1.29</v>
-      </c>
-      <c r="U62">
-        <v>3.4</v>
-      </c>
-      <c r="V62">
-        <v>2.25</v>
-      </c>
-      <c r="W62">
-        <v>1.57</v>
-      </c>
-      <c r="X62">
-        <v>4.75</v>
-      </c>
-      <c r="Y62">
-        <v>1.15</v>
-      </c>
-      <c r="Z62">
-        <v>1.5</v>
-      </c>
       <c r="AA62">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="AB62">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="AC62">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD62">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AE62">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AF62">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AG62">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AH62">
+        <v>2</v>
+      </c>
+      <c r="AI62">
+        <v>1.52</v>
+      </c>
+      <c r="AJ62">
         <v>2.35</v>
       </c>
-      <c r="AI62">
-        <v>1.63</v>
-      </c>
-      <c r="AJ62">
-        <v>2.25</v>
-      </c>
       <c r="AK62">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>1.47</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
         <v>1.2</v>
       </c>
-      <c r="AM62">
-        <v>2.5</v>
-      </c>
-      <c r="AN62">
-        <v>1.5</v>
-      </c>
-      <c r="AO62">
-        <v>1</v>
-      </c>
-      <c r="AP62">
-        <v>1.86</v>
-      </c>
       <c r="AQ62">
         <v>1</v>
       </c>
       <c r="AR62">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="AS62">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="AT62">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AU62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV62">
         <v>7</v>
       </c>
       <c r="AW62">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY62">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ62">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA62">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC62">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD62">
-        <v>1.41</v>
+        <v>2.05</v>
       </c>
       <c r="BE62">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF62">
-        <v>3.48</v>
+        <v>2</v>
       </c>
       <c r="BG62">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="BH62">
-        <v>6</v>
+        <v>4.95</v>
       </c>
       <c r="BI62">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="BJ62">
-        <v>3.96</v>
+        <v>3.28</v>
       </c>
       <c r="BK62">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="BL62">
-        <v>2.79</v>
+        <v>2.4</v>
       </c>
       <c r="BM62">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="BN62">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BO62">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="BP62">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13818,7 +13818,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7292500</v>
+        <v>7292494</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13833,25 +13833,25 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -13860,43 +13860,43 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="Q63">
-        <v>3.5</v>
+        <v>2.51</v>
       </c>
       <c r="R63">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S63">
-        <v>2.95</v>
+        <v>4.51</v>
       </c>
       <c r="T63">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U63">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="V63">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="W63">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X63">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Z63">
-        <v>3.08</v>
+        <v>2.04</v>
       </c>
       <c r="AA63">
+        <v>3.54</v>
+      </c>
+      <c r="AB63">
         <v>3.56</v>
-      </c>
-      <c r="AB63">
-        <v>2.23</v>
       </c>
       <c r="AC63">
         <v>1.01</v>
@@ -13911,112 +13911,112 @@
         <v>3.7</v>
       </c>
       <c r="AG63">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="AH63">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AI63">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AJ63">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AK63">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="AL63">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM63">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>1.86</v>
+      </c>
+      <c r="AQ63">
+        <v>0.43</v>
+      </c>
+      <c r="AR63">
+        <v>1.37</v>
+      </c>
+      <c r="AS63">
+        <v>1.43</v>
+      </c>
+      <c r="AT63">
+        <v>2.8</v>
+      </c>
+      <c r="AU63">
+        <v>9</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63">
+        <v>7</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>16</v>
+      </c>
+      <c r="AZ63">
+        <v>7</v>
+      </c>
+      <c r="BA63">
+        <v>8</v>
+      </c>
+      <c r="BB63">
+        <v>5</v>
+      </c>
+      <c r="BC63">
+        <v>13</v>
+      </c>
+      <c r="BD63">
+        <v>1.59</v>
+      </c>
+      <c r="BE63">
+        <v>8.5</v>
+      </c>
+      <c r="BF63">
+        <v>2.89</v>
+      </c>
+      <c r="BG63">
+        <v>1.17</v>
+      </c>
+      <c r="BH63">
+        <v>4.15</v>
+      </c>
+      <c r="BI63">
+        <v>1.35</v>
+      </c>
+      <c r="BJ63">
+        <v>2.84</v>
+      </c>
+      <c r="BK63">
+        <v>1.69</v>
+      </c>
+      <c r="BL63">
+        <v>2.17</v>
+      </c>
+      <c r="BM63">
+        <v>2.09</v>
+      </c>
+      <c r="BN63">
         <v>1.75</v>
       </c>
-      <c r="AP63">
-        <v>0.17</v>
-      </c>
-      <c r="AQ63">
-        <v>1.5</v>
-      </c>
-      <c r="AR63">
-        <v>0.97</v>
-      </c>
-      <c r="AS63">
-        <v>1.81</v>
-      </c>
-      <c r="AT63">
-        <v>2.78</v>
-      </c>
-      <c r="AU63">
-        <v>3</v>
-      </c>
-      <c r="AV63">
-        <v>3</v>
-      </c>
-      <c r="AW63">
-        <v>3</v>
-      </c>
-      <c r="AX63">
-        <v>7</v>
-      </c>
-      <c r="AY63">
-        <v>6</v>
-      </c>
-      <c r="AZ63">
-        <v>10</v>
-      </c>
-      <c r="BA63">
-        <v>7</v>
-      </c>
-      <c r="BB63">
-        <v>9</v>
-      </c>
-      <c r="BC63">
-        <v>16</v>
-      </c>
-      <c r="BD63">
-        <v>2.05</v>
-      </c>
-      <c r="BE63">
-        <v>8</v>
-      </c>
-      <c r="BF63">
-        <v>1.95</v>
-      </c>
-      <c r="BG63">
-        <v>1.13</v>
-      </c>
-      <c r="BH63">
-        <v>4.75</v>
-      </c>
-      <c r="BI63">
-        <v>1.28</v>
-      </c>
-      <c r="BJ63">
-        <v>3.2</v>
-      </c>
-      <c r="BK63">
-        <v>1.58</v>
-      </c>
-      <c r="BL63">
-        <v>2.33</v>
-      </c>
-      <c r="BM63">
-        <v>1.98</v>
-      </c>
-      <c r="BN63">
-        <v>1.82</v>
-      </c>
       <c r="BO63">
-        <v>2.39</v>
+        <v>2.69</v>
       </c>
       <c r="BP63">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -14024,7 +14024,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7292494</v>
+        <v>7292500</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14039,25 +14039,25 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -14066,43 +14066,43 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="Q64">
-        <v>2.51</v>
+        <v>3.5</v>
       </c>
       <c r="R64">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S64">
-        <v>4.51</v>
+        <v>2.95</v>
       </c>
       <c r="T64">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="U64">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="V64">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W64">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X64">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y64">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z64">
-        <v>2.04</v>
+        <v>3.08</v>
       </c>
       <c r="AA64">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
       <c r="AB64">
-        <v>3.56</v>
+        <v>2.23</v>
       </c>
       <c r="AC64">
         <v>1.01</v>
@@ -14117,112 +14117,112 @@
         <v>3.7</v>
       </c>
       <c r="AG64">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AH64">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AI64">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AJ64">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AK64">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
       <c r="AL64">
+        <v>1.33</v>
+      </c>
+      <c r="AM64">
+        <v>1.38</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>1.75</v>
+      </c>
+      <c r="AP64">
+        <v>0.17</v>
+      </c>
+      <c r="AQ64">
+        <v>1.5</v>
+      </c>
+      <c r="AR64">
+        <v>0.97</v>
+      </c>
+      <c r="AS64">
+        <v>1.81</v>
+      </c>
+      <c r="AT64">
+        <v>2.78</v>
+      </c>
+      <c r="AU64">
+        <v>3</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>3</v>
+      </c>
+      <c r="AX64">
+        <v>7</v>
+      </c>
+      <c r="AY64">
+        <v>6</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>7</v>
+      </c>
+      <c r="BB64">
+        <v>9</v>
+      </c>
+      <c r="BC64">
+        <v>16</v>
+      </c>
+      <c r="BD64">
+        <v>2.05</v>
+      </c>
+      <c r="BE64">
+        <v>8</v>
+      </c>
+      <c r="BF64">
+        <v>1.95</v>
+      </c>
+      <c r="BG64">
+        <v>1.13</v>
+      </c>
+      <c r="BH64">
+        <v>4.75</v>
+      </c>
+      <c r="BI64">
         <v>1.28</v>
       </c>
-      <c r="AM64">
-        <v>1.85</v>
-      </c>
-      <c r="AN64">
-        <v>1.75</v>
-      </c>
-      <c r="AO64">
-        <v>1</v>
-      </c>
-      <c r="AP64">
-        <v>1.86</v>
-      </c>
-      <c r="AQ64">
-        <v>0.43</v>
-      </c>
-      <c r="AR64">
-        <v>1.37</v>
-      </c>
-      <c r="AS64">
-        <v>1.43</v>
-      </c>
-      <c r="AT64">
-        <v>2.8</v>
-      </c>
-      <c r="AU64">
-        <v>9</v>
-      </c>
-      <c r="AV64">
-        <v>2</v>
-      </c>
-      <c r="AW64">
-        <v>7</v>
-      </c>
-      <c r="AX64">
-        <v>5</v>
-      </c>
-      <c r="AY64">
-        <v>16</v>
-      </c>
-      <c r="AZ64">
-        <v>7</v>
-      </c>
-      <c r="BA64">
-        <v>8</v>
-      </c>
-      <c r="BB64">
-        <v>5</v>
-      </c>
-      <c r="BC64">
-        <v>13</v>
-      </c>
-      <c r="BD64">
-        <v>1.59</v>
-      </c>
-      <c r="BE64">
-        <v>8.5</v>
-      </c>
-      <c r="BF64">
-        <v>2.89</v>
-      </c>
-      <c r="BG64">
-        <v>1.17</v>
-      </c>
-      <c r="BH64">
-        <v>4.15</v>
-      </c>
-      <c r="BI64">
-        <v>1.35</v>
-      </c>
       <c r="BJ64">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="BK64">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="BL64">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="BM64">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="BN64">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="BO64">
-        <v>2.69</v>
+        <v>2.39</v>
       </c>
       <c r="BP64">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -16908,7 +16908,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7292509</v>
+        <v>7292514</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16923,55 +16923,55 @@
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="P78" t="s">
         <v>88</v>
       </c>
       <c r="Q78">
-        <v>1.72</v>
+        <v>2.75</v>
       </c>
       <c r="R78">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="S78">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="T78">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="U78">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="V78">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W78">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X78">
         <v>6</v>
@@ -16980,13 +16980,13 @@
         <v>1.12</v>
       </c>
       <c r="Z78">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="AA78">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AB78">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="AC78">
         <v>1.03</v>
@@ -17001,112 +17001,112 @@
         <v>4.33</v>
       </c>
       <c r="AG78">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AH78">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="AI78">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="AJ78">
-        <v>1.68</v>
+        <v>2.35</v>
       </c>
       <c r="AK78">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="AL78">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AM78">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO78">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AS78">
-        <v>0.95</v>
+        <v>1.44</v>
       </c>
       <c r="AT78">
-        <v>2.49</v>
+        <v>3.04</v>
       </c>
       <c r="AU78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV78">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW78">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX78">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AY78">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ78">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BA78">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB78">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC78">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD78">
-        <v>1.1</v>
+        <v>1.88</v>
       </c>
       <c r="BE78">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="BF78">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="BG78">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH78">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="BI78">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BJ78">
-        <v>2.91</v>
+        <v>3.1</v>
       </c>
       <c r="BK78">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="BL78">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="BM78">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BN78">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="BO78">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="BP78">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17114,7 +17114,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7292514</v>
+        <v>7292509</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17129,55 +17129,55 @@
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O79" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="P79" t="s">
         <v>88</v>
       </c>
       <c r="Q79">
-        <v>2.75</v>
+        <v>1.72</v>
       </c>
       <c r="R79">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="S79">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="T79">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="U79">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="V79">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="W79">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X79">
         <v>6</v>
@@ -17186,13 +17186,13 @@
         <v>1.12</v>
       </c>
       <c r="Z79">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="AA79">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AB79">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="AC79">
         <v>1.03</v>
@@ -17207,112 +17207,112 @@
         <v>4.33</v>
       </c>
       <c r="AG79">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AH79">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="AI79">
-        <v>1.58</v>
+        <v>2.2</v>
       </c>
       <c r="AJ79">
-        <v>2.35</v>
+        <v>1.68</v>
       </c>
       <c r="AK79">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="AL79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AM79">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="AN79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO79">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP79">
+        <v>1.86</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>1.54</v>
+      </c>
+      <c r="AS79">
+        <v>0.95</v>
+      </c>
+      <c r="AT79">
+        <v>2.49</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>15</v>
+      </c>
+      <c r="AX79">
+        <v>5</v>
+      </c>
+      <c r="AY79">
+        <v>21</v>
+      </c>
+      <c r="AZ79">
+        <v>9</v>
+      </c>
+      <c r="BA79">
+        <v>8</v>
+      </c>
+      <c r="BB79">
+        <v>3</v>
+      </c>
+      <c r="BC79">
+        <v>11</v>
+      </c>
+      <c r="BD79">
+        <v>1.1</v>
+      </c>
+      <c r="BE79">
+        <v>15</v>
+      </c>
+      <c r="BF79">
+        <v>8.4</v>
+      </c>
+      <c r="BG79">
+        <v>1.17</v>
+      </c>
+      <c r="BH79">
+        <v>4.25</v>
+      </c>
+      <c r="BI79">
         <v>1.33</v>
       </c>
-      <c r="AQ79">
-        <v>0.67</v>
-      </c>
-      <c r="AR79">
-        <v>1.6</v>
-      </c>
-      <c r="AS79">
-        <v>1.44</v>
-      </c>
-      <c r="AT79">
-        <v>3.04</v>
-      </c>
-      <c r="AU79">
-        <v>5</v>
-      </c>
-      <c r="AV79">
-        <v>7</v>
-      </c>
-      <c r="AW79">
-        <v>12</v>
-      </c>
-      <c r="AX79">
-        <v>18</v>
-      </c>
-      <c r="AY79">
-        <v>17</v>
-      </c>
-      <c r="AZ79">
-        <v>25</v>
-      </c>
-      <c r="BA79">
-        <v>3</v>
-      </c>
-      <c r="BB79">
-        <v>7</v>
-      </c>
-      <c r="BC79">
-        <v>10</v>
-      </c>
-      <c r="BD79">
-        <v>1.88</v>
-      </c>
-      <c r="BE79">
-        <v>7.5</v>
-      </c>
-      <c r="BF79">
-        <v>2.3</v>
-      </c>
-      <c r="BG79">
-        <v>1.18</v>
-      </c>
-      <c r="BH79">
-        <v>4.6</v>
-      </c>
-      <c r="BI79">
-        <v>1.34</v>
-      </c>
       <c r="BJ79">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="BK79">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="BL79">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="BM79">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BN79">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="BO79">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="BP79">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -19792,7 +19792,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7292532</v>
+        <v>7292526</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19807,88 +19807,88 @@
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H92" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O92" t="s">
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="Q92">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="R92">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S92">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="T92">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U92">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V92">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W92">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X92">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Y92">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="AA92">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AB92">
-        <v>1.79</v>
+        <v>2.39</v>
       </c>
       <c r="AC92">
         <v>1.01</v>
       </c>
       <c r="AD92">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE92">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AF92">
-        <v>4.55</v>
+        <v>3.75</v>
       </c>
       <c r="AG92">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="AH92">
-        <v>2.35</v>
+        <v>1.99</v>
       </c>
       <c r="AI92">
         <v>1.62</v>
@@ -19897,100 +19897,100 @@
         <v>2.2</v>
       </c>
       <c r="AK92">
-        <v>2.31</v>
+        <v>1.53</v>
       </c>
       <c r="AL92">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AM92">
+        <v>1.49</v>
+      </c>
+      <c r="AN92">
+        <v>0.8</v>
+      </c>
+      <c r="AO92">
+        <v>0.5</v>
+      </c>
+      <c r="AP92">
         <v>1.17</v>
       </c>
-      <c r="AN92">
-        <v>1</v>
-      </c>
-      <c r="AO92">
-        <v>2.17</v>
-      </c>
-      <c r="AP92">
-        <v>1</v>
-      </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>0.43</v>
       </c>
       <c r="AR92">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AS92">
-        <v>1.62</v>
+        <v>1.19</v>
       </c>
       <c r="AT92">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="AU92">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>2</v>
+      </c>
+      <c r="AX92">
+        <v>10</v>
+      </c>
+      <c r="AY92">
+        <v>5</v>
+      </c>
+      <c r="AZ92">
+        <v>13</v>
+      </c>
+      <c r="BA92">
         <v>7</v>
       </c>
-      <c r="AW92">
-        <v>1</v>
-      </c>
-      <c r="AX92">
+      <c r="BB92">
         <v>8</v>
       </c>
-      <c r="AY92">
-        <v>10</v>
-      </c>
-      <c r="AZ92">
+      <c r="BC92">
         <v>15</v>
       </c>
-      <c r="BA92">
-        <v>4</v>
-      </c>
-      <c r="BB92">
-        <v>5</v>
-      </c>
-      <c r="BC92">
-        <v>9</v>
-      </c>
       <c r="BD92">
-        <v>3.28</v>
+        <v>1.95</v>
       </c>
       <c r="BE92">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF92">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="BG92">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="BH92">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="BI92">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BJ92">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BK92">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="BL92">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="BM92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BO92">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BP92">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19998,7 +19998,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7292526</v>
+        <v>7292532</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20013,88 +20013,88 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O93" t="s">
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="Q93">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="R93">
+        <v>2.5</v>
+      </c>
+      <c r="S93">
+        <v>2.1</v>
+      </c>
+      <c r="T93">
+        <v>1.29</v>
+      </c>
+      <c r="U93">
+        <v>3.5</v>
+      </c>
+      <c r="V93">
         <v>2.25</v>
       </c>
-      <c r="S93">
-        <v>3.1</v>
-      </c>
-      <c r="T93">
-        <v>1.33</v>
-      </c>
-      <c r="U93">
-        <v>3.25</v>
-      </c>
-      <c r="V93">
-        <v>2.63</v>
-      </c>
       <c r="W93">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="X93">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z93">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="AA93">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AB93">
-        <v>2.39</v>
+        <v>1.79</v>
       </c>
       <c r="AC93">
         <v>1.01</v>
       </c>
       <c r="AD93">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE93">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AF93">
-        <v>3.75</v>
+        <v>4.55</v>
       </c>
       <c r="AG93">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="AH93">
-        <v>1.99</v>
+        <v>2.35</v>
       </c>
       <c r="AI93">
         <v>1.62</v>
@@ -20103,100 +20103,100 @@
         <v>2.2</v>
       </c>
       <c r="AK93">
-        <v>1.53</v>
+        <v>2.31</v>
       </c>
       <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
+        <v>1.17</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>2.17</v>
+      </c>
+      <c r="AP93">
+        <v>1</v>
+      </c>
+      <c r="AQ93">
+        <v>2</v>
+      </c>
+      <c r="AR93">
+        <v>1.38</v>
+      </c>
+      <c r="AS93">
+        <v>1.62</v>
+      </c>
+      <c r="AT93">
+        <v>3</v>
+      </c>
+      <c r="AU93">
+        <v>9</v>
+      </c>
+      <c r="AV93">
+        <v>7</v>
+      </c>
+      <c r="AW93">
+        <v>1</v>
+      </c>
+      <c r="AX93">
+        <v>8</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>15</v>
+      </c>
+      <c r="BA93">
+        <v>4</v>
+      </c>
+      <c r="BB93">
+        <v>5</v>
+      </c>
+      <c r="BC93">
+        <v>9</v>
+      </c>
+      <c r="BD93">
+        <v>3.28</v>
+      </c>
+      <c r="BE93">
+        <v>9</v>
+      </c>
+      <c r="BF93">
+        <v>1.45</v>
+      </c>
+      <c r="BG93">
+        <v>1.13</v>
+      </c>
+      <c r="BH93">
+        <v>5.5</v>
+      </c>
+      <c r="BI93">
         <v>1.3</v>
       </c>
-      <c r="AM93">
+      <c r="BJ93">
+        <v>3.3</v>
+      </c>
+      <c r="BK93">
+        <v>1.55</v>
+      </c>
+      <c r="BL93">
+        <v>2.38</v>
+      </c>
+      <c r="BM93">
+        <v>1.95</v>
+      </c>
+      <c r="BN93">
+        <v>1.85</v>
+      </c>
+      <c r="BO93">
+        <v>2.5</v>
+      </c>
+      <c r="BP93">
         <v>1.49</v>
-      </c>
-      <c r="AN93">
-        <v>0.8</v>
-      </c>
-      <c r="AO93">
-        <v>0.5</v>
-      </c>
-      <c r="AP93">
-        <v>1.17</v>
-      </c>
-      <c r="AQ93">
-        <v>0.43</v>
-      </c>
-      <c r="AR93">
-        <v>1.27</v>
-      </c>
-      <c r="AS93">
-        <v>1.19</v>
-      </c>
-      <c r="AT93">
-        <v>2.46</v>
-      </c>
-      <c r="AU93">
-        <v>3</v>
-      </c>
-      <c r="AV93">
-        <v>3</v>
-      </c>
-      <c r="AW93">
-        <v>2</v>
-      </c>
-      <c r="AX93">
-        <v>10</v>
-      </c>
-      <c r="AY93">
-        <v>5</v>
-      </c>
-      <c r="AZ93">
-        <v>13</v>
-      </c>
-      <c r="BA93">
-        <v>7</v>
-      </c>
-      <c r="BB93">
-        <v>8</v>
-      </c>
-      <c r="BC93">
-        <v>15</v>
-      </c>
-      <c r="BD93">
-        <v>1.95</v>
-      </c>
-      <c r="BE93">
-        <v>8</v>
-      </c>
-      <c r="BF93">
-        <v>2.1</v>
-      </c>
-      <c r="BG93">
-        <v>1.17</v>
-      </c>
-      <c r="BH93">
-        <v>4.7</v>
-      </c>
-      <c r="BI93">
-        <v>1.32</v>
-      </c>
-      <c r="BJ93">
-        <v>3.2</v>
-      </c>
-      <c r="BK93">
-        <v>1.58</v>
-      </c>
-      <c r="BL93">
-        <v>2.28</v>
-      </c>
-      <c r="BM93">
-        <v>2</v>
-      </c>
-      <c r="BN93">
-        <v>1.8</v>
-      </c>
-      <c r="BO93">
-        <v>2.6</v>
-      </c>
-      <c r="BP93">
-        <v>1.46</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20204,7 +20204,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7292529</v>
+        <v>7292528</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20219,160 +20219,160 @@
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O94" t="s">
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="Q94">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R94">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="S94">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="T94">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="U94">
-        <v>3.4</v>
+        <v>2.78</v>
       </c>
       <c r="V94">
-        <v>2.38</v>
+        <v>2.78</v>
       </c>
       <c r="W94">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="X94">
+        <v>7.1</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>2.97</v>
+      </c>
+      <c r="AA94">
+        <v>3.15</v>
+      </c>
+      <c r="AB94">
+        <v>2.09</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE94">
+        <v>1.27</v>
+      </c>
+      <c r="AF94">
+        <v>3.28</v>
+      </c>
+      <c r="AG94">
+        <v>1.9</v>
+      </c>
+      <c r="AH94">
+        <v>1.8</v>
+      </c>
+      <c r="AI94">
+        <v>1.75</v>
+      </c>
+      <c r="AJ94">
+        <v>2.05</v>
+      </c>
+      <c r="AK94">
+        <v>1.7</v>
+      </c>
+      <c r="AL94">
+        <v>1.28</v>
+      </c>
+      <c r="AM94">
+        <v>1.35</v>
+      </c>
+      <c r="AN94">
+        <v>1.8</v>
+      </c>
+      <c r="AO94">
+        <v>1.2</v>
+      </c>
+      <c r="AP94">
+        <v>2</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94">
+        <v>0.93</v>
+      </c>
+      <c r="AS94">
+        <v>1.41</v>
+      </c>
+      <c r="AT94">
+        <v>2.34</v>
+      </c>
+      <c r="AU94">
+        <v>8</v>
+      </c>
+      <c r="AV94">
         <v>6</v>
       </c>
-      <c r="Y94">
-        <v>1.13</v>
-      </c>
-      <c r="Z94">
-        <v>1.78</v>
-      </c>
-      <c r="AA94">
-        <v>3.6</v>
-      </c>
-      <c r="AB94">
-        <v>3.4</v>
-      </c>
-      <c r="AC94">
-        <v>1.01</v>
-      </c>
-      <c r="AD94">
-        <v>10.5</v>
-      </c>
-      <c r="AE94">
-        <v>1.16</v>
-      </c>
-      <c r="AF94">
-        <v>4.3</v>
-      </c>
-      <c r="AG94">
-        <v>1.56</v>
-      </c>
-      <c r="AH94">
-        <v>2.27</v>
-      </c>
-      <c r="AI94">
-        <v>1.57</v>
-      </c>
-      <c r="AJ94">
-        <v>2.25</v>
-      </c>
-      <c r="AK94">
-        <v>1.27</v>
-      </c>
-      <c r="AL94">
-        <v>1.26</v>
-      </c>
-      <c r="AM94">
-        <v>1.93</v>
-      </c>
-      <c r="AN94">
-        <v>1</v>
-      </c>
-      <c r="AO94">
-        <v>0.83</v>
-      </c>
-      <c r="AP94">
-        <v>1.33</v>
-      </c>
-      <c r="AQ94">
-        <v>0.71</v>
-      </c>
-      <c r="AR94">
-        <v>1.62</v>
-      </c>
-      <c r="AS94">
-        <v>1.2</v>
-      </c>
-      <c r="AT94">
-        <v>2.82</v>
-      </c>
-      <c r="AU94">
-        <v>13</v>
-      </c>
-      <c r="AV94">
-        <v>4</v>
-      </c>
       <c r="AW94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX94">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY94">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ94">
+        <v>14</v>
+      </c>
+      <c r="BA94">
+        <v>3</v>
+      </c>
+      <c r="BB94">
         <v>9</v>
       </c>
-      <c r="BA94">
-        <v>5</v>
-      </c>
-      <c r="BB94">
-        <v>3</v>
-      </c>
       <c r="BC94">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD94">
-        <v>1.59</v>
+        <v>2.66</v>
       </c>
       <c r="BE94">
         <v>8.5</v>
       </c>
       <c r="BF94">
-        <v>2.78</v>
+        <v>1.64</v>
       </c>
       <c r="BG94">
         <v>1.17</v>
@@ -20410,7 +20410,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7292528</v>
+        <v>7292529</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20425,160 +20425,160 @@
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H95" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O95" t="s">
         <v>159</v>
       </c>
       <c r="P95" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="Q95">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="R95">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="S95">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="T95">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="U95">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="V95">
-        <v>2.78</v>
+        <v>2.38</v>
       </c>
       <c r="W95">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="X95">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="Y95">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z95">
-        <v>2.97</v>
+        <v>1.78</v>
       </c>
       <c r="AA95">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="AB95">
-        <v>2.09</v>
+        <v>3.4</v>
       </c>
       <c r="AC95">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD95">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AE95">
+        <v>1.16</v>
+      </c>
+      <c r="AF95">
+        <v>4.3</v>
+      </c>
+      <c r="AG95">
+        <v>1.56</v>
+      </c>
+      <c r="AH95">
+        <v>2.27</v>
+      </c>
+      <c r="AI95">
+        <v>1.57</v>
+      </c>
+      <c r="AJ95">
+        <v>2.25</v>
+      </c>
+      <c r="AK95">
         <v>1.27</v>
       </c>
-      <c r="AF95">
-        <v>3.28</v>
-      </c>
-      <c r="AG95">
-        <v>1.9</v>
-      </c>
-      <c r="AH95">
-        <v>1.8</v>
-      </c>
-      <c r="AI95">
-        <v>1.75</v>
-      </c>
-      <c r="AJ95">
-        <v>2.05</v>
-      </c>
-      <c r="AK95">
-        <v>1.7</v>
-      </c>
       <c r="AL95">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AM95">
-        <v>1.35</v>
+        <v>1.93</v>
       </c>
       <c r="AN95">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AO95">
+        <v>0.83</v>
+      </c>
+      <c r="AP95">
+        <v>1.33</v>
+      </c>
+      <c r="AQ95">
+        <v>0.71</v>
+      </c>
+      <c r="AR95">
+        <v>1.62</v>
+      </c>
+      <c r="AS95">
         <v>1.2</v>
       </c>
-      <c r="AP95">
-        <v>2</v>
-      </c>
-      <c r="AQ95">
-        <v>1</v>
-      </c>
-      <c r="AR95">
-        <v>0.93</v>
-      </c>
-      <c r="AS95">
-        <v>1.41</v>
-      </c>
       <c r="AT95">
-        <v>2.34</v>
+        <v>2.82</v>
       </c>
       <c r="AU95">
+        <v>13</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>5</v>
+      </c>
+      <c r="AY95">
+        <v>16</v>
+      </c>
+      <c r="AZ95">
+        <v>9</v>
+      </c>
+      <c r="BA95">
+        <v>5</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
         <v>8</v>
       </c>
-      <c r="AV95">
-        <v>6</v>
-      </c>
-      <c r="AW95">
-        <v>2</v>
-      </c>
-      <c r="AX95">
-        <v>8</v>
-      </c>
-      <c r="AY95">
-        <v>10</v>
-      </c>
-      <c r="AZ95">
-        <v>14</v>
-      </c>
-      <c r="BA95">
-        <v>3</v>
-      </c>
-      <c r="BB95">
-        <v>9</v>
-      </c>
-      <c r="BC95">
-        <v>12</v>
-      </c>
       <c r="BD95">
-        <v>2.66</v>
+        <v>1.59</v>
       </c>
       <c r="BE95">
         <v>8.5</v>
       </c>
       <c r="BF95">
-        <v>1.64</v>
+        <v>2.78</v>
       </c>
       <c r="BG95">
         <v>1.17</v>
@@ -20616,7 +20616,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7292530</v>
+        <v>7292525</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20631,28 +20631,28 @@
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H96" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O96" t="s">
         <v>88</v>
@@ -20661,130 +20661,130 @@
         <v>216</v>
       </c>
       <c r="Q96">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="R96">
+        <v>2.3</v>
+      </c>
+      <c r="S96">
+        <v>4.33</v>
+      </c>
+      <c r="T96">
+        <v>1.36</v>
+      </c>
+      <c r="U96">
+        <v>3.25</v>
+      </c>
+      <c r="V96">
+        <v>2.7</v>
+      </c>
+      <c r="W96">
+        <v>1.47</v>
+      </c>
+      <c r="X96">
+        <v>6.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.1</v>
+      </c>
+      <c r="Z96">
+        <v>1.84</v>
+      </c>
+      <c r="AA96">
+        <v>3.36</v>
+      </c>
+      <c r="AB96">
+        <v>3.85</v>
+      </c>
+      <c r="AC96">
+        <v>1.03</v>
+      </c>
+      <c r="AD96">
+        <v>13</v>
+      </c>
+      <c r="AE96">
+        <v>1.26</v>
+      </c>
+      <c r="AF96">
+        <v>4</v>
+      </c>
+      <c r="AG96">
+        <v>1.88</v>
+      </c>
+      <c r="AH96">
+        <v>2</v>
+      </c>
+      <c r="AI96">
+        <v>1.72</v>
+      </c>
+      <c r="AJ96">
         <v>2.1</v>
       </c>
-      <c r="S96">
-        <v>3.1</v>
-      </c>
-      <c r="T96">
-        <v>1.33</v>
-      </c>
-      <c r="U96">
-        <v>3</v>
-      </c>
-      <c r="V96">
-        <v>2.6</v>
-      </c>
-      <c r="W96">
-        <v>1.42</v>
-      </c>
-      <c r="X96">
-        <v>5.8</v>
-      </c>
-      <c r="Y96">
-        <v>1.09</v>
-      </c>
-      <c r="Z96">
-        <v>2.41</v>
-      </c>
-      <c r="AA96">
-        <v>3.21</v>
-      </c>
-      <c r="AB96">
-        <v>2.67</v>
-      </c>
-      <c r="AC96">
-        <v>1.02</v>
-      </c>
-      <c r="AD96">
-        <v>9.5</v>
-      </c>
-      <c r="AE96">
+      <c r="AK96">
+        <v>1.24</v>
+      </c>
+      <c r="AL96">
         <v>1.22</v>
       </c>
-      <c r="AF96">
-        <v>3.7</v>
-      </c>
-      <c r="AG96">
-        <v>1.91</v>
-      </c>
-      <c r="AH96">
-        <v>1.97</v>
-      </c>
-      <c r="AI96">
-        <v>1.57</v>
-      </c>
-      <c r="AJ96">
-        <v>2.25</v>
-      </c>
-      <c r="AK96">
-        <v>1.35</v>
-      </c>
-      <c r="AL96">
-        <v>1.32</v>
-      </c>
       <c r="AM96">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AN96">
-        <v>0.8</v>
+        <v>2.17</v>
       </c>
       <c r="AO96">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>0.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ96">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR96">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AS96">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="AT96">
-        <v>2.95</v>
+        <v>3.02</v>
       </c>
       <c r="AU96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV96">
+        <v>7</v>
+      </c>
+      <c r="AW96">
+        <v>4</v>
+      </c>
+      <c r="AX96">
+        <v>2</v>
+      </c>
+      <c r="AY96">
         <v>8</v>
       </c>
-      <c r="AW96">
-        <v>5</v>
-      </c>
-      <c r="AX96">
-        <v>3</v>
-      </c>
-      <c r="AY96">
-        <v>10</v>
-      </c>
       <c r="AZ96">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC96">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD96">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="BE96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF96">
-        <v>1.85</v>
+        <v>3.28</v>
       </c>
       <c r="BG96">
         <v>1.17</v>
@@ -20822,7 +20822,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7292525</v>
+        <v>7292530</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20837,28 +20837,28 @@
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H97" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O97" t="s">
         <v>88</v>
@@ -20867,130 +20867,130 @@
         <v>217</v>
       </c>
       <c r="Q97">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="R97">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S97">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="T97">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U97">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V97">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="W97">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="X97">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y97">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Z97">
-        <v>1.84</v>
+        <v>2.41</v>
       </c>
       <c r="AA97">
-        <v>3.36</v>
+        <v>3.21</v>
       </c>
       <c r="AB97">
-        <v>3.85</v>
+        <v>2.67</v>
       </c>
       <c r="AC97">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD97">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AE97">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AF97">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AG97">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="AH97">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="AI97">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AJ97">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK97">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AL97">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AM97">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AN97">
-        <v>2.17</v>
+        <v>0.8</v>
       </c>
       <c r="AO97">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>1.86</v>
+        <v>0.67</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR97">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AS97">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="AT97">
-        <v>3.02</v>
+        <v>2.95</v>
       </c>
       <c r="AU97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV97">
+        <v>8</v>
+      </c>
+      <c r="AW97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>10</v>
+      </c>
+      <c r="AZ97">
+        <v>11</v>
+      </c>
+      <c r="BA97">
         <v>7</v>
       </c>
-      <c r="AW97">
-        <v>4</v>
-      </c>
-      <c r="AX97">
-        <v>2</v>
-      </c>
-      <c r="AY97">
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>10</v>
+      </c>
+      <c r="BD97">
+        <v>2.28</v>
+      </c>
+      <c r="BE97">
         <v>8</v>
       </c>
-      <c r="AZ97">
-        <v>9</v>
-      </c>
-      <c r="BA97">
-        <v>6</v>
-      </c>
-      <c r="BB97">
-        <v>2</v>
-      </c>
-      <c r="BC97">
-        <v>8</v>
-      </c>
-      <c r="BD97">
-        <v>1.45</v>
-      </c>
-      <c r="BE97">
-        <v>9</v>
-      </c>
       <c r="BF97">
-        <v>3.28</v>
+        <v>1.85</v>
       </c>
       <c r="BG97">
         <v>1.17</v>
@@ -21028,7 +21028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7292531</v>
+        <v>7292527</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21043,190 +21043,190 @@
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O98" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="P98" t="s">
         <v>218</v>
       </c>
       <c r="Q98">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="R98">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T98">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="U98">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V98">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="W98">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="X98">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y98">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="Z98">
-        <v>3.1</v>
+        <v>2.04</v>
       </c>
       <c r="AA98">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="AB98">
-        <v>2.32</v>
+        <v>3.35</v>
       </c>
       <c r="AC98">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD98">
-        <v>10</v>
+        <v>16.75</v>
       </c>
       <c r="AE98">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AF98">
-        <v>3.3</v>
+        <v>4.82</v>
       </c>
       <c r="AG98">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AH98">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AI98">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="AJ98">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="AK98">
-        <v>1.66</v>
+        <v>1.32</v>
       </c>
       <c r="AL98">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM98">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AN98">
-        <v>0.2</v>
+        <v>1.67</v>
       </c>
       <c r="AO98">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AP98">
-        <v>0.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR98">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
       <c r="AS98">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AT98">
-        <v>2.42</v>
+        <v>3.17</v>
       </c>
       <c r="AU98">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV98">
         <v>5</v>
       </c>
       <c r="AW98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY98">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ98">
+        <v>10</v>
+      </c>
+      <c r="BA98">
         <v>9</v>
       </c>
-      <c r="BA98">
-        <v>6</v>
-      </c>
       <c r="BB98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD98">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BE98">
         <v>8.5</v>
       </c>
       <c r="BF98">
-        <v>1.91</v>
+        <v>2.41</v>
       </c>
       <c r="BG98">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="BH98">
-        <v>4.95</v>
+        <v>5.35</v>
       </c>
       <c r="BI98">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BJ98">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="BK98">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="BL98">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="BM98">
+        <v>1.88</v>
+      </c>
+      <c r="BN98">
         <v>1.92</v>
       </c>
-      <c r="BN98">
-        <v>1.88</v>
-      </c>
       <c r="BO98">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="BP98">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21234,7 +21234,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7292527</v>
+        <v>7292531</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21249,190 +21249,190 @@
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H99" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O99" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="P99" t="s">
         <v>219</v>
       </c>
       <c r="Q99">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R99">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S99">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="T99">
+        <v>1.44</v>
+      </c>
+      <c r="U99">
+        <v>2.63</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>1.36</v>
+      </c>
+      <c r="X99">
+        <v>9</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>3.1</v>
+      </c>
+      <c r="AA99">
+        <v>3.5</v>
+      </c>
+      <c r="AB99">
+        <v>2.32</v>
+      </c>
+      <c r="AC99">
+        <v>1.06</v>
+      </c>
+      <c r="AD99">
+        <v>10</v>
+      </c>
+      <c r="AE99">
+        <v>1.33</v>
+      </c>
+      <c r="AF99">
+        <v>3.3</v>
+      </c>
+      <c r="AG99">
+        <v>2</v>
+      </c>
+      <c r="AH99">
+        <v>1.8</v>
+      </c>
+      <c r="AI99">
+        <v>1.8</v>
+      </c>
+      <c r="AJ99">
+        <v>1.95</v>
+      </c>
+      <c r="AK99">
+        <v>1.66</v>
+      </c>
+      <c r="AL99">
         <v>1.28</v>
       </c>
-      <c r="U99">
-        <v>3.4</v>
-      </c>
-      <c r="V99">
-        <v>2.3</v>
-      </c>
-      <c r="W99">
-        <v>1.55</v>
-      </c>
-      <c r="X99">
-        <v>5</v>
-      </c>
-      <c r="Y99">
-        <v>1.14</v>
-      </c>
-      <c r="Z99">
-        <v>2.04</v>
-      </c>
-      <c r="AA99">
-        <v>3.95</v>
-      </c>
-      <c r="AB99">
-        <v>3.35</v>
-      </c>
-      <c r="AC99">
-        <v>1.03</v>
-      </c>
-      <c r="AD99">
-        <v>16.75</v>
-      </c>
-      <c r="AE99">
-        <v>1.19</v>
-      </c>
-      <c r="AF99">
-        <v>4.82</v>
-      </c>
-      <c r="AG99">
-        <v>1.58</v>
-      </c>
-      <c r="AH99">
-        <v>2.4</v>
-      </c>
-      <c r="AI99">
-        <v>1.52</v>
-      </c>
-      <c r="AJ99">
-        <v>2.45</v>
-      </c>
-      <c r="AK99">
-        <v>1.32</v>
-      </c>
-      <c r="AL99">
-        <v>1.3</v>
-      </c>
       <c r="AM99">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AN99">
-        <v>1.67</v>
+        <v>0.2</v>
       </c>
       <c r="AO99">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.86</v>
+        <v>0.17</v>
       </c>
       <c r="AQ99">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
-        <v>1.85</v>
+        <v>1.17</v>
       </c>
       <c r="AS99">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AT99">
-        <v>3.17</v>
+        <v>2.42</v>
       </c>
       <c r="AU99">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV99">
         <v>5</v>
       </c>
       <c r="AW99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY99">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA99">
+        <v>6</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
         <v>9</v>
       </c>
-      <c r="BB99">
-        <v>1</v>
-      </c>
-      <c r="BC99">
-        <v>10</v>
-      </c>
       <c r="BD99">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="BE99">
         <v>8.5</v>
       </c>
       <c r="BF99">
-        <v>2.41</v>
+        <v>1.91</v>
       </c>
       <c r="BG99">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="BH99">
-        <v>5.35</v>
+        <v>4.95</v>
       </c>
       <c r="BI99">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BJ99">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="BK99">
+        <v>1.53</v>
+      </c>
+      <c r="BL99">
+        <v>2.4</v>
+      </c>
+      <c r="BM99">
+        <v>1.92</v>
+      </c>
+      <c r="BN99">
+        <v>1.88</v>
+      </c>
+      <c r="BO99">
+        <v>2.48</v>
+      </c>
+      <c r="BP99">
         <v>1.5</v>
-      </c>
-      <c r="BL99">
-        <v>2.48</v>
-      </c>
-      <c r="BM99">
-        <v>1.88</v>
-      </c>
-      <c r="BN99">
-        <v>1.92</v>
-      </c>
-      <c r="BO99">
-        <v>2.38</v>
-      </c>
-      <c r="BP99">
-        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,18 @@
     <t>['21', '42', '50', '53']</t>
   </si>
   <si>
+    <t>['30', '82', '87']</t>
+  </si>
+  <si>
+    <t>['63', '68', '90+7']</t>
+  </si>
+  <si>
+    <t>['53', '57']</t>
+  </si>
+  <si>
+    <t>['22', '37', '74', '85', '90+3']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -674,6 +686,15 @@
   </si>
   <si>
     <t>['1', '64']</t>
+  </si>
+  <si>
+    <t>['51', '84']</t>
+  </si>
+  <si>
+    <t>['34', '75']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1315,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1500,7 +1521,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1581,7 +1602,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1706,7 +1727,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1784,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2118,7 +2139,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2405,7 +2426,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2608,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -2736,7 +2757,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2814,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
         <v>2.17</v>
@@ -2942,7 +2963,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3226,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ11">
         <v>0.71</v>
@@ -3641,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3972,7 +3993,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4053,7 +4074,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ15">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4178,7 +4199,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4256,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4384,7 +4405,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4590,7 +4611,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4668,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ18">
         <v>0.33</v>
@@ -4796,7 +4817,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4877,7 +4898,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR19">
         <v>1.04</v>
@@ -5208,7 +5229,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5289,7 +5310,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5495,7 +5516,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5620,7 +5641,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5698,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5826,7 +5847,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -5907,7 +5928,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6238,7 +6259,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6856,7 +6877,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6934,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7140,7 +7161,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ30">
         <v>2.4</v>
@@ -7474,7 +7495,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7555,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>0.76</v>
@@ -7680,7 +7701,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7758,10 +7779,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -7886,7 +7907,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -7967,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8092,7 +8113,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8376,7 +8397,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ36">
         <v>2.17</v>
@@ -8504,7 +8525,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8710,7 +8731,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8916,7 +8937,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9122,7 +9143,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9328,7 +9349,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9534,7 +9555,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9612,10 +9633,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
         <v>0.88</v>
@@ -10152,7 +10173,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10358,7 +10379,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10439,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.52</v>
@@ -10642,10 +10663,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.73</v>
@@ -10770,7 +10791,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -10848,10 +10869,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR48">
         <v>1.87</v>
@@ -11182,7 +11203,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11263,7 +11284,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR50">
         <v>1.18</v>
@@ -11388,7 +11409,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11466,10 +11487,10 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11594,7 +11615,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11800,7 +11821,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11878,7 +11899,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ53">
         <v>2</v>
@@ -12006,7 +12027,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12212,7 +12233,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12290,7 +12311,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ55">
         <v>0.71</v>
@@ -12418,7 +12439,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12624,7 +12645,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12702,10 +12723,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ57">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -12830,7 +12851,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12908,10 +12929,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13036,7 +13057,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13320,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ60">
         <v>0.67</v>
@@ -13448,7 +13469,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13529,7 +13550,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR61">
         <v>1.81</v>
@@ -13654,7 +13675,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14066,7 +14087,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14144,10 +14165,10 @@
         <v>1.75</v>
       </c>
       <c r="AP64">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>0.97</v>
@@ -14272,7 +14293,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14556,7 +14577,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ66">
         <v>0.33</v>
@@ -14968,7 +14989,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15096,7 +15117,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15508,7 +15529,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15589,7 +15610,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.6</v>
@@ -15714,7 +15735,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15920,7 +15941,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16126,7 +16147,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16332,7 +16353,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16616,7 +16637,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ76">
         <v>0.43</v>
@@ -16744,7 +16765,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -16822,10 +16843,10 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
         <v>1.03</v>
@@ -17237,7 +17258,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17362,7 +17383,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17855,7 +17876,7 @@
         <v>3</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR82">
         <v>2.18</v>
@@ -18058,10 +18079,10 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18264,7 +18285,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ84">
         <v>1.17</v>
@@ -18392,7 +18413,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18470,7 +18491,7 @@
         <v>2.25</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ85">
         <v>2.4</v>
@@ -18679,7 +18700,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ86">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18804,7 +18825,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -18885,7 +18906,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR87">
         <v>1.67</v>
@@ -19010,7 +19031,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19216,7 +19237,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19294,10 +19315,10 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19422,7 +19443,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19706,7 +19727,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ91">
         <v>1.17</v>
@@ -20040,7 +20061,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20658,7 +20679,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20864,7 +20885,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21070,7 +21091,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21276,7 +21297,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21354,7 +21375,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ99">
         <v>1.5</v>
@@ -21433,6 +21454,1242 @@
       </c>
       <c r="BP99">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7292536</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45479.41666666666</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s">
+        <v>78</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>161</v>
+      </c>
+      <c r="P100" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q100">
+        <v>2.3</v>
+      </c>
+      <c r="R100">
+        <v>2.4</v>
+      </c>
+      <c r="S100">
+        <v>4.33</v>
+      </c>
+      <c r="T100">
+        <v>1.29</v>
+      </c>
+      <c r="U100">
+        <v>3.5</v>
+      </c>
+      <c r="V100">
+        <v>2.38</v>
+      </c>
+      <c r="W100">
+        <v>1.53</v>
+      </c>
+      <c r="X100">
+        <v>5.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.14</v>
+      </c>
+      <c r="Z100">
+        <v>1.75</v>
+      </c>
+      <c r="AA100">
+        <v>3.9</v>
+      </c>
+      <c r="AB100">
+        <v>3.9</v>
+      </c>
+      <c r="AC100">
+        <v>1.02</v>
+      </c>
+      <c r="AD100">
+        <v>17</v>
+      </c>
+      <c r="AE100">
+        <v>1.15</v>
+      </c>
+      <c r="AF100">
+        <v>4.5</v>
+      </c>
+      <c r="AG100">
+        <v>1.57</v>
+      </c>
+      <c r="AH100">
+        <v>2.25</v>
+      </c>
+      <c r="AI100">
+        <v>1.57</v>
+      </c>
+      <c r="AJ100">
+        <v>2.25</v>
+      </c>
+      <c r="AK100">
+        <v>1.25</v>
+      </c>
+      <c r="AL100">
+        <v>1.2</v>
+      </c>
+      <c r="AM100">
+        <v>2.05</v>
+      </c>
+      <c r="AN100">
+        <v>2.17</v>
+      </c>
+      <c r="AO100">
+        <v>1.5</v>
+      </c>
+      <c r="AP100">
+        <v>2.29</v>
+      </c>
+      <c r="AQ100">
+        <v>1.29</v>
+      </c>
+      <c r="AR100">
+        <v>1.64</v>
+      </c>
+      <c r="AS100">
+        <v>1.73</v>
+      </c>
+      <c r="AT100">
+        <v>3.37</v>
+      </c>
+      <c r="AU100">
+        <v>10</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>10</v>
+      </c>
+      <c r="AX100">
+        <v>6</v>
+      </c>
+      <c r="AY100">
+        <v>20</v>
+      </c>
+      <c r="AZ100">
+        <v>9</v>
+      </c>
+      <c r="BA100">
+        <v>9</v>
+      </c>
+      <c r="BB100">
+        <v>6</v>
+      </c>
+      <c r="BC100">
+        <v>15</v>
+      </c>
+      <c r="BD100">
+        <v>1.53</v>
+      </c>
+      <c r="BE100">
+        <v>6.75</v>
+      </c>
+      <c r="BF100">
+        <v>2.55</v>
+      </c>
+      <c r="BG100">
+        <v>1.24</v>
+      </c>
+      <c r="BH100">
+        <v>3.55</v>
+      </c>
+      <c r="BI100">
+        <v>1.43</v>
+      </c>
+      <c r="BJ100">
+        <v>2.55</v>
+      </c>
+      <c r="BK100">
+        <v>1.7</v>
+      </c>
+      <c r="BL100">
+        <v>2.02</v>
+      </c>
+      <c r="BM100">
+        <v>2.07</v>
+      </c>
+      <c r="BN100">
+        <v>1.67</v>
+      </c>
+      <c r="BO100">
+        <v>2.63</v>
+      </c>
+      <c r="BP100">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7292538</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45479.41666666666</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>162</v>
+      </c>
+      <c r="P101" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q101">
+        <v>2.75</v>
+      </c>
+      <c r="R101">
+        <v>2.2</v>
+      </c>
+      <c r="S101">
+        <v>3.75</v>
+      </c>
+      <c r="T101">
+        <v>1.4</v>
+      </c>
+      <c r="U101">
+        <v>2.75</v>
+      </c>
+      <c r="V101">
+        <v>2.75</v>
+      </c>
+      <c r="W101">
+        <v>1.4</v>
+      </c>
+      <c r="X101">
+        <v>8</v>
+      </c>
+      <c r="Y101">
+        <v>1.08</v>
+      </c>
+      <c r="Z101">
+        <v>2.1</v>
+      </c>
+      <c r="AA101">
+        <v>3.3</v>
+      </c>
+      <c r="AB101">
+        <v>3.3</v>
+      </c>
+      <c r="AC101">
+        <v>1.02</v>
+      </c>
+      <c r="AD101">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE101">
+        <v>1.26</v>
+      </c>
+      <c r="AF101">
+        <v>3.34</v>
+      </c>
+      <c r="AG101">
+        <v>1.9</v>
+      </c>
+      <c r="AH101">
+        <v>1.94</v>
+      </c>
+      <c r="AI101">
+        <v>1.75</v>
+      </c>
+      <c r="AJ101">
+        <v>2</v>
+      </c>
+      <c r="AK101">
+        <v>1.35</v>
+      </c>
+      <c r="AL101">
+        <v>1.26</v>
+      </c>
+      <c r="AM101">
+        <v>1.72</v>
+      </c>
+      <c r="AN101">
+        <v>2</v>
+      </c>
+      <c r="AO101">
+        <v>1.17</v>
+      </c>
+      <c r="AP101">
+        <v>2.13</v>
+      </c>
+      <c r="AQ101">
+        <v>1</v>
+      </c>
+      <c r="AR101">
+        <v>1.4</v>
+      </c>
+      <c r="AS101">
+        <v>1.28</v>
+      </c>
+      <c r="AT101">
+        <v>2.68</v>
+      </c>
+      <c r="AU101">
+        <v>4</v>
+      </c>
+      <c r="AV101">
+        <v>3</v>
+      </c>
+      <c r="AW101">
+        <v>6</v>
+      </c>
+      <c r="AX101">
+        <v>2</v>
+      </c>
+      <c r="AY101">
+        <v>10</v>
+      </c>
+      <c r="AZ101">
+        <v>5</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>3</v>
+      </c>
+      <c r="BC101">
+        <v>7</v>
+      </c>
+      <c r="BD101">
+        <v>1.68</v>
+      </c>
+      <c r="BE101">
+        <v>6.4</v>
+      </c>
+      <c r="BF101">
+        <v>2.3</v>
+      </c>
+      <c r="BG101">
+        <v>1.26</v>
+      </c>
+      <c r="BH101">
+        <v>3.4</v>
+      </c>
+      <c r="BI101">
+        <v>1.46</v>
+      </c>
+      <c r="BJ101">
+        <v>2.5</v>
+      </c>
+      <c r="BK101">
+        <v>1.74</v>
+      </c>
+      <c r="BL101">
+        <v>1.98</v>
+      </c>
+      <c r="BM101">
+        <v>2.15</v>
+      </c>
+      <c r="BN101">
+        <v>1.61</v>
+      </c>
+      <c r="BO101">
+        <v>2.7</v>
+      </c>
+      <c r="BP101">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7292539</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45480.375</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>84</v>
+      </c>
+      <c r="H102" t="s">
+        <v>74</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>163</v>
+      </c>
+      <c r="P102" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q102">
+        <v>3.4</v>
+      </c>
+      <c r="R102">
+        <v>2.2</v>
+      </c>
+      <c r="S102">
+        <v>3.1</v>
+      </c>
+      <c r="T102">
+        <v>1.36</v>
+      </c>
+      <c r="U102">
+        <v>3</v>
+      </c>
+      <c r="V102">
+        <v>2.75</v>
+      </c>
+      <c r="W102">
+        <v>1.4</v>
+      </c>
+      <c r="X102">
+        <v>7</v>
+      </c>
+      <c r="Y102">
+        <v>1.1</v>
+      </c>
+      <c r="Z102">
+        <v>2.75</v>
+      </c>
+      <c r="AA102">
+        <v>3.5</v>
+      </c>
+      <c r="AB102">
+        <v>2.35</v>
+      </c>
+      <c r="AC102">
+        <v>1.05</v>
+      </c>
+      <c r="AD102">
+        <v>12</v>
+      </c>
+      <c r="AE102">
+        <v>1.3</v>
+      </c>
+      <c r="AF102">
+        <v>3.6</v>
+      </c>
+      <c r="AG102">
+        <v>2</v>
+      </c>
+      <c r="AH102">
+        <v>1.81</v>
+      </c>
+      <c r="AI102">
+        <v>1.67</v>
+      </c>
+      <c r="AJ102">
+        <v>2.1</v>
+      </c>
+      <c r="AK102">
+        <v>1.58</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>1.45</v>
+      </c>
+      <c r="AN102">
+        <v>0.17</v>
+      </c>
+      <c r="AO102">
+        <v>1.17</v>
+      </c>
+      <c r="AP102">
+        <v>0.57</v>
+      </c>
+      <c r="AQ102">
+        <v>1</v>
+      </c>
+      <c r="AR102">
+        <v>1.24</v>
+      </c>
+      <c r="AS102">
+        <v>1.76</v>
+      </c>
+      <c r="AT102">
+        <v>3</v>
+      </c>
+      <c r="AU102">
+        <v>2</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>5</v>
+      </c>
+      <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>7</v>
+      </c>
+      <c r="AZ102">
+        <v>8</v>
+      </c>
+      <c r="BA102">
+        <v>2</v>
+      </c>
+      <c r="BB102">
+        <v>5</v>
+      </c>
+      <c r="BC102">
+        <v>7</v>
+      </c>
+      <c r="BD102">
+        <v>1.98</v>
+      </c>
+      <c r="BE102">
+        <v>6.75</v>
+      </c>
+      <c r="BF102">
+        <v>1.88</v>
+      </c>
+      <c r="BG102">
+        <v>1.21</v>
+      </c>
+      <c r="BH102">
+        <v>3.8</v>
+      </c>
+      <c r="BI102">
+        <v>1.38</v>
+      </c>
+      <c r="BJ102">
+        <v>2.75</v>
+      </c>
+      <c r="BK102">
+        <v>1.63</v>
+      </c>
+      <c r="BL102">
+        <v>2.12</v>
+      </c>
+      <c r="BM102">
+        <v>1.98</v>
+      </c>
+      <c r="BN102">
+        <v>1.73</v>
+      </c>
+      <c r="BO102">
+        <v>2.48</v>
+      </c>
+      <c r="BP102">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7292533</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45480.375</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>83</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>119</v>
+      </c>
+      <c r="P103" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q103">
+        <v>2</v>
+      </c>
+      <c r="R103">
+        <v>2.5</v>
+      </c>
+      <c r="S103">
+        <v>5.5</v>
+      </c>
+      <c r="T103">
+        <v>1.29</v>
+      </c>
+      <c r="U103">
+        <v>3.5</v>
+      </c>
+      <c r="V103">
+        <v>2.38</v>
+      </c>
+      <c r="W103">
+        <v>1.53</v>
+      </c>
+      <c r="X103">
+        <v>5.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.14</v>
+      </c>
+      <c r="Z103">
+        <v>1.53</v>
+      </c>
+      <c r="AA103">
+        <v>4.33</v>
+      </c>
+      <c r="AB103">
+        <v>5.5</v>
+      </c>
+      <c r="AC103">
+        <v>1.02</v>
+      </c>
+      <c r="AD103">
+        <v>17</v>
+      </c>
+      <c r="AE103">
+        <v>1.2</v>
+      </c>
+      <c r="AF103">
+        <v>4.5</v>
+      </c>
+      <c r="AG103">
+        <v>1.81</v>
+      </c>
+      <c r="AH103">
+        <v>2</v>
+      </c>
+      <c r="AI103">
+        <v>1.75</v>
+      </c>
+      <c r="AJ103">
+        <v>2</v>
+      </c>
+      <c r="AK103">
+        <v>1.12</v>
+      </c>
+      <c r="AL103">
+        <v>1.17</v>
+      </c>
+      <c r="AM103">
+        <v>2.65</v>
+      </c>
+      <c r="AN103">
+        <v>2.5</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>2.14</v>
+      </c>
+      <c r="AQ103">
+        <v>1.29</v>
+      </c>
+      <c r="AR103">
+        <v>1.81</v>
+      </c>
+      <c r="AS103">
+        <v>1.14</v>
+      </c>
+      <c r="AT103">
+        <v>2.95</v>
+      </c>
+      <c r="AU103">
+        <v>-1</v>
+      </c>
+      <c r="AV103">
+        <v>-1</v>
+      </c>
+      <c r="AW103">
+        <v>-1</v>
+      </c>
+      <c r="AX103">
+        <v>-1</v>
+      </c>
+      <c r="AY103">
+        <v>-1</v>
+      </c>
+      <c r="AZ103">
+        <v>-1</v>
+      </c>
+      <c r="BA103">
+        <v>-1</v>
+      </c>
+      <c r="BB103">
+        <v>-1</v>
+      </c>
+      <c r="BC103">
+        <v>-1</v>
+      </c>
+      <c r="BD103">
+        <v>1.34</v>
+      </c>
+      <c r="BE103">
+        <v>7</v>
+      </c>
+      <c r="BF103">
+        <v>3.3</v>
+      </c>
+      <c r="BG103">
+        <v>1.26</v>
+      </c>
+      <c r="BH103">
+        <v>3.4</v>
+      </c>
+      <c r="BI103">
+        <v>1.46</v>
+      </c>
+      <c r="BJ103">
+        <v>2.5</v>
+      </c>
+      <c r="BK103">
+        <v>1.74</v>
+      </c>
+      <c r="BL103">
+        <v>1.97</v>
+      </c>
+      <c r="BM103">
+        <v>2.15</v>
+      </c>
+      <c r="BN103">
+        <v>1.63</v>
+      </c>
+      <c r="BO103">
+        <v>2.65</v>
+      </c>
+      <c r="BP103">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7292534</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45480.47916666666</v>
+      </c>
+      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>80</v>
+      </c>
+      <c r="H104" t="s">
+        <v>81</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>6</v>
+      </c>
+      <c r="O104" t="s">
+        <v>164</v>
+      </c>
+      <c r="P104" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q104">
+        <v>1.5</v>
+      </c>
+      <c r="R104">
+        <v>3.1</v>
+      </c>
+      <c r="S104">
+        <v>10</v>
+      </c>
+      <c r="T104">
+        <v>1.2</v>
+      </c>
+      <c r="U104">
+        <v>4.33</v>
+      </c>
+      <c r="V104">
+        <v>1.91</v>
+      </c>
+      <c r="W104">
+        <v>1.8</v>
+      </c>
+      <c r="X104">
+        <v>4</v>
+      </c>
+      <c r="Y104">
+        <v>1.22</v>
+      </c>
+      <c r="Z104">
+        <v>1.17</v>
+      </c>
+      <c r="AA104">
+        <v>6.5</v>
+      </c>
+      <c r="AB104">
+        <v>10.5</v>
+      </c>
+      <c r="AC104">
+        <v>1.01</v>
+      </c>
+      <c r="AD104">
+        <v>29</v>
+      </c>
+      <c r="AE104">
+        <v>1.07</v>
+      </c>
+      <c r="AF104">
+        <v>6.25</v>
+      </c>
+      <c r="AG104">
+        <v>1.44</v>
+      </c>
+      <c r="AH104">
+        <v>2.53</v>
+      </c>
+      <c r="AI104">
+        <v>2</v>
+      </c>
+      <c r="AJ104">
+        <v>1.75</v>
+      </c>
+      <c r="AK104">
+        <v>1.03</v>
+      </c>
+      <c r="AL104">
+        <v>1.05</v>
+      </c>
+      <c r="AM104">
+        <v>4.5</v>
+      </c>
+      <c r="AN104">
+        <v>3</v>
+      </c>
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
+        <v>3</v>
+      </c>
+      <c r="AQ104">
+        <v>0.86</v>
+      </c>
+      <c r="AR104">
+        <v>2.32</v>
+      </c>
+      <c r="AS104">
+        <v>0.97</v>
+      </c>
+      <c r="AT104">
+        <v>3.29</v>
+      </c>
+      <c r="AU104">
+        <v>8</v>
+      </c>
+      <c r="AV104">
+        <v>2</v>
+      </c>
+      <c r="AW104">
+        <v>4</v>
+      </c>
+      <c r="AX104">
+        <v>4</v>
+      </c>
+      <c r="AY104">
+        <v>12</v>
+      </c>
+      <c r="AZ104">
+        <v>6</v>
+      </c>
+      <c r="BA104">
+        <v>1</v>
+      </c>
+      <c r="BB104">
+        <v>6</v>
+      </c>
+      <c r="BC104">
+        <v>7</v>
+      </c>
+      <c r="BD104">
+        <v>1.14</v>
+      </c>
+      <c r="BE104">
+        <v>9</v>
+      </c>
+      <c r="BF104">
+        <v>5.4</v>
+      </c>
+      <c r="BG104">
+        <v>1.22</v>
+      </c>
+      <c r="BH104">
+        <v>3.8</v>
+      </c>
+      <c r="BI104">
+        <v>1.38</v>
+      </c>
+      <c r="BJ104">
+        <v>2.7</v>
+      </c>
+      <c r="BK104">
+        <v>1.63</v>
+      </c>
+      <c r="BL104">
+        <v>2.12</v>
+      </c>
+      <c r="BM104">
+        <v>1.97</v>
+      </c>
+      <c r="BN104">
+        <v>1.74</v>
+      </c>
+      <c r="BO104">
+        <v>2.43</v>
+      </c>
+      <c r="BP104">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7292537</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45480.47916666666</v>
+      </c>
+      <c r="F105">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>71</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>88</v>
+      </c>
+      <c r="P105" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>2.25</v>
+      </c>
+      <c r="S105">
+        <v>3.25</v>
+      </c>
+      <c r="T105">
+        <v>1.33</v>
+      </c>
+      <c r="U105">
+        <v>3.25</v>
+      </c>
+      <c r="V105">
+        <v>2.63</v>
+      </c>
+      <c r="W105">
+        <v>1.44</v>
+      </c>
+      <c r="X105">
+        <v>6.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.11</v>
+      </c>
+      <c r="Z105">
+        <v>2.41</v>
+      </c>
+      <c r="AA105">
+        <v>3.28</v>
+      </c>
+      <c r="AB105">
+        <v>2.62</v>
+      </c>
+      <c r="AC105">
+        <v>1.04</v>
+      </c>
+      <c r="AD105">
+        <v>13</v>
+      </c>
+      <c r="AE105">
+        <v>1.26</v>
+      </c>
+      <c r="AF105">
+        <v>4</v>
+      </c>
+      <c r="AG105">
+        <v>1.68</v>
+      </c>
+      <c r="AH105">
+        <v>2.05</v>
+      </c>
+      <c r="AI105">
+        <v>1.62</v>
+      </c>
+      <c r="AJ105">
+        <v>2.2</v>
+      </c>
+      <c r="AK105">
+        <v>1.47</v>
+      </c>
+      <c r="AL105">
+        <v>1.26</v>
+      </c>
+      <c r="AM105">
+        <v>1.58</v>
+      </c>
+      <c r="AN105">
+        <v>2.5</v>
+      </c>
+      <c r="AO105">
+        <v>1</v>
+      </c>
+      <c r="AP105">
+        <v>2.29</v>
+      </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
+      <c r="AR105">
+        <v>1.51</v>
+      </c>
+      <c r="AS105">
+        <v>1.33</v>
+      </c>
+      <c r="AT105">
+        <v>2.84</v>
+      </c>
+      <c r="AU105">
+        <v>4</v>
+      </c>
+      <c r="AV105">
+        <v>4</v>
+      </c>
+      <c r="AW105">
+        <v>9</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>13</v>
+      </c>
+      <c r="AZ105">
+        <v>9</v>
+      </c>
+      <c r="BA105">
+        <v>10</v>
+      </c>
+      <c r="BB105">
+        <v>8</v>
+      </c>
+      <c r="BC105">
+        <v>18</v>
+      </c>
+      <c r="BD105">
+        <v>1.84</v>
+      </c>
+      <c r="BE105">
+        <v>6.4</v>
+      </c>
+      <c r="BF105">
+        <v>2.02</v>
+      </c>
+      <c r="BG105">
+        <v>1.24</v>
+      </c>
+      <c r="BH105">
+        <v>3.55</v>
+      </c>
+      <c r="BI105">
+        <v>1.43</v>
+      </c>
+      <c r="BJ105">
+        <v>2.55</v>
+      </c>
+      <c r="BK105">
+        <v>1.7</v>
+      </c>
+      <c r="BL105">
+        <v>2</v>
+      </c>
+      <c r="BM105">
+        <v>2.08</v>
+      </c>
+      <c r="BN105">
+        <v>1.66</v>
+      </c>
+      <c r="BO105">
+        <v>2.63</v>
+      </c>
+      <c r="BP105">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['22', '37', '74', '85', '90+3']</t>
   </si>
   <si>
+    <t>['4']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -539,9 +542,6 @@
   </si>
   <si>
     <t>['60']</t>
-  </si>
-  <si>
-    <t>['4']</t>
   </si>
   <si>
     <t>['46']</t>
@@ -695,6 +695,12 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['13', '60', '68']</t>
+  </si>
+  <si>
+    <t>['32', '84']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1321,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1393,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1521,7 +1527,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1727,7 +1733,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2139,7 +2145,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2220,7 +2226,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2757,7 +2763,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2963,7 +2969,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3865,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ14">
         <v>0.43</v>
@@ -3993,7 +3999,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4199,7 +4205,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4405,7 +4411,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4486,7 +4492,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4611,7 +4617,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4817,7 +4823,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4895,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ19">
         <v>0.86</v>
@@ -5101,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -7164,7 +7170,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ30">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -8194,7 +8200,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ35">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8603,7 +8609,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>0.43</v>
@@ -9221,7 +9227,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -11696,7 +11702,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12105,10 +12111,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ54">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -13753,7 +13759,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14786,7 +14792,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -15195,7 +15201,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ69">
         <v>2.17</v>
@@ -16022,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -18288,7 +18294,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ84">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18494,7 +18500,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ85">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -18903,7 +18909,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ87">
         <v>1.29</v>
@@ -19109,7 +19115,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>2.17</v>
@@ -19730,7 +19736,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ91">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR91">
         <v>1.51</v>
@@ -22008,22 +22014,22 @@
         <v>3</v>
       </c>
       <c r="AU102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW102">
         <v>5</v>
       </c>
       <c r="AX102">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY102">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA102">
         <v>2</v>
@@ -22214,31 +22220,31 @@
         <v>2.95</v>
       </c>
       <c r="AU103">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV103">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW103">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX103">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY103">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ103">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA103">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB103">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC103">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD103">
         <v>1.34</v>
@@ -22690,6 +22696,418 @@
       </c>
       <c r="BP105">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7292535</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45481.58333333334</v>
+      </c>
+      <c r="F106">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>119</v>
+      </c>
+      <c r="P106" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q106">
+        <v>4.75</v>
+      </c>
+      <c r="R106">
+        <v>2.3</v>
+      </c>
+      <c r="S106">
+        <v>2.3</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3.25</v>
+      </c>
+      <c r="V106">
+        <v>2.5</v>
+      </c>
+      <c r="W106">
+        <v>1.5</v>
+      </c>
+      <c r="X106">
+        <v>6.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.11</v>
+      </c>
+      <c r="Z106">
+        <v>4.38</v>
+      </c>
+      <c r="AA106">
+        <v>3.67</v>
+      </c>
+      <c r="AB106">
+        <v>1.66</v>
+      </c>
+      <c r="AC106">
+        <v>1.03</v>
+      </c>
+      <c r="AD106">
+        <v>15</v>
+      </c>
+      <c r="AE106">
+        <v>1.22</v>
+      </c>
+      <c r="AF106">
+        <v>4.33</v>
+      </c>
+      <c r="AG106">
+        <v>1.67</v>
+      </c>
+      <c r="AH106">
+        <v>2.07</v>
+      </c>
+      <c r="AI106">
+        <v>1.7</v>
+      </c>
+      <c r="AJ106">
+        <v>2.05</v>
+      </c>
+      <c r="AK106">
+        <v>2.15</v>
+      </c>
+      <c r="AL106">
+        <v>1.2</v>
+      </c>
+      <c r="AM106">
+        <v>1.2</v>
+      </c>
+      <c r="AN106">
+        <v>1.2</v>
+      </c>
+      <c r="AO106">
+        <v>2.4</v>
+      </c>
+      <c r="AP106">
+        <v>1</v>
+      </c>
+      <c r="AQ106">
+        <v>2.5</v>
+      </c>
+      <c r="AR106">
+        <v>1.38</v>
+      </c>
+      <c r="AS106">
+        <v>1.7</v>
+      </c>
+      <c r="AT106">
+        <v>3.08</v>
+      </c>
+      <c r="AU106">
+        <v>2</v>
+      </c>
+      <c r="AV106">
+        <v>6</v>
+      </c>
+      <c r="AW106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>7</v>
+      </c>
+      <c r="AY106">
+        <v>7</v>
+      </c>
+      <c r="AZ106">
+        <v>13</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>7</v>
+      </c>
+      <c r="BC106">
+        <v>10</v>
+      </c>
+      <c r="BD106">
+        <v>2.7</v>
+      </c>
+      <c r="BE106">
+        <v>6.5</v>
+      </c>
+      <c r="BF106">
+        <v>1.49</v>
+      </c>
+      <c r="BG106">
+        <v>1.25</v>
+      </c>
+      <c r="BH106">
+        <v>3.45</v>
+      </c>
+      <c r="BI106">
+        <v>1.45</v>
+      </c>
+      <c r="BJ106">
+        <v>2.55</v>
+      </c>
+      <c r="BK106">
+        <v>1.74</v>
+      </c>
+      <c r="BL106">
+        <v>1.98</v>
+      </c>
+      <c r="BM106">
+        <v>2.15</v>
+      </c>
+      <c r="BN106">
+        <v>1.61</v>
+      </c>
+      <c r="BO106">
+        <v>2.7</v>
+      </c>
+      <c r="BP106">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7292540</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45481.58333333334</v>
+      </c>
+      <c r="F107">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" t="s">
+        <v>73</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>165</v>
+      </c>
+      <c r="P107" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q107">
+        <v>3.2</v>
+      </c>
+      <c r="R107">
+        <v>2.4</v>
+      </c>
+      <c r="S107">
+        <v>2.88</v>
+      </c>
+      <c r="T107">
+        <v>1.29</v>
+      </c>
+      <c r="U107">
+        <v>3.5</v>
+      </c>
+      <c r="V107">
+        <v>2.25</v>
+      </c>
+      <c r="W107">
+        <v>1.57</v>
+      </c>
+      <c r="X107">
+        <v>5.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.14</v>
+      </c>
+      <c r="Z107">
+        <v>2.61</v>
+      </c>
+      <c r="AA107">
+        <v>3.48</v>
+      </c>
+      <c r="AB107">
+        <v>2.32</v>
+      </c>
+      <c r="AC107">
+        <v>1.02</v>
+      </c>
+      <c r="AD107">
+        <v>19</v>
+      </c>
+      <c r="AE107">
+        <v>1.18</v>
+      </c>
+      <c r="AF107">
+        <v>5</v>
+      </c>
+      <c r="AG107">
+        <v>1.5</v>
+      </c>
+      <c r="AH107">
+        <v>2.48</v>
+      </c>
+      <c r="AI107">
+        <v>1.44</v>
+      </c>
+      <c r="AJ107">
+        <v>2.63</v>
+      </c>
+      <c r="AK107">
+        <v>1.57</v>
+      </c>
+      <c r="AL107">
+        <v>1.25</v>
+      </c>
+      <c r="AM107">
+        <v>1.44</v>
+      </c>
+      <c r="AN107">
+        <v>0.67</v>
+      </c>
+      <c r="AO107">
+        <v>1.17</v>
+      </c>
+      <c r="AP107">
+        <v>0.57</v>
+      </c>
+      <c r="AQ107">
+        <v>1.43</v>
+      </c>
+      <c r="AR107">
+        <v>1.69</v>
+      </c>
+      <c r="AS107">
+        <v>1.6</v>
+      </c>
+      <c r="AT107">
+        <v>3.29</v>
+      </c>
+      <c r="AU107">
+        <v>8</v>
+      </c>
+      <c r="AV107">
+        <v>5</v>
+      </c>
+      <c r="AW107">
+        <v>7</v>
+      </c>
+      <c r="AX107">
+        <v>5</v>
+      </c>
+      <c r="AY107">
+        <v>15</v>
+      </c>
+      <c r="AZ107">
+        <v>10</v>
+      </c>
+      <c r="BA107">
+        <v>5</v>
+      </c>
+      <c r="BB107">
+        <v>14</v>
+      </c>
+      <c r="BC107">
+        <v>19</v>
+      </c>
+      <c r="BD107">
+        <v>1.95</v>
+      </c>
+      <c r="BE107">
+        <v>6.75</v>
+      </c>
+      <c r="BF107">
+        <v>1.92</v>
+      </c>
+      <c r="BG107">
+        <v>1.14</v>
+      </c>
+      <c r="BH107">
+        <v>4.8</v>
+      </c>
+      <c r="BI107">
+        <v>1.26</v>
+      </c>
+      <c r="BJ107">
+        <v>3.4</v>
+      </c>
+      <c r="BK107">
+        <v>1.44</v>
+      </c>
+      <c r="BL107">
+        <v>2.55</v>
+      </c>
+      <c r="BM107">
+        <v>1.7</v>
+      </c>
+      <c r="BN107">
+        <v>2</v>
+      </c>
+      <c r="BO107">
+        <v>2.05</v>
+      </c>
+      <c r="BP107">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['32', '46']</t>
+  </si>
+  <si>
+    <t>['40', '55', '90+2']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -1062,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1327,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1402,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1527,7 +1533,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1733,7 +1739,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2145,7 +2151,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2429,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
         <v>0.86</v>
@@ -2763,7 +2769,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2969,7 +2975,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3253,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ11">
         <v>0.71</v>
@@ -3999,7 +4005,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4205,7 +4211,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4286,7 +4292,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4411,7 +4417,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4617,7 +4623,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4695,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ18">
         <v>0.33</v>
@@ -5110,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR20">
         <v>1.32</v>
@@ -5235,7 +5241,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5647,7 +5653,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5728,7 +5734,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>1.23</v>
@@ -5853,7 +5859,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6265,7 +6271,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6343,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26">
         <v>2.17</v>
@@ -6883,7 +6889,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7501,7 +7507,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7707,7 +7713,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7913,7 +7919,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8119,7 +8125,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8531,7 +8537,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8737,7 +8743,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8943,7 +8949,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9024,7 +9030,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9149,7 +9155,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9355,7 +9361,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9436,7 +9442,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1.74</v>
@@ -9561,7 +9567,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10054,7 +10060,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10179,7 +10185,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10385,7 +10391,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10797,7 +10803,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -10875,7 +10881,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ48">
         <v>1.29</v>
@@ -11209,7 +11215,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11415,7 +11421,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11493,7 +11499,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -11621,7 +11627,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11699,7 +11705,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52">
         <v>1.43</v>
@@ -11827,7 +11833,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11908,7 +11914,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12033,7 +12039,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12239,7 +12245,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12445,7 +12451,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12651,7 +12657,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12857,7 +12863,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13063,7 +13069,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13475,7 +13481,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13681,7 +13687,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14093,7 +14099,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14299,7 +14305,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14380,7 +14386,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14995,7 +15001,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15123,7 +15129,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15410,7 +15416,7 @@
         <v>3</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR70">
         <v>2.17</v>
@@ -15535,7 +15541,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15613,7 +15619,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15741,7 +15747,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15947,7 +15953,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16153,7 +16159,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16359,7 +16365,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16771,7 +16777,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17055,7 +17061,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ78">
         <v>0.67</v>
@@ -17389,7 +17395,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17470,7 +17476,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR80">
         <v>1.83</v>
@@ -18419,7 +18425,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18497,7 +18503,7 @@
         <v>2.25</v>
       </c>
       <c r="AP85">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ85">
         <v>2.5</v>
@@ -18831,7 +18837,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19037,7 +19043,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19243,7 +19249,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19449,7 +19455,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19733,7 +19739,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ91">
         <v>1.43</v>
@@ -20067,7 +20073,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20148,7 +20154,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR93">
         <v>1.38</v>
@@ -20354,7 +20360,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR94">
         <v>0.93</v>
@@ -20557,7 +20563,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95">
         <v>0.71</v>
@@ -20685,7 +20691,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20891,7 +20897,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21097,7 +21103,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21303,7 +21309,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21715,7 +21721,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21793,7 +21799,7 @@
         <v>1.17</v>
       </c>
       <c r="AP101">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22127,7 +22133,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22333,7 +22339,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22745,7 +22751,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22951,7 +22957,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23108,6 +23114,418 @@
       </c>
       <c r="BP107">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7292547</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45486.41666666666</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s">
+        <v>80</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>166</v>
+      </c>
+      <c r="P108" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q108">
+        <v>5.5</v>
+      </c>
+      <c r="R108">
+        <v>2.25</v>
+      </c>
+      <c r="S108">
+        <v>2.2</v>
+      </c>
+      <c r="T108">
+        <v>1.36</v>
+      </c>
+      <c r="U108">
+        <v>3</v>
+      </c>
+      <c r="V108">
+        <v>2.63</v>
+      </c>
+      <c r="W108">
+        <v>1.44</v>
+      </c>
+      <c r="X108">
+        <v>7</v>
+      </c>
+      <c r="Y108">
+        <v>1.1</v>
+      </c>
+      <c r="Z108">
+        <v>5</v>
+      </c>
+      <c r="AA108">
+        <v>3.9</v>
+      </c>
+      <c r="AB108">
+        <v>1.6</v>
+      </c>
+      <c r="AC108">
+        <v>1.04</v>
+      </c>
+      <c r="AD108">
+        <v>13</v>
+      </c>
+      <c r="AE108">
+        <v>1.28</v>
+      </c>
+      <c r="AF108">
+        <v>3.75</v>
+      </c>
+      <c r="AG108">
+        <v>1.9</v>
+      </c>
+      <c r="AH108">
+        <v>1.9</v>
+      </c>
+      <c r="AI108">
+        <v>1.91</v>
+      </c>
+      <c r="AJ108">
+        <v>1.91</v>
+      </c>
+      <c r="AK108">
+        <v>2.3</v>
+      </c>
+      <c r="AL108">
+        <v>1.2</v>
+      </c>
+      <c r="AM108">
+        <v>1.16</v>
+      </c>
+      <c r="AN108">
+        <v>2.13</v>
+      </c>
+      <c r="AO108">
+        <v>2</v>
+      </c>
+      <c r="AP108">
+        <v>2.22</v>
+      </c>
+      <c r="AQ108">
+        <v>1.75</v>
+      </c>
+      <c r="AR108">
+        <v>1.39</v>
+      </c>
+      <c r="AS108">
+        <v>1.67</v>
+      </c>
+      <c r="AT108">
+        <v>3.06</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>3</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>8</v>
+      </c>
+      <c r="AZ108">
+        <v>10</v>
+      </c>
+      <c r="BA108">
+        <v>3</v>
+      </c>
+      <c r="BB108">
+        <v>15</v>
+      </c>
+      <c r="BC108">
+        <v>18</v>
+      </c>
+      <c r="BD108">
+        <v>3.06</v>
+      </c>
+      <c r="BE108">
+        <v>9</v>
+      </c>
+      <c r="BF108">
+        <v>1.51</v>
+      </c>
+      <c r="BG108">
+        <v>1.14</v>
+      </c>
+      <c r="BH108">
+        <v>4.65</v>
+      </c>
+      <c r="BI108">
+        <v>1.29</v>
+      </c>
+      <c r="BJ108">
+        <v>3.14</v>
+      </c>
+      <c r="BK108">
+        <v>1.54</v>
+      </c>
+      <c r="BL108">
+        <v>2.32</v>
+      </c>
+      <c r="BM108">
+        <v>1.93</v>
+      </c>
+      <c r="BN108">
+        <v>1.77</v>
+      </c>
+      <c r="BO108">
+        <v>2.46</v>
+      </c>
+      <c r="BP108">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7292545</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45486.52083333334</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>167</v>
+      </c>
+      <c r="P109" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q109">
+        <v>2.75</v>
+      </c>
+      <c r="R109">
+        <v>2.3</v>
+      </c>
+      <c r="S109">
+        <v>3.6</v>
+      </c>
+      <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3.25</v>
+      </c>
+      <c r="V109">
+        <v>2.63</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>6.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.11</v>
+      </c>
+      <c r="Z109">
+        <v>2.47</v>
+      </c>
+      <c r="AA109">
+        <v>4.95</v>
+      </c>
+      <c r="AB109">
+        <v>1.99</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>13</v>
+      </c>
+      <c r="AE109">
+        <v>1.24</v>
+      </c>
+      <c r="AF109">
+        <v>4.2</v>
+      </c>
+      <c r="AG109">
+        <v>1.65</v>
+      </c>
+      <c r="AH109">
+        <v>2.1</v>
+      </c>
+      <c r="AI109">
+        <v>1.62</v>
+      </c>
+      <c r="AJ109">
+        <v>2.2</v>
+      </c>
+      <c r="AK109">
+        <v>1.36</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.7</v>
+      </c>
+      <c r="AN109">
+        <v>1.33</v>
+      </c>
+      <c r="AO109">
+        <v>1</v>
+      </c>
+      <c r="AP109">
+        <v>1.57</v>
+      </c>
+      <c r="AQ109">
+        <v>0.86</v>
+      </c>
+      <c r="AR109">
+        <v>1.73</v>
+      </c>
+      <c r="AS109">
+        <v>1.5</v>
+      </c>
+      <c r="AT109">
+        <v>3.23</v>
+      </c>
+      <c r="AU109">
+        <v>6</v>
+      </c>
+      <c r="AV109">
+        <v>7</v>
+      </c>
+      <c r="AW109">
+        <v>4</v>
+      </c>
+      <c r="AX109">
+        <v>10</v>
+      </c>
+      <c r="AY109">
+        <v>10</v>
+      </c>
+      <c r="AZ109">
+        <v>17</v>
+      </c>
+      <c r="BA109">
+        <v>6</v>
+      </c>
+      <c r="BB109">
+        <v>10</v>
+      </c>
+      <c r="BC109">
+        <v>16</v>
+      </c>
+      <c r="BD109">
+        <v>2.1</v>
+      </c>
+      <c r="BE109">
+        <v>8</v>
+      </c>
+      <c r="BF109">
+        <v>1.95</v>
+      </c>
+      <c r="BG109">
+        <v>1.12</v>
+      </c>
+      <c r="BH109">
+        <v>5.05</v>
+      </c>
+      <c r="BI109">
+        <v>1.26</v>
+      </c>
+      <c r="BJ109">
+        <v>3.34</v>
+      </c>
+      <c r="BK109">
+        <v>1.48</v>
+      </c>
+      <c r="BL109">
+        <v>2.47</v>
+      </c>
+      <c r="BM109">
+        <v>1.91</v>
+      </c>
+      <c r="BN109">
+        <v>1.8</v>
+      </c>
+      <c r="BO109">
+        <v>2.29</v>
+      </c>
+      <c r="BP109">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,15 @@
     <t>['40', '55', '90+2']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['52', '90']</t>
+  </si>
+  <si>
+    <t>['22', '45+2', '66']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -584,9 +593,6 @@
   </si>
   <si>
     <t>['6', '55', '87']</t>
-  </si>
-  <si>
-    <t>['17']</t>
   </si>
   <si>
     <t>['90+3']</t>
@@ -707,6 +713,12 @@
   </si>
   <si>
     <t>['32', '84']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['26', '48', '90', '90+2', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1339,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1533,7 +1545,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1739,7 +1751,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1820,7 +1832,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2023,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2151,7 +2163,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2769,7 +2781,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2850,7 +2862,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2975,7 +2987,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3262,7 +3274,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ11">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3877,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ14">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4005,7 +4017,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4083,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4211,7 +4223,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4417,7 +4429,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4495,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.43</v>
@@ -4623,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4907,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19">
         <v>0.86</v>
@@ -5241,7 +5253,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5319,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5525,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5653,7 +5665,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5859,7 +5871,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -5937,10 +5949,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6146,7 +6158,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6271,7 +6283,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6352,7 +6364,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6558,7 +6570,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR27">
         <v>0.78</v>
@@ -6889,7 +6901,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7379,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7507,7 +7519,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7588,7 +7600,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>0.76</v>
@@ -7713,7 +7725,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7919,7 +7931,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8125,7 +8137,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8412,7 +8424,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ36">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8537,7 +8549,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8618,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -8743,7 +8755,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8949,7 +8961,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9027,7 +9039,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ39">
         <v>0.86</v>
@@ -9155,7 +9167,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9233,7 +9245,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -9361,7 +9373,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9439,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>1.75</v>
@@ -9567,7 +9579,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10057,7 +10069,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.86</v>
@@ -10185,7 +10197,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10263,10 +10275,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ45">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10391,7 +10403,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10803,7 +10815,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11215,7 +11227,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11293,7 +11305,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ50">
         <v>0.86</v>
@@ -11421,7 +11433,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11502,7 +11514,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11627,7 +11639,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11833,7 +11845,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12039,7 +12051,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12117,7 +12129,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ54">
         <v>2.5</v>
@@ -12245,7 +12257,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12326,7 +12338,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ55">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR55">
         <v>1.19</v>
@@ -12451,7 +12463,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12532,7 +12544,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ56">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR56">
         <v>1.45</v>
@@ -12657,7 +12669,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12863,7 +12875,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13069,7 +13081,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13481,7 +13493,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13559,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ61">
         <v>1.29</v>
@@ -13687,7 +13699,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13971,10 +13983,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14099,7 +14111,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14180,7 +14192,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>0.97</v>
@@ -14305,7 +14317,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -15129,7 +15141,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15207,10 +15219,10 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR69">
         <v>1.65</v>
@@ -15541,7 +15553,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15747,7 +15759,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15825,10 +15837,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR72">
         <v>1.31</v>
@@ -15953,7 +15965,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16159,7 +16171,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16365,7 +16377,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16446,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16652,7 +16664,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ76">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -16777,7 +16789,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17267,7 +17279,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>0.86</v>
@@ -17395,7 +17407,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17473,7 +17485,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
         <v>1.75</v>
@@ -18425,7 +18437,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18837,7 +18849,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -18915,10 +18927,10 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ87">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.67</v>
@@ -19043,7 +19055,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19124,7 +19136,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19249,7 +19261,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19455,7 +19467,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19536,7 +19548,7 @@
         <v>3</v>
       </c>
       <c r="AQ90">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR90">
         <v>2.32</v>
@@ -19948,7 +19960,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ92">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR92">
         <v>1.27</v>
@@ -20073,7 +20085,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20566,7 +20578,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ95">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR95">
         <v>1.62</v>
@@ -20691,7 +20703,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20769,7 +20781,7 @@
         <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -20897,7 +20909,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -20975,7 +20987,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ97">
         <v>0.67</v>
@@ -21103,7 +21115,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21181,7 +21193,7 @@
         <v>0.4</v>
       </c>
       <c r="AP98">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ98">
         <v>0.33</v>
@@ -21309,7 +21321,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21596,7 +21608,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ100">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR100">
         <v>1.64</v>
@@ -21721,7 +21733,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22133,7 +22145,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22339,7 +22351,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22751,7 +22763,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22957,7 +22969,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23035,7 +23047,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ107">
         <v>1.43</v>
@@ -23163,7 +23175,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23526,6 +23538,830 @@
       </c>
       <c r="BP109">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7292541</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45487.375</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>85</v>
+      </c>
+      <c r="H110" t="s">
+        <v>84</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>168</v>
+      </c>
+      <c r="P110" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q110">
+        <v>1.91</v>
+      </c>
+      <c r="R110">
+        <v>2.5</v>
+      </c>
+      <c r="S110">
+        <v>6.5</v>
+      </c>
+      <c r="T110">
+        <v>1.3</v>
+      </c>
+      <c r="U110">
+        <v>3.4</v>
+      </c>
+      <c r="V110">
+        <v>2.5</v>
+      </c>
+      <c r="W110">
+        <v>1.5</v>
+      </c>
+      <c r="X110">
+        <v>6</v>
+      </c>
+      <c r="Y110">
+        <v>1.13</v>
+      </c>
+      <c r="Z110">
+        <v>1.36</v>
+      </c>
+      <c r="AA110">
+        <v>4.75</v>
+      </c>
+      <c r="AB110">
+        <v>7.25</v>
+      </c>
+      <c r="AC110">
+        <v>1.03</v>
+      </c>
+      <c r="AD110">
+        <v>15</v>
+      </c>
+      <c r="AE110">
+        <v>1.22</v>
+      </c>
+      <c r="AF110">
+        <v>4.33</v>
+      </c>
+      <c r="AG110">
+        <v>1.62</v>
+      </c>
+      <c r="AH110">
+        <v>2.15</v>
+      </c>
+      <c r="AI110">
+        <v>1.91</v>
+      </c>
+      <c r="AJ110">
+        <v>1.91</v>
+      </c>
+      <c r="AK110">
+        <v>1.06</v>
+      </c>
+      <c r="AL110">
+        <v>1.15</v>
+      </c>
+      <c r="AM110">
+        <v>3.1</v>
+      </c>
+      <c r="AN110">
+        <v>1.86</v>
+      </c>
+      <c r="AO110">
+        <v>2.17</v>
+      </c>
+      <c r="AP110">
+        <v>2</v>
+      </c>
+      <c r="AQ110">
+        <v>1.86</v>
+      </c>
+      <c r="AR110">
+        <v>1.61</v>
+      </c>
+      <c r="AS110">
+        <v>1.33</v>
+      </c>
+      <c r="AT110">
+        <v>2.94</v>
+      </c>
+      <c r="AU110">
+        <v>6</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>3</v>
+      </c>
+      <c r="AX110">
+        <v>5</v>
+      </c>
+      <c r="AY110">
+        <v>9</v>
+      </c>
+      <c r="AZ110">
+        <v>9</v>
+      </c>
+      <c r="BA110">
+        <v>2</v>
+      </c>
+      <c r="BB110">
+        <v>6</v>
+      </c>
+      <c r="BC110">
+        <v>8</v>
+      </c>
+      <c r="BD110">
+        <v>1.18</v>
+      </c>
+      <c r="BE110">
+        <v>11</v>
+      </c>
+      <c r="BF110">
+        <v>6.16</v>
+      </c>
+      <c r="BG110">
+        <v>1.15</v>
+      </c>
+      <c r="BH110">
+        <v>4.45</v>
+      </c>
+      <c r="BI110">
+        <v>1.32</v>
+      </c>
+      <c r="BJ110">
+        <v>2.98</v>
+      </c>
+      <c r="BK110">
+        <v>1.73</v>
+      </c>
+      <c r="BL110">
+        <v>2</v>
+      </c>
+      <c r="BM110">
+        <v>2.05</v>
+      </c>
+      <c r="BN110">
+        <v>1.7</v>
+      </c>
+      <c r="BO110">
+        <v>2.55</v>
+      </c>
+      <c r="BP110">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7292548</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45487.47916666666</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>82</v>
+      </c>
+      <c r="H111" t="s">
+        <v>70</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>169</v>
+      </c>
+      <c r="P111" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q111">
+        <v>2.38</v>
+      </c>
+      <c r="R111">
+        <v>2.38</v>
+      </c>
+      <c r="S111">
+        <v>4.33</v>
+      </c>
+      <c r="T111">
+        <v>1.3</v>
+      </c>
+      <c r="U111">
+        <v>3.4</v>
+      </c>
+      <c r="V111">
+        <v>2.5</v>
+      </c>
+      <c r="W111">
+        <v>1.5</v>
+      </c>
+      <c r="X111">
+        <v>6</v>
+      </c>
+      <c r="Y111">
+        <v>1.13</v>
+      </c>
+      <c r="Z111">
+        <v>1.72</v>
+      </c>
+      <c r="AA111">
+        <v>3.66</v>
+      </c>
+      <c r="AB111">
+        <v>4.06</v>
+      </c>
+      <c r="AC111">
+        <v>1.03</v>
+      </c>
+      <c r="AD111">
+        <v>13</v>
+      </c>
+      <c r="AE111">
+        <v>1.25</v>
+      </c>
+      <c r="AF111">
+        <v>4</v>
+      </c>
+      <c r="AG111">
+        <v>1.65</v>
+      </c>
+      <c r="AH111">
+        <v>2.1</v>
+      </c>
+      <c r="AI111">
+        <v>1.62</v>
+      </c>
+      <c r="AJ111">
+        <v>2.2</v>
+      </c>
+      <c r="AK111">
+        <v>1.26</v>
+      </c>
+      <c r="AL111">
+        <v>1.22</v>
+      </c>
+      <c r="AM111">
+        <v>1.92</v>
+      </c>
+      <c r="AN111">
+        <v>0.57</v>
+      </c>
+      <c r="AO111">
+        <v>0.71</v>
+      </c>
+      <c r="AP111">
+        <v>0.88</v>
+      </c>
+      <c r="AQ111">
+        <v>0.63</v>
+      </c>
+      <c r="AR111">
+        <v>1.7</v>
+      </c>
+      <c r="AS111">
+        <v>1.18</v>
+      </c>
+      <c r="AT111">
+        <v>2.88</v>
+      </c>
+      <c r="AU111">
+        <v>7</v>
+      </c>
+      <c r="AV111">
+        <v>5</v>
+      </c>
+      <c r="AW111">
+        <v>5</v>
+      </c>
+      <c r="AX111">
+        <v>3</v>
+      </c>
+      <c r="AY111">
+        <v>12</v>
+      </c>
+      <c r="AZ111">
+        <v>8</v>
+      </c>
+      <c r="BA111">
+        <v>7</v>
+      </c>
+      <c r="BB111">
+        <v>7</v>
+      </c>
+      <c r="BC111">
+        <v>14</v>
+      </c>
+      <c r="BD111">
+        <v>1.51</v>
+      </c>
+      <c r="BE111">
+        <v>9</v>
+      </c>
+      <c r="BF111">
+        <v>3.14</v>
+      </c>
+      <c r="BG111">
+        <v>1.1</v>
+      </c>
+      <c r="BH111">
+        <v>5.35</v>
+      </c>
+      <c r="BI111">
+        <v>1.23</v>
+      </c>
+      <c r="BJ111">
+        <v>3.56</v>
+      </c>
+      <c r="BK111">
+        <v>1.44</v>
+      </c>
+      <c r="BL111">
+        <v>2.58</v>
+      </c>
+      <c r="BM111">
+        <v>1.93</v>
+      </c>
+      <c r="BN111">
+        <v>1.77</v>
+      </c>
+      <c r="BO111">
+        <v>2.19</v>
+      </c>
+      <c r="BP111">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7292543</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45487.47916666666</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>73</v>
+      </c>
+      <c r="H112" t="s">
+        <v>77</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>5</v>
+      </c>
+      <c r="N112">
+        <v>8</v>
+      </c>
+      <c r="O112" t="s">
+        <v>170</v>
+      </c>
+      <c r="P112" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q112">
+        <v>2.6</v>
+      </c>
+      <c r="R112">
+        <v>2.5</v>
+      </c>
+      <c r="S112">
+        <v>3.5</v>
+      </c>
+      <c r="T112">
+        <v>1.25</v>
+      </c>
+      <c r="U112">
+        <v>3.75</v>
+      </c>
+      <c r="V112">
+        <v>2.2</v>
+      </c>
+      <c r="W112">
+        <v>1.62</v>
+      </c>
+      <c r="X112">
+        <v>5</v>
+      </c>
+      <c r="Y112">
+        <v>1.17</v>
+      </c>
+      <c r="Z112">
+        <v>2.11</v>
+      </c>
+      <c r="AA112">
+        <v>3.59</v>
+      </c>
+      <c r="AB112">
+        <v>2.87</v>
+      </c>
+      <c r="AC112">
+        <v>1.03</v>
+      </c>
+      <c r="AD112">
+        <v>15</v>
+      </c>
+      <c r="AE112">
+        <v>1.22</v>
+      </c>
+      <c r="AF112">
+        <v>4.33</v>
+      </c>
+      <c r="AG112">
+        <v>1.5</v>
+      </c>
+      <c r="AH112">
+        <v>2.4</v>
+      </c>
+      <c r="AI112">
+        <v>1.44</v>
+      </c>
+      <c r="AJ112">
+        <v>2.63</v>
+      </c>
+      <c r="AK112">
+        <v>1.45</v>
+      </c>
+      <c r="AL112">
+        <v>1.24</v>
+      </c>
+      <c r="AM112">
+        <v>1.6</v>
+      </c>
+      <c r="AN112">
+        <v>1.86</v>
+      </c>
+      <c r="AO112">
+        <v>0.43</v>
+      </c>
+      <c r="AP112">
+        <v>1.63</v>
+      </c>
+      <c r="AQ112">
+        <v>0.75</v>
+      </c>
+      <c r="AR112">
+        <v>1.86</v>
+      </c>
+      <c r="AS112">
+        <v>1.24</v>
+      </c>
+      <c r="AT112">
+        <v>3.1</v>
+      </c>
+      <c r="AU112">
+        <v>8</v>
+      </c>
+      <c r="AV112">
+        <v>8</v>
+      </c>
+      <c r="AW112">
+        <v>2</v>
+      </c>
+      <c r="AX112">
+        <v>7</v>
+      </c>
+      <c r="AY112">
+        <v>10</v>
+      </c>
+      <c r="AZ112">
+        <v>15</v>
+      </c>
+      <c r="BA112">
+        <v>6</v>
+      </c>
+      <c r="BB112">
+        <v>12</v>
+      </c>
+      <c r="BC112">
+        <v>18</v>
+      </c>
+      <c r="BD112">
+        <v>1.75</v>
+      </c>
+      <c r="BE112">
+        <v>8.5</v>
+      </c>
+      <c r="BF112">
+        <v>2.41</v>
+      </c>
+      <c r="BG112">
+        <v>1.08</v>
+      </c>
+      <c r="BH112">
+        <v>6.15</v>
+      </c>
+      <c r="BI112">
+        <v>1.18</v>
+      </c>
+      <c r="BJ112">
+        <v>4.1</v>
+      </c>
+      <c r="BK112">
+        <v>1.36</v>
+      </c>
+      <c r="BL112">
+        <v>2.89</v>
+      </c>
+      <c r="BM112">
+        <v>1.85</v>
+      </c>
+      <c r="BN112">
+        <v>1.85</v>
+      </c>
+      <c r="BO112">
+        <v>2</v>
+      </c>
+      <c r="BP112">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7292546</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45487.47916666666</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>83</v>
+      </c>
+      <c r="H113" t="s">
+        <v>78</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>88</v>
+      </c>
+      <c r="P113" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q113">
+        <v>3.2</v>
+      </c>
+      <c r="R113">
+        <v>2.3</v>
+      </c>
+      <c r="S113">
+        <v>3.1</v>
+      </c>
+      <c r="T113">
+        <v>1.33</v>
+      </c>
+      <c r="U113">
+        <v>3.25</v>
+      </c>
+      <c r="V113">
+        <v>2.5</v>
+      </c>
+      <c r="W113">
+        <v>1.5</v>
+      </c>
+      <c r="X113">
+        <v>6.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.11</v>
+      </c>
+      <c r="Z113">
+        <v>2.53</v>
+      </c>
+      <c r="AA113">
+        <v>3.19</v>
+      </c>
+      <c r="AB113">
+        <v>2.38</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>13</v>
+      </c>
+      <c r="AE113">
+        <v>1.24</v>
+      </c>
+      <c r="AF113">
+        <v>4.2</v>
+      </c>
+      <c r="AG113">
+        <v>1.7</v>
+      </c>
+      <c r="AH113">
+        <v>2</v>
+      </c>
+      <c r="AI113">
+        <v>1.57</v>
+      </c>
+      <c r="AJ113">
+        <v>2.25</v>
+      </c>
+      <c r="AK113">
+        <v>1.55</v>
+      </c>
+      <c r="AL113">
+        <v>1.25</v>
+      </c>
+      <c r="AM113">
+        <v>1.5</v>
+      </c>
+      <c r="AN113">
+        <v>0.67</v>
+      </c>
+      <c r="AO113">
+        <v>1.29</v>
+      </c>
+      <c r="AP113">
+        <v>0.57</v>
+      </c>
+      <c r="AQ113">
+        <v>1.5</v>
+      </c>
+      <c r="AR113">
+        <v>1.31</v>
+      </c>
+      <c r="AS113">
+        <v>1.64</v>
+      </c>
+      <c r="AT113">
+        <v>2.95</v>
+      </c>
+      <c r="AU113">
+        <v>3</v>
+      </c>
+      <c r="AV113">
+        <v>5</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>1</v>
+      </c>
+      <c r="AY113">
+        <v>7</v>
+      </c>
+      <c r="AZ113">
+        <v>6</v>
+      </c>
+      <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>6</v>
+      </c>
+      <c r="BC113">
+        <v>12</v>
+      </c>
+      <c r="BD113">
+        <v>2.2</v>
+      </c>
+      <c r="BE113">
+        <v>8</v>
+      </c>
+      <c r="BF113">
+        <v>1.91</v>
+      </c>
+      <c r="BG113">
+        <v>1.14</v>
+      </c>
+      <c r="BH113">
+        <v>4.6</v>
+      </c>
+      <c r="BI113">
+        <v>1.3</v>
+      </c>
+      <c r="BJ113">
+        <v>3.08</v>
+      </c>
+      <c r="BK113">
+        <v>1.55</v>
+      </c>
+      <c r="BL113">
+        <v>2.29</v>
+      </c>
+      <c r="BM113">
+        <v>1.95</v>
+      </c>
+      <c r="BN113">
+        <v>1.75</v>
+      </c>
+      <c r="BO113">
+        <v>2.46</v>
+      </c>
+      <c r="BP113">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,9 @@
     <t>['22', '45+2', '66']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -719,6 +722,12 @@
   </si>
   <si>
     <t>['26', '48', '90', '90+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['14', '57']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1348,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1545,7 +1554,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1623,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ3">
         <v>1.29</v>
@@ -1751,7 +1760,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2163,7 +2172,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2781,7 +2790,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2987,7 +2996,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3068,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3683,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4017,7 +4026,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4223,7 +4232,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4429,7 +4438,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4635,7 +4644,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4716,7 +4725,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ18">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR18">
         <v>2.67</v>
@@ -5253,7 +5262,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5334,7 +5343,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5665,7 +5674,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5871,7 +5880,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6155,7 +6164,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6283,7 +6292,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6901,7 +6910,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7519,7 +7528,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7597,7 +7606,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7725,7 +7734,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7931,7 +7940,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8137,7 +8146,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8549,7 +8558,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8755,7 +8764,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8833,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8961,7 +8970,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9373,7 +9382,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9579,7 +9588,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9866,7 +9875,7 @@
         <v>3</v>
       </c>
       <c r="AQ43">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR43">
         <v>2.45</v>
@@ -10197,7 +10206,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10403,7 +10412,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10484,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>1.52</v>
@@ -10815,7 +10824,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11099,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11227,7 +11236,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11433,7 +11442,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11639,7 +11648,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11845,7 +11854,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12051,7 +12060,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12257,7 +12266,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12463,7 +12472,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12541,7 +12550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ56">
         <v>1.86</v>
@@ -12669,7 +12678,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12750,7 +12759,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -12875,7 +12884,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13081,7 +13090,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13159,7 +13168,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ59">
         <v>1.5</v>
@@ -13493,7 +13502,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13699,7 +13708,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14111,7 +14120,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14317,7 +14326,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14604,7 +14613,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.53</v>
@@ -14807,7 +14816,7 @@
         <v>2.33</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ67">
         <v>1.43</v>
@@ -15141,7 +15150,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15553,7 +15562,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15634,7 +15643,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.6</v>
@@ -15759,7 +15768,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15965,7 +15974,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16171,7 +16180,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16249,10 +16258,10 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ74">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR74">
         <v>1.46</v>
@@ -16377,7 +16386,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16789,7 +16798,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17407,7 +17416,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18437,7 +18446,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18721,7 +18730,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -18849,7 +18858,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19055,7 +19064,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19261,7 +19270,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19342,7 +19351,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19467,7 +19476,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20085,7 +20094,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20369,7 +20378,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
         <v>0.86</v>
@@ -20703,7 +20712,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20909,7 +20918,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21115,7 +21124,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21196,7 +21205,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ98">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR98">
         <v>1.85</v>
@@ -21321,7 +21330,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21733,7 +21742,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22020,7 +22029,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22145,7 +22154,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22351,7 +22360,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22763,7 +22772,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22969,7 +22978,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23175,7 +23184,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23793,7 +23802,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -23999,7 +24008,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24362,6 +24371,418 @@
       </c>
       <c r="BP113">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7292544</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45488.58333333334</v>
+      </c>
+      <c r="F114">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>81</v>
+      </c>
+      <c r="H114" t="s">
+        <v>76</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>171</v>
+      </c>
+      <c r="P114" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q114">
+        <v>4.33</v>
+      </c>
+      <c r="R114">
+        <v>2.3</v>
+      </c>
+      <c r="S114">
+        <v>2.4</v>
+      </c>
+      <c r="T114">
+        <v>1.33</v>
+      </c>
+      <c r="U114">
+        <v>3.25</v>
+      </c>
+      <c r="V114">
+        <v>2.5</v>
+      </c>
+      <c r="W114">
+        <v>1.5</v>
+      </c>
+      <c r="X114">
+        <v>6.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.11</v>
+      </c>
+      <c r="Z114">
+        <v>3.5</v>
+      </c>
+      <c r="AA114">
+        <v>3.5</v>
+      </c>
+      <c r="AB114">
+        <v>1.83</v>
+      </c>
+      <c r="AC114">
+        <v>1.03</v>
+      </c>
+      <c r="AD114">
+        <v>15</v>
+      </c>
+      <c r="AE114">
+        <v>1.24</v>
+      </c>
+      <c r="AF114">
+        <v>4.2</v>
+      </c>
+      <c r="AG114">
+        <v>1.7</v>
+      </c>
+      <c r="AH114">
+        <v>2.05</v>
+      </c>
+      <c r="AI114">
+        <v>1.67</v>
+      </c>
+      <c r="AJ114">
+        <v>2.1</v>
+      </c>
+      <c r="AK114">
+        <v>1.98</v>
+      </c>
+      <c r="AL114">
+        <v>1.22</v>
+      </c>
+      <c r="AM114">
+        <v>1.26</v>
+      </c>
+      <c r="AN114">
+        <v>2</v>
+      </c>
+      <c r="AO114">
+        <v>0.33</v>
+      </c>
+      <c r="AP114">
+        <v>1.71</v>
+      </c>
+      <c r="AQ114">
+        <v>0.71</v>
+      </c>
+      <c r="AR114">
+        <v>1</v>
+      </c>
+      <c r="AS114">
+        <v>1.33</v>
+      </c>
+      <c r="AT114">
+        <v>2.33</v>
+      </c>
+      <c r="AU114">
+        <v>4</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
+        <v>8</v>
+      </c>
+      <c r="AY114">
+        <v>7</v>
+      </c>
+      <c r="AZ114">
+        <v>14</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>2</v>
+      </c>
+      <c r="BC114">
+        <v>2</v>
+      </c>
+      <c r="BD114">
+        <v>3.04</v>
+      </c>
+      <c r="BE114">
+        <v>6.95</v>
+      </c>
+      <c r="BF114">
+        <v>1.61</v>
+      </c>
+      <c r="BG114">
+        <v>1.18</v>
+      </c>
+      <c r="BH114">
+        <v>4.05</v>
+      </c>
+      <c r="BI114">
+        <v>1.36</v>
+      </c>
+      <c r="BJ114">
+        <v>2.79</v>
+      </c>
+      <c r="BK114">
+        <v>1.7</v>
+      </c>
+      <c r="BL114">
+        <v>2.05</v>
+      </c>
+      <c r="BM114">
+        <v>2.11</v>
+      </c>
+      <c r="BN114">
+        <v>1.68</v>
+      </c>
+      <c r="BO114">
+        <v>2.76</v>
+      </c>
+      <c r="BP114">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7292542</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45488.58333333334</v>
+      </c>
+      <c r="F115">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115" t="s">
+        <v>74</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>88</v>
+      </c>
+      <c r="P115" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q115">
+        <v>2.5</v>
+      </c>
+      <c r="R115">
+        <v>2.25</v>
+      </c>
+      <c r="S115">
+        <v>4</v>
+      </c>
+      <c r="T115">
+        <v>1.33</v>
+      </c>
+      <c r="U115">
+        <v>3.25</v>
+      </c>
+      <c r="V115">
+        <v>2.63</v>
+      </c>
+      <c r="W115">
+        <v>1.44</v>
+      </c>
+      <c r="X115">
+        <v>6.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.11</v>
+      </c>
+      <c r="Z115">
+        <v>1.91</v>
+      </c>
+      <c r="AA115">
+        <v>3.4</v>
+      </c>
+      <c r="AB115">
+        <v>3.4</v>
+      </c>
+      <c r="AC115">
+        <v>1.01</v>
+      </c>
+      <c r="AD115">
+        <v>10.25</v>
+      </c>
+      <c r="AE115">
+        <v>1.22</v>
+      </c>
+      <c r="AF115">
+        <v>3.66</v>
+      </c>
+      <c r="AG115">
+        <v>1.75</v>
+      </c>
+      <c r="AH115">
+        <v>2</v>
+      </c>
+      <c r="AI115">
+        <v>1.67</v>
+      </c>
+      <c r="AJ115">
+        <v>2.1</v>
+      </c>
+      <c r="AK115">
+        <v>1.28</v>
+      </c>
+      <c r="AL115">
+        <v>1.28</v>
+      </c>
+      <c r="AM115">
+        <v>1.86</v>
+      </c>
+      <c r="AN115">
+        <v>2.5</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>2.14</v>
+      </c>
+      <c r="AQ115">
+        <v>1.25</v>
+      </c>
+      <c r="AR115">
+        <v>1.56</v>
+      </c>
+      <c r="AS115">
+        <v>1.68</v>
+      </c>
+      <c r="AT115">
+        <v>3.24</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>11</v>
+      </c>
+      <c r="AW115">
+        <v>8</v>
+      </c>
+      <c r="AX115">
+        <v>4</v>
+      </c>
+      <c r="AY115">
+        <v>12</v>
+      </c>
+      <c r="AZ115">
+        <v>15</v>
+      </c>
+      <c r="BA115">
+        <v>4</v>
+      </c>
+      <c r="BB115">
+        <v>5</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>1.82</v>
+      </c>
+      <c r="BE115">
+        <v>6.7</v>
+      </c>
+      <c r="BF115">
+        <v>2.53</v>
+      </c>
+      <c r="BG115">
+        <v>1.16</v>
+      </c>
+      <c r="BH115">
+        <v>4.35</v>
+      </c>
+      <c r="BI115">
+        <v>1.33</v>
+      </c>
+      <c r="BJ115">
+        <v>2.93</v>
+      </c>
+      <c r="BK115">
+        <v>1.6</v>
+      </c>
+      <c r="BL115">
+        <v>2.19</v>
+      </c>
+      <c r="BM115">
+        <v>1.95</v>
+      </c>
+      <c r="BN115">
+        <v>1.75</v>
+      </c>
+      <c r="BO115">
+        <v>2.58</v>
+      </c>
+      <c r="BP115">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,9 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['34', '45+1', '78']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -728,6 +731,9 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['60', '72', '83', '87']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1354,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1429,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1554,7 +1560,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1760,7 +1766,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2172,7 +2178,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2456,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7">
         <v>0.86</v>
@@ -2790,7 +2796,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2996,7 +3002,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -4026,7 +4032,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4232,7 +4238,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4438,7 +4444,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4644,7 +4650,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5262,7 +5268,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5674,7 +5680,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5755,7 +5761,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR23">
         <v>1.23</v>
@@ -5880,7 +5886,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6292,7 +6298,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6370,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
         <v>1.86</v>
@@ -6910,7 +6916,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7528,7 +7534,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7734,7 +7740,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7940,7 +7946,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8146,7 +8152,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8558,7 +8564,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8764,7 +8770,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8970,7 +8976,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9382,7 +9388,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9463,7 +9469,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR41">
         <v>1.74</v>
@@ -9588,7 +9594,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10206,7 +10212,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10412,7 +10418,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10824,7 +10830,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11236,7 +11242,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11442,7 +11448,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11648,7 +11654,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11726,7 +11732,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>1.43</v>
@@ -11854,7 +11860,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11935,7 +11941,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ53">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12060,7 +12066,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12266,7 +12272,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12472,7 +12478,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12678,7 +12684,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12884,7 +12890,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13090,7 +13096,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13502,7 +13508,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13708,7 +13714,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14120,7 +14126,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14326,7 +14332,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14407,7 +14413,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -15150,7 +15156,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15562,7 +15568,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15640,7 +15646,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -15768,7 +15774,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15974,7 +15980,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16180,7 +16186,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16386,7 +16392,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16798,7 +16804,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17082,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
         <v>0.67</v>
@@ -17416,7 +17422,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17497,7 +17503,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ80">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR80">
         <v>1.83</v>
@@ -18446,7 +18452,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18858,7 +18864,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19064,7 +19070,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19270,7 +19276,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19476,7 +19482,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20094,7 +20100,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20175,7 +20181,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR93">
         <v>1.38</v>
@@ -20584,7 +20590,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95">
         <v>0.63</v>
@@ -20712,7 +20718,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20918,7 +20924,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21124,7 +21130,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21330,7 +21336,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21742,7 +21748,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22154,7 +22160,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22360,7 +22366,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22772,7 +22778,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22978,7 +22984,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23184,7 +23190,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23265,7 +23271,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ108">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR108">
         <v>1.39</v>
@@ -23468,7 +23474,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
         <v>0.86</v>
@@ -23802,7 +23808,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24008,7 +24014,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24420,7 +24426,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24626,7 +24632,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24783,6 +24789,212 @@
       </c>
       <c r="BP115">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7292550</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45492.58333333334</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>75</v>
+      </c>
+      <c r="H116" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>4</v>
+      </c>
+      <c r="N116">
+        <v>7</v>
+      </c>
+      <c r="O116" t="s">
+        <v>172</v>
+      </c>
+      <c r="P116" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>2.4</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>1.25</v>
+      </c>
+      <c r="U116">
+        <v>3.45</v>
+      </c>
+      <c r="V116">
+        <v>2.2</v>
+      </c>
+      <c r="W116">
+        <v>1.6</v>
+      </c>
+      <c r="X116">
+        <v>5</v>
+      </c>
+      <c r="Y116">
+        <v>1.15</v>
+      </c>
+      <c r="Z116">
+        <v>5.14</v>
+      </c>
+      <c r="AA116">
+        <v>4.2</v>
+      </c>
+      <c r="AB116">
+        <v>1.51</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>11</v>
+      </c>
+      <c r="AE116">
+        <v>1.18</v>
+      </c>
+      <c r="AF116">
+        <v>5</v>
+      </c>
+      <c r="AG116">
+        <v>1.57</v>
+      </c>
+      <c r="AH116">
+        <v>2.25</v>
+      </c>
+      <c r="AI116">
+        <v>1.57</v>
+      </c>
+      <c r="AJ116">
+        <v>2.2</v>
+      </c>
+      <c r="AK116">
+        <v>2.4</v>
+      </c>
+      <c r="AL116">
+        <v>1.17</v>
+      </c>
+      <c r="AM116">
+        <v>1.14</v>
+      </c>
+      <c r="AN116">
+        <v>1.57</v>
+      </c>
+      <c r="AO116">
+        <v>1.75</v>
+      </c>
+      <c r="AP116">
+        <v>1.38</v>
+      </c>
+      <c r="AQ116">
+        <v>1.89</v>
+      </c>
+      <c r="AR116">
+        <v>1.66</v>
+      </c>
+      <c r="AS116">
+        <v>1.66</v>
+      </c>
+      <c r="AT116">
+        <v>3.32</v>
+      </c>
+      <c r="AU116">
+        <v>7</v>
+      </c>
+      <c r="AV116">
+        <v>14</v>
+      </c>
+      <c r="AW116">
+        <v>1</v>
+      </c>
+      <c r="AX116">
+        <v>8</v>
+      </c>
+      <c r="AY116">
+        <v>8</v>
+      </c>
+      <c r="AZ116">
+        <v>22</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>10</v>
+      </c>
+      <c r="BC116">
+        <v>15</v>
+      </c>
+      <c r="BD116">
+        <v>2.9</v>
+      </c>
+      <c r="BE116">
+        <v>6.75</v>
+      </c>
+      <c r="BF116">
+        <v>1.43</v>
+      </c>
+      <c r="BG116">
+        <v>1.23</v>
+      </c>
+      <c r="BH116">
+        <v>3.65</v>
+      </c>
+      <c r="BI116">
+        <v>1.4</v>
+      </c>
+      <c r="BJ116">
+        <v>2.7</v>
+      </c>
+      <c r="BK116">
+        <v>1.65</v>
+      </c>
+      <c r="BL116">
+        <v>2.08</v>
+      </c>
+      <c r="BM116">
+        <v>2</v>
+      </c>
+      <c r="BN116">
+        <v>1.7</v>
+      </c>
+      <c r="BO116">
+        <v>2.55</v>
+      </c>
+      <c r="BP116">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,18 @@
     <t>['34', '45+1', '78']</t>
   </si>
   <si>
+    <t>['52', '90+8']</t>
+  </si>
+  <si>
+    <t>['45+11', '68']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['1', '42', '51']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -734,6 +746,15 @@
   </si>
   <si>
     <t>['60', '72', '83', '87']</t>
+  </si>
+  <si>
+    <t>['7', '14']</t>
+  </si>
+  <si>
+    <t>['54', '72']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1375,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1432,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2">
         <v>1.89</v>
@@ -1560,7 +1581,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1766,7 +1787,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2053,7 +2074,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2178,7 +2199,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2256,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ6">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2465,7 +2486,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2671,7 +2692,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2796,7 +2817,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2874,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ9">
         <v>1.86</v>
@@ -3002,7 +3023,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3080,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ10">
         <v>0.71</v>
@@ -3495,7 +3516,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4032,7 +4053,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4110,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4238,7 +4259,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4316,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ16">
         <v>0.86</v>
@@ -4444,7 +4465,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4525,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4650,7 +4671,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4937,7 +4958,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>1.04</v>
@@ -5140,7 +5161,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20">
         <v>0.86</v>
@@ -5268,7 +5289,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5346,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5680,7 +5701,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5758,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ23">
         <v>1.89</v>
@@ -5886,7 +5907,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6298,7 +6319,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6582,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
         <v>0.63</v>
@@ -6791,7 +6812,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR28">
         <v>2.62</v>
@@ -6916,7 +6937,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6997,7 +7018,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR29">
         <v>1.27</v>
@@ -7203,7 +7224,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ30">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7409,7 +7430,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>1.67</v>
@@ -7534,7 +7555,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7740,7 +7761,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7818,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ33">
         <v>1.29</v>
@@ -7946,7 +7967,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8024,7 +8045,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8152,7 +8173,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8230,10 +8251,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8564,7 +8585,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8642,7 +8663,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
         <v>0.75</v>
@@ -8770,7 +8791,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8851,7 +8872,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>0.8</v>
@@ -8976,7 +8997,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9054,7 +9075,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ39">
         <v>0.86</v>
@@ -9263,7 +9284,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -9388,7 +9409,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9594,7 +9615,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9672,10 +9693,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ42">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>0.88</v>
@@ -10212,7 +10233,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10418,7 +10439,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10496,7 +10517,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ46">
         <v>1.25</v>
@@ -10702,7 +10723,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10830,7 +10851,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11117,7 +11138,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -11242,7 +11263,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11320,10 +11341,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ50">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR50">
         <v>1.18</v>
@@ -11448,7 +11469,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11654,7 +11675,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11735,7 +11756,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11860,7 +11881,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11938,7 +11959,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ53">
         <v>1.89</v>
@@ -12066,7 +12087,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12147,7 +12168,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -12272,7 +12293,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12478,7 +12499,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12684,7 +12705,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12890,7 +12911,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13096,7 +13117,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13177,7 +13198,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
         <v>0.92</v>
@@ -13383,7 +13404,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13508,7 +13529,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13714,7 +13735,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13792,10 +13813,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.3</v>
@@ -14126,7 +14147,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14204,7 +14225,7 @@
         <v>1.75</v>
       </c>
       <c r="AP64">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ64">
         <v>1.5</v>
@@ -14332,7 +14353,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14410,7 +14431,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ65">
         <v>1.89</v>
@@ -14616,7 +14637,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ66">
         <v>0.71</v>
@@ -14825,7 +14846,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -15031,7 +15052,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15156,7 +15177,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15568,7 +15589,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15774,7 +15795,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15852,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ72">
         <v>0.63</v>
@@ -15980,7 +16001,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16058,10 +16079,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ73">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16186,7 +16207,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16392,7 +16413,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16470,7 +16491,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ75">
         <v>0.63</v>
@@ -16804,7 +16825,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -16882,7 +16903,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ77">
         <v>1.29</v>
@@ -17091,7 +17112,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17297,7 +17318,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17422,7 +17443,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17706,10 +17727,10 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18118,10 +18139,10 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ83">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18327,7 +18348,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ84">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18452,7 +18473,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18533,7 +18554,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ85">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -18864,7 +18885,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19070,7 +19091,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19148,7 +19169,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
         <v>1.86</v>
@@ -19276,7 +19297,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19482,7 +19503,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19769,7 +19790,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ91">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR91">
         <v>1.51</v>
@@ -19972,7 +19993,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ92">
         <v>0.75</v>
@@ -20100,7 +20121,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20178,7 +20199,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ93">
         <v>1.89</v>
@@ -20718,7 +20739,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20799,7 +20820,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -20924,7 +20945,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21002,10 +21023,10 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ97">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR97">
         <v>1.29</v>
@@ -21130,7 +21151,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21336,7 +21357,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21414,10 +21435,10 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR99">
         <v>1.17</v>
@@ -21620,7 +21641,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ100">
         <v>1.5</v>
@@ -21748,7 +21769,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22032,7 +22053,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ102">
         <v>1.25</v>
@@ -22160,7 +22181,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22366,7 +22387,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22447,7 +22468,7 @@
         <v>3</v>
       </c>
       <c r="AQ104">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR104">
         <v>2.32</v>
@@ -22653,7 +22674,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.51</v>
@@ -22778,7 +22799,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22856,10 +22877,10 @@
         <v>2.4</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR106">
         <v>1.38</v>
@@ -22984,7 +23005,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23065,7 +23086,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ107">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -23190,7 +23211,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23808,7 +23829,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24014,7 +24035,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24298,7 +24319,7 @@
         <v>1.29</v>
       </c>
       <c r="AP113">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ113">
         <v>1.5</v>
@@ -24426,7 +24447,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24632,7 +24653,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24838,7 +24859,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -24995,6 +25016,1242 @@
       </c>
       <c r="BP116">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7292555</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45493.41666666666</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>84</v>
+      </c>
+      <c r="H117" t="s">
+        <v>73</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>173</v>
+      </c>
+      <c r="P117" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q117">
+        <v>3.5</v>
+      </c>
+      <c r="R117">
+        <v>2.4</v>
+      </c>
+      <c r="S117">
+        <v>2.6</v>
+      </c>
+      <c r="T117">
+        <v>1.29</v>
+      </c>
+      <c r="U117">
+        <v>3.5</v>
+      </c>
+      <c r="V117">
+        <v>2.25</v>
+      </c>
+      <c r="W117">
+        <v>1.57</v>
+      </c>
+      <c r="X117">
+        <v>5.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.14</v>
+      </c>
+      <c r="Z117">
+        <v>3.1</v>
+      </c>
+      <c r="AA117">
+        <v>3.75</v>
+      </c>
+      <c r="AB117">
+        <v>1.95</v>
+      </c>
+      <c r="AC117">
+        <v>1.04</v>
+      </c>
+      <c r="AD117">
+        <v>11</v>
+      </c>
+      <c r="AE117">
+        <v>1.2</v>
+      </c>
+      <c r="AF117">
+        <v>4.75</v>
+      </c>
+      <c r="AG117">
+        <v>1.48</v>
+      </c>
+      <c r="AH117">
+        <v>2.47</v>
+      </c>
+      <c r="AI117">
+        <v>1.5</v>
+      </c>
+      <c r="AJ117">
+        <v>2.5</v>
+      </c>
+      <c r="AK117">
+        <v>1.78</v>
+      </c>
+      <c r="AL117">
+        <v>1.29</v>
+      </c>
+      <c r="AM117">
+        <v>1.33</v>
+      </c>
+      <c r="AN117">
+        <v>0.57</v>
+      </c>
+      <c r="AO117">
+        <v>1.43</v>
+      </c>
+      <c r="AP117">
+        <v>0.63</v>
+      </c>
+      <c r="AQ117">
+        <v>1.38</v>
+      </c>
+      <c r="AR117">
+        <v>1.22</v>
+      </c>
+      <c r="AS117">
+        <v>1.59</v>
+      </c>
+      <c r="AT117">
+        <v>2.81</v>
+      </c>
+      <c r="AU117">
+        <v>5</v>
+      </c>
+      <c r="AV117">
+        <v>4</v>
+      </c>
+      <c r="AW117">
+        <v>9</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>14</v>
+      </c>
+      <c r="AZ117">
+        <v>8</v>
+      </c>
+      <c r="BA117">
+        <v>6</v>
+      </c>
+      <c r="BB117">
+        <v>8</v>
+      </c>
+      <c r="BC117">
+        <v>14</v>
+      </c>
+      <c r="BD117">
+        <v>2.25</v>
+      </c>
+      <c r="BE117">
+        <v>6.5</v>
+      </c>
+      <c r="BF117">
+        <v>1.68</v>
+      </c>
+      <c r="BG117">
+        <v>1.15</v>
+      </c>
+      <c r="BH117">
+        <v>4.6</v>
+      </c>
+      <c r="BI117">
+        <v>1.28</v>
+      </c>
+      <c r="BJ117">
+        <v>3.3</v>
+      </c>
+      <c r="BK117">
+        <v>1.47</v>
+      </c>
+      <c r="BL117">
+        <v>2.48</v>
+      </c>
+      <c r="BM117">
+        <v>1.82</v>
+      </c>
+      <c r="BN117">
+        <v>1.98</v>
+      </c>
+      <c r="BO117">
+        <v>2.12</v>
+      </c>
+      <c r="BP117">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7292554</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45493.41666666666</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>83</v>
+      </c>
+      <c r="H118" t="s">
+        <v>85</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>174</v>
+      </c>
+      <c r="P118" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q118">
+        <v>5</v>
+      </c>
+      <c r="R118">
+        <v>2.25</v>
+      </c>
+      <c r="S118">
+        <v>2.3</v>
+      </c>
+      <c r="T118">
+        <v>1.36</v>
+      </c>
+      <c r="U118">
+        <v>3</v>
+      </c>
+      <c r="V118">
+        <v>2.63</v>
+      </c>
+      <c r="W118">
+        <v>1.44</v>
+      </c>
+      <c r="X118">
+        <v>7</v>
+      </c>
+      <c r="Y118">
+        <v>1.1</v>
+      </c>
+      <c r="Z118">
+        <v>4.75</v>
+      </c>
+      <c r="AA118">
+        <v>3.9</v>
+      </c>
+      <c r="AB118">
+        <v>1.57</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>10</v>
+      </c>
+      <c r="AE118">
+        <v>1.22</v>
+      </c>
+      <c r="AF118">
+        <v>3.66</v>
+      </c>
+      <c r="AG118">
+        <v>1.75</v>
+      </c>
+      <c r="AH118">
+        <v>1.95</v>
+      </c>
+      <c r="AI118">
+        <v>1.8</v>
+      </c>
+      <c r="AJ118">
+        <v>1.95</v>
+      </c>
+      <c r="AK118">
+        <v>2.2</v>
+      </c>
+      <c r="AL118">
+        <v>1.2</v>
+      </c>
+      <c r="AM118">
+        <v>1.2</v>
+      </c>
+      <c r="AN118">
+        <v>0.57</v>
+      </c>
+      <c r="AO118">
+        <v>2.5</v>
+      </c>
+      <c r="AP118">
+        <v>0.88</v>
+      </c>
+      <c r="AQ118">
+        <v>2.14</v>
+      </c>
+      <c r="AR118">
+        <v>1.29</v>
+      </c>
+      <c r="AS118">
+        <v>1.7</v>
+      </c>
+      <c r="AT118">
+        <v>2.99</v>
+      </c>
+      <c r="AU118">
+        <v>4</v>
+      </c>
+      <c r="AV118">
+        <v>7</v>
+      </c>
+      <c r="AW118">
+        <v>2</v>
+      </c>
+      <c r="AX118">
+        <v>4</v>
+      </c>
+      <c r="AY118">
+        <v>6</v>
+      </c>
+      <c r="AZ118">
+        <v>11</v>
+      </c>
+      <c r="BA118">
+        <v>6</v>
+      </c>
+      <c r="BB118">
+        <v>11</v>
+      </c>
+      <c r="BC118">
+        <v>17</v>
+      </c>
+      <c r="BD118">
+        <v>2.9</v>
+      </c>
+      <c r="BE118">
+        <v>6.75</v>
+      </c>
+      <c r="BF118">
+        <v>1.43</v>
+      </c>
+      <c r="BG118">
+        <v>1.25</v>
+      </c>
+      <c r="BH118">
+        <v>3.45</v>
+      </c>
+      <c r="BI118">
+        <v>1.45</v>
+      </c>
+      <c r="BJ118">
+        <v>2.55</v>
+      </c>
+      <c r="BK118">
+        <v>1.72</v>
+      </c>
+      <c r="BL118">
+        <v>1.98</v>
+      </c>
+      <c r="BM118">
+        <v>2.08</v>
+      </c>
+      <c r="BN118">
+        <v>1.65</v>
+      </c>
+      <c r="BO118">
+        <v>2.63</v>
+      </c>
+      <c r="BP118">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7292556</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45493.52083333334</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s">
+        <v>71</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>88</v>
+      </c>
+      <c r="P119" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q119">
+        <v>3</v>
+      </c>
+      <c r="R119">
+        <v>2.3</v>
+      </c>
+      <c r="S119">
+        <v>3.2</v>
+      </c>
+      <c r="T119">
+        <v>1.3</v>
+      </c>
+      <c r="U119">
+        <v>3.4</v>
+      </c>
+      <c r="V119">
+        <v>2.5</v>
+      </c>
+      <c r="W119">
+        <v>1.5</v>
+      </c>
+      <c r="X119">
+        <v>6</v>
+      </c>
+      <c r="Y119">
+        <v>1.13</v>
+      </c>
+      <c r="Z119">
+        <v>2.4</v>
+      </c>
+      <c r="AA119">
+        <v>3.55</v>
+      </c>
+      <c r="AB119">
+        <v>2.48</v>
+      </c>
+      <c r="AC119">
+        <v>1.03</v>
+      </c>
+      <c r="AD119">
+        <v>17</v>
+      </c>
+      <c r="AE119">
+        <v>1.19</v>
+      </c>
+      <c r="AF119">
+        <v>4.75</v>
+      </c>
+      <c r="AG119">
+        <v>1.53</v>
+      </c>
+      <c r="AH119">
+        <v>2.33</v>
+      </c>
+      <c r="AI119">
+        <v>1.53</v>
+      </c>
+      <c r="AJ119">
+        <v>2.38</v>
+      </c>
+      <c r="AK119">
+        <v>1.5</v>
+      </c>
+      <c r="AL119">
+        <v>1.24</v>
+      </c>
+      <c r="AM119">
+        <v>1.57</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
+        <v>1</v>
+      </c>
+      <c r="AP119">
+        <v>0.86</v>
+      </c>
+      <c r="AQ119">
+        <v>1.25</v>
+      </c>
+      <c r="AR119">
+        <v>1.39</v>
+      </c>
+      <c r="AS119">
+        <v>1.31</v>
+      </c>
+      <c r="AT119">
+        <v>2.7</v>
+      </c>
+      <c r="AU119">
+        <v>7</v>
+      </c>
+      <c r="AV119">
+        <v>8</v>
+      </c>
+      <c r="AW119">
+        <v>9</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>16</v>
+      </c>
+      <c r="AZ119">
+        <v>13</v>
+      </c>
+      <c r="BA119">
+        <v>4</v>
+      </c>
+      <c r="BB119">
+        <v>7</v>
+      </c>
+      <c r="BC119">
+        <v>11</v>
+      </c>
+      <c r="BD119">
+        <v>1.9</v>
+      </c>
+      <c r="BE119">
+        <v>6.5</v>
+      </c>
+      <c r="BF119">
+        <v>1.97</v>
+      </c>
+      <c r="BG119">
+        <v>1.18</v>
+      </c>
+      <c r="BH119">
+        <v>4.3</v>
+      </c>
+      <c r="BI119">
+        <v>1.32</v>
+      </c>
+      <c r="BJ119">
+        <v>3.05</v>
+      </c>
+      <c r="BK119">
+        <v>1.53</v>
+      </c>
+      <c r="BL119">
+        <v>2.3</v>
+      </c>
+      <c r="BM119">
+        <v>2</v>
+      </c>
+      <c r="BN119">
+        <v>1.8</v>
+      </c>
+      <c r="BO119">
+        <v>2.28</v>
+      </c>
+      <c r="BP119">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7292551</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45494.375</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>70</v>
+      </c>
+      <c r="H120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>175</v>
+      </c>
+      <c r="P120" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q120">
+        <v>2.38</v>
+      </c>
+      <c r="R120">
+        <v>2.38</v>
+      </c>
+      <c r="S120">
+        <v>4.33</v>
+      </c>
+      <c r="T120">
+        <v>1.3</v>
+      </c>
+      <c r="U120">
+        <v>3.4</v>
+      </c>
+      <c r="V120">
+        <v>2.38</v>
+      </c>
+      <c r="W120">
+        <v>1.53</v>
+      </c>
+      <c r="X120">
+        <v>6</v>
+      </c>
+      <c r="Y120">
+        <v>1.13</v>
+      </c>
+      <c r="Z120">
+        <v>1.86</v>
+      </c>
+      <c r="AA120">
+        <v>3.9</v>
+      </c>
+      <c r="AB120">
+        <v>3.84</v>
+      </c>
+      <c r="AC120">
+        <v>1.03</v>
+      </c>
+      <c r="AD120">
+        <v>15</v>
+      </c>
+      <c r="AE120">
+        <v>1.2</v>
+      </c>
+      <c r="AF120">
+        <v>4.5</v>
+      </c>
+      <c r="AG120">
+        <v>1.58</v>
+      </c>
+      <c r="AH120">
+        <v>2.2</v>
+      </c>
+      <c r="AI120">
+        <v>1.62</v>
+      </c>
+      <c r="AJ120">
+        <v>2.2</v>
+      </c>
+      <c r="AK120">
+        <v>1.25</v>
+      </c>
+      <c r="AL120">
+        <v>1.22</v>
+      </c>
+      <c r="AM120">
+        <v>2</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
+        <v>0.86</v>
+      </c>
+      <c r="AP120">
+        <v>1.29</v>
+      </c>
+      <c r="AQ120">
+        <v>0.75</v>
+      </c>
+      <c r="AR120">
+        <v>1.29</v>
+      </c>
+      <c r="AS120">
+        <v>0.93</v>
+      </c>
+      <c r="AT120">
+        <v>2.22</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>5</v>
+      </c>
+      <c r="AW120">
+        <v>2</v>
+      </c>
+      <c r="AX120">
+        <v>5</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>10</v>
+      </c>
+      <c r="BA120">
+        <v>4</v>
+      </c>
+      <c r="BB120">
+        <v>3</v>
+      </c>
+      <c r="BC120">
+        <v>7</v>
+      </c>
+      <c r="BD120">
+        <v>1.58</v>
+      </c>
+      <c r="BE120">
+        <v>6.75</v>
+      </c>
+      <c r="BF120">
+        <v>2.43</v>
+      </c>
+      <c r="BG120">
+        <v>1.18</v>
+      </c>
+      <c r="BH120">
+        <v>4.3</v>
+      </c>
+      <c r="BI120">
+        <v>1.3</v>
+      </c>
+      <c r="BJ120">
+        <v>3.05</v>
+      </c>
+      <c r="BK120">
+        <v>1.52</v>
+      </c>
+      <c r="BL120">
+        <v>2.32</v>
+      </c>
+      <c r="BM120">
+        <v>1.82</v>
+      </c>
+      <c r="BN120">
+        <v>1.86</v>
+      </c>
+      <c r="BO120">
+        <v>2.25</v>
+      </c>
+      <c r="BP120">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7292552</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45494.47916666666</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>176</v>
+      </c>
+      <c r="P121" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q121">
+        <v>2.6</v>
+      </c>
+      <c r="R121">
+        <v>2.25</v>
+      </c>
+      <c r="S121">
+        <v>4</v>
+      </c>
+      <c r="T121">
+        <v>1.36</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
+        <v>2.63</v>
+      </c>
+      <c r="W121">
+        <v>1.44</v>
+      </c>
+      <c r="X121">
+        <v>7</v>
+      </c>
+      <c r="Y121">
+        <v>1.1</v>
+      </c>
+      <c r="Z121">
+        <v>1.8</v>
+      </c>
+      <c r="AA121">
+        <v>3.65</v>
+      </c>
+      <c r="AB121">
+        <v>3.75</v>
+      </c>
+      <c r="AC121">
+        <v>1.04</v>
+      </c>
+      <c r="AD121">
+        <v>13</v>
+      </c>
+      <c r="AE121">
+        <v>1.28</v>
+      </c>
+      <c r="AF121">
+        <v>3.75</v>
+      </c>
+      <c r="AG121">
+        <v>1.74</v>
+      </c>
+      <c r="AH121">
+        <v>1.97</v>
+      </c>
+      <c r="AI121">
+        <v>1.75</v>
+      </c>
+      <c r="AJ121">
+        <v>2</v>
+      </c>
+      <c r="AK121">
+        <v>1.26</v>
+      </c>
+      <c r="AL121">
+        <v>1.24</v>
+      </c>
+      <c r="AM121">
+        <v>1.95</v>
+      </c>
+      <c r="AN121">
+        <v>2.29</v>
+      </c>
+      <c r="AO121">
+        <v>1.5</v>
+      </c>
+      <c r="AP121">
+        <v>2.38</v>
+      </c>
+      <c r="AQ121">
+        <v>1.29</v>
+      </c>
+      <c r="AR121">
+        <v>1.74</v>
+      </c>
+      <c r="AS121">
+        <v>1.24</v>
+      </c>
+      <c r="AT121">
+        <v>2.98</v>
+      </c>
+      <c r="AU121">
+        <v>9</v>
+      </c>
+      <c r="AV121">
+        <v>3</v>
+      </c>
+      <c r="AW121">
+        <v>9</v>
+      </c>
+      <c r="AX121">
+        <v>5</v>
+      </c>
+      <c r="AY121">
+        <v>18</v>
+      </c>
+      <c r="AZ121">
+        <v>8</v>
+      </c>
+      <c r="BA121">
+        <v>4</v>
+      </c>
+      <c r="BB121">
+        <v>5</v>
+      </c>
+      <c r="BC121">
+        <v>9</v>
+      </c>
+      <c r="BD121">
+        <v>1.55</v>
+      </c>
+      <c r="BE121">
+        <v>6.75</v>
+      </c>
+      <c r="BF121">
+        <v>2.48</v>
+      </c>
+      <c r="BG121">
+        <v>1.19</v>
+      </c>
+      <c r="BH121">
+        <v>4.1</v>
+      </c>
+      <c r="BI121">
+        <v>1.32</v>
+      </c>
+      <c r="BJ121">
+        <v>3</v>
+      </c>
+      <c r="BK121">
+        <v>1.53</v>
+      </c>
+      <c r="BL121">
+        <v>2.3</v>
+      </c>
+      <c r="BM121">
+        <v>1.83</v>
+      </c>
+      <c r="BN121">
+        <v>1.85</v>
+      </c>
+      <c r="BO121">
+        <v>2.23</v>
+      </c>
+      <c r="BP121">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7292549</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45494.47916666666</v>
+      </c>
+      <c r="F122">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" t="s">
+        <v>82</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>150</v>
+      </c>
+      <c r="P122" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q122">
+        <v>2.63</v>
+      </c>
+      <c r="R122">
+        <v>2.25</v>
+      </c>
+      <c r="S122">
+        <v>3.75</v>
+      </c>
+      <c r="T122">
+        <v>1.33</v>
+      </c>
+      <c r="U122">
+        <v>3.25</v>
+      </c>
+      <c r="V122">
+        <v>2.63</v>
+      </c>
+      <c r="W122">
+        <v>1.44</v>
+      </c>
+      <c r="X122">
+        <v>6.5</v>
+      </c>
+      <c r="Y122">
+        <v>1.11</v>
+      </c>
+      <c r="Z122">
+        <v>2.08</v>
+      </c>
+      <c r="AA122">
+        <v>3.5</v>
+      </c>
+      <c r="AB122">
+        <v>3</v>
+      </c>
+      <c r="AC122">
+        <v>1.04</v>
+      </c>
+      <c r="AD122">
+        <v>13</v>
+      </c>
+      <c r="AE122">
+        <v>1.26</v>
+      </c>
+      <c r="AF122">
+        <v>4</v>
+      </c>
+      <c r="AG122">
+        <v>1.83</v>
+      </c>
+      <c r="AH122">
+        <v>1.85</v>
+      </c>
+      <c r="AI122">
+        <v>1.62</v>
+      </c>
+      <c r="AJ122">
+        <v>2.2</v>
+      </c>
+      <c r="AK122">
+        <v>1.32</v>
+      </c>
+      <c r="AL122">
+        <v>1.24</v>
+      </c>
+      <c r="AM122">
+        <v>1.83</v>
+      </c>
+      <c r="AN122">
+        <v>1.17</v>
+      </c>
+      <c r="AO122">
+        <v>0.67</v>
+      </c>
+      <c r="AP122">
+        <v>1.14</v>
+      </c>
+      <c r="AQ122">
+        <v>0.71</v>
+      </c>
+      <c r="AR122">
+        <v>1.19</v>
+      </c>
+      <c r="AS122">
+        <v>1.63</v>
+      </c>
+      <c r="AT122">
+        <v>2.82</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
+        <v>7</v>
+      </c>
+      <c r="AW122">
+        <v>4</v>
+      </c>
+      <c r="AX122">
+        <v>5</v>
+      </c>
+      <c r="AY122">
+        <v>10</v>
+      </c>
+      <c r="AZ122">
+        <v>12</v>
+      </c>
+      <c r="BA122">
+        <v>7</v>
+      </c>
+      <c r="BB122">
+        <v>7</v>
+      </c>
+      <c r="BC122">
+        <v>14</v>
+      </c>
+      <c r="BD122">
+        <v>1.64</v>
+      </c>
+      <c r="BE122">
+        <v>6.75</v>
+      </c>
+      <c r="BF122">
+        <v>2.33</v>
+      </c>
+      <c r="BG122">
+        <v>1.19</v>
+      </c>
+      <c r="BH122">
+        <v>4.1</v>
+      </c>
+      <c r="BI122">
+        <v>1.33</v>
+      </c>
+      <c r="BJ122">
+        <v>2.95</v>
+      </c>
+      <c r="BK122">
+        <v>1.55</v>
+      </c>
+      <c r="BL122">
+        <v>2.28</v>
+      </c>
+      <c r="BM122">
+        <v>1.88</v>
+      </c>
+      <c r="BN122">
+        <v>1.81</v>
+      </c>
+      <c r="BO122">
+        <v>2.32</v>
+      </c>
+      <c r="BP122">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>['1', '42', '51']</t>
+  </si>
+  <si>
+    <t>['40', '81']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -1116,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1378,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1581,7 +1584,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1787,7 +1790,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1865,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2199,7 +2202,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2817,7 +2820,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3023,7 +3026,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3104,7 +3107,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ10">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4053,7 +4056,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4259,7 +4262,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4465,7 +4468,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4671,7 +4674,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4752,7 +4755,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ18">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR18">
         <v>2.67</v>
@@ -5289,7 +5292,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5701,7 +5704,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5907,7 +5910,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6319,7 +6322,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6937,7 +6940,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7015,7 +7018,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ29">
         <v>1.29</v>
@@ -7555,7 +7558,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7761,7 +7764,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7967,7 +7970,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8173,7 +8176,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8585,7 +8588,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8791,7 +8794,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8997,7 +9000,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9409,7 +9412,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9615,7 +9618,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9902,7 +9905,7 @@
         <v>3</v>
       </c>
       <c r="AQ43">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR43">
         <v>2.45</v>
@@ -10233,7 +10236,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10439,7 +10442,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10851,7 +10854,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11263,7 +11266,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11469,7 +11472,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11675,7 +11678,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11881,7 +11884,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12087,7 +12090,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12293,7 +12296,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12499,7 +12502,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12705,7 +12708,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12783,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ57">
         <v>1.25</v>
@@ -12911,7 +12914,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13117,7 +13120,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13401,7 +13404,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ60">
         <v>0.71</v>
@@ -13529,7 +13532,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13735,7 +13738,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14147,7 +14150,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14353,7 +14356,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14640,7 +14643,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR66">
         <v>1.53</v>
@@ -15177,7 +15180,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15589,7 +15592,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15795,7 +15798,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16001,7 +16004,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16207,7 +16210,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16288,7 +16291,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR74">
         <v>1.46</v>
@@ -16413,7 +16416,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16697,7 +16700,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ76">
         <v>0.75</v>
@@ -16825,7 +16828,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17443,7 +17446,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18345,7 +18348,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -18473,7 +18476,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18885,7 +18888,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19091,7 +19094,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19297,7 +19300,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19503,7 +19506,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20121,7 +20124,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20739,7 +20742,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20945,7 +20948,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21151,7 +21154,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21232,7 +21235,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ98">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR98">
         <v>1.85</v>
@@ -21357,7 +21360,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21769,7 +21772,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22181,7 +22184,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22387,7 +22390,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22671,7 +22674,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ105">
         <v>1.25</v>
@@ -22799,7 +22802,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23005,7 +23008,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23211,7 +23214,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23829,7 +23832,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24035,7 +24038,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24447,7 +24450,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24528,7 +24531,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ114">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR114">
         <v>1</v>
@@ -24653,7 +24656,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24859,7 +24862,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25065,7 +25068,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25477,7 +25480,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26095,7 +26098,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26252,6 +26255,212 @@
       </c>
       <c r="BP122">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7292553</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45495.58333333334</v>
+      </c>
+      <c r="F123">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>72</v>
+      </c>
+      <c r="H123" t="s">
+        <v>76</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>177</v>
+      </c>
+      <c r="P123" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>2.25</v>
+      </c>
+      <c r="S123">
+        <v>3.4</v>
+      </c>
+      <c r="T123">
+        <v>1.33</v>
+      </c>
+      <c r="U123">
+        <v>3.25</v>
+      </c>
+      <c r="V123">
+        <v>2.63</v>
+      </c>
+      <c r="W123">
+        <v>1.44</v>
+      </c>
+      <c r="X123">
+        <v>6.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.11</v>
+      </c>
+      <c r="Z123">
+        <v>2.3</v>
+      </c>
+      <c r="AA123">
+        <v>3.5</v>
+      </c>
+      <c r="AB123">
+        <v>2.5</v>
+      </c>
+      <c r="AC123">
+        <v>1.03</v>
+      </c>
+      <c r="AD123">
+        <v>15</v>
+      </c>
+      <c r="AE123">
+        <v>1.25</v>
+      </c>
+      <c r="AF123">
+        <v>4</v>
+      </c>
+      <c r="AG123">
+        <v>1.57</v>
+      </c>
+      <c r="AH123">
+        <v>2.25</v>
+      </c>
+      <c r="AI123">
+        <v>1.62</v>
+      </c>
+      <c r="AJ123">
+        <v>2.2</v>
+      </c>
+      <c r="AK123">
+        <v>1.44</v>
+      </c>
+      <c r="AL123">
+        <v>1.25</v>
+      </c>
+      <c r="AM123">
+        <v>1.62</v>
+      </c>
+      <c r="AN123">
+        <v>2.29</v>
+      </c>
+      <c r="AO123">
+        <v>0.71</v>
+      </c>
+      <c r="AP123">
+        <v>2.38</v>
+      </c>
+      <c r="AQ123">
+        <v>0.63</v>
+      </c>
+      <c r="AR123">
+        <v>1.52</v>
+      </c>
+      <c r="AS123">
+        <v>1.38</v>
+      </c>
+      <c r="AT123">
+        <v>2.9</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>5</v>
+      </c>
+      <c r="AX123">
+        <v>13</v>
+      </c>
+      <c r="AY123">
+        <v>9</v>
+      </c>
+      <c r="AZ123">
+        <v>16</v>
+      </c>
+      <c r="BA123">
+        <v>7</v>
+      </c>
+      <c r="BB123">
+        <v>7</v>
+      </c>
+      <c r="BC123">
+        <v>14</v>
+      </c>
+      <c r="BD123">
+        <v>1.84</v>
+      </c>
+      <c r="BE123">
+        <v>6.5</v>
+      </c>
+      <c r="BF123">
+        <v>2.02</v>
+      </c>
+      <c r="BG123">
+        <v>1.18</v>
+      </c>
+      <c r="BH123">
+        <v>4.1</v>
+      </c>
+      <c r="BI123">
+        <v>1.32</v>
+      </c>
+      <c r="BJ123">
+        <v>3.05</v>
+      </c>
+      <c r="BK123">
+        <v>1.53</v>
+      </c>
+      <c r="BL123">
+        <v>2.3</v>
+      </c>
+      <c r="BM123">
+        <v>1.84</v>
+      </c>
+      <c r="BN123">
+        <v>1.84</v>
+      </c>
+      <c r="BO123">
+        <v>2.3</v>
+      </c>
+      <c r="BP123">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,12 @@
     <t>['40', '81']</t>
   </si>
   <si>
+    <t>['17', '66']</t>
+  </si>
+  <si>
+    <t>['2', '74', '89']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -758,6 +764,9 @@
   </si>
   <si>
     <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['45+2', '54', '65', '76']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1387,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1456,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>1.89</v>
@@ -1584,7 +1593,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1665,7 +1674,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1790,7 +1799,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1871,7 +1880,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2202,7 +2211,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2280,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>2.14</v>
@@ -2820,7 +2829,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2901,7 +2910,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ9">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3026,7 +3035,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3516,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -3722,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -4056,7 +4065,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4137,7 +4146,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4262,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4468,7 +4477,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4674,7 +4683,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5164,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>0.86</v>
@@ -5292,7 +5301,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5579,7 +5588,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5704,7 +5713,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5910,7 +5919,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -5991,7 +6000,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6322,7 +6331,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6403,7 +6412,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6606,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>0.63</v>
@@ -6812,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ28">
         <v>0.71</v>
@@ -6940,7 +6949,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7558,7 +7567,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7636,10 +7645,10 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>0.76</v>
@@ -7764,7 +7773,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7845,7 +7854,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ33">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -7970,7 +7979,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8051,7 +8060,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8176,7 +8185,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8254,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8463,7 +8472,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ36">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8588,7 +8597,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8666,7 +8675,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>0.75</v>
@@ -8794,7 +8803,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8872,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ38">
         <v>1.25</v>
@@ -9000,7 +9009,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9412,7 +9421,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9618,7 +9627,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9902,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ43">
         <v>0.63</v>
@@ -10236,7 +10245,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10442,7 +10451,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10729,7 +10738,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.73</v>
@@ -10854,7 +10863,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -10935,7 +10944,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ48">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR48">
         <v>1.87</v>
@@ -11266,7 +11275,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11472,7 +11481,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11553,7 +11562,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11678,7 +11687,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11884,7 +11893,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12090,7 +12099,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12296,7 +12305,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12502,7 +12511,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12583,7 +12592,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ56">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR56">
         <v>1.45</v>
@@ -12708,7 +12717,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12914,7 +12923,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -12995,7 +13004,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13120,7 +13129,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13198,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ59">
         <v>1.29</v>
@@ -13532,7 +13541,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13613,7 +13622,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.81</v>
@@ -13738,7 +13747,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13816,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -14150,7 +14159,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14231,7 +14240,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR64">
         <v>0.97</v>
@@ -14356,7 +14365,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14434,7 +14443,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1.89</v>
@@ -14846,7 +14855,7 @@
         <v>2.33</v>
       </c>
       <c r="AP67">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -15180,7 +15189,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15261,7 +15270,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR69">
         <v>1.65</v>
@@ -15464,7 +15473,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ70">
         <v>0.86</v>
@@ -15592,7 +15601,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15798,7 +15807,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16004,7 +16013,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16210,7 +16219,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16416,7 +16425,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16828,7 +16837,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -16909,7 +16918,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
         <v>1.03</v>
@@ -17446,7 +17455,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17730,7 +17739,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>1.29</v>
@@ -17936,10 +17945,10 @@
         <v>1.2</v>
       </c>
       <c r="AP82">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ82">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR82">
         <v>2.18</v>
@@ -18476,7 +18485,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18763,7 +18772,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18888,7 +18897,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -18969,7 +18978,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
         <v>1.67</v>
@@ -19094,7 +19103,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19172,10 +19181,10 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19300,7 +19309,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19506,7 +19515,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19584,7 +19593,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ90">
         <v>0.75</v>
@@ -19996,7 +20005,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>0.75</v>
@@ -20124,7 +20133,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20408,7 +20417,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94">
         <v>0.86</v>
@@ -20742,7 +20751,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20948,7 +20957,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21154,7 +21163,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21360,7 +21369,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21647,7 +21656,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ100">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
         <v>1.64</v>
@@ -21772,7 +21781,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21853,7 +21862,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR101">
         <v>1.4</v>
@@ -22184,7 +22193,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22265,7 +22274,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ103">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22390,7 +22399,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22468,7 +22477,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ104">
         <v>0.75</v>
@@ -22802,7 +22811,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22880,7 +22889,7 @@
         <v>2.4</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>2.14</v>
@@ -23008,7 +23017,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23214,7 +23223,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23707,7 +23716,7 @@
         <v>2</v>
       </c>
       <c r="AQ110">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR110">
         <v>1.61</v>
@@ -23832,7 +23841,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24038,7 +24047,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24325,7 +24334,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ113">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR113">
         <v>1.31</v>
@@ -24450,7 +24459,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24528,7 +24537,7 @@
         <v>0.33</v>
       </c>
       <c r="AP114">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ114">
         <v>0.63</v>
@@ -24656,7 +24665,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24862,7 +24871,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25068,7 +25077,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25480,7 +25489,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25764,7 +25773,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>0.75</v>
@@ -26098,7 +26107,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26176,7 +26185,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>0.71</v>
@@ -26461,6 +26470,830 @@
       </c>
       <c r="BP123">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7292560</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45500.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>70</v>
+      </c>
+      <c r="H124" t="s">
+        <v>83</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>178</v>
+      </c>
+      <c r="P124" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q124">
+        <v>2.88</v>
+      </c>
+      <c r="R124">
+        <v>2.3</v>
+      </c>
+      <c r="S124">
+        <v>3.5</v>
+      </c>
+      <c r="T124">
+        <v>1.32</v>
+      </c>
+      <c r="U124">
+        <v>3.22</v>
+      </c>
+      <c r="V124">
+        <v>2.49</v>
+      </c>
+      <c r="W124">
+        <v>1.5</v>
+      </c>
+      <c r="X124">
+        <v>5.9</v>
+      </c>
+      <c r="Y124">
+        <v>1.11</v>
+      </c>
+      <c r="Z124">
+        <v>2.06</v>
+      </c>
+      <c r="AA124">
+        <v>3.56</v>
+      </c>
+      <c r="AB124">
+        <v>3.39</v>
+      </c>
+      <c r="AC124">
+        <v>1.01</v>
+      </c>
+      <c r="AD124">
+        <v>10.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.19</v>
+      </c>
+      <c r="AF124">
+        <v>3.98</v>
+      </c>
+      <c r="AG124">
+        <v>1.69</v>
+      </c>
+      <c r="AH124">
+        <v>2</v>
+      </c>
+      <c r="AI124">
+        <v>1.62</v>
+      </c>
+      <c r="AJ124">
+        <v>2.2</v>
+      </c>
+      <c r="AK124">
+        <v>1.39</v>
+      </c>
+      <c r="AL124">
+        <v>1.28</v>
+      </c>
+      <c r="AM124">
+        <v>1.66</v>
+      </c>
+      <c r="AN124">
+        <v>1.29</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>1.5</v>
+      </c>
+      <c r="AQ124">
+        <v>1.13</v>
+      </c>
+      <c r="AR124">
+        <v>1.32</v>
+      </c>
+      <c r="AS124">
+        <v>1.14</v>
+      </c>
+      <c r="AT124">
+        <v>2.46</v>
+      </c>
+      <c r="AU124">
+        <v>7</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>5</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>12</v>
+      </c>
+      <c r="AZ124">
+        <v>6</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
+        <v>9</v>
+      </c>
+      <c r="BD124">
+        <v>1.58</v>
+      </c>
+      <c r="BE124">
+        <v>6.75</v>
+      </c>
+      <c r="BF124">
+        <v>2.4</v>
+      </c>
+      <c r="BG124">
+        <v>1.17</v>
+      </c>
+      <c r="BH124">
+        <v>4.4</v>
+      </c>
+      <c r="BI124">
+        <v>1.3</v>
+      </c>
+      <c r="BJ124">
+        <v>3.15</v>
+      </c>
+      <c r="BK124">
+        <v>1.5</v>
+      </c>
+      <c r="BL124">
+        <v>2.38</v>
+      </c>
+      <c r="BM124">
+        <v>1.92</v>
+      </c>
+      <c r="BN124">
+        <v>1.88</v>
+      </c>
+      <c r="BO124">
+        <v>2.23</v>
+      </c>
+      <c r="BP124">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7292559</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45500.52083333334</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>74</v>
+      </c>
+      <c r="H125" t="s">
+        <v>78</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+      <c r="N125">
+        <v>7</v>
+      </c>
+      <c r="O125" t="s">
+        <v>179</v>
+      </c>
+      <c r="P125" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q125">
+        <v>2.63</v>
+      </c>
+      <c r="R125">
+        <v>2.3</v>
+      </c>
+      <c r="S125">
+        <v>3.75</v>
+      </c>
+      <c r="T125">
+        <v>1.33</v>
+      </c>
+      <c r="U125">
+        <v>3.25</v>
+      </c>
+      <c r="V125">
+        <v>2.5</v>
+      </c>
+      <c r="W125">
+        <v>1.5</v>
+      </c>
+      <c r="X125">
+        <v>6.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.11</v>
+      </c>
+      <c r="Z125">
+        <v>2.05</v>
+      </c>
+      <c r="AA125">
+        <v>3.5</v>
+      </c>
+      <c r="AB125">
+        <v>3.3</v>
+      </c>
+      <c r="AC125">
+        <v>1.04</v>
+      </c>
+      <c r="AD125">
+        <v>11</v>
+      </c>
+      <c r="AE125">
+        <v>1.22</v>
+      </c>
+      <c r="AF125">
+        <v>4.2</v>
+      </c>
+      <c r="AG125">
+        <v>1.67</v>
+      </c>
+      <c r="AH125">
+        <v>2.05</v>
+      </c>
+      <c r="AI125">
+        <v>1.62</v>
+      </c>
+      <c r="AJ125">
+        <v>2.2</v>
+      </c>
+      <c r="AK125">
+        <v>1.3</v>
+      </c>
+      <c r="AL125">
+        <v>1.22</v>
+      </c>
+      <c r="AM125">
+        <v>1.77</v>
+      </c>
+      <c r="AN125">
+        <v>1.14</v>
+      </c>
+      <c r="AO125">
+        <v>1.5</v>
+      </c>
+      <c r="AP125">
+        <v>1</v>
+      </c>
+      <c r="AQ125">
+        <v>1.67</v>
+      </c>
+      <c r="AR125">
+        <v>1.17</v>
+      </c>
+      <c r="AS125">
+        <v>1.58</v>
+      </c>
+      <c r="AT125">
+        <v>2.75</v>
+      </c>
+      <c r="AU125">
+        <v>7</v>
+      </c>
+      <c r="AV125">
+        <v>9</v>
+      </c>
+      <c r="AW125">
+        <v>3</v>
+      </c>
+      <c r="AX125">
+        <v>8</v>
+      </c>
+      <c r="AY125">
+        <v>10</v>
+      </c>
+      <c r="AZ125">
+        <v>17</v>
+      </c>
+      <c r="BA125">
+        <v>10</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>14</v>
+      </c>
+      <c r="BD125">
+        <v>1.53</v>
+      </c>
+      <c r="BE125">
+        <v>7</v>
+      </c>
+      <c r="BF125">
+        <v>2.55</v>
+      </c>
+      <c r="BG125">
+        <v>1.15</v>
+      </c>
+      <c r="BH125">
+        <v>4.6</v>
+      </c>
+      <c r="BI125">
+        <v>1.26</v>
+      </c>
+      <c r="BJ125">
+        <v>3.4</v>
+      </c>
+      <c r="BK125">
+        <v>1.45</v>
+      </c>
+      <c r="BL125">
+        <v>2.55</v>
+      </c>
+      <c r="BM125">
+        <v>1.82</v>
+      </c>
+      <c r="BN125">
+        <v>1.98</v>
+      </c>
+      <c r="BO125">
+        <v>2.1</v>
+      </c>
+      <c r="BP125">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7292564</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45500.52083333334</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" t="s">
+        <v>75</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>88</v>
+      </c>
+      <c r="P126" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q126">
+        <v>1.65</v>
+      </c>
+      <c r="R126">
+        <v>2.8</v>
+      </c>
+      <c r="S126">
+        <v>6.5</v>
+      </c>
+      <c r="T126">
+        <v>1.2</v>
+      </c>
+      <c r="U126">
+        <v>4</v>
+      </c>
+      <c r="V126">
+        <v>1.93</v>
+      </c>
+      <c r="W126">
+        <v>1.77</v>
+      </c>
+      <c r="X126">
+        <v>3.92</v>
+      </c>
+      <c r="Y126">
+        <v>1.23</v>
+      </c>
+      <c r="Z126">
+        <v>1.25</v>
+      </c>
+      <c r="AA126">
+        <v>6.25</v>
+      </c>
+      <c r="AB126">
+        <v>9.25</v>
+      </c>
+      <c r="AC126">
+        <v>1.01</v>
+      </c>
+      <c r="AD126">
+        <v>34</v>
+      </c>
+      <c r="AE126">
+        <v>1.11</v>
+      </c>
+      <c r="AF126">
+        <v>6.5</v>
+      </c>
+      <c r="AG126">
+        <v>1.34</v>
+      </c>
+      <c r="AH126">
+        <v>2.99</v>
+      </c>
+      <c r="AI126">
+        <v>1.62</v>
+      </c>
+      <c r="AJ126">
+        <v>2.15</v>
+      </c>
+      <c r="AK126">
+        <v>1.05</v>
+      </c>
+      <c r="AL126">
+        <v>1.11</v>
+      </c>
+      <c r="AM126">
+        <v>3.8</v>
+      </c>
+      <c r="AN126">
+        <v>3</v>
+      </c>
+      <c r="AO126">
+        <v>1</v>
+      </c>
+      <c r="AP126">
+        <v>2.63</v>
+      </c>
+      <c r="AQ126">
+        <v>1.25</v>
+      </c>
+      <c r="AR126">
+        <v>2.24</v>
+      </c>
+      <c r="AS126">
+        <v>1.21</v>
+      </c>
+      <c r="AT126">
+        <v>3.45</v>
+      </c>
+      <c r="AU126">
+        <v>10</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>9</v>
+      </c>
+      <c r="AX126">
+        <v>4</v>
+      </c>
+      <c r="AY126">
+        <v>19</v>
+      </c>
+      <c r="AZ126">
+        <v>8</v>
+      </c>
+      <c r="BA126">
+        <v>8</v>
+      </c>
+      <c r="BB126">
+        <v>10</v>
+      </c>
+      <c r="BC126">
+        <v>18</v>
+      </c>
+      <c r="BD126">
+        <v>1.2</v>
+      </c>
+      <c r="BE126">
+        <v>8</v>
+      </c>
+      <c r="BF126">
+        <v>4.4</v>
+      </c>
+      <c r="BG126">
+        <v>1.16</v>
+      </c>
+      <c r="BH126">
+        <v>4.4</v>
+      </c>
+      <c r="BI126">
+        <v>1.29</v>
+      </c>
+      <c r="BJ126">
+        <v>3.2</v>
+      </c>
+      <c r="BK126">
+        <v>1.49</v>
+      </c>
+      <c r="BL126">
+        <v>2.43</v>
+      </c>
+      <c r="BM126">
+        <v>1.8</v>
+      </c>
+      <c r="BN126">
+        <v>2</v>
+      </c>
+      <c r="BO126">
+        <v>2.12</v>
+      </c>
+      <c r="BP126">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7292563</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45500.625</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>81</v>
+      </c>
+      <c r="H127" t="s">
+        <v>84</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>119</v>
+      </c>
+      <c r="P127" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q127">
+        <v>3.68</v>
+      </c>
+      <c r="R127">
+        <v>2.18</v>
+      </c>
+      <c r="S127">
+        <v>2.76</v>
+      </c>
+      <c r="T127">
+        <v>1.36</v>
+      </c>
+      <c r="U127">
+        <v>2.99</v>
+      </c>
+      <c r="V127">
+        <v>2.67</v>
+      </c>
+      <c r="W127">
+        <v>1.44</v>
+      </c>
+      <c r="X127">
+        <v>6.65</v>
+      </c>
+      <c r="Y127">
+        <v>1.09</v>
+      </c>
+      <c r="Z127">
+        <v>2.87</v>
+      </c>
+      <c r="AA127">
+        <v>3.4</v>
+      </c>
+      <c r="AB127">
+        <v>2.3</v>
+      </c>
+      <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE127">
+        <v>1.24</v>
+      </c>
+      <c r="AF127">
+        <v>3.5</v>
+      </c>
+      <c r="AG127">
+        <v>1.85</v>
+      </c>
+      <c r="AH127">
+        <v>2</v>
+      </c>
+      <c r="AI127">
+        <v>1.68</v>
+      </c>
+      <c r="AJ127">
+        <v>2.11</v>
+      </c>
+      <c r="AK127">
+        <v>1.66</v>
+      </c>
+      <c r="AL127">
+        <v>1.3</v>
+      </c>
+      <c r="AM127">
+        <v>1.36</v>
+      </c>
+      <c r="AN127">
+        <v>1.71</v>
+      </c>
+      <c r="AO127">
+        <v>1.86</v>
+      </c>
+      <c r="AP127">
+        <v>1.88</v>
+      </c>
+      <c r="AQ127">
+        <v>1.63</v>
+      </c>
+      <c r="AR127">
+        <v>0.99</v>
+      </c>
+      <c r="AS127">
+        <v>1.31</v>
+      </c>
+      <c r="AT127">
+        <v>2.3</v>
+      </c>
+      <c r="AU127">
+        <v>6</v>
+      </c>
+      <c r="AV127">
+        <v>5</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>6</v>
+      </c>
+      <c r="AY127">
+        <v>9</v>
+      </c>
+      <c r="AZ127">
+        <v>11</v>
+      </c>
+      <c r="BA127">
+        <v>4</v>
+      </c>
+      <c r="BB127">
+        <v>6</v>
+      </c>
+      <c r="BC127">
+        <v>10</v>
+      </c>
+      <c r="BD127">
+        <v>2.15</v>
+      </c>
+      <c r="BE127">
+        <v>6.75</v>
+      </c>
+      <c r="BF127">
+        <v>1.74</v>
+      </c>
+      <c r="BG127">
+        <v>1.23</v>
+      </c>
+      <c r="BH127">
+        <v>3.7</v>
+      </c>
+      <c r="BI127">
+        <v>1.4</v>
+      </c>
+      <c r="BJ127">
+        <v>2.7</v>
+      </c>
+      <c r="BK127">
+        <v>1.66</v>
+      </c>
+      <c r="BL127">
+        <v>2.08</v>
+      </c>
+      <c r="BM127">
+        <v>2</v>
+      </c>
+      <c r="BN127">
+        <v>1.71</v>
+      </c>
+      <c r="BO127">
+        <v>2.5</v>
+      </c>
+      <c r="BP127">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,7 +553,16 @@
     <t>['17', '66']</t>
   </si>
   <si>
-    <t>['2', '74', '89']</t>
+    <t>['2', '73', '88']</t>
+  </si>
+  <si>
+    <t>['3', '23', '60', '89']</t>
+  </si>
+  <si>
+    <t>['50', '59', '87']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -766,7 +775,10 @@
     <t>['90+9']</t>
   </si>
   <si>
-    <t>['45+2', '54', '65', '76']</t>
+    <t>['45+2', '52', '64', '75']</t>
+  </si>
+  <si>
+    <t>['36', '77']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1399,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1593,7 +1605,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1671,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -1799,7 +1811,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2083,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2211,7 +2223,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2292,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2704,7 +2716,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2829,7 +2841,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2907,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ9">
         <v>1.63</v>
@@ -3035,7 +3047,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -4065,7 +4077,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4271,7 +4283,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4477,7 +4489,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4683,7 +4695,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5301,7 +5313,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5713,7 +5725,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5919,7 +5931,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -5997,7 +6009,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6203,7 +6215,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6331,7 +6343,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6824,7 +6836,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ28">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR28">
         <v>2.62</v>
@@ -6949,7 +6961,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7030,7 +7042,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR29">
         <v>1.27</v>
@@ -7236,7 +7248,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ30">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7439,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ31">
         <v>1.25</v>
@@ -7567,7 +7579,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7773,7 +7785,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7851,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ33">
         <v>1.13</v>
@@ -7979,7 +7991,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8185,7 +8197,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8597,7 +8609,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8803,7 +8815,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9009,7 +9021,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9296,7 +9308,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ40">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -9421,7 +9433,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9627,7 +9639,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10245,7 +10257,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10323,7 +10335,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ45">
         <v>0.63</v>
@@ -10451,7 +10463,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10735,7 +10747,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ47">
         <v>1.25</v>
@@ -10863,7 +10875,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11147,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -11275,7 +11287,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11481,7 +11493,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11687,7 +11699,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11893,7 +11905,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -11971,7 +11983,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53">
         <v>1.89</v>
@@ -12099,7 +12111,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12180,7 +12192,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -12305,7 +12317,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12511,7 +12523,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12589,7 +12601,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ56">
         <v>1.63</v>
@@ -12717,7 +12729,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12923,7 +12935,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13129,7 +13141,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13210,7 +13222,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ59">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR59">
         <v>0.92</v>
@@ -13416,7 +13428,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ60">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13541,7 +13553,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13619,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ61">
         <v>1.13</v>
@@ -13747,7 +13759,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14159,7 +14171,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14365,7 +14377,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14649,7 +14661,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
         <v>0.63</v>
@@ -15189,7 +15201,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15601,7 +15613,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15807,7 +15819,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16013,7 +16025,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16094,7 +16106,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ73">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16219,7 +16231,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16297,7 +16309,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ74">
         <v>0.63</v>
@@ -16425,7 +16437,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16837,7 +16849,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17124,7 +17136,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17455,7 +17467,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17533,7 +17545,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ80">
         <v>1.89</v>
@@ -17742,7 +17754,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18151,7 +18163,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ83">
         <v>0.75</v>
@@ -18485,7 +18497,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18566,7 +18578,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ85">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -18769,7 +18781,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ86">
         <v>1.25</v>
@@ -18897,7 +18909,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19103,7 +19115,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19309,7 +19321,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19515,7 +19527,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20133,7 +20145,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20751,7 +20763,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20957,7 +20969,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21038,7 +21050,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ97">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR97">
         <v>1.29</v>
@@ -21163,7 +21175,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21241,7 +21253,7 @@
         <v>0.4</v>
       </c>
       <c r="AP98">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ98">
         <v>0.63</v>
@@ -21369,7 +21381,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21450,7 +21462,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ99">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR99">
         <v>1.17</v>
@@ -21653,7 +21665,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ100">
         <v>1.67</v>
@@ -21781,7 +21793,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22193,7 +22205,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22399,7 +22411,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22811,7 +22823,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22892,7 +22904,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR106">
         <v>1.38</v>
@@ -23017,7 +23029,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23223,7 +23235,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23841,7 +23853,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24047,7 +24059,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24125,7 +24137,7 @@
         <v>0.43</v>
       </c>
       <c r="AP112">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ112">
         <v>0.75</v>
@@ -24459,7 +24471,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24665,7 +24677,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24743,7 +24755,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ115">
         <v>1.25</v>
@@ -24871,7 +24883,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25077,7 +25089,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25364,7 +25376,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ118">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR118">
         <v>1.29</v>
@@ -25489,7 +25501,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25979,10 +25991,10 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ121">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26107,7 +26119,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26188,7 +26200,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR122">
         <v>1.19</v>
@@ -26725,7 +26737,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27294,6 +27306,624 @@
       </c>
       <c r="BP127">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7292562</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45501.47916666666</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" t="s">
+        <v>82</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>180</v>
+      </c>
+      <c r="P128" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q128">
+        <v>2.1</v>
+      </c>
+      <c r="R128">
+        <v>2.6</v>
+      </c>
+      <c r="S128">
+        <v>4.5</v>
+      </c>
+      <c r="T128">
+        <v>1.22</v>
+      </c>
+      <c r="U128">
+        <v>4</v>
+      </c>
+      <c r="V128">
+        <v>2.1</v>
+      </c>
+      <c r="W128">
+        <v>1.67</v>
+      </c>
+      <c r="X128">
+        <v>4.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.18</v>
+      </c>
+      <c r="Z128">
+        <v>1.6</v>
+      </c>
+      <c r="AA128">
+        <v>4.33</v>
+      </c>
+      <c r="AB128">
+        <v>4.33</v>
+      </c>
+      <c r="AC128">
+        <v>1.03</v>
+      </c>
+      <c r="AD128">
+        <v>26</v>
+      </c>
+      <c r="AE128">
+        <v>1.1</v>
+      </c>
+      <c r="AF128">
+        <v>5.55</v>
+      </c>
+      <c r="AG128">
+        <v>1.4</v>
+      </c>
+      <c r="AH128">
+        <v>2.75</v>
+      </c>
+      <c r="AI128">
+        <v>1.5</v>
+      </c>
+      <c r="AJ128">
+        <v>2.5</v>
+      </c>
+      <c r="AK128">
+        <v>1.22</v>
+      </c>
+      <c r="AL128">
+        <v>1.18</v>
+      </c>
+      <c r="AM128">
+        <v>2.2</v>
+      </c>
+      <c r="AN128">
+        <v>1.63</v>
+      </c>
+      <c r="AO128">
+        <v>0.71</v>
+      </c>
+      <c r="AP128">
+        <v>1.78</v>
+      </c>
+      <c r="AQ128">
+        <v>0.63</v>
+      </c>
+      <c r="AR128">
+        <v>1.82</v>
+      </c>
+      <c r="AS128">
+        <v>1.58</v>
+      </c>
+      <c r="AT128">
+        <v>3.4</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>8</v>
+      </c>
+      <c r="AW128">
+        <v>0</v>
+      </c>
+      <c r="AX128">
+        <v>5</v>
+      </c>
+      <c r="AY128">
+        <v>7</v>
+      </c>
+      <c r="AZ128">
+        <v>13</v>
+      </c>
+      <c r="BA128">
+        <v>2</v>
+      </c>
+      <c r="BB128">
+        <v>10</v>
+      </c>
+      <c r="BC128">
+        <v>12</v>
+      </c>
+      <c r="BD128">
+        <v>1.49</v>
+      </c>
+      <c r="BE128">
+        <v>6.75</v>
+      </c>
+      <c r="BF128">
+        <v>2.65</v>
+      </c>
+      <c r="BG128">
+        <v>1.15</v>
+      </c>
+      <c r="BH128">
+        <v>4.8</v>
+      </c>
+      <c r="BI128">
+        <v>1.26</v>
+      </c>
+      <c r="BJ128">
+        <v>3.4</v>
+      </c>
+      <c r="BK128">
+        <v>1.45</v>
+      </c>
+      <c r="BL128">
+        <v>2.55</v>
+      </c>
+      <c r="BM128">
+        <v>1.8</v>
+      </c>
+      <c r="BN128">
+        <v>2</v>
+      </c>
+      <c r="BO128">
+        <v>2.07</v>
+      </c>
+      <c r="BP128">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7292558</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45501.47916666666</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>71</v>
+      </c>
+      <c r="H129" t="s">
+        <v>79</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>181</v>
+      </c>
+      <c r="P129" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q129">
+        <v>2.88</v>
+      </c>
+      <c r="R129">
+        <v>2.2</v>
+      </c>
+      <c r="S129">
+        <v>3.75</v>
+      </c>
+      <c r="T129">
+        <v>1.4</v>
+      </c>
+      <c r="U129">
+        <v>2.75</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>8</v>
+      </c>
+      <c r="Y129">
+        <v>1.08</v>
+      </c>
+      <c r="Z129">
+        <v>2.1</v>
+      </c>
+      <c r="AA129">
+        <v>3.4</v>
+      </c>
+      <c r="AB129">
+        <v>3.15</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>12</v>
+      </c>
+      <c r="AE129">
+        <v>1.3</v>
+      </c>
+      <c r="AF129">
+        <v>3.6</v>
+      </c>
+      <c r="AG129">
+        <v>1.85</v>
+      </c>
+      <c r="AH129">
+        <v>1.85</v>
+      </c>
+      <c r="AI129">
+        <v>1.75</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>1.4</v>
+      </c>
+      <c r="AL129">
+        <v>1.26</v>
+      </c>
+      <c r="AM129">
+        <v>1.65</v>
+      </c>
+      <c r="AN129">
+        <v>2.14</v>
+      </c>
+      <c r="AO129">
+        <v>1.29</v>
+      </c>
+      <c r="AP129">
+        <v>2.25</v>
+      </c>
+      <c r="AQ129">
+        <v>1.13</v>
+      </c>
+      <c r="AR129">
+        <v>1.54</v>
+      </c>
+      <c r="AS129">
+        <v>1.22</v>
+      </c>
+      <c r="AT129">
+        <v>2.76</v>
+      </c>
+      <c r="AU129">
+        <v>8</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
+        <v>5</v>
+      </c>
+      <c r="AX129">
+        <v>2</v>
+      </c>
+      <c r="AY129">
+        <v>13</v>
+      </c>
+      <c r="AZ129">
+        <v>6</v>
+      </c>
+      <c r="BA129">
+        <v>7</v>
+      </c>
+      <c r="BB129">
+        <v>5</v>
+      </c>
+      <c r="BC129">
+        <v>12</v>
+      </c>
+      <c r="BD129">
+        <v>1.76</v>
+      </c>
+      <c r="BE129">
+        <v>6.75</v>
+      </c>
+      <c r="BF129">
+        <v>2.12</v>
+      </c>
+      <c r="BG129">
+        <v>1.2</v>
+      </c>
+      <c r="BH129">
+        <v>3.95</v>
+      </c>
+      <c r="BI129">
+        <v>1.36</v>
+      </c>
+      <c r="BJ129">
+        <v>2.8</v>
+      </c>
+      <c r="BK129">
+        <v>1.58</v>
+      </c>
+      <c r="BL129">
+        <v>2.18</v>
+      </c>
+      <c r="BM129">
+        <v>1.93</v>
+      </c>
+      <c r="BN129">
+        <v>1.77</v>
+      </c>
+      <c r="BO129">
+        <v>2.4</v>
+      </c>
+      <c r="BP129">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7292561</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45501.52083333334</v>
+      </c>
+      <c r="F130">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>77</v>
+      </c>
+      <c r="H130" t="s">
+        <v>85</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>182</v>
+      </c>
+      <c r="P130" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q130">
+        <v>3</v>
+      </c>
+      <c r="R130">
+        <v>2.25</v>
+      </c>
+      <c r="S130">
+        <v>3.25</v>
+      </c>
+      <c r="T130">
+        <v>1.33</v>
+      </c>
+      <c r="U130">
+        <v>3.25</v>
+      </c>
+      <c r="V130">
+        <v>2.63</v>
+      </c>
+      <c r="W130">
+        <v>1.44</v>
+      </c>
+      <c r="X130">
+        <v>6.5</v>
+      </c>
+      <c r="Y130">
+        <v>1.11</v>
+      </c>
+      <c r="Z130">
+        <v>2.4</v>
+      </c>
+      <c r="AA130">
+        <v>3.4</v>
+      </c>
+      <c r="AB130">
+        <v>2.7</v>
+      </c>
+      <c r="AC130">
+        <v>1.03</v>
+      </c>
+      <c r="AD130">
+        <v>13</v>
+      </c>
+      <c r="AE130">
+        <v>1.24</v>
+      </c>
+      <c r="AF130">
+        <v>4.2</v>
+      </c>
+      <c r="AG130">
+        <v>1.7</v>
+      </c>
+      <c r="AH130">
+        <v>2</v>
+      </c>
+      <c r="AI130">
+        <v>1.62</v>
+      </c>
+      <c r="AJ130">
+        <v>2.2</v>
+      </c>
+      <c r="AK130">
+        <v>1.45</v>
+      </c>
+      <c r="AL130">
+        <v>1.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.6</v>
+      </c>
+      <c r="AN130">
+        <v>2.38</v>
+      </c>
+      <c r="AO130">
+        <v>2.14</v>
+      </c>
+      <c r="AP130">
+        <v>2.11</v>
+      </c>
+      <c r="AQ130">
+        <v>2.25</v>
+      </c>
+      <c r="AR130">
+        <v>1.78</v>
+      </c>
+      <c r="AS130">
+        <v>1.69</v>
+      </c>
+      <c r="AT130">
+        <v>3.47</v>
+      </c>
+      <c r="AU130">
+        <v>4</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>7</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>11</v>
+      </c>
+      <c r="AZ130">
+        <v>6</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>8</v>
+      </c>
+      <c r="BD130">
+        <v>1.9</v>
+      </c>
+      <c r="BE130">
+        <v>6.1</v>
+      </c>
+      <c r="BF130">
+        <v>2</v>
+      </c>
+      <c r="BG130">
+        <v>1.22</v>
+      </c>
+      <c r="BH130">
+        <v>3.7</v>
+      </c>
+      <c r="BI130">
+        <v>1.4</v>
+      </c>
+      <c r="BJ130">
+        <v>2.7</v>
+      </c>
+      <c r="BK130">
+        <v>1.65</v>
+      </c>
+      <c r="BL130">
+        <v>2.08</v>
+      </c>
+      <c r="BM130">
+        <v>2.05</v>
+      </c>
+      <c r="BN130">
+        <v>1.68</v>
+      </c>
+      <c r="BO130">
+        <v>2.55</v>
+      </c>
+      <c r="BP130">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -780,6 +780,9 @@
   <si>
     <t>['36', '77']</t>
   </si>
+  <si>
+    <t>['3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1140,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2713,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8">
         <v>0.63</v>
@@ -4364,7 +4367,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ16">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5188,7 +5191,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR20">
         <v>1.32</v>
@@ -7245,7 +7248,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ30">
         <v>2.25</v>
@@ -8481,7 +8484,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36">
         <v>1.63</v>
@@ -9102,7 +9105,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ39">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -10132,7 +10135,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -12395,7 +12398,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ55">
         <v>0.63</v>
@@ -13013,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ58">
         <v>1.25</v>
@@ -15488,7 +15491,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ70">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>2.17</v>
@@ -19399,7 +19402,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ89">
         <v>1.25</v>
@@ -20432,7 +20435,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ94">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR94">
         <v>0.93</v>
@@ -22283,7 +22286,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103">
         <v>1.13</v>
@@ -23522,7 +23525,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ109">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR109">
         <v>1.73</v>
@@ -27466,13 +27469,13 @@
         <v>13</v>
       </c>
       <c r="BA128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC128">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD128">
         <v>1.49</v>
@@ -27924,6 +27927,212 @@
       </c>
       <c r="BP130">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7292557</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45502.58333333334</v>
+      </c>
+      <c r="F131">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s">
+        <v>72</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>88</v>
+      </c>
+      <c r="P131" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q131">
+        <v>2.4</v>
+      </c>
+      <c r="R131">
+        <v>2.3</v>
+      </c>
+      <c r="S131">
+        <v>4.33</v>
+      </c>
+      <c r="T131">
+        <v>1.33</v>
+      </c>
+      <c r="U131">
+        <v>3.25</v>
+      </c>
+      <c r="V131">
+        <v>2.63</v>
+      </c>
+      <c r="W131">
+        <v>1.44</v>
+      </c>
+      <c r="X131">
+        <v>6.5</v>
+      </c>
+      <c r="Y131">
+        <v>1.11</v>
+      </c>
+      <c r="Z131">
+        <v>1.8</v>
+      </c>
+      <c r="AA131">
+        <v>3.75</v>
+      </c>
+      <c r="AB131">
+        <v>4</v>
+      </c>
+      <c r="AC131">
+        <v>1.03</v>
+      </c>
+      <c r="AD131">
+        <v>15</v>
+      </c>
+      <c r="AE131">
+        <v>1.25</v>
+      </c>
+      <c r="AF131">
+        <v>4</v>
+      </c>
+      <c r="AG131">
+        <v>1.61</v>
+      </c>
+      <c r="AH131">
+        <v>2.14</v>
+      </c>
+      <c r="AI131">
+        <v>1.7</v>
+      </c>
+      <c r="AJ131">
+        <v>2.05</v>
+      </c>
+      <c r="AK131">
+        <v>1.25</v>
+      </c>
+      <c r="AL131">
+        <v>1.22</v>
+      </c>
+      <c r="AM131">
+        <v>2</v>
+      </c>
+      <c r="AN131">
+        <v>2.14</v>
+      </c>
+      <c r="AO131">
+        <v>0.86</v>
+      </c>
+      <c r="AP131">
+        <v>1.88</v>
+      </c>
+      <c r="AQ131">
+        <v>1.13</v>
+      </c>
+      <c r="AR131">
+        <v>1.69</v>
+      </c>
+      <c r="AS131">
+        <v>1.57</v>
+      </c>
+      <c r="AT131">
+        <v>3.26</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>3</v>
+      </c>
+      <c r="AW131">
+        <v>13</v>
+      </c>
+      <c r="AX131">
+        <v>3</v>
+      </c>
+      <c r="AY131">
+        <v>18</v>
+      </c>
+      <c r="AZ131">
+        <v>6</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>2</v>
+      </c>
+      <c r="BC131">
+        <v>8</v>
+      </c>
+      <c r="BD131">
+        <v>1.64</v>
+      </c>
+      <c r="BE131">
+        <v>6.75</v>
+      </c>
+      <c r="BF131">
+        <v>2.32</v>
+      </c>
+      <c r="BG131">
+        <v>1.1</v>
+      </c>
+      <c r="BH131">
+        <v>5.55</v>
+      </c>
+      <c r="BI131">
+        <v>1.22</v>
+      </c>
+      <c r="BJ131">
+        <v>3.65</v>
+      </c>
+      <c r="BK131">
+        <v>1.42</v>
+      </c>
+      <c r="BL131">
+        <v>2.65</v>
+      </c>
+      <c r="BM131">
+        <v>1.73</v>
+      </c>
+      <c r="BN131">
+        <v>2.04</v>
+      </c>
+      <c r="BO131">
+        <v>2.14</v>
+      </c>
+      <c r="BP131">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,18 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['1', '36', '45', '85']</t>
+  </si>
+  <si>
+    <t>['51', '63']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -782,6 +794,18 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['25', '34']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['10', '36', '69', '84']</t>
+  </si>
+  <si>
+    <t>['30', '62', '66', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1426,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1608,7 +1632,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1814,7 +1838,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1892,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ4">
         <v>1.67</v>
@@ -2226,7 +2250,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2513,7 +2537,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2844,7 +2868,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3050,7 +3074,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3128,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ10">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3337,7 +3361,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ11">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3543,7 +3567,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3749,7 +3773,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3952,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -4080,7 +4104,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4158,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4286,7 +4310,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4364,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -4492,7 +4516,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4570,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -4698,7 +4722,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4779,7 +4803,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ18">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR18">
         <v>2.67</v>
@@ -4982,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>1.04</v>
@@ -5316,7 +5340,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5394,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5600,10 +5624,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5728,7 +5752,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5806,7 +5830,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ23">
         <v>1.89</v>
@@ -5934,7 +5958,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6346,7 +6370,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6633,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR27">
         <v>0.78</v>
@@ -6964,7 +6988,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7042,7 +7066,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ29">
         <v>1.13</v>
@@ -7457,7 +7481,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR31">
         <v>1.67</v>
@@ -7582,7 +7606,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7788,7 +7812,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7994,7 +8018,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8072,10 +8096,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8200,7 +8224,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8612,7 +8636,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8818,7 +8842,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8899,7 +8923,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR38">
         <v>0.8</v>
@@ -9024,7 +9048,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9102,7 +9126,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ39">
         <v>1.13</v>
@@ -9308,7 +9332,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ40">
         <v>1.13</v>
@@ -9436,7 +9460,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9514,7 +9538,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ41">
         <v>1.89</v>
@@ -9642,7 +9666,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9720,10 +9744,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>0.88</v>
@@ -9929,7 +9953,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ43">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
         <v>2.45</v>
@@ -10132,7 +10156,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ44">
         <v>1.13</v>
@@ -10260,7 +10284,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10341,7 +10365,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ45">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10466,7 +10490,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10544,10 +10568,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR46">
         <v>1.52</v>
@@ -10753,7 +10777,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR47">
         <v>1.73</v>
@@ -10878,7 +10902,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11290,7 +11314,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11368,10 +11392,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR50">
         <v>1.18</v>
@@ -11496,7 +11520,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11702,7 +11726,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11908,7 +11932,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12114,7 +12138,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12192,7 +12216,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ54">
         <v>2.25</v>
@@ -12320,7 +12344,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12401,7 +12425,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ55">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR55">
         <v>1.19</v>
@@ -12526,7 +12550,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12732,7 +12756,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12810,10 +12834,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -12938,7 +12962,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13019,7 +13043,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ58">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13144,7 +13168,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13428,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ60">
         <v>0.63</v>
@@ -13556,7 +13580,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13762,7 +13786,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13843,7 +13867,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR62">
         <v>1.3</v>
@@ -14046,7 +14070,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ63">
         <v>0.75</v>
@@ -14174,7 +14198,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14252,7 +14276,7 @@
         <v>1.75</v>
       </c>
       <c r="AP64">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ64">
         <v>1.67</v>
@@ -14380,7 +14404,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14667,7 +14691,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ66">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR66">
         <v>1.53</v>
@@ -15079,7 +15103,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ68">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15204,7 +15228,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15282,7 +15306,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ69">
         <v>1.63</v>
@@ -15616,7 +15640,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15697,7 +15721,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR71">
         <v>1.6</v>
@@ -15822,7 +15846,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15900,10 +15924,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ72">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR72">
         <v>1.31</v>
@@ -16028,7 +16052,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16106,7 +16130,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
         <v>2.25</v>
@@ -16234,7 +16258,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16315,7 +16339,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ74">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR74">
         <v>1.46</v>
@@ -16440,7 +16464,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16518,10 +16542,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ75">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16724,7 +16748,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ76">
         <v>0.75</v>
@@ -16852,7 +16876,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -16930,7 +16954,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ77">
         <v>1.13</v>
@@ -17342,10 +17366,10 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17470,7 +17494,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18169,7 +18193,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ83">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18372,7 +18396,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -18500,7 +18524,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18787,7 +18811,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18912,7 +18936,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -18990,7 +19014,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ87">
         <v>1.67</v>
@@ -19118,7 +19142,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19324,7 +19348,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19405,7 +19429,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ89">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19530,7 +19554,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20148,7 +20172,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20226,7 +20250,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ93">
         <v>1.89</v>
@@ -20641,7 +20665,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ95">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR95">
         <v>1.62</v>
@@ -20766,7 +20790,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20844,10 +20868,10 @@
         <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -20972,7 +20996,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21050,7 +21074,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ97">
         <v>0.63</v>
@@ -21178,7 +21202,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21259,7 +21283,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ98">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR98">
         <v>1.85</v>
@@ -21384,7 +21408,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21462,7 +21486,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ99">
         <v>1.13</v>
@@ -21796,7 +21820,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21877,7 +21901,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ101">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR101">
         <v>1.4</v>
@@ -22080,10 +22104,10 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ102">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22208,7 +22232,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22414,7 +22438,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22495,7 +22519,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ104">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
         <v>2.32</v>
@@ -22698,10 +22722,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR105">
         <v>1.51</v>
@@ -22826,7 +22850,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23032,7 +23056,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23110,7 +23134,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ107">
         <v>1.38</v>
@@ -23238,7 +23262,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23728,7 +23752,7 @@
         <v>2.17</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ110">
         <v>1.63</v>
@@ -23856,7 +23880,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -23934,10 +23958,10 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ111">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR111">
         <v>1.7</v>
@@ -24062,7 +24086,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24346,7 +24370,7 @@
         <v>1.29</v>
       </c>
       <c r="AP113">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ113">
         <v>1.67</v>
@@ -24474,7 +24498,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24555,7 +24579,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ114">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
         <v>1</v>
@@ -24680,7 +24704,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24761,7 +24785,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ115">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR115">
         <v>1.56</v>
@@ -24886,7 +24910,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25092,7 +25116,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25170,7 +25194,7 @@
         <v>1.43</v>
       </c>
       <c r="AP117">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ117">
         <v>1.38</v>
@@ -25376,7 +25400,7 @@
         <v>2.5</v>
       </c>
       <c r="AP118">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ118">
         <v>2.25</v>
@@ -25504,7 +25528,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25582,10 +25606,10 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ119">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -25791,7 +25815,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -26122,7 +26146,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26406,10 +26430,10 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ123">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -26740,7 +26764,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27027,7 +27051,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR126">
         <v>2.24</v>
@@ -27770,7 +27794,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27976,7 +28000,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28133,6 +28157,1242 @@
       </c>
       <c r="BP131">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7292572</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45507.41666666666</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>82</v>
+      </c>
+      <c r="H132" t="s">
+        <v>76</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>183</v>
+      </c>
+      <c r="P132" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q132">
+        <v>3.2</v>
+      </c>
+      <c r="R132">
+        <v>2.25</v>
+      </c>
+      <c r="S132">
+        <v>3.1</v>
+      </c>
+      <c r="T132">
+        <v>1.33</v>
+      </c>
+      <c r="U132">
+        <v>3.25</v>
+      </c>
+      <c r="V132">
+        <v>2.63</v>
+      </c>
+      <c r="W132">
+        <v>1.44</v>
+      </c>
+      <c r="X132">
+        <v>6.5</v>
+      </c>
+      <c r="Y132">
+        <v>1.11</v>
+      </c>
+      <c r="Z132">
+        <v>2.58</v>
+      </c>
+      <c r="AA132">
+        <v>3.58</v>
+      </c>
+      <c r="AB132">
+        <v>2.58</v>
+      </c>
+      <c r="AC132">
+        <v>1.02</v>
+      </c>
+      <c r="AD132">
+        <v>10</v>
+      </c>
+      <c r="AE132">
+        <v>1.22</v>
+      </c>
+      <c r="AF132">
+        <v>3.8</v>
+      </c>
+      <c r="AG132">
+        <v>1.7</v>
+      </c>
+      <c r="AH132">
+        <v>2.03</v>
+      </c>
+      <c r="AI132">
+        <v>1.57</v>
+      </c>
+      <c r="AJ132">
+        <v>2.25</v>
+      </c>
+      <c r="AK132">
+        <v>1.53</v>
+      </c>
+      <c r="AL132">
+        <v>1.3</v>
+      </c>
+      <c r="AM132">
+        <v>1.48</v>
+      </c>
+      <c r="AN132">
+        <v>0.88</v>
+      </c>
+      <c r="AO132">
+        <v>0.63</v>
+      </c>
+      <c r="AP132">
+        <v>0.78</v>
+      </c>
+      <c r="AQ132">
+        <v>0.89</v>
+      </c>
+      <c r="AR132">
+        <v>1.71</v>
+      </c>
+      <c r="AS132">
+        <v>1.4</v>
+      </c>
+      <c r="AT132">
+        <v>3.11</v>
+      </c>
+      <c r="AU132">
+        <v>3</v>
+      </c>
+      <c r="AV132">
+        <v>7</v>
+      </c>
+      <c r="AW132">
+        <v>3</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>6</v>
+      </c>
+      <c r="AZ132">
+        <v>12</v>
+      </c>
+      <c r="BA132">
+        <v>1</v>
+      </c>
+      <c r="BB132">
+        <v>5</v>
+      </c>
+      <c r="BC132">
+        <v>6</v>
+      </c>
+      <c r="BD132">
+        <v>1.49</v>
+      </c>
+      <c r="BE132">
+        <v>7</v>
+      </c>
+      <c r="BF132">
+        <v>2.65</v>
+      </c>
+      <c r="BG132">
+        <v>1.11</v>
+      </c>
+      <c r="BH132">
+        <v>5.4</v>
+      </c>
+      <c r="BI132">
+        <v>1.21</v>
+      </c>
+      <c r="BJ132">
+        <v>3.9</v>
+      </c>
+      <c r="BK132">
+        <v>1.36</v>
+      </c>
+      <c r="BL132">
+        <v>2.8</v>
+      </c>
+      <c r="BM132">
+        <v>1.75</v>
+      </c>
+      <c r="BN132">
+        <v>2.05</v>
+      </c>
+      <c r="BO132">
+        <v>1.88</v>
+      </c>
+      <c r="BP132">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7292567</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45507.41666666666</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>72</v>
+      </c>
+      <c r="H133" t="s">
+        <v>70</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>88</v>
+      </c>
+      <c r="P133" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q133">
+        <v>2.25</v>
+      </c>
+      <c r="R133">
+        <v>2.38</v>
+      </c>
+      <c r="S133">
+        <v>4.75</v>
+      </c>
+      <c r="T133">
+        <v>1.3</v>
+      </c>
+      <c r="U133">
+        <v>3.4</v>
+      </c>
+      <c r="V133">
+        <v>2.5</v>
+      </c>
+      <c r="W133">
+        <v>1.5</v>
+      </c>
+      <c r="X133">
+        <v>6</v>
+      </c>
+      <c r="Y133">
+        <v>1.13</v>
+      </c>
+      <c r="Z133">
+        <v>1.66</v>
+      </c>
+      <c r="AA133">
+        <v>4.1</v>
+      </c>
+      <c r="AB133">
+        <v>4.89</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>11</v>
+      </c>
+      <c r="AE133">
+        <v>1.2</v>
+      </c>
+      <c r="AF133">
+        <v>4</v>
+      </c>
+      <c r="AG133">
+        <v>1.63</v>
+      </c>
+      <c r="AH133">
+        <v>2.14</v>
+      </c>
+      <c r="AI133">
+        <v>1.67</v>
+      </c>
+      <c r="AJ133">
+        <v>2.1</v>
+      </c>
+      <c r="AK133">
+        <v>1.18</v>
+      </c>
+      <c r="AL133">
+        <v>1.29</v>
+      </c>
+      <c r="AM133">
+        <v>2.1</v>
+      </c>
+      <c r="AN133">
+        <v>2.38</v>
+      </c>
+      <c r="AO133">
+        <v>0.63</v>
+      </c>
+      <c r="AP133">
+        <v>2.11</v>
+      </c>
+      <c r="AQ133">
+        <v>0.89</v>
+      </c>
+      <c r="AR133">
+        <v>1.47</v>
+      </c>
+      <c r="AS133">
+        <v>1.18</v>
+      </c>
+      <c r="AT133">
+        <v>2.65</v>
+      </c>
+      <c r="AU133">
+        <v>2</v>
+      </c>
+      <c r="AV133">
+        <v>5</v>
+      </c>
+      <c r="AW133">
+        <v>10</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>12</v>
+      </c>
+      <c r="AZ133">
+        <v>10</v>
+      </c>
+      <c r="BA133">
+        <v>10</v>
+      </c>
+      <c r="BB133">
+        <v>1</v>
+      </c>
+      <c r="BC133">
+        <v>11</v>
+      </c>
+      <c r="BD133">
+        <v>1.43</v>
+      </c>
+      <c r="BE133">
+        <v>7</v>
+      </c>
+      <c r="BF133">
+        <v>2.9</v>
+      </c>
+      <c r="BG133">
+        <v>1.18</v>
+      </c>
+      <c r="BH133">
+        <v>4.1</v>
+      </c>
+      <c r="BI133">
+        <v>1.32</v>
+      </c>
+      <c r="BJ133">
+        <v>3.05</v>
+      </c>
+      <c r="BK133">
+        <v>1.53</v>
+      </c>
+      <c r="BL133">
+        <v>2.32</v>
+      </c>
+      <c r="BM133">
+        <v>1.92</v>
+      </c>
+      <c r="BN133">
+        <v>1.88</v>
+      </c>
+      <c r="BO133">
+        <v>2.3</v>
+      </c>
+      <c r="BP133">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7292571</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45507.52083333334</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s">
+        <v>81</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>4</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>5</v>
+      </c>
+      <c r="O134" t="s">
+        <v>184</v>
+      </c>
+      <c r="P134" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q134">
+        <v>2.05</v>
+      </c>
+      <c r="R134">
+        <v>2.3</v>
+      </c>
+      <c r="S134">
+        <v>5</v>
+      </c>
+      <c r="T134">
+        <v>1.3</v>
+      </c>
+      <c r="U134">
+        <v>3.2</v>
+      </c>
+      <c r="V134">
+        <v>2.3</v>
+      </c>
+      <c r="W134">
+        <v>1.55</v>
+      </c>
+      <c r="X134">
+        <v>5.55</v>
+      </c>
+      <c r="Y134">
+        <v>1.13</v>
+      </c>
+      <c r="Z134">
+        <v>1.57</v>
+      </c>
+      <c r="AA134">
+        <v>4</v>
+      </c>
+      <c r="AB134">
+        <v>4.75</v>
+      </c>
+      <c r="AC134">
+        <v>1.04</v>
+      </c>
+      <c r="AD134">
+        <v>11</v>
+      </c>
+      <c r="AE134">
+        <v>1.2</v>
+      </c>
+      <c r="AF134">
+        <v>4.5</v>
+      </c>
+      <c r="AG134">
+        <v>1.57</v>
+      </c>
+      <c r="AH134">
+        <v>2.15</v>
+      </c>
+      <c r="AI134">
+        <v>1.62</v>
+      </c>
+      <c r="AJ134">
+        <v>2.1</v>
+      </c>
+      <c r="AK134">
+        <v>1.14</v>
+      </c>
+      <c r="AL134">
+        <v>1.2</v>
+      </c>
+      <c r="AM134">
+        <v>2.3</v>
+      </c>
+      <c r="AN134">
+        <v>0.86</v>
+      </c>
+      <c r="AO134">
+        <v>0.75</v>
+      </c>
+      <c r="AP134">
+        <v>1.13</v>
+      </c>
+      <c r="AQ134">
+        <v>0.67</v>
+      </c>
+      <c r="AR134">
+        <v>1.46</v>
+      </c>
+      <c r="AS134">
+        <v>0.99</v>
+      </c>
+      <c r="AT134">
+        <v>2.45</v>
+      </c>
+      <c r="AU134">
+        <v>5</v>
+      </c>
+      <c r="AV134">
+        <v>3</v>
+      </c>
+      <c r="AW134">
+        <v>6</v>
+      </c>
+      <c r="AX134">
+        <v>2</v>
+      </c>
+      <c r="AY134">
+        <v>11</v>
+      </c>
+      <c r="AZ134">
+        <v>5</v>
+      </c>
+      <c r="BA134">
+        <v>5</v>
+      </c>
+      <c r="BB134">
+        <v>7</v>
+      </c>
+      <c r="BC134">
+        <v>12</v>
+      </c>
+      <c r="BD134">
+        <v>1.34</v>
+      </c>
+      <c r="BE134">
+        <v>7</v>
+      </c>
+      <c r="BF134">
+        <v>3.3</v>
+      </c>
+      <c r="BG134">
+        <v>1.2</v>
+      </c>
+      <c r="BH134">
+        <v>4</v>
+      </c>
+      <c r="BI134">
+        <v>1.34</v>
+      </c>
+      <c r="BJ134">
+        <v>2.9</v>
+      </c>
+      <c r="BK134">
+        <v>1.56</v>
+      </c>
+      <c r="BL134">
+        <v>2.23</v>
+      </c>
+      <c r="BM134">
+        <v>2</v>
+      </c>
+      <c r="BN134">
+        <v>1.8</v>
+      </c>
+      <c r="BO134">
+        <v>2.33</v>
+      </c>
+      <c r="BP134">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7292570</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45508.375</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>84</v>
+      </c>
+      <c r="H135" t="s">
+        <v>75</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+      <c r="N135">
+        <v>6</v>
+      </c>
+      <c r="O135" t="s">
+        <v>185</v>
+      </c>
+      <c r="P135" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q135">
+        <v>3</v>
+      </c>
+      <c r="R135">
+        <v>2.25</v>
+      </c>
+      <c r="S135">
+        <v>3.25</v>
+      </c>
+      <c r="T135">
+        <v>1.33</v>
+      </c>
+      <c r="U135">
+        <v>3.25</v>
+      </c>
+      <c r="V135">
+        <v>2.63</v>
+      </c>
+      <c r="W135">
+        <v>1.44</v>
+      </c>
+      <c r="X135">
+        <v>6.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.11</v>
+      </c>
+      <c r="Z135">
+        <v>2.32</v>
+      </c>
+      <c r="AA135">
+        <v>3.65</v>
+      </c>
+      <c r="AB135">
+        <v>2.8</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>13</v>
+      </c>
+      <c r="AE135">
+        <v>1.25</v>
+      </c>
+      <c r="AF135">
+        <v>4</v>
+      </c>
+      <c r="AG135">
+        <v>1.68</v>
+      </c>
+      <c r="AH135">
+        <v>2.05</v>
+      </c>
+      <c r="AI135">
+        <v>1.62</v>
+      </c>
+      <c r="AJ135">
+        <v>2.2</v>
+      </c>
+      <c r="AK135">
+        <v>1.47</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.58</v>
+      </c>
+      <c r="AN135">
+        <v>0.63</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ135">
+        <v>1.44</v>
+      </c>
+      <c r="AR135">
+        <v>1.28</v>
+      </c>
+      <c r="AS135">
+        <v>1.19</v>
+      </c>
+      <c r="AT135">
+        <v>2.47</v>
+      </c>
+      <c r="AU135">
+        <v>6</v>
+      </c>
+      <c r="AV135">
+        <v>8</v>
+      </c>
+      <c r="AW135">
+        <v>7</v>
+      </c>
+      <c r="AX135">
+        <v>5</v>
+      </c>
+      <c r="AY135">
+        <v>13</v>
+      </c>
+      <c r="AZ135">
+        <v>13</v>
+      </c>
+      <c r="BA135">
+        <v>6</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>11</v>
+      </c>
+      <c r="BD135">
+        <v>1.58</v>
+      </c>
+      <c r="BE135">
+        <v>6.75</v>
+      </c>
+      <c r="BF135">
+        <v>2.43</v>
+      </c>
+      <c r="BG135">
+        <v>1.18</v>
+      </c>
+      <c r="BH135">
+        <v>4.1</v>
+      </c>
+      <c r="BI135">
+        <v>1.32</v>
+      </c>
+      <c r="BJ135">
+        <v>3.05</v>
+      </c>
+      <c r="BK135">
+        <v>1.54</v>
+      </c>
+      <c r="BL135">
+        <v>2.3</v>
+      </c>
+      <c r="BM135">
+        <v>1.88</v>
+      </c>
+      <c r="BN135">
+        <v>1.92</v>
+      </c>
+      <c r="BO135">
+        <v>2.3</v>
+      </c>
+      <c r="BP135">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7292565</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45508.41666666666</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>85</v>
+      </c>
+      <c r="H136" t="s">
+        <v>74</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>186</v>
+      </c>
+      <c r="P136" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q136">
+        <v>2.25</v>
+      </c>
+      <c r="R136">
+        <v>2.3</v>
+      </c>
+      <c r="S136">
+        <v>5</v>
+      </c>
+      <c r="T136">
+        <v>1.33</v>
+      </c>
+      <c r="U136">
+        <v>3.25</v>
+      </c>
+      <c r="V136">
+        <v>2.63</v>
+      </c>
+      <c r="W136">
+        <v>1.44</v>
+      </c>
+      <c r="X136">
+        <v>6.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.11</v>
+      </c>
+      <c r="Z136">
+        <v>1.63</v>
+      </c>
+      <c r="AA136">
+        <v>4.1</v>
+      </c>
+      <c r="AB136">
+        <v>4.9</v>
+      </c>
+      <c r="AC136">
+        <v>1.05</v>
+      </c>
+      <c r="AD136">
+        <v>10</v>
+      </c>
+      <c r="AE136">
+        <v>1.25</v>
+      </c>
+      <c r="AF136">
+        <v>3.95</v>
+      </c>
+      <c r="AG136">
+        <v>1.68</v>
+      </c>
+      <c r="AH136">
+        <v>2.05</v>
+      </c>
+      <c r="AI136">
+        <v>1.75</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>1.18</v>
+      </c>
+      <c r="AL136">
+        <v>1.2</v>
+      </c>
+      <c r="AM136">
+        <v>2.25</v>
+      </c>
+      <c r="AN136">
+        <v>2</v>
+      </c>
+      <c r="AO136">
+        <v>1.25</v>
+      </c>
+      <c r="AP136">
+        <v>1.89</v>
+      </c>
+      <c r="AQ136">
+        <v>1.22</v>
+      </c>
+      <c r="AR136">
+        <v>1.58</v>
+      </c>
+      <c r="AS136">
+        <v>1.72</v>
+      </c>
+      <c r="AT136">
+        <v>3.3</v>
+      </c>
+      <c r="AU136">
+        <v>5</v>
+      </c>
+      <c r="AV136">
+        <v>3</v>
+      </c>
+      <c r="AW136">
+        <v>5</v>
+      </c>
+      <c r="AX136">
+        <v>6</v>
+      </c>
+      <c r="AY136">
+        <v>10</v>
+      </c>
+      <c r="AZ136">
+        <v>9</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>5</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>1.49</v>
+      </c>
+      <c r="BE136">
+        <v>6.75</v>
+      </c>
+      <c r="BF136">
+        <v>2.7</v>
+      </c>
+      <c r="BG136">
+        <v>1.18</v>
+      </c>
+      <c r="BH136">
+        <v>4.2</v>
+      </c>
+      <c r="BI136">
+        <v>1.32</v>
+      </c>
+      <c r="BJ136">
+        <v>3.05</v>
+      </c>
+      <c r="BK136">
+        <v>1.52</v>
+      </c>
+      <c r="BL136">
+        <v>2.32</v>
+      </c>
+      <c r="BM136">
+        <v>1.82</v>
+      </c>
+      <c r="BN136">
+        <v>1.86</v>
+      </c>
+      <c r="BO136">
+        <v>2.23</v>
+      </c>
+      <c r="BP136">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7292568</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45508.47916666666</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>83</v>
+      </c>
+      <c r="H137" t="s">
+        <v>71</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137" t="s">
+        <v>171</v>
+      </c>
+      <c r="P137" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q137">
+        <v>3.4</v>
+      </c>
+      <c r="R137">
+        <v>2.25</v>
+      </c>
+      <c r="S137">
+        <v>2.88</v>
+      </c>
+      <c r="T137">
+        <v>1.33</v>
+      </c>
+      <c r="U137">
+        <v>3.25</v>
+      </c>
+      <c r="V137">
+        <v>2.63</v>
+      </c>
+      <c r="W137">
+        <v>1.44</v>
+      </c>
+      <c r="X137">
+        <v>6.5</v>
+      </c>
+      <c r="Y137">
+        <v>1.11</v>
+      </c>
+      <c r="Z137">
+        <v>2.8</v>
+      </c>
+      <c r="AA137">
+        <v>3.41</v>
+      </c>
+      <c r="AB137">
+        <v>2.44</v>
+      </c>
+      <c r="AC137">
+        <v>1.04</v>
+      </c>
+      <c r="AD137">
+        <v>13</v>
+      </c>
+      <c r="AE137">
+        <v>1.25</v>
+      </c>
+      <c r="AF137">
+        <v>4</v>
+      </c>
+      <c r="AG137">
+        <v>1.7</v>
+      </c>
+      <c r="AH137">
+        <v>2.05</v>
+      </c>
+      <c r="AI137">
+        <v>1.57</v>
+      </c>
+      <c r="AJ137">
+        <v>2.25</v>
+      </c>
+      <c r="AK137">
+        <v>1.63</v>
+      </c>
+      <c r="AL137">
+        <v>1.26</v>
+      </c>
+      <c r="AM137">
+        <v>1.4</v>
+      </c>
+      <c r="AN137">
+        <v>0.88</v>
+      </c>
+      <c r="AO137">
+        <v>1.25</v>
+      </c>
+      <c r="AP137">
+        <v>0.78</v>
+      </c>
+      <c r="AQ137">
+        <v>1.44</v>
+      </c>
+      <c r="AR137">
+        <v>1.24</v>
+      </c>
+      <c r="AS137">
+        <v>1.38</v>
+      </c>
+      <c r="AT137">
+        <v>2.62</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>7</v>
+      </c>
+      <c r="AW137">
+        <v>3</v>
+      </c>
+      <c r="AX137">
+        <v>8</v>
+      </c>
+      <c r="AY137">
+        <v>9</v>
+      </c>
+      <c r="AZ137">
+        <v>15</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>6</v>
+      </c>
+      <c r="BC137">
+        <v>12</v>
+      </c>
+      <c r="BD137">
+        <v>2.05</v>
+      </c>
+      <c r="BE137">
+        <v>6.4</v>
+      </c>
+      <c r="BF137">
+        <v>1.84</v>
+      </c>
+      <c r="BG137">
+        <v>1.19</v>
+      </c>
+      <c r="BH137">
+        <v>4.1</v>
+      </c>
+      <c r="BI137">
+        <v>1.33</v>
+      </c>
+      <c r="BJ137">
+        <v>2.95</v>
+      </c>
+      <c r="BK137">
+        <v>1.54</v>
+      </c>
+      <c r="BL137">
+        <v>2.3</v>
+      </c>
+      <c r="BM137">
+        <v>1.95</v>
+      </c>
+      <c r="BN137">
+        <v>1.85</v>
+      </c>
+      <c r="BO137">
+        <v>2.3</v>
+      </c>
+      <c r="BP137">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,9 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['90', '90+6']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -806,6 +809,9 @@
   </si>
   <si>
     <t>['30', '62', '66', '90+2']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1432,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1504,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1632,7 +1638,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1838,7 +1844,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2250,7 +2256,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2743,7 +2749,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ8">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2868,7 +2874,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2949,7 +2955,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ9">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3074,7 +3080,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3770,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>1.22</v>
@@ -4104,7 +4110,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4310,7 +4316,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4516,7 +4522,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4722,7 +4728,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5212,7 +5218,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
         <v>1.13</v>
@@ -5340,7 +5346,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5752,7 +5758,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5833,7 +5839,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ23">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.23</v>
@@ -5958,7 +5964,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6370,7 +6376,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6451,7 +6457,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6863,7 +6869,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ28">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR28">
         <v>2.62</v>
@@ -6988,7 +6994,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7606,7 +7612,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7684,7 +7690,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7812,7 +7818,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8018,7 +8024,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8224,7 +8230,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8511,7 +8517,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ36">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8636,7 +8642,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8714,7 +8720,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
         <v>0.75</v>
@@ -8842,7 +8848,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8920,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>1.44</v>
@@ -9048,7 +9054,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9460,7 +9466,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9541,7 +9547,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ41">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.74</v>
@@ -9666,7 +9672,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10284,7 +10290,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10490,7 +10496,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10902,7 +10908,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11189,7 +11195,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ49">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -11314,7 +11320,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11520,7 +11526,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11726,7 +11732,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11932,7 +11938,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12013,7 +12019,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ53">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12138,7 +12144,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12344,7 +12350,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12550,7 +12556,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12631,7 +12637,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ56">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR56">
         <v>1.45</v>
@@ -12756,7 +12762,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12962,7 +12968,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13168,7 +13174,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13246,7 +13252,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
         <v>1.13</v>
@@ -13455,7 +13461,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ60">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13580,7 +13586,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13786,7 +13792,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13864,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ62">
         <v>1.44</v>
@@ -14198,7 +14204,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14404,7 +14410,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14485,7 +14491,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14894,7 +14900,7 @@
         <v>2.33</v>
       </c>
       <c r="AP67">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -15228,7 +15234,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15309,7 +15315,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ69">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR69">
         <v>1.65</v>
@@ -15640,7 +15646,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15846,7 +15852,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16052,7 +16058,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16258,7 +16264,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16464,7 +16470,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16876,7 +16882,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17163,7 +17169,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17494,7 +17500,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17575,7 +17581,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ80">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.83</v>
@@ -18524,7 +18530,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18936,7 +18942,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19142,7 +19148,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19220,10 +19226,10 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ88">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19348,7 +19354,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19554,7 +19560,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20172,7 +20178,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20253,7 +20259,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ93">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.38</v>
@@ -20456,7 +20462,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
         <v>1.13</v>
@@ -20790,7 +20796,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20996,7 +21002,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21077,7 +21083,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ97">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR97">
         <v>1.29</v>
@@ -21202,7 +21208,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21408,7 +21414,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21820,7 +21826,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22232,7 +22238,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22438,7 +22444,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22850,7 +22856,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22928,7 +22934,7 @@
         <v>2.4</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ106">
         <v>2.25</v>
@@ -23056,7 +23062,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23262,7 +23268,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23343,7 +23349,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ108">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR108">
         <v>1.39</v>
@@ -23755,7 +23761,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ110">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR110">
         <v>1.61</v>
@@ -23880,7 +23886,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24086,7 +24092,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24498,7 +24504,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24576,7 +24582,7 @@
         <v>0.33</v>
       </c>
       <c r="AP114">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114">
         <v>0.89</v>
@@ -24704,7 +24710,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24910,7 +24916,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -24991,7 +24997,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR116">
         <v>1.66</v>
@@ -25116,7 +25122,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25528,7 +25534,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25812,7 +25818,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -26146,7 +26152,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26227,7 +26233,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR122">
         <v>1.19</v>
@@ -26636,7 +26642,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ124">
         <v>1.13</v>
@@ -26764,7 +26770,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27254,10 +27260,10 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR127">
         <v>0.99</v>
@@ -27463,7 +27469,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ128">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR128">
         <v>1.82</v>
@@ -27794,7 +27800,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28000,7 +28006,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28206,7 +28212,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28618,7 +28624,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>2.05</v>
@@ -28824,7 +28830,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29030,7 +29036,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29236,7 +29242,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29393,6 +29399,624 @@
       </c>
       <c r="BP137">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7292576</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45514.41666666666</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>70</v>
+      </c>
+      <c r="H138" t="s">
+        <v>82</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>187</v>
+      </c>
+      <c r="P138" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q138">
+        <v>3</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>3</v>
+      </c>
+      <c r="T138">
+        <v>1.33</v>
+      </c>
+      <c r="U138">
+        <v>3.1</v>
+      </c>
+      <c r="V138">
+        <v>2.45</v>
+      </c>
+      <c r="W138">
+        <v>1.48</v>
+      </c>
+      <c r="X138">
+        <v>5.85</v>
+      </c>
+      <c r="Y138">
+        <v>1.11</v>
+      </c>
+      <c r="Z138">
+        <v>1.49</v>
+      </c>
+      <c r="AA138">
+        <v>5.32</v>
+      </c>
+      <c r="AB138">
+        <v>3.98</v>
+      </c>
+      <c r="AC138">
+        <v>1.04</v>
+      </c>
+      <c r="AD138">
+        <v>11</v>
+      </c>
+      <c r="AE138">
+        <v>1.22</v>
+      </c>
+      <c r="AF138">
+        <v>4.2</v>
+      </c>
+      <c r="AG138">
+        <v>1.65</v>
+      </c>
+      <c r="AH138">
+        <v>2.1</v>
+      </c>
+      <c r="AI138">
+        <v>1.55</v>
+      </c>
+      <c r="AJ138">
+        <v>2.25</v>
+      </c>
+      <c r="AK138">
+        <v>1.48</v>
+      </c>
+      <c r="AL138">
+        <v>1.25</v>
+      </c>
+      <c r="AM138">
+        <v>1.5</v>
+      </c>
+      <c r="AN138">
+        <v>1.5</v>
+      </c>
+      <c r="AO138">
+        <v>0.63</v>
+      </c>
+      <c r="AP138">
+        <v>1.67</v>
+      </c>
+      <c r="AQ138">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR138">
+        <v>1.34</v>
+      </c>
+      <c r="AS138">
+        <v>1.63</v>
+      </c>
+      <c r="AT138">
+        <v>2.97</v>
+      </c>
+      <c r="AU138">
+        <v>4</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>2</v>
+      </c>
+      <c r="AY138">
+        <v>11</v>
+      </c>
+      <c r="AZ138">
+        <v>8</v>
+      </c>
+      <c r="BA138">
+        <v>6</v>
+      </c>
+      <c r="BB138">
+        <v>6</v>
+      </c>
+      <c r="BC138">
+        <v>12</v>
+      </c>
+      <c r="BD138">
+        <v>1.9</v>
+      </c>
+      <c r="BE138">
+        <v>6.5</v>
+      </c>
+      <c r="BF138">
+        <v>1.97</v>
+      </c>
+      <c r="BG138">
+        <v>1.15</v>
+      </c>
+      <c r="BH138">
+        <v>4.6</v>
+      </c>
+      <c r="BI138">
+        <v>1.27</v>
+      </c>
+      <c r="BJ138">
+        <v>3.3</v>
+      </c>
+      <c r="BK138">
+        <v>1.47</v>
+      </c>
+      <c r="BL138">
+        <v>2.48</v>
+      </c>
+      <c r="BM138">
+        <v>1.9</v>
+      </c>
+      <c r="BN138">
+        <v>1.9</v>
+      </c>
+      <c r="BO138">
+        <v>2.12</v>
+      </c>
+      <c r="BP138">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7292579</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45514.41666666666</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>81</v>
+      </c>
+      <c r="H139" t="s">
+        <v>80</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>88</v>
+      </c>
+      <c r="P139" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q139">
+        <v>7.7</v>
+      </c>
+      <c r="R139">
+        <v>2.73</v>
+      </c>
+      <c r="S139">
+        <v>1.67</v>
+      </c>
+      <c r="T139">
+        <v>1.25</v>
+      </c>
+      <c r="U139">
+        <v>3.72</v>
+      </c>
+      <c r="V139">
+        <v>2.18</v>
+      </c>
+      <c r="W139">
+        <v>1.64</v>
+      </c>
+      <c r="X139">
+        <v>4.8</v>
+      </c>
+      <c r="Y139">
+        <v>1.16</v>
+      </c>
+      <c r="Z139">
+        <v>5.83</v>
+      </c>
+      <c r="AA139">
+        <v>4.41</v>
+      </c>
+      <c r="AB139">
+        <v>1.4</v>
+      </c>
+      <c r="AC139">
+        <v>1.02</v>
+      </c>
+      <c r="AD139">
+        <v>22.5</v>
+      </c>
+      <c r="AE139">
+        <v>1.12</v>
+      </c>
+      <c r="AF139">
+        <v>5</v>
+      </c>
+      <c r="AG139">
+        <v>1.5</v>
+      </c>
+      <c r="AH139">
+        <v>2.4</v>
+      </c>
+      <c r="AI139">
+        <v>1.89</v>
+      </c>
+      <c r="AJ139">
+        <v>1.85</v>
+      </c>
+      <c r="AK139">
+        <v>3.68</v>
+      </c>
+      <c r="AL139">
+        <v>1.14</v>
+      </c>
+      <c r="AM139">
+        <v>1.05</v>
+      </c>
+      <c r="AN139">
+        <v>1.88</v>
+      </c>
+      <c r="AO139">
+        <v>1.89</v>
+      </c>
+      <c r="AP139">
+        <v>1.67</v>
+      </c>
+      <c r="AQ139">
+        <v>2</v>
+      </c>
+      <c r="AR139">
+        <v>1.03</v>
+      </c>
+      <c r="AS139">
+        <v>1.79</v>
+      </c>
+      <c r="AT139">
+        <v>2.82</v>
+      </c>
+      <c r="AU139">
+        <v>3</v>
+      </c>
+      <c r="AV139">
+        <v>7</v>
+      </c>
+      <c r="AW139">
+        <v>5</v>
+      </c>
+      <c r="AX139">
+        <v>10</v>
+      </c>
+      <c r="AY139">
+        <v>8</v>
+      </c>
+      <c r="AZ139">
+        <v>17</v>
+      </c>
+      <c r="BA139">
+        <v>1</v>
+      </c>
+      <c r="BB139">
+        <v>8</v>
+      </c>
+      <c r="BC139">
+        <v>9</v>
+      </c>
+      <c r="BD139">
+        <v>4.1</v>
+      </c>
+      <c r="BE139">
+        <v>8</v>
+      </c>
+      <c r="BF139">
+        <v>1.23</v>
+      </c>
+      <c r="BG139">
+        <v>1.19</v>
+      </c>
+      <c r="BH139">
+        <v>4.1</v>
+      </c>
+      <c r="BI139">
+        <v>1.33</v>
+      </c>
+      <c r="BJ139">
+        <v>2.95</v>
+      </c>
+      <c r="BK139">
+        <v>1.54</v>
+      </c>
+      <c r="BL139">
+        <v>2.3</v>
+      </c>
+      <c r="BM139">
+        <v>2</v>
+      </c>
+      <c r="BN139">
+        <v>1.8</v>
+      </c>
+      <c r="BO139">
+        <v>2.25</v>
+      </c>
+      <c r="BP139">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7292575</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45514.52083333334</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>74</v>
+      </c>
+      <c r="H140" t="s">
+        <v>84</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>88</v>
+      </c>
+      <c r="P140" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q140">
+        <v>2.5</v>
+      </c>
+      <c r="R140">
+        <v>2.15</v>
+      </c>
+      <c r="S140">
+        <v>3.95</v>
+      </c>
+      <c r="T140">
+        <v>1.36</v>
+      </c>
+      <c r="U140">
+        <v>2.88</v>
+      </c>
+      <c r="V140">
+        <v>2.7</v>
+      </c>
+      <c r="W140">
+        <v>1.4</v>
+      </c>
+      <c r="X140">
+        <v>7</v>
+      </c>
+      <c r="Y140">
+        <v>1.1</v>
+      </c>
+      <c r="Z140">
+        <v>2.06</v>
+      </c>
+      <c r="AA140">
+        <v>3.43</v>
+      </c>
+      <c r="AB140">
+        <v>3.52</v>
+      </c>
+      <c r="AC140">
+        <v>1.05</v>
+      </c>
+      <c r="AD140">
+        <v>10</v>
+      </c>
+      <c r="AE140">
+        <v>1.28</v>
+      </c>
+      <c r="AF140">
+        <v>3.7</v>
+      </c>
+      <c r="AG140">
+        <v>1.99</v>
+      </c>
+      <c r="AH140">
+        <v>1.82</v>
+      </c>
+      <c r="AI140">
+        <v>1.75</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AK140">
+        <v>1.28</v>
+      </c>
+      <c r="AL140">
+        <v>1.25</v>
+      </c>
+      <c r="AM140">
+        <v>1.8</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
+        <v>1.63</v>
+      </c>
+      <c r="AP140">
+        <v>1</v>
+      </c>
+      <c r="AQ140">
+        <v>1.56</v>
+      </c>
+      <c r="AR140">
+        <v>1.21</v>
+      </c>
+      <c r="AS140">
+        <v>1.33</v>
+      </c>
+      <c r="AT140">
+        <v>2.54</v>
+      </c>
+      <c r="AU140">
+        <v>5</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>6</v>
+      </c>
+      <c r="AY140">
+        <v>11</v>
+      </c>
+      <c r="AZ140">
+        <v>10</v>
+      </c>
+      <c r="BA140">
+        <v>8</v>
+      </c>
+      <c r="BB140">
+        <v>4</v>
+      </c>
+      <c r="BC140">
+        <v>12</v>
+      </c>
+      <c r="BD140">
+        <v>1.35</v>
+      </c>
+      <c r="BE140">
+        <v>7</v>
+      </c>
+      <c r="BF140">
+        <v>3.15</v>
+      </c>
+      <c r="BG140">
+        <v>1.18</v>
+      </c>
+      <c r="BH140">
+        <v>4.1</v>
+      </c>
+      <c r="BI140">
+        <v>1.32</v>
+      </c>
+      <c r="BJ140">
+        <v>3.05</v>
+      </c>
+      <c r="BK140">
+        <v>1.53</v>
+      </c>
+      <c r="BL140">
+        <v>2.32</v>
+      </c>
+      <c r="BM140">
+        <v>1.85</v>
+      </c>
+      <c r="BN140">
+        <v>1.95</v>
+      </c>
+      <c r="BO140">
+        <v>2.25</v>
+      </c>
+      <c r="BP140">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,15 @@
     <t>['90', '90+6']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['8', '30']</t>
+  </si>
+  <si>
+    <t>['47', '52', '57']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -812,6 +821,12 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['77']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1447,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1638,7 +1653,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1719,7 +1734,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1844,7 +1859,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2131,7 +2146,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ5">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2256,7 +2271,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2540,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2746,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.5600000000000001</v>
@@ -2874,7 +2889,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -2952,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9">
         <v>1.56</v>
@@ -3080,7 +3095,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -4110,7 +4125,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4316,7 +4331,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4397,7 +4412,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4522,7 +4537,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4728,7 +4743,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5221,7 +5236,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.32</v>
@@ -5346,7 +5361,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5758,7 +5773,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5964,7 +5979,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6376,7 +6391,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6454,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26">
         <v>1.56</v>
@@ -6994,7 +7009,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7075,7 +7090,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ29">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.27</v>
@@ -7278,7 +7293,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>2.25</v>
@@ -7612,7 +7627,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7818,7 +7833,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7896,10 +7911,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -8024,7 +8039,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8230,7 +8245,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8514,7 +8529,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.56</v>
@@ -8642,7 +8657,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8848,7 +8863,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9054,7 +9069,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9135,7 +9150,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ39">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9341,7 +9356,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ40">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -9466,7 +9481,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9672,7 +9687,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10165,7 +10180,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ44">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10290,7 +10305,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10496,7 +10511,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10780,7 +10795,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ47">
         <v>1.44</v>
@@ -10908,7 +10923,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -10989,7 +11004,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ48">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.87</v>
@@ -11320,7 +11335,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11526,7 +11541,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11732,7 +11747,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11810,7 +11825,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>1.38</v>
@@ -11938,7 +11953,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12016,7 +12031,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53">
         <v>2</v>
@@ -12144,7 +12159,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12350,7 +12365,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12428,7 +12443,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.89</v>
@@ -12556,7 +12571,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12762,7 +12777,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12968,7 +12983,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13046,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.44</v>
@@ -13174,7 +13189,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13255,7 +13270,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>0.92</v>
@@ -13586,7 +13601,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13667,7 +13682,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.81</v>
@@ -13792,7 +13807,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14204,7 +14219,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14410,7 +14425,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14694,7 +14709,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ66">
         <v>0.89</v>
@@ -15234,7 +15249,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15521,7 +15536,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>2.17</v>
@@ -15646,7 +15661,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15724,7 +15739,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
         <v>1.22</v>
@@ -15852,7 +15867,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16058,7 +16073,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16264,7 +16279,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16470,7 +16485,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16882,7 +16897,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -16963,7 +16978,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.03</v>
@@ -17166,7 +17181,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ78">
         <v>0.5600000000000001</v>
@@ -17500,7 +17515,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17787,7 +17802,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -17993,7 +18008,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ82">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>2.18</v>
@@ -18196,7 +18211,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18530,7 +18545,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18942,7 +18957,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19148,7 +19163,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19354,7 +19369,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19432,7 +19447,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>1.22</v>
@@ -19560,7 +19575,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20178,7 +20193,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20465,7 +20480,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ94">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>0.93</v>
@@ -20668,7 +20683,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ95">
         <v>0.89</v>
@@ -20796,7 +20811,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21002,7 +21017,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21208,7 +21223,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21414,7 +21429,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21495,7 +21510,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.17</v>
@@ -21698,7 +21713,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ100">
         <v>1.67</v>
@@ -21826,7 +21841,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22238,7 +22253,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22316,10 +22331,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22444,7 +22459,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22856,7 +22871,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23062,7 +23077,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23268,7 +23283,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23552,10 +23567,10 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ109">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.73</v>
@@ -23886,7 +23901,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24092,7 +24107,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24504,7 +24519,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24710,7 +24725,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24916,7 +24931,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -24994,7 +25009,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ116">
         <v>2</v>
@@ -25122,7 +25137,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25534,7 +25549,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26024,10 +26039,10 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26152,7 +26167,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26645,7 +26660,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ124">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.32</v>
@@ -26770,7 +26785,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27675,7 +27690,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ129">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.54</v>
@@ -27800,7 +27815,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27878,7 +27893,7 @@
         <v>2.14</v>
       </c>
       <c r="AP130">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ130">
         <v>2.25</v>
@@ -28006,7 +28021,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28084,10 +28099,10 @@
         <v>0.86</v>
       </c>
       <c r="AP131">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ131">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.69</v>
@@ -28212,7 +28227,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28624,7 +28639,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>2.05</v>
@@ -28830,7 +28845,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29036,7 +29051,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29242,7 +29257,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29654,7 +29669,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>7.7</v>
@@ -30017,6 +30032,624 @@
       </c>
       <c r="BP140">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7292573</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s">
+        <v>79</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>188</v>
+      </c>
+      <c r="P141" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q141">
+        <v>2.5</v>
+      </c>
+      <c r="R141">
+        <v>2.2</v>
+      </c>
+      <c r="S141">
+        <v>4.33</v>
+      </c>
+      <c r="T141">
+        <v>1.36</v>
+      </c>
+      <c r="U141">
+        <v>3</v>
+      </c>
+      <c r="V141">
+        <v>2.75</v>
+      </c>
+      <c r="W141">
+        <v>1.4</v>
+      </c>
+      <c r="X141">
+        <v>7</v>
+      </c>
+      <c r="Y141">
+        <v>1.1</v>
+      </c>
+      <c r="Z141">
+        <v>1.98</v>
+      </c>
+      <c r="AA141">
+        <v>3.45</v>
+      </c>
+      <c r="AB141">
+        <v>3.6</v>
+      </c>
+      <c r="AC141">
+        <v>1.06</v>
+      </c>
+      <c r="AD141">
+        <v>9.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.28</v>
+      </c>
+      <c r="AF141">
+        <v>3.65</v>
+      </c>
+      <c r="AG141">
+        <v>1.9</v>
+      </c>
+      <c r="AH141">
+        <v>1.88</v>
+      </c>
+      <c r="AI141">
+        <v>1.75</v>
+      </c>
+      <c r="AJ141">
+        <v>2</v>
+      </c>
+      <c r="AK141">
+        <v>1.25</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.83</v>
+      </c>
+      <c r="AN141">
+        <v>1.88</v>
+      </c>
+      <c r="AO141">
+        <v>1.13</v>
+      </c>
+      <c r="AP141">
+        <v>2</v>
+      </c>
+      <c r="AQ141">
+        <v>1</v>
+      </c>
+      <c r="AR141">
+        <v>1.74</v>
+      </c>
+      <c r="AS141">
+        <v>1.19</v>
+      </c>
+      <c r="AT141">
+        <v>2.93</v>
+      </c>
+      <c r="AU141">
+        <v>5</v>
+      </c>
+      <c r="AV141">
+        <v>7</v>
+      </c>
+      <c r="AW141">
+        <v>6</v>
+      </c>
+      <c r="AX141">
+        <v>3</v>
+      </c>
+      <c r="AY141">
+        <v>11</v>
+      </c>
+      <c r="AZ141">
+        <v>10</v>
+      </c>
+      <c r="BA141">
+        <v>6</v>
+      </c>
+      <c r="BB141">
+        <v>6</v>
+      </c>
+      <c r="BC141">
+        <v>12</v>
+      </c>
+      <c r="BD141">
+        <v>1.49</v>
+      </c>
+      <c r="BE141">
+        <v>6.75</v>
+      </c>
+      <c r="BF141">
+        <v>2.65</v>
+      </c>
+      <c r="BG141">
+        <v>1.19</v>
+      </c>
+      <c r="BH141">
+        <v>4.1</v>
+      </c>
+      <c r="BI141">
+        <v>1.33</v>
+      </c>
+      <c r="BJ141">
+        <v>2.95</v>
+      </c>
+      <c r="BK141">
+        <v>1.56</v>
+      </c>
+      <c r="BL141">
+        <v>2.23</v>
+      </c>
+      <c r="BM141">
+        <v>2</v>
+      </c>
+      <c r="BN141">
+        <v>1.8</v>
+      </c>
+      <c r="BO141">
+        <v>2.35</v>
+      </c>
+      <c r="BP141">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7292577</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>77</v>
+      </c>
+      <c r="H142" t="s">
+        <v>72</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>3</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>189</v>
+      </c>
+      <c r="P142" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q142">
+        <v>2.2</v>
+      </c>
+      <c r="R142">
+        <v>2.4</v>
+      </c>
+      <c r="S142">
+        <v>4.75</v>
+      </c>
+      <c r="T142">
+        <v>1.3</v>
+      </c>
+      <c r="U142">
+        <v>3.4</v>
+      </c>
+      <c r="V142">
+        <v>2.38</v>
+      </c>
+      <c r="W142">
+        <v>1.53</v>
+      </c>
+      <c r="X142">
+        <v>6</v>
+      </c>
+      <c r="Y142">
+        <v>1.13</v>
+      </c>
+      <c r="Z142">
+        <v>1.7</v>
+      </c>
+      <c r="AA142">
+        <v>4</v>
+      </c>
+      <c r="AB142">
+        <v>4.3</v>
+      </c>
+      <c r="AC142">
+        <v>1.03</v>
+      </c>
+      <c r="AD142">
+        <v>12</v>
+      </c>
+      <c r="AE142">
+        <v>1.2</v>
+      </c>
+      <c r="AF142">
+        <v>4.5</v>
+      </c>
+      <c r="AG142">
+        <v>1.61</v>
+      </c>
+      <c r="AH142">
+        <v>2.14</v>
+      </c>
+      <c r="AI142">
+        <v>1.67</v>
+      </c>
+      <c r="AJ142">
+        <v>2.1</v>
+      </c>
+      <c r="AK142">
+        <v>1.2</v>
+      </c>
+      <c r="AL142">
+        <v>1.18</v>
+      </c>
+      <c r="AM142">
+        <v>2.15</v>
+      </c>
+      <c r="AN142">
+        <v>2.11</v>
+      </c>
+      <c r="AO142">
+        <v>1.13</v>
+      </c>
+      <c r="AP142">
+        <v>2.2</v>
+      </c>
+      <c r="AQ142">
+        <v>1</v>
+      </c>
+      <c r="AR142">
+        <v>1.74</v>
+      </c>
+      <c r="AS142">
+        <v>1.47</v>
+      </c>
+      <c r="AT142">
+        <v>3.21</v>
+      </c>
+      <c r="AU142">
+        <v>5</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>6</v>
+      </c>
+      <c r="AY142">
+        <v>11</v>
+      </c>
+      <c r="AZ142">
+        <v>9</v>
+      </c>
+      <c r="BA142">
+        <v>6</v>
+      </c>
+      <c r="BB142">
+        <v>3</v>
+      </c>
+      <c r="BC142">
+        <v>9</v>
+      </c>
+      <c r="BD142">
+        <v>1.58</v>
+      </c>
+      <c r="BE142">
+        <v>6.75</v>
+      </c>
+      <c r="BF142">
+        <v>2.43</v>
+      </c>
+      <c r="BG142">
+        <v>1.16</v>
+      </c>
+      <c r="BH142">
+        <v>4.4</v>
+      </c>
+      <c r="BI142">
+        <v>1.29</v>
+      </c>
+      <c r="BJ142">
+        <v>3.15</v>
+      </c>
+      <c r="BK142">
+        <v>1.49</v>
+      </c>
+      <c r="BL142">
+        <v>2.4</v>
+      </c>
+      <c r="BM142">
+        <v>1.8</v>
+      </c>
+      <c r="BN142">
+        <v>2</v>
+      </c>
+      <c r="BO142">
+        <v>2.18</v>
+      </c>
+      <c r="BP142">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7292580</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" t="s">
+        <v>83</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>190</v>
+      </c>
+      <c r="P143" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q143">
+        <v>2.25</v>
+      </c>
+      <c r="R143">
+        <v>2.38</v>
+      </c>
+      <c r="S143">
+        <v>4.5</v>
+      </c>
+      <c r="T143">
+        <v>1.3</v>
+      </c>
+      <c r="U143">
+        <v>3.4</v>
+      </c>
+      <c r="V143">
+        <v>2.5</v>
+      </c>
+      <c r="W143">
+        <v>1.5</v>
+      </c>
+      <c r="X143">
+        <v>6</v>
+      </c>
+      <c r="Y143">
+        <v>1.13</v>
+      </c>
+      <c r="Z143">
+        <v>1.68</v>
+      </c>
+      <c r="AA143">
+        <v>3.85</v>
+      </c>
+      <c r="AB143">
+        <v>4.6</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>11</v>
+      </c>
+      <c r="AE143">
+        <v>1.22</v>
+      </c>
+      <c r="AF143">
+        <v>4.33</v>
+      </c>
+      <c r="AG143">
+        <v>1.56</v>
+      </c>
+      <c r="AH143">
+        <v>2.24</v>
+      </c>
+      <c r="AI143">
+        <v>1.67</v>
+      </c>
+      <c r="AJ143">
+        <v>2.1</v>
+      </c>
+      <c r="AK143">
+        <v>1.18</v>
+      </c>
+      <c r="AL143">
+        <v>1.2</v>
+      </c>
+      <c r="AM143">
+        <v>2.15</v>
+      </c>
+      <c r="AN143">
+        <v>1.38</v>
+      </c>
+      <c r="AO143">
+        <v>1.13</v>
+      </c>
+      <c r="AP143">
+        <v>1.56</v>
+      </c>
+      <c r="AQ143">
+        <v>1</v>
+      </c>
+      <c r="AR143">
+        <v>1.6</v>
+      </c>
+      <c r="AS143">
+        <v>1.12</v>
+      </c>
+      <c r="AT143">
+        <v>2.72</v>
+      </c>
+      <c r="AU143">
+        <v>8</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
+        <v>6</v>
+      </c>
+      <c r="AY143">
+        <v>13</v>
+      </c>
+      <c r="AZ143">
+        <v>11</v>
+      </c>
+      <c r="BA143">
+        <v>6</v>
+      </c>
+      <c r="BB143">
+        <v>4</v>
+      </c>
+      <c r="BC143">
+        <v>10</v>
+      </c>
+      <c r="BD143">
+        <v>1.54</v>
+      </c>
+      <c r="BE143">
+        <v>6.75</v>
+      </c>
+      <c r="BF143">
+        <v>2.55</v>
+      </c>
+      <c r="BG143">
+        <v>1.21</v>
+      </c>
+      <c r="BH143">
+        <v>3.9</v>
+      </c>
+      <c r="BI143">
+        <v>1.37</v>
+      </c>
+      <c r="BJ143">
+        <v>2.8</v>
+      </c>
+      <c r="BK143">
+        <v>1.6</v>
+      </c>
+      <c r="BL143">
+        <v>2.17</v>
+      </c>
+      <c r="BM143">
+        <v>1.97</v>
+      </c>
+      <c r="BN143">
+        <v>1.74</v>
+      </c>
+      <c r="BO143">
+        <v>2.45</v>
+      </c>
+      <c r="BP143">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['47', '52', '57']</t>
   </si>
   <si>
+    <t>['5', '25', '30']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -827,6 +830,9 @@
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['10', '49', '72']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,7 +1453,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1653,7 +1659,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1731,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1859,7 +1865,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1940,7 +1946,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2271,7 +2277,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2889,7 +2895,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3095,7 +3101,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -4125,7 +4131,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4331,7 +4337,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4537,7 +4543,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4743,7 +4749,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5361,7 +5367,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5773,7 +5779,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5979,7 +5985,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6060,7 +6066,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6263,7 +6269,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6391,7 +6397,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -7009,7 +7015,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7627,7 +7633,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7708,7 +7714,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>0.76</v>
@@ -7833,7 +7839,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8039,7 +8045,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8245,7 +8251,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8657,7 +8663,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8863,7 +8869,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9069,7 +9075,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9481,7 +9487,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9687,7 +9693,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10305,7 +10311,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10511,7 +10517,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10923,7 +10929,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11207,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ49">
         <v>0.5600000000000001</v>
@@ -11335,7 +11341,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11541,7 +11547,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11622,7 +11628,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11747,7 +11753,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11953,7 +11959,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12159,7 +12165,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12365,7 +12371,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12571,7 +12577,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12649,7 +12655,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ56">
         <v>1.56</v>
@@ -12777,7 +12783,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12983,7 +12989,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13189,7 +13195,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13601,7 +13607,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13807,7 +13813,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14219,7 +14225,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14300,7 +14306,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ64">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR64">
         <v>0.97</v>
@@ -14425,7 +14431,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -15249,7 +15255,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15661,7 +15667,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15867,7 +15873,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16073,7 +16079,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16279,7 +16285,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16357,7 +16363,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ74">
         <v>0.89</v>
@@ -16485,7 +16491,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16897,7 +16903,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17515,7 +17521,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18545,7 +18551,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18829,7 +18835,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ86">
         <v>1.44</v>
@@ -18957,7 +18963,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19038,7 +19044,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR87">
         <v>1.67</v>
@@ -19163,7 +19169,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19369,7 +19375,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19575,7 +19581,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20193,7 +20199,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20811,7 +20817,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21017,7 +21023,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21223,7 +21229,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21429,7 +21435,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21716,7 +21722,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ100">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR100">
         <v>1.64</v>
@@ -21841,7 +21847,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22253,7 +22259,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22459,7 +22465,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22871,7 +22877,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23077,7 +23083,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23283,7 +23289,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23901,7 +23907,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24107,7 +24113,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24394,7 +24400,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ113">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR113">
         <v>1.31</v>
@@ -24519,7 +24525,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24725,7 +24731,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24803,7 +24809,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ115">
         <v>1.22</v>
@@ -24931,7 +24937,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25137,7 +25143,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25549,7 +25555,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26167,7 +26173,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26785,7 +26791,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -26866,7 +26872,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR125">
         <v>1.17</v>
@@ -27687,7 +27693,7 @@
         <v>1.29</v>
       </c>
       <c r="AP129">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27815,7 +27821,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28021,7 +28027,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28227,7 +28233,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28639,7 +28645,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>2.05</v>
@@ -28845,7 +28851,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29051,7 +29057,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29257,7 +29263,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29669,7 +29675,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>7.7</v>
@@ -30287,7 +30293,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30493,7 +30499,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>2.25</v>
@@ -30650,6 +30656,212 @@
       </c>
       <c r="BP143">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7292574</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45516.58333333334</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>71</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>4</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>6</v>
+      </c>
+      <c r="O144" t="s">
+        <v>191</v>
+      </c>
+      <c r="P144" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q144">
+        <v>2.5</v>
+      </c>
+      <c r="R144">
+        <v>2.4</v>
+      </c>
+      <c r="S144">
+        <v>3.75</v>
+      </c>
+      <c r="T144">
+        <v>1.29</v>
+      </c>
+      <c r="U144">
+        <v>3.5</v>
+      </c>
+      <c r="V144">
+        <v>2.25</v>
+      </c>
+      <c r="W144">
+        <v>1.57</v>
+      </c>
+      <c r="X144">
+        <v>5.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.14</v>
+      </c>
+      <c r="Z144">
+        <v>2.05</v>
+      </c>
+      <c r="AA144">
+        <v>3.5</v>
+      </c>
+      <c r="AB144">
+        <v>3.15</v>
+      </c>
+      <c r="AC144">
+        <v>1.03</v>
+      </c>
+      <c r="AD144">
+        <v>18.25</v>
+      </c>
+      <c r="AE144">
+        <v>1.18</v>
+      </c>
+      <c r="AF144">
+        <v>4.93</v>
+      </c>
+      <c r="AG144">
+        <v>1.56</v>
+      </c>
+      <c r="AH144">
+        <v>2.24</v>
+      </c>
+      <c r="AI144">
+        <v>1.53</v>
+      </c>
+      <c r="AJ144">
+        <v>2.38</v>
+      </c>
+      <c r="AK144">
+        <v>1.22</v>
+      </c>
+      <c r="AL144">
+        <v>1.19</v>
+      </c>
+      <c r="AM144">
+        <v>1.87</v>
+      </c>
+      <c r="AN144">
+        <v>2.25</v>
+      </c>
+      <c r="AO144">
+        <v>1.67</v>
+      </c>
+      <c r="AP144">
+        <v>2.11</v>
+      </c>
+      <c r="AQ144">
+        <v>1.6</v>
+      </c>
+      <c r="AR144">
+        <v>1.57</v>
+      </c>
+      <c r="AS144">
+        <v>1.64</v>
+      </c>
+      <c r="AT144">
+        <v>3.21</v>
+      </c>
+      <c r="AU144">
+        <v>10</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>6</v>
+      </c>
+      <c r="AX144">
+        <v>6</v>
+      </c>
+      <c r="AY144">
+        <v>16</v>
+      </c>
+      <c r="AZ144">
+        <v>10</v>
+      </c>
+      <c r="BA144">
+        <v>9</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
+        <v>10</v>
+      </c>
+      <c r="BD144">
+        <v>1.65</v>
+      </c>
+      <c r="BE144">
+        <v>6.75</v>
+      </c>
+      <c r="BF144">
+        <v>2.33</v>
+      </c>
+      <c r="BG144">
+        <v>1.2</v>
+      </c>
+      <c r="BH144">
+        <v>3.95</v>
+      </c>
+      <c r="BI144">
+        <v>1.34</v>
+      </c>
+      <c r="BJ144">
+        <v>2.9</v>
+      </c>
+      <c r="BK144">
+        <v>1.57</v>
+      </c>
+      <c r="BL144">
+        <v>2.23</v>
+      </c>
+      <c r="BM144">
+        <v>2</v>
+      </c>
+      <c r="BN144">
+        <v>1.8</v>
+      </c>
+      <c r="BO144">
+        <v>2.38</v>
+      </c>
+      <c r="BP144">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,12 @@
     <t>['5', '25', '30']</t>
   </si>
   <si>
+    <t>['30', '78']</t>
+  </si>
+  <si>
+    <t>['62', '90+7']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -833,6 +839,15 @@
   </si>
   <si>
     <t>['10', '49', '72']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['2', '63', '88']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1468,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1659,7 +1674,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1740,7 +1755,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1865,7 +1880,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2277,7 +2292,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2895,7 +2910,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3101,7 +3116,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3388,7 +3403,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ11">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3591,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ12">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4003,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -4131,7 +4146,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4212,7 +4227,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4337,7 +4352,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4415,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4543,7 +4558,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4749,7 +4764,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5033,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -5367,7 +5382,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5654,7 +5669,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ22">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5779,7 +5794,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5857,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5985,7 +6000,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6397,7 +6412,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6684,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR27">
         <v>0.78</v>
@@ -6887,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ28">
         <v>0.5600000000000001</v>
@@ -7015,7 +7030,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7508,7 +7523,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
         <v>1.67</v>
@@ -7633,7 +7648,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7839,7 +7854,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7920,7 +7935,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -8045,7 +8060,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8126,7 +8141,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ34">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8251,7 +8266,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8663,7 +8678,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8869,7 +8884,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -8950,7 +8965,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR38">
         <v>0.8</v>
@@ -9075,7 +9090,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9359,7 +9374,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9487,7 +9502,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9693,7 +9708,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9771,7 +9786,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ42">
         <v>0.67</v>
@@ -9977,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ43">
         <v>0.89</v>
@@ -10311,7 +10326,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10392,7 +10407,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ45">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10517,7 +10532,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10804,7 +10819,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ47">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.73</v>
@@ -10929,7 +10944,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11010,7 +11025,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR48">
         <v>1.87</v>
@@ -11341,7 +11356,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11547,7 +11562,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11753,7 +11768,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11959,7 +11974,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12165,7 +12180,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12243,7 +12258,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>2.25</v>
@@ -12371,7 +12386,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12452,7 +12467,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.19</v>
@@ -12577,7 +12592,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12783,7 +12798,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12989,7 +13004,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13070,7 +13085,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13195,7 +13210,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13607,7 +13622,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13688,7 +13703,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR61">
         <v>1.81</v>
@@ -13813,7 +13828,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13894,7 +13909,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR62">
         <v>1.3</v>
@@ -14225,7 +14240,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14303,7 +14318,7 @@
         <v>1.75</v>
       </c>
       <c r="AP64">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ64">
         <v>1.6</v>
@@ -14431,7 +14446,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -15130,7 +15145,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ68">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15255,7 +15270,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15333,7 +15348,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>1.56</v>
@@ -15539,7 +15554,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15667,7 +15682,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15873,7 +15888,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15954,7 +15969,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ72">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR72">
         <v>1.31</v>
@@ -16079,7 +16094,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16285,7 +16300,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16491,7 +16506,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16572,7 +16587,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ75">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16903,7 +16918,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -16981,10 +16996,10 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR77">
         <v>1.03</v>
@@ -17521,7 +17536,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18011,10 +18026,10 @@
         <v>1.2</v>
       </c>
       <c r="AP82">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR82">
         <v>2.18</v>
@@ -18551,7 +18566,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18838,7 +18853,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ86">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18963,7 +18978,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19041,7 +19056,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>1.6</v>
@@ -19169,7 +19184,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19375,7 +19390,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19581,7 +19596,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19659,7 +19674,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ90">
         <v>0.75</v>
@@ -20199,7 +20214,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20692,7 +20707,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ95">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR95">
         <v>1.62</v>
@@ -20817,7 +20832,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20898,7 +20913,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ96">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21023,7 +21038,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21229,7 +21244,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21435,7 +21450,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21513,7 +21528,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21847,7 +21862,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21928,7 +21943,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ101">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR101">
         <v>1.4</v>
@@ -22131,7 +22146,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ102">
         <v>1.22</v>
@@ -22259,7 +22274,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22340,7 +22355,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22465,7 +22480,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22543,7 +22558,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ104">
         <v>0.67</v>
@@ -22752,7 +22767,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ105">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR105">
         <v>1.51</v>
@@ -22877,7 +22892,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23083,7 +23098,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23161,7 +23176,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>1.38</v>
@@ -23289,7 +23304,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23907,7 +23922,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -23985,10 +24000,10 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.7</v>
@@ -24113,7 +24128,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24525,7 +24540,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24731,7 +24746,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24937,7 +24952,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25143,7 +25158,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25221,7 +25236,7 @@
         <v>1.43</v>
       </c>
       <c r="AP117">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ117">
         <v>1.38</v>
@@ -25555,7 +25570,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25636,7 +25651,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ119">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -26173,7 +26188,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26666,7 +26681,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR124">
         <v>1.32</v>
@@ -26791,7 +26806,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27075,10 +27090,10 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ126">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR126">
         <v>2.24</v>
@@ -27821,7 +27836,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28027,7 +28042,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28233,7 +28248,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28311,7 +28326,7 @@
         <v>0.63</v>
       </c>
       <c r="AP132">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
         <v>0.89</v>
@@ -28520,7 +28535,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ133">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR133">
         <v>1.47</v>
@@ -28645,7 +28660,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q134">
         <v>2.05</v>
@@ -28851,7 +28866,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -28929,10 +28944,10 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ135">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR135">
         <v>1.28</v>
@@ -29057,7 +29072,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29263,7 +29278,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29344,7 +29359,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ137">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR137">
         <v>1.24</v>
@@ -29675,7 +29690,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>7.7</v>
@@ -30293,7 +30308,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30499,7 +30514,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>2.25</v>
@@ -30580,7 +30595,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR143">
         <v>1.6</v>
@@ -30705,7 +30720,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -30861,6 +30876,830 @@
         <v>2.38</v>
       </c>
       <c r="BP144">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7292583</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45521.41666666666</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>80</v>
+      </c>
+      <c r="H145" t="s">
+        <v>70</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>192</v>
+      </c>
+      <c r="P145" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q145">
+        <v>1.56</v>
+      </c>
+      <c r="R145">
+        <v>3.15</v>
+      </c>
+      <c r="S145">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="T145">
+        <v>1.2</v>
+      </c>
+      <c r="U145">
+        <v>4.3</v>
+      </c>
+      <c r="V145">
+        <v>1.98</v>
+      </c>
+      <c r="W145">
+        <v>1.78</v>
+      </c>
+      <c r="X145">
+        <v>4.05</v>
+      </c>
+      <c r="Y145">
+        <v>1.22</v>
+      </c>
+      <c r="Z145">
+        <v>1.22</v>
+      </c>
+      <c r="AA145">
+        <v>7.5</v>
+      </c>
+      <c r="AB145">
+        <v>9</v>
+      </c>
+      <c r="AC145">
+        <v>1.01</v>
+      </c>
+      <c r="AD145">
+        <v>29</v>
+      </c>
+      <c r="AE145">
+        <v>1.08</v>
+      </c>
+      <c r="AF145">
+        <v>6.1</v>
+      </c>
+      <c r="AG145">
+        <v>1.38</v>
+      </c>
+      <c r="AH145">
+        <v>2.81</v>
+      </c>
+      <c r="AI145">
+        <v>1.81</v>
+      </c>
+      <c r="AJ145">
+        <v>1.93</v>
+      </c>
+      <c r="AK145">
+        <v>1.05</v>
+      </c>
+      <c r="AL145">
+        <v>1.07</v>
+      </c>
+      <c r="AM145">
+        <v>4.5</v>
+      </c>
+      <c r="AN145">
+        <v>2.63</v>
+      </c>
+      <c r="AO145">
+        <v>0.89</v>
+      </c>
+      <c r="AP145">
+        <v>2.67</v>
+      </c>
+      <c r="AQ145">
+        <v>0.8</v>
+      </c>
+      <c r="AR145">
+        <v>2.27</v>
+      </c>
+      <c r="AS145">
+        <v>1.18</v>
+      </c>
+      <c r="AT145">
+        <v>3.45</v>
+      </c>
+      <c r="AU145">
+        <v>6</v>
+      </c>
+      <c r="AV145">
+        <v>5</v>
+      </c>
+      <c r="AW145">
+        <v>9</v>
+      </c>
+      <c r="AX145">
+        <v>6</v>
+      </c>
+      <c r="AY145">
+        <v>15</v>
+      </c>
+      <c r="AZ145">
+        <v>11</v>
+      </c>
+      <c r="BA145">
+        <v>7</v>
+      </c>
+      <c r="BB145">
+        <v>2</v>
+      </c>
+      <c r="BC145">
+        <v>9</v>
+      </c>
+      <c r="BD145">
+        <v>1.2</v>
+      </c>
+      <c r="BE145">
+        <v>8.5</v>
+      </c>
+      <c r="BF145">
+        <v>4.3</v>
+      </c>
+      <c r="BG145">
+        <v>1.18</v>
+      </c>
+      <c r="BH145">
+        <v>4.3</v>
+      </c>
+      <c r="BI145">
+        <v>1.32</v>
+      </c>
+      <c r="BJ145">
+        <v>3.05</v>
+      </c>
+      <c r="BK145">
+        <v>1.53</v>
+      </c>
+      <c r="BL145">
+        <v>2.32</v>
+      </c>
+      <c r="BM145">
+        <v>1.9</v>
+      </c>
+      <c r="BN145">
+        <v>1.9</v>
+      </c>
+      <c r="BO145">
+        <v>2.25</v>
+      </c>
+      <c r="BP145">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7292582</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45521.41666666666</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>74</v>
+      </c>
+      <c r="H146" t="s">
+        <v>75</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>97</v>
+      </c>
+      <c r="P146" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q146">
+        <v>2.78</v>
+      </c>
+      <c r="R146">
+        <v>2.39</v>
+      </c>
+      <c r="S146">
+        <v>3.61</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3.16</v>
+      </c>
+      <c r="V146">
+        <v>2.53</v>
+      </c>
+      <c r="W146">
+        <v>1.52</v>
+      </c>
+      <c r="X146">
+        <v>5.85</v>
+      </c>
+      <c r="Y146">
+        <v>1.12</v>
+      </c>
+      <c r="Z146">
+        <v>2.2</v>
+      </c>
+      <c r="AA146">
+        <v>3.5</v>
+      </c>
+      <c r="AB146">
+        <v>3.1</v>
+      </c>
+      <c r="AC146">
+        <v>1.01</v>
+      </c>
+      <c r="AD146">
+        <v>11</v>
+      </c>
+      <c r="AE146">
+        <v>1.18</v>
+      </c>
+      <c r="AF146">
+        <v>4.05</v>
+      </c>
+      <c r="AG146">
+        <v>1.65</v>
+      </c>
+      <c r="AH146">
+        <v>2.1</v>
+      </c>
+      <c r="AI146">
+        <v>1.57</v>
+      </c>
+      <c r="AJ146">
+        <v>2.31</v>
+      </c>
+      <c r="AK146">
+        <v>1.38</v>
+      </c>
+      <c r="AL146">
+        <v>1.3</v>
+      </c>
+      <c r="AM146">
+        <v>1.66</v>
+      </c>
+      <c r="AN146">
+        <v>1</v>
+      </c>
+      <c r="AO146">
+        <v>1.44</v>
+      </c>
+      <c r="AP146">
+        <v>1</v>
+      </c>
+      <c r="AQ146">
+        <v>1.4</v>
+      </c>
+      <c r="AR146">
+        <v>1.25</v>
+      </c>
+      <c r="AS146">
+        <v>1.24</v>
+      </c>
+      <c r="AT146">
+        <v>2.49</v>
+      </c>
+      <c r="AU146">
+        <v>7</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>6</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>13</v>
+      </c>
+      <c r="AZ146">
+        <v>8</v>
+      </c>
+      <c r="BA146">
+        <v>6</v>
+      </c>
+      <c r="BB146">
+        <v>9</v>
+      </c>
+      <c r="BC146">
+        <v>15</v>
+      </c>
+      <c r="BD146">
+        <v>1.47</v>
+      </c>
+      <c r="BE146">
+        <v>6.75</v>
+      </c>
+      <c r="BF146">
+        <v>2.8</v>
+      </c>
+      <c r="BG146">
+        <v>1.18</v>
+      </c>
+      <c r="BH146">
+        <v>4.1</v>
+      </c>
+      <c r="BI146">
+        <v>1.32</v>
+      </c>
+      <c r="BJ146">
+        <v>3</v>
+      </c>
+      <c r="BK146">
+        <v>1.53</v>
+      </c>
+      <c r="BL146">
+        <v>2.32</v>
+      </c>
+      <c r="BM146">
+        <v>1.85</v>
+      </c>
+      <c r="BN146">
+        <v>1.95</v>
+      </c>
+      <c r="BO146">
+        <v>2.25</v>
+      </c>
+      <c r="BP146">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7292586</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45521.41666666666</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>84</v>
+      </c>
+      <c r="H147" t="s">
+        <v>71</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>88</v>
+      </c>
+      <c r="P147" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q147">
+        <v>3.4</v>
+      </c>
+      <c r="R147">
+        <v>2.25</v>
+      </c>
+      <c r="S147">
+        <v>3</v>
+      </c>
+      <c r="T147">
+        <v>1.36</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
+        <v>2.63</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>7</v>
+      </c>
+      <c r="Y147">
+        <v>1.1</v>
+      </c>
+      <c r="Z147">
+        <v>2.6</v>
+      </c>
+      <c r="AA147">
+        <v>3.4</v>
+      </c>
+      <c r="AB147">
+        <v>2.6</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>10.25</v>
+      </c>
+      <c r="AE147">
+        <v>1.22</v>
+      </c>
+      <c r="AF147">
+        <v>3.66</v>
+      </c>
+      <c r="AG147">
+        <v>1.74</v>
+      </c>
+      <c r="AH147">
+        <v>1.97</v>
+      </c>
+      <c r="AI147">
+        <v>1.62</v>
+      </c>
+      <c r="AJ147">
+        <v>2.2</v>
+      </c>
+      <c r="AK147">
+        <v>1.63</v>
+      </c>
+      <c r="AL147">
+        <v>1.3</v>
+      </c>
+      <c r="AM147">
+        <v>1.4</v>
+      </c>
+      <c r="AN147">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO147">
+        <v>1.44</v>
+      </c>
+      <c r="AP147">
+        <v>0.5</v>
+      </c>
+      <c r="AQ147">
+        <v>1.6</v>
+      </c>
+      <c r="AR147">
+        <v>1.32</v>
+      </c>
+      <c r="AS147">
+        <v>1.43</v>
+      </c>
+      <c r="AT147">
+        <v>2.75</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>6</v>
+      </c>
+      <c r="AW147">
+        <v>7</v>
+      </c>
+      <c r="AX147">
+        <v>7</v>
+      </c>
+      <c r="AY147">
+        <v>11</v>
+      </c>
+      <c r="AZ147">
+        <v>13</v>
+      </c>
+      <c r="BA147">
+        <v>4</v>
+      </c>
+      <c r="BB147">
+        <v>2</v>
+      </c>
+      <c r="BC147">
+        <v>6</v>
+      </c>
+      <c r="BD147">
+        <v>2.23</v>
+      </c>
+      <c r="BE147">
+        <v>6.75</v>
+      </c>
+      <c r="BF147">
+        <v>1.7</v>
+      </c>
+      <c r="BG147">
+        <v>1.18</v>
+      </c>
+      <c r="BH147">
+        <v>4.1</v>
+      </c>
+      <c r="BI147">
+        <v>1.32</v>
+      </c>
+      <c r="BJ147">
+        <v>3.05</v>
+      </c>
+      <c r="BK147">
+        <v>1.54</v>
+      </c>
+      <c r="BL147">
+        <v>2.3</v>
+      </c>
+      <c r="BM147">
+        <v>1.8</v>
+      </c>
+      <c r="BN147">
+        <v>2</v>
+      </c>
+      <c r="BO147">
+        <v>2.3</v>
+      </c>
+      <c r="BP147">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7292588</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45521.52083333334</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>82</v>
+      </c>
+      <c r="H148" t="s">
+        <v>83</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>193</v>
+      </c>
+      <c r="P148" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q148">
+        <v>2.35</v>
+      </c>
+      <c r="R148">
+        <v>2.38</v>
+      </c>
+      <c r="S148">
+        <v>4.72</v>
+      </c>
+      <c r="T148">
+        <v>1.34</v>
+      </c>
+      <c r="U148">
+        <v>3.3</v>
+      </c>
+      <c r="V148">
+        <v>2.66</v>
+      </c>
+      <c r="W148">
+        <v>1.48</v>
+      </c>
+      <c r="X148">
+        <v>6.05</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>1.75</v>
+      </c>
+      <c r="AA148">
+        <v>3.5</v>
+      </c>
+      <c r="AB148">
+        <v>3.7</v>
+      </c>
+      <c r="AC148">
+        <v>1.04</v>
+      </c>
+      <c r="AD148">
+        <v>15</v>
+      </c>
+      <c r="AE148">
+        <v>1.2</v>
+      </c>
+      <c r="AF148">
+        <v>3.88</v>
+      </c>
+      <c r="AG148">
+        <v>1.67</v>
+      </c>
+      <c r="AH148">
+        <v>2</v>
+      </c>
+      <c r="AI148">
+        <v>1.69</v>
+      </c>
+      <c r="AJ148">
+        <v>2.09</v>
+      </c>
+      <c r="AK148">
+        <v>1.22</v>
+      </c>
+      <c r="AL148">
+        <v>1.26</v>
+      </c>
+      <c r="AM148">
+        <v>2.06</v>
+      </c>
+      <c r="AN148">
+        <v>0.78</v>
+      </c>
+      <c r="AO148">
+        <v>1</v>
+      </c>
+      <c r="AP148">
+        <v>1</v>
+      </c>
+      <c r="AQ148">
+        <v>0.9</v>
+      </c>
+      <c r="AR148">
+        <v>1.63</v>
+      </c>
+      <c r="AS148">
+        <v>1.14</v>
+      </c>
+      <c r="AT148">
+        <v>2.77</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>3</v>
+      </c>
+      <c r="AY148">
+        <v>11</v>
+      </c>
+      <c r="AZ148">
+        <v>8</v>
+      </c>
+      <c r="BA148">
+        <v>3</v>
+      </c>
+      <c r="BB148">
+        <v>4</v>
+      </c>
+      <c r="BC148">
+        <v>7</v>
+      </c>
+      <c r="BD148">
+        <v>1.38</v>
+      </c>
+      <c r="BE148">
+        <v>7</v>
+      </c>
+      <c r="BF148">
+        <v>3.05</v>
+      </c>
+      <c r="BG148">
+        <v>1.2</v>
+      </c>
+      <c r="BH148">
+        <v>4</v>
+      </c>
+      <c r="BI148">
+        <v>1.34</v>
+      </c>
+      <c r="BJ148">
+        <v>2.9</v>
+      </c>
+      <c r="BK148">
+        <v>1.57</v>
+      </c>
+      <c r="BL148">
+        <v>2.23</v>
+      </c>
+      <c r="BM148">
+        <v>1.88</v>
+      </c>
+      <c r="BN148">
+        <v>1.92</v>
+      </c>
+      <c r="BO148">
+        <v>2.38</v>
+      </c>
+      <c r="BP148">
         <v>1.5</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,15 @@
     <t>['62', '90+7']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['23', '30', '90+5']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -820,9 +829,6 @@
     <t>['25', '34']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['10', '36', '69', '84']</t>
   </si>
   <si>
@@ -848,6 +854,15 @@
   </si>
   <si>
     <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['39', '63']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['40', '54', '82']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1483,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1674,7 +1689,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1880,7 +1895,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1958,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ4">
         <v>1.6</v>
@@ -2292,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2579,7 +2594,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2910,7 +2925,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3116,7 +3131,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3194,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3400,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -4021,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4146,7 +4161,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4352,7 +4367,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4558,7 +4573,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4636,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4764,7 +4779,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4842,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ18">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR18">
         <v>2.67</v>
@@ -5051,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
         <v>1.04</v>
@@ -5382,7 +5397,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5666,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ22">
         <v>1.4</v>
@@ -5794,7 +5809,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6000,7 +6015,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6287,7 +6302,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6412,7 +6427,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -7030,7 +7045,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7108,7 +7123,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7648,7 +7663,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7854,7 +7869,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8060,7 +8075,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8138,7 +8153,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1.4</v>
@@ -8266,7 +8281,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8347,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8678,7 +8693,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8759,7 +8774,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -8884,7 +8899,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9090,7 +9105,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9502,7 +9517,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9580,7 +9595,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -9708,7 +9723,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9789,7 +9804,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR42">
         <v>0.88</v>
@@ -9995,7 +10010,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ43">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR43">
         <v>2.45</v>
@@ -10198,7 +10213,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10326,7 +10341,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10532,7 +10547,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10610,7 +10625,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>1.22</v>
@@ -10944,7 +10959,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11022,7 +11037,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ48">
         <v>0.9</v>
@@ -11356,7 +11371,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11437,7 +11452,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR50">
         <v>1.18</v>
@@ -11562,7 +11577,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11640,7 +11655,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ51">
         <v>1.6</v>
@@ -11768,7 +11783,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11849,7 +11864,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11974,7 +11989,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12180,7 +12195,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12386,7 +12401,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12592,7 +12607,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12798,7 +12813,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12876,7 +12891,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -13004,7 +13019,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13210,7 +13225,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13494,7 +13509,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ60">
         <v>0.5600000000000001</v>
@@ -13622,7 +13637,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13828,7 +13843,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14112,10 +14127,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ63">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14240,7 +14255,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14446,7 +14461,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14733,7 +14748,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ66">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR66">
         <v>1.53</v>
@@ -14939,7 +14954,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -15142,7 +15157,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ68">
         <v>1.6</v>
@@ -15270,7 +15285,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15682,7 +15697,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15888,7 +15903,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16094,7 +16109,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16172,7 +16187,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>2.25</v>
@@ -16300,7 +16315,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16381,7 +16396,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ74">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR74">
         <v>1.46</v>
@@ -16506,7 +16521,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16584,7 +16599,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0.8</v>
@@ -16790,10 +16805,10 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ76">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -16918,7 +16933,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17408,10 +17423,10 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ79">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17536,7 +17551,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18235,7 +18250,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18438,10 +18453,10 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ84">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18566,7 +18581,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18644,7 +18659,7 @@
         <v>2.25</v>
       </c>
       <c r="AP85">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ85">
         <v>2.25</v>
@@ -18978,7 +18993,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19184,7 +19199,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19390,7 +19405,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19596,7 +19611,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19677,7 +19692,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR90">
         <v>2.32</v>
@@ -19880,10 +19895,10 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ91">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR91">
         <v>1.51</v>
@@ -20089,7 +20104,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR92">
         <v>1.27</v>
@@ -20214,7 +20229,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20292,7 +20307,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
         <v>2</v>
@@ -20832,7 +20847,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20910,7 +20925,7 @@
         <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ96">
         <v>1.6</v>
@@ -21038,7 +21053,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21244,7 +21259,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21325,7 +21340,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ98">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR98">
         <v>1.85</v>
@@ -21450,7 +21465,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21862,7 +21877,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21940,7 +21955,7 @@
         <v>1.17</v>
       </c>
       <c r="AP101">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ101">
         <v>1.4</v>
@@ -22274,7 +22289,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22480,7 +22495,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22561,7 +22576,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ104">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR104">
         <v>2.32</v>
@@ -22764,7 +22779,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ105">
         <v>1.6</v>
@@ -22892,7 +22907,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23098,7 +23113,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23179,7 +23194,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -23304,7 +23319,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23382,7 +23397,7 @@
         <v>2</v>
       </c>
       <c r="AP108">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ108">
         <v>2</v>
@@ -23794,7 +23809,7 @@
         <v>2.17</v>
       </c>
       <c r="AP110">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ110">
         <v>1.56</v>
@@ -23922,7 +23937,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24128,7 +24143,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24209,7 +24224,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR112">
         <v>1.86</v>
@@ -24540,7 +24555,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24621,7 +24636,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ114">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR114">
         <v>1</v>
@@ -24746,7 +24761,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24952,7 +24967,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25158,7 +25173,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25239,7 +25254,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ117">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR117">
         <v>1.22</v>
@@ -25570,7 +25585,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25648,7 +25663,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>1.6</v>
@@ -25857,7 +25872,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -26188,7 +26203,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26472,10 +26487,10 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ123">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -26806,7 +26821,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27836,7 +27851,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28042,7 +28057,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28248,7 +28263,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28329,7 +28344,7 @@
         <v>1</v>
       </c>
       <c r="AQ132">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR132">
         <v>1.71</v>
@@ -28532,7 +28547,7 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ133">
         <v>0.8</v>
@@ -28660,7 +28675,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="Q134">
         <v>2.05</v>
@@ -28738,10 +28753,10 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -28866,7 +28881,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29072,7 +29087,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29150,7 +29165,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ136">
         <v>1.22</v>
@@ -29278,7 +29293,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29690,7 +29705,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>7.7</v>
@@ -30308,7 +30323,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30514,7 +30529,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>2.25</v>
@@ -30720,7 +30735,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -30926,7 +30941,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>1.56</v>
@@ -31338,7 +31353,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31544,7 +31559,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31655,13 +31670,13 @@
         <v>8</v>
       </c>
       <c r="BA148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB148">
         <v>4</v>
       </c>
       <c r="BC148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD148">
         <v>1.38</v>
@@ -31701,6 +31716,830 @@
       </c>
       <c r="BP148">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7292581</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45522.375</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>85</v>
+      </c>
+      <c r="H149" t="s">
+        <v>76</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>88</v>
+      </c>
+      <c r="P149" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q149">
+        <v>2.7</v>
+      </c>
+      <c r="R149">
+        <v>2.2</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.38</v>
+      </c>
+      <c r="U149">
+        <v>3.1</v>
+      </c>
+      <c r="V149">
+        <v>2.7</v>
+      </c>
+      <c r="W149">
+        <v>1.45</v>
+      </c>
+      <c r="X149">
+        <v>6.5</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>1.66</v>
+      </c>
+      <c r="AA149">
+        <v>2.93</v>
+      </c>
+      <c r="AB149">
+        <v>6.04</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>7.8</v>
+      </c>
+      <c r="AE149">
+        <v>1.22</v>
+      </c>
+      <c r="AF149">
+        <v>3.8</v>
+      </c>
+      <c r="AG149">
+        <v>1.88</v>
+      </c>
+      <c r="AH149">
+        <v>1.92</v>
+      </c>
+      <c r="AI149">
+        <v>1.65</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.28</v>
+      </c>
+      <c r="AL149">
+        <v>1.3</v>
+      </c>
+      <c r="AM149">
+        <v>1.62</v>
+      </c>
+      <c r="AN149">
+        <v>1.89</v>
+      </c>
+      <c r="AO149">
+        <v>0.89</v>
+      </c>
+      <c r="AP149">
+        <v>1.7</v>
+      </c>
+      <c r="AQ149">
+        <v>1.1</v>
+      </c>
+      <c r="AR149">
+        <v>1.53</v>
+      </c>
+      <c r="AS149">
+        <v>1.45</v>
+      </c>
+      <c r="AT149">
+        <v>2.98</v>
+      </c>
+      <c r="AU149">
+        <v>0</v>
+      </c>
+      <c r="AV149">
+        <v>3</v>
+      </c>
+      <c r="AW149">
+        <v>3</v>
+      </c>
+      <c r="AX149">
+        <v>2</v>
+      </c>
+      <c r="AY149">
+        <v>3</v>
+      </c>
+      <c r="AZ149">
+        <v>5</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>4</v>
+      </c>
+      <c r="BC149">
+        <v>4</v>
+      </c>
+      <c r="BD149">
+        <v>1.48</v>
+      </c>
+      <c r="BE149">
+        <v>6.75</v>
+      </c>
+      <c r="BF149">
+        <v>2.8</v>
+      </c>
+      <c r="BG149">
+        <v>1.24</v>
+      </c>
+      <c r="BH149">
+        <v>3.65</v>
+      </c>
+      <c r="BI149">
+        <v>1.42</v>
+      </c>
+      <c r="BJ149">
+        <v>2.65</v>
+      </c>
+      <c r="BK149">
+        <v>1.88</v>
+      </c>
+      <c r="BL149">
+        <v>1.92</v>
+      </c>
+      <c r="BM149">
+        <v>2.07</v>
+      </c>
+      <c r="BN149">
+        <v>1.66</v>
+      </c>
+      <c r="BO149">
+        <v>2.65</v>
+      </c>
+      <c r="BP149">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7292585</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45522.375</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>79</v>
+      </c>
+      <c r="H150" t="s">
+        <v>77</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>194</v>
+      </c>
+      <c r="P150" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q150">
+        <v>3.5</v>
+      </c>
+      <c r="R150">
+        <v>2.2</v>
+      </c>
+      <c r="S150">
+        <v>3</v>
+      </c>
+      <c r="T150">
+        <v>1.38</v>
+      </c>
+      <c r="U150">
+        <v>3.1</v>
+      </c>
+      <c r="V150">
+        <v>2.7</v>
+      </c>
+      <c r="W150">
+        <v>1.45</v>
+      </c>
+      <c r="X150">
+        <v>6.5</v>
+      </c>
+      <c r="Y150">
+        <v>1.1</v>
+      </c>
+      <c r="Z150">
+        <v>3.91</v>
+      </c>
+      <c r="AA150">
+        <v>2</v>
+      </c>
+      <c r="AB150">
+        <v>2.84</v>
+      </c>
+      <c r="AC150">
+        <v>1.04</v>
+      </c>
+      <c r="AD150">
+        <v>12</v>
+      </c>
+      <c r="AE150">
+        <v>1.28</v>
+      </c>
+      <c r="AF150">
+        <v>3.75</v>
+      </c>
+      <c r="AG150">
+        <v>1.88</v>
+      </c>
+      <c r="AH150">
+        <v>1.93</v>
+      </c>
+      <c r="AI150">
+        <v>1.65</v>
+      </c>
+      <c r="AJ150">
+        <v>2.2</v>
+      </c>
+      <c r="AK150">
+        <v>1.6</v>
+      </c>
+      <c r="AL150">
+        <v>1.28</v>
+      </c>
+      <c r="AM150">
+        <v>1.4</v>
+      </c>
+      <c r="AN150">
+        <v>2.22</v>
+      </c>
+      <c r="AO150">
+        <v>0.75</v>
+      </c>
+      <c r="AP150">
+        <v>2.1</v>
+      </c>
+      <c r="AQ150">
+        <v>0.78</v>
+      </c>
+      <c r="AR150">
+        <v>1.35</v>
+      </c>
+      <c r="AS150">
+        <v>1.32</v>
+      </c>
+      <c r="AT150">
+        <v>2.67</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>3</v>
+      </c>
+      <c r="AW150">
+        <v>4</v>
+      </c>
+      <c r="AX150">
+        <v>3</v>
+      </c>
+      <c r="AY150">
+        <v>8</v>
+      </c>
+      <c r="AZ150">
+        <v>6</v>
+      </c>
+      <c r="BA150">
+        <v>8</v>
+      </c>
+      <c r="BB150">
+        <v>5</v>
+      </c>
+      <c r="BC150">
+        <v>13</v>
+      </c>
+      <c r="BD150">
+        <v>1.98</v>
+      </c>
+      <c r="BE150">
+        <v>6.5</v>
+      </c>
+      <c r="BF150">
+        <v>1.88</v>
+      </c>
+      <c r="BG150">
+        <v>1.19</v>
+      </c>
+      <c r="BH150">
+        <v>4.1</v>
+      </c>
+      <c r="BI150">
+        <v>1.33</v>
+      </c>
+      <c r="BJ150">
+        <v>2.95</v>
+      </c>
+      <c r="BK150">
+        <v>1.53</v>
+      </c>
+      <c r="BL150">
+        <v>2.3</v>
+      </c>
+      <c r="BM150">
+        <v>1.98</v>
+      </c>
+      <c r="BN150">
+        <v>1.82</v>
+      </c>
+      <c r="BO150">
+        <v>2.28</v>
+      </c>
+      <c r="BP150">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7292587</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45522.375</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s">
+        <v>73</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>195</v>
+      </c>
+      <c r="P151" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q151">
+        <v>3.1</v>
+      </c>
+      <c r="R151">
+        <v>2.6</v>
+      </c>
+      <c r="S151">
+        <v>2.75</v>
+      </c>
+      <c r="T151">
+        <v>1.22</v>
+      </c>
+      <c r="U151">
+        <v>4</v>
+      </c>
+      <c r="V151">
+        <v>2</v>
+      </c>
+      <c r="W151">
+        <v>1.73</v>
+      </c>
+      <c r="X151">
+        <v>4.33</v>
+      </c>
+      <c r="Y151">
+        <v>1.2</v>
+      </c>
+      <c r="Z151">
+        <v>4.59</v>
+      </c>
+      <c r="AA151">
+        <v>1.81</v>
+      </c>
+      <c r="AB151">
+        <v>2.95</v>
+      </c>
+      <c r="AC151">
+        <v>1.03</v>
+      </c>
+      <c r="AD151">
+        <v>9</v>
+      </c>
+      <c r="AE151">
+        <v>1.08</v>
+      </c>
+      <c r="AF151">
+        <v>6.2</v>
+      </c>
+      <c r="AG151">
+        <v>1.38</v>
+      </c>
+      <c r="AH151">
+        <v>2.81</v>
+      </c>
+      <c r="AI151">
+        <v>1.36</v>
+      </c>
+      <c r="AJ151">
+        <v>3</v>
+      </c>
+      <c r="AK151">
+        <v>1.6</v>
+      </c>
+      <c r="AL151">
+        <v>1.18</v>
+      </c>
+      <c r="AM151">
+        <v>1.45</v>
+      </c>
+      <c r="AN151">
+        <v>1.13</v>
+      </c>
+      <c r="AO151">
+        <v>1.38</v>
+      </c>
+      <c r="AP151">
+        <v>1</v>
+      </c>
+      <c r="AQ151">
+        <v>1.56</v>
+      </c>
+      <c r="AR151">
+        <v>1.46</v>
+      </c>
+      <c r="AS151">
+        <v>1.54</v>
+      </c>
+      <c r="AT151">
+        <v>3</v>
+      </c>
+      <c r="AU151">
+        <v>9</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
+        <v>1</v>
+      </c>
+      <c r="AY151">
+        <v>13</v>
+      </c>
+      <c r="AZ151">
+        <v>6</v>
+      </c>
+      <c r="BA151">
+        <v>8</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>1.93</v>
+      </c>
+      <c r="BE151">
+        <v>6.5</v>
+      </c>
+      <c r="BF151">
+        <v>1.95</v>
+      </c>
+      <c r="BG151">
+        <v>1.15</v>
+      </c>
+      <c r="BH151">
+        <v>4.6</v>
+      </c>
+      <c r="BI151">
+        <v>1.27</v>
+      </c>
+      <c r="BJ151">
+        <v>3.3</v>
+      </c>
+      <c r="BK151">
+        <v>1.47</v>
+      </c>
+      <c r="BL151">
+        <v>2.48</v>
+      </c>
+      <c r="BM151">
+        <v>1.88</v>
+      </c>
+      <c r="BN151">
+        <v>1.92</v>
+      </c>
+      <c r="BO151">
+        <v>2.12</v>
+      </c>
+      <c r="BP151">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7292584</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45522.47916666666</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>72</v>
+      </c>
+      <c r="H152" t="s">
+        <v>81</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>196</v>
+      </c>
+      <c r="P152" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q152">
+        <v>2.15</v>
+      </c>
+      <c r="R152">
+        <v>2.3</v>
+      </c>
+      <c r="S152">
+        <v>5.5</v>
+      </c>
+      <c r="T152">
+        <v>1.36</v>
+      </c>
+      <c r="U152">
+        <v>3.1</v>
+      </c>
+      <c r="V152">
+        <v>2.7</v>
+      </c>
+      <c r="W152">
+        <v>1.47</v>
+      </c>
+      <c r="X152">
+        <v>6.5</v>
+      </c>
+      <c r="Y152">
+        <v>1.1</v>
+      </c>
+      <c r="Z152">
+        <v>1.59</v>
+      </c>
+      <c r="AA152">
+        <v>3.95</v>
+      </c>
+      <c r="AB152">
+        <v>5.1</v>
+      </c>
+      <c r="AC152">
+        <v>1.04</v>
+      </c>
+      <c r="AD152">
+        <v>13</v>
+      </c>
+      <c r="AE152">
+        <v>1.26</v>
+      </c>
+      <c r="AF152">
+        <v>4</v>
+      </c>
+      <c r="AG152">
+        <v>1.8</v>
+      </c>
+      <c r="AH152">
+        <v>1.9</v>
+      </c>
+      <c r="AI152">
+        <v>1.85</v>
+      </c>
+      <c r="AJ152">
+        <v>1.96</v>
+      </c>
+      <c r="AK152">
+        <v>1.15</v>
+      </c>
+      <c r="AL152">
+        <v>1.2</v>
+      </c>
+      <c r="AM152">
+        <v>2.4</v>
+      </c>
+      <c r="AN152">
+        <v>2.11</v>
+      </c>
+      <c r="AO152">
+        <v>0.67</v>
+      </c>
+      <c r="AP152">
+        <v>2.2</v>
+      </c>
+      <c r="AQ152">
+        <v>0.6</v>
+      </c>
+      <c r="AR152">
+        <v>1.46</v>
+      </c>
+      <c r="AS152">
+        <v>0.97</v>
+      </c>
+      <c r="AT152">
+        <v>2.43</v>
+      </c>
+      <c r="AU152">
+        <v>8</v>
+      </c>
+      <c r="AV152">
+        <v>6</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>15</v>
+      </c>
+      <c r="AZ152">
+        <v>11</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>10</v>
+      </c>
+      <c r="BC152">
+        <v>14</v>
+      </c>
+      <c r="BD152">
+        <v>1.35</v>
+      </c>
+      <c r="BE152">
+        <v>7</v>
+      </c>
+      <c r="BF152">
+        <v>3.15</v>
+      </c>
+      <c r="BG152">
+        <v>1.19</v>
+      </c>
+      <c r="BH152">
+        <v>4.1</v>
+      </c>
+      <c r="BI152">
+        <v>1.33</v>
+      </c>
+      <c r="BJ152">
+        <v>2.95</v>
+      </c>
+      <c r="BK152">
+        <v>1.54</v>
+      </c>
+      <c r="BL152">
+        <v>2.3</v>
+      </c>
+      <c r="BM152">
+        <v>1.88</v>
+      </c>
+      <c r="BN152">
+        <v>1.92</v>
+      </c>
+      <c r="BO152">
+        <v>2.3</v>
+      </c>
+      <c r="BP152">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,9 @@
     <t>['23', '30', '90+5']</t>
   </si>
   <si>
+    <t>['54', '63']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -863,6 +866,9 @@
   </si>
   <si>
     <t>['40', '54', '82']</t>
+  </si>
+  <si>
+    <t>['9', '77']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1489,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1564,7 +1570,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1689,7 +1695,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1895,7 +1901,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2307,7 +2313,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2925,7 +2931,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3131,7 +3137,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -4161,7 +4167,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4239,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15">
         <v>1.4</v>
@@ -4367,7 +4373,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4573,7 +4579,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4779,7 +4785,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5397,7 +5403,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5475,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ21">
         <v>1.22</v>
@@ -5809,7 +5815,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5890,7 +5896,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR23">
         <v>1.23</v>
@@ -6015,7 +6021,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6427,7 +6433,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -7045,7 +7051,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7663,7 +7669,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7869,7 +7875,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8075,7 +8081,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8281,7 +8287,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8693,7 +8699,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8899,7 +8905,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9105,7 +9111,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9183,7 +9189,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9517,7 +9523,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9598,7 +9604,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR41">
         <v>1.74</v>
@@ -9723,7 +9729,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10341,7 +10347,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10547,7 +10553,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10959,7 +10965,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11371,7 +11377,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11449,7 +11455,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ50">
         <v>0.6</v>
@@ -11577,7 +11583,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11783,7 +11789,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11989,7 +11995,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12070,7 +12076,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12195,7 +12201,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12401,7 +12407,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12607,7 +12613,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12813,7 +12819,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -13019,7 +13025,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13225,7 +13231,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13637,7 +13643,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13843,7 +13849,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14255,7 +14261,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14461,7 +14467,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14542,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -15285,7 +15291,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15697,7 +15703,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15903,7 +15909,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -15981,7 +15987,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ72">
         <v>0.8</v>
@@ -16109,7 +16115,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16315,7 +16321,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16521,7 +16527,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16933,7 +16939,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17551,7 +17557,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17632,7 +17638,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR80">
         <v>1.83</v>
@@ -18581,7 +18587,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18993,7 +18999,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19199,7 +19205,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19405,7 +19411,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19611,7 +19617,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20229,7 +20235,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20310,7 +20316,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR93">
         <v>1.38</v>
@@ -20847,7 +20853,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21053,7 +21059,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21131,7 +21137,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ97">
         <v>0.5600000000000001</v>
@@ -21259,7 +21265,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21465,7 +21471,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21877,7 +21883,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22289,7 +22295,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22495,7 +22501,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22907,7 +22913,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23113,7 +23119,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23319,7 +23325,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23400,7 +23406,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ108">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR108">
         <v>1.39</v>
@@ -23937,7 +23943,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24143,7 +24149,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24427,7 +24433,7 @@
         <v>1.29</v>
       </c>
       <c r="AP113">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ113">
         <v>1.6</v>
@@ -24555,7 +24561,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24761,7 +24767,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24967,7 +24973,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25048,7 +25054,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ116">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR116">
         <v>1.66</v>
@@ -25173,7 +25179,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25457,7 +25463,7 @@
         <v>2.5</v>
       </c>
       <c r="AP118">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ118">
         <v>2.25</v>
@@ -25585,7 +25591,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26203,7 +26209,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26821,7 +26827,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27851,7 +27857,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28057,7 +28063,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28263,7 +28269,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28881,7 +28887,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29087,7 +29093,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29293,7 +29299,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29371,7 +29377,7 @@
         <v>1.25</v>
       </c>
       <c r="AP137">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ137">
         <v>1.6</v>
@@ -29705,7 +29711,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q139">
         <v>7.7</v>
@@ -29786,7 +29792,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ139">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR139">
         <v>1.03</v>
@@ -30323,7 +30329,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30529,7 +30535,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q143">
         <v>2.25</v>
@@ -30735,7 +30741,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -30941,7 +30947,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>1.56</v>
@@ -31353,7 +31359,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31559,7 +31565,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31765,7 +31771,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>2.7</v>
@@ -31971,7 +31977,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32177,7 +32183,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32540,6 +32546,212 @@
       </c>
       <c r="BP152">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7292596</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45528.41666666666</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
+        <v>83</v>
+      </c>
+      <c r="H153" t="s">
+        <v>80</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>197</v>
+      </c>
+      <c r="P153" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q153">
+        <v>6.25</v>
+      </c>
+      <c r="R153">
+        <v>2.45</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>1.28</v>
+      </c>
+      <c r="U153">
+        <v>3.4</v>
+      </c>
+      <c r="V153">
+        <v>2.3</v>
+      </c>
+      <c r="W153">
+        <v>1.55</v>
+      </c>
+      <c r="X153">
+        <v>5</v>
+      </c>
+      <c r="Y153">
+        <v>1.13</v>
+      </c>
+      <c r="Z153">
+        <v>5.75</v>
+      </c>
+      <c r="AA153">
+        <v>4.4</v>
+      </c>
+      <c r="AB153">
+        <v>1.53</v>
+      </c>
+      <c r="AC153">
+        <v>1.03</v>
+      </c>
+      <c r="AD153">
+        <v>18.25</v>
+      </c>
+      <c r="AE153">
+        <v>1.19</v>
+      </c>
+      <c r="AF153">
+        <v>4.77</v>
+      </c>
+      <c r="AG153">
+        <v>1.58</v>
+      </c>
+      <c r="AH153">
+        <v>2.23</v>
+      </c>
+      <c r="AI153">
+        <v>1.85</v>
+      </c>
+      <c r="AJ153">
+        <v>1.95</v>
+      </c>
+      <c r="AK153">
+        <v>3</v>
+      </c>
+      <c r="AL153">
+        <v>1.15</v>
+      </c>
+      <c r="AM153">
+        <v>1.08</v>
+      </c>
+      <c r="AN153">
+        <v>0.78</v>
+      </c>
+      <c r="AO153">
+        <v>2</v>
+      </c>
+      <c r="AP153">
+        <v>0.8</v>
+      </c>
+      <c r="AQ153">
+        <v>1.91</v>
+      </c>
+      <c r="AR153">
+        <v>1.24</v>
+      </c>
+      <c r="AS153">
+        <v>1.83</v>
+      </c>
+      <c r="AT153">
+        <v>3.07</v>
+      </c>
+      <c r="AU153">
+        <v>5</v>
+      </c>
+      <c r="AV153">
+        <v>9</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>5</v>
+      </c>
+      <c r="AY153">
+        <v>9</v>
+      </c>
+      <c r="AZ153">
+        <v>14</v>
+      </c>
+      <c r="BA153">
+        <v>3</v>
+      </c>
+      <c r="BB153">
+        <v>6</v>
+      </c>
+      <c r="BC153">
+        <v>9</v>
+      </c>
+      <c r="BD153">
+        <v>3.3</v>
+      </c>
+      <c r="BE153">
+        <v>7</v>
+      </c>
+      <c r="BF153">
+        <v>1.33</v>
+      </c>
+      <c r="BG153">
+        <v>1.2</v>
+      </c>
+      <c r="BH153">
+        <v>3.95</v>
+      </c>
+      <c r="BI153">
+        <v>1.36</v>
+      </c>
+      <c r="BJ153">
+        <v>2.85</v>
+      </c>
+      <c r="BK153">
+        <v>1.58</v>
+      </c>
+      <c r="BL153">
+        <v>2.18</v>
+      </c>
+      <c r="BM153">
+        <v>1.94</v>
+      </c>
+      <c r="BN153">
+        <v>1.76</v>
+      </c>
+      <c r="BO153">
+        <v>2.4</v>
+      </c>
+      <c r="BP153">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,12 @@
     <t>['54', '63']</t>
   </si>
   <si>
+    <t>['33', '58', '66']</t>
+  </si>
+  <si>
+    <t>['34', '45+4']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -869,6 +875,12 @@
   </si>
   <si>
     <t>['9', '77']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1501,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1695,7 +1707,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1901,7 +1913,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1982,7 +1994,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ4">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2185,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2313,7 +2325,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2394,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2597,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0.6</v>
@@ -2803,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ8">
         <v>0.5600000000000001</v>
@@ -2931,7 +2943,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3009,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ9">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3137,7 +3149,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3836,7 +3848,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4167,7 +4179,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4373,7 +4385,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4579,7 +4591,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4785,7 +4797,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5403,7 +5415,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5484,7 +5496,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ21">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5815,7 +5827,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6021,7 +6033,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6099,10 +6111,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ24">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6433,7 +6445,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6511,10 +6523,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -7051,7 +7063,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7335,10 +7347,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ30">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7541,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ31">
         <v>1.6</v>
@@ -7669,7 +7681,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7750,7 +7762,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR32">
         <v>0.76</v>
@@ -7875,7 +7887,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7953,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ33">
         <v>0.9</v>
@@ -8081,7 +8093,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8287,7 +8299,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8571,10 +8583,10 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ36">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8699,7 +8711,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8905,7 +8917,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9111,7 +9123,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9523,7 +9535,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9729,7 +9741,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10347,7 +10359,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10425,7 +10437,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ45">
         <v>0.8</v>
@@ -10553,7 +10565,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10634,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR46">
         <v>1.52</v>
@@ -10837,7 +10849,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ47">
         <v>1.4</v>
@@ -10965,7 +10977,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11377,7 +11389,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11583,7 +11595,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11664,7 +11676,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11789,7 +11801,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11867,7 +11879,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
         <v>1.56</v>
@@ -11995,7 +12007,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12073,7 +12085,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ53">
         <v>1.91</v>
@@ -12201,7 +12213,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12282,7 +12294,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -12407,7 +12419,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12485,7 +12497,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ55">
         <v>0.8</v>
@@ -12613,7 +12625,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12694,7 +12706,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ56">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.45</v>
@@ -12819,7 +12831,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12900,7 +12912,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ57">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -13025,7 +13037,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13103,7 +13115,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ58">
         <v>1.4</v>
@@ -13231,7 +13243,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13643,7 +13655,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13721,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ61">
         <v>0.9</v>
@@ -13849,7 +13861,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14261,7 +14273,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14342,7 +14354,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR64">
         <v>0.97</v>
@@ -14467,7 +14479,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14751,7 +14763,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ66">
         <v>1.1</v>
@@ -15291,7 +15303,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15372,7 +15384,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.65</v>
@@ -15703,7 +15715,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15781,10 +15793,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ71">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR71">
         <v>1.6</v>
@@ -15909,7 +15921,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16115,7 +16127,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16196,7 +16208,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16321,7 +16333,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16527,7 +16539,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16939,7 +16951,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17223,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
         <v>0.5600000000000001</v>
@@ -17557,7 +17569,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17635,7 +17647,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ80">
         <v>1.91</v>
@@ -18253,7 +18265,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ83">
         <v>0.6</v>
@@ -18587,7 +18599,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18668,7 +18680,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ85">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -18999,7 +19011,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19080,7 +19092,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR87">
         <v>1.67</v>
@@ -19205,7 +19217,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19286,7 +19298,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ88">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19411,7 +19423,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19489,10 +19501,10 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ89">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19617,7 +19629,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20235,7 +20247,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20725,7 +20737,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95">
         <v>0.8</v>
@@ -20853,7 +20865,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21059,7 +21071,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21265,7 +21277,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21343,7 +21355,7 @@
         <v>0.4</v>
       </c>
       <c r="AP98">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ98">
         <v>1.1</v>
@@ -21471,7 +21483,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21755,10 +21767,10 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ100">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR100">
         <v>1.64</v>
@@ -21883,7 +21895,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22170,7 +22182,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ102">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22295,7 +22307,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22373,7 +22385,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ103">
         <v>0.9</v>
@@ -22501,7 +22513,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22913,7 +22925,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -22994,7 +23006,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ106">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR106">
         <v>1.38</v>
@@ -23119,7 +23131,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23325,7 +23337,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23609,7 +23621,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23818,7 +23830,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ110">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR110">
         <v>1.61</v>
@@ -23943,7 +23955,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24149,7 +24161,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24227,7 +24239,7 @@
         <v>0.43</v>
       </c>
       <c r="AP112">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ112">
         <v>0.78</v>
@@ -24436,7 +24448,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ113">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR113">
         <v>1.31</v>
@@ -24561,7 +24573,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24767,7 +24779,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24848,7 +24860,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ115">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR115">
         <v>1.56</v>
@@ -24973,7 +24985,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25051,7 +25063,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ116">
         <v>1.91</v>
@@ -25179,7 +25191,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25466,7 +25478,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ118">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR118">
         <v>1.29</v>
@@ -25591,7 +25603,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26081,7 +26093,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26209,7 +26221,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26827,7 +26839,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -26908,7 +26920,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR125">
         <v>1.17</v>
@@ -27320,7 +27332,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ127">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>0.99</v>
@@ -27523,7 +27535,7 @@
         <v>0.71</v>
       </c>
       <c r="AP128">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ128">
         <v>0.5600000000000001</v>
@@ -27857,7 +27869,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27935,10 +27947,10 @@
         <v>2.14</v>
       </c>
       <c r="AP130">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ130">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR130">
         <v>1.78</v>
@@ -28063,7 +28075,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28141,7 +28153,7 @@
         <v>0.86</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -28269,7 +28281,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28887,7 +28899,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29093,7 +29105,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29174,7 +29186,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ136">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR136">
         <v>1.58</v>
@@ -29299,7 +29311,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29711,7 +29723,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>7.7</v>
@@ -29998,7 +30010,7 @@
         <v>1</v>
       </c>
       <c r="AQ140">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR140">
         <v>1.21</v>
@@ -30201,7 +30213,7 @@
         <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ141">
         <v>1</v>
@@ -30329,7 +30341,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30407,7 +30419,7 @@
         <v>1.13</v>
       </c>
       <c r="AP142">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30535,7 +30547,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>2.25</v>
@@ -30613,7 +30625,7 @@
         <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ143">
         <v>0.9</v>
@@ -30741,7 +30753,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -30822,7 +30834,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ144">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR144">
         <v>1.57</v>
@@ -30947,7 +30959,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>1.56</v>
@@ -31359,7 +31371,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31565,7 +31577,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31771,7 +31783,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>2.7</v>
@@ -31977,7 +31989,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32183,7 +32195,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32595,7 +32607,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>6.25</v>
@@ -32752,6 +32764,830 @@
       </c>
       <c r="BP153">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7292595</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45529.375</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>75</v>
+      </c>
+      <c r="H154" t="s">
+        <v>85</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>88</v>
+      </c>
+      <c r="P154" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q154">
+        <v>3.25</v>
+      </c>
+      <c r="R154">
+        <v>2.2</v>
+      </c>
+      <c r="S154">
+        <v>3.1</v>
+      </c>
+      <c r="T154">
+        <v>1.36</v>
+      </c>
+      <c r="U154">
+        <v>3</v>
+      </c>
+      <c r="V154">
+        <v>2.63</v>
+      </c>
+      <c r="W154">
+        <v>1.44</v>
+      </c>
+      <c r="X154">
+        <v>7</v>
+      </c>
+      <c r="Y154">
+        <v>1.1</v>
+      </c>
+      <c r="Z154">
+        <v>2.62</v>
+      </c>
+      <c r="AA154">
+        <v>3.3</v>
+      </c>
+      <c r="AB154">
+        <v>2.25</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>13</v>
+      </c>
+      <c r="AE154">
+        <v>1.26</v>
+      </c>
+      <c r="AF154">
+        <v>4</v>
+      </c>
+      <c r="AG154">
+        <v>1.7</v>
+      </c>
+      <c r="AH154">
+        <v>1.95</v>
+      </c>
+      <c r="AI154">
+        <v>1.67</v>
+      </c>
+      <c r="AJ154">
+        <v>2.1</v>
+      </c>
+      <c r="AK154">
+        <v>1.6</v>
+      </c>
+      <c r="AL154">
+        <v>1.26</v>
+      </c>
+      <c r="AM154">
+        <v>1.45</v>
+      </c>
+      <c r="AN154">
+        <v>1.56</v>
+      </c>
+      <c r="AO154">
+        <v>2.25</v>
+      </c>
+      <c r="AP154">
+        <v>1.4</v>
+      </c>
+      <c r="AQ154">
+        <v>2.33</v>
+      </c>
+      <c r="AR154">
+        <v>1.62</v>
+      </c>
+      <c r="AS154">
+        <v>1.61</v>
+      </c>
+      <c r="AT154">
+        <v>3.23</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>7</v>
+      </c>
+      <c r="AW154">
+        <v>8</v>
+      </c>
+      <c r="AX154">
+        <v>6</v>
+      </c>
+      <c r="AY154">
+        <v>13</v>
+      </c>
+      <c r="AZ154">
+        <v>13</v>
+      </c>
+      <c r="BA154">
+        <v>6</v>
+      </c>
+      <c r="BB154">
+        <v>6</v>
+      </c>
+      <c r="BC154">
+        <v>12</v>
+      </c>
+      <c r="BD154">
+        <v>2.08</v>
+      </c>
+      <c r="BE154">
+        <v>6.4</v>
+      </c>
+      <c r="BF154">
+        <v>1.79</v>
+      </c>
+      <c r="BG154">
+        <v>1.26</v>
+      </c>
+      <c r="BH154">
+        <v>3.4</v>
+      </c>
+      <c r="BI154">
+        <v>1.46</v>
+      </c>
+      <c r="BJ154">
+        <v>2.5</v>
+      </c>
+      <c r="BK154">
+        <v>1.74</v>
+      </c>
+      <c r="BL154">
+        <v>1.97</v>
+      </c>
+      <c r="BM154">
+        <v>2.15</v>
+      </c>
+      <c r="BN154">
+        <v>1.61</v>
+      </c>
+      <c r="BO154">
+        <v>2.7</v>
+      </c>
+      <c r="BP154">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7292592</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45529.375</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>77</v>
+      </c>
+      <c r="H155" t="s">
+        <v>74</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>4</v>
+      </c>
+      <c r="O155" t="s">
+        <v>198</v>
+      </c>
+      <c r="P155" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q155">
+        <v>2.5</v>
+      </c>
+      <c r="R155">
+        <v>2.3</v>
+      </c>
+      <c r="S155">
+        <v>4</v>
+      </c>
+      <c r="T155">
+        <v>1.33</v>
+      </c>
+      <c r="U155">
+        <v>3.25</v>
+      </c>
+      <c r="V155">
+        <v>2.5</v>
+      </c>
+      <c r="W155">
+        <v>1.5</v>
+      </c>
+      <c r="X155">
+        <v>6</v>
+      </c>
+      <c r="Y155">
+        <v>1.13</v>
+      </c>
+      <c r="Z155">
+        <v>1.73</v>
+      </c>
+      <c r="AA155">
+        <v>3.6</v>
+      </c>
+      <c r="AB155">
+        <v>3.8</v>
+      </c>
+      <c r="AC155">
+        <v>1.03</v>
+      </c>
+      <c r="AD155">
+        <v>13</v>
+      </c>
+      <c r="AE155">
+        <v>1.24</v>
+      </c>
+      <c r="AF155">
+        <v>4.2</v>
+      </c>
+      <c r="AG155">
+        <v>1.65</v>
+      </c>
+      <c r="AH155">
+        <v>2</v>
+      </c>
+      <c r="AI155">
+        <v>1.62</v>
+      </c>
+      <c r="AJ155">
+        <v>2.2</v>
+      </c>
+      <c r="AK155">
+        <v>1.26</v>
+      </c>
+      <c r="AL155">
+        <v>1.24</v>
+      </c>
+      <c r="AM155">
+        <v>1.92</v>
+      </c>
+      <c r="AN155">
+        <v>2.2</v>
+      </c>
+      <c r="AO155">
+        <v>1.22</v>
+      </c>
+      <c r="AP155">
+        <v>2.27</v>
+      </c>
+      <c r="AQ155">
+        <v>1.1</v>
+      </c>
+      <c r="AR155">
+        <v>1.7</v>
+      </c>
+      <c r="AS155">
+        <v>1.67</v>
+      </c>
+      <c r="AT155">
+        <v>3.37</v>
+      </c>
+      <c r="AU155">
+        <v>8</v>
+      </c>
+      <c r="AV155">
+        <v>2</v>
+      </c>
+      <c r="AW155">
+        <v>3</v>
+      </c>
+      <c r="AX155">
+        <v>3</v>
+      </c>
+      <c r="AY155">
+        <v>11</v>
+      </c>
+      <c r="AZ155">
+        <v>5</v>
+      </c>
+      <c r="BA155">
+        <v>11</v>
+      </c>
+      <c r="BB155">
+        <v>4</v>
+      </c>
+      <c r="BC155">
+        <v>15</v>
+      </c>
+      <c r="BD155">
+        <v>1.79</v>
+      </c>
+      <c r="BE155">
+        <v>6.75</v>
+      </c>
+      <c r="BF155">
+        <v>2.07</v>
+      </c>
+      <c r="BG155">
+        <v>1.16</v>
+      </c>
+      <c r="BH155">
+        <v>4.6</v>
+      </c>
+      <c r="BI155">
+        <v>1.28</v>
+      </c>
+      <c r="BJ155">
+        <v>3.3</v>
+      </c>
+      <c r="BK155">
+        <v>1.48</v>
+      </c>
+      <c r="BL155">
+        <v>2.45</v>
+      </c>
+      <c r="BM155">
+        <v>1.74</v>
+      </c>
+      <c r="BN155">
+        <v>1.95</v>
+      </c>
+      <c r="BO155">
+        <v>2.15</v>
+      </c>
+      <c r="BP155">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7292589</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45529.47916666666</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>76</v>
+      </c>
+      <c r="H156" t="s">
+        <v>78</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>199</v>
+      </c>
+      <c r="P156" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q156">
+        <v>2.3</v>
+      </c>
+      <c r="R156">
+        <v>2.38</v>
+      </c>
+      <c r="S156">
+        <v>4.5</v>
+      </c>
+      <c r="T156">
+        <v>1.3</v>
+      </c>
+      <c r="U156">
+        <v>3.4</v>
+      </c>
+      <c r="V156">
+        <v>2.5</v>
+      </c>
+      <c r="W156">
+        <v>1.5</v>
+      </c>
+      <c r="X156">
+        <v>6</v>
+      </c>
+      <c r="Y156">
+        <v>1.13</v>
+      </c>
+      <c r="Z156">
+        <v>1.7</v>
+      </c>
+      <c r="AA156">
+        <v>3.75</v>
+      </c>
+      <c r="AB156">
+        <v>3.8</v>
+      </c>
+      <c r="AC156">
+        <v>1.03</v>
+      </c>
+      <c r="AD156">
+        <v>15</v>
+      </c>
+      <c r="AE156">
+        <v>1.2</v>
+      </c>
+      <c r="AF156">
+        <v>4.5</v>
+      </c>
+      <c r="AG156">
+        <v>1.6</v>
+      </c>
+      <c r="AH156">
+        <v>2.1</v>
+      </c>
+      <c r="AI156">
+        <v>1.62</v>
+      </c>
+      <c r="AJ156">
+        <v>2.2</v>
+      </c>
+      <c r="AK156">
+        <v>1.22</v>
+      </c>
+      <c r="AL156">
+        <v>1.24</v>
+      </c>
+      <c r="AM156">
+        <v>2.09</v>
+      </c>
+      <c r="AN156">
+        <v>2</v>
+      </c>
+      <c r="AO156">
+        <v>1.6</v>
+      </c>
+      <c r="AP156">
+        <v>2.1</v>
+      </c>
+      <c r="AQ156">
+        <v>1.45</v>
+      </c>
+      <c r="AR156">
+        <v>1.71</v>
+      </c>
+      <c r="AS156">
+        <v>1.59</v>
+      </c>
+      <c r="AT156">
+        <v>3.3</v>
+      </c>
+      <c r="AU156">
+        <v>9</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
+        <v>2</v>
+      </c>
+      <c r="AY156">
+        <v>18</v>
+      </c>
+      <c r="AZ156">
+        <v>6</v>
+      </c>
+      <c r="BA156">
+        <v>5</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
+        <v>9</v>
+      </c>
+      <c r="BD156">
+        <v>1.5</v>
+      </c>
+      <c r="BE156">
+        <v>6.75</v>
+      </c>
+      <c r="BF156">
+        <v>2.65</v>
+      </c>
+      <c r="BG156">
+        <v>1.22</v>
+      </c>
+      <c r="BH156">
+        <v>3.8</v>
+      </c>
+      <c r="BI156">
+        <v>1.38</v>
+      </c>
+      <c r="BJ156">
+        <v>2.75</v>
+      </c>
+      <c r="BK156">
+        <v>1.63</v>
+      </c>
+      <c r="BL156">
+        <v>2.12</v>
+      </c>
+      <c r="BM156">
+        <v>1.97</v>
+      </c>
+      <c r="BN156">
+        <v>1.74</v>
+      </c>
+      <c r="BO156">
+        <v>2.45</v>
+      </c>
+      <c r="BP156">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7292593</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45529.47916666666</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" t="s">
+        <v>84</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>175</v>
+      </c>
+      <c r="P157" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q157">
+        <v>2.05</v>
+      </c>
+      <c r="R157">
+        <v>2.6</v>
+      </c>
+      <c r="S157">
+        <v>4.75</v>
+      </c>
+      <c r="T157">
+        <v>1.25</v>
+      </c>
+      <c r="U157">
+        <v>3.75</v>
+      </c>
+      <c r="V157">
+        <v>2.1</v>
+      </c>
+      <c r="W157">
+        <v>1.67</v>
+      </c>
+      <c r="X157">
+        <v>5</v>
+      </c>
+      <c r="Y157">
+        <v>1.17</v>
+      </c>
+      <c r="Z157">
+        <v>1.53</v>
+      </c>
+      <c r="AA157">
+        <v>4.2</v>
+      </c>
+      <c r="AB157">
+        <v>4.4</v>
+      </c>
+      <c r="AC157">
+        <v>1.01</v>
+      </c>
+      <c r="AD157">
+        <v>23</v>
+      </c>
+      <c r="AE157">
+        <v>1.14</v>
+      </c>
+      <c r="AF157">
+        <v>6</v>
+      </c>
+      <c r="AG157">
+        <v>1.42</v>
+      </c>
+      <c r="AH157">
+        <v>2.65</v>
+      </c>
+      <c r="AI157">
+        <v>1.53</v>
+      </c>
+      <c r="AJ157">
+        <v>2.38</v>
+      </c>
+      <c r="AK157">
+        <v>1.17</v>
+      </c>
+      <c r="AL157">
+        <v>1.17</v>
+      </c>
+      <c r="AM157">
+        <v>2.45</v>
+      </c>
+      <c r="AN157">
+        <v>1.78</v>
+      </c>
+      <c r="AO157">
+        <v>1.56</v>
+      </c>
+      <c r="AP157">
+        <v>1.7</v>
+      </c>
+      <c r="AQ157">
+        <v>1.5</v>
+      </c>
+      <c r="AR157">
+        <v>1.74</v>
+      </c>
+      <c r="AS157">
+        <v>1.31</v>
+      </c>
+      <c r="AT157">
+        <v>3.05</v>
+      </c>
+      <c r="AU157">
+        <v>6</v>
+      </c>
+      <c r="AV157">
+        <v>7</v>
+      </c>
+      <c r="AW157">
+        <v>4</v>
+      </c>
+      <c r="AX157">
+        <v>5</v>
+      </c>
+      <c r="AY157">
+        <v>10</v>
+      </c>
+      <c r="AZ157">
+        <v>12</v>
+      </c>
+      <c r="BA157">
+        <v>9</v>
+      </c>
+      <c r="BB157">
+        <v>5</v>
+      </c>
+      <c r="BC157">
+        <v>14</v>
+      </c>
+      <c r="BD157">
+        <v>1.32</v>
+      </c>
+      <c r="BE157">
+        <v>7.5</v>
+      </c>
+      <c r="BF157">
+        <v>3.4</v>
+      </c>
+      <c r="BG157">
+        <v>1.14</v>
+      </c>
+      <c r="BH157">
+        <v>4.8</v>
+      </c>
+      <c r="BI157">
+        <v>1.26</v>
+      </c>
+      <c r="BJ157">
+        <v>3.4</v>
+      </c>
+      <c r="BK157">
+        <v>1.44</v>
+      </c>
+      <c r="BL157">
+        <v>2.55</v>
+      </c>
+      <c r="BM157">
+        <v>1.7</v>
+      </c>
+      <c r="BN157">
+        <v>2.02</v>
+      </c>
+      <c r="BO157">
+        <v>2.05</v>
+      </c>
+      <c r="BP157">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -882,6 +882,9 @@
   <si>
     <t>['74']</t>
   </si>
+  <si>
+    <t>['14', '29']</t>
+  </si>
 </sst>
 </file>
 
@@ -1242,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>1.91</v>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.9</v>
@@ -2200,7 +2203,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2818,7 +2821,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ8">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3845,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.1</v>
@@ -5287,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -6317,7 +6320,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.78</v>
@@ -6938,7 +6941,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ28">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>2.62</v>
@@ -7144,7 +7147,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR29">
         <v>1.27</v>
@@ -7759,7 +7762,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>1.45</v>
@@ -8789,7 +8792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>0.78</v>
@@ -8995,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.6</v>
@@ -9410,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -11261,10 +11264,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -12703,7 +12706,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -13321,10 +13324,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR59">
         <v>0.92</v>
@@ -13530,7 +13533,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ60">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13939,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>1.6</v>
@@ -14969,7 +14972,7 @@
         <v>2.33</v>
       </c>
       <c r="AP67">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
         <v>1.56</v>
@@ -16411,7 +16414,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1.1</v>
@@ -17238,7 +17241,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17856,7 +17859,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18883,7 +18886,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>1.4</v>
@@ -19295,7 +19298,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>1.5</v>
@@ -20531,7 +20534,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -21152,7 +21155,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ97">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR97">
         <v>1.29</v>
@@ -21564,7 +21567,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR99">
         <v>1.17</v>
@@ -23003,7 +23006,7 @@
         <v>2.4</v>
       </c>
       <c r="AP106">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>2.33</v>
@@ -24651,7 +24654,7 @@
         <v>0.33</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114">
         <v>1.1</v>
@@ -24857,7 +24860,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.1</v>
@@ -25887,7 +25890,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>0.6</v>
@@ -26096,7 +26099,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26302,7 +26305,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR122">
         <v>1.19</v>
@@ -26711,7 +26714,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ124">
         <v>0.9</v>
@@ -27329,7 +27332,7 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
         <v>1.5</v>
@@ -27538,7 +27541,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ128">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR128">
         <v>1.82</v>
@@ -27741,10 +27744,10 @@
         <v>1.29</v>
       </c>
       <c r="AP129">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR129">
         <v>1.54</v>
@@ -29595,10 +29598,10 @@
         <v>0.63</v>
       </c>
       <c r="AP138">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR138">
         <v>1.34</v>
@@ -29801,7 +29804,7 @@
         <v>1.89</v>
       </c>
       <c r="AP139">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>1.91</v>
@@ -30216,7 +30219,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR141">
         <v>1.74</v>
@@ -30831,7 +30834,7 @@
         <v>1.67</v>
       </c>
       <c r="AP144">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>1.45</v>
@@ -33588,6 +33591,624 @@
       </c>
       <c r="BP157">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7292594</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>81</v>
+      </c>
+      <c r="H158" t="s">
+        <v>82</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>88</v>
+      </c>
+      <c r="P158" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q158">
+        <v>3.75</v>
+      </c>
+      <c r="R158">
+        <v>2.2</v>
+      </c>
+      <c r="S158">
+        <v>2.75</v>
+      </c>
+      <c r="T158">
+        <v>1.36</v>
+      </c>
+      <c r="U158">
+        <v>3</v>
+      </c>
+      <c r="V158">
+        <v>2.75</v>
+      </c>
+      <c r="W158">
+        <v>1.4</v>
+      </c>
+      <c r="X158">
+        <v>7</v>
+      </c>
+      <c r="Y158">
+        <v>1.1</v>
+      </c>
+      <c r="Z158">
+        <v>3</v>
+      </c>
+      <c r="AA158">
+        <v>3.3</v>
+      </c>
+      <c r="AB158">
+        <v>2.1</v>
+      </c>
+      <c r="AC158">
+        <v>1.05</v>
+      </c>
+      <c r="AD158">
+        <v>12.25</v>
+      </c>
+      <c r="AE158">
+        <v>1.28</v>
+      </c>
+      <c r="AF158">
+        <v>3.75</v>
+      </c>
+      <c r="AG158">
+        <v>1.8</v>
+      </c>
+      <c r="AH158">
+        <v>1.85</v>
+      </c>
+      <c r="AI158">
+        <v>1.7</v>
+      </c>
+      <c r="AJ158">
+        <v>2.05</v>
+      </c>
+      <c r="AK158">
+        <v>1.7</v>
+      </c>
+      <c r="AL158">
+        <v>1.3</v>
+      </c>
+      <c r="AM158">
+        <v>1.34</v>
+      </c>
+      <c r="AN158">
+        <v>1.67</v>
+      </c>
+      <c r="AO158">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP158">
+        <v>1.5</v>
+      </c>
+      <c r="AQ158">
+        <v>0.8</v>
+      </c>
+      <c r="AR158">
+        <v>1.01</v>
+      </c>
+      <c r="AS158">
+        <v>1.59</v>
+      </c>
+      <c r="AT158">
+        <v>2.6</v>
+      </c>
+      <c r="AU158">
+        <v>2</v>
+      </c>
+      <c r="AV158">
+        <v>6</v>
+      </c>
+      <c r="AW158">
+        <v>4</v>
+      </c>
+      <c r="AX158">
+        <v>8</v>
+      </c>
+      <c r="AY158">
+        <v>6</v>
+      </c>
+      <c r="AZ158">
+        <v>14</v>
+      </c>
+      <c r="BA158">
+        <v>1</v>
+      </c>
+      <c r="BB158">
+        <v>5</v>
+      </c>
+      <c r="BC158">
+        <v>6</v>
+      </c>
+      <c r="BD158">
+        <v>2.4</v>
+      </c>
+      <c r="BE158">
+        <v>6.75</v>
+      </c>
+      <c r="BF158">
+        <v>1.58</v>
+      </c>
+      <c r="BG158">
+        <v>1.21</v>
+      </c>
+      <c r="BH158">
+        <v>3.9</v>
+      </c>
+      <c r="BI158">
+        <v>1.38</v>
+      </c>
+      <c r="BJ158">
+        <v>2.8</v>
+      </c>
+      <c r="BK158">
+        <v>1.63</v>
+      </c>
+      <c r="BL158">
+        <v>2.15</v>
+      </c>
+      <c r="BM158">
+        <v>1.98</v>
+      </c>
+      <c r="BN158">
+        <v>1.74</v>
+      </c>
+      <c r="BO158">
+        <v>2.43</v>
+      </c>
+      <c r="BP158">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7292591</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" t="s">
+        <v>79</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>101</v>
+      </c>
+      <c r="P159" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q159">
+        <v>3.1</v>
+      </c>
+      <c r="R159">
+        <v>2.25</v>
+      </c>
+      <c r="S159">
+        <v>3.25</v>
+      </c>
+      <c r="T159">
+        <v>1.36</v>
+      </c>
+      <c r="U159">
+        <v>3</v>
+      </c>
+      <c r="V159">
+        <v>2.63</v>
+      </c>
+      <c r="W159">
+        <v>1.44</v>
+      </c>
+      <c r="X159">
+        <v>7</v>
+      </c>
+      <c r="Y159">
+        <v>1.1</v>
+      </c>
+      <c r="Z159">
+        <v>2.45</v>
+      </c>
+      <c r="AA159">
+        <v>3.3</v>
+      </c>
+      <c r="AB159">
+        <v>2.45</v>
+      </c>
+      <c r="AC159">
+        <v>1.04</v>
+      </c>
+      <c r="AD159">
+        <v>13.5</v>
+      </c>
+      <c r="AE159">
+        <v>1.25</v>
+      </c>
+      <c r="AF159">
+        <v>4</v>
+      </c>
+      <c r="AG159">
+        <v>1.7</v>
+      </c>
+      <c r="AH159">
+        <v>1.95</v>
+      </c>
+      <c r="AI159">
+        <v>1.62</v>
+      </c>
+      <c r="AJ159">
+        <v>2.2</v>
+      </c>
+      <c r="AK159">
+        <v>1.47</v>
+      </c>
+      <c r="AL159">
+        <v>1.3</v>
+      </c>
+      <c r="AM159">
+        <v>1.53</v>
+      </c>
+      <c r="AN159">
+        <v>1.67</v>
+      </c>
+      <c r="AO159">
+        <v>1</v>
+      </c>
+      <c r="AP159">
+        <v>1.5</v>
+      </c>
+      <c r="AQ159">
+        <v>1.2</v>
+      </c>
+      <c r="AR159">
+        <v>1.34</v>
+      </c>
+      <c r="AS159">
+        <v>1.21</v>
+      </c>
+      <c r="AT159">
+        <v>2.55</v>
+      </c>
+      <c r="AU159">
+        <v>6</v>
+      </c>
+      <c r="AV159">
+        <v>6</v>
+      </c>
+      <c r="AW159">
+        <v>8</v>
+      </c>
+      <c r="AX159">
+        <v>6</v>
+      </c>
+      <c r="AY159">
+        <v>14</v>
+      </c>
+      <c r="AZ159">
+        <v>12</v>
+      </c>
+      <c r="BA159">
+        <v>8</v>
+      </c>
+      <c r="BB159">
+        <v>5</v>
+      </c>
+      <c r="BC159">
+        <v>13</v>
+      </c>
+      <c r="BD159">
+        <v>1.82</v>
+      </c>
+      <c r="BE159">
+        <v>6.5</v>
+      </c>
+      <c r="BF159">
+        <v>2.05</v>
+      </c>
+      <c r="BG159">
+        <v>1.18</v>
+      </c>
+      <c r="BH159">
+        <v>4.1</v>
+      </c>
+      <c r="BI159">
+        <v>1.33</v>
+      </c>
+      <c r="BJ159">
+        <v>2.95</v>
+      </c>
+      <c r="BK159">
+        <v>1.54</v>
+      </c>
+      <c r="BL159">
+        <v>2.3</v>
+      </c>
+      <c r="BM159">
+        <v>1.85</v>
+      </c>
+      <c r="BN159">
+        <v>1.83</v>
+      </c>
+      <c r="BO159">
+        <v>2.3</v>
+      </c>
+      <c r="BP159">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7292590</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>71</v>
+      </c>
+      <c r="H160" t="s">
+        <v>72</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160" t="s">
+        <v>88</v>
+      </c>
+      <c r="P160" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q160">
+        <v>2.4</v>
+      </c>
+      <c r="R160">
+        <v>2.3</v>
+      </c>
+      <c r="S160">
+        <v>4.33</v>
+      </c>
+      <c r="T160">
+        <v>1.33</v>
+      </c>
+      <c r="U160">
+        <v>3.25</v>
+      </c>
+      <c r="V160">
+        <v>2.5</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>6</v>
+      </c>
+      <c r="Y160">
+        <v>1.13</v>
+      </c>
+      <c r="Z160">
+        <v>1.83</v>
+      </c>
+      <c r="AA160">
+        <v>3.5</v>
+      </c>
+      <c r="AB160">
+        <v>3.5</v>
+      </c>
+      <c r="AC160">
+        <v>1.04</v>
+      </c>
+      <c r="AD160">
+        <v>15.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.18</v>
+      </c>
+      <c r="AF160">
+        <v>4.05</v>
+      </c>
+      <c r="AG160">
+        <v>1.67</v>
+      </c>
+      <c r="AH160">
+        <v>2</v>
+      </c>
+      <c r="AI160">
+        <v>1.62</v>
+      </c>
+      <c r="AJ160">
+        <v>2.2</v>
+      </c>
+      <c r="AK160">
+        <v>1.24</v>
+      </c>
+      <c r="AL160">
+        <v>1.26</v>
+      </c>
+      <c r="AM160">
+        <v>2</v>
+      </c>
+      <c r="AN160">
+        <v>2.11</v>
+      </c>
+      <c r="AO160">
+        <v>1</v>
+      </c>
+      <c r="AP160">
+        <v>2</v>
+      </c>
+      <c r="AQ160">
+        <v>1</v>
+      </c>
+      <c r="AR160">
+        <v>1.63</v>
+      </c>
+      <c r="AS160">
+        <v>1.44</v>
+      </c>
+      <c r="AT160">
+        <v>3.07</v>
+      </c>
+      <c r="AU160">
+        <v>2</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>4</v>
+      </c>
+      <c r="AX160">
+        <v>4</v>
+      </c>
+      <c r="AY160">
+        <v>6</v>
+      </c>
+      <c r="AZ160">
+        <v>10</v>
+      </c>
+      <c r="BA160">
+        <v>7</v>
+      </c>
+      <c r="BB160">
+        <v>6</v>
+      </c>
+      <c r="BC160">
+        <v>13</v>
+      </c>
+      <c r="BD160">
+        <v>1.64</v>
+      </c>
+      <c r="BE160">
+        <v>6.5</v>
+      </c>
+      <c r="BF160">
+        <v>2.33</v>
+      </c>
+      <c r="BG160">
+        <v>1.16</v>
+      </c>
+      <c r="BH160">
+        <v>4.4</v>
+      </c>
+      <c r="BI160">
+        <v>1.29</v>
+      </c>
+      <c r="BJ160">
+        <v>3.2</v>
+      </c>
+      <c r="BK160">
+        <v>1.49</v>
+      </c>
+      <c r="BL160">
+        <v>2.43</v>
+      </c>
+      <c r="BM160">
+        <v>1.77</v>
+      </c>
+      <c r="BN160">
+        <v>1.93</v>
+      </c>
+      <c r="BO160">
+        <v>2.18</v>
+      </c>
+      <c r="BP160">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -598,10 +598,10 @@
     <t>['62', '90+7']</t>
   </si>
   <si>
-    <t>['26']</t>
+    <t>['85']</t>
   </si>
   <si>
-    <t>['85']</t>
+    <t>['26']</t>
   </si>
   <si>
     <t>['23', '30', '90+5']</t>
@@ -856,22 +856,22 @@
     <t>['10', '49', '72']</t>
   </si>
   <si>
-    <t>['21']</t>
+    <t>['2', '63', '88']</t>
   </si>
   <si>
-    <t>['2', '63', '88']</t>
+    <t>['21']</t>
   </si>
   <si>
     <t>['45+5']</t>
   </si>
   <si>
-    <t>['39', '63']</t>
+    <t>['40', '54', '82']</t>
   </si>
   <si>
     <t>['16']</t>
   </si>
   <si>
-    <t>['40', '54', '82']</t>
+    <t>['39', '63']</t>
   </si>
   <si>
     <t>['9', '77']</t>
@@ -28242,7 +28242,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7292572</v>
+        <v>7292567</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28257,190 +28257,190 @@
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H132" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="Q132">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R132">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S132">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="T132">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U132">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V132">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W132">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X132">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y132">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z132">
-        <v>2.58</v>
+        <v>1.66</v>
       </c>
       <c r="AA132">
-        <v>3.58</v>
+        <v>4.1</v>
       </c>
       <c r="AB132">
-        <v>2.58</v>
+        <v>4.89</v>
       </c>
       <c r="AC132">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD132">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE132">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF132">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AG132">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AH132">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="AI132">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ132">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK132">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="AL132">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AM132">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="AN132">
-        <v>0.88</v>
+        <v>2.38</v>
       </c>
       <c r="AO132">
         <v>0.63</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AQ132">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR132">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AS132">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AT132">
-        <v>3.11</v>
+        <v>2.65</v>
       </c>
       <c r="AU132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV132">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW132">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX132">
         <v>5</v>
       </c>
       <c r="AY132">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ132">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA132">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BB132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC132">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD132">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="BE132">
         <v>7</v>
       </c>
       <c r="BF132">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BG132">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="BH132">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="BI132">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="BJ132">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="BK132">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="BL132">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="BM132">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="BN132">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="BO132">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="BP132">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28448,7 +28448,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7292567</v>
+        <v>7292572</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28463,190 +28463,190 @@
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H133" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O133" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>91</v>
+        <v>273</v>
       </c>
       <c r="Q133">
+        <v>3.2</v>
+      </c>
+      <c r="R133">
         <v>2.25</v>
       </c>
-      <c r="R133">
-        <v>2.38</v>
-      </c>
       <c r="S133">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="T133">
+        <v>1.33</v>
+      </c>
+      <c r="U133">
+        <v>3.25</v>
+      </c>
+      <c r="V133">
+        <v>2.63</v>
+      </c>
+      <c r="W133">
+        <v>1.44</v>
+      </c>
+      <c r="X133">
+        <v>6.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.11</v>
+      </c>
+      <c r="Z133">
+        <v>2.58</v>
+      </c>
+      <c r="AA133">
+        <v>3.58</v>
+      </c>
+      <c r="AB133">
+        <v>2.58</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>10</v>
+      </c>
+      <c r="AE133">
+        <v>1.22</v>
+      </c>
+      <c r="AF133">
+        <v>3.8</v>
+      </c>
+      <c r="AG133">
+        <v>1.7</v>
+      </c>
+      <c r="AH133">
+        <v>2.03</v>
+      </c>
+      <c r="AI133">
+        <v>1.57</v>
+      </c>
+      <c r="AJ133">
+        <v>2.25</v>
+      </c>
+      <c r="AK133">
+        <v>1.53</v>
+      </c>
+      <c r="AL133">
         <v>1.3</v>
       </c>
-      <c r="U133">
-        <v>3.4</v>
-      </c>
-      <c r="V133">
-        <v>2.5</v>
-      </c>
-      <c r="W133">
-        <v>1.5</v>
-      </c>
-      <c r="X133">
-        <v>6</v>
-      </c>
-      <c r="Y133">
-        <v>1.13</v>
-      </c>
-      <c r="Z133">
-        <v>1.66</v>
-      </c>
-      <c r="AA133">
-        <v>4.1</v>
-      </c>
-      <c r="AB133">
-        <v>4.89</v>
-      </c>
-      <c r="AC133">
-        <v>1.01</v>
-      </c>
-      <c r="AD133">
-        <v>11</v>
-      </c>
-      <c r="AE133">
-        <v>1.2</v>
-      </c>
-      <c r="AF133">
-        <v>4</v>
-      </c>
-      <c r="AG133">
-        <v>1.63</v>
-      </c>
-      <c r="AH133">
-        <v>2.14</v>
-      </c>
-      <c r="AI133">
-        <v>1.67</v>
-      </c>
-      <c r="AJ133">
-        <v>2.1</v>
-      </c>
-      <c r="AK133">
-        <v>1.18</v>
-      </c>
-      <c r="AL133">
-        <v>1.29</v>
-      </c>
       <c r="AM133">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="AN133">
-        <v>2.38</v>
+        <v>0.88</v>
       </c>
       <c r="AO133">
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR133">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="AS133">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AT133">
-        <v>2.65</v>
+        <v>3.11</v>
       </c>
       <c r="AU133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV133">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW133">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AX133">
         <v>5</v>
       </c>
       <c r="AY133">
+        <v>6</v>
+      </c>
+      <c r="AZ133">
         <v>12</v>
       </c>
-      <c r="AZ133">
-        <v>10</v>
-      </c>
       <c r="BA133">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BB133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC133">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD133">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="BE133">
         <v>7</v>
       </c>
       <c r="BF133">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BG133">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="BH133">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="BI133">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="BJ133">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="BK133">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="BL133">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="BM133">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="BN133">
+        <v>2.05</v>
+      </c>
+      <c r="BO133">
         <v>1.88</v>
       </c>
-      <c r="BO133">
-        <v>2.3</v>
-      </c>
       <c r="BP133">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28696,7 +28696,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q134">
         <v>2.05</v>
@@ -30920,7 +30920,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7292583</v>
+        <v>7292582</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30935,172 +30935,172 @@
         <v>19</v>
       </c>
       <c r="G145" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H145" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M145">
         <v>1</v>
       </c>
       <c r="N145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O145" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="Q145">
-        <v>1.56</v>
+        <v>2.78</v>
       </c>
       <c r="R145">
-        <v>3.15</v>
+        <v>2.39</v>
       </c>
       <c r="S145">
-        <v>8.960000000000001</v>
+        <v>3.61</v>
       </c>
       <c r="T145">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="U145">
-        <v>4.3</v>
+        <v>3.16</v>
       </c>
       <c r="V145">
-        <v>1.98</v>
+        <v>2.53</v>
       </c>
       <c r="W145">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="X145">
-        <v>4.05</v>
+        <v>5.85</v>
       </c>
       <c r="Y145">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="Z145">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="AA145">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB145">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="AC145">
         <v>1.01</v>
       </c>
       <c r="AD145">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AE145">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AF145">
-        <v>6.1</v>
+        <v>4.05</v>
       </c>
       <c r="AG145">
+        <v>1.65</v>
+      </c>
+      <c r="AH145">
+        <v>2.1</v>
+      </c>
+      <c r="AI145">
+        <v>1.57</v>
+      </c>
+      <c r="AJ145">
+        <v>2.31</v>
+      </c>
+      <c r="AK145">
         <v>1.38</v>
       </c>
-      <c r="AH145">
-        <v>2.81</v>
-      </c>
-      <c r="AI145">
-        <v>1.81</v>
-      </c>
-      <c r="AJ145">
-        <v>1.93</v>
-      </c>
-      <c r="AK145">
-        <v>1.05</v>
-      </c>
       <c r="AL145">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AM145">
-        <v>4.5</v>
+        <v>1.66</v>
       </c>
       <c r="AN145">
-        <v>2.63</v>
+        <v>1</v>
       </c>
       <c r="AO145">
-        <v>0.89</v>
+        <v>1.44</v>
       </c>
       <c r="AP145">
-        <v>2.67</v>
+        <v>1</v>
       </c>
       <c r="AQ145">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR145">
-        <v>2.27</v>
+        <v>1.25</v>
       </c>
       <c r="AS145">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AT145">
-        <v>3.45</v>
+        <v>2.49</v>
       </c>
       <c r="AU145">
+        <v>7</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
         <v>6</v>
       </c>
-      <c r="AV145">
-        <v>5</v>
-      </c>
-      <c r="AW145">
+      <c r="AX145">
+        <v>4</v>
+      </c>
+      <c r="AY145">
+        <v>13</v>
+      </c>
+      <c r="AZ145">
+        <v>8</v>
+      </c>
+      <c r="BA145">
+        <v>6</v>
+      </c>
+      <c r="BB145">
         <v>9</v>
       </c>
-      <c r="AX145">
-        <v>6</v>
-      </c>
-      <c r="AY145">
+      <c r="BC145">
         <v>15</v>
       </c>
-      <c r="AZ145">
-        <v>11</v>
-      </c>
-      <c r="BA145">
-        <v>7</v>
-      </c>
-      <c r="BB145">
-        <v>2</v>
-      </c>
-      <c r="BC145">
-        <v>9</v>
-      </c>
       <c r="BD145">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="BE145">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF145">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="BG145">
         <v>1.18</v>
       </c>
       <c r="BH145">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="BI145">
         <v>1.32</v>
       </c>
       <c r="BJ145">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="BK145">
         <v>1.53</v>
@@ -31109,10 +31109,10 @@
         <v>2.32</v>
       </c>
       <c r="BM145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BN145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BO145">
         <v>2.25</v>
@@ -31126,7 +31126,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7292582</v>
+        <v>7292586</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31141,160 +31141,160 @@
         <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H146" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O146" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="Q146">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="R146">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="S146">
-        <v>3.61</v>
+        <v>3</v>
       </c>
       <c r="T146">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U146">
-        <v>3.16</v>
+        <v>3</v>
       </c>
       <c r="V146">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="W146">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="X146">
-        <v>5.85</v>
+        <v>7</v>
       </c>
       <c r="Y146">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z146">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AA146">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB146">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AC146">
         <v>1.01</v>
       </c>
       <c r="AD146">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AE146">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AF146">
-        <v>4.05</v>
+        <v>3.66</v>
       </c>
       <c r="AG146">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="AH146">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="AI146">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ146">
-        <v>2.31</v>
+        <v>2.2</v>
       </c>
       <c r="AK146">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AL146">
         <v>1.3</v>
       </c>
       <c r="AM146">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="AN146">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO146">
         <v>1.44</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ146">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR146">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AS146">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="AT146">
-        <v>2.49</v>
+        <v>2.75</v>
       </c>
       <c r="AU146">
+        <v>4</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146">
         <v>7</v>
       </c>
-      <c r="AV146">
+      <c r="AX146">
+        <v>7</v>
+      </c>
+      <c r="AY146">
+        <v>11</v>
+      </c>
+      <c r="AZ146">
+        <v>13</v>
+      </c>
+      <c r="BA146">
         <v>4</v>
       </c>
-      <c r="AW146">
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
         <v>6</v>
       </c>
-      <c r="AX146">
-        <v>4</v>
-      </c>
-      <c r="AY146">
-        <v>13</v>
-      </c>
-      <c r="AZ146">
-        <v>8</v>
-      </c>
-      <c r="BA146">
-        <v>6</v>
-      </c>
-      <c r="BB146">
-        <v>9</v>
-      </c>
-      <c r="BC146">
-        <v>15</v>
-      </c>
       <c r="BD146">
-        <v>1.47</v>
+        <v>2.23</v>
       </c>
       <c r="BE146">
         <v>6.75</v>
       </c>
       <c r="BF146">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="BG146">
         <v>1.18</v>
@@ -31306,25 +31306,25 @@
         <v>1.32</v>
       </c>
       <c r="BJ146">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="BK146">
+        <v>1.54</v>
+      </c>
+      <c r="BL146">
+        <v>2.3</v>
+      </c>
+      <c r="BM146">
+        <v>1.8</v>
+      </c>
+      <c r="BN146">
+        <v>2</v>
+      </c>
+      <c r="BO146">
+        <v>2.3</v>
+      </c>
+      <c r="BP146">
         <v>1.53</v>
-      </c>
-      <c r="BL146">
-        <v>2.32</v>
-      </c>
-      <c r="BM146">
-        <v>1.85</v>
-      </c>
-      <c r="BN146">
-        <v>1.95</v>
-      </c>
-      <c r="BO146">
-        <v>2.25</v>
-      </c>
-      <c r="BP146">
-        <v>1.55</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31332,7 +31332,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7292586</v>
+        <v>7292583</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31347,166 +31347,166 @@
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H147" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
         <v>1</v>
       </c>
       <c r="K147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N147">
         <v>3</v>
       </c>
       <c r="O147" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="P147" t="s">
         <v>281</v>
       </c>
       <c r="Q147">
-        <v>3.4</v>
+        <v>1.56</v>
       </c>
       <c r="R147">
-        <v>2.25</v>
+        <v>3.15</v>
       </c>
       <c r="S147">
-        <v>3</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="T147">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U147">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="V147">
-        <v>2.63</v>
+        <v>1.98</v>
       </c>
       <c r="W147">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="X147">
-        <v>7</v>
+        <v>4.05</v>
       </c>
       <c r="Y147">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="Z147">
-        <v>2.6</v>
+        <v>1.22</v>
       </c>
       <c r="AA147">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB147">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="AC147">
         <v>1.01</v>
       </c>
       <c r="AD147">
-        <v>10.25</v>
+        <v>29</v>
       </c>
       <c r="AE147">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AF147">
-        <v>3.66</v>
+        <v>6.1</v>
       </c>
       <c r="AG147">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="AH147">
-        <v>1.97</v>
+        <v>2.81</v>
       </c>
       <c r="AI147">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="AJ147">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AK147">
-        <v>1.63</v>
+        <v>1.05</v>
       </c>
       <c r="AL147">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AM147">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="AN147">
-        <v>0.5600000000000001</v>
+        <v>2.63</v>
       </c>
       <c r="AO147">
-        <v>1.44</v>
+        <v>0.89</v>
       </c>
       <c r="AP147">
-        <v>0.5</v>
+        <v>2.67</v>
       </c>
       <c r="AQ147">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR147">
-        <v>1.32</v>
+        <v>2.27</v>
       </c>
       <c r="AS147">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="AT147">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="AU147">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>9</v>
+      </c>
+      <c r="AX147">
         <v>6</v>
       </c>
-      <c r="AW147">
+      <c r="AY147">
+        <v>15</v>
+      </c>
+      <c r="AZ147">
+        <v>11</v>
+      </c>
+      <c r="BA147">
         <v>7</v>
       </c>
-      <c r="AX147">
-        <v>7</v>
-      </c>
-      <c r="AY147">
-        <v>11</v>
-      </c>
-      <c r="AZ147">
-        <v>13</v>
-      </c>
-      <c r="BA147">
-        <v>4</v>
-      </c>
       <c r="BB147">
         <v>2</v>
       </c>
       <c r="BC147">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD147">
-        <v>2.23</v>
+        <v>1.2</v>
       </c>
       <c r="BE147">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="BF147">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="BG147">
         <v>1.18</v>
       </c>
       <c r="BH147">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BI147">
         <v>1.32</v>
@@ -31515,22 +31515,22 @@
         <v>3.05</v>
       </c>
       <c r="BK147">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BL147">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="BM147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="BN147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BO147">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="BP147">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31744,7 +31744,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7292581</v>
+        <v>7292587</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31759,10 +31759,10 @@
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H149" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -31774,175 +31774,175 @@
         <v>1</v>
       </c>
       <c r="L149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O149" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="P149" t="s">
         <v>283</v>
       </c>
       <c r="Q149">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="R149">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="S149">
+        <v>2.75</v>
+      </c>
+      <c r="T149">
+        <v>1.22</v>
+      </c>
+      <c r="U149">
         <v>4</v>
       </c>
-      <c r="T149">
+      <c r="V149">
+        <v>2</v>
+      </c>
+      <c r="W149">
+        <v>1.73</v>
+      </c>
+      <c r="X149">
+        <v>4.33</v>
+      </c>
+      <c r="Y149">
+        <v>1.2</v>
+      </c>
+      <c r="Z149">
+        <v>4.59</v>
+      </c>
+      <c r="AA149">
+        <v>1.81</v>
+      </c>
+      <c r="AB149">
+        <v>2.95</v>
+      </c>
+      <c r="AC149">
+        <v>1.03</v>
+      </c>
+      <c r="AD149">
+        <v>9</v>
+      </c>
+      <c r="AE149">
+        <v>1.08</v>
+      </c>
+      <c r="AF149">
+        <v>6.2</v>
+      </c>
+      <c r="AG149">
         <v>1.38</v>
       </c>
-      <c r="U149">
-        <v>3.1</v>
-      </c>
-      <c r="V149">
-        <v>2.7</v>
-      </c>
-      <c r="W149">
+      <c r="AH149">
+        <v>2.81</v>
+      </c>
+      <c r="AI149">
+        <v>1.36</v>
+      </c>
+      <c r="AJ149">
+        <v>3</v>
+      </c>
+      <c r="AK149">
+        <v>1.6</v>
+      </c>
+      <c r="AL149">
+        <v>1.18</v>
+      </c>
+      <c r="AM149">
         <v>1.45</v>
       </c>
-      <c r="X149">
+      <c r="AN149">
+        <v>1.13</v>
+      </c>
+      <c r="AO149">
+        <v>1.38</v>
+      </c>
+      <c r="AP149">
+        <v>1</v>
+      </c>
+      <c r="AQ149">
+        <v>1.56</v>
+      </c>
+      <c r="AR149">
+        <v>1.46</v>
+      </c>
+      <c r="AS149">
+        <v>1.54</v>
+      </c>
+      <c r="AT149">
+        <v>3</v>
+      </c>
+      <c r="AU149">
+        <v>9</v>
+      </c>
+      <c r="AV149">
+        <v>5</v>
+      </c>
+      <c r="AW149">
+        <v>4</v>
+      </c>
+      <c r="AX149">
+        <v>1</v>
+      </c>
+      <c r="AY149">
+        <v>13</v>
+      </c>
+      <c r="AZ149">
+        <v>6</v>
+      </c>
+      <c r="BA149">
+        <v>8</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>10</v>
+      </c>
+      <c r="BD149">
+        <v>1.93</v>
+      </c>
+      <c r="BE149">
         <v>6.5</v>
       </c>
-      <c r="Y149">
-        <v>1.1</v>
-      </c>
-      <c r="Z149">
-        <v>1.66</v>
-      </c>
-      <c r="AA149">
-        <v>2.93</v>
-      </c>
-      <c r="AB149">
-        <v>6.04</v>
-      </c>
-      <c r="AC149">
-        <v>1.04</v>
-      </c>
-      <c r="AD149">
-        <v>7.8</v>
-      </c>
-      <c r="AE149">
-        <v>1.22</v>
-      </c>
-      <c r="AF149">
-        <v>3.8</v>
-      </c>
-      <c r="AG149">
+      <c r="BF149">
+        <v>1.95</v>
+      </c>
+      <c r="BG149">
+        <v>1.15</v>
+      </c>
+      <c r="BH149">
+        <v>4.6</v>
+      </c>
+      <c r="BI149">
+        <v>1.27</v>
+      </c>
+      <c r="BJ149">
+        <v>3.3</v>
+      </c>
+      <c r="BK149">
+        <v>1.47</v>
+      </c>
+      <c r="BL149">
+        <v>2.48</v>
+      </c>
+      <c r="BM149">
         <v>1.88</v>
       </c>
-      <c r="AH149">
+      <c r="BN149">
         <v>1.92</v>
       </c>
-      <c r="AI149">
-        <v>1.65</v>
-      </c>
-      <c r="AJ149">
-        <v>2.1</v>
-      </c>
-      <c r="AK149">
-        <v>1.28</v>
-      </c>
-      <c r="AL149">
-        <v>1.3</v>
-      </c>
-      <c r="AM149">
-        <v>1.62</v>
-      </c>
-      <c r="AN149">
-        <v>1.89</v>
-      </c>
-      <c r="AO149">
-        <v>0.89</v>
-      </c>
-      <c r="AP149">
-        <v>1.7</v>
-      </c>
-      <c r="AQ149">
-        <v>1.1</v>
-      </c>
-      <c r="AR149">
-        <v>1.53</v>
-      </c>
-      <c r="AS149">
-        <v>1.45</v>
-      </c>
-      <c r="AT149">
-        <v>2.98</v>
-      </c>
-      <c r="AU149">
-        <v>0</v>
-      </c>
-      <c r="AV149">
-        <v>3</v>
-      </c>
-      <c r="AW149">
-        <v>3</v>
-      </c>
-      <c r="AX149">
-        <v>2</v>
-      </c>
-      <c r="AY149">
-        <v>3</v>
-      </c>
-      <c r="AZ149">
-        <v>5</v>
-      </c>
-      <c r="BA149">
-        <v>0</v>
-      </c>
-      <c r="BB149">
-        <v>4</v>
-      </c>
-      <c r="BC149">
-        <v>4</v>
-      </c>
-      <c r="BD149">
-        <v>1.48</v>
-      </c>
-      <c r="BE149">
-        <v>6.75</v>
-      </c>
-      <c r="BF149">
-        <v>2.8</v>
-      </c>
-      <c r="BG149">
-        <v>1.24</v>
-      </c>
-      <c r="BH149">
-        <v>3.65</v>
-      </c>
-      <c r="BI149">
-        <v>1.42</v>
-      </c>
-      <c r="BJ149">
-        <v>2.65</v>
-      </c>
-      <c r="BK149">
-        <v>1.88</v>
-      </c>
-      <c r="BL149">
-        <v>1.92</v>
-      </c>
-      <c r="BM149">
-        <v>2.07</v>
-      </c>
-      <c r="BN149">
-        <v>1.66</v>
-      </c>
       <c r="BO149">
-        <v>2.65</v>
+        <v>2.12</v>
       </c>
       <c r="BP149">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31989,7 +31989,7 @@
         <v>2</v>
       </c>
       <c r="O150" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P150" t="s">
         <v>284</v>
@@ -32156,7 +32156,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7292587</v>
+        <v>7292581</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32171,10 +32171,10 @@
         <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H151" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -32186,175 +32186,175 @@
         <v>1</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O151" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="P151" t="s">
         <v>285</v>
       </c>
       <c r="Q151">
+        <v>2.7</v>
+      </c>
+      <c r="R151">
+        <v>2.2</v>
+      </c>
+      <c r="S151">
+        <v>4</v>
+      </c>
+      <c r="T151">
+        <v>1.38</v>
+      </c>
+      <c r="U151">
         <v>3.1</v>
       </c>
-      <c r="R151">
-        <v>2.6</v>
-      </c>
-      <c r="S151">
-        <v>2.75</v>
-      </c>
-      <c r="T151">
+      <c r="V151">
+        <v>2.7</v>
+      </c>
+      <c r="W151">
+        <v>1.45</v>
+      </c>
+      <c r="X151">
+        <v>6.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.1</v>
+      </c>
+      <c r="Z151">
+        <v>1.66</v>
+      </c>
+      <c r="AA151">
+        <v>2.93</v>
+      </c>
+      <c r="AB151">
+        <v>6.04</v>
+      </c>
+      <c r="AC151">
+        <v>1.04</v>
+      </c>
+      <c r="AD151">
+        <v>7.8</v>
+      </c>
+      <c r="AE151">
         <v>1.22</v>
       </c>
-      <c r="U151">
+      <c r="AF151">
+        <v>3.8</v>
+      </c>
+      <c r="AG151">
+        <v>1.88</v>
+      </c>
+      <c r="AH151">
+        <v>1.92</v>
+      </c>
+      <c r="AI151">
+        <v>1.65</v>
+      </c>
+      <c r="AJ151">
+        <v>2.1</v>
+      </c>
+      <c r="AK151">
+        <v>1.28</v>
+      </c>
+      <c r="AL151">
+        <v>1.3</v>
+      </c>
+      <c r="AM151">
+        <v>1.62</v>
+      </c>
+      <c r="AN151">
+        <v>1.89</v>
+      </c>
+      <c r="AO151">
+        <v>0.89</v>
+      </c>
+      <c r="AP151">
+        <v>1.7</v>
+      </c>
+      <c r="AQ151">
+        <v>1.1</v>
+      </c>
+      <c r="AR151">
+        <v>1.53</v>
+      </c>
+      <c r="AS151">
+        <v>1.45</v>
+      </c>
+      <c r="AT151">
+        <v>2.98</v>
+      </c>
+      <c r="AU151">
+        <v>0</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>3</v>
+      </c>
+      <c r="AX151">
+        <v>2</v>
+      </c>
+      <c r="AY151">
+        <v>3</v>
+      </c>
+      <c r="AZ151">
+        <v>5</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
         <v>4</v>
       </c>
-      <c r="V151">
-        <v>2</v>
-      </c>
-      <c r="W151">
-        <v>1.73</v>
-      </c>
-      <c r="X151">
-        <v>4.33</v>
-      </c>
-      <c r="Y151">
-        <v>1.2</v>
-      </c>
-      <c r="Z151">
-        <v>4.59</v>
-      </c>
-      <c r="AA151">
-        <v>1.81</v>
-      </c>
-      <c r="AB151">
-        <v>2.95</v>
-      </c>
-      <c r="AC151">
-        <v>1.03</v>
-      </c>
-      <c r="AD151">
-        <v>9</v>
-      </c>
-      <c r="AE151">
-        <v>1.08</v>
-      </c>
-      <c r="AF151">
-        <v>6.2</v>
-      </c>
-      <c r="AG151">
-        <v>1.38</v>
-      </c>
-      <c r="AH151">
-        <v>2.81</v>
-      </c>
-      <c r="AI151">
-        <v>1.36</v>
-      </c>
-      <c r="AJ151">
-        <v>3</v>
-      </c>
-      <c r="AK151">
-        <v>1.6</v>
-      </c>
-      <c r="AL151">
-        <v>1.18</v>
-      </c>
-      <c r="AM151">
-        <v>1.45</v>
-      </c>
-      <c r="AN151">
-        <v>1.13</v>
-      </c>
-      <c r="AO151">
-        <v>1.38</v>
-      </c>
-      <c r="AP151">
-        <v>1</v>
-      </c>
-      <c r="AQ151">
-        <v>1.56</v>
-      </c>
-      <c r="AR151">
-        <v>1.46</v>
-      </c>
-      <c r="AS151">
-        <v>1.54</v>
-      </c>
-      <c r="AT151">
-        <v>3</v>
-      </c>
-      <c r="AU151">
-        <v>9</v>
-      </c>
-      <c r="AV151">
-        <v>5</v>
-      </c>
-      <c r="AW151">
+      <c r="BC151">
         <v>4</v>
       </c>
-      <c r="AX151">
-        <v>1</v>
-      </c>
-      <c r="AY151">
-        <v>13</v>
-      </c>
-      <c r="AZ151">
-        <v>6</v>
-      </c>
-      <c r="BA151">
-        <v>8</v>
-      </c>
-      <c r="BB151">
-        <v>2</v>
-      </c>
-      <c r="BC151">
-        <v>10</v>
-      </c>
       <c r="BD151">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="BE151">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF151">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="BG151">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="BH151">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="BI151">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="BJ151">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="BK151">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="BL151">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="BM151">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="BN151">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="BO151">
-        <v>2.12</v>
+        <v>2.65</v>
       </c>
       <c r="BP151">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32774,7 +32774,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7292595</v>
+        <v>7292592</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32789,190 +32789,190 @@
         <v>20</v>
       </c>
       <c r="G154" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H154" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M154">
         <v>1</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O154" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="Q154">
+        <v>2.5</v>
+      </c>
+      <c r="R154">
+        <v>2.3</v>
+      </c>
+      <c r="S154">
+        <v>4</v>
+      </c>
+      <c r="T154">
+        <v>1.33</v>
+      </c>
+      <c r="U154">
         <v>3.25</v>
       </c>
-      <c r="R154">
-        <v>2.2</v>
-      </c>
-      <c r="S154">
-        <v>3.1</v>
-      </c>
-      <c r="T154">
-        <v>1.36</v>
-      </c>
-      <c r="U154">
-        <v>3</v>
-      </c>
       <c r="V154">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W154">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X154">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y154">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z154">
-        <v>2.62</v>
+        <v>1.73</v>
       </c>
       <c r="AA154">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB154">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="AC154">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD154">
         <v>13</v>
       </c>
       <c r="AE154">
+        <v>1.24</v>
+      </c>
+      <c r="AF154">
+        <v>4.2</v>
+      </c>
+      <c r="AG154">
+        <v>1.65</v>
+      </c>
+      <c r="AH154">
+        <v>2</v>
+      </c>
+      <c r="AI154">
+        <v>1.62</v>
+      </c>
+      <c r="AJ154">
+        <v>2.2</v>
+      </c>
+      <c r="AK154">
         <v>1.26</v>
       </c>
-      <c r="AF154">
+      <c r="AL154">
+        <v>1.24</v>
+      </c>
+      <c r="AM154">
+        <v>1.92</v>
+      </c>
+      <c r="AN154">
+        <v>2.2</v>
+      </c>
+      <c r="AO154">
+        <v>1.22</v>
+      </c>
+      <c r="AP154">
+        <v>2.27</v>
+      </c>
+      <c r="AQ154">
+        <v>1.1</v>
+      </c>
+      <c r="AR154">
+        <v>1.7</v>
+      </c>
+      <c r="AS154">
+        <v>1.67</v>
+      </c>
+      <c r="AT154">
+        <v>3.37</v>
+      </c>
+      <c r="AU154">
+        <v>8</v>
+      </c>
+      <c r="AV154">
+        <v>2</v>
+      </c>
+      <c r="AW154">
+        <v>3</v>
+      </c>
+      <c r="AX154">
+        <v>3</v>
+      </c>
+      <c r="AY154">
+        <v>11</v>
+      </c>
+      <c r="AZ154">
+        <v>5</v>
+      </c>
+      <c r="BA154">
+        <v>11</v>
+      </c>
+      <c r="BB154">
         <v>4</v>
       </c>
-      <c r="AG154">
-        <v>1.7</v>
-      </c>
-      <c r="AH154">
+      <c r="BC154">
+        <v>15</v>
+      </c>
+      <c r="BD154">
+        <v>1.79</v>
+      </c>
+      <c r="BE154">
+        <v>6.75</v>
+      </c>
+      <c r="BF154">
+        <v>2.07</v>
+      </c>
+      <c r="BG154">
+        <v>1.16</v>
+      </c>
+      <c r="BH154">
+        <v>4.6</v>
+      </c>
+      <c r="BI154">
+        <v>1.28</v>
+      </c>
+      <c r="BJ154">
+        <v>3.3</v>
+      </c>
+      <c r="BK154">
+        <v>1.48</v>
+      </c>
+      <c r="BL154">
+        <v>2.45</v>
+      </c>
+      <c r="BM154">
+        <v>1.74</v>
+      </c>
+      <c r="BN154">
         <v>1.95</v>
       </c>
-      <c r="AI154">
-        <v>1.67</v>
-      </c>
-      <c r="AJ154">
-        <v>2.1</v>
-      </c>
-      <c r="AK154">
-        <v>1.6</v>
-      </c>
-      <c r="AL154">
-        <v>1.26</v>
-      </c>
-      <c r="AM154">
-        <v>1.45</v>
-      </c>
-      <c r="AN154">
-        <v>1.56</v>
-      </c>
-      <c r="AO154">
-        <v>2.25</v>
-      </c>
-      <c r="AP154">
-        <v>1.4</v>
-      </c>
-      <c r="AQ154">
-        <v>2.33</v>
-      </c>
-      <c r="AR154">
-        <v>1.62</v>
-      </c>
-      <c r="AS154">
-        <v>1.61</v>
-      </c>
-      <c r="AT154">
-        <v>3.23</v>
-      </c>
-      <c r="AU154">
-        <v>5</v>
-      </c>
-      <c r="AV154">
-        <v>7</v>
-      </c>
-      <c r="AW154">
-        <v>8</v>
-      </c>
-      <c r="AX154">
-        <v>6</v>
-      </c>
-      <c r="AY154">
-        <v>13</v>
-      </c>
-      <c r="AZ154">
-        <v>13</v>
-      </c>
-      <c r="BA154">
-        <v>6</v>
-      </c>
-      <c r="BB154">
-        <v>6</v>
-      </c>
-      <c r="BC154">
-        <v>12</v>
-      </c>
-      <c r="BD154">
-        <v>2.08</v>
-      </c>
-      <c r="BE154">
-        <v>6.4</v>
-      </c>
-      <c r="BF154">
-        <v>1.79</v>
-      </c>
-      <c r="BG154">
-        <v>1.26</v>
-      </c>
-      <c r="BH154">
-        <v>3.4</v>
-      </c>
-      <c r="BI154">
-        <v>1.46</v>
-      </c>
-      <c r="BJ154">
-        <v>2.5</v>
-      </c>
-      <c r="BK154">
-        <v>1.74</v>
-      </c>
-      <c r="BL154">
-        <v>1.97</v>
-      </c>
-      <c r="BM154">
+      <c r="BO154">
         <v>2.15</v>
       </c>
-      <c r="BN154">
-        <v>1.61</v>
-      </c>
-      <c r="BO154">
-        <v>2.7</v>
-      </c>
       <c r="BP154">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32980,7 +32980,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7292592</v>
+        <v>7292595</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32995,190 +32995,190 @@
         <v>20</v>
       </c>
       <c r="G155" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H155" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>88</v>
+      </c>
+      <c r="P155" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q155">
+        <v>3.25</v>
+      </c>
+      <c r="R155">
+        <v>2.2</v>
+      </c>
+      <c r="S155">
+        <v>3.1</v>
+      </c>
+      <c r="T155">
+        <v>1.36</v>
+      </c>
+      <c r="U155">
         <v>3</v>
       </c>
-      <c r="M155">
-        <v>1</v>
-      </c>
-      <c r="N155">
-        <v>4</v>
-      </c>
-      <c r="O155" t="s">
-        <v>198</v>
-      </c>
-      <c r="P155" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q155">
-        <v>2.5</v>
-      </c>
-      <c r="R155">
-        <v>2.3</v>
-      </c>
-      <c r="S155">
-        <v>4</v>
-      </c>
-      <c r="T155">
-        <v>1.33</v>
-      </c>
-      <c r="U155">
-        <v>3.25</v>
-      </c>
       <c r="V155">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W155">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X155">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y155">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z155">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="AA155">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB155">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="AC155">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD155">
         <v>13</v>
       </c>
       <c r="AE155">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AF155">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AG155">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AH155">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI155">
+        <v>1.67</v>
+      </c>
+      <c r="AJ155">
+        <v>2.1</v>
+      </c>
+      <c r="AK155">
+        <v>1.6</v>
+      </c>
+      <c r="AL155">
+        <v>1.26</v>
+      </c>
+      <c r="AM155">
+        <v>1.45</v>
+      </c>
+      <c r="AN155">
+        <v>1.56</v>
+      </c>
+      <c r="AO155">
+        <v>2.25</v>
+      </c>
+      <c r="AP155">
+        <v>1.4</v>
+      </c>
+      <c r="AQ155">
+        <v>2.33</v>
+      </c>
+      <c r="AR155">
         <v>1.62</v>
       </c>
-      <c r="AJ155">
-        <v>2.2</v>
-      </c>
-      <c r="AK155">
+      <c r="AS155">
+        <v>1.61</v>
+      </c>
+      <c r="AT155">
+        <v>3.23</v>
+      </c>
+      <c r="AU155">
+        <v>5</v>
+      </c>
+      <c r="AV155">
+        <v>7</v>
+      </c>
+      <c r="AW155">
+        <v>8</v>
+      </c>
+      <c r="AX155">
+        <v>6</v>
+      </c>
+      <c r="AY155">
+        <v>13</v>
+      </c>
+      <c r="AZ155">
+        <v>13</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>6</v>
+      </c>
+      <c r="BC155">
+        <v>12</v>
+      </c>
+      <c r="BD155">
+        <v>2.08</v>
+      </c>
+      <c r="BE155">
+        <v>6.4</v>
+      </c>
+      <c r="BF155">
+        <v>1.79</v>
+      </c>
+      <c r="BG155">
         <v>1.26</v>
       </c>
-      <c r="AL155">
-        <v>1.24</v>
-      </c>
-      <c r="AM155">
-        <v>1.92</v>
-      </c>
-      <c r="AN155">
-        <v>2.2</v>
-      </c>
-      <c r="AO155">
-        <v>1.22</v>
-      </c>
-      <c r="AP155">
-        <v>2.27</v>
-      </c>
-      <c r="AQ155">
-        <v>1.1</v>
-      </c>
-      <c r="AR155">
-        <v>1.7</v>
-      </c>
-      <c r="AS155">
-        <v>1.67</v>
-      </c>
-      <c r="AT155">
-        <v>3.37</v>
-      </c>
-      <c r="AU155">
-        <v>8</v>
-      </c>
-      <c r="AV155">
-        <v>2</v>
-      </c>
-      <c r="AW155">
-        <v>3</v>
-      </c>
-      <c r="AX155">
-        <v>3</v>
-      </c>
-      <c r="AY155">
-        <v>11</v>
-      </c>
-      <c r="AZ155">
-        <v>5</v>
-      </c>
-      <c r="BA155">
-        <v>11</v>
-      </c>
-      <c r="BB155">
-        <v>4</v>
-      </c>
-      <c r="BC155">
-        <v>15</v>
-      </c>
-      <c r="BD155">
-        <v>1.79</v>
-      </c>
-      <c r="BE155">
-        <v>6.75</v>
-      </c>
-      <c r="BF155">
-        <v>2.07</v>
-      </c>
-      <c r="BG155">
-        <v>1.16</v>
-      </c>
       <c r="BH155">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="BI155">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="BJ155">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="BK155">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="BL155">
-        <v>2.45</v>
+        <v>1.97</v>
       </c>
       <c r="BM155">
-        <v>1.74</v>
+        <v>2.15</v>
       </c>
       <c r="BN155">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="BO155">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="BP155">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33598,7 +33598,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7292594</v>
+        <v>7292590</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33613,124 +33613,124 @@
         <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H158" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
       <c r="M158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O158" t="s">
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="Q158">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="R158">
+        <v>2.3</v>
+      </c>
+      <c r="S158">
+        <v>4.33</v>
+      </c>
+      <c r="T158">
+        <v>1.33</v>
+      </c>
+      <c r="U158">
+        <v>3.25</v>
+      </c>
+      <c r="V158">
+        <v>2.5</v>
+      </c>
+      <c r="W158">
+        <v>1.5</v>
+      </c>
+      <c r="X158">
+        <v>6</v>
+      </c>
+      <c r="Y158">
+        <v>1.13</v>
+      </c>
+      <c r="Z158">
+        <v>1.83</v>
+      </c>
+      <c r="AA158">
+        <v>3.5</v>
+      </c>
+      <c r="AB158">
+        <v>3.5</v>
+      </c>
+      <c r="AC158">
+        <v>1.04</v>
+      </c>
+      <c r="AD158">
+        <v>15.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.18</v>
+      </c>
+      <c r="AF158">
+        <v>4.05</v>
+      </c>
+      <c r="AG158">
+        <v>1.67</v>
+      </c>
+      <c r="AH158">
+        <v>2</v>
+      </c>
+      <c r="AI158">
+        <v>1.62</v>
+      </c>
+      <c r="AJ158">
         <v>2.2</v>
       </c>
-      <c r="S158">
-        <v>2.75</v>
-      </c>
-      <c r="T158">
-        <v>1.36</v>
-      </c>
-      <c r="U158">
-        <v>3</v>
-      </c>
-      <c r="V158">
-        <v>2.75</v>
-      </c>
-      <c r="W158">
-        <v>1.4</v>
-      </c>
-      <c r="X158">
-        <v>7</v>
-      </c>
-      <c r="Y158">
-        <v>1.1</v>
-      </c>
-      <c r="Z158">
-        <v>3</v>
-      </c>
-      <c r="AA158">
-        <v>3.3</v>
-      </c>
-      <c r="AB158">
-        <v>2.1</v>
-      </c>
-      <c r="AC158">
-        <v>1.05</v>
-      </c>
-      <c r="AD158">
-        <v>12.25</v>
-      </c>
-      <c r="AE158">
-        <v>1.28</v>
-      </c>
-      <c r="AF158">
-        <v>3.75</v>
-      </c>
-      <c r="AG158">
-        <v>1.8</v>
-      </c>
-      <c r="AH158">
-        <v>1.85</v>
-      </c>
-      <c r="AI158">
-        <v>1.7</v>
-      </c>
-      <c r="AJ158">
-        <v>2.05</v>
-      </c>
       <c r="AK158">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="AL158">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AM158">
-        <v>1.34</v>
+        <v>2</v>
       </c>
       <c r="AN158">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="AO158">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR158">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="AS158">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="AT158">
-        <v>2.6</v>
+        <v>3.07</v>
       </c>
       <c r="AU158">
         <v>2</v>
@@ -33742,61 +33742,61 @@
         <v>4</v>
       </c>
       <c r="AX158">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY158">
         <v>6</v>
       </c>
       <c r="AZ158">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA158">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB158">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC158">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD158">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="BE158">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF158">
+        <v>2.33</v>
+      </c>
+      <c r="BG158">
+        <v>1.16</v>
+      </c>
+      <c r="BH158">
+        <v>4.4</v>
+      </c>
+      <c r="BI158">
+        <v>1.29</v>
+      </c>
+      <c r="BJ158">
+        <v>3.2</v>
+      </c>
+      <c r="BK158">
+        <v>1.49</v>
+      </c>
+      <c r="BL158">
+        <v>2.43</v>
+      </c>
+      <c r="BM158">
+        <v>1.77</v>
+      </c>
+      <c r="BN158">
+        <v>1.93</v>
+      </c>
+      <c r="BO158">
+        <v>2.18</v>
+      </c>
+      <c r="BP158">
         <v>1.58</v>
-      </c>
-      <c r="BG158">
-        <v>1.21</v>
-      </c>
-      <c r="BH158">
-        <v>3.9</v>
-      </c>
-      <c r="BI158">
-        <v>1.38</v>
-      </c>
-      <c r="BJ158">
-        <v>2.8</v>
-      </c>
-      <c r="BK158">
-        <v>1.63</v>
-      </c>
-      <c r="BL158">
-        <v>2.15</v>
-      </c>
-      <c r="BM158">
-        <v>1.98</v>
-      </c>
-      <c r="BN158">
-        <v>1.74</v>
-      </c>
-      <c r="BO158">
-        <v>2.43</v>
-      </c>
-      <c r="BP158">
-        <v>1.48</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -34010,7 +34010,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7292590</v>
+        <v>7292594</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34025,124 +34025,124 @@
         <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H160" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O160" t="s">
         <v>88</v>
       </c>
       <c r="P160" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="Q160">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="R160">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S160">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="T160">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U160">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W160">
+        <v>1.4</v>
+      </c>
+      <c r="X160">
+        <v>7</v>
+      </c>
+      <c r="Y160">
+        <v>1.1</v>
+      </c>
+      <c r="Z160">
+        <v>3</v>
+      </c>
+      <c r="AA160">
+        <v>3.3</v>
+      </c>
+      <c r="AB160">
+        <v>2.1</v>
+      </c>
+      <c r="AC160">
+        <v>1.05</v>
+      </c>
+      <c r="AD160">
+        <v>12.25</v>
+      </c>
+      <c r="AE160">
+        <v>1.28</v>
+      </c>
+      <c r="AF160">
+        <v>3.75</v>
+      </c>
+      <c r="AG160">
+        <v>1.8</v>
+      </c>
+      <c r="AH160">
+        <v>1.85</v>
+      </c>
+      <c r="AI160">
+        <v>1.7</v>
+      </c>
+      <c r="AJ160">
+        <v>2.05</v>
+      </c>
+      <c r="AK160">
+        <v>1.7</v>
+      </c>
+      <c r="AL160">
+        <v>1.3</v>
+      </c>
+      <c r="AM160">
+        <v>1.34</v>
+      </c>
+      <c r="AN160">
+        <v>1.67</v>
+      </c>
+      <c r="AO160">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP160">
         <v>1.5</v>
       </c>
-      <c r="X160">
-        <v>6</v>
-      </c>
-      <c r="Y160">
-        <v>1.13</v>
-      </c>
-      <c r="Z160">
-        <v>1.83</v>
-      </c>
-      <c r="AA160">
-        <v>3.5</v>
-      </c>
-      <c r="AB160">
-        <v>3.5</v>
-      </c>
-      <c r="AC160">
-        <v>1.04</v>
-      </c>
-      <c r="AD160">
-        <v>15.5</v>
-      </c>
-      <c r="AE160">
-        <v>1.18</v>
-      </c>
-      <c r="AF160">
-        <v>4.05</v>
-      </c>
-      <c r="AG160">
-        <v>1.67</v>
-      </c>
-      <c r="AH160">
-        <v>2</v>
-      </c>
-      <c r="AI160">
-        <v>1.62</v>
-      </c>
-      <c r="AJ160">
-        <v>2.2</v>
-      </c>
-      <c r="AK160">
-        <v>1.24</v>
-      </c>
-      <c r="AL160">
-        <v>1.26</v>
-      </c>
-      <c r="AM160">
-        <v>2</v>
-      </c>
-      <c r="AN160">
-        <v>2.11</v>
-      </c>
-      <c r="AO160">
-        <v>1</v>
-      </c>
-      <c r="AP160">
-        <v>2</v>
-      </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR160">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="AS160">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="AT160">
-        <v>3.07</v>
+        <v>2.6</v>
       </c>
       <c r="AU160">
         <v>2</v>
@@ -34154,61 +34154,61 @@
         <v>4</v>
       </c>
       <c r="AX160">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY160">
         <v>6</v>
       </c>
       <c r="AZ160">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA160">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB160">
+        <v>5</v>
+      </c>
+      <c r="BC160">
         <v>6</v>
       </c>
-      <c r="BC160">
-        <v>13</v>
-      </c>
       <c r="BD160">
-        <v>1.64</v>
+        <v>2.4</v>
       </c>
       <c r="BE160">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF160">
-        <v>2.33</v>
+        <v>1.58</v>
       </c>
       <c r="BG160">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="BH160">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="BI160">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="BJ160">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BK160">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="BL160">
+        <v>2.15</v>
+      </c>
+      <c r="BM160">
+        <v>1.98</v>
+      </c>
+      <c r="BN160">
+        <v>1.74</v>
+      </c>
+      <c r="BO160">
         <v>2.43</v>
       </c>
-      <c r="BM160">
-        <v>1.77</v>
-      </c>
-      <c r="BN160">
-        <v>1.93</v>
-      </c>
-      <c r="BO160">
-        <v>2.18</v>
-      </c>
       <c r="BP160">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,12 @@
     <t>['34', '45+4']</t>
   </si>
   <si>
+    <t>['1', '14', '41']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -884,6 +890,12 @@
   </si>
   <si>
     <t>['14', '29']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['11', '55']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1516,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1710,7 +1722,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1791,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1916,7 +1928,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1994,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ4">
         <v>1.45</v>
@@ -2328,7 +2340,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2615,7 +2627,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2946,7 +2958,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3152,7 +3164,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3233,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3436,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -4054,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ14">
         <v>0.78</v>
@@ -4182,7 +4194,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4263,7 +4275,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4388,7 +4400,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4466,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4594,7 +4606,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4800,7 +4812,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4878,10 +4890,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ18">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR18">
         <v>2.67</v>
@@ -5084,10 +5096,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR19">
         <v>1.04</v>
@@ -5418,7 +5430,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5705,7 +5717,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5830,7 +5842,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5908,7 +5920,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ23">
         <v>1.91</v>
@@ -6036,7 +6048,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6448,7 +6460,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -7066,7 +7078,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7144,7 +7156,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ29">
         <v>1.2</v>
@@ -7684,7 +7696,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7890,7 +7902,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -7971,7 +7983,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ33">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -8096,7 +8108,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8177,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8302,7 +8314,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8714,7 +8726,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8920,7 +8932,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9126,7 +9138,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9410,7 +9422,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ40">
         <v>1.2</v>
@@ -9538,7 +9550,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9744,7 +9756,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9822,10 +9834,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ42">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR42">
         <v>0.88</v>
@@ -10031,7 +10043,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ43">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR43">
         <v>2.45</v>
@@ -10362,7 +10374,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10568,7 +10580,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10855,7 +10867,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ47">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR47">
         <v>1.73</v>
@@ -10980,7 +10992,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11058,10 +11070,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ48">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR48">
         <v>1.87</v>
@@ -11392,7 +11404,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11473,7 +11485,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ50">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR50">
         <v>1.18</v>
@@ -11598,7 +11610,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11676,7 +11688,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ51">
         <v>1.45</v>
@@ -11804,7 +11816,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -12010,7 +12022,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12216,7 +12228,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12294,7 +12306,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ54">
         <v>2.33</v>
@@ -12422,7 +12434,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12628,7 +12640,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12834,7 +12846,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12912,7 +12924,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ57">
         <v>1.1</v>
@@ -13040,7 +13052,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13121,7 +13133,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13246,7 +13258,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13530,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ60">
         <v>0.8</v>
@@ -13658,7 +13670,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13739,7 +13751,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ61">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR61">
         <v>1.81</v>
@@ -13864,7 +13876,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14276,7 +14288,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14354,7 +14366,7 @@
         <v>1.75</v>
       </c>
       <c r="AP64">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ64">
         <v>1.45</v>
@@ -14482,7 +14494,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14769,7 +14781,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ66">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR66">
         <v>1.53</v>
@@ -15178,7 +15190,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ68">
         <v>1.6</v>
@@ -15306,7 +15318,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15384,7 +15396,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15718,7 +15730,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15924,7 +15936,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16130,7 +16142,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16336,7 +16348,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16417,7 +16429,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR74">
         <v>1.46</v>
@@ -16542,7 +16554,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16826,7 +16838,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ76">
         <v>0.78</v>
@@ -16954,7 +16966,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17032,10 +17044,10 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ77">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR77">
         <v>1.03</v>
@@ -17447,7 +17459,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ79">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17572,7 +17584,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18065,7 +18077,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ82">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR82">
         <v>2.18</v>
@@ -18271,7 +18283,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ83">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18474,7 +18486,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ84">
         <v>1.56</v>
@@ -18602,7 +18614,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18680,7 +18692,7 @@
         <v>2.25</v>
       </c>
       <c r="AP85">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ85">
         <v>2.33</v>
@@ -18889,7 +18901,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -19014,7 +19026,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19092,7 +19104,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ87">
         <v>1.45</v>
@@ -19220,7 +19232,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19426,7 +19438,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19632,7 +19644,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19916,7 +19928,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ91">
         <v>1.56</v>
@@ -20250,7 +20262,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20868,7 +20880,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21074,7 +21086,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21280,7 +21292,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21361,7 +21373,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ98">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR98">
         <v>1.85</v>
@@ -21486,7 +21498,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21564,7 +21576,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ99">
         <v>1.2</v>
@@ -21898,7 +21910,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21976,10 +21988,10 @@
         <v>1.17</v>
       </c>
       <c r="AP101">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ101">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR101">
         <v>1.4</v>
@@ -22182,7 +22194,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ102">
         <v>1.1</v>
@@ -22310,7 +22322,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22391,7 +22403,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ103">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22516,7 +22528,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22597,7 +22609,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ104">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR104">
         <v>2.32</v>
@@ -22800,7 +22812,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ105">
         <v>1.6</v>
@@ -22928,7 +22940,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23134,7 +23146,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23212,7 +23224,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ107">
         <v>1.56</v>
@@ -23340,7 +23352,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23418,7 +23430,7 @@
         <v>2</v>
       </c>
       <c r="AP108">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ108">
         <v>1.91</v>
@@ -23958,7 +23970,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24036,7 +24048,7 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ111">
         <v>0.8</v>
@@ -24164,7 +24176,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24576,7 +24588,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24657,7 +24669,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR114">
         <v>1</v>
@@ -24782,7 +24794,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24988,7 +25000,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25194,7 +25206,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25272,7 +25284,7 @@
         <v>1.43</v>
       </c>
       <c r="AP117">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ117">
         <v>1.56</v>
@@ -25606,7 +25618,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25893,7 +25905,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -26224,7 +26236,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26508,10 +26520,10 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ123">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -26717,7 +26729,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ124">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR124">
         <v>1.32</v>
@@ -26842,7 +26854,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27129,7 +27141,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ126">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR126">
         <v>2.24</v>
@@ -27872,7 +27884,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28078,7 +28090,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28362,7 +28374,7 @@
         <v>0.63</v>
       </c>
       <c r="AP132">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ132">
         <v>0.8</v>
@@ -28490,7 +28502,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28568,10 +28580,10 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ133">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR133">
         <v>1.71</v>
@@ -28777,7 +28789,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -28902,7 +28914,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -28980,10 +28992,10 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ135">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR135">
         <v>1.28</v>
@@ -29108,7 +29120,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29314,7 +29326,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29726,7 +29738,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>7.7</v>
@@ -30344,7 +30356,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30550,7 +30562,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>2.25</v>
@@ -30631,7 +30643,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ143">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR143">
         <v>1.6</v>
@@ -30756,7 +30768,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31043,7 +31055,7 @@
         <v>1</v>
       </c>
       <c r="AQ145">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR145">
         <v>1.25</v>
@@ -31168,7 +31180,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31246,7 +31258,7 @@
         <v>1.44</v>
       </c>
       <c r="AP146">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ146">
         <v>1.6</v>
@@ -31374,7 +31386,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>1.56</v>
@@ -31580,7 +31592,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31658,10 +31670,10 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ148">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR148">
         <v>1.63</v>
@@ -31786,7 +31798,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -31992,7 +32004,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32070,7 +32082,7 @@
         <v>0.75</v>
       </c>
       <c r="AP150">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ150">
         <v>0.78</v>
@@ -32198,7 +32210,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>2.7</v>
@@ -32279,7 +32291,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ151">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR151">
         <v>1.53</v>
@@ -32482,10 +32494,10 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ152">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR152">
         <v>1.46</v>
@@ -32610,7 +32622,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>6.25</v>
@@ -33022,7 +33034,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33228,7 +33240,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>2.3</v>
@@ -33434,7 +33446,7 @@
         <v>175</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33846,7 +33858,7 @@
         <v>101</v>
       </c>
       <c r="P159" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q159">
         <v>3.1</v>
@@ -34209,6 +34221,830 @@
       </c>
       <c r="BP160">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7292602</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="F161">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>84</v>
+      </c>
+      <c r="H161" t="s">
+        <v>76</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161" t="s">
+        <v>88</v>
+      </c>
+      <c r="P161" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q161">
+        <v>3.7</v>
+      </c>
+      <c r="R161">
+        <v>2.05</v>
+      </c>
+      <c r="S161">
+        <v>2.8</v>
+      </c>
+      <c r="T161">
+        <v>1.42</v>
+      </c>
+      <c r="U161">
+        <v>2.65</v>
+      </c>
+      <c r="V161">
+        <v>2.88</v>
+      </c>
+      <c r="W161">
+        <v>1.36</v>
+      </c>
+      <c r="X161">
+        <v>7.4</v>
+      </c>
+      <c r="Y161">
+        <v>1.07</v>
+      </c>
+      <c r="Z161">
+        <v>3.25</v>
+      </c>
+      <c r="AA161">
+        <v>3.4</v>
+      </c>
+      <c r="AB161">
+        <v>2.1</v>
+      </c>
+      <c r="AC161">
+        <v>1.06</v>
+      </c>
+      <c r="AD161">
+        <v>9</v>
+      </c>
+      <c r="AE161">
+        <v>1.33</v>
+      </c>
+      <c r="AF161">
+        <v>3.3</v>
+      </c>
+      <c r="AG161">
+        <v>1.98</v>
+      </c>
+      <c r="AH161">
+        <v>1.72</v>
+      </c>
+      <c r="AI161">
+        <v>1.73</v>
+      </c>
+      <c r="AJ161">
+        <v>1.95</v>
+      </c>
+      <c r="AK161">
+        <v>1.65</v>
+      </c>
+      <c r="AL161">
+        <v>1.25</v>
+      </c>
+      <c r="AM161">
+        <v>1.33</v>
+      </c>
+      <c r="AN161">
+        <v>0.5</v>
+      </c>
+      <c r="AO161">
+        <v>1.1</v>
+      </c>
+      <c r="AP161">
+        <v>0.45</v>
+      </c>
+      <c r="AQ161">
+        <v>1.27</v>
+      </c>
+      <c r="AR161">
+        <v>1.31</v>
+      </c>
+      <c r="AS161">
+        <v>1.38</v>
+      </c>
+      <c r="AT161">
+        <v>2.69</v>
+      </c>
+      <c r="AU161">
+        <v>0</v>
+      </c>
+      <c r="AV161">
+        <v>2</v>
+      </c>
+      <c r="AW161">
+        <v>8</v>
+      </c>
+      <c r="AX161">
+        <v>5</v>
+      </c>
+      <c r="AY161">
+        <v>8</v>
+      </c>
+      <c r="AZ161">
+        <v>7</v>
+      </c>
+      <c r="BA161">
+        <v>8</v>
+      </c>
+      <c r="BB161">
+        <v>3</v>
+      </c>
+      <c r="BC161">
+        <v>11</v>
+      </c>
+      <c r="BD161">
+        <v>2.18</v>
+      </c>
+      <c r="BE161">
+        <v>6.4</v>
+      </c>
+      <c r="BF161">
+        <v>1.74</v>
+      </c>
+      <c r="BG161">
+        <v>1.24</v>
+      </c>
+      <c r="BH161">
+        <v>3.55</v>
+      </c>
+      <c r="BI161">
+        <v>1.42</v>
+      </c>
+      <c r="BJ161">
+        <v>2.65</v>
+      </c>
+      <c r="BK161">
+        <v>1.68</v>
+      </c>
+      <c r="BL161">
+        <v>2.05</v>
+      </c>
+      <c r="BM161">
+        <v>2.07</v>
+      </c>
+      <c r="BN161">
+        <v>1.67</v>
+      </c>
+      <c r="BO161">
+        <v>2.65</v>
+      </c>
+      <c r="BP161">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7292600</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>72</v>
+      </c>
+      <c r="H162" t="s">
+        <v>83</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>96</v>
+      </c>
+      <c r="P162" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q162">
+        <v>2.25</v>
+      </c>
+      <c r="R162">
+        <v>2.2</v>
+      </c>
+      <c r="S162">
+        <v>4.5</v>
+      </c>
+      <c r="T162">
+        <v>1.33</v>
+      </c>
+      <c r="U162">
+        <v>3.15</v>
+      </c>
+      <c r="V162">
+        <v>2.5</v>
+      </c>
+      <c r="W162">
+        <v>1.46</v>
+      </c>
+      <c r="X162">
+        <v>5.8</v>
+      </c>
+      <c r="Y162">
+        <v>1.09</v>
+      </c>
+      <c r="Z162">
+        <v>1.75</v>
+      </c>
+      <c r="AA162">
+        <v>3.8</v>
+      </c>
+      <c r="AB162">
+        <v>4.2</v>
+      </c>
+      <c r="AC162">
+        <v>1.01</v>
+      </c>
+      <c r="AD162">
+        <v>11</v>
+      </c>
+      <c r="AE162">
+        <v>1.2</v>
+      </c>
+      <c r="AF162">
+        <v>4</v>
+      </c>
+      <c r="AG162">
+        <v>1.76</v>
+      </c>
+      <c r="AH162">
+        <v>1.94</v>
+      </c>
+      <c r="AI162">
+        <v>1.73</v>
+      </c>
+      <c r="AJ162">
+        <v>2.1</v>
+      </c>
+      <c r="AK162">
+        <v>1.2</v>
+      </c>
+      <c r="AL162">
+        <v>1.26</v>
+      </c>
+      <c r="AM162">
+        <v>2.11</v>
+      </c>
+      <c r="AN162">
+        <v>2.2</v>
+      </c>
+      <c r="AO162">
+        <v>0.9</v>
+      </c>
+      <c r="AP162">
+        <v>2.09</v>
+      </c>
+      <c r="AQ162">
+        <v>0.91</v>
+      </c>
+      <c r="AR162">
+        <v>1.5</v>
+      </c>
+      <c r="AS162">
+        <v>1.14</v>
+      </c>
+      <c r="AT162">
+        <v>2.64</v>
+      </c>
+      <c r="AU162">
+        <v>4</v>
+      </c>
+      <c r="AV162">
+        <v>8</v>
+      </c>
+      <c r="AW162">
+        <v>6</v>
+      </c>
+      <c r="AX162">
+        <v>6</v>
+      </c>
+      <c r="AY162">
+        <v>10</v>
+      </c>
+      <c r="AZ162">
+        <v>14</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>9</v>
+      </c>
+      <c r="BD162">
+        <v>1.36</v>
+      </c>
+      <c r="BE162">
+        <v>7.5</v>
+      </c>
+      <c r="BF162">
+        <v>3.15</v>
+      </c>
+      <c r="BG162">
+        <v>1.15</v>
+      </c>
+      <c r="BH162">
+        <v>4.6</v>
+      </c>
+      <c r="BI162">
+        <v>1.28</v>
+      </c>
+      <c r="BJ162">
+        <v>3.3</v>
+      </c>
+      <c r="BK162">
+        <v>1.47</v>
+      </c>
+      <c r="BL162">
+        <v>2.48</v>
+      </c>
+      <c r="BM162">
+        <v>1.74</v>
+      </c>
+      <c r="BN162">
+        <v>1.98</v>
+      </c>
+      <c r="BO162">
+        <v>2.1</v>
+      </c>
+      <c r="BP162">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7292601</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45535.52083333334</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>79</v>
+      </c>
+      <c r="H163" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163">
+        <v>3</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>4</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>200</v>
+      </c>
+      <c r="P163" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q163">
+        <v>2.05</v>
+      </c>
+      <c r="R163">
+        <v>2.3</v>
+      </c>
+      <c r="S163">
+        <v>5.5</v>
+      </c>
+      <c r="T163">
+        <v>1.32</v>
+      </c>
+      <c r="U163">
+        <v>3.2</v>
+      </c>
+      <c r="V163">
+        <v>2.55</v>
+      </c>
+      <c r="W163">
+        <v>1.48</v>
+      </c>
+      <c r="X163">
+        <v>5.8</v>
+      </c>
+      <c r="Y163">
+        <v>1.09</v>
+      </c>
+      <c r="Z163">
+        <v>1.57</v>
+      </c>
+      <c r="AA163">
+        <v>4.1</v>
+      </c>
+      <c r="AB163">
+        <v>5.25</v>
+      </c>
+      <c r="AC163">
+        <v>1.05</v>
+      </c>
+      <c r="AD163">
+        <v>10</v>
+      </c>
+      <c r="AE163">
+        <v>1.25</v>
+      </c>
+      <c r="AF163">
+        <v>3.9</v>
+      </c>
+      <c r="AG163">
+        <v>1.74</v>
+      </c>
+      <c r="AH163">
+        <v>1.96</v>
+      </c>
+      <c r="AI163">
+        <v>1.83</v>
+      </c>
+      <c r="AJ163">
+        <v>1.83</v>
+      </c>
+      <c r="AK163">
+        <v>1.15</v>
+      </c>
+      <c r="AL163">
+        <v>1.23</v>
+      </c>
+      <c r="AM163">
+        <v>2.4</v>
+      </c>
+      <c r="AN163">
+        <v>2.1</v>
+      </c>
+      <c r="AO163">
+        <v>0.6</v>
+      </c>
+      <c r="AP163">
+        <v>2.18</v>
+      </c>
+      <c r="AQ163">
+        <v>0.55</v>
+      </c>
+      <c r="AR163">
+        <v>1.33</v>
+      </c>
+      <c r="AS163">
+        <v>1.02</v>
+      </c>
+      <c r="AT163">
+        <v>2.35</v>
+      </c>
+      <c r="AU163">
+        <v>5</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+      <c r="AW163">
+        <v>6</v>
+      </c>
+      <c r="AX163">
+        <v>2</v>
+      </c>
+      <c r="AY163">
+        <v>11</v>
+      </c>
+      <c r="AZ163">
+        <v>5</v>
+      </c>
+      <c r="BA163">
+        <v>2</v>
+      </c>
+      <c r="BB163">
+        <v>4</v>
+      </c>
+      <c r="BC163">
+        <v>6</v>
+      </c>
+      <c r="BD163">
+        <v>1.35</v>
+      </c>
+      <c r="BE163">
+        <v>7</v>
+      </c>
+      <c r="BF163">
+        <v>3.15</v>
+      </c>
+      <c r="BG163">
+        <v>1.2</v>
+      </c>
+      <c r="BH163">
+        <v>3.95</v>
+      </c>
+      <c r="BI163">
+        <v>1.36</v>
+      </c>
+      <c r="BJ163">
+        <v>2.85</v>
+      </c>
+      <c r="BK163">
+        <v>1.58</v>
+      </c>
+      <c r="BL163">
+        <v>2.18</v>
+      </c>
+      <c r="BM163">
+        <v>1.93</v>
+      </c>
+      <c r="BN163">
+        <v>1.76</v>
+      </c>
+      <c r="BO163">
+        <v>2.4</v>
+      </c>
+      <c r="BP163">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7292604</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45535.52083333334</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>82</v>
+      </c>
+      <c r="H164" t="s">
+        <v>75</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>201</v>
+      </c>
+      <c r="P164" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q164">
+        <v>2.8</v>
+      </c>
+      <c r="R164">
+        <v>2.2</v>
+      </c>
+      <c r="S164">
+        <v>3.4</v>
+      </c>
+      <c r="T164">
+        <v>1.32</v>
+      </c>
+      <c r="U164">
+        <v>3.2</v>
+      </c>
+      <c r="V164">
+        <v>2.5</v>
+      </c>
+      <c r="W164">
+        <v>1.49</v>
+      </c>
+      <c r="X164">
+        <v>5.6</v>
+      </c>
+      <c r="Y164">
+        <v>1.1</v>
+      </c>
+      <c r="Z164">
+        <v>2.2</v>
+      </c>
+      <c r="AA164">
+        <v>3.7</v>
+      </c>
+      <c r="AB164">
+        <v>2.87</v>
+      </c>
+      <c r="AC164">
+        <v>1.01</v>
+      </c>
+      <c r="AD164">
+        <v>11</v>
+      </c>
+      <c r="AE164">
+        <v>1.17</v>
+      </c>
+      <c r="AF164">
+        <v>4.5</v>
+      </c>
+      <c r="AG164">
+        <v>1.71</v>
+      </c>
+      <c r="AH164">
+        <v>2</v>
+      </c>
+      <c r="AI164">
+        <v>1.53</v>
+      </c>
+      <c r="AJ164">
+        <v>2.45</v>
+      </c>
+      <c r="AK164">
+        <v>1.42</v>
+      </c>
+      <c r="AL164">
+        <v>1.3</v>
+      </c>
+      <c r="AM164">
+        <v>1.45</v>
+      </c>
+      <c r="AN164">
+        <v>1</v>
+      </c>
+      <c r="AO164">
+        <v>1.4</v>
+      </c>
+      <c r="AP164">
+        <v>0.91</v>
+      </c>
+      <c r="AQ164">
+        <v>1.55</v>
+      </c>
+      <c r="AR164">
+        <v>1.61</v>
+      </c>
+      <c r="AS164">
+        <v>1.23</v>
+      </c>
+      <c r="AT164">
+        <v>2.84</v>
+      </c>
+      <c r="AU164">
+        <v>4</v>
+      </c>
+      <c r="AV164">
+        <v>7</v>
+      </c>
+      <c r="AW164">
+        <v>7</v>
+      </c>
+      <c r="AX164">
+        <v>6</v>
+      </c>
+      <c r="AY164">
+        <v>11</v>
+      </c>
+      <c r="AZ164">
+        <v>13</v>
+      </c>
+      <c r="BA164">
+        <v>7</v>
+      </c>
+      <c r="BB164">
+        <v>8</v>
+      </c>
+      <c r="BC164">
+        <v>15</v>
+      </c>
+      <c r="BD164">
+        <v>1.55</v>
+      </c>
+      <c r="BE164">
+        <v>6.75</v>
+      </c>
+      <c r="BF164">
+        <v>2.5</v>
+      </c>
+      <c r="BG164">
+        <v>1.21</v>
+      </c>
+      <c r="BH164">
+        <v>3.9</v>
+      </c>
+      <c r="BI164">
+        <v>1.36</v>
+      </c>
+      <c r="BJ164">
+        <v>2.8</v>
+      </c>
+      <c r="BK164">
+        <v>1.6</v>
+      </c>
+      <c r="BL164">
+        <v>2.17</v>
+      </c>
+      <c r="BM164">
+        <v>1.95</v>
+      </c>
+      <c r="BN164">
+        <v>1.75</v>
+      </c>
+      <c r="BO164">
+        <v>2.4</v>
+      </c>
+      <c r="BP164">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,10 +616,19 @@
     <t>['34', '45+4']</t>
   </si>
   <si>
-    <t>['1', '14', '41']</t>
+    <t>['1', '14', '40']</t>
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['10', '20', '22', '80']</t>
+  </si>
+  <si>
+    <t>['7', '34', '85']</t>
+  </si>
+  <si>
+    <t>['25', '49', '90+5']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -896,6 +905,15 @@
   </si>
   <si>
     <t>['11', '55']</t>
+  </si>
+  <si>
+    <t>['28', '68', '90+1']</t>
+  </si>
+  <si>
+    <t>['47', '54', '74']</t>
+  </si>
+  <si>
+    <t>['90+11']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1534,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1594,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ2">
         <v>1.91</v>
@@ -1722,7 +1740,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1928,7 +1946,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2340,7 +2358,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2418,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2958,7 +2976,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3164,7 +3182,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3654,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ12">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4069,7 +4087,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ14">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4194,7 +4212,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4400,7 +4418,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4606,7 +4624,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4687,7 +4705,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ17">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4812,7 +4830,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5302,7 +5320,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5430,7 +5448,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5842,7 +5860,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6048,7 +6066,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6335,7 +6353,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6460,7 +6478,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6744,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ27">
         <v>0.8</v>
@@ -6950,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ28">
         <v>0.8</v>
@@ -7078,7 +7096,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7365,7 +7383,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ30">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7571,7 +7589,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ31">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR31">
         <v>1.67</v>
@@ -7696,7 +7714,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7902,7 +7920,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8108,7 +8126,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8314,7 +8332,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8392,10 +8410,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ35">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8726,7 +8744,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8804,10 +8822,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ37">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -8932,7 +8950,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9013,7 +9031,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR38">
         <v>0.8</v>
@@ -9138,7 +9156,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9550,7 +9568,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9756,7 +9774,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10040,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ43">
         <v>1.27</v>
@@ -10374,7 +10392,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10580,7 +10598,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10992,7 +11010,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11404,7 +11422,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11610,7 +11628,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11816,7 +11834,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11897,7 +11915,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12022,7 +12040,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12228,7 +12246,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12309,7 +12327,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -12434,7 +12452,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12640,7 +12658,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12846,7 +12864,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -13052,7 +13070,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13258,7 +13276,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13670,7 +13688,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13876,7 +13894,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13954,10 +13972,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ62">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR62">
         <v>1.3</v>
@@ -14163,7 +14181,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ63">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14288,7 +14306,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14494,7 +14512,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14572,7 +14590,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ65">
         <v>1.91</v>
@@ -14987,7 +15005,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -15193,7 +15211,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15318,7 +15336,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15602,7 +15620,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15730,7 +15748,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15936,7 +15954,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16142,7 +16160,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16223,7 +16241,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16348,7 +16366,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16554,7 +16572,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16841,7 +16859,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ76">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -16966,7 +16984,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17584,7 +17602,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17868,7 +17886,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ81">
         <v>1.2</v>
@@ -18074,7 +18092,7 @@
         <v>1.2</v>
       </c>
       <c r="AP82">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ82">
         <v>0.91</v>
@@ -18489,7 +18507,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ84">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18614,7 +18632,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18695,7 +18713,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ85">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -19026,7 +19044,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19232,7 +19250,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19310,7 +19328,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ88">
         <v>1.5</v>
@@ -19438,7 +19456,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19644,7 +19662,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19722,10 +19740,10 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ90">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR90">
         <v>2.32</v>
@@ -19931,7 +19949,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ91">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.51</v>
@@ -20134,10 +20152,10 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ92">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR92">
         <v>1.27</v>
@@ -20262,7 +20280,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20880,7 +20898,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20961,7 +20979,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ96">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21086,7 +21104,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21292,7 +21310,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21498,7 +21516,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21910,7 +21928,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22322,7 +22340,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22528,7 +22546,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22606,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ104">
         <v>0.55</v>
@@ -22815,7 +22833,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ105">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR105">
         <v>1.51</v>
@@ -22940,7 +22958,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23018,10 +23036,10 @@
         <v>2.4</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ106">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR106">
         <v>1.38</v>
@@ -23146,7 +23164,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23227,7 +23245,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ107">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -23352,7 +23370,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23970,7 +23988,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24176,7 +24194,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24257,7 +24275,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ112">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR112">
         <v>1.86</v>
@@ -24588,7 +24606,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24794,7 +24812,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25000,7 +25018,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25206,7 +25224,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25287,7 +25305,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ117">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.22</v>
@@ -25493,7 +25511,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ118">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR118">
         <v>1.29</v>
@@ -25618,7 +25636,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25699,7 +25717,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -25902,7 +25920,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ120">
         <v>0.55</v>
@@ -26236,7 +26254,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26314,7 +26332,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ122">
         <v>0.8</v>
@@ -26726,7 +26744,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ124">
         <v>0.91</v>
@@ -26854,7 +26872,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -26932,7 +26950,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ125">
         <v>1.45</v>
@@ -27138,7 +27156,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ126">
         <v>1.55</v>
@@ -27884,7 +27902,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27965,7 +27983,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ130">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR130">
         <v>1.78</v>
@@ -28090,7 +28108,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28502,7 +28520,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28914,7 +28932,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29120,7 +29138,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29326,7 +29344,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29407,7 +29425,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ137">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR137">
         <v>1.24</v>
@@ -29610,7 +29628,7 @@
         <v>0.63</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ138">
         <v>0.8</v>
@@ -29738,7 +29756,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>7.7</v>
@@ -30022,7 +30040,7 @@
         <v>1.63</v>
       </c>
       <c r="AP140">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ140">
         <v>1.5</v>
@@ -30356,7 +30374,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30562,7 +30580,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>2.25</v>
@@ -30768,7 +30786,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31052,7 +31070,7 @@
         <v>1.44</v>
       </c>
       <c r="AP145">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ145">
         <v>1.55</v>
@@ -31180,7 +31198,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31261,7 +31279,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ146">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR146">
         <v>1.32</v>
@@ -31386,7 +31404,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>1.56</v>
@@ -31464,7 +31482,7 @@
         <v>0.89</v>
       </c>
       <c r="AP147">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ147">
         <v>0.8</v>
@@ -31592,7 +31610,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31798,7 +31816,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -31879,7 +31897,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR149">
         <v>1.46</v>
@@ -32004,7 +32022,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32085,7 +32103,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ150">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32210,7 +32228,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q151">
         <v>2.7</v>
@@ -32622,7 +32640,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q153">
         <v>6.25</v>
@@ -33034,7 +33052,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33115,7 +33133,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ155">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR155">
         <v>1.62</v>
@@ -33240,7 +33258,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>2.3</v>
@@ -33446,7 +33464,7 @@
         <v>175</v>
       </c>
       <c r="P157" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33858,7 +33876,7 @@
         <v>101</v>
       </c>
       <c r="P159" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>3.1</v>
@@ -33936,7 +33954,7 @@
         <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ159">
         <v>1.2</v>
@@ -34682,7 +34700,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -34888,7 +34906,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35045,6 +35063,830 @@
       </c>
       <c r="BP164">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7292598</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45536.375</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>80</v>
+      </c>
+      <c r="H165" t="s">
+        <v>85</v>
+      </c>
+      <c r="I165">
+        <v>3</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>3</v>
+      </c>
+      <c r="L165">
+        <v>4</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>202</v>
+      </c>
+      <c r="P165" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q165">
+        <v>2</v>
+      </c>
+      <c r="R165">
+        <v>2.35</v>
+      </c>
+      <c r="S165">
+        <v>5.25</v>
+      </c>
+      <c r="T165">
+        <v>1.28</v>
+      </c>
+      <c r="U165">
+        <v>3.3</v>
+      </c>
+      <c r="V165">
+        <v>2.4</v>
+      </c>
+      <c r="W165">
+        <v>1.5</v>
+      </c>
+      <c r="X165">
+        <v>5.4</v>
+      </c>
+      <c r="Y165">
+        <v>1.11</v>
+      </c>
+      <c r="Z165">
+        <v>1.55</v>
+      </c>
+      <c r="AA165">
+        <v>4</v>
+      </c>
+      <c r="AB165">
+        <v>4.9</v>
+      </c>
+      <c r="AC165">
+        <v>1.04</v>
+      </c>
+      <c r="AD165">
+        <v>10.5</v>
+      </c>
+      <c r="AE165">
+        <v>1.21</v>
+      </c>
+      <c r="AF165">
+        <v>3.75</v>
+      </c>
+      <c r="AG165">
+        <v>1.67</v>
+      </c>
+      <c r="AH165">
+        <v>2.07</v>
+      </c>
+      <c r="AI165">
+        <v>1.8</v>
+      </c>
+      <c r="AJ165">
+        <v>2.05</v>
+      </c>
+      <c r="AK165">
+        <v>1.17</v>
+      </c>
+      <c r="AL165">
+        <v>1.22</v>
+      </c>
+      <c r="AM165">
+        <v>2.2</v>
+      </c>
+      <c r="AN165">
+        <v>2.67</v>
+      </c>
+      <c r="AO165">
+        <v>2.33</v>
+      </c>
+      <c r="AP165">
+        <v>2.7</v>
+      </c>
+      <c r="AQ165">
+        <v>2.1</v>
+      </c>
+      <c r="AR165">
+        <v>2.25</v>
+      </c>
+      <c r="AS165">
+        <v>1.6</v>
+      </c>
+      <c r="AT165">
+        <v>3.85</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>6</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>7</v>
+      </c>
+      <c r="AY165">
+        <v>12</v>
+      </c>
+      <c r="AZ165">
+        <v>13</v>
+      </c>
+      <c r="BA165">
+        <v>3</v>
+      </c>
+      <c r="BB165">
+        <v>5</v>
+      </c>
+      <c r="BC165">
+        <v>8</v>
+      </c>
+      <c r="BD165">
+        <v>1.33</v>
+      </c>
+      <c r="BE165">
+        <v>7.5</v>
+      </c>
+      <c r="BF165">
+        <v>3.3</v>
+      </c>
+      <c r="BG165">
+        <v>1.19</v>
+      </c>
+      <c r="BH165">
+        <v>4.1</v>
+      </c>
+      <c r="BI165">
+        <v>1.32</v>
+      </c>
+      <c r="BJ165">
+        <v>3.05</v>
+      </c>
+      <c r="BK165">
+        <v>1.54</v>
+      </c>
+      <c r="BL165">
+        <v>2.3</v>
+      </c>
+      <c r="BM165">
+        <v>1.84</v>
+      </c>
+      <c r="BN165">
+        <v>1.84</v>
+      </c>
+      <c r="BO165">
+        <v>2.3</v>
+      </c>
+      <c r="BP165">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7292603</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45536.375</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s">
+        <v>77</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>3</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>6</v>
+      </c>
+      <c r="O166" t="s">
+        <v>203</v>
+      </c>
+      <c r="P166" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q166">
+        <v>3.1</v>
+      </c>
+      <c r="R166">
+        <v>2.25</v>
+      </c>
+      <c r="S166">
+        <v>2.8</v>
+      </c>
+      <c r="T166">
+        <v>1.28</v>
+      </c>
+      <c r="U166">
+        <v>3.3</v>
+      </c>
+      <c r="V166">
+        <v>2.25</v>
+      </c>
+      <c r="W166">
+        <v>1.57</v>
+      </c>
+      <c r="X166">
+        <v>4.9</v>
+      </c>
+      <c r="Y166">
+        <v>1.14</v>
+      </c>
+      <c r="Z166">
+        <v>2.85</v>
+      </c>
+      <c r="AA166">
+        <v>3.6</v>
+      </c>
+      <c r="AB166">
+        <v>2.12</v>
+      </c>
+      <c r="AC166">
+        <v>1.04</v>
+      </c>
+      <c r="AD166">
+        <v>11</v>
+      </c>
+      <c r="AE166">
+        <v>1.15</v>
+      </c>
+      <c r="AF166">
+        <v>4.5</v>
+      </c>
+      <c r="AG166">
+        <v>1.55</v>
+      </c>
+      <c r="AH166">
+        <v>2.29</v>
+      </c>
+      <c r="AI166">
+        <v>1.5</v>
+      </c>
+      <c r="AJ166">
+        <v>2.55</v>
+      </c>
+      <c r="AK166">
+        <v>1.62</v>
+      </c>
+      <c r="AL166">
+        <v>1.27</v>
+      </c>
+      <c r="AM166">
+        <v>1.38</v>
+      </c>
+      <c r="AN166">
+        <v>1</v>
+      </c>
+      <c r="AO166">
+        <v>0.78</v>
+      </c>
+      <c r="AP166">
+        <v>1</v>
+      </c>
+      <c r="AQ166">
+        <v>0.8</v>
+      </c>
+      <c r="AR166">
+        <v>1.52</v>
+      </c>
+      <c r="AS166">
+        <v>1.27</v>
+      </c>
+      <c r="AT166">
+        <v>2.79</v>
+      </c>
+      <c r="AU166">
+        <v>8</v>
+      </c>
+      <c r="AV166">
+        <v>10</v>
+      </c>
+      <c r="AW166">
+        <v>3</v>
+      </c>
+      <c r="AX166">
+        <v>5</v>
+      </c>
+      <c r="AY166">
+        <v>11</v>
+      </c>
+      <c r="AZ166">
+        <v>15</v>
+      </c>
+      <c r="BA166">
+        <v>4</v>
+      </c>
+      <c r="BB166">
+        <v>13</v>
+      </c>
+      <c r="BC166">
+        <v>17</v>
+      </c>
+      <c r="BD166">
+        <v>1.9</v>
+      </c>
+      <c r="BE166">
+        <v>6.4</v>
+      </c>
+      <c r="BF166">
+        <v>1.98</v>
+      </c>
+      <c r="BG166">
+        <v>1.19</v>
+      </c>
+      <c r="BH166">
+        <v>4.1</v>
+      </c>
+      <c r="BI166">
+        <v>1.32</v>
+      </c>
+      <c r="BJ166">
+        <v>3</v>
+      </c>
+      <c r="BK166">
+        <v>1.53</v>
+      </c>
+      <c r="BL166">
+        <v>2.3</v>
+      </c>
+      <c r="BM166">
+        <v>1.84</v>
+      </c>
+      <c r="BN166">
+        <v>1.84</v>
+      </c>
+      <c r="BO166">
+        <v>2.3</v>
+      </c>
+      <c r="BP166">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7292599</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45536.47916666666</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>70</v>
+      </c>
+      <c r="H167" t="s">
+        <v>73</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167">
+        <v>3</v>
+      </c>
+      <c r="N167">
+        <v>6</v>
+      </c>
+      <c r="O167" t="s">
+        <v>204</v>
+      </c>
+      <c r="P167" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q167">
+        <v>3.25</v>
+      </c>
+      <c r="R167">
+        <v>2.5</v>
+      </c>
+      <c r="S167">
+        <v>2.63</v>
+      </c>
+      <c r="T167">
+        <v>1.21</v>
+      </c>
+      <c r="U167">
+        <v>3.9</v>
+      </c>
+      <c r="V167">
+        <v>2</v>
+      </c>
+      <c r="W167">
+        <v>1.7</v>
+      </c>
+      <c r="X167">
+        <v>4.2</v>
+      </c>
+      <c r="Y167">
+        <v>1.18</v>
+      </c>
+      <c r="Z167">
+        <v>2.95</v>
+      </c>
+      <c r="AA167">
+        <v>3.9</v>
+      </c>
+      <c r="AB167">
+        <v>1.98</v>
+      </c>
+      <c r="AC167">
+        <v>1.02</v>
+      </c>
+      <c r="AD167">
+        <v>23.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.09</v>
+      </c>
+      <c r="AF167">
+        <v>5.8</v>
+      </c>
+      <c r="AG167">
+        <v>1.41</v>
+      </c>
+      <c r="AH167">
+        <v>2.69</v>
+      </c>
+      <c r="AI167">
+        <v>1.42</v>
+      </c>
+      <c r="AJ167">
+        <v>2.75</v>
+      </c>
+      <c r="AK167">
+        <v>1.7</v>
+      </c>
+      <c r="AL167">
+        <v>1.2</v>
+      </c>
+      <c r="AM167">
+        <v>1.36</v>
+      </c>
+      <c r="AN167">
+        <v>1.5</v>
+      </c>
+      <c r="AO167">
+        <v>1.56</v>
+      </c>
+      <c r="AP167">
+        <v>1.45</v>
+      </c>
+      <c r="AQ167">
+        <v>1.5</v>
+      </c>
+      <c r="AR167">
+        <v>1.37</v>
+      </c>
+      <c r="AS167">
+        <v>1.48</v>
+      </c>
+      <c r="AT167">
+        <v>2.85</v>
+      </c>
+      <c r="AU167">
+        <v>6</v>
+      </c>
+      <c r="AV167">
+        <v>7</v>
+      </c>
+      <c r="AW167">
+        <v>2</v>
+      </c>
+      <c r="AX167">
+        <v>3</v>
+      </c>
+      <c r="AY167">
+        <v>8</v>
+      </c>
+      <c r="AZ167">
+        <v>10</v>
+      </c>
+      <c r="BA167">
+        <v>1</v>
+      </c>
+      <c r="BB167">
+        <v>6</v>
+      </c>
+      <c r="BC167">
+        <v>7</v>
+      </c>
+      <c r="BD167">
+        <v>2.18</v>
+      </c>
+      <c r="BE167">
+        <v>6.75</v>
+      </c>
+      <c r="BF167">
+        <v>1.72</v>
+      </c>
+      <c r="BG167">
+        <v>1.15</v>
+      </c>
+      <c r="BH167">
+        <v>4.6</v>
+      </c>
+      <c r="BI167">
+        <v>1.27</v>
+      </c>
+      <c r="BJ167">
+        <v>3.3</v>
+      </c>
+      <c r="BK167">
+        <v>1.46</v>
+      </c>
+      <c r="BL167">
+        <v>2.48</v>
+      </c>
+      <c r="BM167">
+        <v>1.74</v>
+      </c>
+      <c r="BN167">
+        <v>1.98</v>
+      </c>
+      <c r="BO167">
+        <v>2.1</v>
+      </c>
+      <c r="BP167">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7292597</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45536.47916666666</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>74</v>
+      </c>
+      <c r="H168" t="s">
+        <v>71</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>88</v>
+      </c>
+      <c r="P168" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q168">
+        <v>3.15</v>
+      </c>
+      <c r="R168">
+        <v>2.36</v>
+      </c>
+      <c r="S168">
+        <v>3.2</v>
+      </c>
+      <c r="T168">
+        <v>1.3</v>
+      </c>
+      <c r="U168">
+        <v>3.1</v>
+      </c>
+      <c r="V168">
+        <v>2.5</v>
+      </c>
+      <c r="W168">
+        <v>1.49</v>
+      </c>
+      <c r="X168">
+        <v>5.6</v>
+      </c>
+      <c r="Y168">
+        <v>1.1</v>
+      </c>
+      <c r="Z168">
+        <v>2.55</v>
+      </c>
+      <c r="AA168">
+        <v>3.5</v>
+      </c>
+      <c r="AB168">
+        <v>2.38</v>
+      </c>
+      <c r="AC168">
+        <v>1.04</v>
+      </c>
+      <c r="AD168">
+        <v>10.5</v>
+      </c>
+      <c r="AE168">
+        <v>1.21</v>
+      </c>
+      <c r="AF168">
+        <v>3.75</v>
+      </c>
+      <c r="AG168">
+        <v>1.73</v>
+      </c>
+      <c r="AH168">
+        <v>1.98</v>
+      </c>
+      <c r="AI168">
+        <v>1.55</v>
+      </c>
+      <c r="AJ168">
+        <v>2.25</v>
+      </c>
+      <c r="AK168">
+        <v>1.53</v>
+      </c>
+      <c r="AL168">
+        <v>1.3</v>
+      </c>
+      <c r="AM168">
+        <v>1.48</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
+        <v>1.6</v>
+      </c>
+      <c r="AP168">
+        <v>0.91</v>
+      </c>
+      <c r="AQ168">
+        <v>1.73</v>
+      </c>
+      <c r="AR168">
+        <v>1.29</v>
+      </c>
+      <c r="AS168">
+        <v>1.45</v>
+      </c>
+      <c r="AT168">
+        <v>2.74</v>
+      </c>
+      <c r="AU168">
+        <v>0</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>5</v>
+      </c>
+      <c r="AX168">
+        <v>6</v>
+      </c>
+      <c r="AY168">
+        <v>5</v>
+      </c>
+      <c r="AZ168">
+        <v>10</v>
+      </c>
+      <c r="BA168">
+        <v>3</v>
+      </c>
+      <c r="BB168">
+        <v>6</v>
+      </c>
+      <c r="BC168">
+        <v>9</v>
+      </c>
+      <c r="BD168">
+        <v>1.6</v>
+      </c>
+      <c r="BE168">
+        <v>6.75</v>
+      </c>
+      <c r="BF168">
+        <v>2.4</v>
+      </c>
+      <c r="BG168">
+        <v>1.16</v>
+      </c>
+      <c r="BH168">
+        <v>4.6</v>
+      </c>
+      <c r="BI168">
+        <v>1.28</v>
+      </c>
+      <c r="BJ168">
+        <v>3.2</v>
+      </c>
+      <c r="BK168">
+        <v>1.48</v>
+      </c>
+      <c r="BL168">
+        <v>2.45</v>
+      </c>
+      <c r="BM168">
+        <v>1.75</v>
+      </c>
+      <c r="BN168">
+        <v>1.95</v>
+      </c>
+      <c r="BO168">
+        <v>2.15</v>
+      </c>
+      <c r="BP168">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -35635,13 +35635,13 @@
         <v>10</v>
       </c>
       <c r="BA167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB167">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD167">
         <v>2.18</v>
@@ -35844,10 +35844,10 @@
         <v>3</v>
       </c>
       <c r="BB168">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC168">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD168">
         <v>1.6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -556,10 +556,10 @@
     <t>['2', '73', '88']</t>
   </si>
   <si>
-    <t>['3', '23', '60', '89']</t>
+    <t>['50', '59', '87']</t>
   </si>
   <si>
-    <t>['50', '59', '87']</t>
+    <t>['3', '23', '60', '89']</t>
   </si>
   <si>
     <t>['45+1']</t>
@@ -580,13 +580,13 @@
     <t>['90', '90+6']</t>
   </si>
   <si>
-    <t>['56']</t>
+    <t>['47', '52', '57']</t>
   </si>
   <si>
     <t>['8', '30']</t>
   </si>
   <si>
-    <t>['47', '52', '57']</t>
+    <t>['56']</t>
   </si>
   <si>
     <t>['5', '25', '30']</t>
@@ -598,10 +598,10 @@
     <t>['62', '90+7']</t>
   </si>
   <si>
-    <t>['85']</t>
+    <t>['26']</t>
   </si>
   <si>
-    <t>['26']</t>
+    <t>['85']</t>
   </si>
   <si>
     <t>['23', '30', '90+5']</t>
@@ -862,31 +862,31 @@
     <t>['31']</t>
   </si>
   <si>
-    <t>['14']</t>
+    <t>['77']</t>
   </si>
   <si>
-    <t>['77']</t>
+    <t>['14']</t>
   </si>
   <si>
     <t>['10', '49', '72']</t>
   </si>
   <si>
-    <t>['2', '63', '88']</t>
+    <t>['21']</t>
   </si>
   <si>
-    <t>['21']</t>
+    <t>['2', '63', '88']</t>
   </si>
   <si>
     <t>['45+5']</t>
   </si>
   <si>
-    <t>['40', '54', '82']</t>
+    <t>['39', '63']</t>
   </si>
   <si>
     <t>['16']</t>
   </si>
   <si>
-    <t>['39', '63']</t>
+    <t>['40', '54', '82']</t>
   </si>
   <si>
     <t>['9', '77']</t>
@@ -910,10 +910,10 @@
     <t>['28', '68', '90+1']</t>
   </si>
   <si>
-    <t>['47', '54', '74']</t>
+    <t>['90+11']</t>
   </si>
   <si>
-    <t>['90+11']</t>
+    <t>['47', '54', '74']</t>
   </si>
 </sst>
 </file>
@@ -27448,7 +27448,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7292562</v>
+        <v>7292558</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27463,28 +27463,28 @@
         <v>16</v>
       </c>
       <c r="G128" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H128" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M128">
         <v>0</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O128" t="s">
         <v>180</v>
@@ -27493,160 +27493,160 @@
         <v>88</v>
       </c>
       <c r="Q128">
+        <v>2.88</v>
+      </c>
+      <c r="R128">
+        <v>2.2</v>
+      </c>
+      <c r="S128">
+        <v>3.75</v>
+      </c>
+      <c r="T128">
+        <v>1.4</v>
+      </c>
+      <c r="U128">
+        <v>2.75</v>
+      </c>
+      <c r="V128">
+        <v>2.75</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>8</v>
+      </c>
+      <c r="Y128">
+        <v>1.08</v>
+      </c>
+      <c r="Z128">
         <v>2.1</v>
       </c>
-      <c r="R128">
-        <v>2.6</v>
-      </c>
-      <c r="S128">
-        <v>4.5</v>
-      </c>
-      <c r="T128">
+      <c r="AA128">
+        <v>3.4</v>
+      </c>
+      <c r="AB128">
+        <v>3.15</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+      <c r="AD128">
+        <v>12</v>
+      </c>
+      <c r="AE128">
+        <v>1.3</v>
+      </c>
+      <c r="AF128">
+        <v>3.6</v>
+      </c>
+      <c r="AG128">
+        <v>1.85</v>
+      </c>
+      <c r="AH128">
+        <v>1.85</v>
+      </c>
+      <c r="AI128">
+        <v>1.75</v>
+      </c>
+      <c r="AJ128">
+        <v>2</v>
+      </c>
+      <c r="AK128">
+        <v>1.4</v>
+      </c>
+      <c r="AL128">
+        <v>1.26</v>
+      </c>
+      <c r="AM128">
+        <v>1.65</v>
+      </c>
+      <c r="AN128">
+        <v>2.14</v>
+      </c>
+      <c r="AO128">
+        <v>1.29</v>
+      </c>
+      <c r="AP128">
+        <v>2</v>
+      </c>
+      <c r="AQ128">
+        <v>1.2</v>
+      </c>
+      <c r="AR128">
+        <v>1.54</v>
+      </c>
+      <c r="AS128">
         <v>1.22</v>
       </c>
-      <c r="U128">
+      <c r="AT128">
+        <v>2.76</v>
+      </c>
+      <c r="AU128">
+        <v>8</v>
+      </c>
+      <c r="AV128">
         <v>4</v>
       </c>
-      <c r="V128">
-        <v>2.1</v>
-      </c>
-      <c r="W128">
-        <v>1.67</v>
-      </c>
-      <c r="X128">
-        <v>4.5</v>
-      </c>
-      <c r="Y128">
-        <v>1.18</v>
-      </c>
-      <c r="Z128">
-        <v>1.6</v>
-      </c>
-      <c r="AA128">
-        <v>4.33</v>
-      </c>
-      <c r="AB128">
-        <v>4.33</v>
-      </c>
-      <c r="AC128">
-        <v>1.03</v>
-      </c>
-      <c r="AD128">
-        <v>26</v>
-      </c>
-      <c r="AE128">
-        <v>1.1</v>
-      </c>
-      <c r="AF128">
-        <v>5.55</v>
-      </c>
-      <c r="AG128">
-        <v>1.4</v>
-      </c>
-      <c r="AH128">
-        <v>2.75</v>
-      </c>
-      <c r="AI128">
-        <v>1.5</v>
-      </c>
-      <c r="AJ128">
-        <v>2.5</v>
-      </c>
-      <c r="AK128">
-        <v>1.22</v>
-      </c>
-      <c r="AL128">
-        <v>1.18</v>
-      </c>
-      <c r="AM128">
-        <v>2.2</v>
-      </c>
-      <c r="AN128">
-        <v>1.63</v>
-      </c>
-      <c r="AO128">
-        <v>0.71</v>
-      </c>
-      <c r="AP128">
-        <v>1.7</v>
-      </c>
-      <c r="AQ128">
-        <v>0.8</v>
-      </c>
-      <c r="AR128">
-        <v>1.82</v>
-      </c>
-      <c r="AS128">
-        <v>1.58</v>
-      </c>
-      <c r="AT128">
-        <v>3.4</v>
-      </c>
-      <c r="AU128">
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>13</v>
+      </c>
+      <c r="AZ128">
+        <v>6</v>
+      </c>
+      <c r="BA128">
         <v>7</v>
       </c>
-      <c r="AV128">
-        <v>8</v>
-      </c>
-      <c r="AW128">
-        <v>0</v>
-      </c>
-      <c r="AX128">
+      <c r="BB128">
         <v>5</v>
       </c>
-      <c r="AY128">
-        <v>7</v>
-      </c>
-      <c r="AZ128">
-        <v>13</v>
-      </c>
-      <c r="BA128">
-        <v>3</v>
-      </c>
-      <c r="BB128">
-        <v>11</v>
-      </c>
       <c r="BC128">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD128">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="BE128">
         <v>6.75</v>
       </c>
       <c r="BF128">
-        <v>2.65</v>
+        <v>2.12</v>
       </c>
       <c r="BG128">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="BH128">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="BI128">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="BJ128">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="BK128">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="BL128">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="BM128">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="BN128">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="BO128">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="BP128">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27654,7 +27654,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7292558</v>
+        <v>7292562</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27669,28 +27669,28 @@
         <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H129" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M129">
         <v>0</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O129" t="s">
         <v>181</v>
@@ -27699,160 +27699,160 @@
         <v>88</v>
       </c>
       <c r="Q129">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R129">
+        <v>2.6</v>
+      </c>
+      <c r="S129">
+        <v>4.5</v>
+      </c>
+      <c r="T129">
+        <v>1.22</v>
+      </c>
+      <c r="U129">
+        <v>4</v>
+      </c>
+      <c r="V129">
+        <v>2.1</v>
+      </c>
+      <c r="W129">
+        <v>1.67</v>
+      </c>
+      <c r="X129">
+        <v>4.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.18</v>
+      </c>
+      <c r="Z129">
+        <v>1.6</v>
+      </c>
+      <c r="AA129">
+        <v>4.33</v>
+      </c>
+      <c r="AB129">
+        <v>4.33</v>
+      </c>
+      <c r="AC129">
+        <v>1.03</v>
+      </c>
+      <c r="AD129">
+        <v>26</v>
+      </c>
+      <c r="AE129">
+        <v>1.1</v>
+      </c>
+      <c r="AF129">
+        <v>5.55</v>
+      </c>
+      <c r="AG129">
+        <v>1.4</v>
+      </c>
+      <c r="AH129">
+        <v>2.75</v>
+      </c>
+      <c r="AI129">
+        <v>1.5</v>
+      </c>
+      <c r="AJ129">
+        <v>2.5</v>
+      </c>
+      <c r="AK129">
+        <v>1.22</v>
+      </c>
+      <c r="AL129">
+        <v>1.18</v>
+      </c>
+      <c r="AM129">
         <v>2.2</v>
       </c>
-      <c r="S129">
-        <v>3.75</v>
-      </c>
-      <c r="T129">
-        <v>1.4</v>
-      </c>
-      <c r="U129">
-        <v>2.75</v>
-      </c>
-      <c r="V129">
-        <v>2.75</v>
-      </c>
-      <c r="W129">
-        <v>1.4</v>
-      </c>
-      <c r="X129">
+      <c r="AN129">
+        <v>1.63</v>
+      </c>
+      <c r="AO129">
+        <v>0.71</v>
+      </c>
+      <c r="AP129">
+        <v>1.7</v>
+      </c>
+      <c r="AQ129">
+        <v>0.8</v>
+      </c>
+      <c r="AR129">
+        <v>1.82</v>
+      </c>
+      <c r="AS129">
+        <v>1.58</v>
+      </c>
+      <c r="AT129">
+        <v>3.4</v>
+      </c>
+      <c r="AU129">
+        <v>7</v>
+      </c>
+      <c r="AV129">
         <v>8</v>
       </c>
-      <c r="Y129">
-        <v>1.08</v>
-      </c>
-      <c r="Z129">
-        <v>2.1</v>
-      </c>
-      <c r="AA129">
-        <v>3.4</v>
-      </c>
-      <c r="AB129">
-        <v>3.15</v>
-      </c>
-      <c r="AC129">
-        <v>1.05</v>
-      </c>
-      <c r="AD129">
-        <v>12</v>
-      </c>
-      <c r="AE129">
-        <v>1.3</v>
-      </c>
-      <c r="AF129">
-        <v>3.6</v>
-      </c>
-      <c r="AG129">
-        <v>1.85</v>
-      </c>
-      <c r="AH129">
-        <v>1.85</v>
-      </c>
-      <c r="AI129">
-        <v>1.75</v>
-      </c>
-      <c r="AJ129">
-        <v>2</v>
-      </c>
-      <c r="AK129">
-        <v>1.4</v>
-      </c>
-      <c r="AL129">
-        <v>1.26</v>
-      </c>
-      <c r="AM129">
-        <v>1.65</v>
-      </c>
-      <c r="AN129">
-        <v>2.14</v>
-      </c>
-      <c r="AO129">
-        <v>1.29</v>
-      </c>
-      <c r="AP129">
-        <v>2</v>
-      </c>
-      <c r="AQ129">
-        <v>1.2</v>
-      </c>
-      <c r="AR129">
-        <v>1.54</v>
-      </c>
-      <c r="AS129">
-        <v>1.22</v>
-      </c>
-      <c r="AT129">
-        <v>2.76</v>
-      </c>
-      <c r="AU129">
-        <v>8</v>
-      </c>
-      <c r="AV129">
-        <v>4</v>
-      </c>
       <c r="AW129">
+        <v>0</v>
+      </c>
+      <c r="AX129">
         <v>5</v>
       </c>
-      <c r="AX129">
-        <v>2</v>
-      </c>
       <c r="AY129">
+        <v>7</v>
+      </c>
+      <c r="AZ129">
         <v>13</v>
       </c>
-      <c r="AZ129">
-        <v>6</v>
-      </c>
       <c r="BA129">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB129">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BC129">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD129">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="BE129">
         <v>6.75</v>
       </c>
       <c r="BF129">
-        <v>2.12</v>
+        <v>2.65</v>
       </c>
       <c r="BG129">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="BH129">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="BI129">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="BJ129">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="BK129">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="BL129">
-        <v>2.18</v>
+        <v>2.55</v>
       </c>
       <c r="BM129">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="BN129">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="BO129">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="BP129">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -28272,7 +28272,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7292567</v>
+        <v>7292572</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28287,190 +28287,190 @@
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H132" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O132" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="Q132">
+        <v>3.2</v>
+      </c>
+      <c r="R132">
         <v>2.25</v>
       </c>
-      <c r="R132">
-        <v>2.38</v>
-      </c>
       <c r="S132">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="T132">
+        <v>1.33</v>
+      </c>
+      <c r="U132">
+        <v>3.25</v>
+      </c>
+      <c r="V132">
+        <v>2.63</v>
+      </c>
+      <c r="W132">
+        <v>1.44</v>
+      </c>
+      <c r="X132">
+        <v>6.5</v>
+      </c>
+      <c r="Y132">
+        <v>1.11</v>
+      </c>
+      <c r="Z132">
+        <v>2.58</v>
+      </c>
+      <c r="AA132">
+        <v>3.58</v>
+      </c>
+      <c r="AB132">
+        <v>2.58</v>
+      </c>
+      <c r="AC132">
+        <v>1.02</v>
+      </c>
+      <c r="AD132">
+        <v>10</v>
+      </c>
+      <c r="AE132">
+        <v>1.22</v>
+      </c>
+      <c r="AF132">
+        <v>3.8</v>
+      </c>
+      <c r="AG132">
+        <v>1.7</v>
+      </c>
+      <c r="AH132">
+        <v>2.03</v>
+      </c>
+      <c r="AI132">
+        <v>1.57</v>
+      </c>
+      <c r="AJ132">
+        <v>2.25</v>
+      </c>
+      <c r="AK132">
+        <v>1.53</v>
+      </c>
+      <c r="AL132">
         <v>1.3</v>
       </c>
-      <c r="U132">
-        <v>3.4</v>
-      </c>
-      <c r="V132">
-        <v>2.5</v>
-      </c>
-      <c r="W132">
-        <v>1.5</v>
-      </c>
-      <c r="X132">
-        <v>6</v>
-      </c>
-      <c r="Y132">
-        <v>1.13</v>
-      </c>
-      <c r="Z132">
-        <v>1.66</v>
-      </c>
-      <c r="AA132">
-        <v>4.1</v>
-      </c>
-      <c r="AB132">
-        <v>4.89</v>
-      </c>
-      <c r="AC132">
-        <v>1.01</v>
-      </c>
-      <c r="AD132">
-        <v>11</v>
-      </c>
-      <c r="AE132">
-        <v>1.2</v>
-      </c>
-      <c r="AF132">
-        <v>4</v>
-      </c>
-      <c r="AG132">
-        <v>1.63</v>
-      </c>
-      <c r="AH132">
-        <v>2.14</v>
-      </c>
-      <c r="AI132">
-        <v>1.67</v>
-      </c>
-      <c r="AJ132">
-        <v>2.1</v>
-      </c>
-      <c r="AK132">
-        <v>1.18</v>
-      </c>
-      <c r="AL132">
-        <v>1.29</v>
-      </c>
       <c r="AM132">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="AN132">
-        <v>2.38</v>
+        <v>0.88</v>
       </c>
       <c r="AO132">
         <v>0.63</v>
       </c>
       <c r="AP132">
-        <v>2.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ132">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="AR132">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="AS132">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AT132">
-        <v>2.65</v>
+        <v>3.11</v>
       </c>
       <c r="AU132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW132">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AX132">
         <v>5</v>
       </c>
       <c r="AY132">
+        <v>6</v>
+      </c>
+      <c r="AZ132">
         <v>12</v>
       </c>
-      <c r="AZ132">
-        <v>10</v>
-      </c>
       <c r="BA132">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BB132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC132">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD132">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="BE132">
         <v>7</v>
       </c>
       <c r="BF132">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BG132">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="BH132">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="BI132">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="BJ132">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="BK132">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="BL132">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="BM132">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="BN132">
+        <v>2.05</v>
+      </c>
+      <c r="BO132">
         <v>1.88</v>
       </c>
-      <c r="BO132">
-        <v>2.3</v>
-      </c>
       <c r="BP132">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28478,7 +28478,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7292572</v>
+        <v>7292567</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28493,190 +28493,190 @@
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H133" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="P133" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="Q133">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R133">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S133">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="T133">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U133">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V133">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W133">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X133">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y133">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z133">
-        <v>2.58</v>
+        <v>1.66</v>
       </c>
       <c r="AA133">
-        <v>3.58</v>
+        <v>4.1</v>
       </c>
       <c r="AB133">
-        <v>2.58</v>
+        <v>4.89</v>
       </c>
       <c r="AC133">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD133">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE133">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF133">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AG133">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AH133">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="AI133">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ133">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK133">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="AL133">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AM133">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="AN133">
-        <v>0.88</v>
+        <v>2.38</v>
       </c>
       <c r="AO133">
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>0.91</v>
+        <v>2.09</v>
       </c>
       <c r="AQ133">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="AR133">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AS133">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AT133">
-        <v>3.11</v>
+        <v>2.65</v>
       </c>
       <c r="AU133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV133">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW133">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX133">
         <v>5</v>
       </c>
       <c r="AY133">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ133">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA133">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BB133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC133">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD133">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="BE133">
         <v>7</v>
       </c>
       <c r="BF133">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BG133">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="BH133">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="BI133">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="BJ133">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="BK133">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="BL133">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="BM133">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="BN133">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="BO133">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="BP133">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28726,7 +28726,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q134">
         <v>2.05</v>
@@ -29508,7 +29508,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7292576</v>
+        <v>7292579</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29523,190 +29523,190 @@
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M138">
         <v>1</v>
       </c>
       <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>88</v>
+      </c>
+      <c r="P138" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q138">
+        <v>7.7</v>
+      </c>
+      <c r="R138">
+        <v>2.73</v>
+      </c>
+      <c r="S138">
+        <v>1.67</v>
+      </c>
+      <c r="T138">
+        <v>1.25</v>
+      </c>
+      <c r="U138">
+        <v>3.72</v>
+      </c>
+      <c r="V138">
+        <v>2.18</v>
+      </c>
+      <c r="W138">
+        <v>1.64</v>
+      </c>
+      <c r="X138">
+        <v>4.8</v>
+      </c>
+      <c r="Y138">
+        <v>1.16</v>
+      </c>
+      <c r="Z138">
+        <v>5.83</v>
+      </c>
+      <c r="AA138">
+        <v>4.41</v>
+      </c>
+      <c r="AB138">
+        <v>1.4</v>
+      </c>
+      <c r="AC138">
+        <v>1.02</v>
+      </c>
+      <c r="AD138">
+        <v>22.5</v>
+      </c>
+      <c r="AE138">
+        <v>1.12</v>
+      </c>
+      <c r="AF138">
+        <v>5</v>
+      </c>
+      <c r="AG138">
+        <v>1.5</v>
+      </c>
+      <c r="AH138">
+        <v>2.4</v>
+      </c>
+      <c r="AI138">
+        <v>1.89</v>
+      </c>
+      <c r="AJ138">
+        <v>1.85</v>
+      </c>
+      <c r="AK138">
+        <v>3.68</v>
+      </c>
+      <c r="AL138">
+        <v>1.14</v>
+      </c>
+      <c r="AM138">
+        <v>1.05</v>
+      </c>
+      <c r="AN138">
+        <v>1.88</v>
+      </c>
+      <c r="AO138">
+        <v>1.89</v>
+      </c>
+      <c r="AP138">
+        <v>1.5</v>
+      </c>
+      <c r="AQ138">
+        <v>1.91</v>
+      </c>
+      <c r="AR138">
+        <v>1.03</v>
+      </c>
+      <c r="AS138">
+        <v>1.79</v>
+      </c>
+      <c r="AT138">
+        <v>2.82</v>
+      </c>
+      <c r="AU138">
         <v>3</v>
       </c>
-      <c r="O138" t="s">
-        <v>187</v>
-      </c>
-      <c r="P138" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q138">
-        <v>3</v>
-      </c>
-      <c r="R138">
-        <v>2.2</v>
-      </c>
-      <c r="S138">
-        <v>3</v>
-      </c>
-      <c r="T138">
+      <c r="AV138">
+        <v>7</v>
+      </c>
+      <c r="AW138">
+        <v>5</v>
+      </c>
+      <c r="AX138">
+        <v>10</v>
+      </c>
+      <c r="AY138">
+        <v>8</v>
+      </c>
+      <c r="AZ138">
+        <v>17</v>
+      </c>
+      <c r="BA138">
+        <v>1</v>
+      </c>
+      <c r="BB138">
+        <v>8</v>
+      </c>
+      <c r="BC138">
+        <v>9</v>
+      </c>
+      <c r="BD138">
+        <v>4.1</v>
+      </c>
+      <c r="BE138">
+        <v>8</v>
+      </c>
+      <c r="BF138">
+        <v>1.23</v>
+      </c>
+      <c r="BG138">
+        <v>1.19</v>
+      </c>
+      <c r="BH138">
+        <v>4.1</v>
+      </c>
+      <c r="BI138">
         <v>1.33</v>
       </c>
-      <c r="U138">
-        <v>3.1</v>
-      </c>
-      <c r="V138">
-        <v>2.45</v>
-      </c>
-      <c r="W138">
-        <v>1.48</v>
-      </c>
-      <c r="X138">
-        <v>5.85</v>
-      </c>
-      <c r="Y138">
-        <v>1.11</v>
-      </c>
-      <c r="Z138">
-        <v>1.49</v>
-      </c>
-      <c r="AA138">
-        <v>5.32</v>
-      </c>
-      <c r="AB138">
-        <v>3.98</v>
-      </c>
-      <c r="AC138">
-        <v>1.04</v>
-      </c>
-      <c r="AD138">
-        <v>11</v>
-      </c>
-      <c r="AE138">
-        <v>1.22</v>
-      </c>
-      <c r="AF138">
-        <v>4.2</v>
-      </c>
-      <c r="AG138">
-        <v>1.65</v>
-      </c>
-      <c r="AH138">
-        <v>2.1</v>
-      </c>
-      <c r="AI138">
+      <c r="BJ138">
+        <v>2.95</v>
+      </c>
+      <c r="BK138">
+        <v>1.54</v>
+      </c>
+      <c r="BL138">
+        <v>2.3</v>
+      </c>
+      <c r="BM138">
+        <v>2</v>
+      </c>
+      <c r="BN138">
+        <v>1.8</v>
+      </c>
+      <c r="BO138">
+        <v>2.25</v>
+      </c>
+      <c r="BP138">
         <v>1.55</v>
-      </c>
-      <c r="AJ138">
-        <v>2.25</v>
-      </c>
-      <c r="AK138">
-        <v>1.48</v>
-      </c>
-      <c r="AL138">
-        <v>1.25</v>
-      </c>
-      <c r="AM138">
-        <v>1.5</v>
-      </c>
-      <c r="AN138">
-        <v>1.5</v>
-      </c>
-      <c r="AO138">
-        <v>0.63</v>
-      </c>
-      <c r="AP138">
-        <v>1.45</v>
-      </c>
-      <c r="AQ138">
-        <v>0.8</v>
-      </c>
-      <c r="AR138">
-        <v>1.34</v>
-      </c>
-      <c r="AS138">
-        <v>1.63</v>
-      </c>
-      <c r="AT138">
-        <v>2.97</v>
-      </c>
-      <c r="AU138">
-        <v>4</v>
-      </c>
-      <c r="AV138">
-        <v>6</v>
-      </c>
-      <c r="AW138">
-        <v>7</v>
-      </c>
-      <c r="AX138">
-        <v>2</v>
-      </c>
-      <c r="AY138">
-        <v>11</v>
-      </c>
-      <c r="AZ138">
-        <v>8</v>
-      </c>
-      <c r="BA138">
-        <v>6</v>
-      </c>
-      <c r="BB138">
-        <v>6</v>
-      </c>
-      <c r="BC138">
-        <v>12</v>
-      </c>
-      <c r="BD138">
-        <v>1.9</v>
-      </c>
-      <c r="BE138">
-        <v>6.5</v>
-      </c>
-      <c r="BF138">
-        <v>1.97</v>
-      </c>
-      <c r="BG138">
-        <v>1.15</v>
-      </c>
-      <c r="BH138">
-        <v>4.6</v>
-      </c>
-      <c r="BI138">
-        <v>1.27</v>
-      </c>
-      <c r="BJ138">
-        <v>3.3</v>
-      </c>
-      <c r="BK138">
-        <v>1.47</v>
-      </c>
-      <c r="BL138">
-        <v>2.48</v>
-      </c>
-      <c r="BM138">
-        <v>1.9</v>
-      </c>
-      <c r="BN138">
-        <v>1.9</v>
-      </c>
-      <c r="BO138">
-        <v>2.12</v>
-      </c>
-      <c r="BP138">
-        <v>1.63</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29714,7 +29714,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7292579</v>
+        <v>7292576</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29729,190 +29729,190 @@
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H139" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M139">
         <v>1</v>
       </c>
       <c r="N139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O139" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="Q139">
-        <v>7.7</v>
+        <v>3</v>
       </c>
       <c r="R139">
-        <v>2.73</v>
+        <v>2.2</v>
       </c>
       <c r="S139">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="T139">
+        <v>1.33</v>
+      </c>
+      <c r="U139">
+        <v>3.1</v>
+      </c>
+      <c r="V139">
+        <v>2.45</v>
+      </c>
+      <c r="W139">
+        <v>1.48</v>
+      </c>
+      <c r="X139">
+        <v>5.85</v>
+      </c>
+      <c r="Y139">
+        <v>1.11</v>
+      </c>
+      <c r="Z139">
+        <v>1.49</v>
+      </c>
+      <c r="AA139">
+        <v>5.32</v>
+      </c>
+      <c r="AB139">
+        <v>3.98</v>
+      </c>
+      <c r="AC139">
+        <v>1.04</v>
+      </c>
+      <c r="AD139">
+        <v>11</v>
+      </c>
+      <c r="AE139">
+        <v>1.22</v>
+      </c>
+      <c r="AF139">
+        <v>4.2</v>
+      </c>
+      <c r="AG139">
+        <v>1.65</v>
+      </c>
+      <c r="AH139">
+        <v>2.1</v>
+      </c>
+      <c r="AI139">
+        <v>1.55</v>
+      </c>
+      <c r="AJ139">
+        <v>2.25</v>
+      </c>
+      <c r="AK139">
+        <v>1.48</v>
+      </c>
+      <c r="AL139">
         <v>1.25</v>
       </c>
-      <c r="U139">
-        <v>3.72</v>
-      </c>
-      <c r="V139">
-        <v>2.18</v>
-      </c>
-      <c r="W139">
-        <v>1.64</v>
-      </c>
-      <c r="X139">
-        <v>4.8</v>
-      </c>
-      <c r="Y139">
-        <v>1.16</v>
-      </c>
-      <c r="Z139">
-        <v>5.83</v>
-      </c>
-      <c r="AA139">
-        <v>4.41</v>
-      </c>
-      <c r="AB139">
-        <v>1.4</v>
-      </c>
-      <c r="AC139">
-        <v>1.02</v>
-      </c>
-      <c r="AD139">
-        <v>22.5</v>
-      </c>
-      <c r="AE139">
-        <v>1.12</v>
-      </c>
-      <c r="AF139">
-        <v>5</v>
-      </c>
-      <c r="AG139">
+      <c r="AM139">
         <v>1.5</v>
       </c>
-      <c r="AH139">
-        <v>2.4</v>
-      </c>
-      <c r="AI139">
-        <v>1.89</v>
-      </c>
-      <c r="AJ139">
-        <v>1.85</v>
-      </c>
-      <c r="AK139">
-        <v>3.68</v>
-      </c>
-      <c r="AL139">
-        <v>1.14</v>
-      </c>
-      <c r="AM139">
-        <v>1.05</v>
-      </c>
       <c r="AN139">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO139">
-        <v>1.89</v>
+        <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ139">
-        <v>1.91</v>
+        <v>0.8</v>
       </c>
       <c r="AR139">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="AS139">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AT139">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="AU139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV139">
+        <v>6</v>
+      </c>
+      <c r="AW139">
         <v>7</v>
       </c>
-      <c r="AW139">
-        <v>5</v>
-      </c>
       <c r="AX139">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AY139">
+        <v>11</v>
+      </c>
+      <c r="AZ139">
         <v>8</v>
       </c>
-      <c r="AZ139">
-        <v>17</v>
-      </c>
       <c r="BA139">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BB139">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC139">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD139">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="BE139">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="BF139">
-        <v>1.23</v>
+        <v>1.97</v>
       </c>
       <c r="BG139">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="BH139">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="BI139">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="BJ139">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BK139">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="BL139">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="BM139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BN139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="BO139">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="BP139">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -30126,7 +30126,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7292573</v>
+        <v>7292580</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30141,10 +30141,10 @@
         <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H141" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -30156,175 +30156,175 @@
         <v>0</v>
       </c>
       <c r="L141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O141" t="s">
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
       <c r="Q141">
+        <v>2.25</v>
+      </c>
+      <c r="R141">
+        <v>2.38</v>
+      </c>
+      <c r="S141">
+        <v>4.5</v>
+      </c>
+      <c r="T141">
+        <v>1.3</v>
+      </c>
+      <c r="U141">
+        <v>3.4</v>
+      </c>
+      <c r="V141">
         <v>2.5</v>
       </c>
-      <c r="R141">
-        <v>2.2</v>
-      </c>
-      <c r="S141">
+      <c r="W141">
+        <v>1.5</v>
+      </c>
+      <c r="X141">
+        <v>6</v>
+      </c>
+      <c r="Y141">
+        <v>1.13</v>
+      </c>
+      <c r="Z141">
+        <v>1.68</v>
+      </c>
+      <c r="AA141">
+        <v>3.85</v>
+      </c>
+      <c r="AB141">
+        <v>4.6</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>11</v>
+      </c>
+      <c r="AE141">
+        <v>1.22</v>
+      </c>
+      <c r="AF141">
         <v>4.33</v>
       </c>
-      <c r="T141">
-        <v>1.36</v>
-      </c>
-      <c r="U141">
-        <v>3</v>
-      </c>
-      <c r="V141">
-        <v>2.75</v>
-      </c>
-      <c r="W141">
-        <v>1.4</v>
-      </c>
-      <c r="X141">
-        <v>7</v>
-      </c>
-      <c r="Y141">
-        <v>1.1</v>
-      </c>
-      <c r="Z141">
-        <v>1.98</v>
-      </c>
-      <c r="AA141">
-        <v>3.45</v>
-      </c>
-      <c r="AB141">
-        <v>3.6</v>
-      </c>
-      <c r="AC141">
-        <v>1.06</v>
-      </c>
-      <c r="AD141">
-        <v>9.5</v>
-      </c>
-      <c r="AE141">
-        <v>1.28</v>
-      </c>
-      <c r="AF141">
-        <v>3.65</v>
-      </c>
       <c r="AG141">
-        <v>1.9</v>
+        <v>1.56</v>
       </c>
       <c r="AH141">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="AI141">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AJ141">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK141">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AL141">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM141">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="AN141">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO141">
         <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ141">
-        <v>1.2</v>
+        <v>0.91</v>
       </c>
       <c r="AR141">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="AS141">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT141">
-        <v>2.93</v>
+        <v>2.72</v>
       </c>
       <c r="AU141">
+        <v>8</v>
+      </c>
+      <c r="AV141">
         <v>5</v>
       </c>
-      <c r="AV141">
-        <v>7</v>
-      </c>
       <c r="AW141">
+        <v>5</v>
+      </c>
+      <c r="AX141">
         <v>6</v>
       </c>
-      <c r="AX141">
-        <v>3</v>
-      </c>
       <c r="AY141">
+        <v>13</v>
+      </c>
+      <c r="AZ141">
         <v>11</v>
-      </c>
-      <c r="AZ141">
-        <v>10</v>
       </c>
       <c r="BA141">
         <v>6</v>
       </c>
       <c r="BB141">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC141">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD141">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="BE141">
         <v>6.75</v>
       </c>
       <c r="BF141">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BG141">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="BH141">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="BI141">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BJ141">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BK141">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="BL141">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="BM141">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="BN141">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="BO141">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="BP141">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30374,7 +30374,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30538,7 +30538,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7292580</v>
+        <v>7292573</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30553,10 +30553,10 @@
         <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H143" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -30568,175 +30568,175 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O143" t="s">
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>88</v>
       </c>
       <c r="Q143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R143">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S143">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T143">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U143">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W143">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y143">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z143">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="AA143">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="AB143">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="AC143">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD143">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE143">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF143">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="AG143">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="AH143">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="AI143">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AJ143">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK143">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AL143">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM143">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="AN143">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AO143">
         <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143">
-        <v>0.91</v>
+        <v>1.2</v>
       </c>
       <c r="AR143">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="AS143">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT143">
-        <v>2.72</v>
+        <v>2.93</v>
       </c>
       <c r="AU143">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV143">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX143">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY143">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ143">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA143">
         <v>6</v>
       </c>
       <c r="BB143">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC143">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD143">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="BE143">
         <v>6.75</v>
       </c>
       <c r="BF143">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BG143">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="BH143">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="BI143">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="BJ143">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BK143">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="BL143">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="BM143">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="BN143">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="BO143">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="BP143">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -31156,7 +31156,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7292586</v>
+        <v>7292583</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31171,166 +31171,166 @@
         <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H146" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146">
         <v>1</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N146">
         <v>3</v>
       </c>
       <c r="O146" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="P146" t="s">
         <v>285</v>
       </c>
       <c r="Q146">
-        <v>3.4</v>
+        <v>1.56</v>
       </c>
       <c r="R146">
-        <v>2.25</v>
+        <v>3.15</v>
       </c>
       <c r="S146">
-        <v>3</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="T146">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U146">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="V146">
-        <v>2.63</v>
+        <v>1.98</v>
       </c>
       <c r="W146">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="X146">
-        <v>7</v>
+        <v>4.05</v>
       </c>
       <c r="Y146">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="Z146">
-        <v>2.6</v>
+        <v>1.22</v>
       </c>
       <c r="AA146">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB146">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="AC146">
         <v>1.01</v>
       </c>
       <c r="AD146">
-        <v>10.25</v>
+        <v>29</v>
       </c>
       <c r="AE146">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AF146">
-        <v>3.66</v>
+        <v>6.1</v>
       </c>
       <c r="AG146">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="AH146">
-        <v>1.97</v>
+        <v>2.81</v>
       </c>
       <c r="AI146">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="AJ146">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AK146">
-        <v>1.63</v>
+        <v>1.05</v>
       </c>
       <c r="AL146">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AM146">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="AN146">
-        <v>0.5600000000000001</v>
+        <v>2.63</v>
       </c>
       <c r="AO146">
-        <v>1.44</v>
+        <v>0.89</v>
       </c>
       <c r="AP146">
-        <v>0.45</v>
+        <v>2.7</v>
       </c>
       <c r="AQ146">
-        <v>1.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR146">
-        <v>1.32</v>
+        <v>2.27</v>
       </c>
       <c r="AS146">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="AT146">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="AU146">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV146">
+        <v>5</v>
+      </c>
+      <c r="AW146">
+        <v>9</v>
+      </c>
+      <c r="AX146">
         <v>6</v>
       </c>
-      <c r="AW146">
+      <c r="AY146">
+        <v>15</v>
+      </c>
+      <c r="AZ146">
+        <v>11</v>
+      </c>
+      <c r="BA146">
         <v>7</v>
       </c>
-      <c r="AX146">
-        <v>7</v>
-      </c>
-      <c r="AY146">
-        <v>11</v>
-      </c>
-      <c r="AZ146">
-        <v>13</v>
-      </c>
-      <c r="BA146">
-        <v>4</v>
-      </c>
       <c r="BB146">
         <v>2</v>
       </c>
       <c r="BC146">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD146">
-        <v>2.23</v>
+        <v>1.2</v>
       </c>
       <c r="BE146">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="BF146">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="BG146">
         <v>1.18</v>
       </c>
       <c r="BH146">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BI146">
         <v>1.32</v>
@@ -31339,22 +31339,22 @@
         <v>3.05</v>
       </c>
       <c r="BK146">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BL146">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="BM146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="BN146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BO146">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="BP146">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31362,7 +31362,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7292583</v>
+        <v>7292586</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31377,166 +31377,166 @@
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H147" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>1</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N147">
         <v>3</v>
       </c>
       <c r="O147" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="P147" t="s">
         <v>286</v>
       </c>
       <c r="Q147">
-        <v>1.56</v>
+        <v>3.4</v>
       </c>
       <c r="R147">
-        <v>3.15</v>
+        <v>2.25</v>
       </c>
       <c r="S147">
-        <v>8.960000000000001</v>
+        <v>3</v>
       </c>
       <c r="T147">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="U147">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="V147">
-        <v>1.98</v>
+        <v>2.63</v>
       </c>
       <c r="W147">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="X147">
-        <v>4.05</v>
+        <v>7</v>
       </c>
       <c r="Y147">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="Z147">
-        <v>1.22</v>
+        <v>2.6</v>
       </c>
       <c r="AA147">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB147">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="AC147">
         <v>1.01</v>
       </c>
       <c r="AD147">
-        <v>29</v>
+        <v>10.25</v>
       </c>
       <c r="AE147">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="AF147">
-        <v>6.1</v>
+        <v>3.66</v>
       </c>
       <c r="AG147">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="AH147">
-        <v>2.81</v>
+        <v>1.97</v>
       </c>
       <c r="AI147">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="AJ147">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="AK147">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="AL147">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AM147">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="AN147">
-        <v>2.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO147">
-        <v>0.89</v>
+        <v>1.44</v>
       </c>
       <c r="AP147">
-        <v>2.7</v>
+        <v>0.45</v>
       </c>
       <c r="AQ147">
-        <v>0.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR147">
-        <v>2.27</v>
+        <v>1.32</v>
       </c>
       <c r="AS147">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="AT147">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
         <v>6</v>
       </c>
-      <c r="AV147">
-        <v>5</v>
-      </c>
       <c r="AW147">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX147">
+        <v>7</v>
+      </c>
+      <c r="AY147">
+        <v>11</v>
+      </c>
+      <c r="AZ147">
+        <v>13</v>
+      </c>
+      <c r="BA147">
+        <v>4</v>
+      </c>
+      <c r="BB147">
+        <v>2</v>
+      </c>
+      <c r="BC147">
         <v>6</v>
       </c>
-      <c r="AY147">
-        <v>15</v>
-      </c>
-      <c r="AZ147">
-        <v>11</v>
-      </c>
-      <c r="BA147">
-        <v>7</v>
-      </c>
-      <c r="BB147">
-        <v>2</v>
-      </c>
-      <c r="BC147">
-        <v>9</v>
-      </c>
       <c r="BD147">
-        <v>1.2</v>
+        <v>2.23</v>
       </c>
       <c r="BE147">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF147">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="BG147">
         <v>1.18</v>
       </c>
       <c r="BH147">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="BI147">
         <v>1.32</v>
@@ -31545,22 +31545,22 @@
         <v>3.05</v>
       </c>
       <c r="BK147">
+        <v>1.54</v>
+      </c>
+      <c r="BL147">
+        <v>2.3</v>
+      </c>
+      <c r="BM147">
+        <v>1.8</v>
+      </c>
+      <c r="BN147">
+        <v>2</v>
+      </c>
+      <c r="BO147">
+        <v>2.3</v>
+      </c>
+      <c r="BP147">
         <v>1.53</v>
-      </c>
-      <c r="BL147">
-        <v>2.32</v>
-      </c>
-      <c r="BM147">
-        <v>1.9</v>
-      </c>
-      <c r="BN147">
-        <v>1.9</v>
-      </c>
-      <c r="BO147">
-        <v>2.25</v>
-      </c>
-      <c r="BP147">
-        <v>1.55</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31774,7 +31774,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7292587</v>
+        <v>7292581</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31789,10 +31789,10 @@
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H149" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -31804,175 +31804,175 @@
         <v>1</v>
       </c>
       <c r="L149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O149" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="P149" t="s">
         <v>288</v>
       </c>
       <c r="Q149">
+        <v>2.7</v>
+      </c>
+      <c r="R149">
+        <v>2.2</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.38</v>
+      </c>
+      <c r="U149">
         <v>3.1</v>
       </c>
-      <c r="R149">
-        <v>2.6</v>
-      </c>
-      <c r="S149">
-        <v>2.75</v>
-      </c>
-      <c r="T149">
+      <c r="V149">
+        <v>2.7</v>
+      </c>
+      <c r="W149">
+        <v>1.45</v>
+      </c>
+      <c r="X149">
+        <v>6.5</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>1.66</v>
+      </c>
+      <c r="AA149">
+        <v>2.93</v>
+      </c>
+      <c r="AB149">
+        <v>6.04</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>7.8</v>
+      </c>
+      <c r="AE149">
         <v>1.22</v>
       </c>
-      <c r="U149">
+      <c r="AF149">
+        <v>3.8</v>
+      </c>
+      <c r="AG149">
+        <v>1.88</v>
+      </c>
+      <c r="AH149">
+        <v>1.92</v>
+      </c>
+      <c r="AI149">
+        <v>1.65</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.28</v>
+      </c>
+      <c r="AL149">
+        <v>1.3</v>
+      </c>
+      <c r="AM149">
+        <v>1.62</v>
+      </c>
+      <c r="AN149">
+        <v>1.89</v>
+      </c>
+      <c r="AO149">
+        <v>0.89</v>
+      </c>
+      <c r="AP149">
+        <v>1.7</v>
+      </c>
+      <c r="AQ149">
+        <v>1.27</v>
+      </c>
+      <c r="AR149">
+        <v>1.53</v>
+      </c>
+      <c r="AS149">
+        <v>1.45</v>
+      </c>
+      <c r="AT149">
+        <v>2.98</v>
+      </c>
+      <c r="AU149">
+        <v>0</v>
+      </c>
+      <c r="AV149">
+        <v>3</v>
+      </c>
+      <c r="AW149">
+        <v>3</v>
+      </c>
+      <c r="AX149">
+        <v>2</v>
+      </c>
+      <c r="AY149">
+        <v>3</v>
+      </c>
+      <c r="AZ149">
+        <v>5</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
         <v>4</v>
       </c>
-      <c r="V149">
-        <v>2</v>
-      </c>
-      <c r="W149">
-        <v>1.73</v>
-      </c>
-      <c r="X149">
-        <v>4.33</v>
-      </c>
-      <c r="Y149">
-        <v>1.2</v>
-      </c>
-      <c r="Z149">
-        <v>4.59</v>
-      </c>
-      <c r="AA149">
-        <v>1.81</v>
-      </c>
-      <c r="AB149">
-        <v>2.95</v>
-      </c>
-      <c r="AC149">
-        <v>1.03</v>
-      </c>
-      <c r="AD149">
-        <v>9</v>
-      </c>
-      <c r="AE149">
-        <v>1.08</v>
-      </c>
-      <c r="AF149">
-        <v>6.2</v>
-      </c>
-      <c r="AG149">
-        <v>1.38</v>
-      </c>
-      <c r="AH149">
-        <v>2.81</v>
-      </c>
-      <c r="AI149">
-        <v>1.36</v>
-      </c>
-      <c r="AJ149">
-        <v>3</v>
-      </c>
-      <c r="AK149">
-        <v>1.6</v>
-      </c>
-      <c r="AL149">
-        <v>1.18</v>
-      </c>
-      <c r="AM149">
-        <v>1.45</v>
-      </c>
-      <c r="AN149">
-        <v>1.13</v>
-      </c>
-      <c r="AO149">
-        <v>1.38</v>
-      </c>
-      <c r="AP149">
-        <v>1</v>
-      </c>
-      <c r="AQ149">
-        <v>1.5</v>
-      </c>
-      <c r="AR149">
-        <v>1.46</v>
-      </c>
-      <c r="AS149">
-        <v>1.54</v>
-      </c>
-      <c r="AT149">
-        <v>3</v>
-      </c>
-      <c r="AU149">
-        <v>9</v>
-      </c>
-      <c r="AV149">
-        <v>5</v>
-      </c>
-      <c r="AW149">
+      <c r="BC149">
         <v>4</v>
       </c>
-      <c r="AX149">
-        <v>1</v>
-      </c>
-      <c r="AY149">
-        <v>13</v>
-      </c>
-      <c r="AZ149">
-        <v>6</v>
-      </c>
-      <c r="BA149">
-        <v>8</v>
-      </c>
-      <c r="BB149">
-        <v>2</v>
-      </c>
-      <c r="BC149">
-        <v>10</v>
-      </c>
       <c r="BD149">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="BE149">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF149">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="BG149">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="BH149">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="BI149">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="BJ149">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="BK149">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="BL149">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="BM149">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="BN149">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="BO149">
-        <v>2.12</v>
+        <v>2.65</v>
       </c>
       <c r="BP149">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -32019,7 +32019,7 @@
         <v>2</v>
       </c>
       <c r="O150" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P150" t="s">
         <v>289</v>
@@ -32186,7 +32186,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7292581</v>
+        <v>7292587</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32201,10 +32201,10 @@
         <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H151" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -32216,175 +32216,175 @@
         <v>1</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O151" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="P151" t="s">
         <v>290</v>
       </c>
       <c r="Q151">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="R151">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="S151">
+        <v>2.75</v>
+      </c>
+      <c r="T151">
+        <v>1.22</v>
+      </c>
+      <c r="U151">
         <v>4</v>
       </c>
-      <c r="T151">
+      <c r="V151">
+        <v>2</v>
+      </c>
+      <c r="W151">
+        <v>1.73</v>
+      </c>
+      <c r="X151">
+        <v>4.33</v>
+      </c>
+      <c r="Y151">
+        <v>1.2</v>
+      </c>
+      <c r="Z151">
+        <v>4.59</v>
+      </c>
+      <c r="AA151">
+        <v>1.81</v>
+      </c>
+      <c r="AB151">
+        <v>2.95</v>
+      </c>
+      <c r="AC151">
+        <v>1.03</v>
+      </c>
+      <c r="AD151">
+        <v>9</v>
+      </c>
+      <c r="AE151">
+        <v>1.08</v>
+      </c>
+      <c r="AF151">
+        <v>6.2</v>
+      </c>
+      <c r="AG151">
         <v>1.38</v>
       </c>
-      <c r="U151">
-        <v>3.1</v>
-      </c>
-      <c r="V151">
-        <v>2.7</v>
-      </c>
-      <c r="W151">
+      <c r="AH151">
+        <v>2.81</v>
+      </c>
+      <c r="AI151">
+        <v>1.36</v>
+      </c>
+      <c r="AJ151">
+        <v>3</v>
+      </c>
+      <c r="AK151">
+        <v>1.6</v>
+      </c>
+      <c r="AL151">
+        <v>1.18</v>
+      </c>
+      <c r="AM151">
         <v>1.45</v>
       </c>
-      <c r="X151">
+      <c r="AN151">
+        <v>1.13</v>
+      </c>
+      <c r="AO151">
+        <v>1.38</v>
+      </c>
+      <c r="AP151">
+        <v>1</v>
+      </c>
+      <c r="AQ151">
+        <v>1.5</v>
+      </c>
+      <c r="AR151">
+        <v>1.46</v>
+      </c>
+      <c r="AS151">
+        <v>1.54</v>
+      </c>
+      <c r="AT151">
+        <v>3</v>
+      </c>
+      <c r="AU151">
+        <v>9</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
+        <v>1</v>
+      </c>
+      <c r="AY151">
+        <v>13</v>
+      </c>
+      <c r="AZ151">
+        <v>6</v>
+      </c>
+      <c r="BA151">
+        <v>8</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>1.93</v>
+      </c>
+      <c r="BE151">
         <v>6.5</v>
       </c>
-      <c r="Y151">
-        <v>1.1</v>
-      </c>
-      <c r="Z151">
-        <v>1.66</v>
-      </c>
-      <c r="AA151">
-        <v>2.93</v>
-      </c>
-      <c r="AB151">
-        <v>6.04</v>
-      </c>
-      <c r="AC151">
-        <v>1.04</v>
-      </c>
-      <c r="AD151">
-        <v>7.8</v>
-      </c>
-      <c r="AE151">
-        <v>1.22</v>
-      </c>
-      <c r="AF151">
-        <v>3.8</v>
-      </c>
-      <c r="AG151">
+      <c r="BF151">
+        <v>1.95</v>
+      </c>
+      <c r="BG151">
+        <v>1.15</v>
+      </c>
+      <c r="BH151">
+        <v>4.6</v>
+      </c>
+      <c r="BI151">
+        <v>1.27</v>
+      </c>
+      <c r="BJ151">
+        <v>3.3</v>
+      </c>
+      <c r="BK151">
+        <v>1.47</v>
+      </c>
+      <c r="BL151">
+        <v>2.48</v>
+      </c>
+      <c r="BM151">
         <v>1.88</v>
       </c>
-      <c r="AH151">
+      <c r="BN151">
         <v>1.92</v>
       </c>
-      <c r="AI151">
-        <v>1.65</v>
-      </c>
-      <c r="AJ151">
-        <v>2.1</v>
-      </c>
-      <c r="AK151">
-        <v>1.28</v>
-      </c>
-      <c r="AL151">
-        <v>1.3</v>
-      </c>
-      <c r="AM151">
-        <v>1.62</v>
-      </c>
-      <c r="AN151">
-        <v>1.89</v>
-      </c>
-      <c r="AO151">
-        <v>0.89</v>
-      </c>
-      <c r="AP151">
-        <v>1.7</v>
-      </c>
-      <c r="AQ151">
-        <v>1.27</v>
-      </c>
-      <c r="AR151">
-        <v>1.53</v>
-      </c>
-      <c r="AS151">
-        <v>1.45</v>
-      </c>
-      <c r="AT151">
-        <v>2.98</v>
-      </c>
-      <c r="AU151">
-        <v>0</v>
-      </c>
-      <c r="AV151">
-        <v>3</v>
-      </c>
-      <c r="AW151">
-        <v>3</v>
-      </c>
-      <c r="AX151">
-        <v>2</v>
-      </c>
-      <c r="AY151">
-        <v>3</v>
-      </c>
-      <c r="AZ151">
-        <v>5</v>
-      </c>
-      <c r="BA151">
-        <v>0</v>
-      </c>
-      <c r="BB151">
-        <v>4</v>
-      </c>
-      <c r="BC151">
-        <v>4</v>
-      </c>
-      <c r="BD151">
-        <v>1.48</v>
-      </c>
-      <c r="BE151">
-        <v>6.75</v>
-      </c>
-      <c r="BF151">
-        <v>2.8</v>
-      </c>
-      <c r="BG151">
-        <v>1.24</v>
-      </c>
-      <c r="BH151">
-        <v>3.65</v>
-      </c>
-      <c r="BI151">
-        <v>1.42</v>
-      </c>
-      <c r="BJ151">
-        <v>2.65</v>
-      </c>
-      <c r="BK151">
-        <v>1.88</v>
-      </c>
-      <c r="BL151">
-        <v>1.92</v>
-      </c>
-      <c r="BM151">
-        <v>2.07</v>
-      </c>
-      <c r="BN151">
-        <v>1.66</v>
-      </c>
       <c r="BO151">
-        <v>2.65</v>
+        <v>2.12</v>
       </c>
       <c r="BP151">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -33628,7 +33628,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7292590</v>
+        <v>7292591</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33643,88 +33643,88 @@
         <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H158" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O158" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="P158" t="s">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c r="Q158">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="R158">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S158">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="T158">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U158">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V158">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W158">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X158">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y158">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z158">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="AA158">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB158">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="AC158">
         <v>1.04</v>
       </c>
       <c r="AD158">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE158">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AF158">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AG158">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AH158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI158">
         <v>1.62</v>
@@ -33733,100 +33733,100 @@
         <v>2.2</v>
       </c>
       <c r="AK158">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AL158">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AM158">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AN158">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="AO158">
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR158">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="AS158">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AT158">
-        <v>3.07</v>
+        <v>2.55</v>
       </c>
       <c r="AU158">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV158">
         <v>6</v>
       </c>
       <c r="AW158">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX158">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY158">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ158">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA158">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB158">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC158">
         <v>13</v>
       </c>
       <c r="BD158">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="BE158">
         <v>6.5</v>
       </c>
       <c r="BF158">
-        <v>2.33</v>
+        <v>2.05</v>
       </c>
       <c r="BG158">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH158">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BI158">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BJ158">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BK158">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="BL158">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="BM158">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BN158">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="BO158">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="BP158">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33834,7 +33834,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7292591</v>
+        <v>7292594</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33849,43 +33849,43 @@
         <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H159" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>294</v>
+        <v>124</v>
       </c>
       <c r="Q159">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="R159">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S159">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T159">
         <v>1.36</v>
@@ -33894,10 +33894,10 @@
         <v>3</v>
       </c>
       <c r="V159">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W159">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X159">
         <v>7</v>
@@ -33906,133 +33906,133 @@
         <v>1.1</v>
       </c>
       <c r="Z159">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="AA159">
         <v>3.3</v>
       </c>
       <c r="AB159">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AC159">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD159">
-        <v>13.5</v>
+        <v>12.25</v>
       </c>
       <c r="AE159">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF159">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AG159">
+        <v>1.8</v>
+      </c>
+      <c r="AH159">
+        <v>1.85</v>
+      </c>
+      <c r="AI159">
         <v>1.7</v>
       </c>
-      <c r="AH159">
-        <v>1.95</v>
-      </c>
-      <c r="AI159">
-        <v>1.62</v>
-      </c>
       <c r="AJ159">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AK159">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="AL159">
         <v>1.3</v>
       </c>
       <c r="AM159">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="AN159">
         <v>1.67</v>
       </c>
       <c r="AO159">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP159">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR159">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="AS159">
-        <v>1.21</v>
+        <v>1.59</v>
       </c>
       <c r="AT159">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AU159">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV159">
         <v>6</v>
       </c>
       <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
         <v>8</v>
       </c>
-      <c r="AX159">
+      <c r="AY159">
         <v>6</v>
       </c>
-      <c r="AY159">
+      <c r="AZ159">
         <v>14</v>
       </c>
-      <c r="AZ159">
-        <v>12</v>
-      </c>
       <c r="BA159">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BB159">
         <v>5</v>
       </c>
       <c r="BC159">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD159">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="BE159">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF159">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="BG159">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BH159">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="BI159">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BJ159">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BK159">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="BL159">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BM159">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BN159">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="BO159">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="BP159">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -34040,7 +34040,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7292594</v>
+        <v>7292590</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34055,124 +34055,124 @@
         <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H160" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O160" t="s">
         <v>88</v>
       </c>
       <c r="P160" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="Q160">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="R160">
+        <v>2.3</v>
+      </c>
+      <c r="S160">
+        <v>4.33</v>
+      </c>
+      <c r="T160">
+        <v>1.33</v>
+      </c>
+      <c r="U160">
+        <v>3.25</v>
+      </c>
+      <c r="V160">
+        <v>2.5</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>6</v>
+      </c>
+      <c r="Y160">
+        <v>1.13</v>
+      </c>
+      <c r="Z160">
+        <v>1.83</v>
+      </c>
+      <c r="AA160">
+        <v>3.5</v>
+      </c>
+      <c r="AB160">
+        <v>3.5</v>
+      </c>
+      <c r="AC160">
+        <v>1.04</v>
+      </c>
+      <c r="AD160">
+        <v>15.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.18</v>
+      </c>
+      <c r="AF160">
+        <v>4.05</v>
+      </c>
+      <c r="AG160">
+        <v>1.67</v>
+      </c>
+      <c r="AH160">
+        <v>2</v>
+      </c>
+      <c r="AI160">
+        <v>1.62</v>
+      </c>
+      <c r="AJ160">
         <v>2.2</v>
       </c>
-      <c r="S160">
-        <v>2.75</v>
-      </c>
-      <c r="T160">
-        <v>1.36</v>
-      </c>
-      <c r="U160">
-        <v>3</v>
-      </c>
-      <c r="V160">
-        <v>2.75</v>
-      </c>
-      <c r="W160">
-        <v>1.4</v>
-      </c>
-      <c r="X160">
-        <v>7</v>
-      </c>
-      <c r="Y160">
-        <v>1.1</v>
-      </c>
-      <c r="Z160">
-        <v>3</v>
-      </c>
-      <c r="AA160">
-        <v>3.3</v>
-      </c>
-      <c r="AB160">
-        <v>2.1</v>
-      </c>
-      <c r="AC160">
-        <v>1.05</v>
-      </c>
-      <c r="AD160">
-        <v>12.25</v>
-      </c>
-      <c r="AE160">
-        <v>1.28</v>
-      </c>
-      <c r="AF160">
-        <v>3.75</v>
-      </c>
-      <c r="AG160">
-        <v>1.8</v>
-      </c>
-      <c r="AH160">
-        <v>1.85</v>
-      </c>
-      <c r="AI160">
-        <v>1.7</v>
-      </c>
-      <c r="AJ160">
-        <v>2.05</v>
-      </c>
       <c r="AK160">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="AL160">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AM160">
-        <v>1.34</v>
+        <v>2</v>
       </c>
       <c r="AN160">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="AO160">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ160">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR160">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="AS160">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="AT160">
-        <v>2.6</v>
+        <v>3.07</v>
       </c>
       <c r="AU160">
         <v>2</v>
@@ -34184,61 +34184,61 @@
         <v>4</v>
       </c>
       <c r="AX160">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY160">
         <v>6</v>
       </c>
       <c r="AZ160">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA160">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB160">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC160">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD160">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="BE160">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF160">
+        <v>2.33</v>
+      </c>
+      <c r="BG160">
+        <v>1.16</v>
+      </c>
+      <c r="BH160">
+        <v>4.4</v>
+      </c>
+      <c r="BI160">
+        <v>1.29</v>
+      </c>
+      <c r="BJ160">
+        <v>3.2</v>
+      </c>
+      <c r="BK160">
+        <v>1.49</v>
+      </c>
+      <c r="BL160">
+        <v>2.43</v>
+      </c>
+      <c r="BM160">
+        <v>1.77</v>
+      </c>
+      <c r="BN160">
+        <v>1.93</v>
+      </c>
+      <c r="BO160">
+        <v>2.18</v>
+      </c>
+      <c r="BP160">
         <v>1.58</v>
-      </c>
-      <c r="BG160">
-        <v>1.21</v>
-      </c>
-      <c r="BH160">
-        <v>3.9</v>
-      </c>
-      <c r="BI160">
-        <v>1.38</v>
-      </c>
-      <c r="BJ160">
-        <v>2.8</v>
-      </c>
-      <c r="BK160">
-        <v>1.63</v>
-      </c>
-      <c r="BL160">
-        <v>2.15</v>
-      </c>
-      <c r="BM160">
-        <v>1.98</v>
-      </c>
-      <c r="BN160">
-        <v>1.74</v>
-      </c>
-      <c r="BO160">
-        <v>2.43</v>
-      </c>
-      <c r="BP160">
-        <v>1.48</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34246,7 +34246,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7292602</v>
+        <v>7292600</v>
       </c>
       <c r="C161" t="s">
         <v>68</v>
@@ -34261,190 +34261,190 @@
         <v>21</v>
       </c>
       <c r="G161" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H161" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161">
         <v>1</v>
       </c>
       <c r="K161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M161">
         <v>1</v>
       </c>
       <c r="N161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O161" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P161" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="Q161">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S161">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="T161">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="U161">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="V161">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="W161">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="X161">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="Y161">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="Z161">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="AA161">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AB161">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="AC161">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD161">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE161">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AF161">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AG161">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="AH161">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="AI161">
         <v>1.73</v>
       </c>
       <c r="AJ161">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AK161">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="AL161">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM161">
-        <v>1.33</v>
+        <v>2.11</v>
       </c>
       <c r="AN161">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="AO161">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AP161">
-        <v>0.45</v>
+        <v>2.09</v>
       </c>
       <c r="AQ161">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR161">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AS161">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AT161">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="AU161">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV161">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW161">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX161">
+        <v>6</v>
+      </c>
+      <c r="AY161">
+        <v>10</v>
+      </c>
+      <c r="AZ161">
+        <v>14</v>
+      </c>
+      <c r="BA161">
         <v>5</v>
       </c>
-      <c r="AY161">
-        <v>8</v>
-      </c>
-      <c r="AZ161">
-        <v>7</v>
-      </c>
-      <c r="BA161">
-        <v>8</v>
-      </c>
       <c r="BB161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC161">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD161">
-        <v>2.18</v>
+        <v>1.36</v>
       </c>
       <c r="BE161">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF161">
+        <v>3.15</v>
+      </c>
+      <c r="BG161">
+        <v>1.15</v>
+      </c>
+      <c r="BH161">
+        <v>4.6</v>
+      </c>
+      <c r="BI161">
+        <v>1.28</v>
+      </c>
+      <c r="BJ161">
+        <v>3.3</v>
+      </c>
+      <c r="BK161">
+        <v>1.47</v>
+      </c>
+      <c r="BL161">
+        <v>2.48</v>
+      </c>
+      <c r="BM161">
         <v>1.74</v>
       </c>
-      <c r="BG161">
-        <v>1.24</v>
-      </c>
-      <c r="BH161">
-        <v>3.55</v>
-      </c>
-      <c r="BI161">
-        <v>1.42</v>
-      </c>
-      <c r="BJ161">
-        <v>2.65</v>
-      </c>
-      <c r="BK161">
-        <v>1.68</v>
-      </c>
-      <c r="BL161">
-        <v>2.05</v>
-      </c>
-      <c r="BM161">
-        <v>2.07</v>
-      </c>
       <c r="BN161">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="BO161">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="BP161">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="162" spans="1:68">
@@ -34452,7 +34452,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7292600</v>
+        <v>7292602</v>
       </c>
       <c r="C162" t="s">
         <v>68</v>
@@ -34467,190 +34467,190 @@
         <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H162" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>1</v>
       </c>
       <c r="K162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M162">
         <v>1</v>
       </c>
       <c r="N162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O162" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="Q162">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="R162">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S162">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="T162">
+        <v>1.42</v>
+      </c>
+      <c r="U162">
+        <v>2.65</v>
+      </c>
+      <c r="V162">
+        <v>2.88</v>
+      </c>
+      <c r="W162">
+        <v>1.36</v>
+      </c>
+      <c r="X162">
+        <v>7.4</v>
+      </c>
+      <c r="Y162">
+        <v>1.07</v>
+      </c>
+      <c r="Z162">
+        <v>3.25</v>
+      </c>
+      <c r="AA162">
+        <v>3.4</v>
+      </c>
+      <c r="AB162">
+        <v>2.1</v>
+      </c>
+      <c r="AC162">
+        <v>1.06</v>
+      </c>
+      <c r="AD162">
+        <v>9</v>
+      </c>
+      <c r="AE162">
         <v>1.33</v>
       </c>
-      <c r="U162">
-        <v>3.15</v>
-      </c>
-      <c r="V162">
-        <v>2.5</v>
-      </c>
-      <c r="W162">
-        <v>1.46</v>
-      </c>
-      <c r="X162">
-        <v>5.8</v>
-      </c>
-      <c r="Y162">
-        <v>1.09</v>
-      </c>
-      <c r="Z162">
-        <v>1.75</v>
-      </c>
-      <c r="AA162">
-        <v>3.8</v>
-      </c>
-      <c r="AB162">
-        <v>4.2</v>
-      </c>
-      <c r="AC162">
-        <v>1.01</v>
-      </c>
-      <c r="AD162">
-        <v>11</v>
-      </c>
-      <c r="AE162">
-        <v>1.2</v>
-      </c>
       <c r="AF162">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="AG162">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="AH162">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="AI162">
         <v>1.73</v>
       </c>
       <c r="AJ162">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK162">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="AL162">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AM162">
-        <v>2.11</v>
+        <v>1.33</v>
       </c>
       <c r="AN162">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="AO162">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AP162">
-        <v>2.09</v>
+        <v>0.45</v>
       </c>
       <c r="AQ162">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR162">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AS162">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT162">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="AU162">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV162">
+        <v>2</v>
+      </c>
+      <c r="AW162">
         <v>8</v>
       </c>
-      <c r="AW162">
-        <v>6</v>
-      </c>
       <c r="AX162">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY162">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ162">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BA162">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC162">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD162">
-        <v>1.36</v>
+        <v>2.18</v>
       </c>
       <c r="BE162">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF162">
-        <v>3.15</v>
+        <v>1.74</v>
       </c>
       <c r="BG162">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="BH162">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="BI162">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="BJ162">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="BK162">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="BL162">
-        <v>2.48</v>
+        <v>2.05</v>
       </c>
       <c r="BM162">
-        <v>1.74</v>
+        <v>2.07</v>
       </c>
       <c r="BN162">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="BO162">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="BP162">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="163" spans="1:68">
@@ -35482,7 +35482,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7292599</v>
+        <v>7292597</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35497,190 +35497,190 @@
         <v>21</v>
       </c>
       <c r="G167" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H167" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167">
         <v>0</v>
       </c>
       <c r="K167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L167">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N167">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O167" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="P167" t="s">
         <v>298</v>
       </c>
       <c r="Q167">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="R167">
+        <v>2.36</v>
+      </c>
+      <c r="S167">
+        <v>3.2</v>
+      </c>
+      <c r="T167">
+        <v>1.3</v>
+      </c>
+      <c r="U167">
+        <v>3.1</v>
+      </c>
+      <c r="V167">
         <v>2.5</v>
       </c>
-      <c r="S167">
-        <v>2.63</v>
-      </c>
-      <c r="T167">
+      <c r="W167">
+        <v>1.49</v>
+      </c>
+      <c r="X167">
+        <v>5.6</v>
+      </c>
+      <c r="Y167">
+        <v>1.1</v>
+      </c>
+      <c r="Z167">
+        <v>2.55</v>
+      </c>
+      <c r="AA167">
+        <v>3.5</v>
+      </c>
+      <c r="AB167">
+        <v>2.38</v>
+      </c>
+      <c r="AC167">
+        <v>1.04</v>
+      </c>
+      <c r="AD167">
+        <v>10.5</v>
+      </c>
+      <c r="AE167">
         <v>1.21</v>
       </c>
-      <c r="U167">
-        <v>3.9</v>
-      </c>
-      <c r="V167">
-        <v>2</v>
-      </c>
-      <c r="W167">
-        <v>1.7</v>
-      </c>
-      <c r="X167">
-        <v>4.2</v>
-      </c>
-      <c r="Y167">
-        <v>1.18</v>
-      </c>
-      <c r="Z167">
-        <v>2.95</v>
-      </c>
-      <c r="AA167">
-        <v>3.9</v>
-      </c>
-      <c r="AB167">
+      <c r="AF167">
+        <v>3.75</v>
+      </c>
+      <c r="AG167">
+        <v>1.73</v>
+      </c>
+      <c r="AH167">
         <v>1.98</v>
       </c>
-      <c r="AC167">
-        <v>1.02</v>
-      </c>
-      <c r="AD167">
-        <v>23.5</v>
-      </c>
-      <c r="AE167">
-        <v>1.09</v>
-      </c>
-      <c r="AF167">
-        <v>5.8</v>
-      </c>
-      <c r="AG167">
-        <v>1.41</v>
-      </c>
-      <c r="AH167">
-        <v>2.69</v>
-      </c>
       <c r="AI167">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AJ167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AK167">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AL167">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AM167">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AN167">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO167">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AP167">
+        <v>0.91</v>
+      </c>
+      <c r="AQ167">
+        <v>1.73</v>
+      </c>
+      <c r="AR167">
+        <v>1.29</v>
+      </c>
+      <c r="AS167">
         <v>1.45</v>
       </c>
-      <c r="AQ167">
-        <v>1.5</v>
-      </c>
-      <c r="AR167">
-        <v>1.37</v>
-      </c>
-      <c r="AS167">
-        <v>1.48</v>
-      </c>
       <c r="AT167">
-        <v>2.85</v>
+        <v>2.74</v>
       </c>
       <c r="AU167">
+        <v>0</v>
+      </c>
+      <c r="AV167">
+        <v>4</v>
+      </c>
+      <c r="AW167">
+        <v>5</v>
+      </c>
+      <c r="AX167">
         <v>6</v>
       </c>
-      <c r="AV167">
-        <v>7</v>
-      </c>
-      <c r="AW167">
-        <v>2</v>
-      </c>
-      <c r="AX167">
-        <v>3</v>
-      </c>
       <c r="AY167">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ167">
         <v>10</v>
       </c>
       <c r="BA167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB167">
         <v>7</v>
       </c>
       <c r="BC167">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD167">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="BE167">
         <v>6.75</v>
       </c>
       <c r="BF167">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="BG167">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="BH167">
         <v>4.6</v>
       </c>
       <c r="BI167">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="BJ167">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BK167">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BL167">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="BM167">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="BN167">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BO167">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="BP167">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -35688,7 +35688,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7292597</v>
+        <v>7292599</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35703,190 +35703,190 @@
         <v>21</v>
       </c>
       <c r="G168" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H168" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N168">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O168" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="P168" t="s">
         <v>299</v>
       </c>
       <c r="Q168">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R168">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="S168">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="T168">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="U168">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="V168">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="X168">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="Y168">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="Z168">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="AA168">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB168">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="AC168">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD168">
-        <v>10.5</v>
+        <v>23.5</v>
       </c>
       <c r="AE168">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="AF168">
-        <v>3.75</v>
+        <v>5.8</v>
       </c>
       <c r="AG168">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="AH168">
-        <v>1.98</v>
+        <v>2.69</v>
       </c>
       <c r="AI168">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AJ168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AK168">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AL168">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AM168">
+        <v>1.36</v>
+      </c>
+      <c r="AN168">
+        <v>1.5</v>
+      </c>
+      <c r="AO168">
+        <v>1.56</v>
+      </c>
+      <c r="AP168">
+        <v>1.45</v>
+      </c>
+      <c r="AQ168">
+        <v>1.5</v>
+      </c>
+      <c r="AR168">
+        <v>1.37</v>
+      </c>
+      <c r="AS168">
         <v>1.48</v>
       </c>
-      <c r="AN168">
-        <v>1</v>
-      </c>
-      <c r="AO168">
-        <v>1.6</v>
-      </c>
-      <c r="AP168">
-        <v>0.91</v>
-      </c>
-      <c r="AQ168">
-        <v>1.73</v>
-      </c>
-      <c r="AR168">
-        <v>1.29</v>
-      </c>
-      <c r="AS168">
-        <v>1.45</v>
-      </c>
       <c r="AT168">
-        <v>2.74</v>
+        <v>2.85</v>
       </c>
       <c r="AU168">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV168">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX168">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY168">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ168">
         <v>10</v>
       </c>
       <c r="BA168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB168">
         <v>7</v>
       </c>
       <c r="BC168">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD168">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="BE168">
         <v>6.75</v>
       </c>
       <c r="BF168">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="BG168">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BH168">
         <v>4.6</v>
       </c>
       <c r="BI168">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ168">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BK168">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BL168">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="BM168">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="BN168">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BO168">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="BP168">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,15 @@
     <t>['25', '49', '90+5']</t>
   </si>
   <si>
+    <t>['57', '85']</t>
+  </si>
+  <si>
+    <t>['13', '47', '65']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -914,6 +923,12 @@
   </si>
   <si>
     <t>['47', '54', '74']</t>
+  </si>
+  <si>
+    <t>['20', '37', '42']</t>
+  </si>
+  <si>
+    <t>['25', '77']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1549,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1615,7 +1630,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ2">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1740,7 +1755,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1946,7 +1961,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2027,7 +2042,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ4">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2233,7 +2248,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2358,7 +2373,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2642,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ7">
         <v>0.55</v>
@@ -2848,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.8</v>
@@ -2976,7 +2991,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3182,7 +3197,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -4084,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ14">
         <v>0.8</v>
@@ -4212,7 +4227,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4418,7 +4433,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4499,7 +4514,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4624,7 +4639,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4702,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4830,7 +4845,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5114,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19">
         <v>0.55</v>
@@ -5323,7 +5338,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR20">
         <v>1.32</v>
@@ -5448,7 +5463,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5732,7 +5747,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ22">
         <v>1.55</v>
@@ -5860,7 +5875,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5941,7 +5956,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ23">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR23">
         <v>1.23</v>
@@ -6066,7 +6081,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6147,7 +6162,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ24">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6478,7 +6493,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6556,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -7096,7 +7111,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7177,7 +7192,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ29">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR29">
         <v>1.27</v>
@@ -7380,7 +7395,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>2.1</v>
@@ -7714,7 +7729,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7795,7 +7810,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>0.76</v>
@@ -7920,7 +7935,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8126,7 +8141,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8332,7 +8347,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8616,7 +8631,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8744,7 +8759,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8950,7 +8965,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9156,7 +9171,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9237,7 +9252,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9440,10 +9455,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -9568,7 +9583,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9646,10 +9661,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ41">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR41">
         <v>1.74</v>
@@ -9774,7 +9789,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10264,10 +10279,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10392,7 +10407,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10598,7 +10613,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11010,7 +11025,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11422,7 +11437,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11628,7 +11643,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11709,7 +11724,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ51">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11834,7 +11849,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11912,7 +11927,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -12040,7 +12055,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12121,7 +12136,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ53">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12246,7 +12261,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12324,7 +12339,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ54">
         <v>2.1</v>
@@ -12452,7 +12467,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12530,7 +12545,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.8</v>
@@ -12658,7 +12673,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12864,7 +12879,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -13070,7 +13085,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13148,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.55</v>
@@ -13276,7 +13291,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13357,7 +13372,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR59">
         <v>0.92</v>
@@ -13688,7 +13703,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13894,7 +13909,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14178,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ63">
         <v>0.8</v>
@@ -14306,7 +14321,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14387,7 +14402,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ64">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR64">
         <v>0.97</v>
@@ -14512,7 +14527,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14593,7 +14608,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ65">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -15336,7 +15351,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15414,7 +15429,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15623,7 +15638,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
         <v>2.17</v>
@@ -15748,7 +15763,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15826,7 +15841,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ71">
         <v>1.1</v>
@@ -15954,7 +15969,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16160,7 +16175,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16366,7 +16381,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16572,7 +16587,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16984,7 +16999,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17268,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ78">
         <v>0.8</v>
@@ -17474,7 +17489,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ79">
         <v>0.55</v>
@@ -17602,7 +17617,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17683,7 +17698,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ80">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR80">
         <v>1.83</v>
@@ -17889,7 +17904,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ81">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18632,7 +18647,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -19044,7 +19059,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19122,10 +19137,10 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ87">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.67</v>
@@ -19250,7 +19265,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19456,7 +19471,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19534,7 +19549,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>1.1</v>
@@ -19662,7 +19677,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20280,7 +20295,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20361,7 +20376,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR93">
         <v>1.38</v>
@@ -20567,7 +20582,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR94">
         <v>0.93</v>
@@ -20770,7 +20785,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ95">
         <v>0.8</v>
@@ -20898,7 +20913,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -20976,7 +20991,7 @@
         <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ96">
         <v>1.73</v>
@@ -21104,7 +21119,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21310,7 +21325,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21516,7 +21531,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21597,7 +21612,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ99">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR99">
         <v>1.17</v>
@@ -21803,7 +21818,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ100">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.64</v>
@@ -21928,7 +21943,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22340,7 +22355,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22418,7 +22433,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>0.91</v>
@@ -22546,7 +22561,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22958,7 +22973,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23164,7 +23179,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23242,7 +23257,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -23370,7 +23385,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23451,7 +23466,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ108">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR108">
         <v>1.39</v>
@@ -23654,10 +23669,10 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR109">
         <v>1.73</v>
@@ -23860,7 +23875,7 @@
         <v>2.17</v>
       </c>
       <c r="AP110">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ110">
         <v>1.5</v>
@@ -23988,7 +24003,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24066,7 +24081,7 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ111">
         <v>0.8</v>
@@ -24194,7 +24209,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24481,7 +24496,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ113">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.31</v>
@@ -24606,7 +24621,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24812,7 +24827,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25018,7 +25033,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25096,10 +25111,10 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ116">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR116">
         <v>1.66</v>
@@ -25224,7 +25239,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25636,7 +25651,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26129,7 +26144,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ121">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26254,7 +26269,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26872,7 +26887,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -26953,7 +26968,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ125">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR125">
         <v>1.17</v>
@@ -27571,7 +27586,7 @@
         <v>2</v>
       </c>
       <c r="AQ128">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR128">
         <v>1.54</v>
@@ -27902,7 +27917,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28108,7 +28123,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28186,10 +28201,10 @@
         <v>0.86</v>
       </c>
       <c r="AP131">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR131">
         <v>1.69</v>
@@ -28314,7 +28329,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28392,7 +28407,7 @@
         <v>0.63</v>
       </c>
       <c r="AP132">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ132">
         <v>1.27</v>
@@ -28932,7 +28947,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29138,7 +29153,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29216,7 +29231,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ136">
         <v>1.1</v>
@@ -29344,7 +29359,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29550,7 +29565,7 @@
         <v>88</v>
       </c>
       <c r="P138" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q138">
         <v>7.7</v>
@@ -29631,7 +29646,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR138">
         <v>1.03</v>
@@ -30168,7 +30183,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>2.25</v>
@@ -30246,7 +30261,7 @@
         <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ141">
         <v>0.91</v>
@@ -30374,7 +30389,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30455,7 +30470,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR142">
         <v>1.74</v>
@@ -30658,10 +30673,10 @@
         <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR143">
         <v>1.74</v>
@@ -30786,7 +30801,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -30867,7 +30882,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR144">
         <v>1.57</v>
@@ -31198,7 +31213,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q146">
         <v>1.56</v>
@@ -31404,7 +31419,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31610,7 +31625,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31688,7 +31703,7 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ148">
         <v>0.91</v>
@@ -31816,7 +31831,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q149">
         <v>2.7</v>
@@ -31894,7 +31909,7 @@
         <v>0.89</v>
       </c>
       <c r="AP149">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ149">
         <v>1.27</v>
@@ -32022,7 +32037,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32228,7 +32243,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32640,7 +32655,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>6.25</v>
@@ -32721,7 +32736,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ153">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR153">
         <v>1.24</v>
@@ -33052,7 +33067,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33130,7 +33145,7 @@
         <v>2.25</v>
       </c>
       <c r="AP155">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ155">
         <v>2.1</v>
@@ -33258,7 +33273,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>2.3</v>
@@ -33336,10 +33351,10 @@
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ156">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR156">
         <v>1.71</v>
@@ -33464,7 +33479,7 @@
         <v>175</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33670,7 +33685,7 @@
         <v>101</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>3.1</v>
@@ -33751,7 +33766,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ158">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR158">
         <v>1.34</v>
@@ -34163,7 +34178,7 @@
         <v>2</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR160">
         <v>1.63</v>
@@ -34700,7 +34715,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -34906,7 +34921,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -34984,7 +34999,7 @@
         <v>1.4</v>
       </c>
       <c r="AP164">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ164">
         <v>1.55</v>
@@ -35318,7 +35333,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35524,7 +35539,7 @@
         <v>88</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>3.15</v>
@@ -35730,7 +35745,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -35887,6 +35902,830 @@
       </c>
       <c r="BP168">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7292612</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45549.41666666666</v>
+      </c>
+      <c r="F169">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>82</v>
+      </c>
+      <c r="H169" t="s">
+        <v>72</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>3</v>
+      </c>
+      <c r="K169">
+        <v>3</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+      <c r="N169">
+        <v>5</v>
+      </c>
+      <c r="O169" t="s">
+        <v>205</v>
+      </c>
+      <c r="P169" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q169">
+        <v>2.88</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>3.5</v>
+      </c>
+      <c r="T169">
+        <v>1.36</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.63</v>
+      </c>
+      <c r="W169">
+        <v>1.44</v>
+      </c>
+      <c r="X169">
+        <v>7</v>
+      </c>
+      <c r="Y169">
+        <v>1.1</v>
+      </c>
+      <c r="Z169">
+        <v>2.3</v>
+      </c>
+      <c r="AA169">
+        <v>3.55</v>
+      </c>
+      <c r="AB169">
+        <v>2.85</v>
+      </c>
+      <c r="AC169">
+        <v>1.04</v>
+      </c>
+      <c r="AD169">
+        <v>13</v>
+      </c>
+      <c r="AE169">
+        <v>1.26</v>
+      </c>
+      <c r="AF169">
+        <v>4</v>
+      </c>
+      <c r="AG169">
+        <v>1.87</v>
+      </c>
+      <c r="AH169">
+        <v>1.93</v>
+      </c>
+      <c r="AI169">
+        <v>1.67</v>
+      </c>
+      <c r="AJ169">
+        <v>2.1</v>
+      </c>
+      <c r="AK169">
+        <v>1.4</v>
+      </c>
+      <c r="AL169">
+        <v>1.26</v>
+      </c>
+      <c r="AM169">
+        <v>1.65</v>
+      </c>
+      <c r="AN169">
+        <v>0.91</v>
+      </c>
+      <c r="AO169">
+        <v>1</v>
+      </c>
+      <c r="AP169">
+        <v>0.83</v>
+      </c>
+      <c r="AQ169">
+        <v>1.18</v>
+      </c>
+      <c r="AR169">
+        <v>1.6</v>
+      </c>
+      <c r="AS169">
+        <v>1.43</v>
+      </c>
+      <c r="AT169">
+        <v>3.03</v>
+      </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>7</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>14</v>
+      </c>
+      <c r="AZ169">
+        <v>8</v>
+      </c>
+      <c r="BA169">
+        <v>9</v>
+      </c>
+      <c r="BB169">
+        <v>3</v>
+      </c>
+      <c r="BC169">
+        <v>12</v>
+      </c>
+      <c r="BD169">
+        <v>1.66</v>
+      </c>
+      <c r="BE169">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF169">
+        <v>2.7</v>
+      </c>
+      <c r="BG169">
+        <v>1.1</v>
+      </c>
+      <c r="BH169">
+        <v>5.55</v>
+      </c>
+      <c r="BI169">
+        <v>1.24</v>
+      </c>
+      <c r="BJ169">
+        <v>3.85</v>
+      </c>
+      <c r="BK169">
+        <v>1.43</v>
+      </c>
+      <c r="BL169">
+        <v>2.7</v>
+      </c>
+      <c r="BM169">
+        <v>1.74</v>
+      </c>
+      <c r="BN169">
+        <v>2.02</v>
+      </c>
+      <c r="BO169">
+        <v>2.2</v>
+      </c>
+      <c r="BP169">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7292610</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45550.375</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>75</v>
+      </c>
+      <c r="H170" t="s">
+        <v>78</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>5</v>
+      </c>
+      <c r="O170" t="s">
+        <v>206</v>
+      </c>
+      <c r="P170" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q170">
+        <v>2.5</v>
+      </c>
+      <c r="R170">
+        <v>2.5</v>
+      </c>
+      <c r="S170">
+        <v>3.6</v>
+      </c>
+      <c r="T170">
+        <v>1.25</v>
+      </c>
+      <c r="U170">
+        <v>3.75</v>
+      </c>
+      <c r="V170">
+        <v>2.2</v>
+      </c>
+      <c r="W170">
+        <v>1.62</v>
+      </c>
+      <c r="X170">
+        <v>5</v>
+      </c>
+      <c r="Y170">
+        <v>1.17</v>
+      </c>
+      <c r="Z170">
+        <v>2.05</v>
+      </c>
+      <c r="AA170">
+        <v>3.75</v>
+      </c>
+      <c r="AB170">
+        <v>3.05</v>
+      </c>
+      <c r="AC170">
+        <v>1.01</v>
+      </c>
+      <c r="AD170">
+        <v>13</v>
+      </c>
+      <c r="AE170">
+        <v>1.18</v>
+      </c>
+      <c r="AF170">
+        <v>5</v>
+      </c>
+      <c r="AG170">
+        <v>1.59</v>
+      </c>
+      <c r="AH170">
+        <v>2.21</v>
+      </c>
+      <c r="AI170">
+        <v>1.44</v>
+      </c>
+      <c r="AJ170">
+        <v>2.63</v>
+      </c>
+      <c r="AK170">
+        <v>1.26</v>
+      </c>
+      <c r="AL170">
+        <v>1.19</v>
+      </c>
+      <c r="AM170">
+        <v>1.8</v>
+      </c>
+      <c r="AN170">
+        <v>1.4</v>
+      </c>
+      <c r="AO170">
+        <v>1.45</v>
+      </c>
+      <c r="AP170">
+        <v>1.55</v>
+      </c>
+      <c r="AQ170">
+        <v>1.33</v>
+      </c>
+      <c r="AR170">
+        <v>1.62</v>
+      </c>
+      <c r="AS170">
+        <v>1.54</v>
+      </c>
+      <c r="AT170">
+        <v>3.16</v>
+      </c>
+      <c r="AU170">
+        <v>7</v>
+      </c>
+      <c r="AV170">
+        <v>2</v>
+      </c>
+      <c r="AW170">
+        <v>3</v>
+      </c>
+      <c r="AX170">
+        <v>5</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>7</v>
+      </c>
+      <c r="BA170">
+        <v>5</v>
+      </c>
+      <c r="BB170">
+        <v>8</v>
+      </c>
+      <c r="BC170">
+        <v>13</v>
+      </c>
+      <c r="BD170">
+        <v>1.74</v>
+      </c>
+      <c r="BE170">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF170">
+        <v>2.52</v>
+      </c>
+      <c r="BG170">
+        <v>1.09</v>
+      </c>
+      <c r="BH170">
+        <v>5.65</v>
+      </c>
+      <c r="BI170">
+        <v>1.29</v>
+      </c>
+      <c r="BJ170">
+        <v>3.45</v>
+      </c>
+      <c r="BK170">
+        <v>1.5</v>
+      </c>
+      <c r="BL170">
+        <v>2.45</v>
+      </c>
+      <c r="BM170">
+        <v>1.88</v>
+      </c>
+      <c r="BN170">
+        <v>1.92</v>
+      </c>
+      <c r="BO170">
+        <v>2.43</v>
+      </c>
+      <c r="BP170">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7292605</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45550.375</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s">
+        <v>80</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>88</v>
+      </c>
+      <c r="P171" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q171">
+        <v>3.75</v>
+      </c>
+      <c r="R171">
+        <v>2.2</v>
+      </c>
+      <c r="S171">
+        <v>2.75</v>
+      </c>
+      <c r="T171">
+        <v>1.36</v>
+      </c>
+      <c r="U171">
+        <v>3</v>
+      </c>
+      <c r="V171">
+        <v>2.75</v>
+      </c>
+      <c r="W171">
+        <v>1.4</v>
+      </c>
+      <c r="X171">
+        <v>8</v>
+      </c>
+      <c r="Y171">
+        <v>1.08</v>
+      </c>
+      <c r="Z171">
+        <v>3.15</v>
+      </c>
+      <c r="AA171">
+        <v>3.45</v>
+      </c>
+      <c r="AB171">
+        <v>2.06</v>
+      </c>
+      <c r="AC171">
+        <v>1.06</v>
+      </c>
+      <c r="AD171">
+        <v>9</v>
+      </c>
+      <c r="AE171">
+        <v>1.3</v>
+      </c>
+      <c r="AF171">
+        <v>3.55</v>
+      </c>
+      <c r="AG171">
+        <v>1.86</v>
+      </c>
+      <c r="AH171">
+        <v>2</v>
+      </c>
+      <c r="AI171">
+        <v>1.7</v>
+      </c>
+      <c r="AJ171">
+        <v>2.05</v>
+      </c>
+      <c r="AK171">
+        <v>1.71</v>
+      </c>
+      <c r="AL171">
+        <v>1.24</v>
+      </c>
+      <c r="AM171">
+        <v>1.26</v>
+      </c>
+      <c r="AN171">
+        <v>2.1</v>
+      </c>
+      <c r="AO171">
+        <v>1.91</v>
+      </c>
+      <c r="AP171">
+        <v>2</v>
+      </c>
+      <c r="AQ171">
+        <v>1.83</v>
+      </c>
+      <c r="AR171">
+        <v>1.74</v>
+      </c>
+      <c r="AS171">
+        <v>1.83</v>
+      </c>
+      <c r="AT171">
+        <v>3.57</v>
+      </c>
+      <c r="AU171">
+        <v>5</v>
+      </c>
+      <c r="AV171">
+        <v>3</v>
+      </c>
+      <c r="AW171">
+        <v>5</v>
+      </c>
+      <c r="AX171">
+        <v>3</v>
+      </c>
+      <c r="AY171">
+        <v>10</v>
+      </c>
+      <c r="AZ171">
+        <v>6</v>
+      </c>
+      <c r="BA171">
+        <v>5</v>
+      </c>
+      <c r="BB171">
+        <v>2</v>
+      </c>
+      <c r="BC171">
+        <v>7</v>
+      </c>
+      <c r="BD171">
+        <v>2.6</v>
+      </c>
+      <c r="BE171">
+        <v>7.5</v>
+      </c>
+      <c r="BF171">
+        <v>1.72</v>
+      </c>
+      <c r="BG171">
+        <v>1.14</v>
+      </c>
+      <c r="BH171">
+        <v>4.65</v>
+      </c>
+      <c r="BI171">
+        <v>1.3</v>
+      </c>
+      <c r="BJ171">
+        <v>3.3</v>
+      </c>
+      <c r="BK171">
+        <v>1.55</v>
+      </c>
+      <c r="BL171">
+        <v>2.38</v>
+      </c>
+      <c r="BM171">
+        <v>2</v>
+      </c>
+      <c r="BN171">
+        <v>1.8</v>
+      </c>
+      <c r="BO171">
+        <v>2.5</v>
+      </c>
+      <c r="BP171">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7292606</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45550.375</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>85</v>
+      </c>
+      <c r="H172" t="s">
+        <v>79</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>207</v>
+      </c>
+      <c r="P172" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q172">
+        <v>2.38</v>
+      </c>
+      <c r="R172">
+        <v>2.2</v>
+      </c>
+      <c r="S172">
+        <v>5</v>
+      </c>
+      <c r="T172">
+        <v>1.36</v>
+      </c>
+      <c r="U172">
+        <v>3</v>
+      </c>
+      <c r="V172">
+        <v>2.75</v>
+      </c>
+      <c r="W172">
+        <v>1.4</v>
+      </c>
+      <c r="X172">
+        <v>8</v>
+      </c>
+      <c r="Y172">
+        <v>1.08</v>
+      </c>
+      <c r="Z172">
+        <v>1.75</v>
+      </c>
+      <c r="AA172">
+        <v>3.65</v>
+      </c>
+      <c r="AB172">
+        <v>4.25</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>9.4</v>
+      </c>
+      <c r="AE172">
+        <v>1.26</v>
+      </c>
+      <c r="AF172">
+        <v>3.34</v>
+      </c>
+      <c r="AG172">
+        <v>1.93</v>
+      </c>
+      <c r="AH172">
+        <v>1.93</v>
+      </c>
+      <c r="AI172">
+        <v>1.91</v>
+      </c>
+      <c r="AJ172">
+        <v>1.91</v>
+      </c>
+      <c r="AK172">
+        <v>1.12</v>
+      </c>
+      <c r="AL172">
+        <v>1.21</v>
+      </c>
+      <c r="AM172">
+        <v>2.12</v>
+      </c>
+      <c r="AN172">
+        <v>1.7</v>
+      </c>
+      <c r="AO172">
+        <v>1.2</v>
+      </c>
+      <c r="AP172">
+        <v>1.64</v>
+      </c>
+      <c r="AQ172">
+        <v>1.18</v>
+      </c>
+      <c r="AR172">
+        <v>1.43</v>
+      </c>
+      <c r="AS172">
+        <v>1.23</v>
+      </c>
+      <c r="AT172">
+        <v>2.66</v>
+      </c>
+      <c r="AU172">
+        <v>-1</v>
+      </c>
+      <c r="AV172">
+        <v>-1</v>
+      </c>
+      <c r="AW172">
+        <v>-1</v>
+      </c>
+      <c r="AX172">
+        <v>-1</v>
+      </c>
+      <c r="AY172">
+        <v>-1</v>
+      </c>
+      <c r="AZ172">
+        <v>-1</v>
+      </c>
+      <c r="BA172">
+        <v>-1</v>
+      </c>
+      <c r="BB172">
+        <v>-1</v>
+      </c>
+      <c r="BC172">
+        <v>-1</v>
+      </c>
+      <c r="BD172">
+        <v>1.5</v>
+      </c>
+      <c r="BE172">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF172">
+        <v>3.14</v>
+      </c>
+      <c r="BG172">
+        <v>1.2</v>
+      </c>
+      <c r="BH172">
+        <v>4.35</v>
+      </c>
+      <c r="BI172">
+        <v>1.37</v>
+      </c>
+      <c r="BJ172">
+        <v>2.95</v>
+      </c>
+      <c r="BK172">
+        <v>1.65</v>
+      </c>
+      <c r="BL172">
+        <v>2.16</v>
+      </c>
+      <c r="BM172">
+        <v>2.1</v>
+      </c>
+      <c r="BN172">
+        <v>1.68</v>
+      </c>
+      <c r="BO172">
+        <v>2.8</v>
+      </c>
+      <c r="BP172">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,15 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['39', '53', '90+6']</t>
+  </si>
+  <si>
+    <t>['2', '73', '90+4']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -929,6 +938,9 @@
   </si>
   <si>
     <t>['25', '77']</t>
+  </si>
+  <si>
+    <t>['33', '41', '57']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1561,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1755,7 +1767,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1833,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ3">
         <v>0.91</v>
@@ -1961,7 +1973,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2245,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ5">
         <v>1.18</v>
@@ -2373,7 +2385,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2991,7 +3003,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3072,7 +3084,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3197,7 +3209,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3484,7 +3496,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3893,10 +3905,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4102,7 +4114,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4227,7 +4239,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4305,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.55</v>
@@ -4433,7 +4445,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4639,7 +4651,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4845,7 +4857,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5463,7 +5475,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5541,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5875,7 +5887,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6081,7 +6093,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6159,7 +6171,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -6365,10 +6377,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6493,7 +6505,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6574,7 +6586,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6780,7 +6792,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ27">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR27">
         <v>0.78</v>
@@ -7111,7 +7123,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7601,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31">
         <v>1.73</v>
@@ -7729,7 +7741,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7807,7 +7819,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -7935,7 +7947,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8141,7 +8153,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8347,7 +8359,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8634,7 +8646,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8759,7 +8771,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8840,7 +8852,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -8965,7 +8977,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9043,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ38">
         <v>1.73</v>
@@ -9171,7 +9183,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9249,7 +9261,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>1.18</v>
@@ -9583,7 +9595,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9789,7 +9801,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10407,7 +10419,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10485,10 +10497,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10613,7 +10625,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10694,7 +10706,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR46">
         <v>1.52</v>
@@ -11025,7 +11037,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11309,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ49">
         <v>0.8</v>
@@ -11437,7 +11449,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11515,7 +11527,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>0.55</v>
@@ -11643,7 +11655,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11849,7 +11861,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -12055,7 +12067,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12261,7 +12273,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12467,7 +12479,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12548,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR55">
         <v>1.19</v>
@@ -12673,7 +12685,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12751,10 +12763,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR56">
         <v>1.45</v>
@@ -12879,7 +12891,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12960,7 +12972,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ57">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -13085,7 +13097,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13291,7 +13303,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13369,7 +13381,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ59">
         <v>1.18</v>
@@ -13703,7 +13715,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13781,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ61">
         <v>0.91</v>
@@ -13909,7 +13921,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14196,7 +14208,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14321,7 +14333,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14527,7 +14539,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -15017,7 +15029,7 @@
         <v>2.33</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -15351,7 +15363,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15432,7 +15444,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR69">
         <v>1.65</v>
@@ -15763,7 +15775,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15844,7 +15856,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ71">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR71">
         <v>1.6</v>
@@ -15969,7 +15981,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16047,10 +16059,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR72">
         <v>1.31</v>
@@ -16175,7 +16187,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16381,7 +16393,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16459,7 +16471,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ74">
         <v>1.27</v>
@@ -16587,7 +16599,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16668,7 +16680,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16874,7 +16886,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ76">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -16999,7 +17011,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17617,7 +17629,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17695,7 +17707,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ80">
         <v>1.83</v>
@@ -18647,7 +18659,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18931,7 +18943,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ86">
         <v>1.55</v>
@@ -19059,7 +19071,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19265,7 +19277,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19346,7 +19358,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19471,7 +19483,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19552,7 +19564,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19677,7 +19689,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19758,7 +19770,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ90">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>2.32</v>
@@ -20170,7 +20182,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.27</v>
@@ -20295,7 +20307,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20579,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ94">
         <v>1.18</v>
@@ -20788,7 +20800,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ95">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR95">
         <v>1.62</v>
@@ -20913,7 +20925,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21119,7 +21131,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21197,7 +21209,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>0.8</v>
@@ -21325,7 +21337,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21403,7 +21415,7 @@
         <v>0.4</v>
       </c>
       <c r="AP98">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ98">
         <v>1.27</v>
@@ -21531,7 +21543,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21943,7 +21955,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22230,7 +22242,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ102">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22355,7 +22367,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22561,7 +22573,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22973,7 +22985,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23179,7 +23191,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23385,7 +23397,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23878,7 +23890,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR110">
         <v>1.61</v>
@@ -24003,7 +24015,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24084,7 +24096,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR111">
         <v>1.7</v>
@@ -24209,7 +24221,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24287,10 +24299,10 @@
         <v>0.43</v>
       </c>
       <c r="AP112">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ112">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.86</v>
@@ -24493,7 +24505,7 @@
         <v>1.29</v>
       </c>
       <c r="AP113">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24621,7 +24633,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24699,7 +24711,7 @@
         <v>0.33</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114">
         <v>1.27</v>
@@ -24827,7 +24839,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24905,10 +24917,10 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ115">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR115">
         <v>1.56</v>
@@ -25033,7 +25045,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25239,7 +25251,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25523,7 +25535,7 @@
         <v>2.5</v>
       </c>
       <c r="AP118">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>2.1</v>
@@ -25651,7 +25663,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26269,7 +26281,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26887,7 +26899,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27377,10 +27389,10 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR127">
         <v>0.99</v>
@@ -27583,7 +27595,7 @@
         <v>1.29</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ128">
         <v>1.18</v>
@@ -27789,7 +27801,7 @@
         <v>0.71</v>
       </c>
       <c r="AP129">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ129">
         <v>0.8</v>
@@ -27917,7 +27929,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28123,7 +28135,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28329,7 +28341,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28616,7 +28628,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ133">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR133">
         <v>1.47</v>
@@ -28947,7 +28959,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29153,7 +29165,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29234,7 +29246,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ136">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR136">
         <v>1.58</v>
@@ -29359,7 +29371,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29437,7 +29449,7 @@
         <v>1.25</v>
       </c>
       <c r="AP137">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
         <v>1.73</v>
@@ -29565,7 +29577,7 @@
         <v>88</v>
       </c>
       <c r="P138" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>7.7</v>
@@ -29643,7 +29655,7 @@
         <v>1.89</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ138">
         <v>1.83</v>
@@ -30058,7 +30070,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR140">
         <v>1.21</v>
@@ -30183,7 +30195,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q141">
         <v>2.25</v>
@@ -30389,7 +30401,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30801,7 +30813,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -30879,7 +30891,7 @@
         <v>1.67</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ144">
         <v>1.33</v>
@@ -31213,7 +31225,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>1.56</v>
@@ -31294,7 +31306,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ146">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR146">
         <v>2.27</v>
@@ -31419,7 +31431,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31625,7 +31637,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31831,7 +31843,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q149">
         <v>2.7</v>
@@ -32037,7 +32049,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32118,7 +32130,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ150">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32243,7 +32255,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32655,7 +32667,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>6.25</v>
@@ -32733,7 +32745,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ153">
         <v>1.83</v>
@@ -32942,7 +32954,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ154">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR154">
         <v>1.7</v>
@@ -33067,7 +33079,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33273,7 +33285,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>2.3</v>
@@ -33479,7 +33491,7 @@
         <v>175</v>
       </c>
       <c r="P157" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33557,10 +33569,10 @@
         <v>1.56</v>
       </c>
       <c r="AP157">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR157">
         <v>1.74</v>
@@ -33685,7 +33697,7 @@
         <v>101</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>3.1</v>
@@ -33969,7 +33981,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP159">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ159">
         <v>0.8</v>
@@ -34175,7 +34187,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ160">
         <v>1.18</v>
@@ -34715,7 +34727,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -34921,7 +34933,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35333,7 +35345,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35414,7 +35426,7 @@
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR166">
         <v>1.52</v>
@@ -35539,7 +35551,7 @@
         <v>88</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>3.15</v>
@@ -35745,7 +35757,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -35951,7 +35963,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36157,7 +36169,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36250,19 +36262,19 @@
         <v>3.16</v>
       </c>
       <c r="AU170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW170">
+        <v>4</v>
+      </c>
+      <c r="AX170">
         <v>3</v>
       </c>
-      <c r="AX170">
-        <v>5</v>
-      </c>
       <c r="AY170">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ170">
         <v>7</v>
@@ -36462,16 +36474,16 @@
         <v>3</v>
       </c>
       <c r="AW171">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY171">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ171">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA171">
         <v>5</v>
@@ -36569,7 +36581,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q172">
         <v>2.38</v>
@@ -36662,31 +36674,31 @@
         <v>2.66</v>
       </c>
       <c r="AU172">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV172">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW172">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX172">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY172">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ172">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA172">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB172">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC172">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD172">
         <v>1.5</v>
@@ -36726,6 +36738,830 @@
       </c>
       <c r="BP172">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7292608</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45550.47916666666</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>73</v>
+      </c>
+      <c r="H173" t="s">
+        <v>74</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
+      <c r="M173">
+        <v>3</v>
+      </c>
+      <c r="N173">
+        <v>6</v>
+      </c>
+      <c r="O173" t="s">
+        <v>208</v>
+      </c>
+      <c r="P173" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q173">
+        <v>2.2</v>
+      </c>
+      <c r="R173">
+        <v>2.5</v>
+      </c>
+      <c r="S173">
+        <v>4.33</v>
+      </c>
+      <c r="T173">
+        <v>1.25</v>
+      </c>
+      <c r="U173">
+        <v>3.75</v>
+      </c>
+      <c r="V173">
+        <v>2.2</v>
+      </c>
+      <c r="W173">
+        <v>1.62</v>
+      </c>
+      <c r="X173">
+        <v>5</v>
+      </c>
+      <c r="Y173">
+        <v>1.17</v>
+      </c>
+      <c r="Z173">
+        <v>1.68</v>
+      </c>
+      <c r="AA173">
+        <v>4.05</v>
+      </c>
+      <c r="AB173">
+        <v>4.2</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>17</v>
+      </c>
+      <c r="AE173">
+        <v>1.11</v>
+      </c>
+      <c r="AF173">
+        <v>5.15</v>
+      </c>
+      <c r="AG173">
+        <v>1.65</v>
+      </c>
+      <c r="AH173">
+        <v>2.12</v>
+      </c>
+      <c r="AI173">
+        <v>1.5</v>
+      </c>
+      <c r="AJ173">
+        <v>2.5</v>
+      </c>
+      <c r="AK173">
+        <v>1.16</v>
+      </c>
+      <c r="AL173">
+        <v>1.18</v>
+      </c>
+      <c r="AM173">
+        <v>2.07</v>
+      </c>
+      <c r="AN173">
+        <v>1.7</v>
+      </c>
+      <c r="AO173">
+        <v>1.1</v>
+      </c>
+      <c r="AP173">
+        <v>1.64</v>
+      </c>
+      <c r="AQ173">
+        <v>1.09</v>
+      </c>
+      <c r="AR173">
+        <v>1.73</v>
+      </c>
+      <c r="AS173">
+        <v>1.58</v>
+      </c>
+      <c r="AT173">
+        <v>3.31</v>
+      </c>
+      <c r="AU173">
+        <v>10</v>
+      </c>
+      <c r="AV173">
+        <v>12</v>
+      </c>
+      <c r="AW173">
+        <v>6</v>
+      </c>
+      <c r="AX173">
+        <v>2</v>
+      </c>
+      <c r="AY173">
+        <v>16</v>
+      </c>
+      <c r="AZ173">
+        <v>14</v>
+      </c>
+      <c r="BA173">
+        <v>12</v>
+      </c>
+      <c r="BB173">
+        <v>3</v>
+      </c>
+      <c r="BC173">
+        <v>15</v>
+      </c>
+      <c r="BD173">
+        <v>1.57</v>
+      </c>
+      <c r="BE173">
+        <v>6.75</v>
+      </c>
+      <c r="BF173">
+        <v>2.45</v>
+      </c>
+      <c r="BG173">
+        <v>1.16</v>
+      </c>
+      <c r="BH173">
+        <v>4.4</v>
+      </c>
+      <c r="BI173">
+        <v>1.28</v>
+      </c>
+      <c r="BJ173">
+        <v>3.2</v>
+      </c>
+      <c r="BK173">
+        <v>1.48</v>
+      </c>
+      <c r="BL173">
+        <v>2.43</v>
+      </c>
+      <c r="BM173">
+        <v>1.75</v>
+      </c>
+      <c r="BN173">
+        <v>1.95</v>
+      </c>
+      <c r="BO173">
+        <v>2.15</v>
+      </c>
+      <c r="BP173">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7292609</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45550.47916666666</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>81</v>
+      </c>
+      <c r="H174" t="s">
+        <v>77</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>88</v>
+      </c>
+      <c r="P174" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q174">
+        <v>6</v>
+      </c>
+      <c r="R174">
+        <v>2.4</v>
+      </c>
+      <c r="S174">
+        <v>2.05</v>
+      </c>
+      <c r="T174">
+        <v>1.33</v>
+      </c>
+      <c r="U174">
+        <v>3.25</v>
+      </c>
+      <c r="V174">
+        <v>2.5</v>
+      </c>
+      <c r="W174">
+        <v>1.5</v>
+      </c>
+      <c r="X174">
+        <v>6</v>
+      </c>
+      <c r="Y174">
+        <v>1.13</v>
+      </c>
+      <c r="Z174">
+        <v>4.6</v>
+      </c>
+      <c r="AA174">
+        <v>4</v>
+      </c>
+      <c r="AB174">
+        <v>1.63</v>
+      </c>
+      <c r="AC174">
+        <v>1.04</v>
+      </c>
+      <c r="AD174">
+        <v>15</v>
+      </c>
+      <c r="AE174">
+        <v>1.19</v>
+      </c>
+      <c r="AF174">
+        <v>3.98</v>
+      </c>
+      <c r="AG174">
+        <v>1.67</v>
+      </c>
+      <c r="AH174">
+        <v>2.1</v>
+      </c>
+      <c r="AI174">
+        <v>1.8</v>
+      </c>
+      <c r="AJ174">
+        <v>1.95</v>
+      </c>
+      <c r="AK174">
+        <v>2.3</v>
+      </c>
+      <c r="AL174">
+        <v>1.18</v>
+      </c>
+      <c r="AM174">
+        <v>1.1</v>
+      </c>
+      <c r="AN174">
+        <v>1.5</v>
+      </c>
+      <c r="AO174">
+        <v>0.8</v>
+      </c>
+      <c r="AP174">
+        <v>1.36</v>
+      </c>
+      <c r="AQ174">
+        <v>1</v>
+      </c>
+      <c r="AR174">
+        <v>1</v>
+      </c>
+      <c r="AS174">
+        <v>1.35</v>
+      </c>
+      <c r="AT174">
+        <v>2.35</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>6</v>
+      </c>
+      <c r="AY174">
+        <v>7</v>
+      </c>
+      <c r="AZ174">
+        <v>9</v>
+      </c>
+      <c r="BA174">
+        <v>3</v>
+      </c>
+      <c r="BB174">
+        <v>7</v>
+      </c>
+      <c r="BC174">
+        <v>10</v>
+      </c>
+      <c r="BD174">
+        <v>2.8</v>
+      </c>
+      <c r="BE174">
+        <v>7</v>
+      </c>
+      <c r="BF174">
+        <v>1.45</v>
+      </c>
+      <c r="BG174">
+        <v>1.2</v>
+      </c>
+      <c r="BH174">
+        <v>3.95</v>
+      </c>
+      <c r="BI174">
+        <v>1.34</v>
+      </c>
+      <c r="BJ174">
+        <v>2.9</v>
+      </c>
+      <c r="BK174">
+        <v>1.56</v>
+      </c>
+      <c r="BL174">
+        <v>2.23</v>
+      </c>
+      <c r="BM174">
+        <v>1.9</v>
+      </c>
+      <c r="BN174">
+        <v>1.79</v>
+      </c>
+      <c r="BO174">
+        <v>2.33</v>
+      </c>
+      <c r="BP174">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7292611</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45550.47916666666</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>83</v>
+      </c>
+      <c r="H175" t="s">
+        <v>84</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>3</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>209</v>
+      </c>
+      <c r="P175" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q175">
+        <v>3.1</v>
+      </c>
+      <c r="R175">
+        <v>2.1</v>
+      </c>
+      <c r="S175">
+        <v>3.6</v>
+      </c>
+      <c r="T175">
+        <v>1.44</v>
+      </c>
+      <c r="U175">
+        <v>2.63</v>
+      </c>
+      <c r="V175">
+        <v>3.25</v>
+      </c>
+      <c r="W175">
+        <v>1.33</v>
+      </c>
+      <c r="X175">
+        <v>9</v>
+      </c>
+      <c r="Y175">
+        <v>1.07</v>
+      </c>
+      <c r="Z175">
+        <v>2.31</v>
+      </c>
+      <c r="AA175">
+        <v>3.3</v>
+      </c>
+      <c r="AB175">
+        <v>2.78</v>
+      </c>
+      <c r="AC175">
+        <v>1.07</v>
+      </c>
+      <c r="AD175">
+        <v>8.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.36</v>
+      </c>
+      <c r="AF175">
+        <v>3.2</v>
+      </c>
+      <c r="AG175">
+        <v>2.01</v>
+      </c>
+      <c r="AH175">
+        <v>1.85</v>
+      </c>
+      <c r="AI175">
+        <v>1.8</v>
+      </c>
+      <c r="AJ175">
+        <v>1.95</v>
+      </c>
+      <c r="AK175">
+        <v>1.32</v>
+      </c>
+      <c r="AL175">
+        <v>1.27</v>
+      </c>
+      <c r="AM175">
+        <v>1.54</v>
+      </c>
+      <c r="AN175">
+        <v>0.8</v>
+      </c>
+      <c r="AO175">
+        <v>1.5</v>
+      </c>
+      <c r="AP175">
+        <v>1</v>
+      </c>
+      <c r="AQ175">
+        <v>1.36</v>
+      </c>
+      <c r="AR175">
+        <v>1.24</v>
+      </c>
+      <c r="AS175">
+        <v>1.33</v>
+      </c>
+      <c r="AT175">
+        <v>2.57</v>
+      </c>
+      <c r="AU175">
+        <v>6</v>
+      </c>
+      <c r="AV175">
+        <v>6</v>
+      </c>
+      <c r="AW175">
+        <v>7</v>
+      </c>
+      <c r="AX175">
+        <v>9</v>
+      </c>
+      <c r="AY175">
+        <v>13</v>
+      </c>
+      <c r="AZ175">
+        <v>15</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>11</v>
+      </c>
+      <c r="BC175">
+        <v>14</v>
+      </c>
+      <c r="BD175">
+        <v>1.89</v>
+      </c>
+      <c r="BE175">
+        <v>6.75</v>
+      </c>
+      <c r="BF175">
+        <v>2.4</v>
+      </c>
+      <c r="BG175">
+        <v>1.13</v>
+      </c>
+      <c r="BH175">
+        <v>4.9</v>
+      </c>
+      <c r="BI175">
+        <v>1.29</v>
+      </c>
+      <c r="BJ175">
+        <v>3.45</v>
+      </c>
+      <c r="BK175">
+        <v>1.5</v>
+      </c>
+      <c r="BL175">
+        <v>2.45</v>
+      </c>
+      <c r="BM175">
+        <v>1.95</v>
+      </c>
+      <c r="BN175">
+        <v>1.85</v>
+      </c>
+      <c r="BO175">
+        <v>2.43</v>
+      </c>
+      <c r="BP175">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7292607</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45551.59027777778</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>71</v>
+      </c>
+      <c r="H176" t="s">
+        <v>70</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>210</v>
+      </c>
+      <c r="P176" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q176">
+        <v>2.1</v>
+      </c>
+      <c r="R176">
+        <v>2.5</v>
+      </c>
+      <c r="S176">
+        <v>5</v>
+      </c>
+      <c r="T176">
+        <v>1.29</v>
+      </c>
+      <c r="U176">
+        <v>3.5</v>
+      </c>
+      <c r="V176">
+        <v>2.25</v>
+      </c>
+      <c r="W176">
+        <v>1.57</v>
+      </c>
+      <c r="X176">
+        <v>5.5</v>
+      </c>
+      <c r="Y176">
+        <v>1.14</v>
+      </c>
+      <c r="Z176">
+        <v>1.6</v>
+      </c>
+      <c r="AA176">
+        <v>3.51</v>
+      </c>
+      <c r="AB176">
+        <v>4.58</v>
+      </c>
+      <c r="AC176">
+        <v>1.01</v>
+      </c>
+      <c r="AD176">
+        <v>13</v>
+      </c>
+      <c r="AE176">
+        <v>1.14</v>
+      </c>
+      <c r="AF176">
+        <v>4.65</v>
+      </c>
+      <c r="AG176">
+        <v>1.55</v>
+      </c>
+      <c r="AH176">
+        <v>2.3</v>
+      </c>
+      <c r="AI176">
+        <v>1.62</v>
+      </c>
+      <c r="AJ176">
+        <v>2.2</v>
+      </c>
+      <c r="AK176">
+        <v>1.17</v>
+      </c>
+      <c r="AL176">
+        <v>1.18</v>
+      </c>
+      <c r="AM176">
+        <v>2.4</v>
+      </c>
+      <c r="AN176">
+        <v>2</v>
+      </c>
+      <c r="AO176">
+        <v>0.8</v>
+      </c>
+      <c r="AP176">
+        <v>1.91</v>
+      </c>
+      <c r="AQ176">
+        <v>0.82</v>
+      </c>
+      <c r="AR176">
+        <v>1.57</v>
+      </c>
+      <c r="AS176">
+        <v>1.19</v>
+      </c>
+      <c r="AT176">
+        <v>2.76</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>7</v>
+      </c>
+      <c r="AW176">
+        <v>10</v>
+      </c>
+      <c r="AX176">
+        <v>4</v>
+      </c>
+      <c r="AY176">
+        <v>15</v>
+      </c>
+      <c r="AZ176">
+        <v>11</v>
+      </c>
+      <c r="BA176">
+        <v>10</v>
+      </c>
+      <c r="BB176">
+        <v>6</v>
+      </c>
+      <c r="BC176">
+        <v>16</v>
+      </c>
+      <c r="BD176">
+        <v>1.48</v>
+      </c>
+      <c r="BE176">
+        <v>6.75</v>
+      </c>
+      <c r="BF176">
+        <v>2.7</v>
+      </c>
+      <c r="BG176">
+        <v>1.23</v>
+      </c>
+      <c r="BH176">
+        <v>3.65</v>
+      </c>
+      <c r="BI176">
+        <v>1.4</v>
+      </c>
+      <c r="BJ176">
+        <v>2.65</v>
+      </c>
+      <c r="BK176">
+        <v>1.67</v>
+      </c>
+      <c r="BL176">
+        <v>2.07</v>
+      </c>
+      <c r="BM176">
+        <v>2.02</v>
+      </c>
+      <c r="BN176">
+        <v>1.68</v>
+      </c>
+      <c r="BO176">
+        <v>2.55</v>
+      </c>
+      <c r="BP176">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,9 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['11', '73']</t>
+  </si>
+  <si>
     <t>['14', '32', '44', '57', '76']</t>
   </si>
   <si>
@@ -941,6 +944,12 @@
   </si>
   <si>
     <t>['33', '41', '57']</t>
+  </si>
+  <si>
+    <t>['64', '75']</t>
+  </si>
+  <si>
+    <t>['55', '63']</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1570,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1642,7 +1651,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ2">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1767,7 +1776,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1973,7 +1982,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2051,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -2257,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1.18</v>
@@ -2385,7 +2394,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2466,7 +2475,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ6">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3003,7 +3012,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3081,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>1.36</v>
@@ -3209,7 +3218,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3496,7 +3505,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ11">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4239,7 +4248,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4445,7 +4454,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4651,7 +4660,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4857,7 +4866,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5475,7 +5484,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5887,7 +5896,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5968,7 +5977,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ23">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR23">
         <v>1.23</v>
@@ -6093,7 +6102,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6171,7 +6180,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -6505,7 +6514,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6792,7 +6801,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ27">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>0.78</v>
@@ -7123,7 +7132,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7201,7 +7210,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.18</v>
@@ -7410,7 +7419,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7613,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>1.73</v>
@@ -7741,7 +7750,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7947,7 +7956,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8025,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
         <v>0.91</v>
@@ -8153,7 +8162,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8359,7 +8368,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8771,7 +8780,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8977,7 +8986,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9183,7 +9192,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9595,7 +9604,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9676,7 +9685,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ41">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR41">
         <v>1.74</v>
@@ -9801,7 +9810,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10419,7 +10428,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10497,10 +10506,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10625,7 +10634,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10909,7 +10918,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>1.55</v>
@@ -11037,7 +11046,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11449,7 +11458,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11655,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11861,7 +11870,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -12067,7 +12076,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12145,10 +12154,10 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12273,7 +12282,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12354,7 +12363,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ54">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -12479,7 +12488,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12560,7 +12569,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR55">
         <v>1.19</v>
@@ -12685,7 +12694,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12891,7 +12900,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12969,7 +12978,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.09</v>
@@ -13097,7 +13106,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13303,7 +13312,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13587,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>0.8</v>
@@ -13715,7 +13724,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13793,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>0.91</v>
@@ -13921,7 +13930,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14333,7 +14342,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14539,7 +14548,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14620,7 +14629,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ65">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14823,7 +14832,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ66">
         <v>1.27</v>
@@ -15363,7 +15372,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15775,7 +15784,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15981,7 +15990,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16062,7 +16071,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR72">
         <v>1.31</v>
@@ -16187,7 +16196,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16268,7 +16277,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16393,7 +16402,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16599,7 +16608,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16680,7 +16689,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16883,7 +16892,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17011,7 +17020,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17629,7 +17638,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17707,10 +17716,10 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR80">
         <v>1.83</v>
@@ -18325,7 +18334,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ83">
         <v>0.55</v>
@@ -18531,7 +18540,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>1.5</v>
@@ -18659,7 +18668,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18740,7 +18749,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ85">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -19071,7 +19080,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19277,7 +19286,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19483,7 +19492,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19689,7 +19698,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20307,7 +20316,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20388,7 +20397,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR93">
         <v>1.38</v>
@@ -20800,7 +20809,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ95">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR95">
         <v>1.62</v>
@@ -20925,7 +20934,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21131,7 +21140,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21337,7 +21346,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21415,7 +21424,7 @@
         <v>0.4</v>
       </c>
       <c r="AP98">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.27</v>
@@ -21543,7 +21552,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21827,7 +21836,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ100">
         <v>1.33</v>
@@ -21955,7 +21964,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22367,7 +22376,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22573,7 +22582,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22857,7 +22866,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
         <v>1.73</v>
@@ -22985,7 +22994,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23066,7 +23075,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ106">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR106">
         <v>1.38</v>
@@ -23191,7 +23200,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23397,7 +23406,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23478,7 +23487,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ108">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR108">
         <v>1.39</v>
@@ -24015,7 +24024,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24096,7 +24105,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ111">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR111">
         <v>1.7</v>
@@ -24221,7 +24230,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24299,7 +24308,7 @@
         <v>0.43</v>
       </c>
       <c r="AP112">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24633,7 +24642,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24839,7 +24848,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25045,7 +25054,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25126,7 +25135,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ116">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR116">
         <v>1.66</v>
@@ -25251,7 +25260,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25538,7 +25547,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR118">
         <v>1.29</v>
@@ -25663,7 +25672,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -26153,7 +26162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ121">
         <v>1.18</v>
@@ -26281,7 +26290,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26565,7 +26574,7 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>1.27</v>
@@ -26899,7 +26908,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27801,7 +27810,7 @@
         <v>0.71</v>
       </c>
       <c r="AP129">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
         <v>0.8</v>
@@ -27929,7 +27938,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28007,10 +28016,10 @@
         <v>2.14</v>
       </c>
       <c r="AP130">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ130">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR130">
         <v>1.78</v>
@@ -28135,7 +28144,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28341,7 +28350,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28625,10 +28634,10 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR133">
         <v>1.47</v>
@@ -28959,7 +28968,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29165,7 +29174,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29371,7 +29380,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29577,7 +29586,7 @@
         <v>88</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>7.7</v>
@@ -29658,7 +29667,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ138">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR138">
         <v>1.03</v>
@@ -30195,7 +30204,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>2.25</v>
@@ -30401,7 +30410,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30479,7 +30488,7 @@
         <v>1.13</v>
       </c>
       <c r="AP142">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ142">
         <v>1.18</v>
@@ -30813,7 +30822,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31225,7 +31234,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>1.56</v>
@@ -31306,7 +31315,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ146">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR146">
         <v>2.27</v>
@@ -31431,7 +31440,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31637,7 +31646,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31843,7 +31852,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q149">
         <v>2.7</v>
@@ -32049,7 +32058,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32255,7 +32264,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32539,7 +32548,7 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ152">
         <v>0.55</v>
@@ -32667,7 +32676,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q153">
         <v>6.25</v>
@@ -32748,7 +32757,7 @@
         <v>1</v>
       </c>
       <c r="AQ153">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR153">
         <v>1.24</v>
@@ -32951,7 +32960,7 @@
         <v>1.22</v>
       </c>
       <c r="AP154">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ154">
         <v>1.09</v>
@@ -33079,7 +33088,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33160,7 +33169,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ155">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR155">
         <v>1.62</v>
@@ -33285,7 +33294,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>2.3</v>
@@ -33491,7 +33500,7 @@
         <v>175</v>
       </c>
       <c r="P157" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33569,7 +33578,7 @@
         <v>1.56</v>
       </c>
       <c r="AP157">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
         <v>1.36</v>
@@ -33697,7 +33706,7 @@
         <v>101</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q158">
         <v>3.1</v>
@@ -34393,7 +34402,7 @@
         <v>0.9</v>
       </c>
       <c r="AP161">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ161">
         <v>0.91</v>
@@ -34727,7 +34736,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -34933,7 +34942,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35220,7 +35229,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ165">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR165">
         <v>2.25</v>
@@ -35345,7 +35354,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35551,7 +35560,7 @@
         <v>88</v>
       </c>
       <c r="P167" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>3.15</v>
@@ -35757,7 +35766,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -35963,7 +35972,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36169,7 +36178,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36456,7 +36465,7 @@
         <v>2</v>
       </c>
       <c r="AQ171">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR171">
         <v>1.74</v>
@@ -36581,7 +36590,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q172">
         <v>2.38</v>
@@ -36787,7 +36796,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -36865,7 +36874,7 @@
         <v>1.1</v>
       </c>
       <c r="AP173">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ173">
         <v>1.09</v>
@@ -36993,7 +37002,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -37199,7 +37208,7 @@
         <v>209</v>
       </c>
       <c r="P175" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37486,7 +37495,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ176">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR176">
         <v>1.57</v>
@@ -37562,6 +37571,624 @@
       </c>
       <c r="BP176">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7292624</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45553.58333333334</v>
+      </c>
+      <c r="F177">
+        <v>24</v>
+      </c>
+      <c r="G177" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" t="s">
+        <v>80</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>88</v>
+      </c>
+      <c r="P177" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q177">
+        <v>4.75</v>
+      </c>
+      <c r="R177">
+        <v>2.38</v>
+      </c>
+      <c r="S177">
+        <v>2.2</v>
+      </c>
+      <c r="T177">
+        <v>1.3</v>
+      </c>
+      <c r="U177">
+        <v>3.4</v>
+      </c>
+      <c r="V177">
+        <v>2.5</v>
+      </c>
+      <c r="W177">
+        <v>1.5</v>
+      </c>
+      <c r="X177">
+        <v>6</v>
+      </c>
+      <c r="Y177">
+        <v>1.13</v>
+      </c>
+      <c r="Z177">
+        <v>4.5</v>
+      </c>
+      <c r="AA177">
+        <v>3.8</v>
+      </c>
+      <c r="AB177">
+        <v>1.7</v>
+      </c>
+      <c r="AC177">
+        <v>1.05</v>
+      </c>
+      <c r="AD177">
+        <v>10</v>
+      </c>
+      <c r="AE177">
+        <v>1.22</v>
+      </c>
+      <c r="AF177">
+        <v>4.33</v>
+      </c>
+      <c r="AG177">
+        <v>1.67</v>
+      </c>
+      <c r="AH177">
+        <v>2.1</v>
+      </c>
+      <c r="AI177">
+        <v>1.67</v>
+      </c>
+      <c r="AJ177">
+        <v>2.1</v>
+      </c>
+      <c r="AK177">
+        <v>2.15</v>
+      </c>
+      <c r="AL177">
+        <v>1.22</v>
+      </c>
+      <c r="AM177">
+        <v>1.15</v>
+      </c>
+      <c r="AN177">
+        <v>2.09</v>
+      </c>
+      <c r="AO177">
+        <v>1.83</v>
+      </c>
+      <c r="AP177">
+        <v>2</v>
+      </c>
+      <c r="AQ177">
+        <v>1.77</v>
+      </c>
+      <c r="AR177">
+        <v>1.48</v>
+      </c>
+      <c r="AS177">
+        <v>1.75</v>
+      </c>
+      <c r="AT177">
+        <v>3.23</v>
+      </c>
+      <c r="AU177">
+        <v>4</v>
+      </c>
+      <c r="AV177">
+        <v>2</v>
+      </c>
+      <c r="AW177">
+        <v>4</v>
+      </c>
+      <c r="AX177">
+        <v>3</v>
+      </c>
+      <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>5</v>
+      </c>
+      <c r="BA177">
+        <v>5</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>10</v>
+      </c>
+      <c r="BD177">
+        <v>3.88</v>
+      </c>
+      <c r="BE177">
+        <v>7.8</v>
+      </c>
+      <c r="BF177">
+        <v>1.43</v>
+      </c>
+      <c r="BG177">
+        <v>1.11</v>
+      </c>
+      <c r="BH177">
+        <v>5.15</v>
+      </c>
+      <c r="BI177">
+        <v>1.25</v>
+      </c>
+      <c r="BJ177">
+        <v>3.42</v>
+      </c>
+      <c r="BK177">
+        <v>1.47</v>
+      </c>
+      <c r="BL177">
+        <v>2.49</v>
+      </c>
+      <c r="BM177">
+        <v>1.77</v>
+      </c>
+      <c r="BN177">
+        <v>1.95</v>
+      </c>
+      <c r="BO177">
+        <v>2.25</v>
+      </c>
+      <c r="BP177">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7292578</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45554.58333333334</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>73</v>
+      </c>
+      <c r="H178" t="s">
+        <v>85</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>146</v>
+      </c>
+      <c r="P178" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q178">
+        <v>2.86</v>
+      </c>
+      <c r="R178">
+        <v>2.35</v>
+      </c>
+      <c r="S178">
+        <v>3.15</v>
+      </c>
+      <c r="T178">
+        <v>1.28</v>
+      </c>
+      <c r="U178">
+        <v>3.48</v>
+      </c>
+      <c r="V178">
+        <v>2.3</v>
+      </c>
+      <c r="W178">
+        <v>1.58</v>
+      </c>
+      <c r="X178">
+        <v>5.2</v>
+      </c>
+      <c r="Y178">
+        <v>1.14</v>
+      </c>
+      <c r="Z178">
+        <v>2.33</v>
+      </c>
+      <c r="AA178">
+        <v>3.65</v>
+      </c>
+      <c r="AB178">
+        <v>2.5</v>
+      </c>
+      <c r="AC178">
+        <v>1.03</v>
+      </c>
+      <c r="AD178">
+        <v>17.75</v>
+      </c>
+      <c r="AE178">
+        <v>1.14</v>
+      </c>
+      <c r="AF178">
+        <v>4.55</v>
+      </c>
+      <c r="AG178">
+        <v>1.55</v>
+      </c>
+      <c r="AH178">
+        <v>2.3</v>
+      </c>
+      <c r="AI178">
+        <v>1.49</v>
+      </c>
+      <c r="AJ178">
+        <v>2.51</v>
+      </c>
+      <c r="AK178">
+        <v>1.48</v>
+      </c>
+      <c r="AL178">
+        <v>1.27</v>
+      </c>
+      <c r="AM178">
+        <v>1.57</v>
+      </c>
+      <c r="AN178">
+        <v>1.64</v>
+      </c>
+      <c r="AO178">
+        <v>2.1</v>
+      </c>
+      <c r="AP178">
+        <v>1.5</v>
+      </c>
+      <c r="AQ178">
+        <v>2.18</v>
+      </c>
+      <c r="AR178">
+        <v>1.77</v>
+      </c>
+      <c r="AS178">
+        <v>1.59</v>
+      </c>
+      <c r="AT178">
+        <v>3.36</v>
+      </c>
+      <c r="AU178">
+        <v>7</v>
+      </c>
+      <c r="AV178">
+        <v>6</v>
+      </c>
+      <c r="AW178">
+        <v>7</v>
+      </c>
+      <c r="AX178">
+        <v>5</v>
+      </c>
+      <c r="AY178">
+        <v>14</v>
+      </c>
+      <c r="AZ178">
+        <v>11</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>6</v>
+      </c>
+      <c r="BD178">
+        <v>1.8</v>
+      </c>
+      <c r="BE178">
+        <v>6.75</v>
+      </c>
+      <c r="BF178">
+        <v>2.05</v>
+      </c>
+      <c r="BG178">
+        <v>1.14</v>
+      </c>
+      <c r="BH178">
+        <v>4.8</v>
+      </c>
+      <c r="BI178">
+        <v>1.25</v>
+      </c>
+      <c r="BJ178">
+        <v>3.4</v>
+      </c>
+      <c r="BK178">
+        <v>1.44</v>
+      </c>
+      <c r="BL178">
+        <v>2.55</v>
+      </c>
+      <c r="BM178">
+        <v>1.7</v>
+      </c>
+      <c r="BN178">
+        <v>2.02</v>
+      </c>
+      <c r="BO178">
+        <v>2.05</v>
+      </c>
+      <c r="BP178">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7292623</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45554.58333333334</v>
+      </c>
+      <c r="F179">
+        <v>24</v>
+      </c>
+      <c r="G179" t="s">
+        <v>77</v>
+      </c>
+      <c r="H179" t="s">
+        <v>70</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" t="s">
+        <v>211</v>
+      </c>
+      <c r="P179" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q179">
+        <v>2</v>
+      </c>
+      <c r="R179">
+        <v>2.63</v>
+      </c>
+      <c r="S179">
+        <v>5</v>
+      </c>
+      <c r="T179">
+        <v>1.22</v>
+      </c>
+      <c r="U179">
+        <v>4</v>
+      </c>
+      <c r="V179">
+        <v>2.1</v>
+      </c>
+      <c r="W179">
+        <v>1.67</v>
+      </c>
+      <c r="X179">
+        <v>4.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.18</v>
+      </c>
+      <c r="Z179">
+        <v>1.35</v>
+      </c>
+      <c r="AA179">
+        <v>5</v>
+      </c>
+      <c r="AB179">
+        <v>6.25</v>
+      </c>
+      <c r="AC179">
+        <v>1.01</v>
+      </c>
+      <c r="AD179">
+        <v>17</v>
+      </c>
+      <c r="AE179">
+        <v>1.15</v>
+      </c>
+      <c r="AF179">
+        <v>5.5</v>
+      </c>
+      <c r="AG179">
+        <v>1.44</v>
+      </c>
+      <c r="AH179">
+        <v>2.6</v>
+      </c>
+      <c r="AI179">
+        <v>1.53</v>
+      </c>
+      <c r="AJ179">
+        <v>2.38</v>
+      </c>
+      <c r="AK179">
+        <v>1.13</v>
+      </c>
+      <c r="AL179">
+        <v>1.15</v>
+      </c>
+      <c r="AM179">
+        <v>2.5</v>
+      </c>
+      <c r="AN179">
+        <v>2.27</v>
+      </c>
+      <c r="AO179">
+        <v>0.82</v>
+      </c>
+      <c r="AP179">
+        <v>2.17</v>
+      </c>
+      <c r="AQ179">
+        <v>0.83</v>
+      </c>
+      <c r="AR179">
+        <v>1.69</v>
+      </c>
+      <c r="AS179">
+        <v>1.21</v>
+      </c>
+      <c r="AT179">
+        <v>2.9</v>
+      </c>
+      <c r="AU179">
+        <v>4</v>
+      </c>
+      <c r="AV179">
+        <v>7</v>
+      </c>
+      <c r="AW179">
+        <v>5</v>
+      </c>
+      <c r="AX179">
+        <v>7</v>
+      </c>
+      <c r="AY179">
+        <v>9</v>
+      </c>
+      <c r="AZ179">
+        <v>14</v>
+      </c>
+      <c r="BA179">
+        <v>12</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>18</v>
+      </c>
+      <c r="BD179">
+        <v>1.3</v>
+      </c>
+      <c r="BE179">
+        <v>10</v>
+      </c>
+      <c r="BF179">
+        <v>4.42</v>
+      </c>
+      <c r="BG179">
+        <v>1.18</v>
+      </c>
+      <c r="BH179">
+        <v>4.3</v>
+      </c>
+      <c r="BI179">
+        <v>1.3</v>
+      </c>
+      <c r="BJ179">
+        <v>3.05</v>
+      </c>
+      <c r="BK179">
+        <v>1.52</v>
+      </c>
+      <c r="BL179">
+        <v>2.33</v>
+      </c>
+      <c r="BM179">
+        <v>1.95</v>
+      </c>
+      <c r="BN179">
+        <v>1.85</v>
+      </c>
+      <c r="BO179">
+        <v>2.23</v>
+      </c>
+      <c r="BP179">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1311,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2269,7 +2269,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ15">
         <v>1.55</v>
@@ -4947,7 +4947,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ18">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR18">
         <v>2.67</v>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ21">
         <v>1.09</v>
@@ -7213,7 +7213,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR29">
         <v>1.27</v>
@@ -9270,7 +9270,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ39">
         <v>1.18</v>
@@ -9479,7 +9479,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -10097,7 +10097,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ43">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR43">
         <v>2.45</v>
@@ -11536,7 +11536,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ50">
         <v>0.55</v>
@@ -13393,7 +13393,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ59">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>0.92</v>
@@ -14835,7 +14835,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ66">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR66">
         <v>1.53</v>
@@ -16068,7 +16068,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ72">
         <v>0.83</v>
@@ -16483,7 +16483,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ74">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR74">
         <v>1.46</v>
@@ -17925,7 +17925,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ81">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -21218,7 +21218,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ97">
         <v>0.8</v>
@@ -21427,7 +21427,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR98">
         <v>1.85</v>
@@ -21633,7 +21633,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ99">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR99">
         <v>1.17</v>
@@ -24514,7 +24514,7 @@
         <v>1.29</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24723,7 +24723,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR114">
         <v>1</v>
@@ -25544,7 +25544,7 @@
         <v>2.5</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ118">
         <v>2.18</v>
@@ -26165,7 +26165,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ121">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26577,7 +26577,7 @@
         <v>2</v>
       </c>
       <c r="AQ123">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -27607,7 +27607,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ128">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR128">
         <v>1.54</v>
@@ -28431,7 +28431,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ132">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR132">
         <v>1.71</v>
@@ -29458,7 +29458,7 @@
         <v>1.25</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ137">
         <v>1.73</v>
@@ -30697,7 +30697,7 @@
         <v>2</v>
       </c>
       <c r="AQ143">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR143">
         <v>1.74</v>
@@ -31933,7 +31933,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ149">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR149">
         <v>1.53</v>
@@ -32754,7 +32754,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ153">
         <v>1.77</v>
@@ -33787,7 +33787,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ158">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR158">
         <v>1.34</v>
@@ -34611,7 +34611,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ162">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR162">
         <v>1.31</v>
@@ -36671,7 +36671,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ172">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR172">
         <v>1.43</v>
@@ -37286,7 +37286,7 @@
         <v>1.5</v>
       </c>
       <c r="AP175">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ175">
         <v>1.36</v>
@@ -38189,6 +38189,418 @@
       </c>
       <c r="BP179">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7292618</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45556.41666666666</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>83</v>
+      </c>
+      <c r="H180" t="s">
+        <v>76</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>88</v>
+      </c>
+      <c r="P180" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q180">
+        <v>4.73</v>
+      </c>
+      <c r="R180">
+        <v>2.25</v>
+      </c>
+      <c r="S180">
+        <v>2.49</v>
+      </c>
+      <c r="T180">
+        <v>1.4</v>
+      </c>
+      <c r="U180">
+        <v>2.98</v>
+      </c>
+      <c r="V180">
+        <v>2.97</v>
+      </c>
+      <c r="W180">
+        <v>1.4</v>
+      </c>
+      <c r="X180">
+        <v>7.3</v>
+      </c>
+      <c r="Y180">
+        <v>1.07</v>
+      </c>
+      <c r="Z180">
+        <v>4</v>
+      </c>
+      <c r="AA180">
+        <v>3.4</v>
+      </c>
+      <c r="AB180">
+        <v>1.85</v>
+      </c>
+      <c r="AC180">
+        <v>1.02</v>
+      </c>
+      <c r="AD180">
+        <v>8.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.28</v>
+      </c>
+      <c r="AF180">
+        <v>3.22</v>
+      </c>
+      <c r="AG180">
+        <v>1.85</v>
+      </c>
+      <c r="AH180">
+        <v>1.85</v>
+      </c>
+      <c r="AI180">
+        <v>1.77</v>
+      </c>
+      <c r="AJ180">
+        <v>1.9</v>
+      </c>
+      <c r="AK180">
+        <v>1.9</v>
+      </c>
+      <c r="AL180">
+        <v>1.31</v>
+      </c>
+      <c r="AM180">
+        <v>1.23</v>
+      </c>
+      <c r="AN180">
+        <v>1</v>
+      </c>
+      <c r="AO180">
+        <v>1.27</v>
+      </c>
+      <c r="AP180">
+        <v>0.92</v>
+      </c>
+      <c r="AQ180">
+        <v>1.42</v>
+      </c>
+      <c r="AR180">
+        <v>1.27</v>
+      </c>
+      <c r="AS180">
+        <v>1.33</v>
+      </c>
+      <c r="AT180">
+        <v>2.6</v>
+      </c>
+      <c r="AU180">
+        <v>4</v>
+      </c>
+      <c r="AV180">
+        <v>5</v>
+      </c>
+      <c r="AW180">
+        <v>5</v>
+      </c>
+      <c r="AX180">
+        <v>4</v>
+      </c>
+      <c r="AY180">
+        <v>9</v>
+      </c>
+      <c r="AZ180">
+        <v>9</v>
+      </c>
+      <c r="BA180">
+        <v>4</v>
+      </c>
+      <c r="BB180">
+        <v>4</v>
+      </c>
+      <c r="BC180">
+        <v>8</v>
+      </c>
+      <c r="BD180">
+        <v>2.55</v>
+      </c>
+      <c r="BE180">
+        <v>6.75</v>
+      </c>
+      <c r="BF180">
+        <v>1.54</v>
+      </c>
+      <c r="BG180">
+        <v>1.24</v>
+      </c>
+      <c r="BH180">
+        <v>3.65</v>
+      </c>
+      <c r="BI180">
+        <v>1.41</v>
+      </c>
+      <c r="BJ180">
+        <v>2.65</v>
+      </c>
+      <c r="BK180">
+        <v>1.67</v>
+      </c>
+      <c r="BL180">
+        <v>2.07</v>
+      </c>
+      <c r="BM180">
+        <v>2.05</v>
+      </c>
+      <c r="BN180">
+        <v>1.68</v>
+      </c>
+      <c r="BO180">
+        <v>2.55</v>
+      </c>
+      <c r="BP180">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7292620</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45556.52083333334</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>78</v>
+      </c>
+      <c r="H181" t="s">
+        <v>79</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181" t="s">
+        <v>88</v>
+      </c>
+      <c r="P181" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q181">
+        <v>2.8</v>
+      </c>
+      <c r="R181">
+        <v>2.2</v>
+      </c>
+      <c r="S181">
+        <v>3.4</v>
+      </c>
+      <c r="T181">
+        <v>1.32</v>
+      </c>
+      <c r="U181">
+        <v>3.22</v>
+      </c>
+      <c r="V181">
+        <v>2.51</v>
+      </c>
+      <c r="W181">
+        <v>1.53</v>
+      </c>
+      <c r="X181">
+        <v>5.85</v>
+      </c>
+      <c r="Y181">
+        <v>1.11</v>
+      </c>
+      <c r="Z181">
+        <v>2.3</v>
+      </c>
+      <c r="AA181">
+        <v>3.4</v>
+      </c>
+      <c r="AB181">
+        <v>2.9</v>
+      </c>
+      <c r="AC181">
+        <v>1.01</v>
+      </c>
+      <c r="AD181">
+        <v>11</v>
+      </c>
+      <c r="AE181">
+        <v>1.17</v>
+      </c>
+      <c r="AF181">
+        <v>4.5</v>
+      </c>
+      <c r="AG181">
+        <v>1.7</v>
+      </c>
+      <c r="AH181">
+        <v>2.05</v>
+      </c>
+      <c r="AI181">
+        <v>1.57</v>
+      </c>
+      <c r="AJ181">
+        <v>2.38</v>
+      </c>
+      <c r="AK181">
+        <v>1.42</v>
+      </c>
+      <c r="AL181">
+        <v>1.25</v>
+      </c>
+      <c r="AM181">
+        <v>1.57</v>
+      </c>
+      <c r="AN181">
+        <v>1</v>
+      </c>
+      <c r="AO181">
+        <v>1.18</v>
+      </c>
+      <c r="AP181">
+        <v>1</v>
+      </c>
+      <c r="AQ181">
+        <v>1.17</v>
+      </c>
+      <c r="AR181">
+        <v>1.52</v>
+      </c>
+      <c r="AS181">
+        <v>1.26</v>
+      </c>
+      <c r="AT181">
+        <v>2.78</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>6</v>
+      </c>
+      <c r="AW181">
+        <v>3</v>
+      </c>
+      <c r="AX181">
+        <v>3</v>
+      </c>
+      <c r="AY181">
+        <v>8</v>
+      </c>
+      <c r="AZ181">
+        <v>9</v>
+      </c>
+      <c r="BA181">
+        <v>7</v>
+      </c>
+      <c r="BB181">
+        <v>8</v>
+      </c>
+      <c r="BC181">
+        <v>15</v>
+      </c>
+      <c r="BD181">
+        <v>1.77</v>
+      </c>
+      <c r="BE181">
+        <v>6.5</v>
+      </c>
+      <c r="BF181">
+        <v>2.12</v>
+      </c>
+      <c r="BG181">
+        <v>1.19</v>
+      </c>
+      <c r="BH181">
+        <v>4.1</v>
+      </c>
+      <c r="BI181">
+        <v>1.33</v>
+      </c>
+      <c r="BJ181">
+        <v>2.95</v>
+      </c>
+      <c r="BK181">
+        <v>1.53</v>
+      </c>
+      <c r="BL181">
+        <v>2.3</v>
+      </c>
+      <c r="BM181">
+        <v>1.84</v>
+      </c>
+      <c r="BN181">
+        <v>1.84</v>
+      </c>
+      <c r="BO181">
+        <v>2.3</v>
+      </c>
+      <c r="BP181">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -650,6 +650,12 @@
   </si>
   <si>
     <t>['11', '73']</t>
+  </si>
+  <si>
+    <t>['38', '43']</t>
+  </si>
+  <si>
+    <t>['19', '54', '59']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -1311,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1576,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1776,7 +1782,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1982,7 +1988,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2060,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -2394,7 +2400,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2475,7 +2481,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ6">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2887,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3012,7 +3018,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3090,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ9">
         <v>1.36</v>
@@ -3218,7 +3224,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3711,7 +3717,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ12">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4248,7 +4254,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4454,7 +4460,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4532,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16">
         <v>1.18</v>
@@ -4660,7 +4666,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4866,7 +4872,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5484,7 +5490,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5896,7 +5902,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5974,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
         <v>1.77</v>
@@ -6102,7 +6108,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6514,7 +6520,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -7007,7 +7013,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR28">
         <v>2.62</v>
@@ -7132,7 +7138,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7210,7 +7216,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ29">
         <v>1.17</v>
@@ -7419,7 +7425,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7625,7 +7631,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>1.67</v>
@@ -7750,7 +7756,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7956,7 +7962,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8034,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ33">
         <v>0.91</v>
@@ -8162,7 +8168,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8368,7 +8374,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8780,7 +8786,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8986,7 +8992,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9067,7 +9073,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ38">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>0.8</v>
@@ -9192,7 +9198,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9604,7 +9610,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9810,7 +9816,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9888,7 +9894,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42">
         <v>0.55</v>
@@ -10428,7 +10434,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10634,7 +10640,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10918,7 +10924,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ47">
         <v>1.55</v>
@@ -11046,7 +11052,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11333,7 +11339,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -11458,7 +11464,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11664,7 +11670,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11870,7 +11876,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -12076,7 +12082,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12154,7 +12160,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ53">
         <v>1.77</v>
@@ -12282,7 +12288,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12363,7 +12369,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ54">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -12488,7 +12494,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12694,7 +12700,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12900,7 +12906,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12978,7 +12984,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ57">
         <v>1.09</v>
@@ -13106,7 +13112,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13312,7 +13318,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13596,10 +13602,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13724,7 +13730,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13930,7 +13936,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14011,7 +14017,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ62">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR62">
         <v>1.3</v>
@@ -14342,7 +14348,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14420,7 +14426,7 @@
         <v>1.75</v>
       </c>
       <c r="AP64">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ64">
         <v>1.33</v>
@@ -14548,7 +14554,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14832,7 +14838,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ66">
         <v>1.42</v>
@@ -15247,7 +15253,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ68">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15372,7 +15378,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15784,7 +15790,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15990,7 +15996,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16196,7 +16202,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16277,7 +16283,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16402,7 +16408,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16608,7 +16614,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16892,7 +16898,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17020,7 +17026,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17098,7 +17104,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ77">
         <v>0.91</v>
@@ -17307,7 +17313,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ78">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17638,7 +17644,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -18334,7 +18340,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ83">
         <v>0.55</v>
@@ -18540,7 +18546,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ84">
         <v>1.5</v>
@@ -18668,7 +18674,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18749,7 +18755,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ85">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -19080,7 +19086,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19286,7 +19292,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19492,7 +19498,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19698,7 +19704,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20316,7 +20322,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20934,7 +20940,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21015,7 +21021,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ96">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21140,7 +21146,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21221,7 +21227,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ97">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR97">
         <v>1.29</v>
@@ -21346,7 +21352,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21552,7 +21558,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21630,7 +21636,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -21836,7 +21842,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ100">
         <v>1.33</v>
@@ -21964,7 +21970,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22248,7 +22254,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ102">
         <v>1.09</v>
@@ -22376,7 +22382,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22582,7 +22588,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22866,10 +22872,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ105">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR105">
         <v>1.51</v>
@@ -22994,7 +23000,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23075,7 +23081,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ106">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR106">
         <v>1.38</v>
@@ -23200,7 +23206,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23406,7 +23412,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -24024,7 +24030,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24230,7 +24236,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24642,7 +24648,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24848,7 +24854,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25054,7 +25060,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25260,7 +25266,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25338,7 +25344,7 @@
         <v>1.43</v>
       </c>
       <c r="AP117">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25547,7 +25553,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ118">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR118">
         <v>1.29</v>
@@ -25672,7 +25678,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25753,7 +25759,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -26162,7 +26168,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ121">
         <v>1.17</v>
@@ -26290,7 +26296,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26371,7 +26377,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ122">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR122">
         <v>1.19</v>
@@ -26574,7 +26580,7 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ123">
         <v>1.42</v>
@@ -26908,7 +26914,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27813,7 +27819,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR129">
         <v>1.82</v>
@@ -27938,7 +27944,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28016,10 +28022,10 @@
         <v>2.14</v>
       </c>
       <c r="AP130">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ130">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR130">
         <v>1.78</v>
@@ -28144,7 +28150,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28350,7 +28356,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28634,7 +28640,7 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ133">
         <v>0.83</v>
@@ -28968,7 +28974,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29046,7 +29052,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ135">
         <v>1.55</v>
@@ -29174,7 +29180,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29380,7 +29386,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29461,7 +29467,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ137">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR137">
         <v>1.24</v>
@@ -29586,7 +29592,7 @@
         <v>88</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>7.7</v>
@@ -29873,7 +29879,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ139">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR139">
         <v>1.34</v>
@@ -30204,7 +30210,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>2.25</v>
@@ -30410,7 +30416,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30488,7 +30494,7 @@
         <v>1.13</v>
       </c>
       <c r="AP142">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ142">
         <v>1.18</v>
@@ -30822,7 +30828,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31234,7 +31240,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q146">
         <v>1.56</v>
@@ -31440,7 +31446,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31518,10 +31524,10 @@
         <v>1.44</v>
       </c>
       <c r="AP147">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ147">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR147">
         <v>1.32</v>
@@ -31646,7 +31652,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31852,7 +31858,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q149">
         <v>2.7</v>
@@ -32058,7 +32064,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32264,7 +32270,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32548,7 +32554,7 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ152">
         <v>0.55</v>
@@ -32676,7 +32682,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q153">
         <v>6.25</v>
@@ -32960,7 +32966,7 @@
         <v>1.22</v>
       </c>
       <c r="AP154">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ154">
         <v>1.09</v>
@@ -33088,7 +33094,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33169,7 +33175,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ155">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR155">
         <v>1.62</v>
@@ -33294,7 +33300,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>2.3</v>
@@ -33500,7 +33506,7 @@
         <v>175</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33706,7 +33712,7 @@
         <v>101</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q158">
         <v>3.1</v>
@@ -33993,7 +33999,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ159">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR159">
         <v>1.01</v>
@@ -34402,7 +34408,7 @@
         <v>0.9</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ161">
         <v>0.91</v>
@@ -34608,7 +34614,7 @@
         <v>1.1</v>
       </c>
       <c r="AP162">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ162">
         <v>1.42</v>
@@ -34736,7 +34742,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -34942,7 +34948,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35229,7 +35235,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ165">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR165">
         <v>2.25</v>
@@ -35354,7 +35360,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35560,7 +35566,7 @@
         <v>88</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q167">
         <v>3.15</v>
@@ -35641,7 +35647,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ167">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR167">
         <v>1.29</v>
@@ -35766,7 +35772,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -35972,7 +35978,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36178,7 +36184,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36590,7 +36596,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q172">
         <v>2.38</v>
@@ -36796,7 +36802,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -37002,7 +37008,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -37208,7 +37214,7 @@
         <v>209</v>
       </c>
       <c r="P175" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37698,7 +37704,7 @@
         <v>1.83</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ177">
         <v>1.77</v>
@@ -37826,7 +37832,7 @@
         <v>146</v>
       </c>
       <c r="P178" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q178">
         <v>2.86</v>
@@ -37907,7 +37913,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ178">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR178">
         <v>1.77</v>
@@ -38032,7 +38038,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38110,7 +38116,7 @@
         <v>0.82</v>
       </c>
       <c r="AP179">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ179">
         <v>0.83</v>
@@ -38238,7 +38244,7 @@
         <v>88</v>
       </c>
       <c r="P180" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q180">
         <v>4.73</v>
@@ -38601,6 +38607,624 @@
       </c>
       <c r="BP181">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7292619</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45557.375</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>84</v>
+      </c>
+      <c r="H182" t="s">
+        <v>82</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>212</v>
+      </c>
+      <c r="P182" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q182">
+        <v>3</v>
+      </c>
+      <c r="R182">
+        <v>2.25</v>
+      </c>
+      <c r="S182">
+        <v>3.59</v>
+      </c>
+      <c r="T182">
+        <v>1.38</v>
+      </c>
+      <c r="U182">
+        <v>3.07</v>
+      </c>
+      <c r="V182">
+        <v>2.87</v>
+      </c>
+      <c r="W182">
+        <v>1.42</v>
+      </c>
+      <c r="X182">
+        <v>7</v>
+      </c>
+      <c r="Y182">
+        <v>1.09</v>
+      </c>
+      <c r="Z182">
+        <v>2.3</v>
+      </c>
+      <c r="AA182">
+        <v>3.4</v>
+      </c>
+      <c r="AB182">
+        <v>2.9</v>
+      </c>
+      <c r="AC182">
+        <v>1.06</v>
+      </c>
+      <c r="AD182">
+        <v>7.2</v>
+      </c>
+      <c r="AE182">
+        <v>1.25</v>
+      </c>
+      <c r="AF182">
+        <v>3.5</v>
+      </c>
+      <c r="AG182">
+        <v>1.87</v>
+      </c>
+      <c r="AH182">
+        <v>1.93</v>
+      </c>
+      <c r="AI182">
+        <v>1.65</v>
+      </c>
+      <c r="AJ182">
+        <v>2.1</v>
+      </c>
+      <c r="AK182">
+        <v>1.3</v>
+      </c>
+      <c r="AL182">
+        <v>1.32</v>
+      </c>
+      <c r="AM182">
+        <v>1.55</v>
+      </c>
+      <c r="AN182">
+        <v>0.45</v>
+      </c>
+      <c r="AO182">
+        <v>0.8</v>
+      </c>
+      <c r="AP182">
+        <v>0.67</v>
+      </c>
+      <c r="AQ182">
+        <v>0.73</v>
+      </c>
+      <c r="AR182">
+        <v>1.27</v>
+      </c>
+      <c r="AS182">
+        <v>1.6</v>
+      </c>
+      <c r="AT182">
+        <v>2.87</v>
+      </c>
+      <c r="AU182">
+        <v>6</v>
+      </c>
+      <c r="AV182">
+        <v>6</v>
+      </c>
+      <c r="AW182">
+        <v>6</v>
+      </c>
+      <c r="AX182">
+        <v>4</v>
+      </c>
+      <c r="AY182">
+        <v>12</v>
+      </c>
+      <c r="AZ182">
+        <v>10</v>
+      </c>
+      <c r="BA182">
+        <v>7</v>
+      </c>
+      <c r="BB182">
+        <v>9</v>
+      </c>
+      <c r="BC182">
+        <v>16</v>
+      </c>
+      <c r="BD182">
+        <v>2.05</v>
+      </c>
+      <c r="BE182">
+        <v>6.75</v>
+      </c>
+      <c r="BF182">
+        <v>1.82</v>
+      </c>
+      <c r="BG182">
+        <v>1.21</v>
+      </c>
+      <c r="BH182">
+        <v>3.9</v>
+      </c>
+      <c r="BI182">
+        <v>1.38</v>
+      </c>
+      <c r="BJ182">
+        <v>2.8</v>
+      </c>
+      <c r="BK182">
+        <v>1.61</v>
+      </c>
+      <c r="BL182">
+        <v>2.15</v>
+      </c>
+      <c r="BM182">
+        <v>1.96</v>
+      </c>
+      <c r="BN182">
+        <v>1.74</v>
+      </c>
+      <c r="BO182">
+        <v>2.45</v>
+      </c>
+      <c r="BP182">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7292616</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45557.375</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>77</v>
+      </c>
+      <c r="H183" t="s">
+        <v>71</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183" t="s">
+        <v>88</v>
+      </c>
+      <c r="P183" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q183">
+        <v>2.5</v>
+      </c>
+      <c r="R183">
+        <v>2.3</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.3</v>
+      </c>
+      <c r="U183">
+        <v>3.4</v>
+      </c>
+      <c r="V183">
+        <v>2.5</v>
+      </c>
+      <c r="W183">
+        <v>1.5</v>
+      </c>
+      <c r="X183">
+        <v>6</v>
+      </c>
+      <c r="Y183">
+        <v>1.13</v>
+      </c>
+      <c r="Z183">
+        <v>1.8</v>
+      </c>
+      <c r="AA183">
+        <v>3.8</v>
+      </c>
+      <c r="AB183">
+        <v>3.9</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>11</v>
+      </c>
+      <c r="AE183">
+        <v>1.14</v>
+      </c>
+      <c r="AF183">
+        <v>4.8</v>
+      </c>
+      <c r="AG183">
+        <v>1.62</v>
+      </c>
+      <c r="AH183">
+        <v>2.2</v>
+      </c>
+      <c r="AI183">
+        <v>1.62</v>
+      </c>
+      <c r="AJ183">
+        <v>2.2</v>
+      </c>
+      <c r="AK183">
+        <v>1.23</v>
+      </c>
+      <c r="AL183">
+        <v>1.24</v>
+      </c>
+      <c r="AM183">
+        <v>1.96</v>
+      </c>
+      <c r="AN183">
+        <v>2.17</v>
+      </c>
+      <c r="AO183">
+        <v>1.73</v>
+      </c>
+      <c r="AP183">
+        <v>2.08</v>
+      </c>
+      <c r="AQ183">
+        <v>1.67</v>
+      </c>
+      <c r="AR183">
+        <v>1.65</v>
+      </c>
+      <c r="AS183">
+        <v>1.44</v>
+      </c>
+      <c r="AT183">
+        <v>3.09</v>
+      </c>
+      <c r="AU183">
+        <v>3</v>
+      </c>
+      <c r="AV183">
+        <v>5</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>4</v>
+      </c>
+      <c r="AY183">
+        <v>6</v>
+      </c>
+      <c r="AZ183">
+        <v>9</v>
+      </c>
+      <c r="BA183">
+        <v>8</v>
+      </c>
+      <c r="BB183">
+        <v>6</v>
+      </c>
+      <c r="BC183">
+        <v>14</v>
+      </c>
+      <c r="BD183">
+        <v>1.5</v>
+      </c>
+      <c r="BE183">
+        <v>7</v>
+      </c>
+      <c r="BF183">
+        <v>2.55</v>
+      </c>
+      <c r="BG183">
+        <v>1.14</v>
+      </c>
+      <c r="BH183">
+        <v>4.8</v>
+      </c>
+      <c r="BI183">
+        <v>1.25</v>
+      </c>
+      <c r="BJ183">
+        <v>3.45</v>
+      </c>
+      <c r="BK183">
+        <v>1.43</v>
+      </c>
+      <c r="BL183">
+        <v>2.55</v>
+      </c>
+      <c r="BM183">
+        <v>1.67</v>
+      </c>
+      <c r="BN183">
+        <v>2.07</v>
+      </c>
+      <c r="BO183">
+        <v>2.02</v>
+      </c>
+      <c r="BP183">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7292617</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45557.375</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>72</v>
+      </c>
+      <c r="H184" t="s">
+        <v>85</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>213</v>
+      </c>
+      <c r="P184" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q184">
+        <v>3.4</v>
+      </c>
+      <c r="R184">
+        <v>2.2</v>
+      </c>
+      <c r="S184">
+        <v>3</v>
+      </c>
+      <c r="T184">
+        <v>1.36</v>
+      </c>
+      <c r="U184">
+        <v>3</v>
+      </c>
+      <c r="V184">
+        <v>2.63</v>
+      </c>
+      <c r="W184">
+        <v>1.44</v>
+      </c>
+      <c r="X184">
+        <v>7</v>
+      </c>
+      <c r="Y184">
+        <v>1.1</v>
+      </c>
+      <c r="Z184">
+        <v>2.85</v>
+      </c>
+      <c r="AA184">
+        <v>3.5</v>
+      </c>
+      <c r="AB184">
+        <v>2.3</v>
+      </c>
+      <c r="AC184">
+        <v>1.01</v>
+      </c>
+      <c r="AD184">
+        <v>11</v>
+      </c>
+      <c r="AE184">
+        <v>1.2</v>
+      </c>
+      <c r="AF184">
+        <v>4</v>
+      </c>
+      <c r="AG184">
+        <v>1.73</v>
+      </c>
+      <c r="AH184">
+        <v>2.03</v>
+      </c>
+      <c r="AI184">
+        <v>1.67</v>
+      </c>
+      <c r="AJ184">
+        <v>2.1</v>
+      </c>
+      <c r="AK184">
+        <v>1.57</v>
+      </c>
+      <c r="AL184">
+        <v>1.28</v>
+      </c>
+      <c r="AM184">
+        <v>1.41</v>
+      </c>
+      <c r="AN184">
+        <v>2</v>
+      </c>
+      <c r="AO184">
+        <v>2.18</v>
+      </c>
+      <c r="AP184">
+        <v>2.08</v>
+      </c>
+      <c r="AQ184">
+        <v>2</v>
+      </c>
+      <c r="AR184">
+        <v>1.45</v>
+      </c>
+      <c r="AS184">
+        <v>1.57</v>
+      </c>
+      <c r="AT184">
+        <v>3.02</v>
+      </c>
+      <c r="AU184">
+        <v>9</v>
+      </c>
+      <c r="AV184">
+        <v>5</v>
+      </c>
+      <c r="AW184">
+        <v>5</v>
+      </c>
+      <c r="AX184">
+        <v>7</v>
+      </c>
+      <c r="AY184">
+        <v>14</v>
+      </c>
+      <c r="AZ184">
+        <v>12</v>
+      </c>
+      <c r="BA184">
+        <v>4</v>
+      </c>
+      <c r="BB184">
+        <v>6</v>
+      </c>
+      <c r="BC184">
+        <v>10</v>
+      </c>
+      <c r="BD184">
+        <v>2.02</v>
+      </c>
+      <c r="BE184">
+        <v>6.75</v>
+      </c>
+      <c r="BF184">
+        <v>1.84</v>
+      </c>
+      <c r="BG184">
+        <v>1.2</v>
+      </c>
+      <c r="BH184">
+        <v>4</v>
+      </c>
+      <c r="BI184">
+        <v>1.34</v>
+      </c>
+      <c r="BJ184">
+        <v>2.9</v>
+      </c>
+      <c r="BK184">
+        <v>1.57</v>
+      </c>
+      <c r="BL184">
+        <v>2.23</v>
+      </c>
+      <c r="BM184">
+        <v>1.9</v>
+      </c>
+      <c r="BN184">
+        <v>1.79</v>
+      </c>
+      <c r="BO184">
+        <v>2.35</v>
+      </c>
+      <c r="BP184">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,7 +655,25 @@
     <t>['38', '43']</t>
   </si>
   <si>
+    <t>['7', '48', '80', '83']</t>
+  </si>
+  <si>
     <t>['19', '54', '59']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['16', '80']</t>
+  </si>
+  <si>
+    <t>['32', '49']</t>
+  </si>
+  <si>
+    <t>['7', '64']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -956,6 +974,18 @@
   </si>
   <si>
     <t>['55', '63']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['14', '40']</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1606,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1782,7 +1812,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1860,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1988,7 +2018,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2069,7 +2099,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2400,7 +2430,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2478,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2684,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ7">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3018,7 +3048,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3099,7 +3129,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ9">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3224,7 +3254,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3305,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3508,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ11">
         <v>0.83</v>
@@ -3714,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ12">
         <v>1.67</v>
@@ -3920,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4126,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4254,7 +4284,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4460,7 +4490,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4666,7 +4696,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4744,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4872,7 +4902,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -4950,10 +4980,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ18">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR18">
         <v>2.67</v>
@@ -5156,10 +5186,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ19">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR19">
         <v>1.04</v>
@@ -5490,7 +5520,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5571,7 +5601,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ21">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5774,7 +5804,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>1.55</v>
@@ -5902,7 +5932,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6108,7 +6138,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6189,7 +6219,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6392,7 +6422,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6520,7 +6550,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6598,10 +6628,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ26">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6804,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ27">
         <v>0.83</v>
@@ -7010,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ28">
         <v>0.73</v>
@@ -7138,7 +7168,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7756,7 +7786,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7834,10 +7864,10 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR32">
         <v>0.76</v>
@@ -7962,7 +7992,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8043,7 +8073,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ33">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -8168,7 +8198,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8374,7 +8404,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8452,10 +8482,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8661,7 +8691,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8786,7 +8816,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8992,7 +9022,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9070,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
         <v>1.67</v>
@@ -9198,7 +9228,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9482,7 +9512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -9610,7 +9640,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9688,7 +9718,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
         <v>1.77</v>
@@ -9816,7 +9846,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9897,7 +9927,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ42">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR42">
         <v>0.88</v>
@@ -10100,10 +10130,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ43">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR43">
         <v>2.45</v>
@@ -10306,7 +10336,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
         <v>1.18</v>
@@ -10434,7 +10464,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10640,7 +10670,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10721,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR46">
         <v>1.52</v>
@@ -11052,7 +11082,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11130,10 +11160,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ48">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR48">
         <v>1.87</v>
@@ -11336,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>0.73</v>
@@ -11464,7 +11494,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11545,7 +11575,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ50">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR50">
         <v>1.18</v>
@@ -11670,7 +11700,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11748,10 +11778,10 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11876,7 +11906,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11954,10 +11984,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12082,7 +12112,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12288,7 +12318,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12366,7 +12396,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12494,7 +12524,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12700,7 +12730,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12778,10 +12808,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.45</v>
@@ -12906,7 +12936,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -12987,7 +13017,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ57">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR57">
         <v>1.42</v>
@@ -13112,7 +13142,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13318,7 +13348,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13396,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>1.17</v>
@@ -13730,7 +13760,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13811,7 +13841,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR61">
         <v>1.81</v>
@@ -13936,7 +13966,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14220,7 +14250,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14348,7 +14378,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14429,7 +14459,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR64">
         <v>0.97</v>
@@ -14554,7 +14584,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14632,7 +14662,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ65">
         <v>1.77</v>
@@ -14841,7 +14871,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ66">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR66">
         <v>1.53</v>
@@ -15044,10 +15074,10 @@
         <v>2.33</v>
       </c>
       <c r="AP67">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -15250,7 +15280,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ68">
         <v>1.67</v>
@@ -15378,7 +15408,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15456,10 +15486,10 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ69">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.65</v>
@@ -15662,7 +15692,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ70">
         <v>1.18</v>
@@ -15790,7 +15820,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -15868,10 +15898,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ71">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR71">
         <v>1.6</v>
@@ -15996,7 +16026,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16202,7 +16232,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16408,7 +16438,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16486,10 +16516,10 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR74">
         <v>1.46</v>
@@ -16614,7 +16644,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -17026,7 +17056,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17107,7 +17137,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ77">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR77">
         <v>1.03</v>
@@ -17310,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ78">
         <v>0.73</v>
@@ -17516,10 +17546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17644,7 +17674,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17928,7 +17958,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ81">
         <v>1.17</v>
@@ -18134,10 +18164,10 @@
         <v>1.2</v>
       </c>
       <c r="AP82">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ82">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR82">
         <v>2.18</v>
@@ -18343,7 +18373,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ83">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18549,7 +18579,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ84">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18674,7 +18704,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18752,7 +18782,7 @@
         <v>2.25</v>
       </c>
       <c r="AP85">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ85">
         <v>2</v>
@@ -18958,7 +18988,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>1.55</v>
@@ -19086,7 +19116,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19164,10 +19194,10 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR87">
         <v>1.67</v>
@@ -19292,7 +19322,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19373,7 +19403,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ88">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19498,7 +19528,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19579,7 +19609,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19704,7 +19734,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19782,7 +19812,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19988,10 +20018,10 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.51</v>
@@ -20194,7 +20224,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20322,7 +20352,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20606,7 +20636,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
         <v>1.18</v>
@@ -20812,7 +20842,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ95">
         <v>0.83</v>
@@ -20940,7 +20970,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21018,7 +21048,7 @@
         <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96">
         <v>1.67</v>
@@ -21146,7 +21176,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21352,7 +21382,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21433,7 +21463,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR98">
         <v>1.85</v>
@@ -21558,7 +21588,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21845,7 +21875,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR100">
         <v>1.64</v>
@@ -21970,7 +22000,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22048,7 +22078,7 @@
         <v>1.17</v>
       </c>
       <c r="AP101">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ101">
         <v>1.55</v>
@@ -22257,7 +22287,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ102">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22382,7 +22412,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22463,7 +22493,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22588,7 +22618,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22666,10 +22696,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ104">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR104">
         <v>2.32</v>
@@ -23000,7 +23030,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23206,7 +23236,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23284,10 +23314,10 @@
         <v>1.17</v>
       </c>
       <c r="AP107">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -23412,7 +23442,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23490,7 +23520,7 @@
         <v>2</v>
       </c>
       <c r="AP108">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ108">
         <v>1.77</v>
@@ -23696,7 +23726,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ109">
         <v>1.18</v>
@@ -23902,10 +23932,10 @@
         <v>2.17</v>
       </c>
       <c r="AP110">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>1.61</v>
@@ -24030,7 +24060,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24108,7 +24138,7 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ111">
         <v>0.83</v>
@@ -24236,7 +24266,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24523,7 +24553,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR113">
         <v>1.31</v>
@@ -24648,7 +24678,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24726,10 +24756,10 @@
         <v>0.33</v>
       </c>
       <c r="AP114">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR114">
         <v>1</v>
@@ -24854,7 +24884,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24932,10 +24962,10 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR115">
         <v>1.56</v>
@@ -25060,7 +25090,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25138,7 +25168,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116">
         <v>1.77</v>
@@ -25266,7 +25296,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25347,7 +25377,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR117">
         <v>1.22</v>
@@ -25678,7 +25708,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25965,7 +25995,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ120">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -26296,7 +26326,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26374,7 +26404,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ122">
         <v>0.73</v>
@@ -26583,7 +26613,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ123">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -26789,7 +26819,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ124">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR124">
         <v>1.32</v>
@@ -26914,7 +26944,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -26992,10 +27022,10 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ125">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR125">
         <v>1.17</v>
@@ -27198,7 +27228,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ126">
         <v>1.55</v>
@@ -27404,10 +27434,10 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR127">
         <v>0.99</v>
@@ -27610,7 +27640,7 @@
         <v>1.29</v>
       </c>
       <c r="AP128">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
         <v>1.17</v>
@@ -27944,7 +27974,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28150,7 +28180,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28356,7 +28386,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28434,10 +28464,10 @@
         <v>0.63</v>
       </c>
       <c r="AP132">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ132">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR132">
         <v>1.71</v>
@@ -28849,7 +28879,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -28974,7 +29004,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29180,7 +29210,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29258,10 +29288,10 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ136">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR136">
         <v>1.58</v>
@@ -29386,7 +29416,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29592,7 +29622,7 @@
         <v>88</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q138">
         <v>7.7</v>
@@ -29670,7 +29700,7 @@
         <v>1.89</v>
       </c>
       <c r="AP138">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ138">
         <v>1.77</v>
@@ -30082,10 +30112,10 @@
         <v>1.63</v>
       </c>
       <c r="AP140">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ140">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
         <v>1.21</v>
@@ -30210,7 +30240,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q141">
         <v>2.25</v>
@@ -30288,10 +30318,10 @@
         <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ141">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR141">
         <v>1.6</v>
@@ -30416,7 +30446,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30828,7 +30858,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -30906,10 +30936,10 @@
         <v>1.67</v>
       </c>
       <c r="AP144">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR144">
         <v>1.57</v>
@@ -31112,7 +31142,7 @@
         <v>1.44</v>
       </c>
       <c r="AP145">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ145">
         <v>1.55</v>
@@ -31240,7 +31270,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>1.56</v>
@@ -31318,7 +31348,7 @@
         <v>0.89</v>
       </c>
       <c r="AP146">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ146">
         <v>0.83</v>
@@ -31446,7 +31476,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31652,7 +31682,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31730,10 +31760,10 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ148">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR148">
         <v>1.63</v>
@@ -31858,7 +31888,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q149">
         <v>2.7</v>
@@ -31936,10 +31966,10 @@
         <v>0.89</v>
       </c>
       <c r="AP149">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ149">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR149">
         <v>1.53</v>
@@ -32064,7 +32094,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32142,7 +32172,7 @@
         <v>0.75</v>
       </c>
       <c r="AP150">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32270,7 +32300,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32351,7 +32381,7 @@
         <v>1</v>
       </c>
       <c r="AQ151">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32557,7 +32587,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ152">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR152">
         <v>1.46</v>
@@ -32682,7 +32712,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q153">
         <v>6.25</v>
@@ -32969,7 +32999,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ154">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR154">
         <v>1.7</v>
@@ -33094,7 +33124,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33172,7 +33202,7 @@
         <v>2.25</v>
       </c>
       <c r="AP155">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ155">
         <v>2</v>
@@ -33300,7 +33330,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q156">
         <v>2.3</v>
@@ -33381,7 +33411,7 @@
         <v>2</v>
       </c>
       <c r="AQ156">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR156">
         <v>1.71</v>
@@ -33506,7 +33536,7 @@
         <v>175</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33587,7 +33617,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ157">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR157">
         <v>1.74</v>
@@ -33712,7 +33742,7 @@
         <v>101</v>
       </c>
       <c r="P158" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>3.1</v>
@@ -33996,7 +34026,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP159">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ159">
         <v>0.73</v>
@@ -34202,7 +34232,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ160">
         <v>1.18</v>
@@ -34411,7 +34441,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ161">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR161">
         <v>1.5</v>
@@ -34617,7 +34647,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ162">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR162">
         <v>1.31</v>
@@ -34742,7 +34772,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -34820,10 +34850,10 @@
         <v>0.6</v>
       </c>
       <c r="AP163">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ163">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR163">
         <v>1.33</v>
@@ -34948,7 +34978,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35026,7 +35056,7 @@
         <v>1.4</v>
       </c>
       <c r="AP164">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ164">
         <v>1.55</v>
@@ -35232,7 +35262,7 @@
         <v>2.33</v>
       </c>
       <c r="AP165">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AQ165">
         <v>2</v>
@@ -35360,7 +35390,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35566,7 +35596,7 @@
         <v>88</v>
       </c>
       <c r="P167" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>3.15</v>
@@ -35644,7 +35674,7 @@
         <v>1.6</v>
       </c>
       <c r="AP167">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ167">
         <v>1.67</v>
@@ -35772,7 +35802,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -35853,7 +35883,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ168">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR168">
         <v>1.37</v>
@@ -35978,7 +36008,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36056,7 +36086,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ169">
         <v>1.18</v>
@@ -36184,7 +36214,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36262,10 +36292,10 @@
         <v>1.45</v>
       </c>
       <c r="AP170">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ170">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR170">
         <v>1.62</v>
@@ -36596,7 +36626,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q172">
         <v>2.38</v>
@@ -36674,7 +36704,7 @@
         <v>1.2</v>
       </c>
       <c r="AP172">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ172">
         <v>1.17</v>
@@ -36802,7 +36832,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -36883,7 +36913,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ173">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR173">
         <v>1.73</v>
@@ -37008,7 +37038,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -37086,7 +37116,7 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ174">
         <v>1</v>
@@ -37214,7 +37244,7 @@
         <v>209</v>
       </c>
       <c r="P175" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37295,7 +37325,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ175">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR175">
         <v>1.24</v>
@@ -37498,7 +37528,7 @@
         <v>0.8</v>
       </c>
       <c r="AP176">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ176">
         <v>0.83</v>
@@ -37832,7 +37862,7 @@
         <v>146</v>
       </c>
       <c r="P178" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q178">
         <v>2.86</v>
@@ -38038,7 +38068,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38202,7 +38232,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7292618</v>
+        <v>7292620</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38211,16 +38241,16 @@
         <v>69</v>
       </c>
       <c r="E180" s="2">
-        <v>45556.41666666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F180">
         <v>23</v>
       </c>
       <c r="G180" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H180" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -38235,172 +38265,172 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O180" t="s">
         <v>88</v>
       </c>
       <c r="P180" t="s">
-        <v>255</v>
+        <v>88</v>
       </c>
       <c r="Q180">
-        <v>4.73</v>
+        <v>2.8</v>
       </c>
       <c r="R180">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S180">
-        <v>2.49</v>
+        <v>3.4</v>
       </c>
       <c r="T180">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="U180">
-        <v>2.98</v>
+        <v>3.22</v>
       </c>
       <c r="V180">
-        <v>2.97</v>
+        <v>2.51</v>
       </c>
       <c r="W180">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X180">
-        <v>7.3</v>
+        <v>5.85</v>
       </c>
       <c r="Y180">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z180">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="AA180">
         <v>3.4</v>
       </c>
       <c r="AB180">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="AC180">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD180">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AE180">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AF180">
-        <v>3.22</v>
+        <v>4.5</v>
       </c>
       <c r="AG180">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AH180">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AI180">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AJ180">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="AK180">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="AL180">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AM180">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
       <c r="AN180">
         <v>1</v>
       </c>
       <c r="AO180">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AP180">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ180">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AR180">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="AS180">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT180">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AU180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV180">
         <v>5</v>
       </c>
       <c r="AW180">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY180">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ180">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA180">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB180">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC180">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD180">
-        <v>2.55</v>
+        <v>1.77</v>
       </c>
       <c r="BE180">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF180">
+        <v>2.12</v>
+      </c>
+      <c r="BG180">
+        <v>1.19</v>
+      </c>
+      <c r="BH180">
+        <v>4.1</v>
+      </c>
+      <c r="BI180">
+        <v>1.33</v>
+      </c>
+      <c r="BJ180">
+        <v>2.95</v>
+      </c>
+      <c r="BK180">
+        <v>1.53</v>
+      </c>
+      <c r="BL180">
+        <v>2.3</v>
+      </c>
+      <c r="BM180">
+        <v>1.84</v>
+      </c>
+      <c r="BN180">
+        <v>1.84</v>
+      </c>
+      <c r="BO180">
+        <v>2.3</v>
+      </c>
+      <c r="BP180">
         <v>1.54</v>
-      </c>
-      <c r="BG180">
-        <v>1.24</v>
-      </c>
-      <c r="BH180">
-        <v>3.65</v>
-      </c>
-      <c r="BI180">
-        <v>1.41</v>
-      </c>
-      <c r="BJ180">
-        <v>2.65</v>
-      </c>
-      <c r="BK180">
-        <v>1.67</v>
-      </c>
-      <c r="BL180">
-        <v>2.07</v>
-      </c>
-      <c r="BM180">
-        <v>2.05</v>
-      </c>
-      <c r="BN180">
-        <v>1.68</v>
-      </c>
-      <c r="BO180">
-        <v>2.55</v>
-      </c>
-      <c r="BP180">
-        <v>1.44</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -38408,7 +38438,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7292620</v>
+        <v>7292618</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38417,16 +38447,16 @@
         <v>69</v>
       </c>
       <c r="E181" s="2">
-        <v>45556.52083333334</v>
+        <v>45556.41666666666</v>
       </c>
       <c r="F181">
         <v>23</v>
       </c>
       <c r="G181" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H181" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -38441,172 +38471,172 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O181" t="s">
         <v>88</v>
       </c>
       <c r="P181" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="Q181">
-        <v>2.8</v>
+        <v>4.73</v>
       </c>
       <c r="R181">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S181">
-        <v>3.4</v>
+        <v>2.49</v>
       </c>
       <c r="T181">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="U181">
-        <v>3.22</v>
+        <v>2.98</v>
       </c>
       <c r="V181">
-        <v>2.51</v>
+        <v>2.97</v>
       </c>
       <c r="W181">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X181">
-        <v>5.85</v>
+        <v>7.3</v>
       </c>
       <c r="Y181">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z181">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="AA181">
         <v>3.4</v>
       </c>
       <c r="AB181">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="AC181">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD181">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AE181">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AF181">
-        <v>4.5</v>
+        <v>3.22</v>
       </c>
       <c r="AG181">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AH181">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AI181">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AJ181">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="AK181">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="AL181">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AM181">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="AN181">
         <v>1</v>
       </c>
       <c r="AO181">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ181">
-        <v>1.17</v>
+        <v>1.54</v>
       </c>
       <c r="AR181">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="AS181">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AT181">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU181">
+        <v>4</v>
+      </c>
+      <c r="AV181">
         <v>5</v>
       </c>
-      <c r="AV181">
-        <v>6</v>
-      </c>
       <c r="AW181">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY181">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ181">
         <v>9</v>
       </c>
       <c r="BA181">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB181">
+        <v>4</v>
+      </c>
+      <c r="BC181">
         <v>8</v>
       </c>
-      <c r="BC181">
-        <v>15</v>
-      </c>
       <c r="BD181">
-        <v>1.77</v>
+        <v>2.55</v>
       </c>
       <c r="BE181">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF181">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="BG181">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="BH181">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="BI181">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="BJ181">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="BK181">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="BL181">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="BM181">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="BN181">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="BO181">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="BP181">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="182" spans="1:68">
@@ -38623,7 +38653,7 @@
         <v>69</v>
       </c>
       <c r="E182" s="2">
-        <v>45557.375</v>
+        <v>45556.875</v>
       </c>
       <c r="F182">
         <v>23</v>
@@ -38749,10 +38779,10 @@
         <v>2.87</v>
       </c>
       <c r="AU182">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV182">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW182">
         <v>6</v>
@@ -38761,10 +38791,10 @@
         <v>4</v>
       </c>
       <c r="AY182">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ182">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA182">
         <v>7</v>
@@ -38820,7 +38850,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7292616</v>
+        <v>7292614</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38829,196 +38859,196 @@
         <v>69</v>
       </c>
       <c r="E183" s="2">
-        <v>45557.375</v>
+        <v>45556.875</v>
       </c>
       <c r="F183">
         <v>23</v>
       </c>
       <c r="G183" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H183" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M183">
         <v>0</v>
       </c>
       <c r="N183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O183" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="P183" t="s">
         <v>88</v>
       </c>
       <c r="Q183">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="R183">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T183">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="U183">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="V183">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="X183">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="Y183">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="Z183">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="AA183">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="AB183">
-        <v>3.9</v>
+        <v>5.25</v>
       </c>
       <c r="AC183">
         <v>1.01</v>
       </c>
       <c r="AD183">
-        <v>11</v>
+        <v>27.5</v>
       </c>
       <c r="AE183">
+        <v>1.06</v>
+      </c>
+      <c r="AF183">
+        <v>5.7</v>
+      </c>
+      <c r="AG183">
+        <v>1.36</v>
+      </c>
+      <c r="AH183">
+        <v>2.89</v>
+      </c>
+      <c r="AI183">
+        <v>1.5</v>
+      </c>
+      <c r="AJ183">
+        <v>2.5</v>
+      </c>
+      <c r="AK183">
         <v>1.14</v>
       </c>
-      <c r="AF183">
-        <v>4.8</v>
-      </c>
-      <c r="AG183">
-        <v>1.62</v>
-      </c>
-      <c r="AH183">
-        <v>2.2</v>
-      </c>
-      <c r="AI183">
-        <v>1.62</v>
-      </c>
-      <c r="AJ183">
-        <v>2.2</v>
-      </c>
-      <c r="AK183">
-        <v>1.23</v>
-      </c>
       <c r="AL183">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AM183">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="AN183">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="AO183">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>2.08</v>
+        <v>2.73</v>
       </c>
       <c r="AQ183">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR183">
-        <v>1.65</v>
+        <v>2.18</v>
       </c>
       <c r="AS183">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AT183">
-        <v>3.09</v>
+        <v>3.67</v>
       </c>
       <c r="AU183">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV183">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX183">
+        <v>6</v>
+      </c>
+      <c r="AY183">
+        <v>9</v>
+      </c>
+      <c r="AZ183">
+        <v>8</v>
+      </c>
+      <c r="BA183">
         <v>4</v>
       </c>
-      <c r="AY183">
-        <v>6</v>
-      </c>
-      <c r="AZ183">
-        <v>9</v>
-      </c>
-      <c r="BA183">
+      <c r="BB183">
+        <v>4</v>
+      </c>
+      <c r="BC183">
         <v>8</v>
       </c>
-      <c r="BB183">
-        <v>6</v>
-      </c>
-      <c r="BC183">
-        <v>14</v>
-      </c>
       <c r="BD183">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="BE183">
         <v>7</v>
       </c>
       <c r="BF183">
-        <v>2.55</v>
+        <v>3.45</v>
       </c>
       <c r="BG183">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH183">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="BI183">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BJ183">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="BK183">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="BL183">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="BM183">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="BN183">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="BO183">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="BP183">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -39026,7 +39056,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7292617</v>
+        <v>7292616</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -39035,76 +39065,76 @@
         <v>69</v>
       </c>
       <c r="E184" s="2">
-        <v>45557.375</v>
+        <v>45556.875</v>
       </c>
       <c r="F184">
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H184" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="K184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M184">
         <v>0</v>
       </c>
       <c r="N184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O184" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="P184" t="s">
         <v>88</v>
       </c>
       <c r="Q184">
+        <v>2.5</v>
+      </c>
+      <c r="R184">
+        <v>2.3</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>1.3</v>
+      </c>
+      <c r="U184">
         <v>3.4</v>
       </c>
-      <c r="R184">
-        <v>2.2</v>
-      </c>
-      <c r="S184">
-        <v>3</v>
-      </c>
-      <c r="T184">
-        <v>1.36</v>
-      </c>
-      <c r="U184">
-        <v>3</v>
-      </c>
       <c r="V184">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W184">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X184">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y184">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z184">
-        <v>2.85</v>
+        <v>1.8</v>
       </c>
       <c r="AA184">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB184">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="AC184">
         <v>1.01</v>
@@ -39113,118 +39143,1766 @@
         <v>11</v>
       </c>
       <c r="AE184">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AF184">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AG184">
+        <v>1.62</v>
+      </c>
+      <c r="AH184">
+        <v>2.2</v>
+      </c>
+      <c r="AI184">
+        <v>1.62</v>
+      </c>
+      <c r="AJ184">
+        <v>2.2</v>
+      </c>
+      <c r="AK184">
+        <v>1.23</v>
+      </c>
+      <c r="AL184">
+        <v>1.24</v>
+      </c>
+      <c r="AM184">
+        <v>1.96</v>
+      </c>
+      <c r="AN184">
+        <v>2.17</v>
+      </c>
+      <c r="AO184">
         <v>1.73</v>
-      </c>
-      <c r="AH184">
-        <v>2.03</v>
-      </c>
-      <c r="AI184">
-        <v>1.67</v>
-      </c>
-      <c r="AJ184">
-        <v>2.1</v>
-      </c>
-      <c r="AK184">
-        <v>1.57</v>
-      </c>
-      <c r="AL184">
-        <v>1.28</v>
-      </c>
-      <c r="AM184">
-        <v>1.41</v>
-      </c>
-      <c r="AN184">
-        <v>2</v>
-      </c>
-      <c r="AO184">
-        <v>2.18</v>
       </c>
       <c r="AP184">
         <v>2.08</v>
       </c>
       <c r="AQ184">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR184">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AS184">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AT184">
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="AU184">
+        <v>6</v>
+      </c>
+      <c r="AV184">
+        <v>7</v>
+      </c>
+      <c r="AW184">
+        <v>4</v>
+      </c>
+      <c r="AX184">
+        <v>2</v>
+      </c>
+      <c r="AY184">
+        <v>10</v>
+      </c>
+      <c r="AZ184">
         <v>9</v>
       </c>
-      <c r="AV184">
-        <v>5</v>
-      </c>
-      <c r="AW184">
-        <v>5</v>
-      </c>
-      <c r="AX184">
-        <v>7</v>
-      </c>
-      <c r="AY184">
-        <v>14</v>
-      </c>
-      <c r="AZ184">
-        <v>12</v>
-      </c>
       <c r="BA184">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB184">
         <v>6</v>
       </c>
       <c r="BC184">
+        <v>14</v>
+      </c>
+      <c r="BD184">
+        <v>1.5</v>
+      </c>
+      <c r="BE184">
+        <v>7</v>
+      </c>
+      <c r="BF184">
+        <v>2.55</v>
+      </c>
+      <c r="BG184">
+        <v>1.14</v>
+      </c>
+      <c r="BH184">
+        <v>4.8</v>
+      </c>
+      <c r="BI184">
+        <v>1.25</v>
+      </c>
+      <c r="BJ184">
+        <v>3.45</v>
+      </c>
+      <c r="BK184">
+        <v>1.43</v>
+      </c>
+      <c r="BL184">
+        <v>2.55</v>
+      </c>
+      <c r="BM184">
+        <v>1.67</v>
+      </c>
+      <c r="BN184">
+        <v>2.07</v>
+      </c>
+      <c r="BO184">
+        <v>2.02</v>
+      </c>
+      <c r="BP184">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7292617</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F185">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" t="s">
+        <v>85</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>214</v>
+      </c>
+      <c r="P185" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q185">
+        <v>3.4</v>
+      </c>
+      <c r="R185">
+        <v>2.2</v>
+      </c>
+      <c r="S185">
+        <v>3</v>
+      </c>
+      <c r="T185">
+        <v>1.36</v>
+      </c>
+      <c r="U185">
+        <v>3</v>
+      </c>
+      <c r="V185">
+        <v>2.63</v>
+      </c>
+      <c r="W185">
+        <v>1.44</v>
+      </c>
+      <c r="X185">
+        <v>7</v>
+      </c>
+      <c r="Y185">
+        <v>1.1</v>
+      </c>
+      <c r="Z185">
+        <v>2.85</v>
+      </c>
+      <c r="AA185">
+        <v>3.5</v>
+      </c>
+      <c r="AB185">
+        <v>2.3</v>
+      </c>
+      <c r="AC185">
+        <v>1.01</v>
+      </c>
+      <c r="AD185">
+        <v>11</v>
+      </c>
+      <c r="AE185">
+        <v>1.2</v>
+      </c>
+      <c r="AF185">
+        <v>4</v>
+      </c>
+      <c r="AG185">
+        <v>1.73</v>
+      </c>
+      <c r="AH185">
+        <v>2.03</v>
+      </c>
+      <c r="AI185">
+        <v>1.67</v>
+      </c>
+      <c r="AJ185">
+        <v>2.1</v>
+      </c>
+      <c r="AK185">
+        <v>1.57</v>
+      </c>
+      <c r="AL185">
+        <v>1.28</v>
+      </c>
+      <c r="AM185">
+        <v>1.41</v>
+      </c>
+      <c r="AN185">
+        <v>2</v>
+      </c>
+      <c r="AO185">
+        <v>2.18</v>
+      </c>
+      <c r="AP185">
+        <v>2.08</v>
+      </c>
+      <c r="AQ185">
+        <v>2</v>
+      </c>
+      <c r="AR185">
+        <v>1.45</v>
+      </c>
+      <c r="AS185">
+        <v>1.57</v>
+      </c>
+      <c r="AT185">
+        <v>3.02</v>
+      </c>
+      <c r="AU185">
+        <v>2</v>
+      </c>
+      <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>4</v>
+      </c>
+      <c r="AX185">
+        <v>5</v>
+      </c>
+      <c r="AY185">
+        <v>6</v>
+      </c>
+      <c r="AZ185">
+        <v>9</v>
+      </c>
+      <c r="BA185">
+        <v>4</v>
+      </c>
+      <c r="BB185">
+        <v>6</v>
+      </c>
+      <c r="BC185">
         <v>10</v>
       </c>
-      <c r="BD184">
+      <c r="BD185">
         <v>2.02</v>
       </c>
-      <c r="BE184">
+      <c r="BE185">
         <v>6.75</v>
       </c>
-      <c r="BF184">
+      <c r="BF185">
         <v>1.84</v>
       </c>
-      <c r="BG184">
+      <c r="BG185">
         <v>1.2</v>
       </c>
-      <c r="BH184">
+      <c r="BH185">
         <v>4</v>
       </c>
-      <c r="BI184">
+      <c r="BI185">
         <v>1.34</v>
       </c>
-      <c r="BJ184">
+      <c r="BJ185">
         <v>2.9</v>
       </c>
-      <c r="BK184">
+      <c r="BK185">
         <v>1.57</v>
       </c>
-      <c r="BL184">
+      <c r="BL185">
         <v>2.23</v>
       </c>
-      <c r="BM184">
+      <c r="BM185">
         <v>1.9</v>
       </c>
-      <c r="BN184">
+      <c r="BN185">
         <v>1.79</v>
       </c>
-      <c r="BO184">
+      <c r="BO185">
         <v>2.35</v>
       </c>
-      <c r="BP184">
+      <c r="BP185">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7292613</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45557.875</v>
+      </c>
+      <c r="F186">
+        <v>23</v>
+      </c>
+      <c r="G186" t="s">
+        <v>74</v>
+      </c>
+      <c r="H186" t="s">
+        <v>81</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>146</v>
+      </c>
+      <c r="P186" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q186">
+        <v>2.1</v>
+      </c>
+      <c r="R186">
+        <v>2.38</v>
+      </c>
+      <c r="S186">
+        <v>5.5</v>
+      </c>
+      <c r="T186">
+        <v>1.33</v>
+      </c>
+      <c r="U186">
+        <v>3.25</v>
+      </c>
+      <c r="V186">
+        <v>2.63</v>
+      </c>
+      <c r="W186">
+        <v>1.44</v>
+      </c>
+      <c r="X186">
+        <v>6.5</v>
+      </c>
+      <c r="Y186">
+        <v>1.11</v>
+      </c>
+      <c r="Z186">
+        <v>1.5</v>
+      </c>
+      <c r="AA186">
+        <v>4.1</v>
+      </c>
+      <c r="AB186">
+        <v>5.5</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>10.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.18</v>
+      </c>
+      <c r="AF186">
+        <v>3.74</v>
+      </c>
+      <c r="AG186">
+        <v>1.7</v>
+      </c>
+      <c r="AH186">
+        <v>2</v>
+      </c>
+      <c r="AI186">
+        <v>1.8</v>
+      </c>
+      <c r="AJ186">
+        <v>1.95</v>
+      </c>
+      <c r="AK186">
+        <v>1.14</v>
+      </c>
+      <c r="AL186">
+        <v>1.22</v>
+      </c>
+      <c r="AM186">
+        <v>2.43</v>
+      </c>
+      <c r="AN186">
+        <v>0.91</v>
+      </c>
+      <c r="AO186">
+        <v>0.55</v>
+      </c>
+      <c r="AP186">
+        <v>0.92</v>
+      </c>
+      <c r="AQ186">
+        <v>0.58</v>
+      </c>
+      <c r="AR186">
+        <v>1.22</v>
+      </c>
+      <c r="AS186">
+        <v>1.01</v>
+      </c>
+      <c r="AT186">
+        <v>2.23</v>
+      </c>
+      <c r="AU186">
+        <v>4</v>
+      </c>
+      <c r="AV186">
+        <v>5</v>
+      </c>
+      <c r="AW186">
+        <v>5</v>
+      </c>
+      <c r="AX186">
+        <v>5</v>
+      </c>
+      <c r="AY186">
+        <v>9</v>
+      </c>
+      <c r="AZ186">
+        <v>10</v>
+      </c>
+      <c r="BA186">
+        <v>12</v>
+      </c>
+      <c r="BB186">
+        <v>5</v>
+      </c>
+      <c r="BC186">
+        <v>17</v>
+      </c>
+      <c r="BD186">
+        <v>1.34</v>
+      </c>
+      <c r="BE186">
+        <v>10</v>
+      </c>
+      <c r="BF186">
+        <v>3.84</v>
+      </c>
+      <c r="BG186">
+        <v>1.13</v>
+      </c>
+      <c r="BH186">
+        <v>5.5</v>
+      </c>
+      <c r="BI186">
+        <v>1.26</v>
+      </c>
+      <c r="BJ186">
+        <v>3.6</v>
+      </c>
+      <c r="BK186">
+        <v>1.45</v>
+      </c>
+      <c r="BL186">
+        <v>2.6</v>
+      </c>
+      <c r="BM186">
+        <v>1.85</v>
+      </c>
+      <c r="BN186">
+        <v>1.95</v>
+      </c>
+      <c r="BO186">
+        <v>2.16</v>
+      </c>
+      <c r="BP186">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7292626</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45560.58333333334</v>
+      </c>
+      <c r="F187">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s">
+        <v>75</v>
+      </c>
+      <c r="H187" t="s">
+        <v>76</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>88</v>
+      </c>
+      <c r="P187" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q187">
+        <v>3.35</v>
+      </c>
+      <c r="R187">
+        <v>2.34</v>
+      </c>
+      <c r="S187">
+        <v>3.04</v>
+      </c>
+      <c r="T187">
+        <v>1.34</v>
+      </c>
+      <c r="U187">
+        <v>3.26</v>
+      </c>
+      <c r="V187">
+        <v>2.63</v>
+      </c>
+      <c r="W187">
+        <v>1.49</v>
+      </c>
+      <c r="X187">
+        <v>5.75</v>
+      </c>
+      <c r="Y187">
+        <v>1.1</v>
+      </c>
+      <c r="Z187">
+        <v>2.7</v>
+      </c>
+      <c r="AA187">
+        <v>3.4</v>
+      </c>
+      <c r="AB187">
+        <v>2.3</v>
+      </c>
+      <c r="AC187">
+        <v>1.01</v>
+      </c>
+      <c r="AD187">
+        <v>11</v>
+      </c>
+      <c r="AE187">
+        <v>1.24</v>
+      </c>
+      <c r="AF187">
+        <v>4.07</v>
+      </c>
+      <c r="AG187">
+        <v>1.79</v>
+      </c>
+      <c r="AH187">
+        <v>2.02</v>
+      </c>
+      <c r="AI187">
+        <v>1.57</v>
+      </c>
+      <c r="AJ187">
+        <v>2.38</v>
+      </c>
+      <c r="AK187">
+        <v>1.55</v>
+      </c>
+      <c r="AL187">
+        <v>1.29</v>
+      </c>
+      <c r="AM187">
+        <v>1.45</v>
+      </c>
+      <c r="AN187">
+        <v>1.55</v>
+      </c>
+      <c r="AO187">
+        <v>1.42</v>
+      </c>
+      <c r="AP187">
+        <v>1.42</v>
+      </c>
+      <c r="AQ187">
+        <v>1.54</v>
+      </c>
+      <c r="AR187">
+        <v>1.64</v>
+      </c>
+      <c r="AS187">
+        <v>1.33</v>
+      </c>
+      <c r="AT187">
+        <v>2.97</v>
+      </c>
+      <c r="AU187">
+        <v>7</v>
+      </c>
+      <c r="AV187">
+        <v>3</v>
+      </c>
+      <c r="AW187">
+        <v>4</v>
+      </c>
+      <c r="AX187">
+        <v>6</v>
+      </c>
+      <c r="AY187">
+        <v>11</v>
+      </c>
+      <c r="AZ187">
+        <v>9</v>
+      </c>
+      <c r="BA187">
+        <v>4</v>
+      </c>
+      <c r="BB187">
+        <v>4</v>
+      </c>
+      <c r="BC187">
+        <v>8</v>
+      </c>
+      <c r="BD187">
+        <v>2.08</v>
+      </c>
+      <c r="BE187">
+        <v>6.5</v>
+      </c>
+      <c r="BF187">
+        <v>1.78</v>
+      </c>
+      <c r="BG187">
+        <v>1.21</v>
+      </c>
+      <c r="BH187">
+        <v>3.9</v>
+      </c>
+      <c r="BI187">
+        <v>1.37</v>
+      </c>
+      <c r="BJ187">
+        <v>2.8</v>
+      </c>
+      <c r="BK187">
+        <v>1.61</v>
+      </c>
+      <c r="BL187">
+        <v>2.15</v>
+      </c>
+      <c r="BM187">
+        <v>1.96</v>
+      </c>
+      <c r="BN187">
+        <v>1.74</v>
+      </c>
+      <c r="BO187">
+        <v>2.45</v>
+      </c>
+      <c r="BP187">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7292627</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45560.58333333334</v>
+      </c>
+      <c r="F188">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s">
+        <v>79</v>
+      </c>
+      <c r="H188" t="s">
+        <v>84</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>215</v>
+      </c>
+      <c r="P188" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q188">
+        <v>2.6</v>
+      </c>
+      <c r="R188">
+        <v>2.2</v>
+      </c>
+      <c r="S188">
+        <v>4.33</v>
+      </c>
+      <c r="T188">
+        <v>1.4</v>
+      </c>
+      <c r="U188">
+        <v>2.75</v>
+      </c>
+      <c r="V188">
+        <v>2.75</v>
+      </c>
+      <c r="W188">
+        <v>1.4</v>
+      </c>
+      <c r="X188">
+        <v>8</v>
+      </c>
+      <c r="Y188">
+        <v>1.08</v>
+      </c>
+      <c r="Z188">
+        <v>1.93</v>
+      </c>
+      <c r="AA188">
+        <v>3.3</v>
+      </c>
+      <c r="AB188">
+        <v>3.6</v>
+      </c>
+      <c r="AC188">
+        <v>1.05</v>
+      </c>
+      <c r="AD188">
+        <v>11</v>
+      </c>
+      <c r="AE188">
+        <v>1.32</v>
+      </c>
+      <c r="AF188">
+        <v>3.4</v>
+      </c>
+      <c r="AG188">
+        <v>1.95</v>
+      </c>
+      <c r="AH188">
+        <v>1.85</v>
+      </c>
+      <c r="AI188">
+        <v>1.8</v>
+      </c>
+      <c r="AJ188">
+        <v>1.95</v>
+      </c>
+      <c r="AK188">
+        <v>1.26</v>
+      </c>
+      <c r="AL188">
+        <v>1.29</v>
+      </c>
+      <c r="AM188">
+        <v>1.88</v>
+      </c>
+      <c r="AN188">
+        <v>2.18</v>
+      </c>
+      <c r="AO188">
+        <v>1.36</v>
+      </c>
+      <c r="AP188">
+        <v>2.08</v>
+      </c>
+      <c r="AQ188">
+        <v>1.33</v>
+      </c>
+      <c r="AR188">
+        <v>1.33</v>
+      </c>
+      <c r="AS188">
+        <v>1.37</v>
+      </c>
+      <c r="AT188">
+        <v>2.7</v>
+      </c>
+      <c r="AU188">
+        <v>8</v>
+      </c>
+      <c r="AV188">
+        <v>7</v>
+      </c>
+      <c r="AW188">
+        <v>6</v>
+      </c>
+      <c r="AX188">
+        <v>2</v>
+      </c>
+      <c r="AY188">
+        <v>14</v>
+      </c>
+      <c r="AZ188">
+        <v>9</v>
+      </c>
+      <c r="BA188">
+        <v>12</v>
+      </c>
+      <c r="BB188">
+        <v>7</v>
+      </c>
+      <c r="BC188">
+        <v>19</v>
+      </c>
+      <c r="BD188">
+        <v>1.49</v>
+      </c>
+      <c r="BE188">
+        <v>6.75</v>
+      </c>
+      <c r="BF188">
+        <v>2.7</v>
+      </c>
+      <c r="BG188">
+        <v>1.2</v>
+      </c>
+      <c r="BH188">
+        <v>3.95</v>
+      </c>
+      <c r="BI188">
+        <v>1.34</v>
+      </c>
+      <c r="BJ188">
+        <v>2.9</v>
+      </c>
+      <c r="BK188">
+        <v>1.56</v>
+      </c>
+      <c r="BL188">
+        <v>2.23</v>
+      </c>
+      <c r="BM188">
+        <v>1.89</v>
+      </c>
+      <c r="BN188">
+        <v>1.8</v>
+      </c>
+      <c r="BO188">
+        <v>2.33</v>
+      </c>
+      <c r="BP188">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7292621</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45560.58333333334</v>
+      </c>
+      <c r="F189">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s">
+        <v>85</v>
+      </c>
+      <c r="H189" t="s">
+        <v>78</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189" t="s">
+        <v>216</v>
+      </c>
+      <c r="P189" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q189">
+        <v>2.25</v>
+      </c>
+      <c r="R189">
+        <v>2.4</v>
+      </c>
+      <c r="S189">
+        <v>4.75</v>
+      </c>
+      <c r="T189">
+        <v>1.3</v>
+      </c>
+      <c r="U189">
+        <v>3.4</v>
+      </c>
+      <c r="V189">
+        <v>2.38</v>
+      </c>
+      <c r="W189">
+        <v>1.53</v>
+      </c>
+      <c r="X189">
+        <v>6</v>
+      </c>
+      <c r="Y189">
+        <v>1.13</v>
+      </c>
+      <c r="Z189">
+        <v>1.61</v>
+      </c>
+      <c r="AA189">
+        <v>3.9</v>
+      </c>
+      <c r="AB189">
+        <v>4.5</v>
+      </c>
+      <c r="AC189">
+        <v>1.03</v>
+      </c>
+      <c r="AD189">
+        <v>16.75</v>
+      </c>
+      <c r="AE189">
+        <v>1.21</v>
+      </c>
+      <c r="AF189">
+        <v>4.52</v>
+      </c>
+      <c r="AG189">
+        <v>1.6</v>
+      </c>
+      <c r="AH189">
+        <v>2.35</v>
+      </c>
+      <c r="AI189">
+        <v>1.67</v>
+      </c>
+      <c r="AJ189">
+        <v>2.1</v>
+      </c>
+      <c r="AK189">
+        <v>1.22</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>2.15</v>
+      </c>
+      <c r="AN189">
+        <v>1.64</v>
+      </c>
+      <c r="AO189">
+        <v>1.33</v>
+      </c>
+      <c r="AP189">
+        <v>1.75</v>
+      </c>
+      <c r="AQ189">
+        <v>1.23</v>
+      </c>
+      <c r="AR189">
+        <v>1.47</v>
+      </c>
+      <c r="AS189">
+        <v>1.5</v>
+      </c>
+      <c r="AT189">
+        <v>2.97</v>
+      </c>
+      <c r="AU189">
+        <v>8</v>
+      </c>
+      <c r="AV189">
+        <v>3</v>
+      </c>
+      <c r="AW189">
+        <v>5</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>13</v>
+      </c>
+      <c r="AZ189">
+        <v>7</v>
+      </c>
+      <c r="BA189">
+        <v>8</v>
+      </c>
+      <c r="BB189">
+        <v>6</v>
+      </c>
+      <c r="BC189">
+        <v>14</v>
+      </c>
+      <c r="BD189">
+        <v>1.44</v>
+      </c>
+      <c r="BE189">
+        <v>9.5</v>
+      </c>
+      <c r="BF189">
+        <v>3.52</v>
+      </c>
+      <c r="BG189">
+        <v>1.14</v>
+      </c>
+      <c r="BH189">
+        <v>4.2</v>
+      </c>
+      <c r="BI189">
+        <v>1.3</v>
+      </c>
+      <c r="BJ189">
+        <v>2.88</v>
+      </c>
+      <c r="BK189">
+        <v>1.57</v>
+      </c>
+      <c r="BL189">
+        <v>2.19</v>
+      </c>
+      <c r="BM189">
+        <v>1.98</v>
+      </c>
+      <c r="BN189">
+        <v>1.77</v>
+      </c>
+      <c r="BO189">
+        <v>2.54</v>
+      </c>
+      <c r="BP189">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7292622</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45561.58333333334</v>
+      </c>
+      <c r="F190">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s">
+        <v>71</v>
+      </c>
+      <c r="H190" t="s">
+        <v>73</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>217</v>
+      </c>
+      <c r="P190" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q190">
+        <v>2.6</v>
+      </c>
+      <c r="R190">
+        <v>2.5</v>
+      </c>
+      <c r="S190">
+        <v>3.4</v>
+      </c>
+      <c r="T190">
+        <v>1.25</v>
+      </c>
+      <c r="U190">
+        <v>3.75</v>
+      </c>
+      <c r="V190">
+        <v>2.1</v>
+      </c>
+      <c r="W190">
+        <v>1.67</v>
+      </c>
+      <c r="X190">
+        <v>4.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.18</v>
+      </c>
+      <c r="Z190">
+        <v>2.1</v>
+      </c>
+      <c r="AA190">
+        <v>3.4</v>
+      </c>
+      <c r="AB190">
+        <v>2.9</v>
+      </c>
+      <c r="AC190">
+        <v>1.01</v>
+      </c>
+      <c r="AD190">
+        <v>21</v>
+      </c>
+      <c r="AE190">
+        <v>1.14</v>
+      </c>
+      <c r="AF190">
+        <v>6</v>
+      </c>
+      <c r="AG190">
+        <v>1.44</v>
+      </c>
+      <c r="AH190">
+        <v>2.6</v>
+      </c>
+      <c r="AI190">
+        <v>1.4</v>
+      </c>
+      <c r="AJ190">
+        <v>2.75</v>
+      </c>
+      <c r="AK190">
+        <v>1.36</v>
+      </c>
+      <c r="AL190">
+        <v>1.22</v>
+      </c>
+      <c r="AM190">
+        <v>1.75</v>
+      </c>
+      <c r="AN190">
+        <v>1.91</v>
+      </c>
+      <c r="AO190">
+        <v>1.36</v>
+      </c>
+      <c r="AP190">
+        <v>2</v>
+      </c>
+      <c r="AQ190">
+        <v>1.25</v>
+      </c>
+      <c r="AR190">
+        <v>1.59</v>
+      </c>
+      <c r="AS190">
+        <v>1.49</v>
+      </c>
+      <c r="AT190">
+        <v>3.08</v>
+      </c>
+      <c r="AU190">
+        <v>8</v>
+      </c>
+      <c r="AV190">
+        <v>3</v>
+      </c>
+      <c r="AW190">
+        <v>5</v>
+      </c>
+      <c r="AX190">
+        <v>7</v>
+      </c>
+      <c r="AY190">
+        <v>13</v>
+      </c>
+      <c r="AZ190">
+        <v>10</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>7</v>
+      </c>
+      <c r="BC190">
+        <v>11</v>
+      </c>
+      <c r="BD190">
+        <v>1.79</v>
+      </c>
+      <c r="BE190">
+        <v>6.75</v>
+      </c>
+      <c r="BF190">
+        <v>2.08</v>
+      </c>
+      <c r="BG190">
+        <v>1.16</v>
+      </c>
+      <c r="BH190">
+        <v>4.4</v>
+      </c>
+      <c r="BI190">
+        <v>1.29</v>
+      </c>
+      <c r="BJ190">
+        <v>3.15</v>
+      </c>
+      <c r="BK190">
+        <v>1.49</v>
+      </c>
+      <c r="BL190">
+        <v>2.43</v>
+      </c>
+      <c r="BM190">
+        <v>1.75</v>
+      </c>
+      <c r="BN190">
+        <v>1.95</v>
+      </c>
+      <c r="BO190">
+        <v>2.15</v>
+      </c>
+      <c r="BP190">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7292625</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45561.58333333334</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" t="s">
+        <v>83</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>3</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>218</v>
+      </c>
+      <c r="P191" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q191">
+        <v>3</v>
+      </c>
+      <c r="R191">
+        <v>2.4</v>
+      </c>
+      <c r="S191">
+        <v>3.1</v>
+      </c>
+      <c r="T191">
+        <v>1.29</v>
+      </c>
+      <c r="U191">
+        <v>3.5</v>
+      </c>
+      <c r="V191">
+        <v>2.25</v>
+      </c>
+      <c r="W191">
+        <v>1.57</v>
+      </c>
+      <c r="X191">
+        <v>5.5</v>
+      </c>
+      <c r="Y191">
+        <v>1.14</v>
+      </c>
+      <c r="Z191">
+        <v>2.4</v>
+      </c>
+      <c r="AA191">
+        <v>3.25</v>
+      </c>
+      <c r="AB191">
+        <v>2.5</v>
+      </c>
+      <c r="AC191">
+        <v>1.01</v>
+      </c>
+      <c r="AD191">
+        <v>13</v>
+      </c>
+      <c r="AE191">
+        <v>1.11</v>
+      </c>
+      <c r="AF191">
+        <v>5.5</v>
+      </c>
+      <c r="AG191">
+        <v>1.5</v>
+      </c>
+      <c r="AH191">
+        <v>2.4</v>
+      </c>
+      <c r="AI191">
+        <v>1.44</v>
+      </c>
+      <c r="AJ191">
+        <v>2.63</v>
+      </c>
+      <c r="AK191">
+        <v>1.48</v>
+      </c>
+      <c r="AL191">
+        <v>1.3</v>
+      </c>
+      <c r="AM191">
+        <v>1.52</v>
+      </c>
+      <c r="AN191">
+        <v>1.36</v>
+      </c>
+      <c r="AO191">
+        <v>0.91</v>
+      </c>
+      <c r="AP191">
+        <v>1.33</v>
+      </c>
+      <c r="AQ191">
+        <v>0.92</v>
+      </c>
+      <c r="AR191">
+        <v>1</v>
+      </c>
+      <c r="AS191">
+        <v>1.2</v>
+      </c>
+      <c r="AT191">
+        <v>2.2</v>
+      </c>
+      <c r="AU191">
+        <v>6</v>
+      </c>
+      <c r="AV191">
+        <v>4</v>
+      </c>
+      <c r="AW191">
+        <v>9</v>
+      </c>
+      <c r="AX191">
+        <v>3</v>
+      </c>
+      <c r="AY191">
+        <v>15</v>
+      </c>
+      <c r="AZ191">
+        <v>7</v>
+      </c>
+      <c r="BA191">
+        <v>5</v>
+      </c>
+      <c r="BB191">
+        <v>1</v>
+      </c>
+      <c r="BC191">
+        <v>6</v>
+      </c>
+      <c r="BD191">
+        <v>1.84</v>
+      </c>
+      <c r="BE191">
+        <v>6.25</v>
+      </c>
+      <c r="BF191">
+        <v>2.05</v>
+      </c>
+      <c r="BG191">
+        <v>1.18</v>
+      </c>
+      <c r="BH191">
+        <v>4.1</v>
+      </c>
+      <c r="BI191">
+        <v>1.33</v>
+      </c>
+      <c r="BJ191">
+        <v>2.95</v>
+      </c>
+      <c r="BK191">
+        <v>1.54</v>
+      </c>
+      <c r="BL191">
+        <v>2.3</v>
+      </c>
+      <c r="BM191">
+        <v>1.84</v>
+      </c>
+      <c r="BN191">
+        <v>1.84</v>
+      </c>
+      <c r="BO191">
+        <v>2.3</v>
+      </c>
+      <c r="BP191">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7292628</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45561.58333333334</v>
+      </c>
+      <c r="F192">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s">
+        <v>82</v>
+      </c>
+      <c r="H192" t="s">
+        <v>74</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>219</v>
+      </c>
+      <c r="P192" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q192">
+        <v>3.2</v>
+      </c>
+      <c r="R192">
+        <v>2.1</v>
+      </c>
+      <c r="S192">
+        <v>3.25</v>
+      </c>
+      <c r="T192">
+        <v>1.4</v>
+      </c>
+      <c r="U192">
+        <v>2.75</v>
+      </c>
+      <c r="V192">
+        <v>3</v>
+      </c>
+      <c r="W192">
+        <v>1.36</v>
+      </c>
+      <c r="X192">
+        <v>8</v>
+      </c>
+      <c r="Y192">
+        <v>1.08</v>
+      </c>
+      <c r="Z192">
+        <v>2.4</v>
+      </c>
+      <c r="AA192">
+        <v>3.25</v>
+      </c>
+      <c r="AB192">
+        <v>2.5</v>
+      </c>
+      <c r="AC192">
+        <v>1.06</v>
+      </c>
+      <c r="AD192">
+        <v>9</v>
+      </c>
+      <c r="AE192">
+        <v>1.33</v>
+      </c>
+      <c r="AF192">
+        <v>3.35</v>
+      </c>
+      <c r="AG192">
+        <v>1.95</v>
+      </c>
+      <c r="AH192">
+        <v>1.75</v>
+      </c>
+      <c r="AI192">
+        <v>1.75</v>
+      </c>
+      <c r="AJ192">
+        <v>2</v>
+      </c>
+      <c r="AK192">
+        <v>1.45</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.5</v>
+      </c>
+      <c r="AN192">
+        <v>0.83</v>
+      </c>
+      <c r="AO192">
+        <v>1.09</v>
+      </c>
+      <c r="AP192">
+        <v>0.85</v>
+      </c>
+      <c r="AQ192">
+        <v>1.08</v>
+      </c>
+      <c r="AR192">
+        <v>1.64</v>
+      </c>
+      <c r="AS192">
+        <v>1.61</v>
+      </c>
+      <c r="AT192">
+        <v>3.25</v>
+      </c>
+      <c r="AU192">
+        <v>7</v>
+      </c>
+      <c r="AV192">
+        <v>9</v>
+      </c>
+      <c r="AW192">
+        <v>5</v>
+      </c>
+      <c r="AX192">
+        <v>10</v>
+      </c>
+      <c r="AY192">
+        <v>12</v>
+      </c>
+      <c r="AZ192">
+        <v>19</v>
+      </c>
+      <c r="BA192">
+        <v>8</v>
+      </c>
+      <c r="BB192">
+        <v>6</v>
+      </c>
+      <c r="BC192">
+        <v>14</v>
+      </c>
+      <c r="BD192">
+        <v>1.92</v>
+      </c>
+      <c r="BE192">
+        <v>6.5</v>
+      </c>
+      <c r="BF192">
+        <v>1.95</v>
+      </c>
+      <c r="BG192">
+        <v>1.22</v>
+      </c>
+      <c r="BH192">
+        <v>3.8</v>
+      </c>
+      <c r="BI192">
+        <v>1.38</v>
+      </c>
+      <c r="BJ192">
+        <v>2.8</v>
+      </c>
+      <c r="BK192">
+        <v>1.63</v>
+      </c>
+      <c r="BL192">
+        <v>2.12</v>
+      </c>
+      <c r="BM192">
+        <v>1.98</v>
+      </c>
+      <c r="BN192">
+        <v>1.73</v>
+      </c>
+      <c r="BO192">
+        <v>2.45</v>
+      </c>
+      <c r="BP192">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,13 +667,22 @@
     <t>['16', '80']</t>
   </si>
   <si>
+    <t>['7', '64']</t>
+  </si>
+  <si>
     <t>['32', '49']</t>
   </si>
   <si>
-    <t>['7', '64']</t>
+    <t>['66']</t>
   </si>
   <si>
-    <t>['66']</t>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['20', '31']</t>
+  </si>
+  <si>
+    <t>['71', '79']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -773,9 +782,6 @@
   </si>
   <si>
     <t>['49', '68']</t>
-  </si>
-  <si>
-    <t>['90+4']</t>
   </si>
   <si>
     <t>['25', '53', '63']</t>
@@ -985,7 +991,13 @@
     <t>['13']</t>
   </si>
   <si>
-    <t>['14', '40']</t>
+    <t>['13', '40']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['8', '40', '86']</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1606,7 +1618,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1812,7 +1824,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2018,7 +2030,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2302,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2430,7 +2442,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2511,7 +2523,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2920,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ8">
         <v>0.73</v>
@@ -3048,7 +3060,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3254,7 +3266,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3541,7 +3553,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ11">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3744,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ12">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3950,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ13">
         <v>1.08</v>
@@ -4159,7 +4171,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4284,7 +4296,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4362,10 +4374,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ15">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4490,7 +4502,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4568,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ16">
         <v>1.18</v>
@@ -4696,7 +4708,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4902,7 +4914,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5520,7 +5532,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5598,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ21">
         <v>1.08</v>
@@ -5807,7 +5819,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5932,7 +5944,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6010,7 +6022,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ23">
         <v>1.77</v>
@@ -6138,7 +6150,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6216,7 +6228,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ24">
         <v>1.23</v>
@@ -6425,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>1.52</v>
@@ -6550,7 +6562,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6837,7 +6849,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR27">
         <v>0.78</v>
@@ -7040,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ28">
         <v>0.73</v>
@@ -7168,7 +7180,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7249,7 +7261,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ29">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR29">
         <v>1.27</v>
@@ -7452,10 +7464,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7658,10 +7670,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR31">
         <v>1.67</v>
@@ -7786,7 +7798,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7864,7 +7876,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ32">
         <v>1.23</v>
@@ -7992,7 +8004,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8198,7 +8210,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8279,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8404,7 +8416,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8688,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8816,7 +8828,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8897,7 +8909,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -9022,7 +9034,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9100,10 +9112,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR38">
         <v>0.8</v>
@@ -9228,7 +9240,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9306,7 +9318,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ39">
         <v>1.18</v>
@@ -9515,7 +9527,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -9640,7 +9652,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9846,7 +9858,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9924,7 +9936,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ42">
         <v>0.58</v>
@@ -10130,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ43">
         <v>1.54</v>
@@ -10464,7 +10476,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10542,10 +10554,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ45">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10670,7 +10682,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10957,7 +10969,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ47">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR47">
         <v>1.73</v>
@@ -11082,7 +11094,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11494,7 +11506,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11572,7 +11584,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ50">
         <v>0.58</v>
@@ -11700,7 +11712,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11906,7 +11918,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -12112,7 +12124,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12318,7 +12330,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12399,7 +12411,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR54">
         <v>1.47</v>
@@ -12524,7 +12536,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12602,10 +12614,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ55">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR55">
         <v>1.19</v>
@@ -12730,7 +12742,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12936,7 +12948,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -13142,7 +13154,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13220,10 +13232,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ58">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13348,7 +13360,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13426,10 +13438,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR59">
         <v>0.92</v>
@@ -13760,7 +13772,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13838,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ61">
         <v>0.92</v>
@@ -13966,7 +13978,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14047,7 +14059,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ62">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR62">
         <v>1.3</v>
@@ -14253,7 +14265,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14378,7 +14390,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14456,7 +14468,7 @@
         <v>1.75</v>
       </c>
       <c r="AP64">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ64">
         <v>1.23</v>
@@ -14584,7 +14596,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -15074,7 +15086,7 @@
         <v>2.33</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ67">
         <v>1.25</v>
@@ -15283,7 +15295,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15408,7 +15420,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15692,7 +15704,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ70">
         <v>1.18</v>
@@ -15820,7 +15832,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -16026,7 +16038,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16104,10 +16116,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ72">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR72">
         <v>1.31</v>
@@ -16232,7 +16244,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16313,7 +16325,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16438,7 +16450,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16644,7 +16656,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16725,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16931,7 +16943,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -17056,7 +17068,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17134,7 +17146,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ77">
         <v>0.92</v>
@@ -17674,7 +17686,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17752,7 +17764,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ80">
         <v>1.77</v>
@@ -17961,7 +17973,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ81">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18164,7 +18176,7 @@
         <v>1.2</v>
       </c>
       <c r="AP82">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ82">
         <v>0.92</v>
@@ -18704,7 +18716,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18785,7 +18797,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -18991,7 +19003,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -19116,7 +19128,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19322,7 +19334,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19528,7 +19540,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19606,7 +19618,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ89">
         <v>1.08</v>
@@ -19734,7 +19746,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -19812,10 +19824,10 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR90">
         <v>2.32</v>
@@ -20227,7 +20239,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR92">
         <v>1.27</v>
@@ -20352,7 +20364,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20636,7 +20648,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ94">
         <v>1.18</v>
@@ -20845,7 +20857,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ95">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR95">
         <v>1.62</v>
@@ -20970,7 +20982,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21051,7 +21063,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21176,7 +21188,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21254,7 +21266,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ97">
         <v>0.73</v>
@@ -21382,7 +21394,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21460,7 +21472,7 @@
         <v>0.4</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ98">
         <v>1.54</v>
@@ -21588,7 +21600,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21666,10 +21678,10 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ99">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR99">
         <v>1.17</v>
@@ -22000,7 +22012,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22081,7 +22093,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ101">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR101">
         <v>1.4</v>
@@ -22284,7 +22296,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ102">
         <v>1.08</v>
@@ -22412,7 +22424,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22490,7 +22502,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ103">
         <v>0.92</v>
@@ -22618,7 +22630,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -22696,7 +22708,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ104">
         <v>0.58</v>
@@ -22905,7 +22917,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ105">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR105">
         <v>1.51</v>
@@ -23030,7 +23042,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23111,7 +23123,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ106">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR106">
         <v>1.38</v>
@@ -23236,7 +23248,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23442,7 +23454,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -24060,7 +24072,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24141,7 +24153,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ111">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR111">
         <v>1.7</v>
@@ -24266,7 +24278,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24344,10 +24356,10 @@
         <v>0.43</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR112">
         <v>1.86</v>
@@ -24550,7 +24562,7 @@
         <v>1.29</v>
       </c>
       <c r="AP113">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ113">
         <v>1.23</v>
@@ -24678,7 +24690,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24756,7 +24768,7 @@
         <v>0.33</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ114">
         <v>1.54</v>
@@ -24884,7 +24896,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25090,7 +25102,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25296,7 +25308,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25374,7 +25386,7 @@
         <v>1.43</v>
       </c>
       <c r="AP117">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ117">
         <v>1.25</v>
@@ -25580,10 +25592,10 @@
         <v>2.5</v>
       </c>
       <c r="AP118">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR118">
         <v>1.29</v>
@@ -25708,7 +25720,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25789,7 +25801,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -26201,7 +26213,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ121">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26326,7 +26338,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26944,7 +26956,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27228,10 +27240,10 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ126">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR126">
         <v>2.24</v>
@@ -27434,7 +27446,7 @@
         <v>1.86</v>
       </c>
       <c r="AP127">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ127">
         <v>1.33</v>
@@ -27643,7 +27655,7 @@
         <v>2</v>
       </c>
       <c r="AQ128">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR128">
         <v>1.54</v>
@@ -27846,7 +27858,7 @@
         <v>0.71</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ129">
         <v>0.73</v>
@@ -27974,7 +27986,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28055,7 +28067,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ130">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR130">
         <v>1.78</v>
@@ -28180,7 +28192,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28258,7 +28270,7 @@
         <v>0.86</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ131">
         <v>1.18</v>
@@ -28386,7 +28398,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28673,7 +28685,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ133">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR133">
         <v>1.47</v>
@@ -29004,7 +29016,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29082,10 +29094,10 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ135">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR135">
         <v>1.28</v>
@@ -29210,7 +29222,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29416,7 +29428,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29494,10 +29506,10 @@
         <v>1.25</v>
       </c>
       <c r="AP137">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ137">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR137">
         <v>1.24</v>
@@ -29622,7 +29634,7 @@
         <v>88</v>
       </c>
       <c r="P138" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q138">
         <v>7.7</v>
@@ -29700,7 +29712,7 @@
         <v>1.89</v>
       </c>
       <c r="AP138">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ138">
         <v>1.77</v>
@@ -30240,7 +30252,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>2.25</v>
@@ -30446,7 +30458,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30730,10 +30742,10 @@
         <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ143">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR143">
         <v>1.74</v>
@@ -30858,7 +30870,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31145,7 +31157,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ145">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR145">
         <v>1.25</v>
@@ -31270,7 +31282,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>1.56</v>
@@ -31348,10 +31360,10 @@
         <v>0.89</v>
       </c>
       <c r="AP146">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ146">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR146">
         <v>2.27</v>
@@ -31476,7 +31488,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31554,10 +31566,10 @@
         <v>1.44</v>
       </c>
       <c r="AP147">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ147">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR147">
         <v>1.32</v>
@@ -31682,7 +31694,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31888,7 +31900,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q149">
         <v>2.7</v>
@@ -32094,7 +32106,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32175,7 +32187,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32300,7 +32312,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32712,7 +32724,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q153">
         <v>6.25</v>
@@ -32790,7 +32802,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ153">
         <v>1.77</v>
@@ -33124,7 +33136,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33205,7 +33217,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ155">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR155">
         <v>1.62</v>
@@ -33330,7 +33342,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>2.3</v>
@@ -33408,7 +33420,7 @@
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ156">
         <v>1.23</v>
@@ -33536,7 +33548,7 @@
         <v>175</v>
       </c>
       <c r="P157" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33614,7 +33626,7 @@
         <v>1.56</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ157">
         <v>1.33</v>
@@ -33742,7 +33754,7 @@
         <v>101</v>
       </c>
       <c r="P158" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q158">
         <v>3.1</v>
@@ -33823,7 +33835,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ158">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR158">
         <v>1.34</v>
@@ -34026,7 +34038,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP159">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ159">
         <v>0.73</v>
@@ -34644,7 +34656,7 @@
         <v>1.1</v>
       </c>
       <c r="AP162">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ162">
         <v>1.54</v>
@@ -34772,7 +34784,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -34978,7 +34990,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35059,7 +35071,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ164">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR164">
         <v>1.61</v>
@@ -35262,10 +35274,10 @@
         <v>2.33</v>
       </c>
       <c r="AP165">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR165">
         <v>2.25</v>
@@ -35390,7 +35402,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35471,7 +35483,7 @@
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR166">
         <v>1.52</v>
@@ -35596,7 +35608,7 @@
         <v>88</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q167">
         <v>3.15</v>
@@ -35677,7 +35689,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ167">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR167">
         <v>1.29</v>
@@ -35802,7 +35814,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -36008,7 +36020,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36214,7 +36226,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36498,7 +36510,7 @@
         <v>1.91</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ171">
         <v>1.77</v>
@@ -36626,7 +36638,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q172">
         <v>2.38</v>
@@ -36707,7 +36719,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ172">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR172">
         <v>1.43</v>
@@ -36832,7 +36844,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -36910,7 +36922,7 @@
         <v>1.1</v>
       </c>
       <c r="AP173">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ173">
         <v>1.08</v>
@@ -37038,7 +37050,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -37116,10 +37128,10 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR174">
         <v>1</v>
@@ -37244,7 +37256,7 @@
         <v>209</v>
       </c>
       <c r="P175" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37322,7 +37334,7 @@
         <v>1.5</v>
       </c>
       <c r="AP175">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ175">
         <v>1.33</v>
@@ -37531,7 +37543,7 @@
         <v>2</v>
       </c>
       <c r="AQ176">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR176">
         <v>1.57</v>
@@ -37862,7 +37874,7 @@
         <v>146</v>
       </c>
       <c r="P178" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q178">
         <v>2.86</v>
@@ -37940,10 +37952,10 @@
         <v>2.1</v>
       </c>
       <c r="AP178">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ178">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR178">
         <v>1.77</v>
@@ -38068,7 +38080,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38149,7 +38161,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ179">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR179">
         <v>1.69</v>
@@ -38355,7 +38367,7 @@
         <v>1</v>
       </c>
       <c r="AQ180">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR180">
         <v>1.52</v>
@@ -38480,7 +38492,7 @@
         <v>88</v>
       </c>
       <c r="P181" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q181">
         <v>4.73</v>
@@ -38558,7 +38570,7 @@
         <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ181">
         <v>1.54</v>
@@ -38764,7 +38776,7 @@
         <v>0.8</v>
       </c>
       <c r="AP182">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ182">
         <v>0.73</v>
@@ -38970,7 +38982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ183">
         <v>1.25</v>
@@ -39179,7 +39191,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ184">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR184">
         <v>1.65</v>
@@ -39385,7 +39397,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ185">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR185">
         <v>1.45</v>
@@ -39510,7 +39522,7 @@
         <v>146</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39683,7 +39695,7 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F187">
         <v>24</v>
@@ -39716,7 +39728,7 @@
         <v>88</v>
       </c>
       <c r="P187" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q187">
         <v>3.35</v>
@@ -39809,22 +39821,22 @@
         <v>2.97</v>
       </c>
       <c r="AU187">
+        <v>8</v>
+      </c>
+      <c r="AV187">
+        <v>0</v>
+      </c>
+      <c r="AW187">
+        <v>3</v>
+      </c>
+      <c r="AX187">
         <v>7</v>
-      </c>
-      <c r="AV187">
-        <v>3</v>
-      </c>
-      <c r="AW187">
-        <v>4</v>
-      </c>
-      <c r="AX187">
-        <v>6</v>
       </c>
       <c r="AY187">
         <v>11</v>
       </c>
       <c r="AZ187">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA187">
         <v>4</v>
@@ -39889,7 +39901,7 @@
         <v>69</v>
       </c>
       <c r="E188" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F188">
         <v>24</v>
@@ -39922,7 +39934,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40018,19 +40030,19 @@
         <v>8</v>
       </c>
       <c r="AV188">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW188">
         <v>6</v>
       </c>
       <c r="AX188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY188">
         <v>14</v>
       </c>
       <c r="AZ188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA188">
         <v>12</v>
@@ -40128,7 +40140,7 @@
         <v>216</v>
       </c>
       <c r="P189" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q189">
         <v>2.25</v>
@@ -40292,7 +40304,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7292622</v>
+        <v>7292625</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40301,196 +40313,196 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45561.58333333334</v>
+        <v>45560.875</v>
       </c>
       <c r="F190">
         <v>24</v>
       </c>
       <c r="G190" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H190" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L190">
         <v>2</v>
       </c>
       <c r="M190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O190" t="s">
         <v>217</v>
       </c>
       <c r="P190" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="Q190">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="R190">
+        <v>2.4</v>
+      </c>
+      <c r="S190">
+        <v>3.1</v>
+      </c>
+      <c r="T190">
+        <v>1.29</v>
+      </c>
+      <c r="U190">
+        <v>3.5</v>
+      </c>
+      <c r="V190">
+        <v>2.25</v>
+      </c>
+      <c r="W190">
+        <v>1.57</v>
+      </c>
+      <c r="X190">
+        <v>5.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.14</v>
+      </c>
+      <c r="Z190">
+        <v>2.4</v>
+      </c>
+      <c r="AA190">
+        <v>3.25</v>
+      </c>
+      <c r="AB190">
         <v>2.5</v>
-      </c>
-      <c r="S190">
-        <v>3.4</v>
-      </c>
-      <c r="T190">
-        <v>1.25</v>
-      </c>
-      <c r="U190">
-        <v>3.75</v>
-      </c>
-      <c r="V190">
-        <v>2.1</v>
-      </c>
-      <c r="W190">
-        <v>1.67</v>
-      </c>
-      <c r="X190">
-        <v>4.5</v>
-      </c>
-      <c r="Y190">
-        <v>1.18</v>
-      </c>
-      <c r="Z190">
-        <v>2.1</v>
-      </c>
-      <c r="AA190">
-        <v>3.4</v>
-      </c>
-      <c r="AB190">
-        <v>2.9</v>
       </c>
       <c r="AC190">
         <v>1.01</v>
       </c>
       <c r="AD190">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE190">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AF190">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG190">
+        <v>1.5</v>
+      </c>
+      <c r="AH190">
+        <v>2.4</v>
+      </c>
+      <c r="AI190">
         <v>1.44</v>
       </c>
-      <c r="AH190">
-        <v>2.6</v>
-      </c>
-      <c r="AI190">
-        <v>1.4</v>
-      </c>
       <c r="AJ190">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AK190">
+        <v>1.48</v>
+      </c>
+      <c r="AL190">
+        <v>1.3</v>
+      </c>
+      <c r="AM190">
+        <v>1.52</v>
+      </c>
+      <c r="AN190">
         <v>1.36</v>
       </c>
-      <c r="AL190">
-        <v>1.22</v>
-      </c>
-      <c r="AM190">
-        <v>1.75</v>
-      </c>
-      <c r="AN190">
-        <v>1.91</v>
-      </c>
       <c r="AO190">
-        <v>1.36</v>
+        <v>0.91</v>
       </c>
       <c r="AP190">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ190">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AR190">
-        <v>1.59</v>
+        <v>1</v>
       </c>
       <c r="AS190">
-        <v>1.49</v>
+        <v>1.2</v>
       </c>
       <c r="AT190">
-        <v>3.08</v>
+        <v>2.2</v>
       </c>
       <c r="AU190">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV190">
+        <v>2</v>
+      </c>
+      <c r="AW190">
+        <v>9</v>
+      </c>
+      <c r="AX190">
         <v>3</v>
-      </c>
-      <c r="AW190">
-        <v>5</v>
-      </c>
-      <c r="AX190">
-        <v>7</v>
       </c>
       <c r="AY190">
         <v>13</v>
       </c>
       <c r="AZ190">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB190">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD190">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="BE190">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF190">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="BG190">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH190">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BI190">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BJ190">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="BK190">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="BL190">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="BM190">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="BN190">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="BO190">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="BP190">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40498,7 +40510,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7292625</v>
+        <v>7292622</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40513,190 +40525,190 @@
         <v>24</v>
       </c>
       <c r="G191" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H191" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L191">
         <v>2</v>
       </c>
       <c r="M191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O191" t="s">
         <v>218</v>
       </c>
       <c r="P191" t="s">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="Q191">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="R191">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S191">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T191">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U191">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V191">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W191">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X191">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y191">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z191">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AA191">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AB191">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AC191">
         <v>1.01</v>
       </c>
       <c r="AD191">
+        <v>21</v>
+      </c>
+      <c r="AE191">
+        <v>1.14</v>
+      </c>
+      <c r="AF191">
+        <v>6</v>
+      </c>
+      <c r="AG191">
+        <v>1.44</v>
+      </c>
+      <c r="AH191">
+        <v>2.6</v>
+      </c>
+      <c r="AI191">
+        <v>1.4</v>
+      </c>
+      <c r="AJ191">
+        <v>2.75</v>
+      </c>
+      <c r="AK191">
+        <v>1.36</v>
+      </c>
+      <c r="AL191">
+        <v>1.22</v>
+      </c>
+      <c r="AM191">
+        <v>1.75</v>
+      </c>
+      <c r="AN191">
+        <v>1.91</v>
+      </c>
+      <c r="AO191">
+        <v>1.36</v>
+      </c>
+      <c r="AP191">
+        <v>2</v>
+      </c>
+      <c r="AQ191">
+        <v>1.25</v>
+      </c>
+      <c r="AR191">
+        <v>1.59</v>
+      </c>
+      <c r="AS191">
+        <v>1.49</v>
+      </c>
+      <c r="AT191">
+        <v>3.08</v>
+      </c>
+      <c r="AU191">
+        <v>8</v>
+      </c>
+      <c r="AV191">
+        <v>3</v>
+      </c>
+      <c r="AW191">
+        <v>5</v>
+      </c>
+      <c r="AX191">
+        <v>7</v>
+      </c>
+      <c r="AY191">
         <v>13</v>
       </c>
-      <c r="AE191">
-        <v>1.11</v>
-      </c>
-      <c r="AF191">
-        <v>5.5</v>
-      </c>
-      <c r="AG191">
-        <v>1.5</v>
-      </c>
-      <c r="AH191">
-        <v>2.4</v>
-      </c>
-      <c r="AI191">
-        <v>1.44</v>
-      </c>
-      <c r="AJ191">
-        <v>2.63</v>
-      </c>
-      <c r="AK191">
-        <v>1.48</v>
-      </c>
-      <c r="AL191">
-        <v>1.3</v>
-      </c>
-      <c r="AM191">
-        <v>1.52</v>
-      </c>
-      <c r="AN191">
-        <v>1.36</v>
-      </c>
-      <c r="AO191">
-        <v>0.91</v>
-      </c>
-      <c r="AP191">
-        <v>1.33</v>
-      </c>
-      <c r="AQ191">
-        <v>0.92</v>
-      </c>
-      <c r="AR191">
-        <v>1</v>
-      </c>
-      <c r="AS191">
-        <v>1.2</v>
-      </c>
-      <c r="AT191">
-        <v>2.2</v>
-      </c>
-      <c r="AU191">
-        <v>6</v>
-      </c>
-      <c r="AV191">
+      <c r="AZ191">
+        <v>10</v>
+      </c>
+      <c r="BA191">
         <v>4</v>
       </c>
-      <c r="AW191">
-        <v>9</v>
-      </c>
-      <c r="AX191">
-        <v>3</v>
-      </c>
-      <c r="AY191">
-        <v>15</v>
-      </c>
-      <c r="AZ191">
+      <c r="BB191">
         <v>7</v>
       </c>
-      <c r="BA191">
-        <v>5</v>
-      </c>
-      <c r="BB191">
-        <v>1</v>
-      </c>
       <c r="BC191">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD191">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="BE191">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF191">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="BG191">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH191">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BI191">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BJ191">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="BK191">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="BL191">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="BM191">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="BN191">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="BO191">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BP191">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40746,7 +40758,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -40903,6 +40915,1242 @@
       </c>
       <c r="BP192">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7292629</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45564.375</v>
+      </c>
+      <c r="F193">
+        <v>25</v>
+      </c>
+      <c r="G193" t="s">
+        <v>76</v>
+      </c>
+      <c r="H193" t="s">
+        <v>71</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193" t="s">
+        <v>186</v>
+      </c>
+      <c r="P193" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q193">
+        <v>2.75</v>
+      </c>
+      <c r="R193">
+        <v>2.25</v>
+      </c>
+      <c r="S193">
+        <v>3.75</v>
+      </c>
+      <c r="T193">
+        <v>1.36</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>2.63</v>
+      </c>
+      <c r="W193">
+        <v>1.44</v>
+      </c>
+      <c r="X193">
+        <v>7</v>
+      </c>
+      <c r="Y193">
+        <v>1.1</v>
+      </c>
+      <c r="Z193">
+        <v>2</v>
+      </c>
+      <c r="AA193">
+        <v>3.4</v>
+      </c>
+      <c r="AB193">
+        <v>3.1</v>
+      </c>
+      <c r="AC193">
+        <v>1.02</v>
+      </c>
+      <c r="AD193">
+        <v>13</v>
+      </c>
+      <c r="AE193">
+        <v>1.28</v>
+      </c>
+      <c r="AF193">
+        <v>3.8</v>
+      </c>
+      <c r="AG193">
+        <v>1.73</v>
+      </c>
+      <c r="AH193">
+        <v>1.91</v>
+      </c>
+      <c r="AI193">
+        <v>1.67</v>
+      </c>
+      <c r="AJ193">
+        <v>2.1</v>
+      </c>
+      <c r="AK193">
+        <v>1.32</v>
+      </c>
+      <c r="AL193">
+        <v>1.28</v>
+      </c>
+      <c r="AM193">
+        <v>1.77</v>
+      </c>
+      <c r="AN193">
+        <v>2</v>
+      </c>
+      <c r="AO193">
+        <v>1.67</v>
+      </c>
+      <c r="AP193">
+        <v>2.08</v>
+      </c>
+      <c r="AQ193">
+        <v>1.54</v>
+      </c>
+      <c r="AR193">
+        <v>1.72</v>
+      </c>
+      <c r="AS193">
+        <v>1.44</v>
+      </c>
+      <c r="AT193">
+        <v>3.16</v>
+      </c>
+      <c r="AU193">
+        <v>5</v>
+      </c>
+      <c r="AV193">
+        <v>2</v>
+      </c>
+      <c r="AW193">
+        <v>6</v>
+      </c>
+      <c r="AX193">
+        <v>2</v>
+      </c>
+      <c r="AY193">
+        <v>11</v>
+      </c>
+      <c r="AZ193">
+        <v>4</v>
+      </c>
+      <c r="BA193">
+        <v>5</v>
+      </c>
+      <c r="BB193">
+        <v>2</v>
+      </c>
+      <c r="BC193">
+        <v>7</v>
+      </c>
+      <c r="BD193">
+        <v>1.75</v>
+      </c>
+      <c r="BE193">
+        <v>8.5</v>
+      </c>
+      <c r="BF193">
+        <v>2.41</v>
+      </c>
+      <c r="BG193">
+        <v>1.26</v>
+      </c>
+      <c r="BH193">
+        <v>3.4</v>
+      </c>
+      <c r="BI193">
+        <v>1.46</v>
+      </c>
+      <c r="BJ193">
+        <v>2.5</v>
+      </c>
+      <c r="BK193">
+        <v>1.74</v>
+      </c>
+      <c r="BL193">
+        <v>1.97</v>
+      </c>
+      <c r="BM193">
+        <v>2.05</v>
+      </c>
+      <c r="BN193">
+        <v>1.68</v>
+      </c>
+      <c r="BO193">
+        <v>2.7</v>
+      </c>
+      <c r="BP193">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7292633</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45564.375</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>81</v>
+      </c>
+      <c r="H194" t="s">
+        <v>70</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194" t="s">
+        <v>88</v>
+      </c>
+      <c r="P194" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q194">
+        <v>3.2</v>
+      </c>
+      <c r="R194">
+        <v>2.2</v>
+      </c>
+      <c r="S194">
+        <v>3.25</v>
+      </c>
+      <c r="T194">
+        <v>1.4</v>
+      </c>
+      <c r="U194">
+        <v>2.75</v>
+      </c>
+      <c r="V194">
+        <v>2.75</v>
+      </c>
+      <c r="W194">
+        <v>1.4</v>
+      </c>
+      <c r="X194">
+        <v>8</v>
+      </c>
+      <c r="Y194">
+        <v>1.08</v>
+      </c>
+      <c r="Z194">
+        <v>2.5</v>
+      </c>
+      <c r="AA194">
+        <v>3.1</v>
+      </c>
+      <c r="AB194">
+        <v>2.6</v>
+      </c>
+      <c r="AC194">
+        <v>1.06</v>
+      </c>
+      <c r="AD194">
+        <v>11</v>
+      </c>
+      <c r="AE194">
+        <v>1.22</v>
+      </c>
+      <c r="AF194">
+        <v>3.8</v>
+      </c>
+      <c r="AG194">
+        <v>1.8</v>
+      </c>
+      <c r="AH194">
+        <v>1.83</v>
+      </c>
+      <c r="AI194">
+        <v>1.7</v>
+      </c>
+      <c r="AJ194">
+        <v>2.05</v>
+      </c>
+      <c r="AK194">
+        <v>1.48</v>
+      </c>
+      <c r="AL194">
+        <v>1.35</v>
+      </c>
+      <c r="AM194">
+        <v>1.49</v>
+      </c>
+      <c r="AN194">
+        <v>1.33</v>
+      </c>
+      <c r="AO194">
+        <v>0.83</v>
+      </c>
+      <c r="AP194">
+        <v>1.31</v>
+      </c>
+      <c r="AQ194">
+        <v>0.85</v>
+      </c>
+      <c r="AR194">
+        <v>1</v>
+      </c>
+      <c r="AS194">
+        <v>1.28</v>
+      </c>
+      <c r="AT194">
+        <v>2.28</v>
+      </c>
+      <c r="AU194">
+        <v>2</v>
+      </c>
+      <c r="AV194">
+        <v>4</v>
+      </c>
+      <c r="AW194">
+        <v>7</v>
+      </c>
+      <c r="AX194">
+        <v>3</v>
+      </c>
+      <c r="AY194">
+        <v>9</v>
+      </c>
+      <c r="AZ194">
+        <v>7</v>
+      </c>
+      <c r="BA194">
+        <v>6</v>
+      </c>
+      <c r="BB194">
+        <v>7</v>
+      </c>
+      <c r="BC194">
+        <v>13</v>
+      </c>
+      <c r="BD194">
+        <v>2</v>
+      </c>
+      <c r="BE194">
+        <v>8</v>
+      </c>
+      <c r="BF194">
+        <v>2</v>
+      </c>
+      <c r="BG194">
+        <v>1.22</v>
+      </c>
+      <c r="BH194">
+        <v>3.8</v>
+      </c>
+      <c r="BI194">
+        <v>1.4</v>
+      </c>
+      <c r="BJ194">
+        <v>2.7</v>
+      </c>
+      <c r="BK194">
+        <v>1.7</v>
+      </c>
+      <c r="BL194">
+        <v>2.05</v>
+      </c>
+      <c r="BM194">
+        <v>2</v>
+      </c>
+      <c r="BN194">
+        <v>1.7</v>
+      </c>
+      <c r="BO194">
+        <v>2.55</v>
+      </c>
+      <c r="BP194">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7292635</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45564.375</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>84</v>
+      </c>
+      <c r="H195" t="s">
+        <v>85</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>220</v>
+      </c>
+      <c r="P195" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q195">
+        <v>4</v>
+      </c>
+      <c r="R195">
+        <v>2.2</v>
+      </c>
+      <c r="S195">
+        <v>2.75</v>
+      </c>
+      <c r="T195">
+        <v>1.4</v>
+      </c>
+      <c r="U195">
+        <v>2.75</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>8</v>
+      </c>
+      <c r="Y195">
+        <v>1.08</v>
+      </c>
+      <c r="Z195">
+        <v>3.5</v>
+      </c>
+      <c r="AA195">
+        <v>3.1</v>
+      </c>
+      <c r="AB195">
+        <v>1.95</v>
+      </c>
+      <c r="AC195">
+        <v>1.06</v>
+      </c>
+      <c r="AD195">
+        <v>10</v>
+      </c>
+      <c r="AE195">
+        <v>1.33</v>
+      </c>
+      <c r="AF195">
+        <v>3.4</v>
+      </c>
+      <c r="AG195">
+        <v>1.85</v>
+      </c>
+      <c r="AH195">
+        <v>1.8</v>
+      </c>
+      <c r="AI195">
+        <v>1.8</v>
+      </c>
+      <c r="AJ195">
+        <v>1.95</v>
+      </c>
+      <c r="AK195">
+        <v>1.73</v>
+      </c>
+      <c r="AL195">
+        <v>1.34</v>
+      </c>
+      <c r="AM195">
+        <v>1.28</v>
+      </c>
+      <c r="AN195">
+        <v>0.67</v>
+      </c>
+      <c r="AO195">
+        <v>2</v>
+      </c>
+      <c r="AP195">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ195">
+        <v>1.92</v>
+      </c>
+      <c r="AR195">
+        <v>1.26</v>
+      </c>
+      <c r="AS195">
+        <v>1.56</v>
+      </c>
+      <c r="AT195">
+        <v>2.82</v>
+      </c>
+      <c r="AU195">
+        <v>3</v>
+      </c>
+      <c r="AV195">
+        <v>4</v>
+      </c>
+      <c r="AW195">
+        <v>4</v>
+      </c>
+      <c r="AX195">
+        <v>5</v>
+      </c>
+      <c r="AY195">
+        <v>7</v>
+      </c>
+      <c r="AZ195">
+        <v>9</v>
+      </c>
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
+        <v>4</v>
+      </c>
+      <c r="BC195">
+        <v>8</v>
+      </c>
+      <c r="BD195">
+        <v>2.43</v>
+      </c>
+      <c r="BE195">
+        <v>8.5</v>
+      </c>
+      <c r="BF195">
+        <v>1.75</v>
+      </c>
+      <c r="BG195">
+        <v>1.18</v>
+      </c>
+      <c r="BH195">
+        <v>4.3</v>
+      </c>
+      <c r="BI195">
+        <v>1.32</v>
+      </c>
+      <c r="BJ195">
+        <v>3.05</v>
+      </c>
+      <c r="BK195">
+        <v>1.53</v>
+      </c>
+      <c r="BL195">
+        <v>2.32</v>
+      </c>
+      <c r="BM195">
+        <v>1.95</v>
+      </c>
+      <c r="BN195">
+        <v>1.77</v>
+      </c>
+      <c r="BO195">
+        <v>2.3</v>
+      </c>
+      <c r="BP195">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7292634</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45564.47916666666</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>83</v>
+      </c>
+      <c r="H196" t="s">
+        <v>77</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
+      <c r="K196">
+        <v>3</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>3</v>
+      </c>
+      <c r="N196">
+        <v>4</v>
+      </c>
+      <c r="O196" t="s">
+        <v>165</v>
+      </c>
+      <c r="P196" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q196">
+        <v>4.75</v>
+      </c>
+      <c r="R196">
+        <v>2.3</v>
+      </c>
+      <c r="S196">
+        <v>2.25</v>
+      </c>
+      <c r="T196">
+        <v>1.33</v>
+      </c>
+      <c r="U196">
+        <v>3.25</v>
+      </c>
+      <c r="V196">
+        <v>2.63</v>
+      </c>
+      <c r="W196">
+        <v>1.44</v>
+      </c>
+      <c r="X196">
+        <v>6.5</v>
+      </c>
+      <c r="Y196">
+        <v>1.11</v>
+      </c>
+      <c r="Z196">
+        <v>4.4</v>
+      </c>
+      <c r="AA196">
+        <v>3.5</v>
+      </c>
+      <c r="AB196">
+        <v>1.65</v>
+      </c>
+      <c r="AC196">
+        <v>1.03</v>
+      </c>
+      <c r="AD196">
+        <v>14</v>
+      </c>
+      <c r="AE196">
+        <v>1.23</v>
+      </c>
+      <c r="AF196">
+        <v>4.17</v>
+      </c>
+      <c r="AG196">
+        <v>1.67</v>
+      </c>
+      <c r="AH196">
+        <v>2</v>
+      </c>
+      <c r="AI196">
+        <v>1.7</v>
+      </c>
+      <c r="AJ196">
+        <v>2.05</v>
+      </c>
+      <c r="AK196">
+        <v>2.15</v>
+      </c>
+      <c r="AL196">
+        <v>1.2</v>
+      </c>
+      <c r="AM196">
+        <v>1.17</v>
+      </c>
+      <c r="AN196">
+        <v>0.92</v>
+      </c>
+      <c r="AO196">
+        <v>1</v>
+      </c>
+      <c r="AP196">
+        <v>0.85</v>
+      </c>
+      <c r="AQ196">
+        <v>1.17</v>
+      </c>
+      <c r="AR196">
+        <v>1.25</v>
+      </c>
+      <c r="AS196">
+        <v>1.33</v>
+      </c>
+      <c r="AT196">
+        <v>2.58</v>
+      </c>
+      <c r="AU196">
+        <v>4</v>
+      </c>
+      <c r="AV196">
+        <v>7</v>
+      </c>
+      <c r="AW196">
+        <v>5</v>
+      </c>
+      <c r="AX196">
+        <v>4</v>
+      </c>
+      <c r="AY196">
+        <v>9</v>
+      </c>
+      <c r="AZ196">
+        <v>11</v>
+      </c>
+      <c r="BA196">
+        <v>4</v>
+      </c>
+      <c r="BB196">
+        <v>4</v>
+      </c>
+      <c r="BC196">
+        <v>8</v>
+      </c>
+      <c r="BD196">
+        <v>3.19</v>
+      </c>
+      <c r="BE196">
+        <v>9</v>
+      </c>
+      <c r="BF196">
+        <v>1.45</v>
+      </c>
+      <c r="BG196">
+        <v>1.17</v>
+      </c>
+      <c r="BH196">
+        <v>4.35</v>
+      </c>
+      <c r="BI196">
+        <v>1.3</v>
+      </c>
+      <c r="BJ196">
+        <v>3.15</v>
+      </c>
+      <c r="BK196">
+        <v>1.5</v>
+      </c>
+      <c r="BL196">
+        <v>2.38</v>
+      </c>
+      <c r="BM196">
+        <v>1.8</v>
+      </c>
+      <c r="BN196">
+        <v>1.91</v>
+      </c>
+      <c r="BO196">
+        <v>2.2</v>
+      </c>
+      <c r="BP196">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7292631</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45564.47916666666</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>80</v>
+      </c>
+      <c r="H197" t="s">
+        <v>79</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>221</v>
+      </c>
+      <c r="P197" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q197">
+        <v>1.73</v>
+      </c>
+      <c r="R197">
+        <v>2.75</v>
+      </c>
+      <c r="S197">
+        <v>7</v>
+      </c>
+      <c r="T197">
+        <v>1.22</v>
+      </c>
+      <c r="U197">
+        <v>4</v>
+      </c>
+      <c r="V197">
+        <v>2.1</v>
+      </c>
+      <c r="W197">
+        <v>1.67</v>
+      </c>
+      <c r="X197">
+        <v>4.5</v>
+      </c>
+      <c r="Y197">
+        <v>1.18</v>
+      </c>
+      <c r="Z197">
+        <v>1.33</v>
+      </c>
+      <c r="AA197">
+        <v>4.8</v>
+      </c>
+      <c r="AB197">
+        <v>7</v>
+      </c>
+      <c r="AC197">
+        <v>1.01</v>
+      </c>
+      <c r="AD197">
+        <v>22.5</v>
+      </c>
+      <c r="AE197">
+        <v>1.11</v>
+      </c>
+      <c r="AF197">
+        <v>5.5</v>
+      </c>
+      <c r="AG197">
+        <v>1.53</v>
+      </c>
+      <c r="AH197">
+        <v>2.35</v>
+      </c>
+      <c r="AI197">
+        <v>1.75</v>
+      </c>
+      <c r="AJ197">
+        <v>2</v>
+      </c>
+      <c r="AK197">
+        <v>1.07</v>
+      </c>
+      <c r="AL197">
+        <v>1.16</v>
+      </c>
+      <c r="AM197">
+        <v>3.2</v>
+      </c>
+      <c r="AN197">
+        <v>2.73</v>
+      </c>
+      <c r="AO197">
+        <v>1.17</v>
+      </c>
+      <c r="AP197">
+        <v>2.75</v>
+      </c>
+      <c r="AQ197">
+        <v>1.08</v>
+      </c>
+      <c r="AR197">
+        <v>2.18</v>
+      </c>
+      <c r="AS197">
+        <v>1.26</v>
+      </c>
+      <c r="AT197">
+        <v>3.44</v>
+      </c>
+      <c r="AU197">
+        <v>6</v>
+      </c>
+      <c r="AV197">
+        <v>4</v>
+      </c>
+      <c r="AW197">
+        <v>4</v>
+      </c>
+      <c r="AX197">
+        <v>5</v>
+      </c>
+      <c r="AY197">
+        <v>10</v>
+      </c>
+      <c r="AZ197">
+        <v>9</v>
+      </c>
+      <c r="BA197">
+        <v>7</v>
+      </c>
+      <c r="BB197">
+        <v>5</v>
+      </c>
+      <c r="BC197">
+        <v>12</v>
+      </c>
+      <c r="BD197">
+        <v>1.23</v>
+      </c>
+      <c r="BE197">
+        <v>8</v>
+      </c>
+      <c r="BF197">
+        <v>4.1</v>
+      </c>
+      <c r="BG197">
+        <v>1.17</v>
+      </c>
+      <c r="BH197">
+        <v>4.3</v>
+      </c>
+      <c r="BI197">
+        <v>1.3</v>
+      </c>
+      <c r="BJ197">
+        <v>3.1</v>
+      </c>
+      <c r="BK197">
+        <v>1.5</v>
+      </c>
+      <c r="BL197">
+        <v>2.38</v>
+      </c>
+      <c r="BM197">
+        <v>1.8</v>
+      </c>
+      <c r="BN197">
+        <v>1.91</v>
+      </c>
+      <c r="BO197">
+        <v>2.17</v>
+      </c>
+      <c r="BP197">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7292632</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45564.47916666666</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>73</v>
+      </c>
+      <c r="H198" t="s">
+        <v>75</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>222</v>
+      </c>
+      <c r="P198" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q198">
+        <v>2.2</v>
+      </c>
+      <c r="R198">
+        <v>2.5</v>
+      </c>
+      <c r="S198">
+        <v>4.5</v>
+      </c>
+      <c r="T198">
+        <v>1.25</v>
+      </c>
+      <c r="U198">
+        <v>3.75</v>
+      </c>
+      <c r="V198">
+        <v>2.2</v>
+      </c>
+      <c r="W198">
+        <v>1.62</v>
+      </c>
+      <c r="X198">
+        <v>5</v>
+      </c>
+      <c r="Y198">
+        <v>1.17</v>
+      </c>
+      <c r="Z198">
+        <v>1.61</v>
+      </c>
+      <c r="AA198">
+        <v>3.75</v>
+      </c>
+      <c r="AB198">
+        <v>4.33</v>
+      </c>
+      <c r="AC198">
+        <v>1.02</v>
+      </c>
+      <c r="AD198">
+        <v>20</v>
+      </c>
+      <c r="AE198">
+        <v>1.13</v>
+      </c>
+      <c r="AF198">
+        <v>5</v>
+      </c>
+      <c r="AG198">
+        <v>1.5</v>
+      </c>
+      <c r="AH198">
+        <v>2.4</v>
+      </c>
+      <c r="AI198">
+        <v>1.53</v>
+      </c>
+      <c r="AJ198">
+        <v>2.38</v>
+      </c>
+      <c r="AK198">
+        <v>1.18</v>
+      </c>
+      <c r="AL198">
+        <v>1.25</v>
+      </c>
+      <c r="AM198">
+        <v>2.15</v>
+      </c>
+      <c r="AN198">
+        <v>1.5</v>
+      </c>
+      <c r="AO198">
+        <v>1.55</v>
+      </c>
+      <c r="AP198">
+        <v>1.62</v>
+      </c>
+      <c r="AQ198">
+        <v>1.42</v>
+      </c>
+      <c r="AR198">
+        <v>1.78</v>
+      </c>
+      <c r="AS198">
+        <v>1.27</v>
+      </c>
+      <c r="AT198">
+        <v>3.05</v>
+      </c>
+      <c r="AU198">
+        <v>10</v>
+      </c>
+      <c r="AV198">
+        <v>7</v>
+      </c>
+      <c r="AW198">
+        <v>7</v>
+      </c>
+      <c r="AX198">
+        <v>7</v>
+      </c>
+      <c r="AY198">
+        <v>17</v>
+      </c>
+      <c r="AZ198">
+        <v>14</v>
+      </c>
+      <c r="BA198">
+        <v>5</v>
+      </c>
+      <c r="BB198">
+        <v>6</v>
+      </c>
+      <c r="BC198">
+        <v>11</v>
+      </c>
+      <c r="BD198">
+        <v>1.44</v>
+      </c>
+      <c r="BE198">
+        <v>6.75</v>
+      </c>
+      <c r="BF198">
+        <v>2.9</v>
+      </c>
+      <c r="BG198">
+        <v>1.15</v>
+      </c>
+      <c r="BH198">
+        <v>4.6</v>
+      </c>
+      <c r="BI198">
+        <v>1.27</v>
+      </c>
+      <c r="BJ198">
+        <v>3.3</v>
+      </c>
+      <c r="BK198">
+        <v>1.46</v>
+      </c>
+      <c r="BL198">
+        <v>2.5</v>
+      </c>
+      <c r="BM198">
+        <v>1.73</v>
+      </c>
+      <c r="BN198">
+        <v>1.98</v>
+      </c>
+      <c r="BO198">
+        <v>2.05</v>
+      </c>
+      <c r="BP198">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,22 +667,28 @@
     <t>['16', '80']</t>
   </si>
   <si>
-    <t>['7', '64']</t>
+    <t>['32', '49']</t>
   </si>
   <si>
-    <t>['32', '49']</t>
+    <t>['7', '64']</t>
   </si>
   <si>
     <t>['66']</t>
   </si>
   <si>
+    <t>['20', '31']</t>
+  </si>
+  <si>
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['20', '31']</t>
+    <t>['71', '79']</t>
   </si>
   <si>
-    <t>['71', '79']</t>
+    <t>['36', '63']</t>
+  </si>
+  <si>
+    <t>['56', '74']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -1359,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,7 +1624,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1824,7 +1830,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2030,7 +2036,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2442,7 +2448,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2520,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ6">
         <v>1.92</v>
@@ -2935,7 +2941,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ8">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3060,7 +3066,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q9">
         <v>2.05</v>
@@ -3266,7 +3272,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3344,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
         <v>1.54</v>
@@ -4296,7 +4302,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4502,7 +4508,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4583,7 +4589,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ16">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4708,7 +4714,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4914,7 +4920,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>3.38</v>
@@ -5407,7 +5413,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ20">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR20">
         <v>1.32</v>
@@ -5532,7 +5538,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5944,7 +5950,7 @@
         <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6150,7 +6156,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>2.3</v>
@@ -6562,7 +6568,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>2.25</v>
@@ -6846,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ27">
         <v>0.85</v>
@@ -7055,7 +7061,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ28">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>2.62</v>
@@ -7180,7 +7186,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7798,7 +7804,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8004,7 +8010,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>2.1</v>
@@ -8210,7 +8216,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>2.85</v>
@@ -8288,7 +8294,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34">
         <v>1.42</v>
@@ -8416,7 +8422,7 @@
         <v>88</v>
       </c>
       <c r="P35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8494,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8828,7 +8834,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9034,7 +9040,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q38">
         <v>5.03</v>
@@ -9240,7 +9246,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9321,7 +9327,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ39">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9652,7 +9658,7 @@
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9858,7 +9864,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10351,7 +10357,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10476,7 +10482,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10682,7 +10688,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10760,7 +10766,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ46">
         <v>1.08</v>
@@ -11094,7 +11100,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q48">
         <v>2.75</v>
@@ -11381,7 +11387,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -11506,7 +11512,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11712,7 +11718,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11918,7 +11924,7 @@
         <v>88</v>
       </c>
       <c r="P52" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -12124,7 +12130,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -12330,7 +12336,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12536,7 +12542,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q55">
         <v>2.2</v>
@@ -12742,7 +12748,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>1.98</v>
@@ -12948,7 +12954,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -13154,7 +13160,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>2.23</v>
@@ -13360,7 +13366,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13647,7 +13653,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ60">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13772,7 +13778,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13978,7 +13984,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14390,7 +14396,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>3.5</v>
@@ -14596,7 +14602,7 @@
         <v>88</v>
       </c>
       <c r="P65" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14674,7 +14680,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ65">
         <v>1.77</v>
@@ -15420,7 +15426,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15707,7 +15713,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ70">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR70">
         <v>2.17</v>
@@ -15832,7 +15838,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q71">
         <v>2.75</v>
@@ -16038,7 +16044,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q72">
         <v>2.8</v>
@@ -16244,7 +16250,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>4.08</v>
@@ -16322,7 +16328,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ73">
         <v>1.92</v>
@@ -16450,7 +16456,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16656,7 +16662,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16734,7 +16740,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ75">
         <v>0.85</v>
@@ -17068,7 +17074,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q77">
         <v>3.26</v>
@@ -17355,7 +17361,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ78">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17686,7 +17692,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17970,7 +17976,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ81">
         <v>1.08</v>
@@ -18716,7 +18722,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -19128,7 +19134,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>2.88</v>
@@ -19334,7 +19340,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19540,7 +19546,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19746,7 +19752,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>1.92</v>
@@ -20236,7 +20242,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ92">
         <v>1.17</v>
@@ -20364,7 +20370,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20442,7 +20448,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ93">
         <v>1.77</v>
@@ -20651,7 +20657,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ94">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR94">
         <v>0.93</v>
@@ -20982,7 +20988,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>2.45</v>
@@ -21188,7 +21194,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21269,7 +21275,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ97">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR97">
         <v>1.29</v>
@@ -21394,7 +21400,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21600,7 +21606,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -22012,7 +22018,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22424,7 +22430,7 @@
         <v>119</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -22630,7 +22636,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q104">
         <v>1.5</v>
@@ -23042,7 +23048,7 @@
         <v>119</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23248,7 +23254,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23454,7 +23460,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23741,7 +23747,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ109">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR109">
         <v>1.73</v>
@@ -24072,7 +24078,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24278,7 +24284,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24690,7 +24696,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -24896,7 +24902,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25102,7 +25108,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25308,7 +25314,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25720,7 +25726,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25798,7 +25804,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ119">
         <v>1.54</v>
@@ -26338,7 +26344,7 @@
         <v>150</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26416,10 +26422,10 @@
         <v>0.67</v>
       </c>
       <c r="AP122">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ122">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR122">
         <v>1.19</v>
@@ -26956,7 +26962,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27034,7 +27040,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ125">
         <v>1.23</v>
@@ -27861,7 +27867,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ129">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR129">
         <v>1.82</v>
@@ -27986,7 +27992,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28192,7 +28198,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28273,7 +28279,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ131">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR131">
         <v>1.69</v>
@@ -28398,7 +28404,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28888,7 +28894,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ134">
         <v>0.58</v>
@@ -29016,7 +29022,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29222,7 +29228,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29428,7 +29434,7 @@
         <v>171</v>
       </c>
       <c r="P137" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29634,7 +29640,7 @@
         <v>88</v>
       </c>
       <c r="P138" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>7.7</v>
@@ -29921,7 +29927,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ139">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR139">
         <v>1.34</v>
@@ -30124,7 +30130,7 @@
         <v>1.63</v>
       </c>
       <c r="AP140">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ140">
         <v>1.33</v>
@@ -30252,7 +30258,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>2.25</v>
@@ -30458,7 +30464,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30539,7 +30545,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ142">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR142">
         <v>1.74</v>
@@ -30870,7 +30876,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31154,7 +31160,7 @@
         <v>1.44</v>
       </c>
       <c r="AP145">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ145">
         <v>1.42</v>
@@ -31282,7 +31288,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>1.56</v>
@@ -31488,7 +31494,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q147">
         <v>3.4</v>
@@ -31694,7 +31700,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q148">
         <v>2.35</v>
@@ -31900,7 +31906,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>2.7</v>
@@ -32106,7 +32112,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32312,7 +32318,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32390,7 +32396,7 @@
         <v>1.38</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ151">
         <v>1.25</v>
@@ -32724,7 +32730,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q153">
         <v>6.25</v>
@@ -33136,7 +33142,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33342,7 +33348,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q156">
         <v>2.3</v>
@@ -33548,7 +33554,7 @@
         <v>175</v>
       </c>
       <c r="P157" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33754,7 +33760,7 @@
         <v>101</v>
       </c>
       <c r="P158" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q158">
         <v>3.1</v>
@@ -34041,7 +34047,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ159">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR159">
         <v>1.01</v>
@@ -34247,7 +34253,7 @@
         <v>2</v>
       </c>
       <c r="AQ160">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR160">
         <v>1.63</v>
@@ -34784,7 +34790,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -34990,7 +34996,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35402,7 +35408,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35480,7 +35486,7 @@
         <v>0.78</v>
       </c>
       <c r="AP166">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ166">
         <v>1.17</v>
@@ -35608,7 +35614,7 @@
         <v>88</v>
       </c>
       <c r="P167" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q167">
         <v>3.15</v>
@@ -35686,7 +35692,7 @@
         <v>1.6</v>
       </c>
       <c r="AP167">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ167">
         <v>1.54</v>
@@ -35814,7 +35820,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q168">
         <v>3.25</v>
@@ -36020,7 +36026,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36101,7 +36107,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ169">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR169">
         <v>1.6</v>
@@ -36226,7 +36232,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36638,7 +36644,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q172">
         <v>2.38</v>
@@ -36844,7 +36850,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -37050,7 +37056,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -37256,7 +37262,7 @@
         <v>209</v>
       </c>
       <c r="P175" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37874,7 +37880,7 @@
         <v>146</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q178">
         <v>2.86</v>
@@ -38080,7 +38086,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38364,7 +38370,7 @@
         <v>1.18</v>
       </c>
       <c r="AP180">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ180">
         <v>1.08</v>
@@ -38492,7 +38498,7 @@
         <v>88</v>
       </c>
       <c r="P181" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q181">
         <v>4.73</v>
@@ -38779,7 +38785,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ182">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR182">
         <v>1.27</v>
@@ -39522,7 +39528,7 @@
         <v>146</v>
       </c>
       <c r="P186" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39600,7 +39606,7 @@
         <v>0.55</v>
       </c>
       <c r="AP186">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ186">
         <v>0.58</v>
@@ -39728,7 +39734,7 @@
         <v>88</v>
       </c>
       <c r="P187" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q187">
         <v>3.35</v>
@@ -39934,7 +39940,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -40140,7 +40146,7 @@
         <v>216</v>
       </c>
       <c r="P189" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q189">
         <v>2.25</v>
@@ -40304,7 +40310,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7292625</v>
+        <v>7292622</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40319,190 +40325,190 @@
         <v>24</v>
       </c>
       <c r="G190" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H190" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L190">
         <v>2</v>
       </c>
       <c r="M190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O190" t="s">
         <v>217</v>
       </c>
       <c r="P190" t="s">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="Q190">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="R190">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S190">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T190">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U190">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V190">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W190">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X190">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y190">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z190">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AA190">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AB190">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AC190">
         <v>1.01</v>
       </c>
       <c r="AD190">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE190">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF190">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG190">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AH190">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AI190">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AJ190">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AK190">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AL190">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM190">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="AN190">
+        <v>1.91</v>
+      </c>
+      <c r="AO190">
         <v>1.36</v>
       </c>
-      <c r="AO190">
-        <v>0.91</v>
-      </c>
       <c r="AP190">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="AQ190">
-        <v>0.92</v>
+        <v>1.25</v>
       </c>
       <c r="AR190">
-        <v>1</v>
+        <v>1.59</v>
       </c>
       <c r="AS190">
-        <v>1.2</v>
+        <v>1.49</v>
       </c>
       <c r="AT190">
-        <v>2.2</v>
+        <v>3.08</v>
       </c>
       <c r="AU190">
         <v>4</v>
       </c>
       <c r="AV190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW190">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY190">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ190">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA190">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB190">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC190">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD190">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="BE190">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF190">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="BG190">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH190">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BI190">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BJ190">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="BK190">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="BL190">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="BM190">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="BN190">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="BO190">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BP190">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40510,7 +40516,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7292622</v>
+        <v>7292625</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40519,196 +40525,196 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45561.58333333334</v>
+        <v>45560.875</v>
       </c>
       <c r="F191">
         <v>24</v>
       </c>
       <c r="G191" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H191" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L191">
         <v>2</v>
       </c>
       <c r="M191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O191" t="s">
         <v>218</v>
       </c>
       <c r="P191" t="s">
-        <v>88</v>
+        <v>327</v>
       </c>
       <c r="Q191">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="R191">
+        <v>2.4</v>
+      </c>
+      <c r="S191">
+        <v>3.1</v>
+      </c>
+      <c r="T191">
+        <v>1.29</v>
+      </c>
+      <c r="U191">
+        <v>3.5</v>
+      </c>
+      <c r="V191">
+        <v>2.25</v>
+      </c>
+      <c r="W191">
+        <v>1.57</v>
+      </c>
+      <c r="X191">
+        <v>5.5</v>
+      </c>
+      <c r="Y191">
+        <v>1.14</v>
+      </c>
+      <c r="Z191">
+        <v>2.4</v>
+      </c>
+      <c r="AA191">
+        <v>3.25</v>
+      </c>
+      <c r="AB191">
         <v>2.5</v>
-      </c>
-      <c r="S191">
-        <v>3.4</v>
-      </c>
-      <c r="T191">
-        <v>1.25</v>
-      </c>
-      <c r="U191">
-        <v>3.75</v>
-      </c>
-      <c r="V191">
-        <v>2.1</v>
-      </c>
-      <c r="W191">
-        <v>1.67</v>
-      </c>
-      <c r="X191">
-        <v>4.5</v>
-      </c>
-      <c r="Y191">
-        <v>1.18</v>
-      </c>
-      <c r="Z191">
-        <v>2.1</v>
-      </c>
-      <c r="AA191">
-        <v>3.4</v>
-      </c>
-      <c r="AB191">
-        <v>2.9</v>
       </c>
       <c r="AC191">
         <v>1.01</v>
       </c>
       <c r="AD191">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE191">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AF191">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG191">
+        <v>1.5</v>
+      </c>
+      <c r="AH191">
+        <v>2.4</v>
+      </c>
+      <c r="AI191">
         <v>1.44</v>
       </c>
-      <c r="AH191">
-        <v>2.6</v>
-      </c>
-      <c r="AI191">
-        <v>1.4</v>
-      </c>
       <c r="AJ191">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AK191">
+        <v>1.48</v>
+      </c>
+      <c r="AL191">
+        <v>1.3</v>
+      </c>
+      <c r="AM191">
+        <v>1.52</v>
+      </c>
+      <c r="AN191">
         <v>1.36</v>
       </c>
-      <c r="AL191">
-        <v>1.22</v>
-      </c>
-      <c r="AM191">
-        <v>1.75</v>
-      </c>
-      <c r="AN191">
-        <v>1.91</v>
-      </c>
       <c r="AO191">
-        <v>1.36</v>
+        <v>0.91</v>
       </c>
       <c r="AP191">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ191">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AR191">
-        <v>1.59</v>
+        <v>1</v>
       </c>
       <c r="AS191">
-        <v>1.49</v>
+        <v>1.2</v>
       </c>
       <c r="AT191">
-        <v>3.08</v>
+        <v>2.2</v>
       </c>
       <c r="AU191">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV191">
+        <v>2</v>
+      </c>
+      <c r="AW191">
+        <v>9</v>
+      </c>
+      <c r="AX191">
         <v>3</v>
-      </c>
-      <c r="AW191">
-        <v>5</v>
-      </c>
-      <c r="AX191">
-        <v>7</v>
       </c>
       <c r="AY191">
         <v>13</v>
       </c>
       <c r="AZ191">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB191">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC191">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD191">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="BE191">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF191">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="BG191">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH191">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BI191">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BJ191">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="BK191">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="BL191">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="BM191">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="BN191">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="BO191">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="BP191">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40725,7 +40731,7 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45561.58333333334</v>
+        <v>45560.875</v>
       </c>
       <c r="F192">
         <v>24</v>
@@ -40758,7 +40764,7 @@
         <v>219</v>
       </c>
       <c r="P192" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -40851,22 +40857,22 @@
         <v>3.25</v>
       </c>
       <c r="AU192">
+        <v>6</v>
+      </c>
+      <c r="AV192">
         <v>7</v>
-      </c>
-      <c r="AV192">
-        <v>9</v>
       </c>
       <c r="AW192">
         <v>5</v>
       </c>
       <c r="AX192">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY192">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ192">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA192">
         <v>8</v>
@@ -40931,7 +40937,7 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45564.375</v>
+        <v>45563.875</v>
       </c>
       <c r="F193">
         <v>25</v>
@@ -41057,10 +41063,10 @@
         <v>3.16</v>
       </c>
       <c r="AU193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW193">
         <v>6</v>
@@ -41069,10 +41075,10 @@
         <v>2</v>
       </c>
       <c r="AY193">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA193">
         <v>5</v>
@@ -41128,7 +41134,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7292633</v>
+        <v>7292631</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41137,196 +41143,196 @@
         <v>69</v>
       </c>
       <c r="E194" s="2">
-        <v>45564.375</v>
+        <v>45563.875</v>
       </c>
       <c r="F194">
         <v>25</v>
       </c>
       <c r="G194" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H194" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M194">
         <v>0</v>
       </c>
       <c r="N194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O194" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="P194" t="s">
         <v>88</v>
       </c>
       <c r="Q194">
+        <v>1.73</v>
+      </c>
+      <c r="R194">
+        <v>2.75</v>
+      </c>
+      <c r="S194">
+        <v>7</v>
+      </c>
+      <c r="T194">
+        <v>1.22</v>
+      </c>
+      <c r="U194">
+        <v>4</v>
+      </c>
+      <c r="V194">
+        <v>2.1</v>
+      </c>
+      <c r="W194">
+        <v>1.67</v>
+      </c>
+      <c r="X194">
+        <v>4.5</v>
+      </c>
+      <c r="Y194">
+        <v>1.18</v>
+      </c>
+      <c r="Z194">
+        <v>1.33</v>
+      </c>
+      <c r="AA194">
+        <v>4.8</v>
+      </c>
+      <c r="AB194">
+        <v>7</v>
+      </c>
+      <c r="AC194">
+        <v>1.01</v>
+      </c>
+      <c r="AD194">
+        <v>22.5</v>
+      </c>
+      <c r="AE194">
+        <v>1.11</v>
+      </c>
+      <c r="AF194">
+        <v>5.5</v>
+      </c>
+      <c r="AG194">
+        <v>1.53</v>
+      </c>
+      <c r="AH194">
+        <v>2.35</v>
+      </c>
+      <c r="AI194">
+        <v>1.75</v>
+      </c>
+      <c r="AJ194">
+        <v>2</v>
+      </c>
+      <c r="AK194">
+        <v>1.07</v>
+      </c>
+      <c r="AL194">
+        <v>1.16</v>
+      </c>
+      <c r="AM194">
         <v>3.2</v>
       </c>
-      <c r="R194">
-        <v>2.2</v>
-      </c>
-      <c r="S194">
-        <v>3.25</v>
-      </c>
-      <c r="T194">
-        <v>1.4</v>
-      </c>
-      <c r="U194">
+      <c r="AN194">
+        <v>2.73</v>
+      </c>
+      <c r="AO194">
+        <v>1.17</v>
+      </c>
+      <c r="AP194">
         <v>2.75</v>
       </c>
-      <c r="V194">
-        <v>2.75</v>
-      </c>
-      <c r="W194">
-        <v>1.4</v>
-      </c>
-      <c r="X194">
-        <v>8</v>
-      </c>
-      <c r="Y194">
+      <c r="AQ194">
         <v>1.08</v>
       </c>
-      <c r="Z194">
-        <v>2.5</v>
-      </c>
-      <c r="AA194">
-        <v>3.1</v>
-      </c>
-      <c r="AB194">
-        <v>2.6</v>
-      </c>
-      <c r="AC194">
-        <v>1.06</v>
-      </c>
-      <c r="AD194">
-        <v>11</v>
-      </c>
-      <c r="AE194">
-        <v>1.22</v>
-      </c>
-      <c r="AF194">
-        <v>3.8</v>
-      </c>
-      <c r="AG194">
-        <v>1.8</v>
-      </c>
-      <c r="AH194">
-        <v>1.83</v>
-      </c>
-      <c r="AI194">
-        <v>1.7</v>
-      </c>
-      <c r="AJ194">
-        <v>2.05</v>
-      </c>
-      <c r="AK194">
-        <v>1.48</v>
-      </c>
-      <c r="AL194">
-        <v>1.35</v>
-      </c>
-      <c r="AM194">
-        <v>1.49</v>
-      </c>
-      <c r="AN194">
-        <v>1.33</v>
-      </c>
-      <c r="AO194">
-        <v>0.83</v>
-      </c>
-      <c r="AP194">
-        <v>1.31</v>
-      </c>
-      <c r="AQ194">
-        <v>0.85</v>
-      </c>
       <c r="AR194">
-        <v>1</v>
+        <v>2.18</v>
       </c>
       <c r="AS194">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT194">
-        <v>2.28</v>
+        <v>3.44</v>
       </c>
       <c r="AU194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW194">
+        <v>3</v>
+      </c>
+      <c r="AX194">
+        <v>5</v>
+      </c>
+      <c r="AY194">
+        <v>6</v>
+      </c>
+      <c r="AZ194">
+        <v>12</v>
+      </c>
+      <c r="BA194">
         <v>7</v>
       </c>
-      <c r="AX194">
-        <v>3</v>
-      </c>
-      <c r="AY194">
-        <v>9</v>
-      </c>
-      <c r="AZ194">
-        <v>7</v>
-      </c>
-      <c r="BA194">
-        <v>6</v>
-      </c>
       <c r="BB194">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD194">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="BE194">
         <v>8</v>
       </c>
       <c r="BF194">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="BG194">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="BH194">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="BI194">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BJ194">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="BK194">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="BL194">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="BM194">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BN194">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="BO194">
-        <v>2.55</v>
+        <v>2.17</v>
       </c>
       <c r="BP194">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41334,7 +41340,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7292635</v>
+        <v>7292633</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41349,10 +41355,10 @@
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H195" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -41364,28 +41370,28 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O195" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="P195" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="Q195">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="R195">
         <v>2.2</v>
       </c>
       <c r="S195">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T195">
         <v>1.4</v>
@@ -41394,10 +41400,10 @@
         <v>2.75</v>
       </c>
       <c r="V195">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W195">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X195">
         <v>8</v>
@@ -41406,133 +41412,133 @@
         <v>1.08</v>
       </c>
       <c r="Z195">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AA195">
         <v>3.1</v>
       </c>
       <c r="AB195">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="AC195">
         <v>1.06</v>
       </c>
       <c r="AD195">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE195">
+        <v>1.22</v>
+      </c>
+      <c r="AF195">
+        <v>3.8</v>
+      </c>
+      <c r="AG195">
+        <v>1.8</v>
+      </c>
+      <c r="AH195">
+        <v>1.83</v>
+      </c>
+      <c r="AI195">
+        <v>1.7</v>
+      </c>
+      <c r="AJ195">
+        <v>2.05</v>
+      </c>
+      <c r="AK195">
+        <v>1.48</v>
+      </c>
+      <c r="AL195">
+        <v>1.35</v>
+      </c>
+      <c r="AM195">
+        <v>1.49</v>
+      </c>
+      <c r="AN195">
         <v>1.33</v>
       </c>
-      <c r="AF195">
-        <v>3.4</v>
-      </c>
-      <c r="AG195">
-        <v>1.85</v>
-      </c>
-      <c r="AH195">
-        <v>1.8</v>
-      </c>
-      <c r="AI195">
-        <v>1.8</v>
-      </c>
-      <c r="AJ195">
-        <v>1.95</v>
-      </c>
-      <c r="AK195">
-        <v>1.73</v>
-      </c>
-      <c r="AL195">
-        <v>1.34</v>
-      </c>
-      <c r="AM195">
+      <c r="AO195">
+        <v>0.83</v>
+      </c>
+      <c r="AP195">
+        <v>1.31</v>
+      </c>
+      <c r="AQ195">
+        <v>0.85</v>
+      </c>
+      <c r="AR195">
+        <v>1</v>
+      </c>
+      <c r="AS195">
         <v>1.28</v>
       </c>
-      <c r="AN195">
-        <v>0.67</v>
-      </c>
-      <c r="AO195">
-        <v>2</v>
-      </c>
-      <c r="AP195">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AQ195">
-        <v>1.92</v>
-      </c>
-      <c r="AR195">
-        <v>1.26</v>
-      </c>
-      <c r="AS195">
-        <v>1.56</v>
-      </c>
       <c r="AT195">
-        <v>2.82</v>
+        <v>2.28</v>
       </c>
       <c r="AU195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV195">
         <v>4</v>
       </c>
       <c r="AW195">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX195">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY195">
+        <v>9</v>
+      </c>
+      <c r="AZ195">
         <v>7</v>
       </c>
-      <c r="AZ195">
-        <v>9</v>
-      </c>
       <c r="BA195">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB195">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC195">
+        <v>13</v>
+      </c>
+      <c r="BD195">
+        <v>2</v>
+      </c>
+      <c r="BE195">
         <v>8</v>
       </c>
-      <c r="BD195">
-        <v>2.43</v>
-      </c>
-      <c r="BE195">
-        <v>8.5</v>
-      </c>
       <c r="BF195">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="BG195">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH195">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="BI195">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="BJ195">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="BK195">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BL195">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="BM195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN195">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BO195">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="BP195">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41540,7 +41546,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7292634</v>
+        <v>7292635</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41549,148 +41555,148 @@
         <v>69</v>
       </c>
       <c r="E196" s="2">
-        <v>45564.47916666666</v>
+        <v>45564.375</v>
       </c>
       <c r="F196">
         <v>25</v>
       </c>
       <c r="G196" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H196" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>221</v>
+      </c>
+      <c r="P196" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q196">
+        <v>4</v>
+      </c>
+      <c r="R196">
+        <v>2.2</v>
+      </c>
+      <c r="S196">
+        <v>2.75</v>
+      </c>
+      <c r="T196">
+        <v>1.4</v>
+      </c>
+      <c r="U196">
+        <v>2.75</v>
+      </c>
+      <c r="V196">
         <v>3</v>
       </c>
-      <c r="L196">
-        <v>1</v>
-      </c>
-      <c r="M196">
+      <c r="W196">
+        <v>1.36</v>
+      </c>
+      <c r="X196">
+        <v>8</v>
+      </c>
+      <c r="Y196">
+        <v>1.08</v>
+      </c>
+      <c r="Z196">
+        <v>3.5</v>
+      </c>
+      <c r="AA196">
+        <v>3.1</v>
+      </c>
+      <c r="AB196">
+        <v>1.95</v>
+      </c>
+      <c r="AC196">
+        <v>1.06</v>
+      </c>
+      <c r="AD196">
+        <v>10</v>
+      </c>
+      <c r="AE196">
+        <v>1.33</v>
+      </c>
+      <c r="AF196">
+        <v>3.4</v>
+      </c>
+      <c r="AG196">
+        <v>1.85</v>
+      </c>
+      <c r="AH196">
+        <v>1.8</v>
+      </c>
+      <c r="AI196">
+        <v>1.8</v>
+      </c>
+      <c r="AJ196">
+        <v>1.95</v>
+      </c>
+      <c r="AK196">
+        <v>1.73</v>
+      </c>
+      <c r="AL196">
+        <v>1.34</v>
+      </c>
+      <c r="AM196">
+        <v>1.28</v>
+      </c>
+      <c r="AN196">
+        <v>0.67</v>
+      </c>
+      <c r="AO196">
+        <v>2</v>
+      </c>
+      <c r="AP196">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ196">
+        <v>1.92</v>
+      </c>
+      <c r="AR196">
+        <v>1.26</v>
+      </c>
+      <c r="AS196">
+        <v>1.56</v>
+      </c>
+      <c r="AT196">
+        <v>2.82</v>
+      </c>
+      <c r="AU196">
         <v>3</v>
       </c>
-      <c r="N196">
+      <c r="AV196">
         <v>4</v>
       </c>
-      <c r="O196" t="s">
-        <v>165</v>
-      </c>
-      <c r="P196" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q196">
-        <v>4.75</v>
-      </c>
-      <c r="R196">
-        <v>2.3</v>
-      </c>
-      <c r="S196">
-        <v>2.25</v>
-      </c>
-      <c r="T196">
-        <v>1.33</v>
-      </c>
-      <c r="U196">
-        <v>3.25</v>
-      </c>
-      <c r="V196">
-        <v>2.63</v>
-      </c>
-      <c r="W196">
-        <v>1.44</v>
-      </c>
-      <c r="X196">
-        <v>6.5</v>
-      </c>
-      <c r="Y196">
-        <v>1.11</v>
-      </c>
-      <c r="Z196">
-        <v>4.4</v>
-      </c>
-      <c r="AA196">
-        <v>3.5</v>
-      </c>
-      <c r="AB196">
-        <v>1.65</v>
-      </c>
-      <c r="AC196">
-        <v>1.03</v>
-      </c>
-      <c r="AD196">
-        <v>14</v>
-      </c>
-      <c r="AE196">
-        <v>1.23</v>
-      </c>
-      <c r="AF196">
-        <v>4.17</v>
-      </c>
-      <c r="AG196">
-        <v>1.67</v>
-      </c>
-      <c r="AH196">
-        <v>2</v>
-      </c>
-      <c r="AI196">
-        <v>1.7</v>
-      </c>
-      <c r="AJ196">
-        <v>2.05</v>
-      </c>
-      <c r="AK196">
-        <v>2.15</v>
-      </c>
-      <c r="AL196">
-        <v>1.2</v>
-      </c>
-      <c r="AM196">
-        <v>1.17</v>
-      </c>
-      <c r="AN196">
-        <v>0.92</v>
-      </c>
-      <c r="AO196">
-        <v>1</v>
-      </c>
-      <c r="AP196">
-        <v>0.85</v>
-      </c>
-      <c r="AQ196">
-        <v>1.17</v>
-      </c>
-      <c r="AR196">
-        <v>1.25</v>
-      </c>
-      <c r="AS196">
-        <v>1.33</v>
-      </c>
-      <c r="AT196">
-        <v>2.58</v>
-      </c>
-      <c r="AU196">
+      <c r="AW196">
         <v>4</v>
       </c>
-      <c r="AV196">
+      <c r="AX196">
+        <v>5</v>
+      </c>
+      <c r="AY196">
         <v>7</v>
       </c>
-      <c r="AW196">
-        <v>5</v>
-      </c>
-      <c r="AX196">
-        <v>4</v>
-      </c>
-      <c r="AY196">
+      <c r="AZ196">
         <v>9</v>
-      </c>
-      <c r="AZ196">
-        <v>11</v>
       </c>
       <c r="BA196">
         <v>4</v>
@@ -41702,43 +41708,43 @@
         <v>8</v>
       </c>
       <c r="BD196">
-        <v>3.19</v>
+        <v>2.43</v>
       </c>
       <c r="BE196">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF196">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="BG196">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH196">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="BI196">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BJ196">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BK196">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="BL196">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="BM196">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BN196">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="BO196">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BP196">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41746,7 +41752,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7292631</v>
+        <v>7292634</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41761,172 +41767,172 @@
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H197" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O197" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="P197" t="s">
-        <v>88</v>
+        <v>329</v>
       </c>
       <c r="Q197">
-        <v>1.73</v>
+        <v>4.75</v>
       </c>
       <c r="R197">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="S197">
+        <v>2.25</v>
+      </c>
+      <c r="T197">
+        <v>1.33</v>
+      </c>
+      <c r="U197">
+        <v>3.25</v>
+      </c>
+      <c r="V197">
+        <v>2.63</v>
+      </c>
+      <c r="W197">
+        <v>1.44</v>
+      </c>
+      <c r="X197">
+        <v>6.5</v>
+      </c>
+      <c r="Y197">
+        <v>1.11</v>
+      </c>
+      <c r="Z197">
+        <v>4.4</v>
+      </c>
+      <c r="AA197">
+        <v>3.5</v>
+      </c>
+      <c r="AB197">
+        <v>1.65</v>
+      </c>
+      <c r="AC197">
+        <v>1.03</v>
+      </c>
+      <c r="AD197">
+        <v>14</v>
+      </c>
+      <c r="AE197">
+        <v>1.23</v>
+      </c>
+      <c r="AF197">
+        <v>4.17</v>
+      </c>
+      <c r="AG197">
+        <v>1.67</v>
+      </c>
+      <c r="AH197">
+        <v>2</v>
+      </c>
+      <c r="AI197">
+        <v>1.7</v>
+      </c>
+      <c r="AJ197">
+        <v>2.05</v>
+      </c>
+      <c r="AK197">
+        <v>2.15</v>
+      </c>
+      <c r="AL197">
+        <v>1.2</v>
+      </c>
+      <c r="AM197">
+        <v>1.17</v>
+      </c>
+      <c r="AN197">
+        <v>0.92</v>
+      </c>
+      <c r="AO197">
+        <v>1</v>
+      </c>
+      <c r="AP197">
+        <v>0.85</v>
+      </c>
+      <c r="AQ197">
+        <v>1.17</v>
+      </c>
+      <c r="AR197">
+        <v>1.25</v>
+      </c>
+      <c r="AS197">
+        <v>1.33</v>
+      </c>
+      <c r="AT197">
+        <v>2.58</v>
+      </c>
+      <c r="AU197">
+        <v>4</v>
+      </c>
+      <c r="AV197">
         <v>7</v>
       </c>
-      <c r="T197">
-        <v>1.22</v>
-      </c>
-      <c r="U197">
+      <c r="AW197">
+        <v>5</v>
+      </c>
+      <c r="AX197">
         <v>4</v>
       </c>
-      <c r="V197">
-        <v>2.1</v>
-      </c>
-      <c r="W197">
-        <v>1.67</v>
-      </c>
-      <c r="X197">
-        <v>4.5</v>
-      </c>
-      <c r="Y197">
-        <v>1.18</v>
-      </c>
-      <c r="Z197">
-        <v>1.33</v>
-      </c>
-      <c r="AA197">
-        <v>4.8</v>
-      </c>
-      <c r="AB197">
-        <v>7</v>
-      </c>
-      <c r="AC197">
-        <v>1.01</v>
-      </c>
-      <c r="AD197">
-        <v>22.5</v>
-      </c>
-      <c r="AE197">
-        <v>1.11</v>
-      </c>
-      <c r="AF197">
-        <v>5.5</v>
-      </c>
-      <c r="AG197">
-        <v>1.53</v>
-      </c>
-      <c r="AH197">
-        <v>2.35</v>
-      </c>
-      <c r="AI197">
-        <v>1.75</v>
-      </c>
-      <c r="AJ197">
-        <v>2</v>
-      </c>
-      <c r="AK197">
-        <v>1.07</v>
-      </c>
-      <c r="AL197">
-        <v>1.16</v>
-      </c>
-      <c r="AM197">
-        <v>3.2</v>
-      </c>
-      <c r="AN197">
-        <v>2.73</v>
-      </c>
-      <c r="AO197">
-        <v>1.17</v>
-      </c>
-      <c r="AP197">
-        <v>2.75</v>
-      </c>
-      <c r="AQ197">
-        <v>1.08</v>
-      </c>
-      <c r="AR197">
-        <v>2.18</v>
-      </c>
-      <c r="AS197">
-        <v>1.26</v>
-      </c>
-      <c r="AT197">
-        <v>3.44</v>
-      </c>
-      <c r="AU197">
-        <v>6</v>
-      </c>
-      <c r="AV197">
+      <c r="AY197">
+        <v>9</v>
+      </c>
+      <c r="AZ197">
+        <v>11</v>
+      </c>
+      <c r="BA197">
         <v>4</v>
       </c>
-      <c r="AW197">
+      <c r="BB197">
         <v>4</v>
       </c>
-      <c r="AX197">
-        <v>5</v>
-      </c>
-      <c r="AY197">
-        <v>10</v>
-      </c>
-      <c r="AZ197">
+      <c r="BC197">
+        <v>8</v>
+      </c>
+      <c r="BD197">
+        <v>3.19</v>
+      </c>
+      <c r="BE197">
         <v>9</v>
       </c>
-      <c r="BA197">
-        <v>7</v>
-      </c>
-      <c r="BB197">
-        <v>5</v>
-      </c>
-      <c r="BC197">
-        <v>12</v>
-      </c>
-      <c r="BD197">
-        <v>1.23</v>
-      </c>
-      <c r="BE197">
-        <v>8</v>
-      </c>
       <c r="BF197">
-        <v>4.1</v>
+        <v>1.45</v>
       </c>
       <c r="BG197">
         <v>1.17</v>
       </c>
       <c r="BH197">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="BI197">
         <v>1.3</v>
       </c>
       <c r="BJ197">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="BK197">
         <v>1.5</v>
@@ -41941,10 +41947,10 @@
         <v>1.91</v>
       </c>
       <c r="BO197">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="BP197">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -42151,6 +42157,418 @@
       </c>
       <c r="BP198">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7292630</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45564.875</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>74</v>
+      </c>
+      <c r="H199" t="s">
+        <v>72</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>223</v>
+      </c>
+      <c r="P199" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q199">
+        <v>3.1</v>
+      </c>
+      <c r="R199">
+        <v>2.2</v>
+      </c>
+      <c r="S199">
+        <v>3.4</v>
+      </c>
+      <c r="T199">
+        <v>1.36</v>
+      </c>
+      <c r="U199">
+        <v>3</v>
+      </c>
+      <c r="V199">
+        <v>2.75</v>
+      </c>
+      <c r="W199">
+        <v>1.4</v>
+      </c>
+      <c r="X199">
+        <v>7</v>
+      </c>
+      <c r="Y199">
+        <v>1.1</v>
+      </c>
+      <c r="Z199">
+        <v>2.1</v>
+      </c>
+      <c r="AA199">
+        <v>3.5</v>
+      </c>
+      <c r="AB199">
+        <v>3.2</v>
+      </c>
+      <c r="AC199">
+        <v>1.02</v>
+      </c>
+      <c r="AD199">
+        <v>10</v>
+      </c>
+      <c r="AE199">
+        <v>1.25</v>
+      </c>
+      <c r="AF199">
+        <v>3.65</v>
+      </c>
+      <c r="AG199">
+        <v>1.86</v>
+      </c>
+      <c r="AH199">
+        <v>1.94</v>
+      </c>
+      <c r="AI199">
+        <v>1.7</v>
+      </c>
+      <c r="AJ199">
+        <v>2.05</v>
+      </c>
+      <c r="AK199">
+        <v>1.44</v>
+      </c>
+      <c r="AL199">
+        <v>1.3</v>
+      </c>
+      <c r="AM199">
+        <v>1.56</v>
+      </c>
+      <c r="AN199">
+        <v>0.92</v>
+      </c>
+      <c r="AO199">
+        <v>1.18</v>
+      </c>
+      <c r="AP199">
+        <v>1.08</v>
+      </c>
+      <c r="AQ199">
+        <v>1.08</v>
+      </c>
+      <c r="AR199">
+        <v>1.22</v>
+      </c>
+      <c r="AS199">
+        <v>1.39</v>
+      </c>
+      <c r="AT199">
+        <v>2.61</v>
+      </c>
+      <c r="AU199">
+        <v>4</v>
+      </c>
+      <c r="AV199">
+        <v>5</v>
+      </c>
+      <c r="AW199">
+        <v>2</v>
+      </c>
+      <c r="AX199">
+        <v>4</v>
+      </c>
+      <c r="AY199">
+        <v>6</v>
+      </c>
+      <c r="AZ199">
+        <v>9</v>
+      </c>
+      <c r="BA199">
+        <v>5</v>
+      </c>
+      <c r="BB199">
+        <v>9</v>
+      </c>
+      <c r="BC199">
+        <v>14</v>
+      </c>
+      <c r="BD199">
+        <v>1.72</v>
+      </c>
+      <c r="BE199">
+        <v>6.75</v>
+      </c>
+      <c r="BF199">
+        <v>2.18</v>
+      </c>
+      <c r="BG199">
+        <v>1.15</v>
+      </c>
+      <c r="BH199">
+        <v>4.6</v>
+      </c>
+      <c r="BI199">
+        <v>1.27</v>
+      </c>
+      <c r="BJ199">
+        <v>3.3</v>
+      </c>
+      <c r="BK199">
+        <v>1.46</v>
+      </c>
+      <c r="BL199">
+        <v>2.5</v>
+      </c>
+      <c r="BM199">
+        <v>1.77</v>
+      </c>
+      <c r="BN199">
+        <v>1.95</v>
+      </c>
+      <c r="BO199">
+        <v>2.08</v>
+      </c>
+      <c r="BP199">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7292636</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45565.58333333334</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>78</v>
+      </c>
+      <c r="H200" t="s">
+        <v>82</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>224</v>
+      </c>
+      <c r="P200" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q200">
+        <v>2.75</v>
+      </c>
+      <c r="R200">
+        <v>2.3</v>
+      </c>
+      <c r="S200">
+        <v>3.5</v>
+      </c>
+      <c r="T200">
+        <v>1.3</v>
+      </c>
+      <c r="U200">
+        <v>3.4</v>
+      </c>
+      <c r="V200">
+        <v>2.5</v>
+      </c>
+      <c r="W200">
+        <v>1.5</v>
+      </c>
+      <c r="X200">
+        <v>6</v>
+      </c>
+      <c r="Y200">
+        <v>1.13</v>
+      </c>
+      <c r="Z200">
+        <v>2</v>
+      </c>
+      <c r="AA200">
+        <v>3.6</v>
+      </c>
+      <c r="AB200">
+        <v>3.3</v>
+      </c>
+      <c r="AC200">
+        <v>1.03</v>
+      </c>
+      <c r="AD200">
+        <v>9</v>
+      </c>
+      <c r="AE200">
+        <v>1.25</v>
+      </c>
+      <c r="AF200">
+        <v>3.6</v>
+      </c>
+      <c r="AG200">
+        <v>1.89</v>
+      </c>
+      <c r="AH200">
+        <v>1.89</v>
+      </c>
+      <c r="AI200">
+        <v>1.62</v>
+      </c>
+      <c r="AJ200">
+        <v>2.2</v>
+      </c>
+      <c r="AK200">
+        <v>1.41</v>
+      </c>
+      <c r="AL200">
+        <v>1.29</v>
+      </c>
+      <c r="AM200">
+        <v>1.63</v>
+      </c>
+      <c r="AN200">
+        <v>1</v>
+      </c>
+      <c r="AO200">
+        <v>0.73</v>
+      </c>
+      <c r="AP200">
+        <v>1.17</v>
+      </c>
+      <c r="AQ200">
+        <v>0.67</v>
+      </c>
+      <c r="AR200">
+        <v>1.52</v>
+      </c>
+      <c r="AS200">
+        <v>1.61</v>
+      </c>
+      <c r="AT200">
+        <v>3.13</v>
+      </c>
+      <c r="AU200">
+        <v>7</v>
+      </c>
+      <c r="AV200">
+        <v>3</v>
+      </c>
+      <c r="AW200">
+        <v>6</v>
+      </c>
+      <c r="AX200">
+        <v>5</v>
+      </c>
+      <c r="AY200">
+        <v>13</v>
+      </c>
+      <c r="AZ200">
+        <v>8</v>
+      </c>
+      <c r="BA200">
+        <v>6</v>
+      </c>
+      <c r="BB200">
+        <v>3</v>
+      </c>
+      <c r="BC200">
+        <v>9</v>
+      </c>
+      <c r="BD200">
+        <v>1.77</v>
+      </c>
+      <c r="BE200">
+        <v>6.75</v>
+      </c>
+      <c r="BF200">
+        <v>2.08</v>
+      </c>
+      <c r="BG200">
+        <v>1.17</v>
+      </c>
+      <c r="BH200">
+        <v>4.9</v>
+      </c>
+      <c r="BI200">
+        <v>1.3</v>
+      </c>
+      <c r="BJ200">
+        <v>3.1</v>
+      </c>
+      <c r="BK200">
+        <v>1.42</v>
+      </c>
+      <c r="BL200">
+        <v>2.35</v>
+      </c>
+      <c r="BM200">
+        <v>1.83</v>
+      </c>
+      <c r="BN200">
+        <v>1.85</v>
+      </c>
+      <c r="BO200">
+        <v>2.23</v>
+      </c>
+      <c r="BP200">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -679,16 +679,16 @@
     <t>['20', '31']</t>
   </si>
   <si>
+    <t>['71', '79']</t>
+  </si>
+  <si>
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['71', '79']</t>
+    <t>['56', '74']</t>
   </si>
   <si>
     <t>['36', '63']</t>
-  </si>
-  <si>
-    <t>['56', '74']</t>
   </si>
   <si>
     <t>['14', '32', '44', '57', '76']</t>
@@ -1000,10 +1000,10 @@
     <t>['13', '40']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['8', '40', '86']</t>
   </si>
   <si>
-    <t>['8', '40', '86']</t>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -12954,7 +12954,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -40113,7 +40113,7 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F189">
         <v>24</v>
@@ -40239,22 +40239,22 @@
         <v>2.97</v>
       </c>
       <c r="AU189">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW189">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX189">
         <v>4</v>
       </c>
       <c r="AY189">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ189">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA189">
         <v>8</v>
@@ -40928,7 +40928,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7292629</v>
+        <v>7292634</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40943,49 +40943,49 @@
         <v>25</v>
       </c>
       <c r="G193" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H193" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O193" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="P193" t="s">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="Q193">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="R193">
+        <v>2.3</v>
+      </c>
+      <c r="S193">
         <v>2.25</v>
       </c>
-      <c r="S193">
-        <v>3.75</v>
-      </c>
       <c r="T193">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U193">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V193">
         <v>2.63</v>
@@ -40994,139 +40994,139 @@
         <v>1.44</v>
       </c>
       <c r="X193">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y193">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z193">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="AA193">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB193">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="AC193">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD193">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE193">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AF193">
-        <v>3.8</v>
+        <v>4.17</v>
       </c>
       <c r="AG193">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AH193">
+        <v>2</v>
+      </c>
+      <c r="AI193">
+        <v>1.7</v>
+      </c>
+      <c r="AJ193">
+        <v>2.05</v>
+      </c>
+      <c r="AK193">
+        <v>2.15</v>
+      </c>
+      <c r="AL193">
+        <v>1.2</v>
+      </c>
+      <c r="AM193">
+        <v>1.17</v>
+      </c>
+      <c r="AN193">
+        <v>0.92</v>
+      </c>
+      <c r="AO193">
+        <v>1</v>
+      </c>
+      <c r="AP193">
+        <v>0.85</v>
+      </c>
+      <c r="AQ193">
+        <v>1.17</v>
+      </c>
+      <c r="AR193">
+        <v>1.25</v>
+      </c>
+      <c r="AS193">
+        <v>1.33</v>
+      </c>
+      <c r="AT193">
+        <v>2.58</v>
+      </c>
+      <c r="AU193">
+        <v>-1</v>
+      </c>
+      <c r="AV193">
+        <v>-1</v>
+      </c>
+      <c r="AW193">
+        <v>-1</v>
+      </c>
+      <c r="AX193">
+        <v>-1</v>
+      </c>
+      <c r="AY193">
+        <v>-1</v>
+      </c>
+      <c r="AZ193">
+        <v>-1</v>
+      </c>
+      <c r="BA193">
+        <v>-1</v>
+      </c>
+      <c r="BB193">
+        <v>-1</v>
+      </c>
+      <c r="BC193">
+        <v>-1</v>
+      </c>
+      <c r="BD193">
+        <v>3.19</v>
+      </c>
+      <c r="BE193">
+        <v>9</v>
+      </c>
+      <c r="BF193">
+        <v>1.45</v>
+      </c>
+      <c r="BG193">
+        <v>1.17</v>
+      </c>
+      <c r="BH193">
+        <v>4.35</v>
+      </c>
+      <c r="BI193">
+        <v>1.3</v>
+      </c>
+      <c r="BJ193">
+        <v>3.15</v>
+      </c>
+      <c r="BK193">
+        <v>1.5</v>
+      </c>
+      <c r="BL193">
+        <v>2.38</v>
+      </c>
+      <c r="BM193">
+        <v>1.8</v>
+      </c>
+      <c r="BN193">
         <v>1.91</v>
       </c>
-      <c r="AI193">
-        <v>1.67</v>
-      </c>
-      <c r="AJ193">
-        <v>2.1</v>
-      </c>
-      <c r="AK193">
-        <v>1.32</v>
-      </c>
-      <c r="AL193">
-        <v>1.28</v>
-      </c>
-      <c r="AM193">
-        <v>1.77</v>
-      </c>
-      <c r="AN193">
-        <v>2</v>
-      </c>
-      <c r="AO193">
-        <v>1.67</v>
-      </c>
-      <c r="AP193">
-        <v>2.08</v>
-      </c>
-      <c r="AQ193">
-        <v>1.54</v>
-      </c>
-      <c r="AR193">
-        <v>1.72</v>
-      </c>
-      <c r="AS193">
-        <v>1.44</v>
-      </c>
-      <c r="AT193">
-        <v>3.16</v>
-      </c>
-      <c r="AU193">
-        <v>4</v>
-      </c>
-      <c r="AV193">
-        <v>0</v>
-      </c>
-      <c r="AW193">
-        <v>6</v>
-      </c>
-      <c r="AX193">
-        <v>2</v>
-      </c>
-      <c r="AY193">
-        <v>10</v>
-      </c>
-      <c r="AZ193">
-        <v>2</v>
-      </c>
-      <c r="BA193">
-        <v>5</v>
-      </c>
-      <c r="BB193">
-        <v>2</v>
-      </c>
-      <c r="BC193">
-        <v>7</v>
-      </c>
-      <c r="BD193">
-        <v>1.75</v>
-      </c>
-      <c r="BE193">
-        <v>8.5</v>
-      </c>
-      <c r="BF193">
-        <v>2.41</v>
-      </c>
-      <c r="BG193">
-        <v>1.26</v>
-      </c>
-      <c r="BH193">
-        <v>3.4</v>
-      </c>
-      <c r="BI193">
-        <v>1.46</v>
-      </c>
-      <c r="BJ193">
-        <v>2.5</v>
-      </c>
-      <c r="BK193">
-        <v>1.74</v>
-      </c>
-      <c r="BL193">
-        <v>1.97</v>
-      </c>
-      <c r="BM193">
-        <v>2.05</v>
-      </c>
-      <c r="BN193">
-        <v>1.68</v>
-      </c>
       <c r="BO193">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="BP193">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41134,7 +41134,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7292631</v>
+        <v>7292629</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41149,190 +41149,190 @@
         <v>25</v>
       </c>
       <c r="G194" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H194" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M194">
         <v>0</v>
       </c>
       <c r="N194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O194" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="P194" t="s">
         <v>88</v>
       </c>
       <c r="Q194">
+        <v>2.75</v>
+      </c>
+      <c r="R194">
+        <v>2.25</v>
+      </c>
+      <c r="S194">
+        <v>3.75</v>
+      </c>
+      <c r="T194">
+        <v>1.36</v>
+      </c>
+      <c r="U194">
+        <v>3</v>
+      </c>
+      <c r="V194">
+        <v>2.63</v>
+      </c>
+      <c r="W194">
+        <v>1.44</v>
+      </c>
+      <c r="X194">
+        <v>7</v>
+      </c>
+      <c r="Y194">
+        <v>1.1</v>
+      </c>
+      <c r="Z194">
+        <v>2</v>
+      </c>
+      <c r="AA194">
+        <v>3.4</v>
+      </c>
+      <c r="AB194">
+        <v>3.1</v>
+      </c>
+      <c r="AC194">
+        <v>1.02</v>
+      </c>
+      <c r="AD194">
+        <v>13</v>
+      </c>
+      <c r="AE194">
+        <v>1.28</v>
+      </c>
+      <c r="AF194">
+        <v>3.8</v>
+      </c>
+      <c r="AG194">
         <v>1.73</v>
       </c>
-      <c r="R194">
-        <v>2.75</v>
-      </c>
-      <c r="S194">
+      <c r="AH194">
+        <v>1.91</v>
+      </c>
+      <c r="AI194">
+        <v>1.67</v>
+      </c>
+      <c r="AJ194">
+        <v>2.1</v>
+      </c>
+      <c r="AK194">
+        <v>1.32</v>
+      </c>
+      <c r="AL194">
+        <v>1.28</v>
+      </c>
+      <c r="AM194">
+        <v>1.77</v>
+      </c>
+      <c r="AN194">
+        <v>2</v>
+      </c>
+      <c r="AO194">
+        <v>1.67</v>
+      </c>
+      <c r="AP194">
+        <v>2.08</v>
+      </c>
+      <c r="AQ194">
+        <v>1.54</v>
+      </c>
+      <c r="AR194">
+        <v>1.72</v>
+      </c>
+      <c r="AS194">
+        <v>1.44</v>
+      </c>
+      <c r="AT194">
+        <v>3.16</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>0</v>
+      </c>
+      <c r="AW194">
+        <v>6</v>
+      </c>
+      <c r="AX194">
+        <v>2</v>
+      </c>
+      <c r="AY194">
+        <v>10</v>
+      </c>
+      <c r="AZ194">
+        <v>2</v>
+      </c>
+      <c r="BA194">
+        <v>5</v>
+      </c>
+      <c r="BB194">
+        <v>2</v>
+      </c>
+      <c r="BC194">
         <v>7</v>
       </c>
-      <c r="T194">
-        <v>1.22</v>
-      </c>
-      <c r="U194">
-        <v>4</v>
-      </c>
-      <c r="V194">
-        <v>2.1</v>
-      </c>
-      <c r="W194">
-        <v>1.67</v>
-      </c>
-      <c r="X194">
-        <v>4.5</v>
-      </c>
-      <c r="Y194">
-        <v>1.18</v>
-      </c>
-      <c r="Z194">
-        <v>1.33</v>
-      </c>
-      <c r="AA194">
-        <v>4.8</v>
-      </c>
-      <c r="AB194">
-        <v>7</v>
-      </c>
-      <c r="AC194">
-        <v>1.01</v>
-      </c>
-      <c r="AD194">
-        <v>22.5</v>
-      </c>
-      <c r="AE194">
-        <v>1.11</v>
-      </c>
-      <c r="AF194">
-        <v>5.5</v>
-      </c>
-      <c r="AG194">
-        <v>1.53</v>
-      </c>
-      <c r="AH194">
-        <v>2.35</v>
-      </c>
-      <c r="AI194">
+      <c r="BD194">
         <v>1.75</v>
       </c>
-      <c r="AJ194">
-        <v>2</v>
-      </c>
-      <c r="AK194">
-        <v>1.07</v>
-      </c>
-      <c r="AL194">
-        <v>1.16</v>
-      </c>
-      <c r="AM194">
-        <v>3.2</v>
-      </c>
-      <c r="AN194">
-        <v>2.73</v>
-      </c>
-      <c r="AO194">
-        <v>1.17</v>
-      </c>
-      <c r="AP194">
-        <v>2.75</v>
-      </c>
-      <c r="AQ194">
-        <v>1.08</v>
-      </c>
-      <c r="AR194">
-        <v>2.18</v>
-      </c>
-      <c r="AS194">
+      <c r="BE194">
+        <v>8.5</v>
+      </c>
+      <c r="BF194">
+        <v>2.41</v>
+      </c>
+      <c r="BG194">
         <v>1.26</v>
       </c>
-      <c r="AT194">
-        <v>3.44</v>
-      </c>
-      <c r="AU194">
-        <v>3</v>
-      </c>
-      <c r="AV194">
-        <v>7</v>
-      </c>
-      <c r="AW194">
-        <v>3</v>
-      </c>
-      <c r="AX194">
-        <v>5</v>
-      </c>
-      <c r="AY194">
-        <v>6</v>
-      </c>
-      <c r="AZ194">
-        <v>12</v>
-      </c>
-      <c r="BA194">
-        <v>7</v>
-      </c>
-      <c r="BB194">
-        <v>5</v>
-      </c>
-      <c r="BC194">
-        <v>12</v>
-      </c>
-      <c r="BD194">
-        <v>1.23</v>
-      </c>
-      <c r="BE194">
-        <v>8</v>
-      </c>
-      <c r="BF194">
-        <v>4.1</v>
-      </c>
-      <c r="BG194">
-        <v>1.17</v>
-      </c>
       <c r="BH194">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="BI194">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="BJ194">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="BK194">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="BL194">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="BM194">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="BN194">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="BO194">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="BP194">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41340,7 +41340,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7292633</v>
+        <v>7292631</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41349,196 +41349,196 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45564.375</v>
+        <v>45563.875</v>
       </c>
       <c r="F195">
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H195" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M195">
         <v>0</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O195" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="P195" t="s">
         <v>88</v>
       </c>
       <c r="Q195">
+        <v>1.73</v>
+      </c>
+      <c r="R195">
+        <v>2.75</v>
+      </c>
+      <c r="S195">
+        <v>7</v>
+      </c>
+      <c r="T195">
+        <v>1.22</v>
+      </c>
+      <c r="U195">
+        <v>4</v>
+      </c>
+      <c r="V195">
+        <v>2.1</v>
+      </c>
+      <c r="W195">
+        <v>1.67</v>
+      </c>
+      <c r="X195">
+        <v>4.5</v>
+      </c>
+      <c r="Y195">
+        <v>1.18</v>
+      </c>
+      <c r="Z195">
+        <v>1.33</v>
+      </c>
+      <c r="AA195">
+        <v>4.8</v>
+      </c>
+      <c r="AB195">
+        <v>7</v>
+      </c>
+      <c r="AC195">
+        <v>1.01</v>
+      </c>
+      <c r="AD195">
+        <v>22.5</v>
+      </c>
+      <c r="AE195">
+        <v>1.11</v>
+      </c>
+      <c r="AF195">
+        <v>5.5</v>
+      </c>
+      <c r="AG195">
+        <v>1.53</v>
+      </c>
+      <c r="AH195">
+        <v>2.35</v>
+      </c>
+      <c r="AI195">
+        <v>1.75</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>1.07</v>
+      </c>
+      <c r="AL195">
+        <v>1.16</v>
+      </c>
+      <c r="AM195">
         <v>3.2</v>
       </c>
-      <c r="R195">
-        <v>2.2</v>
-      </c>
-      <c r="S195">
-        <v>3.25</v>
-      </c>
-      <c r="T195">
-        <v>1.4</v>
-      </c>
-      <c r="U195">
+      <c r="AN195">
+        <v>2.73</v>
+      </c>
+      <c r="AO195">
+        <v>1.17</v>
+      </c>
+      <c r="AP195">
         <v>2.75</v>
       </c>
-      <c r="V195">
-        <v>2.75</v>
-      </c>
-      <c r="W195">
-        <v>1.4</v>
-      </c>
-      <c r="X195">
-        <v>8</v>
-      </c>
-      <c r="Y195">
+      <c r="AQ195">
         <v>1.08</v>
       </c>
-      <c r="Z195">
-        <v>2.5</v>
-      </c>
-      <c r="AA195">
-        <v>3.1</v>
-      </c>
-      <c r="AB195">
-        <v>2.6</v>
-      </c>
-      <c r="AC195">
-        <v>1.06</v>
-      </c>
-      <c r="AD195">
-        <v>11</v>
-      </c>
-      <c r="AE195">
-        <v>1.22</v>
-      </c>
-      <c r="AF195">
-        <v>3.8</v>
-      </c>
-      <c r="AG195">
-        <v>1.8</v>
-      </c>
-      <c r="AH195">
-        <v>1.83</v>
-      </c>
-      <c r="AI195">
-        <v>1.7</v>
-      </c>
-      <c r="AJ195">
-        <v>2.05</v>
-      </c>
-      <c r="AK195">
-        <v>1.48</v>
-      </c>
-      <c r="AL195">
-        <v>1.35</v>
-      </c>
-      <c r="AM195">
-        <v>1.49</v>
-      </c>
-      <c r="AN195">
-        <v>1.33</v>
-      </c>
-      <c r="AO195">
-        <v>0.83</v>
-      </c>
-      <c r="AP195">
-        <v>1.31</v>
-      </c>
-      <c r="AQ195">
-        <v>0.85</v>
-      </c>
       <c r="AR195">
-        <v>1</v>
+        <v>2.18</v>
       </c>
       <c r="AS195">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT195">
-        <v>2.28</v>
+        <v>3.44</v>
       </c>
       <c r="AU195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV195">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW195">
+        <v>3</v>
+      </c>
+      <c r="AX195">
+        <v>5</v>
+      </c>
+      <c r="AY195">
+        <v>6</v>
+      </c>
+      <c r="AZ195">
+        <v>12</v>
+      </c>
+      <c r="BA195">
         <v>7</v>
       </c>
-      <c r="AX195">
-        <v>3</v>
-      </c>
-      <c r="AY195">
-        <v>9</v>
-      </c>
-      <c r="AZ195">
-        <v>7</v>
-      </c>
-      <c r="BA195">
-        <v>6</v>
-      </c>
       <c r="BB195">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC195">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD195">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="BE195">
         <v>8</v>
       </c>
       <c r="BF195">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="BG195">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="BH195">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="BI195">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BJ195">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="BK195">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="BL195">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="BM195">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BN195">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="BO195">
-        <v>2.55</v>
+        <v>2.17</v>
       </c>
       <c r="BP195">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41546,7 +41546,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7292635</v>
+        <v>7292632</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41555,16 +41555,16 @@
         <v>69</v>
       </c>
       <c r="E196" s="2">
-        <v>45564.375</v>
+        <v>45563.875</v>
       </c>
       <c r="F196">
         <v>25</v>
       </c>
       <c r="G196" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H196" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -41576,10 +41576,10 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N196">
         <v>2</v>
@@ -41588,163 +41588,163 @@
         <v>221</v>
       </c>
       <c r="P196" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="Q196">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="R196">
+        <v>2.5</v>
+      </c>
+      <c r="S196">
+        <v>4.5</v>
+      </c>
+      <c r="T196">
+        <v>1.25</v>
+      </c>
+      <c r="U196">
+        <v>3.75</v>
+      </c>
+      <c r="V196">
         <v>2.2</v>
       </c>
-      <c r="S196">
-        <v>2.75</v>
-      </c>
-      <c r="T196">
-        <v>1.4</v>
-      </c>
-      <c r="U196">
-        <v>2.75</v>
-      </c>
-      <c r="V196">
+      <c r="W196">
+        <v>1.62</v>
+      </c>
+      <c r="X196">
+        <v>5</v>
+      </c>
+      <c r="Y196">
+        <v>1.17</v>
+      </c>
+      <c r="Z196">
+        <v>1.61</v>
+      </c>
+      <c r="AA196">
+        <v>3.75</v>
+      </c>
+      <c r="AB196">
+        <v>4.33</v>
+      </c>
+      <c r="AC196">
+        <v>1.02</v>
+      </c>
+      <c r="AD196">
+        <v>20</v>
+      </c>
+      <c r="AE196">
+        <v>1.13</v>
+      </c>
+      <c r="AF196">
+        <v>5</v>
+      </c>
+      <c r="AG196">
+        <v>1.5</v>
+      </c>
+      <c r="AH196">
+        <v>2.4</v>
+      </c>
+      <c r="AI196">
+        <v>1.53</v>
+      </c>
+      <c r="AJ196">
+        <v>2.38</v>
+      </c>
+      <c r="AK196">
+        <v>1.18</v>
+      </c>
+      <c r="AL196">
+        <v>1.25</v>
+      </c>
+      <c r="AM196">
+        <v>2.15</v>
+      </c>
+      <c r="AN196">
+        <v>1.5</v>
+      </c>
+      <c r="AO196">
+        <v>1.55</v>
+      </c>
+      <c r="AP196">
+        <v>1.62</v>
+      </c>
+      <c r="AQ196">
+        <v>1.42</v>
+      </c>
+      <c r="AR196">
+        <v>1.78</v>
+      </c>
+      <c r="AS196">
+        <v>1.27</v>
+      </c>
+      <c r="AT196">
+        <v>3.05</v>
+      </c>
+      <c r="AU196">
+        <v>7</v>
+      </c>
+      <c r="AV196">
+        <v>6</v>
+      </c>
+      <c r="AW196">
+        <v>6</v>
+      </c>
+      <c r="AX196">
         <v>3</v>
       </c>
-      <c r="W196">
-        <v>1.36</v>
-      </c>
-      <c r="X196">
-        <v>8</v>
-      </c>
-      <c r="Y196">
-        <v>1.08</v>
-      </c>
-      <c r="Z196">
-        <v>3.5</v>
-      </c>
-      <c r="AA196">
-        <v>3.1</v>
-      </c>
-      <c r="AB196">
-        <v>1.95</v>
-      </c>
-      <c r="AC196">
-        <v>1.06</v>
-      </c>
-      <c r="AD196">
-        <v>10</v>
-      </c>
-      <c r="AE196">
-        <v>1.33</v>
-      </c>
-      <c r="AF196">
-        <v>3.4</v>
-      </c>
-      <c r="AG196">
-        <v>1.85</v>
-      </c>
-      <c r="AH196">
-        <v>1.8</v>
-      </c>
-      <c r="AI196">
-        <v>1.8</v>
-      </c>
-      <c r="AJ196">
-        <v>1.95</v>
-      </c>
-      <c r="AK196">
-        <v>1.73</v>
-      </c>
-      <c r="AL196">
-        <v>1.34</v>
-      </c>
-      <c r="AM196">
-        <v>1.28</v>
-      </c>
-      <c r="AN196">
-        <v>0.67</v>
-      </c>
-      <c r="AO196">
-        <v>2</v>
-      </c>
-      <c r="AP196">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AQ196">
-        <v>1.92</v>
-      </c>
-      <c r="AR196">
-        <v>1.26</v>
-      </c>
-      <c r="AS196">
-        <v>1.56</v>
-      </c>
-      <c r="AT196">
-        <v>2.82</v>
-      </c>
-      <c r="AU196">
-        <v>3</v>
-      </c>
-      <c r="AV196">
-        <v>4</v>
-      </c>
-      <c r="AW196">
-        <v>4</v>
-      </c>
-      <c r="AX196">
-        <v>5</v>
-      </c>
       <c r="AY196">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ196">
         <v>9</v>
       </c>
       <c r="BA196">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB196">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC196">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD196">
-        <v>2.43</v>
+        <v>1.44</v>
       </c>
       <c r="BE196">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF196">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="BG196">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="BH196">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BI196">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BJ196">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BK196">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="BL196">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="BM196">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="BN196">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="BO196">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BP196">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41752,7 +41752,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7292634</v>
+        <v>7292633</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41761,94 +41761,94 @@
         <v>69</v>
       </c>
       <c r="E197" s="2">
-        <v>45564.47916666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F197">
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H197" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O197" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="Q197">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="R197">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S197">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T197">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V197">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W197">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X197">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y197">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z197">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="AA197">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB197">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="AC197">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD197">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE197">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AF197">
-        <v>4.17</v>
+        <v>3.8</v>
       </c>
       <c r="AG197">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AH197">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AI197">
         <v>1.7</v>
@@ -41857,100 +41857,100 @@
         <v>2.05</v>
       </c>
       <c r="AK197">
-        <v>2.15</v>
+        <v>1.48</v>
       </c>
       <c r="AL197">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AM197">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="AN197">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AO197">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP197">
+        <v>1.31</v>
+      </c>
+      <c r="AQ197">
         <v>0.85</v>
       </c>
-      <c r="AQ197">
-        <v>1.17</v>
-      </c>
       <c r="AR197">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS197">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AT197">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="AU197">
+        <v>3</v>
+      </c>
+      <c r="AV197">
         <v>4</v>
       </c>
-      <c r="AV197">
+      <c r="AW197">
+        <v>8</v>
+      </c>
+      <c r="AX197">
+        <v>2</v>
+      </c>
+      <c r="AY197">
+        <v>11</v>
+      </c>
+      <c r="AZ197">
+        <v>6</v>
+      </c>
+      <c r="BA197">
+        <v>6</v>
+      </c>
+      <c r="BB197">
         <v>7</v>
       </c>
-      <c r="AW197">
-        <v>5</v>
-      </c>
-      <c r="AX197">
-        <v>4</v>
-      </c>
-      <c r="AY197">
-        <v>9</v>
-      </c>
-      <c r="AZ197">
-        <v>11</v>
-      </c>
-      <c r="BA197">
-        <v>4</v>
-      </c>
-      <c r="BB197">
-        <v>4</v>
-      </c>
       <c r="BC197">
+        <v>13</v>
+      </c>
+      <c r="BD197">
+        <v>2</v>
+      </c>
+      <c r="BE197">
         <v>8</v>
       </c>
-      <c r="BD197">
-        <v>3.19</v>
-      </c>
-      <c r="BE197">
-        <v>9</v>
-      </c>
       <c r="BF197">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="BG197">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="BH197">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="BI197">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BJ197">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="BK197">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="BL197">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="BM197">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BN197">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="BO197">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="BP197">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -41958,7 +41958,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7292632</v>
+        <v>7292635</v>
       </c>
       <c r="C198" t="s">
         <v>68</v>
@@ -41967,16 +41967,16 @@
         <v>69</v>
       </c>
       <c r="E198" s="2">
-        <v>45564.47916666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F198">
         <v>25</v>
       </c>
       <c r="G198" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H198" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -41988,10 +41988,10 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N198">
         <v>2</v>
@@ -42000,163 +42000,163 @@
         <v>222</v>
       </c>
       <c r="P198" t="s">
-        <v>88</v>
+        <v>329</v>
       </c>
       <c r="Q198">
+        <v>4</v>
+      </c>
+      <c r="R198">
         <v>2.2</v>
       </c>
-      <c r="R198">
-        <v>2.5</v>
-      </c>
       <c r="S198">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="T198">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="U198">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V198">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="W198">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="X198">
+        <v>8</v>
+      </c>
+      <c r="Y198">
+        <v>1.08</v>
+      </c>
+      <c r="Z198">
+        <v>3.5</v>
+      </c>
+      <c r="AA198">
+        <v>3.1</v>
+      </c>
+      <c r="AB198">
+        <v>1.95</v>
+      </c>
+      <c r="AC198">
+        <v>1.06</v>
+      </c>
+      <c r="AD198">
+        <v>10</v>
+      </c>
+      <c r="AE198">
+        <v>1.33</v>
+      </c>
+      <c r="AF198">
+        <v>3.4</v>
+      </c>
+      <c r="AG198">
+        <v>1.85</v>
+      </c>
+      <c r="AH198">
+        <v>1.8</v>
+      </c>
+      <c r="AI198">
+        <v>1.8</v>
+      </c>
+      <c r="AJ198">
+        <v>1.95</v>
+      </c>
+      <c r="AK198">
+        <v>1.73</v>
+      </c>
+      <c r="AL198">
+        <v>1.34</v>
+      </c>
+      <c r="AM198">
+        <v>1.28</v>
+      </c>
+      <c r="AN198">
+        <v>0.67</v>
+      </c>
+      <c r="AO198">
+        <v>2</v>
+      </c>
+      <c r="AP198">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ198">
+        <v>1.92</v>
+      </c>
+      <c r="AR198">
+        <v>1.26</v>
+      </c>
+      <c r="AS198">
+        <v>1.56</v>
+      </c>
+      <c r="AT198">
+        <v>2.82</v>
+      </c>
+      <c r="AU198">
+        <v>2</v>
+      </c>
+      <c r="AV198">
+        <v>3</v>
+      </c>
+      <c r="AW198">
         <v>5</v>
       </c>
-      <c r="Y198">
-        <v>1.17</v>
-      </c>
-      <c r="Z198">
-        <v>1.61</v>
-      </c>
-      <c r="AA198">
-        <v>3.75</v>
-      </c>
-      <c r="AB198">
-        <v>4.33</v>
-      </c>
-      <c r="AC198">
-        <v>1.02</v>
-      </c>
-      <c r="AD198">
-        <v>20</v>
-      </c>
-      <c r="AE198">
-        <v>1.13</v>
-      </c>
-      <c r="AF198">
+      <c r="AX198">
         <v>5</v>
       </c>
-      <c r="AG198">
-        <v>1.5</v>
-      </c>
-      <c r="AH198">
-        <v>2.4</v>
-      </c>
-      <c r="AI198">
+      <c r="AY198">
+        <v>7</v>
+      </c>
+      <c r="AZ198">
+        <v>8</v>
+      </c>
+      <c r="BA198">
+        <v>4</v>
+      </c>
+      <c r="BB198">
+        <v>4</v>
+      </c>
+      <c r="BC198">
+        <v>8</v>
+      </c>
+      <c r="BD198">
+        <v>2.43</v>
+      </c>
+      <c r="BE198">
+        <v>8.5</v>
+      </c>
+      <c r="BF198">
+        <v>1.75</v>
+      </c>
+      <c r="BG198">
+        <v>1.18</v>
+      </c>
+      <c r="BH198">
+        <v>4.3</v>
+      </c>
+      <c r="BI198">
+        <v>1.32</v>
+      </c>
+      <c r="BJ198">
+        <v>3.05</v>
+      </c>
+      <c r="BK198">
         <v>1.53</v>
       </c>
-      <c r="AJ198">
-        <v>2.38</v>
-      </c>
-      <c r="AK198">
-        <v>1.18</v>
-      </c>
-      <c r="AL198">
-        <v>1.25</v>
-      </c>
-      <c r="AM198">
-        <v>2.15</v>
-      </c>
-      <c r="AN198">
-        <v>1.5</v>
-      </c>
-      <c r="AO198">
-        <v>1.55</v>
-      </c>
-      <c r="AP198">
-        <v>1.62</v>
-      </c>
-      <c r="AQ198">
-        <v>1.42</v>
-      </c>
-      <c r="AR198">
-        <v>1.78</v>
-      </c>
-      <c r="AS198">
-        <v>1.27</v>
-      </c>
-      <c r="AT198">
-        <v>3.05</v>
-      </c>
-      <c r="AU198">
-        <v>10</v>
-      </c>
-      <c r="AV198">
-        <v>7</v>
-      </c>
-      <c r="AW198">
-        <v>7</v>
-      </c>
-      <c r="AX198">
-        <v>7</v>
-      </c>
-      <c r="AY198">
-        <v>17</v>
-      </c>
-      <c r="AZ198">
-        <v>14</v>
-      </c>
-      <c r="BA198">
-        <v>5</v>
-      </c>
-      <c r="BB198">
-        <v>6</v>
-      </c>
-      <c r="BC198">
-        <v>11</v>
-      </c>
-      <c r="BD198">
-        <v>1.44</v>
-      </c>
-      <c r="BE198">
-        <v>6.75</v>
-      </c>
-      <c r="BF198">
-        <v>2.9</v>
-      </c>
-      <c r="BG198">
-        <v>1.15</v>
-      </c>
-      <c r="BH198">
-        <v>4.6</v>
-      </c>
-      <c r="BI198">
-        <v>1.27</v>
-      </c>
-      <c r="BJ198">
-        <v>3.3</v>
-      </c>
-      <c r="BK198">
-        <v>1.46</v>
-      </c>
       <c r="BL198">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="BM198">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="BN198">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="BO198">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BP198">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="199" spans="1:68">
@@ -42164,7 +42164,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>7292630</v>
+        <v>7292636</v>
       </c>
       <c r="C199" t="s">
         <v>68</v>
@@ -42179,190 +42179,190 @@
         <v>25</v>
       </c>
       <c r="G199" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H199" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199">
         <v>0</v>
       </c>
       <c r="K199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L199">
         <v>2</v>
       </c>
       <c r="M199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O199" t="s">
         <v>223</v>
       </c>
       <c r="P199" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="Q199">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R199">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S199">
+        <v>3.5</v>
+      </c>
+      <c r="T199">
+        <v>1.3</v>
+      </c>
+      <c r="U199">
         <v>3.4</v>
       </c>
-      <c r="T199">
-        <v>1.36</v>
-      </c>
-      <c r="U199">
-        <v>3</v>
-      </c>
       <c r="V199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W199">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X199">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y199">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z199">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA199">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB199">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AC199">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD199">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE199">
         <v>1.25</v>
       </c>
       <c r="AF199">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AG199">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="AH199">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AI199">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ199">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK199">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AL199">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AM199">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AN199">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AO199">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AP199">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AQ199">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="AR199">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="AS199">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AT199">
-        <v>2.61</v>
+        <v>3.13</v>
       </c>
       <c r="AU199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV199">
+        <v>2</v>
+      </c>
+      <c r="AW199">
         <v>5</v>
-      </c>
-      <c r="AW199">
-        <v>2</v>
       </c>
       <c r="AX199">
         <v>4</v>
       </c>
       <c r="AY199">
+        <v>10</v>
+      </c>
+      <c r="AZ199">
         <v>6</v>
       </c>
-      <c r="AZ199">
+      <c r="BA199">
+        <v>6</v>
+      </c>
+      <c r="BB199">
+        <v>3</v>
+      </c>
+      <c r="BC199">
         <v>9</v>
       </c>
-      <c r="BA199">
-        <v>5</v>
-      </c>
-      <c r="BB199">
-        <v>9</v>
-      </c>
-      <c r="BC199">
-        <v>14</v>
-      </c>
       <c r="BD199">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="BE199">
         <v>6.75</v>
       </c>
       <c r="BF199">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BG199">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="BH199">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="BI199">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BJ199">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="BK199">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="BL199">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="BM199">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="BN199">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BO199">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="BP199">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="200" spans="1:68">
@@ -42370,7 +42370,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>7292636</v>
+        <v>7292630</v>
       </c>
       <c r="C200" t="s">
         <v>68</v>
@@ -42379,196 +42379,196 @@
         <v>69</v>
       </c>
       <c r="E200" s="2">
-        <v>45565.58333333334</v>
+        <v>45564.875</v>
       </c>
       <c r="F200">
         <v>25</v>
       </c>
       <c r="G200" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H200" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200">
         <v>2</v>
       </c>
       <c r="M200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O200" t="s">
         <v>224</v>
       </c>
       <c r="P200" t="s">
-        <v>301</v>
+        <v>88</v>
       </c>
       <c r="Q200">
+        <v>3.1</v>
+      </c>
+      <c r="R200">
+        <v>2.2</v>
+      </c>
+      <c r="S200">
+        <v>3.4</v>
+      </c>
+      <c r="T200">
+        <v>1.36</v>
+      </c>
+      <c r="U200">
+        <v>3</v>
+      </c>
+      <c r="V200">
         <v>2.75</v>
       </c>
-      <c r="R200">
-        <v>2.3</v>
-      </c>
-      <c r="S200">
+      <c r="W200">
+        <v>1.4</v>
+      </c>
+      <c r="X200">
+        <v>7</v>
+      </c>
+      <c r="Y200">
+        <v>1.1</v>
+      </c>
+      <c r="Z200">
+        <v>2.1</v>
+      </c>
+      <c r="AA200">
         <v>3.5</v>
       </c>
-      <c r="T200">
-        <v>1.3</v>
-      </c>
-      <c r="U200">
-        <v>3.4</v>
-      </c>
-      <c r="V200">
-        <v>2.5</v>
-      </c>
-      <c r="W200">
-        <v>1.5</v>
-      </c>
-      <c r="X200">
-        <v>6</v>
-      </c>
-      <c r="Y200">
-        <v>1.13</v>
-      </c>
-      <c r="Z200">
-        <v>2</v>
-      </c>
-      <c r="AA200">
-        <v>3.6</v>
-      </c>
       <c r="AB200">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AC200">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD200">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE200">
         <v>1.25</v>
       </c>
       <c r="AF200">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AG200">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="AH200">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="AI200">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AJ200">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AK200">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AL200">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AM200">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AN200">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AO200">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AP200">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ200">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AR200">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="AS200">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AT200">
-        <v>3.13</v>
+        <v>2.61</v>
       </c>
       <c r="AU200">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW200">
+        <v>2</v>
+      </c>
+      <c r="AX200">
+        <v>4</v>
+      </c>
+      <c r="AY200">
         <v>6</v>
       </c>
-      <c r="AX200">
+      <c r="AZ200">
+        <v>9</v>
+      </c>
+      <c r="BA200">
         <v>5</v>
       </c>
-      <c r="AY200">
-        <v>13</v>
-      </c>
-      <c r="AZ200">
-        <v>8</v>
-      </c>
-      <c r="BA200">
-        <v>6</v>
-      </c>
       <c r="BB200">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC200">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD200">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="BE200">
         <v>6.75</v>
       </c>
       <c r="BF200">
+        <v>2.18</v>
+      </c>
+      <c r="BG200">
+        <v>1.15</v>
+      </c>
+      <c r="BH200">
+        <v>4.6</v>
+      </c>
+      <c r="BI200">
+        <v>1.27</v>
+      </c>
+      <c r="BJ200">
+        <v>3.3</v>
+      </c>
+      <c r="BK200">
+        <v>1.46</v>
+      </c>
+      <c r="BL200">
+        <v>2.5</v>
+      </c>
+      <c r="BM200">
+        <v>1.77</v>
+      </c>
+      <c r="BN200">
+        <v>1.95</v>
+      </c>
+      <c r="BO200">
         <v>2.08</v>
       </c>
-      <c r="BG200">
-        <v>1.17</v>
-      </c>
-      <c r="BH200">
-        <v>4.9</v>
-      </c>
-      <c r="BI200">
-        <v>1.3</v>
-      </c>
-      <c r="BJ200">
-        <v>3.1</v>
-      </c>
-      <c r="BK200">
-        <v>1.42</v>
-      </c>
-      <c r="BL200">
-        <v>2.35</v>
-      </c>
-      <c r="BM200">
-        <v>1.83</v>
-      </c>
-      <c r="BN200">
-        <v>1.85</v>
-      </c>
-      <c r="BO200">
-        <v>2.23</v>
-      </c>
       <c r="BP200">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,10 +655,10 @@
     <t>['38', '43']</t>
   </si>
   <si>
-    <t>['7', '48', '80', '83']</t>
+    <t>['19', '54', '59']</t>
   </si>
   <si>
-    <t>['19', '54', '59']</t>
+    <t>['7', '48', '80', '83']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -676,13 +676,13 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['20', '31']</t>
   </si>
   <si>
     <t>['71', '79']</t>
-  </si>
-  <si>
-    <t>['90+4']</t>
   </si>
   <si>
     <t>['56', '74']</t>
@@ -1000,10 +1000,13 @@
     <t>['13', '40']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['8', '40', '86']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['13', '77']</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.77</v>
@@ -1729,10 +1732,10 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BA2">
         <v>6</v>
@@ -1935,10 +1938,10 @@
         <v>4</v>
       </c>
       <c r="AY3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA3">
         <v>3</v>
@@ -2141,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="AY4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA4">
         <v>6</v>
@@ -2347,10 +2350,10 @@
         <v>4</v>
       </c>
       <c r="AY5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA5">
         <v>11</v>
@@ -2553,10 +2556,10 @@
         <v>9</v>
       </c>
       <c r="AY6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ6">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BA6">
         <v>2</v>
@@ -2759,10 +2762,10 @@
         <v>5</v>
       </c>
       <c r="AY7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA7">
         <v>5</v>
@@ -2965,10 +2968,10 @@
         <v>9</v>
       </c>
       <c r="AY8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA8">
         <v>3</v>
@@ -3171,10 +3174,10 @@
         <v>4</v>
       </c>
       <c r="AY9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA9">
         <v>7</v>
@@ -3377,10 +3380,10 @@
         <v>7</v>
       </c>
       <c r="AY10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA10">
         <v>7</v>
@@ -3583,10 +3586,10 @@
         <v>5</v>
       </c>
       <c r="AY11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AZ11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA11">
         <v>7</v>
@@ -3789,10 +3792,10 @@
         <v>3</v>
       </c>
       <c r="AY12">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA12">
         <v>7</v>
@@ -3998,7 +4001,7 @@
         <v>4</v>
       </c>
       <c r="AZ13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA13">
         <v>1</v>
@@ -4201,10 +4204,10 @@
         <v>3</v>
       </c>
       <c r="AY14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ14">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA14">
         <v>3</v>
@@ -4383,7 +4386,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ15">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4407,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="AY15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA15">
         <v>6</v>
@@ -4613,10 +4616,10 @@
         <v>2</v>
       </c>
       <c r="AY16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA16">
         <v>7</v>
@@ -4819,10 +4822,10 @@
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ17">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA17">
         <v>14</v>
@@ -5025,10 +5028,10 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA18">
         <v>7</v>
@@ -5231,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="AY19">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ19">
         <v>3</v>
@@ -5410,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>1.08</v>
@@ -5437,10 +5440,10 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA20">
         <v>4</v>
@@ -5643,10 +5646,10 @@
         <v>9</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ21">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="BA21">
         <v>2</v>
@@ -5825,7 +5828,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5849,10 +5852,10 @@
         <v>1</v>
       </c>
       <c r="AY22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -6261,10 +6264,10 @@
         <v>2</v>
       </c>
       <c r="AY24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ24">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA24">
         <v>3</v>
@@ -6467,10 +6470,10 @@
         <v>7</v>
       </c>
       <c r="AY25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA25">
         <v>2</v>
@@ -6673,10 +6676,10 @@
         <v>3</v>
       </c>
       <c r="AY26">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA26">
         <v>3</v>
@@ -6879,10 +6882,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ27">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA27">
         <v>6</v>
@@ -7085,10 +7088,10 @@
         <v>2</v>
       </c>
       <c r="AY28">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ28">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA28">
         <v>6</v>
@@ -7291,10 +7294,10 @@
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA29">
         <v>6</v>
@@ -7500,7 +7503,7 @@
         <v>7</v>
       </c>
       <c r="AZ30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA30">
         <v>2</v>
@@ -7703,10 +7706,10 @@
         <v>9</v>
       </c>
       <c r="AY31">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ31">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA31">
         <v>13</v>
@@ -7909,10 +7912,10 @@
         <v>9</v>
       </c>
       <c r="AY32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -8115,7 +8118,7 @@
         <v>5</v>
       </c>
       <c r="AY33">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ33">
         <v>9</v>
@@ -8297,7 +8300,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ34">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8321,10 +8324,10 @@
         <v>5</v>
       </c>
       <c r="AY34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ34">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA34">
         <v>5</v>
@@ -8527,10 +8530,10 @@
         <v>4</v>
       </c>
       <c r="AY35">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA35">
         <v>7</v>
@@ -8733,10 +8736,10 @@
         <v>7</v>
       </c>
       <c r="AY36">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA36">
         <v>8</v>
@@ -8912,7 +8915,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8939,10 +8942,10 @@
         <v>5</v>
       </c>
       <c r="AY37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ37">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -9145,10 +9148,10 @@
         <v>7</v>
       </c>
       <c r="AY38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA38">
         <v>1</v>
@@ -9351,10 +9354,10 @@
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ39">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA39">
         <v>4</v>
@@ -9557,10 +9560,10 @@
         <v>3</v>
       </c>
       <c r="AY40">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ40">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9763,10 +9766,10 @@
         <v>5</v>
       </c>
       <c r="AY41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -9969,10 +9972,10 @@
         <v>5</v>
       </c>
       <c r="AY42">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA42">
         <v>6</v>
@@ -10175,10 +10178,10 @@
         <v>3</v>
       </c>
       <c r="AY43">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA43">
         <v>9</v>
@@ -10381,10 +10384,10 @@
         <v>5</v>
       </c>
       <c r="AY44">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ44">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA44">
         <v>5</v>
@@ -10587,10 +10590,10 @@
         <v>1</v>
       </c>
       <c r="AY45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA45">
         <v>11</v>
@@ -10793,10 +10796,10 @@
         <v>3</v>
       </c>
       <c r="AY46">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ46">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA46">
         <v>7</v>
@@ -10975,7 +10978,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ47">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR47">
         <v>1.73</v>
@@ -10999,10 +11002,10 @@
         <v>7</v>
       </c>
       <c r="AY47">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ47">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA47">
         <v>9</v>
@@ -11205,10 +11208,10 @@
         <v>1</v>
       </c>
       <c r="AY48">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA48">
         <v>12</v>
@@ -11411,10 +11414,10 @@
         <v>6</v>
       </c>
       <c r="AY49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA49">
         <v>5</v>
@@ -11617,7 +11620,7 @@
         <v>5</v>
       </c>
       <c r="AY50">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ50">
         <v>10</v>
@@ -11823,10 +11826,10 @@
         <v>9</v>
       </c>
       <c r="AY51">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ51">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA51">
         <v>4</v>
@@ -12029,10 +12032,10 @@
         <v>5</v>
       </c>
       <c r="AY52">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ52">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA52">
         <v>4</v>
@@ -12235,10 +12238,10 @@
         <v>3</v>
       </c>
       <c r="AY53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ53">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -12441,10 +12444,10 @@
         <v>1</v>
       </c>
       <c r="AY54">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA54">
         <v>6</v>
@@ -12647,10 +12650,10 @@
         <v>2</v>
       </c>
       <c r="AY55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ55">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA55">
         <v>2</v>
@@ -12853,10 +12856,10 @@
         <v>6</v>
       </c>
       <c r="AY56">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ56">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA56">
         <v>9</v>
@@ -12954,7 +12957,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>3.55</v>
@@ -13059,10 +13062,10 @@
         <v>10</v>
       </c>
       <c r="AY57">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA57">
         <v>5</v>
@@ -13241,7 +13244,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ58">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13265,10 +13268,10 @@
         <v>2</v>
       </c>
       <c r="AY58">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA58">
         <v>11</v>
@@ -13471,7 +13474,7 @@
         <v>3</v>
       </c>
       <c r="AY59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ59">
         <v>11</v>
@@ -13680,7 +13683,7 @@
         <v>12</v>
       </c>
       <c r="AZ60">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA60">
         <v>2</v>
@@ -13883,10 +13886,10 @@
         <v>6</v>
       </c>
       <c r="AY61">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ61">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA61">
         <v>4</v>
@@ -14062,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>1.54</v>
@@ -14089,10 +14092,10 @@
         <v>3</v>
       </c>
       <c r="AY62">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ62">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA62">
         <v>7</v>
@@ -14295,10 +14298,10 @@
         <v>5</v>
       </c>
       <c r="AY63">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA63">
         <v>8</v>
@@ -14501,10 +14504,10 @@
         <v>7</v>
       </c>
       <c r="AY64">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ64">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA64">
         <v>7</v>
@@ -14707,10 +14710,10 @@
         <v>6</v>
       </c>
       <c r="AY65">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ65">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA65">
         <v>6</v>
@@ -14913,10 +14916,10 @@
         <v>8</v>
       </c>
       <c r="AY66">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ66">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA66">
         <v>5</v>
@@ -15119,10 +15122,10 @@
         <v>10</v>
       </c>
       <c r="AY67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ67">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="BA67">
         <v>3</v>
@@ -15325,10 +15328,10 @@
         <v>1</v>
       </c>
       <c r="AY68">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA68">
         <v>5</v>
@@ -15531,10 +15534,10 @@
         <v>1</v>
       </c>
       <c r="AY69">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA69">
         <v>9</v>
@@ -15737,10 +15740,10 @@
         <v>5</v>
       </c>
       <c r="AY70">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA70">
         <v>10</v>
@@ -15943,10 +15946,10 @@
         <v>5</v>
       </c>
       <c r="AY71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ71">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA71">
         <v>2</v>
@@ -16149,10 +16152,10 @@
         <v>4</v>
       </c>
       <c r="AY72">
+        <v>15</v>
+      </c>
+      <c r="AZ72">
         <v>9</v>
-      </c>
-      <c r="AZ72">
-        <v>7</v>
       </c>
       <c r="BA72">
         <v>5</v>
@@ -16355,10 +16358,10 @@
         <v>5</v>
       </c>
       <c r="AY73">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA73">
         <v>3</v>
@@ -16561,10 +16564,10 @@
         <v>9</v>
       </c>
       <c r="AY74">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ74">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16767,10 +16770,10 @@
         <v>10</v>
       </c>
       <c r="AY75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ75">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA75">
         <v>0</v>
@@ -16973,10 +16976,10 @@
         <v>6</v>
       </c>
       <c r="AY76">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA76">
         <v>2</v>
@@ -17179,10 +17182,10 @@
         <v>2</v>
       </c>
       <c r="AY77">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA77">
         <v>8</v>
@@ -17385,10 +17388,10 @@
         <v>18</v>
       </c>
       <c r="AY78">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ78">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BA78">
         <v>3</v>
@@ -17591,10 +17594,10 @@
         <v>5</v>
       </c>
       <c r="AY79">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AZ79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA79">
         <v>8</v>
@@ -17797,10 +17800,10 @@
         <v>8</v>
       </c>
       <c r="AY80">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ80">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA80">
         <v>10</v>
@@ -18003,7 +18006,7 @@
         <v>4</v>
       </c>
       <c r="AY81">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ81">
         <v>9</v>
@@ -18209,10 +18212,10 @@
         <v>2</v>
       </c>
       <c r="AY82">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AZ82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA82">
         <v>18</v>
@@ -18415,10 +18418,10 @@
         <v>6</v>
       </c>
       <c r="AY83">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ83">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA83">
         <v>4</v>
@@ -18621,10 +18624,10 @@
         <v>13</v>
       </c>
       <c r="AY84">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AZ84">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA84">
         <v>10</v>
@@ -18827,10 +18830,10 @@
         <v>7</v>
       </c>
       <c r="AY85">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ85">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA85">
         <v>7</v>
@@ -19009,7 +19012,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -19033,10 +19036,10 @@
         <v>10</v>
       </c>
       <c r="AY86">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ86">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA86">
         <v>8</v>
@@ -19239,10 +19242,10 @@
         <v>7</v>
       </c>
       <c r="AY87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ87">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA87">
         <v>7</v>
@@ -19418,7 +19421,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
         <v>1.33</v>
@@ -19445,10 +19448,10 @@
         <v>6</v>
       </c>
       <c r="AY88">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ88">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA88">
         <v>24</v>
@@ -19651,10 +19654,10 @@
         <v>8</v>
       </c>
       <c r="AY89">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AZ89">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA89">
         <v>9</v>
@@ -19857,10 +19860,10 @@
         <v>5</v>
       </c>
       <c r="AY90">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AZ90">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA90">
         <v>17</v>
@@ -20066,7 +20069,7 @@
         <v>5</v>
       </c>
       <c r="AZ91">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA91">
         <v>1</v>
@@ -20269,10 +20272,10 @@
         <v>10</v>
       </c>
       <c r="AY92">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ92">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA92">
         <v>7</v>
@@ -20475,10 +20478,10 @@
         <v>8</v>
       </c>
       <c r="AY93">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ93">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA93">
         <v>4</v>
@@ -20681,10 +20684,10 @@
         <v>8</v>
       </c>
       <c r="AY94">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ94">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA94">
         <v>3</v>
@@ -20887,10 +20890,10 @@
         <v>5</v>
       </c>
       <c r="AY95">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA95">
         <v>5</v>
@@ -21093,10 +21096,10 @@
         <v>2</v>
       </c>
       <c r="AY96">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ96">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA96">
         <v>6</v>
@@ -21299,10 +21302,10 @@
         <v>3</v>
       </c>
       <c r="AY97">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ97">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA97">
         <v>7</v>
@@ -21505,10 +21508,10 @@
         <v>5</v>
       </c>
       <c r="AY98">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ98">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA98">
         <v>9</v>
@@ -21711,10 +21714,10 @@
         <v>4</v>
       </c>
       <c r="AY99">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ99">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA99">
         <v>6</v>
@@ -21917,10 +21920,10 @@
         <v>6</v>
       </c>
       <c r="AY100">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ100">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA100">
         <v>9</v>
@@ -22099,7 +22102,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ101">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR101">
         <v>1.4</v>
@@ -22123,10 +22126,10 @@
         <v>2</v>
       </c>
       <c r="AY101">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA101">
         <v>4</v>
@@ -22329,10 +22332,10 @@
         <v>8</v>
       </c>
       <c r="AY102">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ102">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA102">
         <v>2</v>
@@ -22535,10 +22538,10 @@
         <v>4</v>
       </c>
       <c r="AY103">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ103">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA103">
         <v>5</v>
@@ -22741,10 +22744,10 @@
         <v>4</v>
       </c>
       <c r="AY104">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ104">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA104">
         <v>1</v>
@@ -22947,10 +22950,10 @@
         <v>5</v>
       </c>
       <c r="AY105">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ105">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA105">
         <v>10</v>
@@ -23126,7 +23129,7 @@
         <v>2.4</v>
       </c>
       <c r="AP106">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ106">
         <v>1.92</v>
@@ -23153,10 +23156,10 @@
         <v>7</v>
       </c>
       <c r="AY106">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ106">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA106">
         <v>3</v>
@@ -23359,10 +23362,10 @@
         <v>5</v>
       </c>
       <c r="AY107">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ107">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA107">
         <v>5</v>
@@ -23565,10 +23568,10 @@
         <v>5</v>
       </c>
       <c r="AY108">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ108">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA108">
         <v>3</v>
@@ -23771,10 +23774,10 @@
         <v>10</v>
       </c>
       <c r="AY109">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ109">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="BA109">
         <v>6</v>
@@ -23977,10 +23980,10 @@
         <v>5</v>
       </c>
       <c r="AY110">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ110">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA110">
         <v>2</v>
@@ -24183,10 +24186,10 @@
         <v>3</v>
       </c>
       <c r="AY111">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ111">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA111">
         <v>7</v>
@@ -24389,10 +24392,10 @@
         <v>7</v>
       </c>
       <c r="AY112">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ112">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="BA112">
         <v>6</v>
@@ -24595,10 +24598,10 @@
         <v>1</v>
       </c>
       <c r="AY113">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ113">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA113">
         <v>6</v>
@@ -24801,10 +24804,10 @@
         <v>8</v>
       </c>
       <c r="AY114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ114">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA114">
         <v>0</v>
@@ -25007,10 +25010,10 @@
         <v>4</v>
       </c>
       <c r="AY115">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ115">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA115">
         <v>4</v>
@@ -25216,7 +25219,7 @@
         <v>8</v>
       </c>
       <c r="AZ116">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BA116">
         <v>5</v>
@@ -25419,10 +25422,10 @@
         <v>4</v>
       </c>
       <c r="AY117">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ117">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA117">
         <v>6</v>
@@ -25625,10 +25628,10 @@
         <v>4</v>
       </c>
       <c r="AY118">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ118">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA118">
         <v>6</v>
@@ -25831,10 +25834,10 @@
         <v>5</v>
       </c>
       <c r="AY119">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ119">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA119">
         <v>4</v>
@@ -26010,7 +26013,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
         <v>0.58</v>
@@ -26040,7 +26043,7 @@
         <v>9</v>
       </c>
       <c r="AZ120">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA120">
         <v>4</v>
@@ -26243,10 +26246,10 @@
         <v>5</v>
       </c>
       <c r="AY121">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ121">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA121">
         <v>4</v>
@@ -26449,10 +26452,10 @@
         <v>5</v>
       </c>
       <c r="AY122">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ122">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA122">
         <v>7</v>
@@ -26655,7 +26658,7 @@
         <v>13</v>
       </c>
       <c r="AY123">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ123">
         <v>16</v>
@@ -26834,7 +26837,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ124">
         <v>0.92</v>
@@ -26861,10 +26864,10 @@
         <v>3</v>
       </c>
       <c r="AY124">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ124">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA124">
         <v>6</v>
@@ -27067,10 +27070,10 @@
         <v>8</v>
       </c>
       <c r="AY125">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ125">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA125">
         <v>10</v>
@@ -27249,7 +27252,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ126">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR126">
         <v>2.24</v>
@@ -27273,10 +27276,10 @@
         <v>4</v>
       </c>
       <c r="AY126">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ126">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA126">
         <v>8</v>
@@ -27479,10 +27482,10 @@
         <v>6</v>
       </c>
       <c r="AY127">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ127">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA127">
         <v>4</v>
@@ -27685,10 +27688,10 @@
         <v>2</v>
       </c>
       <c r="AY128">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ128">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA128">
         <v>7</v>
@@ -27891,10 +27894,10 @@
         <v>5</v>
       </c>
       <c r="AY129">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ129">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="BA129">
         <v>3</v>
@@ -28097,7 +28100,7 @@
         <v>0</v>
       </c>
       <c r="AY130">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ130">
         <v>6</v>
@@ -28303,10 +28306,10 @@
         <v>3</v>
       </c>
       <c r="AY131">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ131">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA131">
         <v>6</v>
@@ -28509,10 +28512,10 @@
         <v>5</v>
       </c>
       <c r="AY132">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ132">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA132">
         <v>1</v>
@@ -28715,10 +28718,10 @@
         <v>5</v>
       </c>
       <c r="AY133">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ133">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA133">
         <v>10</v>
@@ -28921,10 +28924,10 @@
         <v>2</v>
       </c>
       <c r="AY134">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ134">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA134">
         <v>5</v>
@@ -29103,7 +29106,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ135">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR135">
         <v>1.28</v>
@@ -29127,10 +29130,10 @@
         <v>5</v>
       </c>
       <c r="AY135">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ135">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA135">
         <v>6</v>
@@ -29333,10 +29336,10 @@
         <v>6</v>
       </c>
       <c r="AY136">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ136">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA136">
         <v>4</v>
@@ -29539,10 +29542,10 @@
         <v>8</v>
       </c>
       <c r="AY137">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ137">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA137">
         <v>6</v>
@@ -29745,10 +29748,10 @@
         <v>10</v>
       </c>
       <c r="AY138">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ138">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="BA138">
         <v>1</v>
@@ -29924,7 +29927,7 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ139">
         <v>0.67</v>
@@ -29951,10 +29954,10 @@
         <v>2</v>
       </c>
       <c r="AY139">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ139">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA139">
         <v>6</v>
@@ -30157,10 +30160,10 @@
         <v>6</v>
       </c>
       <c r="AY140">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ140">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA140">
         <v>8</v>
@@ -30363,10 +30366,10 @@
         <v>6</v>
       </c>
       <c r="AY141">
+        <v>20</v>
+      </c>
+      <c r="AZ141">
         <v>13</v>
-      </c>
-      <c r="AZ141">
-        <v>11</v>
       </c>
       <c r="BA141">
         <v>6</v>
@@ -30569,10 +30572,10 @@
         <v>6</v>
       </c>
       <c r="AY142">
+        <v>15</v>
+      </c>
+      <c r="AZ142">
         <v>11</v>
-      </c>
-      <c r="AZ142">
-        <v>9</v>
       </c>
       <c r="BA142">
         <v>6</v>
@@ -30775,10 +30778,10 @@
         <v>3</v>
       </c>
       <c r="AY143">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ143">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA143">
         <v>6</v>
@@ -30981,10 +30984,10 @@
         <v>6</v>
       </c>
       <c r="AY144">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ144">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA144">
         <v>9</v>
@@ -31163,7 +31166,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ145">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR145">
         <v>1.25</v>
@@ -31187,10 +31190,10 @@
         <v>4</v>
       </c>
       <c r="AY145">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ145">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA145">
         <v>6</v>
@@ -31393,7 +31396,7 @@
         <v>6</v>
       </c>
       <c r="AY146">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ146">
         <v>11</v>
@@ -31599,10 +31602,10 @@
         <v>7</v>
       </c>
       <c r="AY147">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ147">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA147">
         <v>4</v>
@@ -31805,10 +31808,10 @@
         <v>3</v>
       </c>
       <c r="AY148">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ148">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA148">
         <v>4</v>
@@ -32014,7 +32017,7 @@
         <v>3</v>
       </c>
       <c r="AZ149">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA149">
         <v>0</v>
@@ -32217,10 +32220,10 @@
         <v>3</v>
       </c>
       <c r="AY150">
+        <v>13</v>
+      </c>
+      <c r="AZ150">
         <v>8</v>
-      </c>
-      <c r="AZ150">
-        <v>6</v>
       </c>
       <c r="BA150">
         <v>8</v>
@@ -32423,10 +32426,10 @@
         <v>1</v>
       </c>
       <c r="AY151">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ151">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA151">
         <v>8</v>
@@ -32629,10 +32632,10 @@
         <v>5</v>
       </c>
       <c r="AY152">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ152">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA152">
         <v>4</v>
@@ -32835,10 +32838,10 @@
         <v>5</v>
       </c>
       <c r="AY153">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ153">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA153">
         <v>3</v>
@@ -33041,10 +33044,10 @@
         <v>3</v>
       </c>
       <c r="AY154">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ154">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA154">
         <v>11</v>
@@ -33247,10 +33250,10 @@
         <v>6</v>
       </c>
       <c r="AY155">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ155">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA155">
         <v>6</v>
@@ -33453,10 +33456,10 @@
         <v>2</v>
       </c>
       <c r="AY156">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ156">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA156">
         <v>5</v>
@@ -33659,10 +33662,10 @@
         <v>5</v>
       </c>
       <c r="AY157">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ157">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA157">
         <v>9</v>
@@ -33838,7 +33841,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ158">
         <v>1.08</v>
@@ -33865,10 +338